--- a/Game simulations/Week 16/Browns at Packers.xlsx
+++ b/Game simulations/Week 16/Browns at Packers.xlsx
@@ -57,16 +57,16 @@
     <t>PackersAvg. FPTS</t>
   </si>
   <si>
-    <t>F(26963.675727657872, 9043.289984039962, -718.691083878758, 717.2537490288269)</t>
-  </si>
-  <si>
-    <t>-11 14 -25 19 -13 -27 9 16 -1 3 -3 -3 -3 14 28 6 -6 5 7 5 6 4 4 6 -17 -7 26 18 -13 -4 -10 3 -3 -7 7 -4 -10 -20 -3 -4 -9 -7 -6 -25 -13 7 -6 9 -10 -24 5 -5 -13 -18 -21 28 18 5 10 10 -3 4 3 -15 6 18 4 -7 -17 2 9 -11 7 16 -19 -7 -8 11 6 31 3 -10 -12 -13 -3 17 8 14 4 -13 -20 -18 3 -3 -5 18 -24 4 -19 -7 -7 -6 -12 3 -14 -21 -9 -13 3 15 -10 -3 -6 -3 0 27 -13 11 14 1 -3 -14 28 -7 16 6 3 -3 -4 -6 4 -13 3 -9 -15 -13 -15 -1 -6 6 -6 -22 4 -25 5 -11 20 -14 10 -4 5 -6 -3 -24 2 -5 -4 21 10 -11 -25 3 20 -4 -6 3 -3 -6 8 -15 28 2 -17 17 -25 -6 -24 -4 0 14 22 -8 -6 -7 -21 2 -6 -3 6 -3 -2 3 -9 7 15 7 24 20 8 -5 -14 -14 -24 10 -3 10 -7 -7 -3 -10 -3 -8 18 -17 6 -9 -2 -7 10 0 -26 7 25 7 -3 -15 7 -24 -31 14 -8 -3 -18 0 3 -7 7 -4 17 -7 -1 -20 4 1 -17 11 -7 -2 -16 17 -10 7 -6 4 1 6 -21 5 -4 -7 3 0 -6 6 -1 -15 3 9 -6 1 -12 9 -3 -10 -1 -31 -6 7 -6 -13 9 -10 10 -25 -20 -13 -4 12 -19 -17 -3 -7 -7 1 -17 3 6 18 3 11 -7 -7 22 6 10 -3 -6 -1 27 6 7 -20 18 8 17 -10 -12 -15 13 19 5 -5 -14 -5 -3 16 -6 6 3 5 18 -6 -3 6 8 24 -3 -25 7 1 -4 -3 -13 6 -3 10 8 -13 7 -16 3 -7 23 -14 10 -3 -1 5 -10 -6 1 -18 -24 7 0 1 14 22 14 -11 15 -40 -2 17 -3 -6 -8 -11 -21 14 -11 -3 -3 -30 -5 -13 -21 -13 -10 -26 -3 -3 17 -4 -3 -20 1 -2 -5 -12 -1 18 3 -17 9 -1 -14 9 -6 6 9 4 -8 -7 3 -34 -9 -16 -17 -12 -6 3 -8 0 -1 -4 -18 -29 -2 3 -8 -4 -32 13 -8 6 -32 -5 -7 -5 2 -13 -11 -7 -1 -23 21 -8 -3 -21 -13 -18 -3 -6 -5 -10 13 3 3 4 0 10 21 21 -6 3 14 25 -6 -3 -1 -7 -4 7 10 2 28 -25 17 -3 12 -11 13 3 -11 -4 -16 -4 -6 -9 11 24 -10 17 2 8 -11 6 -17 3 7 -2 -18 -15 -9 11 10 -6 -1 19 -21 -9 -12 -11 -11 -10 10 22 -28 -10 10 -7 -10 3 -16 2 -24 -20 29 3 -7 -9 -4 -20 -19 -6 -6 10 -14 -21 -3 -10 -10 -7 -1 -3 3 -22 3 -7 5 -8 1 -18 -6 10 -9 -4 -13 -12 20 10 4 -14 -7 2 1 3 -4 11 13 43 -17 -16 -11 1 8 17 -3 -8 -10 -27 3 7 -8 -20 -14 -4 -11 -1 0 -8 -6 -8 -15 -10 7 4 7 2 -4 -17 13 20 -9 14 17 20 -3 3 -18 14 5 7 -20 15 -18 22 -14 -6 -8 -4 -26 -17 -28 7 3 9 3 -1 8 8 -5 10 30 -15 3 6 21 -10 -2 4 27 5 -2 9 -6 12 -20 -24 -8 10 -7 -1 -3 6 -16 14 21 -7 -13 -23 -7 -16 3 -8 4 8 -6 3 25 17 -10 -24 -14 -6 -27 16 -1 3 6 -18 7 -3 -4 5 -3 -17 -27 -12 15 -6 -7 -3 -6 -24 -3 -21 -20 3 -7 1 7 8 4 -4 11 -16 -6 -6 35 -15 7 0 5 -31 -2 3 34 -13 10 -23 -3 11 -21 17 25 -10 3 -5 15 -3 7 3 -10 -2 -7 -14 -2 11 5 -17 -4 -6 20 16 -5 -4 10 -5 1 -9 -15 5 -14 14 -13 -11 3 27 -16 3 -13 21 -8 -19 -22 -4 2 8 4 -11 -5 14 17 -2 14 27 7 -8 -3 -7 -6 -20 -10 -3 9 -7 10 -11 7 6 -12 4 -13 -6 6 -11 -19 -10 13 -16 -7 -7 -7 11 1 -1 -7 2 -3 -11 -10 -7 3 7 5 -5 7 27 -5 -4 7 7 3 -10 -8 -14 3 3 -17 5 -20 -11 -6 14 8 3 11 -14 5 -3 -7 -20 1 -6 -10 -1 -12 12 -9 -3 2 -16 14 7 -18 -20 11 -18 -21 3 9 -7 -25 -19 -27 14 -27 16 -10 9 -1 3 -6 -3 3 -11 24 -3 3 15 -10 -2 14 -4 -12 17 8 -17 13 -5 16 7 -3 -3 7 24 -21 7 8 14 3 20 12 29 -16 4 -10 10 11 -15 7 12 -7 -6 -10 -7 -1 7 -46 3 3 3 6 -10 -23 21 3 -6 5 -8 -11 8 10 11 12 -17 -6 7 -8 -14 30 4 5 -3 -6 7 17 -10 7 6 8 14 2 -28 -11 -10 -25 -4 -19 -3 9 12 -28 -18 4 -1 10 2 4 -5 -13 -3 20 3 12 -18 10 -3 -32 10 10 10 -8 -5 4 -14 11 10 -3 17 -19 19 -1 0 10 -9 -8 -4 -3 -8 -8 10 -7 -11 -3 10 11 -8 -25 -6 -6 -3 3 -12 3 9 9 13 -3 3 18 -10 -10 -5 -12 7 -5 4 3 3 14 14 3 17 -8 17 -8 -24 -14 13 -8 -6 -2 -3 11 -14 6 7 13 -9 -9 -24 8 -10 3 -3 -4 11 5 -7 -3 -1 -5 -18 -9 5 5 -9 -4 17 -21 -6 13 6 -1 28 3 -5 -3 6 7 9 -20 16 -3 -3 -8 -7 2 -25 1 -21 -11 1 7 -17 -23 -25 15 15 9 7 -25 -3 7 10 10 5 -2 -8 6 -4 -11 -14 7 10 5 1 -9 -10 24 6 7 -6 -7 -7 3 22 -1 6 -13 -1 -1 10 -15 5 -1 3 -6 -17 -6 2 13 -7 -8 -3 7 -13 -11 -6 -14 -11 6 -11 49 7 -7 13 -20 2 -11 12 17 7 -10 7 -5 -3 23 -6 -11 3 -7 -3 25 27 8 25 14 2 -10 7 17 -18 -4 13 -3 -2 5 3 13 -21 7 -9 3 5 -5 -24 4 3 1 -2 7 3 14 10 6 4 15 3 -6 -7 -15 4 -6 19 1 6 -4 4 -8 20 7 -4 -14 -3 -28 23 -11 -7 3 -21 3 -3 -22 14 -3 2 -21 -5 -10 -1 -15 -6 7 2 -16 -1 8 14 14 -3 -4 7 2 10 17 -4 -2 -4 -3 7 -6 17 -6 18 -6 -12 6 -21 -5 -3 -11 -24 -6 -6 -4 9 -17 -32 14 -7 -7 -17 -21 -17 -29 -18 6 -7 -14 10 -8 4 -8 -7 -3 -6 -2 3 -11 -23 -8 -6 -21 1 3 -7 -3 17 13 8 -22 -5 -14 -5 -37 -6 -7 -7 -5 -3 10 -3 -3 4 1 4 11 10 -3 -8 -2 -4 3 -23 2 -11 6 2 17 6 -7 3 7 -8 1 -3 21 25 0 -11 6 -4 -16 -5 -3 -24 17 18 6 6 2 -1 -13 -14 -18 -2 -6 -33 5 -9 28 -14 23 12 14 -7 -2 6 -4 3 -17 7 8 -3 -14 -12 1 14 -10 11 -3 9 13 38 -11 -21 -5 -13 13 6 -10 9 10 -18 5 -6 8 18 14 7 -3 4 7 14 -7 -11 2 -3 -24 -4 -10 3 25 20 -2 2 23 14 -15 -6 -3 1 -14 -13 12 -9 10 26 -5 5 3 14 -19 -3 16 -3 1 6 12 -4 3 -4 -12 -8 -6 -2 -11 9 -17 -4 30 -2 -6 -24 -4 -32 -31 -18 -15 4 11 -12 -5 -2 14 6 -7 -17 8 -19 -15 -7 -1 6 -7 -13 -2 -1 -24 14 -4 -4 5 0 -3 13 7 -10 -4 45 -8 -15 6 6 3 1 6 -14 5 -3 -2 -3 -2 -20 -1 -6 -3 22 -3 20 2 -3 -8 39 3 -7 -31 -7 1 7 -6 -14 -5 -7 -14 -7 6 -7 -10 -11 -18 7 -17 7 -13 7 7 6 -9 -6 -11 -10 -20 8 6 3 7 -6 9 22 3 -20 28 16 -6 -8 -10 -6 -2 -27 3 13 11 -11 7 -23 4 -9 6 -6 -10 8 11 -8 10 -6 -3 -9 15 24 8 3 -14 -15 -3 5 -24 14 4 -3 13 10 1 6 -4 -7 -14 7 3 2 1 -17 9 -4 -3 -20 -15 16 8 -7 1 -4 -3 -3 14 -1 23 -7 -2 -10 -31 -6 -2 24 3 -4 -18 -3 -13 0 7 -14 -4 -14 -9 10 -9 0 -18 17 25 -1 -1 21 14 7 -14 -2 -14 -37 -4 -3 -24 -18 3 -7 4 8 -3 2 -10 -32 -6 22 3 -8 -16 -16 -9 25 -3 10 3 -3 -5 -6 -9 11 4 -4 -6 6 -24 18 24 -4 -3 3 -14 -28 7 6 -5 -3 -3 18 3 -7 14 -9 5 -6 -3 20 -3 -6 -3 -3 5 -19 -3 2 -10 3 7 -10 4 -9 -20 17 11 -9 3 -6 20 3 -13 -10 -10 15 0 3 -10 -3 -4 5 3 16 -3 7 -7 -12 8 -10 -21 5 7 -22 -19 20 6 3 -10 -3 2 8 6 -13 -3 -3 7 -8 -3 -3 -21 -3 -8 2 -3 -14 5 -13 -15 -5 17 14 -3 12 3 7 -12 -22 7 -9 21 5 6 -12 -11 -5 -49 5 24 -4 8 -7 -1 -17 6 6 -27 -13 -16 -2 17 6 -4 -3 11 -3 -3 -27 7 -3 -2 4 20 18 0 -17 -3 -21 5 -3 -13 6 4 6 -25 -6 -10 7 -2 7 -24 0 23 13 3 -10 17 2 -2 -4 -21 0 -20 20 8 -8 3 7 6 -7 -9 20 -3 -9 -4 -31 -6 3 3 17 -36 -21 -4 -16 -10 -9 -4 13 -3 -6 -11 -21 6 -8 -6 4 -8 -19 2 21 3 14 -10 9 -2 -7 6 7 -12 2 20 1 3 13 11 -10 -2 -4 -4 -10 -26 19 -5 3 9 -14 -3 13 7 9 9 28 -9 0 -11 9 3 -27 -12 35 4 6 3 0 25 -11 11 14 -30 6 12 20 -21 -28 -10 -3 -25 19 -3 -14 -4 -7 3 3 5 4 -6 4 -4 3 -7 3 -11 16 -1 3 2 17 -21 9 -2 -10 -24 -10 10 -3 18 -2 -14 -11 6 -25 31 -1 4 -1 -7 -11 13 14 18 2 -22 -3 3 -10 6 -10 7 -19 3 -6 -10 25 23 11 -13 -7 3 17 3 -5 5 -1 -3 -6 -3 -2 6 -17 -24 -3 8 -3 -4 17 -7 3 21 -7 -15 3 -17 -24 -14 4 -2 -22 1 -1 -3 4 -10 8 3 -20 -21 13 13 -15 -7 6 -7 28 -25 6 20 -3 13 -3 -6 -20 9 -7 12 7 -5 8 -11 3 2 5 6 -3 3 -5 7 -6 12 3 -6 -6 14 -10 7 -23 -2 13 5 7 -14 -10 -18 3 -18 21 -21 -10 10 6 -8 -14 17 14 10 -10 9 15 7 -16 14 -4 -4 6 7 -7 14 -1 -6 10 38 -3 -10 -6 -9 17 11 1 -3 -5 3 -21 4 -7 -6 7 -19 -7 -6 14 13 -11 -10 7 18 -1 8 -11 8 3 3 1 26 -5 -13 1 2 2 -7 -14 -3 -23 -3 -7 -3 -13 -10 -7 -7 -18 14 21 11 5 -11 -6 -14 -7 -19 -17 7 10 -7 -6 -8 -1 -4 -11 11 -11 -3 7 -4 6 -3 -10 -6 18 3 27 4 -15 0 25 9 -11 -7 -6 6 -10 -16 -1 -4 -3 9 6 7 -19 -5 -16 -3 17 4 -3 3 -6 -10 13 -13 -3 -4 3 -7 -7 6 -3 14 -6 -10 10 6 -3 -5 -3 -10 -33 -7 12 18 -2 -12 -1 4 3 -24 4 14 -4 -7 -8 -23 -35 5 -4 3 -6 7 2 24 18 -11 18 -10 11 -20 -2 18 -25 34 -7 22 -14 6 -7 -18 -5 -6 -17 4 13 14 3 13 -5 6 1 10 13 1 12 -3 -5 -7 -11 -14 5 -3 7 -32 6 -8 2 2 10 0 -9 -22 18 -24 -8 7 -14 14 6 1 -10 -14 6 -7 3 14 -21 -10 19 -17 -5 -4 3 -15 13 8 2 -7 28 9 -1 4 7 5 -20 -13 29 -5 17 -7 -7 -4 -4 7 6 7 -1 -7 -13 21 7 -24 4 -7 -6 -17 7 3 -4 3 0 2 -9 20 12 17 -15 -6 -4 -10 4 -16 -7 3 -19 6 -10 15 1 7 -3 -17 6 -10 -6 -15 8 4 0 14 -21 -10 -3 18 14 -20 -3 -3 -6 18 6 42 -7 14 -4 -4 4 -10 -3 -6 -21 3 -3 6 -1 -7 -17 17 -3 2 6 -4 -3 24 11 22 4 -16 11 -10 -13 -5 -6 -3 -14 4 3 17 3 -7 -14 -13 17 -21 3 4 -12 -5 -17 -9 -22 -10 -7 -1 -2 19 10 -7 -17 -10 -2 -17 -3 11 7 9 -15 -11 4 3 -14 14 -12 12 3 -7 -21 -28 -3 3 -19 -11 1 11 3 11 -11 27 -4 3 -7 -5 14 -29 -3 6 1 15 7 4 -2 18 -14 11 11 -11 -6 -10 -7 15 5 -7 13 -5 14 -7 -3 -6 -18 3 -6 3 11 15 -6 -13 4 15 24 11 -6 15 2 -6 -12 3 3 -11 5 -24 13 26 -2 -3 -9 4 18 -4 12 6 6 -7 -5 18 -3 3 -2 -22 -3 -12 -2 -14 11 27 -22 -23 8 -7 9 14 0 21 -8 7 10 4 11 -42 11 -4 -25 3 1 3 -6 -18 27 -6 18 -21 13 2 20 8 -14 -4 3 -8 -3 4 -5 -6 8 21 -25 -7 18 1 17 -13 1 15 9 -9 -3 2 3 14 6 -22 17 -5 -7 -6 4 -6 -3 -7 -17 -3 -8 6 -28 14 -13 3 -21 11 -7 6 12 7 -4 -9 14 -6 3 -8 5 -5 6 -5 -8 13 -11 -11 10 -7 8 -11 -8 -5 4 24 3 -6 3 -5 -9 3 7 18 -9 1 -3 25 -12 11 14 -30 -3 7 7 -15 -1 17 21 -7 14 4 -8 1 14 10 28 -5 13 3 -3 5 -1 -5 -15 -3 0 8 18 -29 3 -7 -9 -3 -14 -6 -8 -14 6 4 21 14 -4 13 16 14 -1 8 -5 -9 9 19 -18 21 -9 7 8 6 -3 -10 -5 7 -3 -7 -14 -10 -13 -4 -25 0 -17 7 14 -7 -3 5 -37 8 -11 -17 -7 16 -3 3 -14 -15 -19 -8 -25 3 8 -12 -4 3 18 28 -18 -8 -17 6 6 18 10 6 -3 -11 10 -21 10 -7 15 17 -4 2 10 20 6 12 27 12 -11 -27 -4 2 7 5 7 -6 -1 18 -16 -17 7 -17 6 -3 -4 -23 -6 -9 0 -4 -3 8 -6 17 -6 -10 -6 -7 7 12 6 7 -17 -4 3 12 -4 5 -17 -6 -4 7 11 8 -6 7 -6 -17 -5 17 3 10 27 11 -3 19 -10 20 -20 -27 -3 -7 -9 11 -3 -7 -3 -2 14 8 -3 17 10 -2 4 -8 3 1 3 8 8 -12 -3 2 2 -17 -4 3 -4 -14 5 17 -1 -4 9 -3 17 2 3 -29 14 -12 -1 -3 -16 -17 -17 -2 -4 -8 -6 -17 16 -3 -9 -15 11 -17 -24 -6 1 6 2 -9 -9 -3 -4 11 -6 4 6 -4 -17 -17 -5 -23 -10 -21 -8 -24 14 21 7 -14 5 3 13 -15 9 3 -3 3 -3 8 -3 -16 -9 -6 4 15 6 -7 1 -8 7 6 -6 7 -10 -9 10 14 -17 6 8 3 7 -4 -2 -3 -11 9 -21 -19 7 5 -4 5 -9 -3 -6 8 -18 -7 14 -17 -31 14 -17 22 3 -6 7 18 14 13 -6 -3 -7 -10 -22 -4 21 12 0 -33 14 -8 8 -8 -4 8 -7 8 -21 4 -20 -14 17 -19 3 3 4 -7 -41 3 -11 -2 -5 -10 14 6 -4 -11 -24 -7 -14 14 -1 13 7 -6 -4 8 13 -29 21 -4 3 3 11 -16 -7 5 3 -17 8 -6 5 -5 -6 10 -15 -7 -17 -2 7 -1 11 -8 21 0 7 -3 6 3 -11 9 -13 -8 16 -8 10 -19 7 -21 14 -5 3 -5 6 -10 -13 13 -20 7 23 1 5 2 -3 4 -3 -11 -26 -10 3 7 2 -7 -3 -3 -5 24 -3 -17 4 8 -3 -3 -14 28 -4 -3 11 17 -6 -3 -18 -2 -6 2 -20 -16 -5 3 -8 8 -4 6 11 -4 -4 -6 5 -14 -3 -14 14 8 11 -10 6 -6 1 7 13 -10 10 6 -4 17 7 -27 -20 3 -23 3 14 6 6 -3 -10 -4 5 -7 17 -26 -6 -19 -4 -6 3 -7 12 -5 3 -8 -6 -2 3 -1 -5 13 28 6 6 -21 3 36 14 -7 -13 -3 14 6 -6 -17 -3 -3 2 14 2 -4 -8 -8 -4 6 9 3 -7 -6 12 -6 -3 8 -38 -3 3 -4 18 7 -14 -6 -6 -19 6 0 0 17 -2 -1 -7 2 6 4 16 -8 -4 -31 6 5 -3 6 11 14 7 -10 -3 3 3 22 1 5 -16 24 40 8 6 -10 6 -14 19 14 -3 -2 -11 6 10 7 -11 7 -4 20 -4 3 -21 -16 26 20 14 -5 7 6 12 21 1 7 -16 -20 7 7 9 -3 -14 4 -1 -26 3 -4 -17 -17 4 -4 -17 -10 25 -3 -21 19 -11 17 14 1 -8 25 -6 6 8 -3 -14 1 -7 5 5 -14 3 22 14 -6 10 27 3 -3 -23 -2 13 -17 5 -3 -10 10 -12 -1 2 1 4 -2 -5 14 -4 10 -13 -10 18 -11 3 -15 7 17 -9 8 -7 2 6 11 -3 -3 5 -12 -10 -3 -10 -3 -5 -9 -4 -22 -1 6 -3 -3 -13 17 -3 -6 32 6 -16 -1 -10 6 3 -4 4 -14 -15 -9 16 18 8 -3 -11 -7 -31 3 -6 -16 16 -4 -16 10 7 -9 17 -6 -22 -13 20 -7 -6 7 4 -21 22 -9 -8 -9 -10 4 3 2 -3 -19 11 -18 -22 -4 22 -6 -12 14 4 7 1 -4 -7 3 -7 13 19 6 -14 3 14 -3 -9 7 -7 -11 -6 18 -9 -11 -1 -7 41 -3 -6 -8 -6 -3 -11 19 14 -4 -8 -7 -10 3 5 6 -16 -8 -41 -19 6 -6 4 -19 7 11 -3 6 -21 -7 -9 -3 6 2 -11 -9 3 6 -4 3 30 -3 19 -10 -15 4 22 9 -3 -13 1 -28 6 -1 3 3 -6 -2 -15 -19 -3 3 -3 -13 3 -6 -7 -31 -18 -3 -6 -3 -7 -3 -10 -32 6 3 -8 -11 3 -21 -24 -11 2 3 12 -4 10 21 -7 -7 5 19 13 -31 11 20 -14 0 -4 -1 5 8 -18 -9 -16 13 6 7 -3 -13 14 -17 -11 3 4 5 -15 4 -30 -4 -17 -3 -5 -6 -3 -2 -3 -21 -6 11 -4 1 -10 10 -14 -11 10 -11 15 1 4 10 -20 -3 -3 3 -7 -22 -7 3 -7 31 7 -5 7 -16 3 -14 12 4 -5 -3 27 3 -7 -12 -16 -16 17 11 -5 -22 -16 -17 2 17 -3 -17 -6 -3 -22 -7 -20 7 24 17 -28 13 -10 -2 -18 -12 -4 3 13 -12 3 -6 22 14 -3 6 -11 18 9 30 -4 -3 6 -11 -2 1 -9 -6 -10 -17 21 -23 14 -1 12 13 -2 3 -17 -19 8 3 -2 -6 4 3 -9 3 13 0 3 3 3 11 14 -5 -6 3 3 -6 8 6 -6 -5 -17 11 -11 -3 -14 3 -27 -24 -4 -17 -3 -3 -39 -4 -14 -1 -10 -17 18 7 3 21 -20 7 -20 7 -11 -11 6 -6 16 13 -3 -26 -4 1 -8 -4 10 3 18 -20 -9 -3 9 16 6 1 -5 3 6 7 6 -2 26 -2 -13 3 -3 -12 -11 -11 -17 -8 -8 13 21 -19 5 -6 -2 3 17 4 -6 -7 -13 7 11 4 16 -6 15 3 -17 -8 -14 10 -28 -5 6 7 -10 -26 -1 14 -21 -1 5 -7 -3 6 -4 14 2 -14 -1 -20 17 21 -19 11 -16 3 7 -17 3 8 10 0 -15 -17 5 5 -3 4 2 14 3 -2 5 -21 -5 2 -7 7 4 -11 -10 -12 3 4 -10 7 27 -7 -6 -32 26 -18 4 -3 7 -6 5 19 -24 3 7 -7 3 6 -3 7 -3 -13 -3 1 4 7 -11 -14 -15 17 -8 11 -7 5 8 6 -14 17 13 4 5 17 -3 3 -10 10 -1 25 -8 3 12 -15 18 1 5 3 -7 14 -12 -16 -14 5 17 5 14 2 0 -12 1 4 18 17 -7 -3 9 10 -3 -3 -4 -15 -6 3 27 19 -7 -2 -1 7 -1 -3 8 -11 1 -5 10 -6 14 9 -17 -1 -13 -3 -5 -5 3 -18 -7 3 35 -2 -22 -3 -6 -10 -8 3 14 16 -8 5 -17 3 35 17 25 -10 -17 -14 -18 -11 -1 -2 3 -2 -32 22 -3 1 6 -5 4 9 -3 -7 -13 -1 -6 -17 27 15 8 8 -5 -3 -3 1 -11 -3 -14 -6 -3 -12 -6 -5 10 4 7 -3 19 8 3 -6 6 -10 -6 15 10 -5 -20 24 -14 6 16 7 3 2 6 -11 6 8 0 10 7 3 3 -21 -3 13 9 -18 -2 4 -10 -14 4 8 -25 -14 -10 -10 -24 -13 -13 2 7 3 -14 -20 -7 -8 -10 3 -3 6 3 -3 -14 -1 6 14 -3 14 -15 -1 -8 -6 -6 17 -7 -8 7 4 -3 -4 3 8 3 -12 -9 -13 1 7 7 -21 -21 15 -2 -24 6 -34 6 3 -11 -6 -9 1 11 -3 9 2 2 38 34 6 -23 20 -20 -3 7 15 -15 7 14 7 -30 -15 -8 13 21 17 -8 14 11 -3 4 0 -10 -3 1 6 -5 1 4 -6 -18 -2 6 44 10 -21 9 7 6 9 9 2 -17 3 16 6 -6 -3 -3 -6 -12 -27 10 3 -7 14 -14 18 -6 11 14 -14 -17 2 3 -6 4 2 14 6 14 6 11 -14 -16 1 -20 -4 11 -3 -2 -1 3 -7 35 7 23 -9 0 -4 -17 14 3 23 -3 -11 -35 17 3 14 0 9 -1 -23 -11 -4 -8 3 4 0 24 -21 -15 -9 15 -3 3 14 16 3 3 -14 7 2 11 -3 -14 -8 20 7 17 -7 -10 14 -20 1 -18 -8 -15 -12 24 -8 16 6 -9 -6 -1 -14 20 -14 25 -27 -29 5 21 17 -8 6 4 20 6 15 14 -33 10 -3 -4 -7 7 -17 -10 -7 -6 6 -12 -18 -7 -3 -27 10 11 -14 14 13 -15 -6 -6 -1 -7 -11 -6 2 11 13 -9 -10 3 2 15 6 7 1 3 -6 7 3 7 30 -13 -17 -7 -7 14 -2 25 -5 -8 10 -11 3 7 -32 12 33 -19 3 -17 4 11 -3 6 -5 -7 -20 3 -15 -7 14 -20 -22 -4 10 17 -10 23 4 -3 -6 -5 8 -10 -15 -23 -3 4 3 -19 14 -5 8 3 -8 -12 -28 -20 -19 -24 -1 -22 27 -3 -14 -37 -9 0 -20 -5 3 -7 -4 5 -10 -16 11 10 6 14 -3 4 18 7 -17 30 -2 6 -8 -16 -5 13 -16 3 -13 0 3 -3 14 13 10 19 -19 -8 -4 -1 6 -15 3 13 -10 -26 -3 -10 16 -14 -14 -2 -4 5 -14 -3 24 -13 -3 -5 -7 -7 19 3 3 14 12 15 3 -13 -12 6 -3 6 7 14 -27 -11 -7 -13 0 -6 -1 -6 -3 -2 -14 -4 -5 10 -3 -10 -3 -35 -11 -4 10 -10 -7 -27 -7 3 7 -14 -5 5 20 -6 -4 -6 -21 -3 7 21 -29 1 4 3 -11 -22 -7 -14 6 -7 7 13 10 -31 -13 18 2 -18 7 -2 5 -1 7 -16 -25 -6 14 -12 -8 7 0 -11 6 -10 4 -6 16 -3 2 -8 -8 -14 5 3 -1 -14 15 -8 -10 -17 6 -3 -4 4 8 8 7 -19 4 22 2 11 -7 -25 8 -17 -4 -3 -15 -1 14 7 25 5 9 -10 -16 11 -17 14 -3 10 -6 -13 -6 -1 -5 -3 -7 12 4 -4 7 -3 -6 2 -3 -24 15 7 17 -2 -19 0 -14 -3 -21 3 8 -6 2 7 15 7 -21 8 3 19 7 -7 7 9 -26 8 -1 17 14 17 -5 -5 4 8 -10 13 -6 -13 -7 -9 15 24 -3 3 -5 18 8 7 -4 10 -7 11 8 8 7 12 14 -6 9 -26 -29 -16 -3 3 -16 -3 3 -2 -3 3 7 -13 17 3 15 -32 9 -3 -24 2 -2 -5 -25 16 -20 -4 -22 -18 0 13 -2 21 -6 17 13 7 -3 -7 -11 7 4 -2 -9 11 -6 -17 -5 1 18 -20 -5 7 -18 -22 3 -15 -3 -17 -7 -24 3 -3 -9 3 14 3 5 -15 -1 10 -6 -6 -5 -4 -5 11 20 6 -18 4 16 -2 3 3 2 -15 4 12 -3 -21 -14 -14 -5 -4 6 -27 -11 16 -7 -2 -7 -15 -21 -4 3 9 -6 -3 3 -5 -14 6 -12 -24 -3 -10 -6 -7 -14 17 6 -2 1 -8 3 -8 3 11 1 -8 -3 -12 14 1 14 7 -9 -10 4 -14 4 -6 2 12 -7 -7 -7 3 3 3 2 1 -3 -3 -3 14 14 -5 -4 -11 7 14 6 -3 -25 -7 2 3 -10 23 15 -12 7 8 -14 -7 6 -3 -38 -13 6 -12 -10 7 8 -18 7 5 7 -17 -8 9 -11 -2 3 -4 14 6 -11 11 -14 -3 11 21 -13 24 -2 -3 19 5 5 -7 11 -5 1 3 18 8 -19 -10 3 7 -7 6 -3 13 -15 -13 -21 -4 7 -13 -21 -5 -2 3 -6 -6 -13 10 4 16 -16 8 -16 4 -3 -7 6 -30 -3 -3 20 15 3 3 -29 5 5 -18 -7 -6 -3 -17 -3 -10 -3 -12 -21 -5 -17 -7 10 -7 -22 -2 10 -3 23 3 -3 -24 -6 -13 6 -3 -3 -6 -10 -13 -14 -7 6 -7 14 -10 -4 -17 -2 -7 30 -7 18 3 15 -28 -4 15 -24 -13 -12 11 -3 5 -27 -3 -26 -24 4 3 17 4 -3 -2 -37 6 8 1 -5 1 -7 -6 10 17 -2 -8 -5 4 -3 9 -7 1 10 31 -12 -23 2 10 -24 -17 10 3 3 20 17 -6 13 -3 -5 4 10 -23 -14 7 -7 -3 -2 -12 -31 -27 -7 28 30 -23 -14 3 14 -3 -3 -6 7 -10 -6 -4 -18 21 2 4 -8 -17 -7 15 -3 -5 21 -1 -10 19 7 -8 -6 3 3 -37 -6 -20 7 15 3 -27 -25 -24 3 16 -15 -3 -24 0 12 -18 -2 -4 3 -14 3 -3 3 -13 -24 -3 17 4 3 -9 -10 -18 -2 2 18 -3 -7 -6 -3 5 -21 -7 14 -18 -15 18 34 -14 -14 8 -20 -5 -7 7 10 -3 7 6 -22 14 -21 -3 -22 -7 8 -14 8 3 23 -11 24 -17 0 -19 8 34 -4 3 -3 4 -17 -24 17 -16 -21 -4 -9 8 10 10 9 -3 17 -4 -7 5 -5 6 12 9 -3 -6 -6 -7 -6 4 -14 -11 21 -14 -1 7 3 24 7 -6 -6 -1 1 -18 -5 -14 -3 -7 -5 -7 -4 -10 -18 5 3 -3 -7 -7 -9 21 11 16 -4 -1 -14 3 11 2 11 -14 17 -7 -4 3 -3 -7 21 -3 -4 -4 -11 6 3 6 -17 -2 -20 -20 27 -11 7 -14 3 1 1 -7 8 15 -3 -3 7 6 9 -3 -6 -6 17 13 -3 6 26 15 15 11 5 3 4 3 20 21 -11 -26 -15 13 7 14 38 27 12 -14 9 -7 -6 -19 3 -11 -7 2 7 17 6 -38 -4 -3 4 -4 3 1 -7 -9 -7 -3 -4 3 -3 3 -34 -1 -14 -17 25 -15 10 6 7 -1 -9 -18 -6 9 -6 11 24 3 -3 3 -12 -10 -22 24 3 -14 -3 15 -3 -9 -9 -7 -21 3 -10 2 5 6 -7 -14 -18 -7 -3 10 14 -18 -6 -8 14 -6 -5 10 21 -10 -7 -4 3 -7 -6 3 -3 4 -3 -15 -1 3 10 -2 -1 6 5 -3 16 -17 -21 9 -7 -1 -8 -3 5 -11 16 20 -2 -18 3 23 -3 11 -14 -5 -14 -34 -5 6 -3 6 7 -15 -3 -10 -6 -3 -25 -3 -10 10 -13 -8 7 3 -1 8 -6 12 4 -1 3 -7 -21 -21 -3 21 -28 -6 1 -3 3 -4 -17 -18 8 11 -3 7 1 30 6 -6 11 -14 -13 10 -14 -8 -30 -3 -3 -2 -6 5 -2 -38 -4 -21 4 10 -17 13 6 18 10 -6 -13 -10 3 -17 14 -1 -17 2 -1 7 18 8 -4 -7 14 -7 10 10 13 6 -12 9 -18 13 2 -15 -17 25 6 4 39 -8 -14 -12 11 -18 24 -14 -11 6 -16 3 -10 3 -25 3 3 3 13 -3 4 9 14 -21 11 -14 2 -28 -3 -8 17 25 29 7 -9 -8 -2 8 -33 -11 6 3 -7 -6 -14 -6 24 -14 4 -3 7 -15 -5 -2 16 -21 33 -14 12 17 -13 -20 5 6 10 19 -28 7 -7 -1 -8 -18 -6 -3 -6 -13 -27 -11 6 3 -7 -26 -4 5 -17 -13 6 -21 6 -1 3 -13 -3 -3 27 19 14 10 0 -11 22 20 -19 11 4 -3 -8 -1 5 -6 -4 -6 -4 -19 -7 -18 6 18 -20 -4 -19 7 -21 -9 -7 -11 -10 -3 -2 1 -1 -20 -14 10 3 23 2 -7 -1 3 6 11 13 2 -13 -4 7 -3 -8 -6 9 -2 -38 -13 -17 -14 7 -7 3 -11 -5 6 -9 -1 -16 -22 7 2 3 10 -3 -16 -3 17 2 -12 -10 -11 -6 -4 3 18 -5 -4 6 6 14 -4 22 -3 29 8 -15 -11 -21 10 11 1 -16 3 -9 -25 3 18 8 3 18 2 4 4 3 6 -17 21 -7 6 12 -3 -14 10 -14 -25 -3 -4 14 4 -14 7 -6 -4 7 10 -6 -25 -14 9 4 -3 17 -21 2 -18 0 7 5 4 9 -1 -24 7 -8 -9 -3 -2 7 -10 -3 31 1 -11 -15 -9 -3 -25 -10 -1 -21 -3 -7 3 -18 5 -13 -10 7 0 -10 18 17 -28 1 -17 -14 30 3 -6 4 3 -17 8 -7 -18 -7 3 -35 -3 -7 -23 -15 -24 13 -16 -31 -10 -21 -11 -1 -11 -3 -18 20 -18 -8 13 3 -7 -13 -3 -3 -4 -7 7 -7 14 -10 -12 7 -4 7 3 4 27 8 25 -29 -34 -17 -4 -14 17 -10 -8 11 -14 -4 -7 0 3 -13 -6 -11 12 10 -11 -3 -10 3 -3 3 -4 -18 -27 -4 -3 1 4 11 9 27 13 -1 -9 3 3 -2 3 -7 16 15 -8 7 5 0 -4 -2 3 16 10 3 3 4 -6 13 8 1 11 -6 6 6 -19 -15 -7 16 -15 -21 9 -8 9 -1 -10 4 23 3 -5 16 7 10 -13 -3 3 -8 -24 -7 3 3 8 8 -29 0 24 4 -3 17 -8 -17 10 38 7 3 28 -9 -10 -3 -11 -7 -3 4 13 -17 4 -6 -24 -25 1 14 -24 9 -17 3 6 4 -10 -12 15 5 10 -26 -33 -16 -15 -36 9 -6 -3 -17 -6 13 -6 -10 -6 -4 -4 3 -27 -10 -1 -3 8 14 -7 -10 3 -15 3 22 -36 -3 12 9 7 -18 -1 31 -22 -17 -1 -7 6 -14 3 -6 14 7 2 0 -7 -3 17 3 10 5 8 -3 -21 2 -15 -3 -21 25 -7 7 11 3 -7 -20 -27 5 -7 5 -6 -7 2 -11 -1 -10 4 -5 8 -10 -7 -17 -21 -4 10 18 21 3 -24 -12 -3 7 1 -21 -22 3 -23 -14 1 -28 6 3 21 -6 -5 8 8 -7 6 4 1 -5 -3 -5 -14 -4 3 5 2 -6 6 -6 17 10 -11 -6 -3 -9 -6 3 -3 -12 10 -10 -4 11 8 -5 -6 5 -5 -6 6 6 24 6 34 3 7 3 5 -5 14 4 -7 -6 3 11 -1 1 -42 14 16 -17 -6 20 4 3 -6 22 10 -19 21 29 -10 -19 3 8 -4 -3 -11 -16 -11 7 7 -19 -4 32 -7 8 5 4 -7 -27 -4 -17 2 -6 -4 -11 -6 -8 -2 -11 32 10 -17 10 -11 -3 3 10 -4 7 6 21 6 -5 -3 13 14 6 0 16 2 -11 10 -2 -3 7 -6 -10 -5 -3 -9 -14 -28 -5 -8 -3 -3 -13 10 -9 -10 -3 0 -5 41 4 21 2 9 17 -8 -11 13 4 -8 6 19 -7 5 -7 -15 7 -24 23 3 -14 5 -31 -24 11 21 -11 8 3 24 -6 -8 13 -4 -10 -1 -17 -14 -3 -3 3 20 10 -20 7 -3 5 -14 10 20 -33 20 3 -1 4 14 32 -3 -5 -3 3 -10 2 -6 -3 4 -10 6 -15 -3 -14 15 -5 -7 6 7 14 10 13 0 -24 7 3 3 6 -3 0 -1 -13 3 -34 -4 17 5 3 11 -3 -15 -17 3 5 -13 -6 -7 4 2 -9 -10 -2 -25 11 -3 1 13 0 -7 -10 -14 9 -4 14 -6 -17 4 14 -28 -14 -20 -6 -35 -3 10 20 6 -19 -5 -8 3 2 7 -9 -1 3 0 13 11 -10 11 -7 -14 3 -7 3 -18 10 -9 5 19 -8 -6 12 20 -17 -10 -16 34 -2 10 -6 6 18 -17 -3 21 -10 -6 37 -5 7 9 -8 -12 18 3 -24 -1 15 5 -6 -13 3 -6 1 13 -6 -2 -3 -9 7 -20 11 -1 -4 18 -3 -4 -17 -28 -5 -3 12 17 17 5 7 4 -8 -12 14 -1 4 -14 -16 -2 7 3 6 7 -3 7 -7 3 -10 -17 13 -4 7 3 -10 29 4 -3 4 -20 11 15 9 10 -2 -14 13 3 7 -3 -26 4 -12 7 -10 -8 3 1 -3 7 4 18 8 34 18 3 -3 -4 -11 3 20 7 -8 -6 -7 0 -15 9 7 -6 -10 -10 4 -2 -3 11 10 14 21 10 -12 -3 7 -1 -14 -25 -7 -5 6 2 3 3 18 11 -17 4 3 -24 -8 3 10 4 -7 -10 -11 -17 -34 6 14 4 -3 -9 -15 -14 -3 -15 -3 3 -3 -5 -27 1 -5 6 -6 -7 6 -4 10 -14 -12 -6 16 -15 4 7 2 -14 0 3 25 4 -4 10 -14 7 -1 -25 -1 6 -7 -14 -6 3 -4 17 -4 -19 10 -5 -31 2 -3 -21 -7 -3 -13 0 3 -4 3 -14 -3 -10 -3 -6 7 -6 -7 -14 18 2 11 16 3 -10 -16 -35 -7 -10 -21 -20 -16 -7 20 -14 6 -14 4 -1 8 21 -22 -3 6 -8 -14 8 -10 -6 -1 -13 10 -1 4 3 -18 -24 23 1 24 -3 -8 30 -2 6 -4 -18 -11 14 -6 16 -20 -8 -6 -2 12 -10 13 -6 -13 10 -23 -14 -14 -3 8 -3 5 -4 5 -7 1 13 3 -27 3 -3 -15 10 3 -1 -21 -5 7 7 2 -3 3 -3 2 4 -12 10 -3 -14 -24 19 -2 9 8 8 3 -14 -3 10 -7 -9 -8 0 15 11 1 6 -21 3 10 -40 -6 1 8 -10 -10 4 -4 -29 -12 -3 -4 3 -5 -7 4 22 -6 -20 -6 -19 17 3 -2 -3 8 -16 -8 3 -4 -6 17 1 3 -7 20 4 1 -21 -3 -14 -7 -13 7 8 11 16 6 14 3 -16 -21 -14 7 -26 -15 10 -3 3 -4 -3 3 -7 7 -17 7 -33 -8 13 -23 -17 -14 9 -14 -17 7 3 -9 4 -11 -7 17 2 7 -3 3 11 -3 3 -4 -2 10 19 -28 -4 -20 9 -7 -6 6 2 11 0 -18 -3 27 -4 -14 -20 4 -15 8 -7 21 4 -10 8 -17 -4 18 1 2 -3 17 2 -11 4 28 11 14 6 -35 -30 7 9 -3 3 7 8 20 -19 -21 -11 17 -9 7 -17 22 -10 -20 4 -12 14 -20 -10 20 -3 7 -22 -3 13 -4 -11 -13 -1 -14 -5 -14 16 4 4 11 5 -9 3 6 -6 -16 9 5 7 -14 11 11 7 3 -10 0 21 10 15 3 -24 -10 -19 17 17 -17 -3 7 -14 8 11 14 -5 2 -6 11 -10 -16 -3 -4 -7 21 -7 4 -11 1 3 10 -7 -3 9 -25 6 -6 6 7 -1 -4 7 -3 -17 3 5 -17 -27 -7 1 -4 7 -8 9 -7 -7 12 8 17 -18 -1 1 4 -3 0 7 8 5 -2 23 2 -3 -7 -3 -9 -3 -7 -11 24 3 8 16 -18 18 18 -6 -3 2 -8 -20 -14 10 6 6 -9 11 -3 2 -11 -10 -9 -10 8 -3 -3 11 13 -3 6 3 -5 -2 10 -17 -13 -5 -4 -7 5 15 30 31 -21 -14 13 -4 7 6 8 3 -1 -1 15 -15 -3 -7 4 -6 10 -7 -18 13 -18 4 -7 -5 13 6 -5 -9 15 2 10 -3 10 17 -31 -28 -3 -7 -13 -2 2 -1 3 -14 -8 -2 -4 -3 -13 4 -19 14 23 -4 -14 -3 7 4 4 -16 -19 7 -4 -10 -7 21 -10 4 3 3 9 14 3 -4 -3 4 3 -8 25 -18 -3 17 14 -5 -11 -6 -3 20 -13 3 -14 -3 7 -12 3 4 7 -4 23 -16 -3 11 -6 12 3 -2 14 11 -32 -27 -16 -3 9 -24 -17 -3 6 -5 28 -9 -16 5 -24 -20 -14 -17 18 -5 -3 -16 -14 5 4 -4 -3 18 25 8 -5 0 -23 -5 13 -15 -22 -3 -32 -4 16 11 -3 8 -3 -7 -16 20 20 4 6 10 21 -20 -1 -17 -30 -20 -30 12 12 1 16 -3 3 20 -3 3 -2 25 7 -3 -7 24 -6 -19 -10 -20 -2 14 -3 -16 11 3 3 -17 -18 -4 -7 -7 5 -10 -7 13 -6 7 -16 -4 -3 17 -10 17 2 9 -18 -4 3 -20 -3 7 -6 6 3 -18 -5 3 4 3 11 -36 -7 -6 -3 -9 -13 5 -14 8 -3 18 -14 -3 -4 -25 -32 31 -20 9 -2 4 3 -16 8 -21 -10 6 -31 30 21 13 10 6 -6 26 8 -3 -4 6 13 3 -6 -7 -17 -11 -1 -8 -11 26 -8 -24 -4 3 6 -7 6 3 -11 3 20 17 -16 -6 -6 9 7 -11 -14 13 4 -28 18 10 -13 7 -3 3 -11 -3 21 -14 -3 -7 18 3 -13 -10 2 -15 0 -6 -3 -6 11 -10 -4 -13 -11 -4 -12 -24 12 3 4 -6 -24 16 -9 7 -17 -3 -3 -34 11 -10 -10 -6 -8 3 31 7 -4 -3 3 -6 24 7 10 -7 10 6 4 -7 14 -11 15 3 -1 14 -10 -6 3 -13 -4 -14 -9 -3 -20 -3 3 -4 6 17 -10 -39 -9 2 -18 3 -4 -8 0 10 -6 33 17 10 -14 -3 3 -7 1 -2 -11 -20 -6 -7 -17 5 7 1 -7 -3 5 14 -3 -31 -15 -3 -21 11 -8 3 -17 -5 11 -3 -14 10 -7 6 2 26 7 28 -2 -14 0 -14 3 1 7 3 -11 -11 -3 21 -3 3 -3 -35 7 -5 -6 21 2 2 -1 -5 -3 9 21 9 1 10 28 24 14 -31 3 -16 21 -8 5 -5 -3 8 -16 10 -21 -16 8 -2 -2 5 7 7 21 -11 14 -7 30 8 14 3 -4 2 -6 -16 -14 11 4 11 -6 8 -7 5 -6 0 -2 -3 1 -21 -3 13 -1 6 -10 -4 -6 3 13 5 -3 1 11 4 2 23 -1 -18 -3 7 14 0 6 -4 8 13 -6 -13 -15 -11 3 10 -4 5 -8 6 3 -10 -9 -3 -7 6 17 6 3 2 7 -6 -20 -12 -18 -4 6 -8 9 -5 22 -8 -13 -8 -34 11 -8 5 -3 -6 6 -3 4 -21 4 -10 21 -3 3 -27 11 9 3 -21 -12 -14 27 -10 -11 7 3 3 16 -3 11 6 -25 13 -10 -13 18 3 -24 11 3 -6 21 3 7 -3 3 -1 6 10 5 3 -2 7 -3 -5 -17 -10 6 -12 -13 -19 -13 15 3 28 -8 -14 3 -16 -10 -8 -8 -32 -23 -1 -3 -3 15 -14 5 7 10 9 12 3 -10 10 -32 25 -4 6 3 -21 -3 10 12 7 3 4 3 5 -23 14 8 11 -2 -14 10 -4 -21 -14 -8 -11 1 -4 17 -4 -18 -3 -5 16 -7 -8 -3 6 -3 1 -8 -17 -21 -8 -10 3 3 -10 -6 -4 27 -10 -7 -3 11 19 2 -3 23 -15 3 10 -7 -9 -17 -15 6 3 3 -20 -5 8 7 -15 -4 -8 14 -4 2 -7 3 10 -5 -1 -12 3 -8 -25 19 6 -3 -7 -3 -6 10 -7 -28 -13 6 6 -2 -3 -11 -9 -3 -15 -3 5 -3 3 -11 2 -20 7 13 -10 -3 3 8 -7 -1 -2 26 20 -17 -16 -1 6 -23 8 0 1 -10 14 6 7 -24 20 -6 17 3 3 -17 -3 -4 -6 8 -4 -18 -20 7 -25 5 -24 23 -10 6 5 3 -16 2 -8 -7 10 -6 3 -4 -3 6 -14 -14 16 4 -3 6 18 19 24 -13 -8 -21 32 1 4 -5 13 -3 -6 -8 3 15 3 -11 -7 -5 -20 3 3 18 -7 -3 3 -4 17 5 4 9 9 2 3 7 -7 -3 3 9 13 -1 28 -3 3 2 -2 21 5 7 -15 -3 18 15 -3 -17 -19 10 -11 -7 7 3 8 3 -17 7 3 -13 -16 -4 -18 -24 -11 7 2 15 -3 -10 -6 -10 6 -14 21 -22 -3 27 -15 -6 7 -3 13 -3 -32 6 -3 21 -29 3 -6 14 13 -4 14 3 -9 16 9 -19 -3 20 -3 7 12 -1 7 -1 -3 8 14 21 -3 -14 -14 -4 -3 5 -3 -12 21 -11 -4 -31 8 -10 15 -9 10 2 13 -2 -6 -11 7 -1 -7 -12 4 -11 3 7 14 -14 -17 -34 16 -10 3 -3 -7 1 5 -7 -15 -8 3 3 6 3 17 3 -4 4 -9 -1 7 3 -2 17 10 -1 9 -5 -16 -15 -3 -3 -11 -17 -24 14 -14 6 -32 -17 11 -13 -23 18 6 -3 6 3 2 -7 -15 6 -3 -7 -14 12 -20 -42 -11 5 7 -18 -14 -10 -3 -11 10 20 15 -7 -11 1 -3 -13 -10 6 -6 -21 -29 -5 -7 3 -19 -4 -3 -3 -11 7 -3 -7 -5 10 24 4 1 10 -14 -2 -7 7 3 -7 -5 -7 -11 -3 -3 1 7 -5 7 13 6 -2 -5 -3 -5 16 27 4 -7 -16 -7 -14 -11 -4 6 -34 3 7 -18 -10 4 2 5 14 -23 11 -6 2 -4 25 -3 24 -4 7 9 -21 -6 -21 -27 -13 -7 3 -9 2 -15 10 -17 -16 -11 -13 11 3 -4 -12 7 7 14 -21 -2 -19 -4 -35 -6 -3 31 -28 3 -13 -11 -4 32 9 -11 -3 4 -17 7 -17 1 -19 -20 7 14 -20 -7 -7 11 -5 20 12 -2 16 -35 12 -20 -2 -8 8 -13 -6 -8 -13 17 21 3 14 28 -17 -32 9 -6 3 -3 -2 21 11 13 9 -19 -6 -4 6 3 -24 20 3 -27 3 -20 4 -17 -18 -6 13 5 -3 10 -6 7 -6 -3 -5 -12 -6 -15 28 13 9 -9 6 3 7 -10 4 -28 -8 -18 5 19 -10 4 4 -9 -7 3 -1 6 -14 6 -3 -25 8 -13 -13 6 -10 13 -3 7 10 1 7 -14 20 1 -6 -15 -3 -1 -4 -12 -27 -20 -14 -13 -19 13 6 1 -10 3 -8 4 -8 -4 -9 -14 6 -7 3 -5 -1 -13 -20 -14 -28 6 -11 12 -14 25 -6 -6 14 10 -3 13 8 3 15 -6 -10 25 7 14 -11 3 -14 12 -10 -9 -3 -5 3 27 4 3 -7 -6 6 -28 14 7 6 6 -12 4 6 -7 -19 -4 -11 25 -3 4 -5 3 5 -3 3 -7 20 -3 -17 10 21 -12 10 -17 -2 3 5 35 -6 8 -18 -3 25 -3 -20 -2 3 3 19 -3 -15 2 -23 13 -31 -3 -3 3 -38 -11 10 11 -7 -7 6 13 -1 21 -6 -3 6 -1 -3 -3 -17 -9 -13 -12 24 -13 -14 -34 9 -3 -6 9 -32 -11 -21 1 -4 3 12 -18 7 -14 18 -6 -1 -6 2 6 -10 7 -3 -3 -19 3 -29 -3 -5 13 -3 3 -2 3 -9 -15 7 -5 -3 27 -6 17 -1 -27 10 7 21 -3 -6 -6 1 -4 -28 -17 6 13 4 -3 -6 -3 -6 -10 4 4 4 -2 4 17 9 -27 -7 -11 3 14 -16 -11 -5 -3 -8 -10 7 6 36 -4 3 31 8 -9 9 8 -2 3 0 -14 18 -2 -4 -16 -6 -11 -20 -7 14 -6 -3 -7 11 5 -27 5 7 -20 9 -1 -9 -31 -2 -3 30 4 5 -7 10 -4 25 -32 8 7 -6 5 -24 -8 15 11 -10 7 -6 4 7 -3 -5 3 -22 12 -14 7 -16 3 -7 -7 -14 -23 -10 6 -26 -19 4 3 2 11 -24 3 -5 -3 -3 -1 3 3 -7 -7 6 8 13 7 12 -11 12 -7 -15 -18 -6 21 -13 -19 6 -3 -3 -3 10 13 -12 -10 -25 -12 -18 3 3 -19 -3 2 -25 -8 10 -16 -14 -17 -17 14 -7 10 -3 -23 -5 6 7 4 8 -4 28 -6 -26 3 6 -4 0 -4 -10 19 -7 -14 5 11 -19 -4 -3 -3 -18 7 17 33 -29 5 -3 3 -26 3 17 3 13 21 -26 14 -23 -11 7 -21 -14 5 -3 -3 24 10 -12 -7 -21 -3 -14 -4 8 -17 -20 24 -15 -5 -18 3 5 -27 -3 14 -3 -6 4 10 17 11 -31 -7 1 -25 12 -3 -2 17 -5 17 -15 24 1 4 -3 -18 4 4 12 -11 7 -9 -18 22 10 5 2 -13 3 -3 3 -17 19 -11 3 4 16 3 -47 -4 -35 27 10 2 -10 24 -5 -3 -4 -4 -14 -7 -7 -3 -4 -4 3 -3 -2 -28 11 9 -3 -14 4 -7 8 -27 -14 30 -2 -10 9 -31 -6 14 21 15 3 6 13 13 -23 7 20 3 17 13 3 -6 -7 13 -8 -4 21 7 1 -17 14 -9 -9 6 -3 7 -14 -5 17 10 -18 3 -4 20 3 -3 -6 2 -4 -7 15 -10 6 -4 -6 -21 3 -23 -4 -10 7 3 -2 3 6 -3 -6 -11 -3 13 6 9 -23 -18 9 -7 -5 -4 17 -18 -14 -18 -1 -4 6 4 -4 -25 -8 -6 11 3 -6 -8 14 17 19 4 -8 -7 6 3 -14 -4 -3 -24 3 -7 3 5 -6 -4 -6 5 -3 -5 -10 -7 -3 7 -28 -15 7 -5 -11 -3 -6 -17 17 7 5 -14 4 19 -3 6 7 0 -13 18 6 4 27 -3 -2 7 -13 14 7 4 -28 16 -3 -28 -6 -7 23 11 -3 -4 -3 -14 -13 -1 -7 -1 -26 -11 -7 2 -22 -14 3 3 -7 11 -25 3 -23 -3 6 -10 -4 6 -10 3 3 14 -8 3 -3 7 13 -7 7 35 3 -27 -13 -3 -7 -10 -14 6 1 -5 -3 3 -5 -14 -6 17 -24 -8 -11 -2 4 -3 10 3 -3 3 32 -3 -16 21 3 -11 -3 3 4 -3 11 -17 6 12 -21 27 10 -1 11 -6 -3 3 11 -23 18 -10 14 -2 10 -7 -10 6 -3 -14 14 -21 -9 -7 -4 -10 -5 -3 7 -8 19 -16 -33 -1 -5 6 5 20 6 4 11 -3 1 -10 -13 -3 -5 3 -2 -6 -10 8 20 6 -28 -6 16 -20 3 7 27 17 -4 -1 -37 14 -17 6 -7 3 -1 17 7 -3 -14 -31 -11 -28 -2 -4 17 7 -15 -17 15 -30 -14 -10 -23 -14 5 4 -6 7 3 3 -19 -7 3 -17 -16 1 -7 -15 17 -6 7 4 -12 3 -11 1 -3 1 13 -8 -14 22 -3 -5 -3 -3 19 -5 4 -10 2 7 15 -7 17 -28 -4 -9 -17 -18 -3 -7 -9 19 5 -9 -7 7 5 3 21 -10 28 -1 26 3 -19 7 8 -14 -20 -14 -15 -8 -6 -3 3 -21 16 -5 10 -6 -3 11 17 -3 -7 -14 -16 13 14 6 6 -20 -1 -17 -3 3 4 13 9 -6 -10 -1 -3 -4 10 22 17 8 -21 -26 -17 -1 -6 -9 -3 -33 14 -3 6 3 3 9 24 6 -13 -10 13 18 -5 -2 -8 20 -10 -14 4 3 10 -14 2 -3 -6 17 -28 -10 22 -10 -7 -18 -3 -17 -27 -6 -6 -13 0 -18 -5 7 -8 -19 2 -5 9 17 -10 4 7 6 13 -6 0 -4 3 -3 -18 10 -20 -8 -5 -10 -6 -10 -14 -15 -3 -6 -11 -9 -4 24 3 -17 13 -2 13 3 3 -10 -4 -6 -3 -5 -25 7 -14 -7 -6 14 14 8 24 3 34 -20 -21 -24 3 6 -14 3 -11 -5 21 -18 -9 -5 -35 -10 -8 3 20 5 6 6 -8 13 13 -3 -13 -2 -10 3 -28 11 3 -5 4 3 16 -15 -11 -7 -18 10 -14 3 -7 -4 -8 -24 4 3 -33 7 11 14 4 -6 18 15 -18 7 10 -1 -3 11 0 -10 -12 -4 11 2 -6 13 -6 21 15 11 13 -11 7 -14 -10 -13 -6 -1 -25 -14 4 3 15 11 -3 10 -14 -2 -14 13 -7 -3 -4 -8 8 3 15 25 -2 6 -4 -24 -6 3 -10 9 -15 13 3 2 5 3 -17 6 -1 -4 -4 -10 20 23 4 -3 11 -14 -5 -3 1 -8 -15 -19 -3 -11 -6 -13 0 24 -10 6 -3 18 10 -1 -18 15 6 -29 -3 -4 3 -21 7 -11 -18 -11 -24 -3 -31 1 -3 3 4 1 0 -3 2 11 -6 14 -3 26 1 4 3 -11 14 18 -3 18 -5 -17 -35 28 -5 -16 -13 -3 -15 -8 8 7 14 -7 -1 -10 4 -20 -18 1 -12 7 -11 29 7 17 11 3 1 3 8 6 2 27 3 -1 -8 -2 -13 -4 4 3 -4 7 2 -7 0 23 20 -3 -7 -9 -6 -3 2 -34 7 -11 -1 -7 8 -5 -13 -1 -22 -23 5 13 2 8 -1 6 6 5 3 -3 8 -3 3 -1 -1 7 -3 -6 -10 -10 10 -3 6 8 -15 1 -24 -16 6 -26 -12 -8 -42 -17 3 6 10 -3 -6 3 -10 -6 -18 -5 0 10 30 6 -10 -7 12 18 6 -14 -19 8 -3 -11 7 20 9 -6 0 -28 -1 14 -26 13 -4 -7 7 -23 27 -14 -20 -42 3 6 -10 -3 9 -3 -7 8 18 -10 -3 -4 -15 -11 -3 3 -28 -10 -15 4 31 25 3 -9 -6 3 8 21 -24 5 13 5 -5 8 -11 3 2 -4 24 -14 3 -3 14 3 -6 -24 -9 -4 1 -18 3 14 -10 6 -12 8 -9 1 -12 7 5 -7 3 26 7 -3 -13 -3 -2 3 -7 11 6 -1 -3 -23 14 9 -7 -7 0 -3 1 31 -2 -9 -17 10 8 -11 8 10 -6 5 3 10 6 5 -4 2 -10 -18 -4 -3 -7 -24 -7 28 -11 9 -15 2 4 9 -7 6 -1 -5 -13 -18 -9 4 13 -3 -12 -5 1 -7 5 -20 -3 -2 1 -1 1 -21 -4 -21 3 7 -3 7 1 -4 3 12 -14 3 12 0 13 -13 -4 -14 10 3 5 11 -3 1 -7 10 7 6 6 -4 14 1 -10 4 3 -7 4 -2 -3 -8 -8 -4 -17 9 -13 -11 -5 3 -23 9 6 -3 -11 -3 14 12 -2 -3 17 7 9 4 13 -5 -3 -4 17 28 -1 4 14 -11 14 -18 28 3 18 -3 -3 -12 -18 -14 18 21 -2 -1 20 -9 6 -6 7 18 -27 9 8 15 31 -10 30 -10 9 14 38 3 3 -10 9 1 -2 -6 14 -7 -3 6 9 3 -18 2 -14 1 4 25 -3 2 -20 14 -11 -3</t>
-  </si>
-  <si>
-    <t>JSB(0.7095179825726277, 3.728595998912107, -32.2619558234005, 161.0184673169689)</t>
-  </si>
-  <si>
-    <t>37 42 37 47 33 49 23 30 45 37 37 37 43 42 34 34 38 61 41 41 60 16 30 48 23 35 42 50 47 36 30 31 37 33 41 30 50 48 45 52 47 39 42 51 33 41 34 43 58 44 23 33 27 52 35 34 52 29 50 30 45 28 51 41 32 44 52 27 37 28 59 31 41 44 37 13 48 43 40 51 43 44 40 41 17 43 48 48 38 13 48 44 45 45 37 44 50 36 51 27 33 42 30 27 34 47 29 33 57 43 38 31 34 37 42 55 55 37 28 41 41 42 48 27 44 48 51 37 52 62 44 41 37 59 21 41 51 35 40 34 48 54 44 37 43 39 52 48 30 30 43 54 35 38 44 57 30 55 58 29 57 51 40 30 40 37 49 32 38 47 34 36 31 45 31 34 36 24 48 48 48 20 48 43 41 64 58 43 36 31 50 37 51 41 55 47 50 46 34 37 42 42 44 30 45 44 41 47 43 44 51 24 44 37 40 29 44 41 38 56 42 39 37 35 43 59 41 44 45 48 54 51 56 48 51 41 27 22 37 41 33 34 36 41 23 37 41 28 44 37 24 41 60 38 33 38 21 29 30 49 59 48 60 34 43 61 45 43 32 27 40 31 51 44 37 59 62 49 32 39 53 24 38 51 50 27 30 30 33 43 31 53 49 55 45 51 26 38 37 45 21 63 52 42 24 45 40 53 33 76 41 40 52 20 67 52 40 41 69 25 37 37 48 33 45 38 34 40 51 53 52 24 57 34 26 52 35 43 41 33 36 51 41 48 29 50 32 41 33 38 51 61 53 40 42 59 27 37 34 26 55 30 44 49 56 27 54 40 26 29 55 40 40 29 51 34 48 37 41 42 31 59 43 44 33 47 47 13 44 42 51 37 43 30 23 54 47 40 57 54 59 38 45 51 61 27 40 25 54 34 45 52 32 41 51 70 43 44 37 26 40 43 48 34 47 46 46 47 58 37 40 50 44 33 48 48 58 43 33 43 44 33 37 41 47 49 41 54 23 41 41 44 59 34 33 44 41 31 23 38 40 50 55 33 38 45 42 45 28 23 41 25 36 47 38 30 48 45 51 43 26 49 39 51 23 30 36 38 40 39 45 52 44 37 56 30 45 48 23 43 49 50 48 41 39 45 38 52 41 49 41 43 46 45 51 22 30 46 48 24 38 35 44 51 30 16 30 48 45 37 39 31 30 26 55 32 54 52 48 33 31 22 50 41 41 37 57 50 37 33 37 34 55 38 40 52 29 22 55 48 42 44 30 20 27 50 45 45 44 37 27 69 43 66 37 41 48 17 45 32 28 53 45 41 26 34 42 44 43 47 34 34 40 60 31 16 35 30 33 30 58 37 33 46 43 56 37 56 51 43 30 40 33 41 40 47 30 68 20 40 46 42 54 45 62 27 37 59 51 41 40 54 25 52 36 49 45 38 49 44 40 24 41 23 36 35 42 46 44 46 40 44 47 19 29 48 36 48 33 37 47 37 41 16 43 26 24 46 62 65 47 37 22 38 42 26 47 42 45 45 34 44 41 29 16 43 37 43 39 30 47 42 27 51 34 58 51 27 20 37 33 43 25 34 38 30 47 30 34 40 49 41 41 34 29 37 46 45 56 47 52 51 41 51 39 37 51 44 37 43 55 37 33 37 44 22 41 26 38 43 51 45 58 48 48 30 55 52 30 37 61 45 41 25 40 40 41 43 53 55 52 45 27 49 26 47 42 30 42 42 58 51 23 34 45 50 48 41 33 32 29 53 56 48 44 29 57 43 38 29 35 20 30 38 47 48 40 45 25 30 55 38 33 33 35 29 29 47 41 26 51 45 30 41 53 49 37 39 39 55 57 30 41 43 23 38 32 34 51 43 45 43 40 43 48 34 44 45 51 62 47 29 27 34 27 34 30 27 40 42 47 29 44 72 34 27 58 46 37 30 49 37 33 61 45 43 47 40 33 50 52 29 33 17 26 31 57 57 50 37 37 45 38 46 20 30 64 59 48 23 19 25 44 41 17 39 41 44 33 47 40 70 15 34 50 29 28 38 40 38 65 41 27 40 55 26 24 51 27 27 52 37 51 51 56 38 45 35 37 40 47 26 37 20 52 51 56 43 50 35 40 40 58 30 39 23 40 41 75 36 21 34 34 34 60 34 49 58 57 44 57 31 25 40 62 44 24 39 60 56 38 29 33 43 34 35 52 58 50 53 50 42 30 38 34 25 36 40 51 24 51 57 39 77 27 46 16 35 34 36 37 34 54 10 19 51 43 16 45 68 57 48 48 31 59 18 51 45 33 47 29 51 56 30 36 47 26 63 49 44 51 45 62 28 51 57 40 31 40 30 40 39 40 62 46 45 29 34 40 33 33 45 45 30 36 44 31 37 30 31 35 49 65 39 61 44 29 23 23 37 50 31 47 48 47 34 19 60 43 37 31 54 41 41 54 52 31 37 40 35 60 37 47 47 29 41 27 45 29 57 33 57 49 49 43 25 41 44 66 37 54 48 42 24 65 26 27 24 51 27 39 30 38 38 25 34 35 25 43 50 33 48 47 47 27 24 41 35 61 57 34 39 40 32 47 33 48 45 41 47 37 32 34 31 36 31 67 31 33 33 34 44 43 44 37 33 36 49 51 51 37 26 57 31 55 59 51 33 20 43 34 42 44 35 31 30 28 41 45 42 39 37 49 47 41 23 37 47 47 38 44 53 49 42 41 29 34 44 46 38 35 51 40 55 43 30 38 37 45 34 44 38 26 48 47 52 34 31 42 29 51 49 31 49 37 43 48 34 53 56 47 23 38 49 39 40 33 30 44 35 32 20 42 59 30 35 40 44 37 44 58 16 45 41 64 29 54 38 40 30 34 47 25 37 45 36 40 42 50 45 61 50 48 39 27 37 27 31 47 36 40 27 28 22 48 44 46 39 45 56 42 37 37 23 40 40 47 27 37 33 37 31 49 40 34 39 48 33 57 54 33 41 37 57 46 39 37 58 39 30 23 52 59 46 44 24 51 43 36 31 30 46 45 48 41 51 55 40 25 37 27 45 32 37 18 36 44 33 45 52 31 52 46 40 32 39 41 34 30 60 40 39 33 37 42 34 37 46 34 47 32 48 30 43 45 39 36 59 34 40 33 48 38 51 57 39 27 38 31 55 19 47 33 42 30 25 38 24 43 34 32 50 48 49 37 30 23 26 19 31 54 37 38 30 16 29 45 48 44 22 37 34 29 40 17 29 46 69 44 43 30 42 37 57 37 40 39 37 46 51 57 38 30 58 51 38 40 34 48 32 43 31 45 24 30 30 42 52 50 44 67 50 47 16 43 40 39 30 38 48 39 17 40 51 41 27 53 26 37 39 44 35 38 34 38 32 29 34 59 47 33 38 30 59 46 29 40 34 31 33 42 38 47 23 44 37 44 26 41 40 51 46 23 32 40 51 50 51 37 47 45 33 33 41 40 48 45 35 26 33 46 49 38 51 26 27 53 33 69 25 49 42 39 34 31 36 42 48 54 51 13 24 21 40 31 26 54 36 26 40 44 48 30 53 37 39 23 37 27 53 30 47 34 34 62 40 49 26 44 32 65 41 41 36 54 51 62 29 43 51 38 56 30 31 33 30 47 32 44 41 34 55 51 30 13 31 45 24 43 32 57 60 62 27 57 30 37 43 48 25 59 21 36 36 51 54 36 38 31 30 40 43 13 26 41 28 50 40 33 58 37 42 30 45 37 33 33 47 46 25 48 40 56 37 44 37 24 44 31 41 32 52 37 50 32 44 40 40 43 34 46 34 45 45 51 30 59 39 39 38 37 35 30 30 54 26 44 30 50 38 51 31 48 42 55 48 45 37 45 50 31 47 40 47 47 40 37 40 31 26 29 37 57 33 51 44 44 43 33 16 36 45 34 51 29 47 37 20 40 51 41 44 30 45 32 29 24 43 44 23 9 50 31 35 41 44 40 44 55 57 25 34 63 48 34 45 24 45 44 20 54 41 31 37 41 30 37 45 49 31 32 44 37 48 37 33 31 33 37 40 37 36 49 27 36 54 35 49 49 43 56 44 23 53 49 51 38 52 54 33 55 37 40 40 55 41 32 24 51 48 30 43 45 45 29 55 49 39 28 50 48 52 48 51 51 41 31 43 57 60 42 48 45 26 50 55 46 27 38 42 29 33 51 44 37 36 36 48 61 40 62 64 52 20 51 55 62 19 31 34 37 39 66 45 34 51 59 43 62 39 36 30 46 57 30 39 37 42 45 33 42 36 20 28 34 53 36 41 29 48 30 37 54 41 56 77 48 44 32 33 51 41 23 52 36 36 38 34 50 33 53 17 39 34 45 63 47 31 57 48 31 34 45 29 31 49 40 49 42 12 45 48 37 79 37 40 44 48 54 40 35 48 38 37 45 51 29 34 38 41 31 45 49 44 32 58 36 51 41 37 45 52 39 59 36 45 41 23 36 30 44 22 52 31 44 44 34 43 32 45 59 27 30 49 49 43 55 34 48 36 46 33 37 52 40 36 41 41 33 48 50 45 29 37 41 33 59 45 51 33 37 49 45 48 43 44 56 31 44 31 38 31 38 51 41 29 39 21 33 45 51 36 42 44 54 66 29 47 37 36 22 46 37 40 33 53 33 41 55 36 41 56 39 20 34 41 67 37 32 46 47 67 44 33 61 38 43 31 54 27 50 37 51 37 63 26 52 51 26 40 48 36 35 57 26 27 53 33 40 38 44 37 30 27 41 38 30 40 40 34 51 40 58 44 29 55 27 58 34 24 38 48 55 13 42 43 34 16 44 45 38 48 39 29 29 35 37 35 45 41 36 41 48 49 67 41 54 48 33 41 44 41 50 41 24 59 26 45 43 33 44 37 27 45 30 58 27 34 37 47 17 27 51 27 36 41 63 30 40 27 71 43 45 32 40 41 51 31 41 52 33 60 54 31 36 29 37 37 45 49 52 42 35 30 48 38 31 33 36 27 48 45 39 35 55 46 42 52 16 33 30 45 67 26 33 25 41 38 31 37 58 37 35 40 44 39 33 59 36 51 35 35 40 51 40 40 38 52 46 37 47 59 38 45 45 40 38 22 42 41 66 23 38 44 40 42 41 32 53 55 33 22 53 26 27 14 50 44 51 52 50 43 32 30 38 51 46 27 40 42 46 33 44 51 42 37 24 41 48 37 49 43 34 15 44 47 27 50 45 43 33 51 48 49 51 49 44 64 48 36 50 52 48 35 30 36 38 48 25 42 48 30 27 44 34 34 43 45 42 33 30 43 37 39 30 45 33 33 38 40 49 40 43 27 30 27 19 56 33 75 33 31 41 45 30 52 27 48 55 47 23 39 39 49 60 58 47 38 51 35 37 24 49 34 36 51 48 18 49 55 48 44 30 44 42 13 53 33 36 44 49 45 27 51 37 56 32 34 35 34 44 26 20 27 30 65 24 34 40 57 51 38 34 42 62 55 48 52 38 36 38 51 40 47 45 65 32 49 49 37 45 43 46 42 64 51 46 37 28 52 44 37 52 25 39 40 51 48 52 29 51 31 49 42 55 51 41 37 44 42 51 49 53 40 30 53 33 64 57 36 35 41 38 48 37 23 45 41 51 27 45 34 23 34 20 30 50 35 33 47 40 45 41 33 43 43 59 23 51 37 41 58 59 39 53 26 41 51 54 33 41 45 44 40 44 40 17 31 31 62 16 21 69 33 41 57 51 34 19 37 56 32 51 48 31 45 47 56 55 22 27 60 31 26 43 40 20 26 59 59 37 37 38 27 64 58 31 51 30 30 44 46 62 26 33 47 38 37 51 42 40 31 50 30 46 35 33 34 29 36 33 29 40 18 33 46 27 44 24 57 48 43 38 51 37 45 51 46 30 49 26 50 41 33 36 56 48 40 58 37 60 39 24 37 48 32 41 55 35 38 21 29 55 47 29 73 45 57 44 45 40 42 40 37 51 41 26 44 26 37 41 59 45 20 36 42 48 41 51 39 51 27 52 36 35 22 37 34 42 37 40 61 39 34 33 40 55 29 31 46 61 46 41 40 43 30 24 37 40 45 37 43 37 41 36 37 49 23 43 42 23 48 44 43 37 41 47 63 45 27 49 40 50 52 19 42 44 68 33 63 43 57 37 41 37 59 25 34 36 58 47 31 47 31 45 42 50 48 26 24 38 41 34 24 47 36 54 41 32 35 43 43 43 54 39 37 27 32 52 51 38 43 41 43 47 34 36 33 36 51 48 53 41 48 35 37 43 59 34 59 37 47 38 57 59 20 27 47 26 37 37 28 40 30 45 38 34 24 48 31 42 40 52 44 36 37 37 30 33 52 41 47 45 36 42 44 48 48 56 33 44 41 41 24 52 33 51 69 54 33 36 64 67 13 73 34 59 30 23 56 45 48 22 45 50 46 53 42 38 34 33 41 58 40 41 45 30 15 26 44 43 51 34 38 41 59 42 40 49 40 43 47 31 51 30 41 37 51 49 44 64 52 27 37 41 33 43 45 55 41 42 42 54 37 43 50 40 52 40 45 41 23 48 40 32 23 38 54 73 30 57 44 44 47 51 25 36 41 51 31 30 51 47 42 44 41 31 16 37 37 36 44 34 34 51 52 37 37 57 45 29 30 40 41 56 30 37 47 37 36 43 34 30 48 36 49 37 61 37 30 55 34 38 48 47 27 40 49 29 55 37 51 31 45 29 45 48 45 16 37 32 44 33 34 33 33 34 21 56 54 35 46 53 52 62 51 54 40 37 35 44 30 43 51 51 33 31 55 51 44 43 29 51 34 40 38 33 54 37 37 54 31 46 43 48 35 44 62 19 40 23 41 36 34 36 47 44 34 33 56 26 40 34 44 58 27 52 35 30 36 48 43 43 59 29 30 55 41 37 51 42 47 44 34 40 58 31 44 35 48 28 43 27 41 36 38 48 67 51 41 38 17 37 35 30 35 47 37 43 42 54 21 37 40 38 33 41 43 46 47 33 45 46 27 40 41 33 46 37 51 53 33 30 28 26 58 49 49 33 62 47 51 43 18 44 41 55 34 47 23 35 53 30 55 42 45 31 60 38 29 27 28 49 37 37 43 38 37 23 38 48 37 51 34 54 24 51 17 37 54 37 44 50 52 40 34 44 33 31 34 34 30 62 35 38 44 32 53 48 29 48 54 26 43 16 48 64 19 55 33 38 52 20 44 43 27 47 50 29 29 45 26 34 32 45 44 44 43 47 51 42 54 39 38 48 39 49 50 37 35 40 46 40 37 55 63 27 34 48 42 33 45 48 20 49 33 43 34 34 54 51 51 23 42 62 30 30 52 36 52 48 53 45 33 20 54 40 45 60 44 43 51 30 30 41 20 22 58 37 24 46 54 29 22 41 41 38 48 58 42 36 52 43 34 43 27 56 31 48 49 36 23 51 37 48 43 43 44 52 40 48 56 36 34 40 37 48 53 44 37 32 66 49 57 35 52 38 24 17 49 60 58 56 40 51 55 48 46 47 41 41 44 26 49 41 47 43 34 36 41 64 37 38 31 45 36 44 23 30 37 43 35 53 17 53 40 41 34 43 48 26 34 23 34 25 33 47 47 42 45 54 42 32 44 55 31 37 23 44 41 23 47 23 24 44 70 19 38 45 50 44 43 34 16 50 27 30 58 45 37 33 33 29 31 54 47 38 26 49 37 51 29 26 44 45 52 37 37 43 52 48 19 48 43 37 41 37 53 26 50 28 50 47 36 28 43 16 52 42 41 37 50 58 54 41 23 33 37 43 54 44 48 30 56 30 41 39 37 76 60 19 32 49 40 49 16 47 48 21 34 29 38 24 45 40 45 43 51 24 58 24 28 40 50 40 50 55 43 52 21 29 39 47 47 52 40 29 28 53 33 45 27 43 42 44 37 29 33 41 55 37 54 42 48 49 31 51 34 58 20 47 30 31 29 26 16 34 47 49 34 46 44 45 47 57 43 20 47 27 39 37 46 38 37 37 51 54 38 37 30 45 51 42 41 44 48 39 65 19 47 42 48 41 37 39 26 44 37 37 43 37 43 47 39 48 49 45 44 51 34 51 27 37 30 46 26 59 20 71 57 61 44 45 44 33 36 30 38 55 27 27 47 39 27 31 37 50 34 40 52 27 47 46 30 53 38 63 42 55 43 41 34 37 37 37 52 33 33 44 44 38 45 41 47 34 49 36 43 47 48 51 36 61 44 32 48 51 24 37 31 51 30 50 48 49 43 59 27 40 27 39 41 51 49 65 39 46 35 28 52 24 43 49 41 57 47 18 42 42 37 31 25 32 52 45 44 51 43 45 48 57 46 47 32 33 50 29 34 41 38 44 44 26 24 29 49 30 31 26 40 48 51 48 31 38 41 36 36 37 56 17 32 43 37 26 38 43 39 53 34 31 48 47 32 43 45 35 74 37 38 34 46 45 43 51 19 32 29 31 31 57 34 39 40 9 31 34 32 54 26 51 43 45 23 37 56 23 27 52 36 31 37 29 65 30 34 33 38 31 38 49 35 55 26 41 34 27 37 57 30 34 50 53 51 50 44 41 48 30 24 51 30 46 37 23 29 50 40 33 25 29 40 49 42 40 40 28 19 65 37 24 51 37 49 38 48 61 27 41 33 36 56 45 37 10 32 19 47 41 45 16 44 56 39 51 57 42 34 36 34 33 34 41 42 38 47 32 35 27 57 55 23 20 36 48 54 34 37 40 37 39 41 35 46 51 41 57 37 54 38 42 33 45 51 37 51 44 22 50 45 44 47 33 43 70 49 55 30 45 30 26 31 38 50 27 33 49 62 80 32 36 36 51 27 40 47 51 38 51 47 19 31 34 59 39 57 39 37 39 30 39 43 56 47 45 48 37 41 33 26 48 34 31 55 36 51 57 43 45 28 44 19 51 48 43 12 39 30 41 35 23 63 56 50 38 40 33 29 37 42 44 46 58 27 30 54 35 61 65 35 36 23 51 30 27 36 67 33 57 27 44 33 39 25 37 50 37 27 43 46 20 40 23 51 19 47 29 47 47 31 50 47 31 55 32 40 51 34 38 62 31 56 56 38 47 31 23 41 43 49 52 29 48 30 43 39 44 33 40 38 48 31 39 26 37 24 31 53 35 33 33 36 35 71 47 34 34 43 45 31 27 37 45 40 48 37 42 56 35 30 30 33 43 29 48 31 28 20 60 40 41 44 61 26 50 52 48 36 47 51 36 48 51 40 26 48 58 47 37 37 27 47 39 51 44 44 22 44 34 36 40 43 62 58 30 30 33 33 42 41 45 48 46 49 48 44 23 31 50 29 31 34 55 46 34 29 54 39 27 40 54 40 37 33 40 37 30 43 36 23 50 31 50 61 25 33 33 47 55 35 55 48 30 26 48 54 51 37 18 43 45 49 23 39 34 22 44 34 46 39 34 40 17 39 43 41 49 34 55 36 41 40 33 55 23 60 34 47 49 30 56 52 51 25 26 57 33 44 40 30 44 34 44 44 49 37 13 48 61 27 40 37 53 44 22 32 23 45 46 46 33 24 51 35 62 42 58 28 31 20 40 43 30 45 36 44 50 26 46 48 26 43 42 48 19 46 36 31 53 28 47 39 41 41 53 43 63 34 38 45 34 37 43 21 43 41 59 37 34 48 51 35 57 37 38 26 45 22 48 44 47 43 37 35 53 43 34 44 45 51 42 27 30 45 37 34 26 40 41 57 13 50 28 34 19 44 40 53 44 44 44 30 54 41 34 63 54 48 46 51 33 49 51 55 29 40 54 52 26 40 41 28 47 52 57 38 41 27 43 44 49 60 64 38 30 49 39 47 72 45 34 42 27 55 34 40 33 33 59 12 62 37 41 33 46 43 40 55 40 55 69 47 48 35 51 41 52 33 29 41 47 62 60 37 37 34 30 23 15 27 32 44 57 39 65 17 52 23 37 54 39 45 40 17 41 35 48 40 44 24 24 37 38 43 44 29 58 33 40 52 41 37 31 38 29 33 28 39 52 29 46 26 54 40 49 38 39 40 27 17 42 37 37 40 48 19 37 55 30 45 52 44 23 36 36 28 31 52 44 35 37 60 36 46 38 46 29 41 32 45 41 54 23 37 48 41 50 39 51 36 44 51 42 53 45 41 36 44 17 24 50 40 34 50 52 43 48 23 38 33 37 47 41 41 39 43 51 54 56 39 59 19 44 46 45 56 41 34 47 37 41 43 42 36 41 54 31 40 40 44 33 22 45 30 65 41 45 52 30 44 49 55 49 37 41 40 47 29 46 34 38 48 33 43 25 41 43 41 44 29 51 44 21 34 34 55 27 19 30 51 53 24 54 58 41 30 33 33 35 22 51 34 20 36 52 49 20 43 48 44 30 38 50 49 42 38 40 28 37 51 47 42 57 34 30 43 34 51 50 16 46 34 41 39 22 46 44 43 49 43 26 37 58 29 41 27 42 49 37 39 31 22 38 51 45 50 43 38 40 55 50 41 29 43 35 32 52 36 27 49 34 30 31 52 53 27 31 44 57 26 42 37 35 51 34 54 48 27 47 21 61 26 45 49 27 27 21 43 40 32 39 53 28 51 65 33 36 34 44 27 48 55 35 21 61 38 29 43 43 44 34 49 44 24 41 51 54 54 39 30 42 26 37 56 41 30 45 51 46 37 23 48 29 53 41 41 43 23 27 44 47 37 58 50 46 43 39 38 62 38 40 30 26 47 36 39 54 45 57 39 51 13 57 55 52 42 53 55 56 35 43 45 52 26 29 45 50 50 29 43 59 37 27 46 25 27 37 43 56 51 37 41 39 52 38 26 57 38 37 43 56 34 52 38 28 28 23 51 36 33 24 68 31 49 70 20 35 52 28 39 29 58 49 52 53 51 63 30 29 37 44 23 45 25 48 34 32 50 37 38 32 55 48 37 46 40 41 58 31 46 45 37 31 42 37 40 32 39 34 33 43 30 58 40 36 54 44 36 55 47 55 37 37 43 30 41 35 65 31 28 48 43 52 37 55 34 26 31 57 41 54 43 52 37 41 36 27 34 34 55 26 43 58 55 34 46 36 41 52 52 41 43 41 23 34 39 23 56 43 22 42 64 43 45 26 23 31 41 47 30 22 65 37 49 47 49 45 47 41 51 30 48 43 44 45 19 27 26 31 33 53 47 47 30 41 41 21 57 50 37 34 34 47 36 52 44 30 46 28 44 31 69 32 44 23 29 26 31 59 45 61 43 43 50 61 34 35 49 51 38 57 26 33 37 51 35 38 39 54 44 30 51 37 43 53 52 56 55 28 45 51 38 44 53 54 41 52 55 34 44 30 37 30 27 44 49 44 45 61 42 30 43 44 19 26 53 45 53 47 51 50 36 58 37 45 22 37 16 37 32 40 47 39 27 39 34 24 49 36 52 39 44 49 65 55 25 36 37 46 53 54 52 38 59 52 45 43 20 71 50 33 9 37 52 44 37 48 35 21 43 54 60 37 47 27 48 30 23 26 45 40 23 59 26 49 34 26 24 36 49 30 24 48 37 55 41 51 19 41 19 36 49 35 46 28 35 65 37 26 34 55 55 65 33 43 36 51 58 47 45 44 42 54 38 32 44 37 20 43 45 37 39 24 43 43 38 51 35 44 30 36 42 50 51 37 48 51 39 27 41 62 44 41 44 40 34 26 60 38 41 33 33 30 31 41 46 40 48 39 37 48 33 50 34 34 45 51 49 50 29 48 43 26 48 52 35 29 30 55 30 35 22 49 42 39 64 22 22 53 49 39 58 19 51 37 22 48 29 59 48 54 39 36 38 20 27 33 34 33 19 57 38 41 40 48 61 27 50 39 14 51 47 37 41 44 30 44 45 65 45 55 47 29 55 37 52 44 33 40 59 23 50 37 48 39 33 30 17 51 33 49 37 44 30 65 36 43 46 61 40 48 48 47 29 41 40 37 27 43 35 48 43 37 45 53 20 57 65 46 48 57 31 31 40 26 71 35 45 53 37 38 43 54 33 45 44 41 25 27 32 58 53 34 48 37 41 60 33 51 17 49 30 41 51 48 52 44 45 22 56 51 29 33 49 55 29 44 51 37 51 54 45 34 51 37 33 58 48 35 47 59 44 26 39 48 37 36 41 51 53 36 30 48 38 57 48 29 49 59 45 37 41 47 37 44 42 51 20 33 40 70 41 23 44 28 34 62 54 56 48 25 66 35 24 41 30 45 41 46 57 55 24 51 33 29 29 52 40 41 46 35 45 38 37 41 53 27 47 22 37 29 37 50 34 54 52 15 39 55 37 40 37 40 40 33 34 23 48 47 57 37 24 40 17 45 53 38 38 47 32 41 29 25 40 56 56 44 39 43 47 39 21 29 27 28 40 41 45 59 52 37 58 40 31 57 33 35 60 34 42 53 48 41 30 46 46 44 37 23 40 40 33 46 44 42 33 30 24 23 43 26 44 24 26 41 38 9 37 48 41 49 26 41 41 34 52 36 33 20 47 30 52 55 26 40 43 30 53 46 47 51 37 56 44 59 34 48 12 51 30 30 26 45 28 60 59 52 31 43 43 37 37 55 37 38 23 48 41 23 56 26 56 51 54 51 57 45 49 39 32 22 40 33 45 62 45 35 18 42 48 46 56 30 37 41 47 51 30 44 41 49 28 26 17 41 56 43 26 36 43 42 19 41 33 48 30 32 31 48 39 53 59 34 37 41 36 30 43 31 27 54 35 32 33 43 41 37 43 47 43 56 44 28 37 62 46 37 51 38 29 68 55 47 42 36 48 24 37 39 30 34 30 26 36 53 27 49 23 33 55 38 61 30 41 33 54 34 44 57 23 50 35 27 29 48 37 41 22 55 30 25 37 48 38 43 30 38 41 63 48 27 35 23 45 37 56 47 47 46 32 47 26 29 42 51 66 31 43 44 44 38 31 26 16 43 64 47 24 48 56 40 44 38 17 59 40 47 37 55 38 65 33 60 33 35 51 23 30 40 45 50 58 22 52 51 60 45 47 39 40 44 45 48 52 42 37 37 44 48 44 26 19 58 52 55 38 46 45 40 23 42 39 43 41 30 30 40 19 29 44 29 27 50 55 40 33 29 30 35 38 41 37 55 51 33 35 51 51 30 27 47 45 27 49 58 23 55 52 45 48 36 44 37 42 27 43 40 46 43 50 30 33 43 46 61 58 27 45 61 45 35 51 41 52 33 22 45 50 49 45 33 37 59 38 34 58 40 47 43 47 27 37 43 36 33 35 27 28 52 40 39 24 49 73 50 47 34 43 29 62 45 30 54 71 30 28 43 48 38 27 48 51 41 40 31 64 38 51 45 30 57 37 51 58 38 63 24 23 41 44 37 23 63 55 27 47 35 31 30 55 33 54 57 38 41 51 42 38 28 37 50 42 29 35 16 40 55 40 33 51 40 20 26 47 55 53 42 27 47 37 34 25 51 30 30 51 31 51 74 21 42 47 49 43 34 30 35 31 59 32 40 61 26 58 30 31 37 26 39 30 58 19 43 34 61 34 45 31 39 43 30 61 37 38 48 44 37 39 68 46 53 31 45 32 44 30 30 41 39 62 44 45 38 45 60 31 40 37 29 40 33 42 30 40 44 30 43 47 24 41 51 20 20 35 36 51 41 43 54 36 31 54 43 41 50 39 37 38 45 41 41 48 34 45 46 20 55 50 26 41 71 37 23 52 37 42 45 41 42 29 31 47 37 47 35 51 31 31 34 27 63 41 61 54 49 54 29 41 60 52 39 30 30 27 51 35 30 52 52 55 45 36 12 29 47 43 39 54 45 51 34 39 56 42 51 49 40 41 54 48 33 34 50 41 25 35 19 40 44 15 39 36 34 36 46 43 30 51 32 31 33 40 37 43 50 30 44 48 37 52 47 52 29 29 40 62 40 58 28 40 45 35 39 29 51 40 38 49 48 29 37 47 33 60 48 36 35 40 46 38 17 40 34 52 37 49 59 44 41 43 40 38 29 37 30 51 49 41 37 36 38 41 26 47 42 27 41 44 51 56 36 42 23 50 40 40 23 38 38 37 44 43 45 57 36 50 39 52 61 34 37 51 33 26 48 42 16 44 29 42 36 29 43 50 44 51 43 23 40 48 43 38 31 37 33 24 45 38 43 40 45 41 22 63 46 45 51 48 23 19 52 54 34 33 33 33 33 29 41 44 39 45 42 37 37 38 59 35 41 40 23 36 52 34 57 44 38 55 37 48 51 65 43 26 66 50 27 37 25 42 38 34 57 46 45 27 50 34 58 43 43 45 51 28 42 54 37 44 30 38 33 59 54 43 19 41 48 27 40 38 41 30 44 41 57 51 50 45 34 33 33 37 56 22 37 33 21 31 37 51 43 37 31 39 54 13 30 32 39 30 36 43 45 23 31 63 34 33 58 26 45 38 70 50 35 44 54 48 32 48 40 41 39 38 48 54 39 47 54 59 46 41 45 39 23 48 27 37 36 37 19 56 37 39 31 44 52 35 43 47 48 34 40 32 31 46 36 48 44 38 64 46 42 31 43 39 38 48 53 37 49 31 26 76 50 51 52 25 41 51 40 41 51 40 27 47 20 48 31 51 33 48 43 41 30 38 59 44 59 40 55 39 58 37 37 39 35 44 68 26 40 41 16 46 46 36 41 45 38 55 23 39 55 45 44 23 33 62 45 31 38 45 32 43 30 54 41 47 43 30 28 20 53 31 35 29 60 64 22 41 52 34 51 33 43 41 52 42 36 54 36 37 35 30 37 29 26 27 40 26 27 48 65 33 39 32 44 58 44 46 43 43 44 56 49 38 64 51 27 27 48 37 27 33 54 36 37 65 44 59 57 44 31 38 48 45 50 22 35 60 37 43 48 38 54 42 51 23 45 40 31 47 37 31 43 29 61 47 39 34 38 49 54 30 36 34 26 62 44 29 52 35 30 28 56 31 53 22 36 52 34 35 43 45 31 34 33 34 46 15 66 37 16 31 44 47 45 30 31 27 55 29 55 48 29 30 37 56 51 58 53 50 37 40 25 42 50 26 37 38 51 60 22 41 47 52 35 50 44 55 40 34 68 28 30 49 40 41 40 45 62 38 34 40 46 48 41 69 36 39 58 51 48 44 43 47 42 73 40 44 44 42 44 38 23 50 60 30 62 26 34 44 44 30 53 60 33 24 43 20 34 23 42 45 61 22 33 41 41 27 49 41 31 31 21 24 59 33 41 77 27 63 36 31 37 23 36 24 36 38 37 28 42 59 50 43 46 38 53 54 37 44 55 41 34 38 27 51 39 48 41 35 44 72 48 47 32 30 44 30 28 41 58 43 52 31 49 27 16 38 40 40 26 47 37 45 16 45 38 36 46 51 28 42 43 35 43 63 48 30 53 53 67 48 41 47 25 58 37 32 48 48 23 44 55 32 41 40 49 36 53 45 42 59 37 27 41 31 53 49 40 33 29 37 34 23 54 45 21 37 53 38 37 35 59 30 61 37 29 45 51 39 44 40 40 47 54 44 40 47 27 40 32 58 25 42 44 43 27 30 42 36 50 51 50 39 55 50 36 40 29 50 52 41 52 37 29 68 45 24 48 23 34 46 55 46 27 15 29 37 41 48 40 35 41 31 65 23 33 31 44 24 32 38 50 28 50 44 40 35 33 36 23 33 36 31 27 27 34 19 34 66 52 38 45 37 51 37 34 48 44 23 37 55 32 57 31 47 45 44 32 55 44 33 45 44 28 25 43 37 37 51 33 40 40 37 20 51 44 34 37 38 44 37 62 25 55 41 44 37 49 51 44 35 31 31 45 34 40 34 41 55 16 27 37 31 43 41 43 53 27 47 24 55 50 61 27 49 40 34 51 52 53 49 36 51 20 27 46 35 58 45 46 35 33 45 49 37 41 37 44 37 54 22 38 50 38 54 29 44 38 34 18 36 42 26 37 29 37 44 45 24 47 36 54 39 51 23 61 37 48 37 53 30 30 51 41 39 44 27 37 55 58 51 41 48 41 52 27 40 54 33 25 47 47 29 43 13 38 60 30 49 44 55 24 30 49 43 41 40 47 37 59 30 30 37 38 29 45 28 23 41 35 44 36 41 43 40 26 28 30 37 41 52 53 56 59 36 48 53 47 44 52 50 43 41 38 38 35 41 30 24 37 59 33 20 23 44 45 52 43 36 37 50 31 57 56 37 51 46 59 20 55 37 40 31 49 26 37 52 33 44 43 30 43 45 32 40 23 36 34 31 38 39 16 45 49 66 23 51 54 33 40 51 30 47 44 48 20 45 50 37 59 44 34 33 36 46 31 58 37 46 39 12 57 49 27 41 46 37 58 38 54 43 23 48 45 41 40 34 40 46 40 30 47 34 55 37 30 26 52 26 48 53 30 35 37 40 37 37 28 45 31 31 47 52 26 37 52 42 30 40 37 46 57 45 45 45 44 44 27 27 37 44 41 27 34 41 38 30 37 45 60 37 30 29 38 44 51 40 29 55 42 34 37 36 39 29 30 59 37 60 19 40 51 37 25 43 34 46 73 50 56 31 44 57 44 45 40 35 44 58 51 44 46 27 36 40 37 50 41 47 50 56 42 40 52 45 36 38 33 31 46 41 31 29 43 40 37 26 52 42 30 21 54 39 26 29 51 29 48 45 44 62 26 45 47 37 34 41 42 48 44 62 41 33 51 39 51 29 41 40 51 41 64 37 27 44 58 27 34 34 39 54 51 38 44 55 43 22 36 38 28 35 58 26 58 36 51 27 49 45 37 34 37 44 48 42 60 43 43 13 40 43 45 68 42 47 52 49 42 46 52 35 40 37 33 35 33 28 44 48 23 41 30 42 51 31 48 45 53 30 34 45 24 45 53 16 42 45 44 24 32 38 62 51 37 50 42 45 37 41 45 50 37 48 42 35 51 37 21 33 35 23 33 34 37 31 45 45 41 37 48 37 43 43 37 65 48 38 35 62 58 40 35 40 38 48 34 48 37 43 27 45 37 45 59 27 31 35 29 47 41 49 54 41 36 30 43 51 37 29 27 53 33 42 54 44 58 73 49 36 55 62 55 29 31 40 16 42 41 50 36 34 44 51 41 55 41 45 56 49 44 40 48 37 38 46 42 52 34 43 42 57 46 40 27 39 40 40 50 59 41 61 51 19 41 44 16 44 24 67 55 49 37 31 43 38 60 59 19 44 51 41 48 48 20 50 40 47 26 55 39 37 51 30 36 41 60 52 23 38 53 45 43 46 53 36 23 46 41 50 40 44 38 30 60 54 53 41 34 40 41 48 46 37 50 53 29 54 52 59 44 35 38 30 41 37 45 43 29 21 51 27 32 34 47 38 37 19 31 45 22 51 57 40 51 27 16 25 50 31 44 31 37 42 41 59 55 37 31 43 26 60 39 45 46 41 55 51 45 36 48 58 33 25 47 45 51 48 38 40 51 32 34 40 34 44 53 27 51 45 27 40 51 33 58 35 40 57 44 38 52 49 22 34 37 33 43 30 40 47 31 44 37 53 45 34 50 45 36 34 50 44 63 40 54 57 27 44 43 30 44 31 39 36 39 40 39 34 57 41 26 41 47 50 38 45 37 50 32 30 33 44 41 45 37 63 46 43 53 59 31 44 41 25 29 41 56 59 57 40 43 20 47 63 24 40 48 36 28 55 37 22 57 39 52 37 54 31 33 42 43 39 45 28 42 49 28 47 48 26 44 43 37 47 59 55 37 49 37 29 45 30 42 51 27 44 59 59 62 27 25 30 46 34 37 46 33 36 39 54 20 27 60 48 24 41 44 40 40 23 43 45 39 37 56 48 48 50 48 34 33 45 43 36 37 36 48 51 31 30 30 40 27 44 26 37 38 57 62 44 40 52 44 51 32 42 43 30 19 48 41 44 41 38 25 41 37 34 48 29 55 37 51 35 49 64 49 37 52 41 51 31 24 43 37 44 37 43 22 57 61 27 45 45 29 39 33 58 29 43 58 44 45 51 47 45 57 38 27 43 23 51 46 51 55 41 51 46 45 45 35 45 41 46 30 44 66 51 33 30 35 37 38 46 44 32 48 41 40 43 47 27 42 55 43 33 37 44 40 51 45 29 45 46 26 33 30 34 63 45 38 45 49 43 48 31 33 54 55 55 39 23 40 26 45 45 52 54 52 45 43 35 36 33 43 50 45 34 30 27 47 44 50 33 44 22 37 55 41 27 36 50 37 51 19 48 26 37 40 36 22 45 43 41 33 51 13 47 40 51 45 48 53 31 59 36 38 55 39 29 45 44 31 30 31 61 29 44 41 37 37 37 23 38 46 66 54 52 43 37 47 51 42 32 31 42 31 44 39 41 34 31 39 54 56 34 42 43 19 27 24 48 36 57 31 44 40 41 13 37 47 37 27 46 54 52 41 31 53 33 37 57 50 37 37 45 47 51 47 29 30 30 30 33 44 20 30 25 39 37 65 47 35 37 31 67 41 55 37 41 47 54 36 37 37 31 30 53 24 33 36 49 28 43 44 22 34 33 49 32 38 36 46 51 40 43 45 46 30 36 51 37 30 38 53 45 21 62 49 41 27 49 37 33 36 55 38 45 44 37 49 59 37 36 32 49 47 26 55 46 47 44 49 38 51 45 48 31 25 37 48 58 37 59 29 24 29 47 51 27 55 32 41 46 46 49 35 41 33 48 44 44 68 49 36 46 50 46 40 41 32 48 33 49 61 57 48 48 51 50 21 12 37 23 54 33 23 45 29 33 28 36 48 31 52 60 59 41 43 40 46 29 38 40 33 47 43 38 18 59 62 51 47 32 34 43 56 25 45 23 24 51 49 50 38 40 52 30 37 19 44 44 50 53 41 39 41 54 40 36 43 51 46 41 27 26 50 41 23 55 38 51 55 28 54 47 40 41 29 41 36 44 53 48 32 13 33 47 34 33 22 29 40 46 26 52 37 28 26 55 29 39 41 41 48 26 40 50 43 46 34 31 26 40 32 52 51 41 38 59 45 34 30 35 47 34 45 35 26 40 24 29 31 51 43 47 16 39 35 40 54 46 40 41 60 52 46 22 34 55 51 58 49 37 45 22 41 23 51 41 43 13 34 37 59 30 59 44 44 35 46 37 37 41 52 54 58 37 31 51 20 36 35 37 45 35 47 62 29 33 31 37 53 29 44 49 44 43 35 21 40 35 33 47 12 37 42 33 45 41 57 47 13 30 50 47 26 48 23 29 38 55 44 43 35 27 46 45 42 58 41 70 30 46 69 46 42 56 52 41 23 51 33 37 61 37 47 55 51 55 60 31 47 55 41 51 43 33 34 37 41 47 60 49 35 51 34 66 27 16 48 53 32 45 44 31 40 51 26 52 24 38 30 30 52 45 31 41 47 45 31 56 46 45 29 31 40 28 49 34 48 38 41 37 48 47 53 40 64 45 48 48 44 38 30 36 24 45 42 41 34 40 43 27 29 47 27 51 49 46 45 27 35 43 22 37 60 52 47 33 50 44 39 44 48 41 40 37 50 26 55 51 38 41 34 36 27 55 39 37 40 46 42 41 44 45 27 41 20 45 30 48 42 41 42 37 36 51 38 51 47 45 45 55 43 37 27 41 46 46 33 55 40 45 40 33 33 44 40 49 55 41 34 37 51 51 52 55 44 36 59 42 38 37 45 41 37 26 37 68 10 36 40 31 23 48 27 30 43 47 33 26 27 44 48 36 48 54 50 37 48 30 20 44 30 49 33 26 29 45 51 52 31 37 58 31 59 47 45 47 45 37 50 37 29 37 55 27 48 40 57 37 33 55 40 33 65 37 42 38 54 41 33 45 42 38 38 31 40 30 55 39 38 35 33 27 45 48 29 26 38 36 43 43 59 35 41 41 40 37 30 35 45 45 55 42 37 30 45 48 52 22 28 31 47 51 44 54 30 19 50 47 23 45 51 31 39 29 35 38 36 43 53 24 41 49 44 30 52 44 47 51 38 24 34 27 47 25 30 30 43 55 36 56 31 53 37 20 42 41 38 33 40 36 46 36 23 45 48 28 27 33 37 48 69 35 43 41 56 45 31 33 45 34 53 41 40 36 41 35 39 59 40 47 65 34 51 27 34 37 29 46 66 51 36 34 37 35 62 30 38 27 33 52 46 22 40 39 21 29 36 44 47 57 46 43 26 29 40 31 37 47 40 49 45 28 49 27 53 66 37 52 34 38 33 44 26 38 64 57 36 46 43 57 42 54 48 51 55 24 40 33 54 31 54 36 15 38 59 33 39 61 40 52 54 57 59 39 44 55 37 13 42 31 27 37 37 51 34 45 59 33 39 26 44 49 37 34 47 40 13 58 56 42 41 51 50 53 19 26 41 52 46 50 37 40 54 49 39 31 45 32 29 26 47 61 33 41 32 31 13 30 48 42 23 55 41 51 37 65 51 43 48 52 52 40 24 59 31 40 26 35 37 41 27 35 47 61 51 41 47 37 33 52 34 42 41 41 51 43 19 28 46 45 38 44 37 44 28 51 22 51 23 39 44 23 22 55 51 59 43 43 30 35 29 43 32 38 55 27 44 47 37 46 29 59 43 45 38 50 42 30 30 49 36 56 55 48 54 33 45 41 52 38 43 37 55 40 49 50 57 41 29 48 39 48 52 58 23 37 41 52 41 41 51 43 28 48 38 40 48 40 54 40 16 50 51 33 41 45 52 47 51 48 51 48 21 37 55 51 31 37 34 45 45 60 28 44 31 33 47 37 41 42 42 38 39 48 55 38 32 41 43 37 47 35 43 23 50 27 47 31 37 34 31 30 40 51 29 41 51 33 19 40 28 40 49 43 65 51 63 47 16 52 40 35 55 41 37 34 38 53 45 44 31 39 37 37 33 39 47 55 49 23 41 16 48 43 26 45 51 49 54 40 40 34 47 32 34 35 37 33 52 29 44 40 45 37 57 51 41 34 30 41 28 32 12 26 41 37 29 31 24 39 51 50 38 33 45 44 24 36 45 62 41 26 43 39 40 43 29 39 40 23 32 51 51 45 50 54 47 38 49 42 25 46 52 48 48 46 52 55 44 40 32 59 52 37 40 38 54 52 35 36 45 37 47 48 38 35 62 50 31 41 58 47 40 23 29 23 46 24 25 32 33 54 68 38 37 25 38 44 48 40 33 44 48 30 26 41 31 50 51 9 24 42 31 53 47 36 27 31 43 16 22 40 45 37 65 27 48 41 28 20 48 58 38 45 48 26 41 58 51 34 42 29 43 35 27 52 37 37 41 30 64 45 48 63 48 50 52 41 41 37 47 56 36 31 40 29 37 29 38 37 54 47 29 41 30 44 34 23 35 58 48 58 58 23 55 47 51 32 52 46 50 39 44 27 38 25 37 37 54 36 34 52 51 26 26 27 32 47 29 37 55 59 47 34 42 33 34 19 43 26 24 23 27 37 37 52 20 36 34 33 35 37 38 36 48 45 33 47 30 32 64 44 42 59 44 35 55 57 65 44 49 37 31 40 41 44 30 28 54 51 52 37 37 28 41 29 53 26 55 41 37 29 40 55 54 52 44 48 35 50 38 31 44 65 40 35 31 44 37 55 27 29 36 37 38 23 51 33 43 37 30 31 40 27 44 37 34 54 23 64 41 52 31 31 40 22 45 50 49 37 49 40 25 44 33 31 47 20 40 27 40 25 55 44 30 40 44 41 46 55 51 61 27 37 53 59 27 37 34 32 32 49 45 27 54 30 45 30 30 37 24 47 42 33 54 29 50 31 27 37 52 43 44 48 27 37 53 39 40 51 41 33 46 53 37 41 28 34 19 54 60 43 23 45 40 43 51 33 47 33 43 50 30 30 50 43 26 40 39 53 30 50 32 54 44 52 42 37 57 46 44 43 36 23 44 54 48 39 40 36 56 34 22 13 36 48 48 40 57 40 23 23 63 20 37 22 46 48 17 56 50 55 24 41 55 39 33 56 26 42 45 48 36 45 53 29 27 32 64 44 65 34 55 29 31 37 46 22 33 30 31 51 31 39 40 67 46 27 38 33 39 23 25 34 45 31 40 24 36 48 49 37 48 29 12 44 45 22 47 50 37 28 32 48 44 40 39 19 46 35 37 41 37 62 39 51 33 31 40 35 41 51 58 41 37 39 48 37 41 35 34 49 41 37 36 23 43 30 72 31 54 52 34 47 17 38 48 37 36 40 36 24 38 45 27 38 41 40 31 49 27 54 36 35 55 46 45 37 41 44 53 52 57 45 44 53 33 47 25 34 37 52 33 33 27 35 52 41 23 55 67 27 27 44 37 46 40 51 54 54 33 41 30 40 22 45 37 45 29 41 49 38 41 34 46 44 40 47 38 30 57 47 58 44 43 46 54 50 43 29 55 35 39 31 51 59 34 31 43 23 54 32 36 23 43 35 57 52 55 33 37 44 53 42 55 16 42 51 34 38 42 37 44 65 29 50 30 26 52 41 44 49 48 49 24 52 27 64 27 51 34 67 31 52 60 52 59 50 44 31 45 22 65 33 44 38 34 51 37 32 23 45 36 54 28 33 52 45 45 30 38 34 35 51</t>
+    <t>JSU(-0.05256212811147583, 4.2506730859888755, -1.957599749497689, 50.852511827297384)</t>
+  </si>
+  <si>
+    <t>-13 7 3 5 9 5 -8 9 -3 -10 19 -17 3 3 -2 5 2 6 -4 4 7 3 -23 -26 2 15 -14 -3 -3 8 21 7 -12 -24 11 3 10 -3 5 -12 -20 8 8 15 6 -11 -11 -17 -13 -3 3 20 -3 14 4 -8 2 30 3 7 7 14 20 15 -3 -3 -20 -6 17 4 18 -4 -17 -12 3 -14 -3 10 3 7 -3 6 -17 4 -12 8 1 8 -7 -3 -21 7 -10 1 -35 14 -1 -14 -15 14 7 -16 -14 14 6 4 0 -22 -19 -21 -3 -24 -7 3 14 9 28 10 6 20 -29 19 -10 -6 5 4 -19 -7 -3 5 11 -28 -3 -15 4 1 -11 21 3 9 -7 -10 -15 -5 -7 6 -3 12 -4 3 3 -14 -6 11 7 -12 -15 21 7 -4 21 -10 3 -1 -3 -3 17 -14 7 7 14 -8 -18 -13 3 8 -6 -1 31 -13 -4 -6 5 -5 5 -10 1 7 10 -7 -8 -6 -10 9 1 -7 8 7 11 3 -5 14 -23 -7 -24 -4 -10 -9 6 2 -3 2 3 -12 11 -1 -13 22 4 -6 10 -15 7 -7 -15 6 -1 -14 -15 8 8 -6 3 -31 -3 -6 3 -7 28 24 -14 12 -30 -19 -24 -28 11 -15 19 8 14 3 -3 12 -2 11 8 -16 -6 -7 8 26 0 6 -8 -15 3 2 -4 -3 -7 32 -4 16 -25 -7 -27 -26 -1 23 -2 27 5 -7 -14 -3 3 4 -7 7 3 -14 -23 9 16 -3 -3 -3 -7 -24 -17 -14 22 3 -14 -2 5 -4 5 -3 -24 3 14 3 -17 8 5 11 4 24 2 8 18 7 18 -4 -11 -5 13 -7 1 -36 3 -2 17 9 -29 -11 22 -27 20 -3 6 2 -3 7 -7 -6 -6 -16 9 -8 -11 -13 15 11 -9 -16 -20 14 -18 14 5 -2 11 -14 -4 -9 -16 20 14 -5 3 6 -6 7 15 14 18 3 -6 -5 -5 3 -4 -10 -17 -2 -10 -20 17 -14 -3 14 13 -3 23 14 43 5 21 17 -5 3 20 -2 -21 -23 -11 6 -2 -3 10 -11 -4 14 -9 7 -14 -16 -8 6 -19 21 3 18 -16 -21 -3 -12 -20 17 -15 -20 14 -1 -10 -1 -3 -14 -12 12 -7 -7 4 -14 6 9 10 -4 21 3 -8 7 -11 13 42 -17 -9 -20 11 -24 21 -10 10 -18 -8 -3 -19 -13 14 -7 -7 4 4 10 -5 11 -10 16 5 -3 -14 -3 -17 -17 -20 5 -3 -7 -24 -10 14 5 23 -31 -14 4 1 -14 -7 10 18 4 7 4 8 -10 2 -4 -10 6 14 7 -15 -1 7 8 -9 11 7 -7 7 11 1 24 -23 -15 24 -4 -3 -7 -10 -18 -9 -1 -7 -21 18 6 -4 -15 -9 8 -4 10 -13 -3 -1 3 -6 6 -1 11 -3 -7 3 -2 3 -5 -8 -23 -1 6 2 -1 -7 -17 -3 -21 -11 -6 6 -12 -18 -6 4 -4 -12 4 17 -14 2 -2 8 -3 19 15 -12 1 -14 2 8 -6 -6 -3 16 -17 12 16 -1 5 3 -7 -6 11 10 22 -15 6 -24 -17 -11 -17 4 -3 -9 -23 15 6 4 10 -13 11 -17 -3 24 -3 3 4 11 2 -1 3 7 7 3 2 -6 -27 6 3 -1 7 -18 -5 2 24 -14 -8 3 -16 -3 -4 -3 3 2 3 -4 -6 -7 -5 -20 -4 -10 7 -8 -20 -12 -16 5 3 -6 -18 3 -21 -21 -14 29 5 -4 12 4 3 -14 2 -18 -18 26 -5 -16 -12 6 -13 -1 11 -4 -11 11 3 -19 -33 -7 8 -4 -6 13 -7 -15 1 9 -6 -31 3 4 -19 -6 6 -10 17 37 6 3 -24 -23 5 -7 2 -4 21 -10 3 17 -4 6 16 9 1 3 6 3 -6 9 -21 14 -7 -29 24 -1 18 -6 -22 -14 13 11 21 -3 0 -6 -6 -13 -16 -3 -22 -3 -5 -4 -17 -1 -9 16 11 4 14 -3 -15 -3 -25 -3 -8 -12 -11 10 7 6 -4 25 -15 -8 3 3 10 -8 16 -3 5 6 2 -7 -5 4 -3 -7 -1 12 -10 -3 16 5 -17 -6 -3 33 -13 -4 -3 -4 14 11 18 -3 0 12 -20 10 -22 -4 -3 7 6 -7 -7 -4 14 -8 -11 -12 7 8 -10 -4 4 -14 6 3 11 -5 -17 17 19 3 -3 -29 -5 -2 12 6 2 20 16 20 6 11 -7 -13 -7 18 10 5 -1 -17 -8 7 8 -8 3 -8 4 -3 10 0 6 1 -13 -4 20 -2 28 -6 7 -7 -29 3 -14 16 14 14 -42 -7 -11 24 1 -1 7 14 3 -21 4 9 -4 13 3 -17 -27 -7 7 11 10 -7 -17 12 -3 3 6 -2 -6 14 -14 -18 -6 -7 2 13 -3 -17 14 14 14 6 18 10 -9 -7 -1 -6 -10 -8 -6 -7 -2 -45 -15 6 -1 -18 -13 10 16 -10 20 10 3 -13 -11 15 3 2 -19 10 3 -9 -22 1 -15 -26 -22 -15 -3 31 -3 -3 -13 -16 -3 -2 -4 9 -6 -6 3 -6 -1 -7 -3 -5 -9 -11 -7 1 -6 7 -11 3 21 6 2 -24 -7 4 11 4 10 -35 13 25 -6 15 14 -7 -9 -10 4 -8 -7 -6 19 7 3 -27 6 -24 7 -21 17 3 -12 -16 -3 11 2 6 11 -3 -3 -1 6 6 5 -13 -10 -11 1 -7 8 -44 11 -14 -7 -3 -30 10 7 -4 -11 1 32 -7 24 7 -4 -3 -4 25 -3 11 -1 -17 -3 17 -6 -3 10 11 -5 13 7 -14 18 8 11 14 17 -3 -20 -6 1 3 -15 -3 17 2 -1 37 3 -10 17 -3 -10 7 -29 8 -2 -25 -20 -2 -10 -4 -4 6 -21 -6 -9 -28 14 -6 -4 -22 -6 -25 -14 -6 13 -39 -29 4 -24 29 3 7 3 -3 -12 -19 -13 -22 23 -8 3 -13 7 15 -3 -6 -22 -6 -31 -5 5 3 4 14 8 8 4 -21 10 -6 6 -22 -5 4 17 -3 3 11 -7 14 -21 18 -7 7 -23 25 -8 -5 -10 -13 -13 5 -9 0 -12 -8 3 25 -12 12 -11 15 17 18 -12 -10 -3 -12 6 -3 10 10 10 14 11 -38 -24 -7 -26 -4 4 3 -10 11 -12 5 -17 3 -4 7 -7 -6 -6 -11 7 -3 1 18 -3 -7 4 -3 6 6 3 10 -5 12 3 -1 -3 11 -15 5 -9 -5 3 -5 -31 -6 -8 -13 16 21 3 4 4 0 -6 4 -30 17 -3 -3 -7 6 15 -1 -3 3 -11 -4 -5 -6 -3 9 -3 -7 -6 -3 -17 10 -6 -3 1 7 14 -17 7 -7 13 7 3 -7 -4 16 -7 1 14 3 21 -7 -3 1 -13 3 -18 3 -3 3 -14 10 -42 5 3 10 -18 -22 -5 -19 11 8 -14 38 21 -20 -13 14 6 3 12 -10 -6 -18 -16 -3 -5 -7 3 1 14 -13 10 7 -2 -8 -11 12 -3 -3 -7 -18 -14 11 15 4 13 -10 14 -10 8 -19 -3 -4 -17 -21 3 11 19 -7 7 -14 2 -20 3 18 -4 -7 -1 1 11 -25 5 3 -3 3 -3 10 3 -10 -27 3 3 10 6 -3 8 -14 -5 7 -21 -27 -11 6 -9 -8 -3 -10 -15 -13 -7 10 -12 -3 21 -10 -17 25 -6 -5 -3 -15 -3 5 5 6 -25 -22 -11 13 0 -21 -18 21 -3 15 28 3 -42 -10 -3 17 21 -10 29 -9 -3 11 3 5 -9 5 9 24 6 10 -14 14 -3 10 -1 11 -9 -8 -16 11 28 5 -5 -14 -18 -21 -14 -3 18 -15 3 6 -6 11 -18 -27 -9 -14 4 -3 -30 -21 -4 -15 10 -3 -4 3 -8 3 9 3 -13 11 -14 -5 -48 9 -8 -6 -17 3 -1 -23 -14 -1 -7 2 -3 -3 -7 -14 25 -21 -3 26 4 11 -14 -17 -3 -3 -15 14 -12 20 -7 -3 -6 21 -9 -28 5 3 -4 7 4 31 7 -8 -10 -13 3 -7 1 -18 -2 6 -3 11 -11 2 3 6 -18 -3 0 13 -11 10 16 -11 7 -18 11 -6 3 -13 -3 7 7 -8 -20 3 -16 -6 -5 14 -11 6 6 1 -4 -20 21 -7 -3 -1 9 -7 18 -7 -2 14 -4 -24 -4 -3 -6 8 -8 -3 -9 -13 2 -4 29 -17 -4 -4 7 -10 6 3 -13 -8 -4 -16 21 -8 -9 3 6 -6 7 -10 -13 -14 14 20 -18 -10 23 11 7 -7 2 -13 -7 -9 -38 -2 5 -3 18 -13 -5 4 10 -3 -26 7 17 -8 -13 3 -13 10 -3 -6 -12 -6 11 6 8 33 -22 -25 42 -4 -10 -31 14 -7 6 -2 28 12 -10 -17 -5 -5 6 15 21 4 -17 -15 32 -7 -4 -18 11 10 0 -31 13 -8 8 -3 0 -14 -3 13 -24 -31 -3 -12 3 -3 8 -3 16 -5 7 4 -3 7 11 3 -10 -13 4 -10 -12 6 -15 -2 8 -18 15 19 -11 -9 5 -5 4 -11 -3 -28 6 -1 -17 -17 -3 -7 3 -2 -26 -8 4 3 -4 21 -6 3 13 -9 24 -7 -7 12 3 22 15 -3 -11 4 7 -10 13 14 3 -4 2 -16 1 -11 -3 -4 -27 6 23 4 -1 3 -8 -24 -8 -9 -6 8 3 -5 -3 -16 -3 -22 -6 0 6 24 29 11 -18 -7 -7 -10 27 -3 7 -7 -5 4 -11 22 20 4 5 7 -22 10 6 -5 -5 14 -9 -5 3 -6 0 2 -24 -12 10 6 14 -3 -6 -17 -17 1 26 8 2 14 -1 3 27 -7 -38 -14 4 6 -10 10 -9 3 -6 11 -13 25 -5 10 -6 -14 -28 -4 -3 6 -6 -5 31 3 -6 -8 9 4 -6 -3 -7 7 -14 14 -7 -5 -3 7 -30 -3 -24 5 0 10 -5 1 -6 -7 18 9 0 6 7 7 5 7 5 -7 -11 -2 -11 -4 -29 5 6 -3 -6 -8 -8 -3 -20 23 -34 7 -6 -3 3 -6 14 5 -6 3 4 -3 17 -7 7 3 31 -13 3 6 6 3 -34 -12 1 -7 -17 -11 -3 -26 -10 3 -2 -18 4 9 15 15 11 -3 -17 -25 5 27 -17 -16 -2 21 3 3 -5 13 -13 -19 23 -7 7 14 7 3 -10 -1 1 -13 -7 3 -5 3 -3 11 -3 8 -1 5 28 29 -4 -7 -10 -41 10 -24 -6 -36 -2 16 -8 -14 -13 -1 5 27 21 14 4 -28 3 -7 -3 4 -17 3 7 -11 31 -8 -14 10 4 -3 17 -3 -1 -3 -2 -11 -13 -13 2 7 -7 -21 -4 -18 -14 24 4 2 10 -3 -9 -13 -8 3 21 -3 2 6 -5 4 7 -7 27 3 3 -2 11 3 -14 16 6 -6 9 -17 -13 -12 -10 -6 -10 -19 -17 14 -4 -6 3 -35 0 2 3 -6 6 23 -6 -16 -33 -3 -10 -23 -1 -4 -7 3 -32 -5 0 -17 3 10 -13 -21 6 -1 17 20 -7 -4 -6 14 -10 10 8 17 -3 -7 -7 -3 20 -16 3 -3 -16 20 14 17 -14 -1 3 4 -21 -10 6 14 -11 -7 7 -14 14 4 -7 -21 12 -5 -11 -19 10 -4 8 -7 2 3 6 -3 2 -9 14 -3 10 9 3 -7 6 -23 -3 -8 -1 21 6 -10 -14 4 -3 -7 -20 -13 -17 11 -9 2 -3 13 9 14 -11 -3 -2 6 -1 8 -5 5 -8 14 7 -10 -14 7 5 -20 10 -6 10 14 -15 0 15 -21 -5 -33 11 7 -20 -7 14 1 -10 -27 7 -4 -3 -1 -2 2 -5 24 3 -10 -4 3 -2 6 3 -1 7 -8 5 22 6 -23 -10 -3 3 -18 -25 -12 -11 2 3 -6 6 10 24 -24 4 -11 -5 -6 -21 -2 -7 8 14 -17 -4 11 -2 -8 28 -3 -2 -17 -4 -14 17 3 -14 -4 18 3 -7 -20 -3 -25 -13 7 12 -13 -29 -5 -18 7 -17 -5 -17 -2 -38 2 -3 -8 -6 -8 -7 6 -19 14 -8 -17 -6 3 -13 3 8 8 -3 -3 2 7 -8 0 6 8 -6 -6 -24 -7 -9 -7 -18 -9 10 -22 -14 17 -2 -3 -3 -11 -3 7 -3 -6 10 -21 3 -18 -7 3 6 -2 7 -19 31 14 5 -8 -3 -18 -3 5 -34 -9 4 3 -17 -14 10 -5 -11 -8 -24 -4 -4 -11 17 4 -8 5 3 -8 -17 41 -24 3 3 11 7 6 9 -4 -31 0 -20 14 21 17 -21 8 -23 1 2 7 -4 1 27 13 -10 5 8 -13 5 -17 12 -2 8 15 -3 9 12 3 15 2 5 0 8 -16 3 28 12 -17 -3 5 3 1 -10 -6 -6 -3 21 13 -14 -17 -4 -2 -7 -8 4 -10 28 -3 -4 -7 -4 -27 18 17 -8 -3 3 -6 5 1 -6 -7 -1 -7 -15 11 -3 -3 4 -3 -10 3 10 -4 6 1 3 5 -15 -28 -14 11 -11 7 3 -6 -28 -13 -18 -9 -10 3 12 3 -6 15 -1 -5 10 -11 3 3 -3 9 9 -11 -3 15 -8 -20 3 27 6 -30 -15 -10 3 -24 -9 -9 15 20 -10 6 -6 -21 -6 -4 -7 -4 -3 -14 8 -11 -15 -20 -19 -2 -4 -13 16 -6 17 -17 1 21 -18 -16 -5 16 -7 -21 5 6 -3 -19 17 3 1 -13 -21 -3 -14 22 -20 17 -32 -1 -22 -4 -23 -17 13 10 -9 -13 -3 6 -3 -20 -13 -3 8 5 -2 -13 -10 -13 15 -7 3 4 -7 -3 9 -23 6 -4 14 -15 -3 -14 7 -3 6 3 -35 6 -18 3 -7 -8 -17 -3 17 10 8 6 9 -4 3 -4 -25 -8 -15 -20 21 6 -11 -10 11 14 -14 25 -22 2 7 -27 4 4 -3 19 8 6 7 14 3 -10 4 -24 7 -13 4 -24 -4 -4 8 1 -10 -7 7 -14 -4 -21 14 4 28 11 -5 10 -1 11 -3 17 -2 26 -33 3 -3 3 -12 6 -3 13 5 -8 -10 3 -3 -3 -3 -2 -3 4 -3 7 -26 -14 1 -17 -9 -17 6 -23 -14 6 7 7 14 3 11 7 -6 11 -11 2 10 -20 -10 32 -3 -24 6 30 17 -17 -7 20 1 6 -24 35 -3 -2 -13 8 22 -8 -20 -17 16 6 -1 -17 -2 5 3 7 28 5 -25 21 -28 15 -8 -10 3 -17 11 3 -15 -7 -3 -5 -13 5 2 9 -28 -6 -5 4 -14 18 6 -2 -2 6 34 -3 -3 -24 6 6 9 3 -18 14 27 7 10 -6 -9 -2 -16 12 9 -16 -3 -21 -9 12 10 -6 -14 -14 7 1 7 12 6 0 -21 13 1 10 -11 5 10 -7 18 3 -6 3 -7 -7 -2 -44 -10 -23 9 -4 21 13 -10 27 -17 -7 -24 10 -14 -4 -11 17 -3 -11 -3 7 -16 -13 9 5 -3 20 -6 -7 3 10 15 -18 -3 14 -24 14 10 -6 -14 -13 14 -9 6 -10 6 -3 -2 -6 -1 -10 5 6 -24 17 3 -5 -3 -4 -7 7 -6 4 21 19 25 -20 21 -6 10 -5 -7 21 13 -6 11 -23 -9 -13 -33 4 -3 -6 14 -3 17 6 8 -9 33 7 31 3 -26 1 -24 -18 -17 3 -4 24 -14 3 -10 -14 -7 -14 -21 -13 6 6 6 10 -28 4 12 -21 4 15 7 15 -11 -28 6 -1 -11 11 3 1 19 24 5 -10 5 17 -3 10 -24 -3 28 -20 -7 -1 -4 20 2 -7 -2 -18 -7 -7 -3 -10 -18 -12 -11 6 -7 -2 -5 -9 13 20 -21 -2 25 16 -3 -7 6 -10 6 17 3 -3 -3 6 5 -3 -20 -10 -8 13 -3 1 6 -10 -7 -9 6 -2 -10 -17 17 -7 3 3 -11 -4 -4 6 -21 -17 -6 -12 27 -3 -13 15 -4 6 3 10 -7 6 -18 1 -6 3 1 2 -14 -3 -14 15 1 -13 3 -16 -6 -1 14 -21 2 -4 -6 11 -10 0 10 3 6 30 6 -11 3 4 6 10 1 7 -6 -15 -6 1 14 -8 3 -6 4 -41 -14 -13 -11 -11 -14 10 14 7 11 -3 -11 -5 3 2 -2 -8 10 -21 -24 -6 6 -3 -22 -27 -1 -14 -10 4 -15 -6 7 -8 -27 -14 -10 5 -23 -9 -8 -11 3 9 12 3 15 17 14 15 -10 4 0 3 2 -18 -3 -6 -31 -3 3 -3 13 14 -7 -6 -2 -6 10 -6 -3 -19 -7 -3 -1 -7 3 -4 7 3 -14 -23 -20 -28 41 7 -17 11 -1 -8 -9 11 18 7 3 3 -3 5 -5 -4 3 -22 1 -5 17 -14 18 -21 5 0 -20 -3 -14 2 -10 -21 -6 -10 -22 1 -6 -5 11 -14 11 15 6 10 -1 3 7 -4 6 19 -5 -4 -7 19 18 3 4 -17 -14 -11 -14 17 -3 12 -3 14 -3 -19 4 -6 17 15 16 -9 -10 -7 -10 -5 -9 3 -3 -6 5 -10 10 -6 22 11 -4 -10 -18 1 7 -22 6 18 13 16 14 0 -14 3 3 -9 10 6 5 3 -5 -12 -6 6 -12 -15 -3 -18 -12 22 -17 4 3 25 14 -5 -28 7 3 3 3 -3 3 3 10 11 -8 -16 6 7 7 19 -10 3 -1 -14 -9 6 3 7 9 -14 5 6 -21 -7 -8 -7 -8 -6 11 -24 -6 -26 19 -6 -28 19 -11 -14 10 -19 3 1 -15 4 6 -17 -3 34 -10 7 -3 -11 -4 -2 3 14 -12 7 -10 -13 -10 4 7 -21 -6 1 12 25 14 -3 -2 -9 -3 -3 -4 7 -6 -11 -3 9 -24 -25 -7 30 -20 9 10 17 -9 -19 21 -7 -3 -7 14 -17 3 14 -7 -18 8 -1 -3 -14 -1 3 -27 -24 -18 -11 0 -10 -3 -3 3 -6 4 25 -7 -4 7 -3 5 3 -13 -24 -2 -15 22 3 -8 17 -20 -7 -32 16 0 17 -3 -23 4 13 -1 4 -10 5 15 8 3 -3 6 -2 -12 -12 16 -7 -8 -1 -10 -6 -20 -17 -11 -4 28 -13 7 -15 -31 6 -6 3 3 -3 -1 4 -6 18 -1 -3 -7 13 -21 14 -1 4 15 3 -8 21 23 4 -3 -8 3 15 1 1 -11 -6 -3 -14 -6 4 13 11 -17 -13 21 10 -13 -3 5 3 -7 -14 8 -6 6 3 14 6 -3 6 -14 11 -4 2 14 -4 -6 4 3 4 3 0 -17 -26 1 -2 6 3 10 28 -31 -14 3 7 14 9 -24 3 -11 -13 -1 -17 -15 -17 6 -1 -32 12 2 13 -3 10 -2 -18 2 -7 3 24 23 -17 -4 -10 6 5 2 30 5 6 10 3 15 7 -11 -3 -4 -6 5 -13 -35 -7 4 -3 10 8 -15 -5 -23 6 11 2 3 -7 -13 5 6 5 8 2 4 7 5 -14 3 -28 10 10 -14 -15 14 -9 8 -6 -21 6 -17 15 -15 -11 -23 3 22 17 -6 -7 3 7 -8 8 3 -1 2 -1 -24 3 -14 -3 -21 2 25 -3 4 -7 -4 -8 -6 -14 7 -25 3 7 -6 -10 -13 24 3 -7 -6 5 4 8 -10 -15 5 -3 6 -6 17 -4 0 -18 9 -13 2 -7 10 -16 14 4 17 15 6 -11 -4 3 -2 29 17 -12 3 18 -11 5 6 -4 -16 -8 17 -17 -8 2 -22 -25 -2 -6 24 9 13 -18 -21 -18 -7 -4 -10 7 -1 13 5 4 4 -3 -25 4 -7 -17 -6 3 -10 15 17 -1 14 -8 -21 -1 -20 17 -5 -11 -12 -7 -10 -1 1 8 -21 2 11 -21 15 -17 -3 24 -9 -19 -5 18 13 11 11 5 -6 -7 12 6 -4 -8 20 14 -3 5 -20 -3 -14 -20 -4 13 -6 -11 -7 -3 17 -10 -3 -3 -5 10 3 30 -14 -4 4 -6 -14 -3 -8 -14 -5 13 -19 7 28 -5 -7 -19 17 -9 -6 17 3 -18 -8 -6 3 3 11 -24 -17 4 -11 -7 -3 -5 34 -3 3 5 -11 -6 11 8 -7 -13 -9 12 29 18 35 16 8 -1 19 3 -6 23 -11 -25 24 -13 -4 -2 3 3 -4 26 17 4 -6 -6 -10 -9 -25 -6 6 6 6 -6 -21 6 -7 -6 -11 3 17 3 16 1 -7 6 -17 -4 -1 6 -28 -13 -2 16 6 3 -28 -17 -6 3 -7 -4 -10 19 13 -10 -10 13 5 -17 15 -1 15 5 -9 3 -23 -19 -11 7 7 7 18 17 3 -5 14 -7 -5 -21 -4 -25 -7 30 3 -37 -11 -8 -20 -7 -7 18 -7 7 -12 10 6 -1 -10 15 15 -4 -13 -3 -10 -21 7 -14 -4 -7 8 3 -8 11 -3 4 0 24 1 -26 -13 -7 -8 -3 -21 28 -24 8 -10 -24 -6 -1 -4 3 14 -15 -14 -4 -3 5 3 3 4 6 0 -2 13 6 -10 20 -7 10 -14 3 -6 6 -5 -6 -4 3 14 -10 -27 17 1 7 -10 11 -3 -7 3 8 -35 7 12 7 -13 -18 -3 -3 -3 5 -1 -2 4 18 -24 -13 -10 -10 14 -10 3 -7 14 12 1 -42 2 8 -29 -28 -8 2 1 -39 -17 -3 3 3 25 -17 1 8 -20 4 -8 -13 -20 23 -5 16 -3 -5 -5 -2 -24 13 -3 4 -12 -10 -3 -2 -12 8 14 -3 8 -3 -18 5 4 -3 -8 13 -7 -7 -6 -13 -15 4 -3 -7 7 -16 -6 -21 7 9 -15 7 2 26 -18 1 7 0 -1 -3 -3 -16 8 6 1 -7 -16 32 11 5 -4 7 9 12 17 -2 -1 3 -6 -3 0 6 1 -9 -3 -10 11 4 14 21 -21 11 -6 -3 -18 6 -21 29 -6 3 -3 7 -6 10 8 12 -2 33 14 6 24 -6 11 -8 12 -7 -14 -18 3 -4 17 7 3 10 -3 17 5 -18 5 6 3 5 -4 1 17 -14 3 -10 -7 6 3 -9 19 -4 -4 -13 14 -10 -10 2 -34 -1 -3 3 10 -4 7 3 8 -6 7 -7 6 7 3 -12 -3 10 -17 7 16 -5 7 7 7 8 13 8 -26 -20 2 0 -5 3 -3 24 -4 4 -4 -20 -19 5 12 -17 4 3 -21 5 -3 -4 -7 -13 -14 3 6 8 -19 -7 11 -11 4 -3 3 -24 -3 -12 1 34 3 -1 -19 -7 7 -15 6 -10 -15 -11 -6 -6 -3 11 -8 -1 12 7 -19 -3 17 -10 -2 -5 -18 -6 4 3 13 14 -10 7 -14 -3 4 13 -6 -5 12 -2 -6 6 8 -6 6 -18 6 -3 -15 15 11 4 3 10 1 -3 8 -21 4 22 1 3 -3 -17 -26 -3 -6 20 27 -8 -21 0 10 5 1 -19 -21 10 8 -8 -16 16 8 -10 -2 3 17 3 7 -3 -3 -26 -11 -8 -16 3 -22 5 12 -14 -28 -17 -13 -1 4 3 8 -3 -7 -6 -2 6 3 10 20 4 3 3 6 -6 -3 -7 -8 7 -3 17 -17 21 3 -6 21 -3 11 24 -2 -9 7 -5 4 -9 -1 -17 7 -1 -4 -14 -14 9 4 -15 3 -14 2 -2 11 -18 -12 -17 -14 -19 -3 25 -7 6 5 5 -11 -32 16 -17 -18 -3 -1 -7 4 7 16 -11 3 -14 -1 25 -7 8 4 4 -21 -20 3 -5 -30 -8 8 3 -17 -8 12 2 18 -10 -18 -4 23 14 -4 5 7 9 6 8 -4 -8 -16 -16 -1 -18 6 14 -7 -7 -7 -20 13 20 21 -7 8 4 -1 -4 8 26 -17 19 5 -7 -4 -17 -14 7 9 3 -7 -14 3 21 6 1 10 -7 4 7 -6 14 3 -6 -4 -12 3 -20 -8 -13 -8 -7 -17 7 -7 -7 20 -5 -16 19 -7 2 -17 -6 14 -5 -21 -3 -14 14 -8 -2 7 3 3 10 3 7 -14 -8 3 2 16 -11 -7 -3 -5 -3 -3 29 14 1 29 -2 6 -12 6 -6 -3 -11 -3 -21 3 -3 -6 -6 9 -14 -6 -28 -14 -17 21 4 -4 -7 -1 -20 -3 -16 -9 -17 -6 4 -3 -1 -27 9 8 -3 -19 -4 18 7 -6 -1 3 -8 7 1 -7 -20 6 20 -10 10 4 4 17 -17 10 -7 7 8 -3 11 16 8 5 11 -23 -2 -14 5 -15 -3 -15 8 -7 -14 -28 -18 -7 -13 -11 -5 -9 -4 -12 -14 8 20 -11 6 16 14 -16 -2 -10 15 9 -17 -1 3 9 6 -10 24 -3 21 10 7 -21 -31 -35 6 7 -5 -4 -10 -5 -12 8 -4 -10 10 21 26 -8 14 12 -3 -6 -11 10 -11 14 -5 -3 -26 11 7 6 -11 -3 -3 -22 -15 12 2 5 6 -3 -4 34 4 -4 -3 14 -11 12 -23 -6 -27 6 -21 -3 6 -12 -3 -4 -17 -7 10 -3 7 -17 14 -2 -16 21 11 3 7 4 -4 -9 -13 9 6 7 -3 -8 -17 -17 13 6 28 -5 -3 -1 6 -4 -16 -17 -6 -6 -22 -9 -33 3 22 -8 16 18 24 -10 8 -5 6 6 3 -28 -11 -10 -2 3 3 -8 8 10 -8 34 -15 -11 10 3 -15 -8 6 -5 8 -6 1 -1 7 7 -3 5 -9 7 -5 -3 -18 -3 -2 9 -5 -11 21 -17 -12 -7 -12 -5 6 17 3 10 -27 6 -6 -6 11 -4 -4 -6 2 -7 24 -8 13 -1 -4 20 -8 -17 -14 25 -4 6 -14 3 -2 -6 6 2 24 -6 -3 -3 7 -13 3 -11 -17 6 -8 13 -1 7 -10 -16 -5 8 15 3 21 5 3 -10 27 10 17 -25 -7 -14 -9 13 -7 -7 -18 9 -27 12 13 24 10 2 -1 3 -9 3 8 -14 10 -17 5 -4 -30 -3 -4 -2 -15 10 3 -21 -17 -7 3 -13 3 -14 -9 -5 4 3 -17 6 29 0 -3 -2 -7 6 -21 4 6 -8 -5 17 -25 -26 -7 -8 -3 6 -3 -8 21 -15 17 -14 -3 -7 12 -3 -4 13 -3 8 -3 -2 -3 3 -15 -3 -10 -18 -3 3 -11 -3 -3 -17 6 11 -14 17 10 12 -6 18 3 7 -3 -4 3 3 -7 -17 25 10 3 -13 -4 3 3 14 8 -7 -7 5 -11 21 7 25 -4 3 -21 3 -1 7 -7 2 -2 10 5 -6 -12 37 1 3 -24 -2 -17 6 -12 -3 14 30 -11 -17 10 19 6 4 6 5 -16 -21 -10 -6 -11 10 4 -10 0 -29 2 13 5 10 -3 19 3 -20 -4 3 14 -2 0 -34 -11 8 0 -11 17 7 3 2 -17 -22 -5 -11 -5 -7 -12 -13 -1 -6 1 -3 7 5 6 -21 0 11 -24 -9 3 -21 -20 6 -17 -5 -14 10 -10 18 -4 -7 3 -16 -5 -2 -2 -8 6 21 -8 6 29 -17 7 2 -1 9 15 14 -9 15 6 6 -10 3 3 22 -7 -7 -5 -10 4 -12 -9 -4 -20 -27 -5 -26 -10 -15 -2 3 1 -15 -7 -13 -15 3 -7 14 -10 -7 -18 11 -31 16 10 -7 16 -9 -11 11 3 -24 15 15 -17 -7 -25 -14 7 6 -35 2 -7 16 3 -1 11 14 -7 3 -7 11 -9 35 -1 -2 3 -9 -6 9 -6 -16 2 -15 0 -3 4 6 -5 8 -7 6 -9 11 -11 -20 -5 -5 17 7 -18 -13 9 11 3 -24 9 7 -3 3 10 -14 -11 -1 7 -9 1 3 5 6 4 14 10 -4 -16 -5 -10 3 -21 9 5 -12 -4 -9 3 3 -28 7 9 4 -17 -25 17 -14 -3 7 -6 -4 -10 3 -2 10 4 -3 18 10 -4 15 6 13 3 14 15 -3 3 -2 13 3 -5 -6 -20 5 -17 -5 17 -18 -11 -17 -6 -6 2 3 12 7 -12 13 -3 -5 15 -25 7 -7 -18 -20 -24 13 4 7 3 15 17 5 -3 6 -30 -11 3 -10 35 -27 -14 7 4 -4 3 5 -13 -9 5 29 3 -7 -10 4 -14 -4 3 -17 -24 -18 -16 -3 -4 20 -1 -17 -1 14 24 -3 24 -7 6 16 16 -3 -3 4 -3 12 -18 -19 2 -4 -4 -4 -18 -13 6 -7 3 -3 21 -3 17 3 -9 -8 -21 -9 -16 -6 11 -4 5 2 5 3 2 16 -40 -27 9 -21 21 -2 7 6 -7 7 13 -10 -3 -21 6 -1 -8 20 -9 4 -3 14 6 17 -3 1 -6 -7 -3 6 2 -3 -7 -18 -7 -4 -14 -1 14 17 -20 -3 2 8 6 -6 -6 5 4 13 14 -4 5 -23 -8 3 6 -9 -13 3 8 -18 -3 -15 -6 14 1 -5 -3 -10 2 -3 -17 -3 17 -10 3 7 7 10 -21 -4 7 3 -4 25 -7 -11 -14 8 -3 14 3 14 23 -14 8 -23 -14 3 1 -9 10 -2 4 3 -3 -19 -4 -18 -11 -10 -8 3 -17 -3 -5 9 -6 14 4 6 -1 3 -1 22 -7 -28 -24 -9 -4 -3 -3 -4 4 -14 7 3 -3 -6 -6 8 -21 10 6 -5 17 -4 0 3 -11 -11 7 13 -10 12 6 -8 -3 20 3 17 11 3 7 -4 -6 -5 11 -21 2 -11 -12 25 3 -11 0 -6 -8 -4 2 -20 3 -7 -2 -4 3 29 3 7 -9 -7 -13 1 -25 20 -15 -34 8 3 10 -6 -1 12 3 28 -3 -14 -15 10 19 -6 1 -11 16 3 16 -1 -14 -14 7 2 18 -6 -4 2 -3 -14 5 1 -14 -29 -7 -4 -15 3 0 1 36 -30 14 3 -7 -12 6 6 21 -8 -26 -26 1 -7 11 -6 -17 0 -11 5 7 11 7 2 -23 5 3 -2 -16 -19 -22 2 7 -11 -14 -6 -7 3 -9 13 -1 -12 -8 -9 3 -4 -3 -20 10 6 -13 -2 5 -4 -3 3 10 -21 2 8 6 7 -10 2 -15 0 -12 13 2 7 -22 -7 -17 7 8 -2 -5 14 -20 -5 -10 14 7 8 9 -31 19 6 3 17 -7 2 -27 3 10 -9 -6 -13 3 7 26 10 -3 -15 14 -14 -2 -5 18 -13 -22 -3 -3 13 -3 6 -10 7 3 -11 -9 13 2 3 6 -3 8 -5 17 -5 10 -4 -14 -2 3 -4 -21 -17 23 1 -15 -3 8 -5 15 -7 -24 -3 17 -3 -7 -7 3 -8 14 14 -2 5 -3 3 -35 -3 16 20 -10 14 6 -12 14 -4 -4 14 -6 14 -24 10 -4 17 -18 1 2 8 7 3 18 -15 -21 -17 1 -14 -4 -6 28 3 7 -14 -5 -30 -3 -21 12 -8 -11 -2 18 -20 -6 2 -2 -6 3 6 -10 -11 -5 6 1 -23 -11 3 -25 19 8 7 3 4 -8 -3 -6 -12 14 -20 -12 -21 -10 10 7 -4 2 -5 3 -5 -11 6 7 11 -5 -6 16 -11 -15 10 10 7 13 -17 -3 9 -3 4 -13 3 5 19 17 3 -1 -1 41 13 -24 2 -8 -25 10 -7 -3 -6 32 -2 6 -24 -2 3 -7 14 15 4 -27 -4 -3 41 -3 -6 9 -7 -6 -2 2 3 38 -4 -12 -8 8 -9 -28 3 13 2 3 3 5 -6 0 -6 -18 -3 13 -6 11 -12 -3 -14 5 24 -2 -3 13 3 2 -11 -13 -3 -4 -4 3 21 -10 14 16 7 -2 -12 -20 -3 -10 7 -14 -31 -10 14 -24 5 8 -15 7 -14 3 7 -17 -20 11 10 -14 -6 -10 -3 4 -3 18 6 6 6 -18 -7 -3 5 -6 1 -14 -4 9 5 -3 -3 -17 -11 -3 -14 -23 14 7 -10 -17 -4 -12 3 8 5 4 8 -10 -4 15 18 8 8 5 -20 10 -9 10 14 7 -4 -3 1 -5 -5 7 -7 -23 -4 13 -2 5 -5 -17 -10 20 -14 -6 -5 21 16 11 6 -5 7 -3 -28 -33 -6 -10 -3 -2 6 -7 -5 -17 4 8 3 -9 7 -6 -17 -11 -11 5 -8 14 3 -18 20 -23 -32 28 5 -3 20 -3 -7 5 -14 1 -18 3 -4 16 -17 22 -14 -17 -16 6 3 -11 8 -12 -13 -3 27 -32 -7 19 -2 6 -4 -5 -12 -3 7 -8 23 1 9 8 -6 10 -20 7 -10 4 3 -3 -12 -25 17 -2 23 -9 -4 -3 6 -16 12 -23 -7 -9 21 9 6 7 9 6 11 -8 13 16 -14 -9 3 4 19 7 8 -14 -1 -3 -29 -5 -10 -12 -18 7 -16 -22 2 17 3 18 6 3 15 -7 -6 -13 -11 -3 3 -3 -3 -14 3 -14 5 -3 -20 -3 17 4 5 -28 4 5 3 26 14 -20 -3 -1 34 6 3 -8 -3 3 7 -11 -37 -1 2 5 11 2 10 -3 4 -15 2 0 22 6 -11 -3 6 -4 2 -3 -18 -3 3 11 -19 12 -8 14 -8 -14 14 2 -16 17 6 -17 -10 -7 -16 -3 -7 3 -17 -20 -4 -12 -7 -5 -3 -1 -11 -11 -13 -7 11 -19 0 -10 1 11 -5 -3 -26 37 -6 -3 -13 -3 -3 -4 -6 8 -7 10 -6 5 -6 -6 -4 10 -6 1 10 14 -13 -3 7 11 7 -11 8 -13 -13 1 7 3 -4 -16 -3 -14 4 9 5 7 10 14 17 -4 2 -18 6 1 1 17 19 -31 3 -7 6 -4 3 -7 18 -20 8 -7 -13 -18 7 11 17 6 4 7 8 7 -14 6 5 11 -6 17 -1 0 3 20 -1 -11 -3 11 9 -3 37 -11 -20 -24 22 7 8 -5 -5 -16 -18 -3 6 -9 -10 12 -24 20 12 -14 -7 2 -20 10 27 -4 -12 -3 -8 10 17 3 30 12 2 8 -11 5 -14 17 9 0 -3 0 6 -10 14 -6 -17 7 10 -10 3 7 -10 -6 3 21 -14 -6 -2 -7 -4 7 7 -10 -21 -9 7 24 -4 2 -6 2 -13 -7 4 -13 -10 4 -27 -4 8 -13 -31 -5 -1 23 -10 -6 23 21 -15 27 33 11 -14 -7 -11 -3 -4 25 2 -18 3 18 -1 -10 -16 -3 -3 -3 15 -1 17 -21 -2 -4 -7 14 -7 31 -14 -3 -3 16 7 -4 -1 -2 -14 21 3 -10 -6 14 28 24 3 -3 -17 5 3 -15 -13 -7 4 -17 -2 15 -6 -3 -12 -31 13 -22 35 16 -7 -7 -8 -6 -8 27 3 -4 16 -22 28 -7 41 -14 20 9 1 1 5 -19 -9 -17 -8 11 6 -21 -4 3 3 -7 1 -17 3 5 -2 19 -13 -3 3 1 15 14 -23 -17 -3 8 3 -6 -7 3 -1 2 21 -13 -8 11 7 -2 7 -17 6 6 -20 3 -5 -9 -7 3 1 27 -3 -16 3 15 -18 -22 -3 -8 14 -1 2 6 4 -7 -1 3 -15 4 7 3 -17 24 -6 -3 -3 -8 4 4 -25 -13 9 6 4 11 3 9 2 8 3 -3 -8 -11 15 -15 3 -2 -3 10 -15 -15 -9 -21 -3 3 3 0 -11 8 4 -16 1 -2 3 6 -4 1 11 9 -6 7 7 8 -20 -5 -25 -10 12 7 -21 7 -21 -10 9 12 -3 -28 -13 -18 -6 18 -11 -24 -3 -36 -6 -7 21 -11 -31 -15 -7 0 -17 -16 -7 3 -22 0 7 3 -9 8 4 7 20 7 -13 -7 3 -3 -16 -7 21 -7 -25 -14 -10 -10 -8 -1 -14 10 3 1 4 -15 3 -3 -21 -14 -8 -6 -8 -3 10 -14 -22 -7 -18 13 -3 -6 5 -13 -4 11 -17 3 15 -6 -9 -11 5 6 3 14 3 -7 7 -3 -7 -3 5 20 -7 -1 4 6 -3 2 23 -20 14 -13 -21 14 -7 4 4 28 3 11 18 -11 -10 14 10 -3 -17 -7 -22 -7 13 -6 20 7 3 1 5 -7 -7 -3 4 6 6 6 6 3 -2 7 -15 3 -10 -14 17 -4 12 7 -14 -17 14 -6 -14 -8 -3 -14 -3 1 -13 1 20 4 -7 -21 9 7 13 6 8 -16 7 -2 13 -1 -5 -7 -3 -14 6 -9 -16 -24 5 -3 -8 -3 -3 16 10 34 3 -3 -6 -2 -3 -3 17 1 -21 -16 -14 6 -11 7 -9 15 -9 -7 -3 -3 -19 -20 2 -19 -3 -19 -47 14 15 11 -10 8 -3 -3 4 -4 15 -13 5 13 5 -18 7 -5 16 3 -14 -10 -19 3 5 6 10 3 -10 13 -7 3 4 -24 6 7 -4 13 -8 7 3 14 -15 -13 4 -6 -15 -25 -7 -17 -15 -18 7 4 2 -3 -3 -11 6 -3 3 5 10 -10 -1 -3 -14 4 6 10 -14 1 3 9 12 4 -6 0 14 -5 19 -1 -4 -4 13 6 -19 -3 -9 7 -4 -4 2 23 -6 -17 -4 6 3 -31 -20 -11 -4 17 3 -19 7 -17 21 -18 -3 -10 27 -8 -20 3 -9 28 -10 -7 3 2 -10 -3 -17 3 17 -9 14 22 -17 -2 -7 -14 -2 14 -3 -22 -7 -24 -9 8 14 -14 20 11 -4 3 3 13 -3 3 -11 6 11 6 -1 4 6 3 -6 30 6 -14 -30 3 -33 -9 13 5 -9 14 -4 -17 13 -11 -14 -16 -6 6 -3 -6 -2 7 4 -4 -7 32 -11 -13 20 -25 -7 13 -3 4 10 3 16 12 -14 -6 14 -14 5 9 7 3 -4 -1 -5 -27 -17 3 17 -5 -18 10 7 3 -7 -9 1 14 -1 -5 -5 -3 7 -8 -20 -19 23 -3 -5 -3 2 -4 14 -7 8 -20 10 -8 20 -7 -14 3 -7 -3 -12 -5 7 -7 -1 -3 6 2 6 -3 -3 0 5 9 10 11 14 -3 -6 -22 3 -3 -17 3 -3 -2 -10 7 -16 -31 -10 -21 -18 -3 10 -3 6 -3 6 -35 7 3 -11 5 3 -9 -14 -4 -17 -10 -3 10 -5 -15 4 -25 -39 -21 -3 0 -3 4 4 -6 -9 9 -11 -1 -12 -9 3 6 16 -6 9 37 -10 -6 8 -6 3 0 -31 -14 3 13 -22 20 -13 20 5 -6 6 7 -3 -12 -9 18 17 -11 -12 -3 -18 -28 23 -3 8 -17 14 -16 -6 3 4 3 3 -22 3 -4 -12 -11 3 31 16 3 -16 -4 -10 -14 7 -7 5 -13 28 9 13 9 18 -14 -14 -7 -8 -1 -10 -7 23 -8 -23 12 -7 -11 -5 16 -23 1 1 -25 3 3 -3 -18 3 -25 -8 6 -13 3 -13 8 23 -6 -16 -16 -4 14 2 -10 -12 -11 -3 -16 -1 -4 0 20 -6 4 28 3 5 12 -14 -31 3 3 -1 6 27 -14 -14 -20 -7 17 13 7 -10 -14 3 -4 -3 2 6 -11 -21 7 -7 -17 -7 -3 11 -4 11 3 -7 28 -24 0 -3 29 -4 -8 1 -21 5 -3 20 -3 -6 14 -11 22 -15 -3 -7 35 3 4 -4 3 6 6 -1 13 14 3 11 -8 7 -27 27 -3 13 -3 6 -16 -5 -12 2 13 7 -10 -10 -6 3 9 0 -9 -17 -10 -3 -10 3 -17 12 14 5 5 -3 -2 7 3 -10 41 -14 6 -19 2 -6 -3 8 -3 -3 3 22 -17 -6 27 -14 14 -21 -8 0 14 10 17 6 -21 5 -11 -13 -29 -7 -13 3 -3 -3 4 -14 -20 8 -11 -3 14 -4 6 -29 5 -30 -2 -14 12 -17 2 7 6 10 15 -13 -10 -3 1 3 5 -10 -17 -5 7 -3 -3 -21 -7 13 -19 7 11 1 -7 -10 -4 -14 -21 -15 -8 3 0 -3 3 -8 3 23 -18 -11 -9 -15 -8 3 16 -1 -7 0 7 2 14 -7 -3 7 -6 7 -11 4 -17 4 -17 -4 -7 3 -1 7 8 -4 21 -4 14 -18 3 -22 0 3 -10 15 -7 -3 -3 -17 3 -27 -6 -7 7 -3 -1 -3 -22 -10 -6 -2 -8 8 -5 -7 -10 8 -21 -7 13 -23 5 -7 -3 -14 8 -3 -13 9 -2 -28 -14 -2 -28 10 -15 -7 -18 -14 -8 14 13 -26 -6 7 -10 14 -4 20 10 -3 34 7 10 3 1 22 3 -24 -17 -10 -12 -24 6 -2 -6 -7 -25 3 -7 -17 -18 -10 14 20 -11 10 -14 -20 7 -23 -11 7 -4 3 -5 15 -11 -7 13 -3 9 -29 -11 -3 -14 5 10 4 10 11 -11 -2 -4 1 -3 -14 -14 22 -3 6 -2 7 -4 -10 3 4 -7 -1 13 26 5 8 7 21 7 3 -9 -3 -4 -10 -4 -4 9 -23 -7 4 6 13 9 9 20 3 2 13 4 4 -13 3 3 -23 7 18 -14 -3 -20 1 3 6 15 17 -2 -10 7 -3 -5 1 6 -6 21 7 -2 -9 15 1 -1 -4 -10 -3 3 11 -18 3 -6 -6 -5 10 -10 -3 7 4 34 -23 14 -16 27 -9 14 -3 3 -1 6 7 -13 -25 6 3 -3 3 -1 11 4 -23 -9 -14 -9 -7 -28 -3 -4 -16 7 -31 -28 7 7 -7 21 -15 -3 -4 -35 -24 5 3 19 -7 -4 22 -15 -10 6 -2 -1 -12 -2 -15 3 -37 -11 -3 -15 21 -4 1 -1 -19 -8 9 -4 -6 19 11 -1 -22 1 -14 -17 -9 7 13 -3 -6 22 14 6 7 -14 -20 -7 11 6 -9 -22 15 -8 -7 9 -6 -3 14 3 -9 3 -15 -33 -2 -7 -6 -40 -17 10 -10 -1 -2 7 3 -5 -12 -3 6 -6 -7 3 10 24 -6 9 -3 -6 -5 -3 14 -16 23 -8 4 15 -6 -4 -7 -5 -3 -10 1 -3 -14 0 6 7 15 10 -10 16 2 17 3 -10 -7 3 10 -6 -3 11 6 -15 -10 -11 3 10 -2 7 -2 -14 -3 22 3 -3 -8 10 5 14 -7 -13 4 -4 3 4 -10 7 -17 -4 -1 -28 14 -10 -7 -18 -15 3 5 -30 -7 8 -10 24 8 -5 -8 7 10 3 3 7 -11 -9 -6 -14 21 -4 -3 29 5 10 27 3 -3 20 12 17 -8 4 14 10 11 -8 6 11 -1 14 3 -7 17 -21 11 6 -6 9 -24 9 -3 -4 5 -13 28 27 2 1 -9 7 4 -3 7 14 -7 -6 -10 3 -3 -14 8 1 -1 5 -7 -10 -12 -14 -17 -11 -4 1 -6 -2 -3 -7 -3 3 20 4 -27 -9 -7 5 -15 -14 3 -15 7 -5 -13 -7 -25 -18 -3 16 -10 3 -35 6 3 3 3 27 -14 -3 3 3 17 -21 -3 -4 -10 10 10 25 -5 -7 -3 -10 -3 -10 -2 -8 -6 -10 -7 -3 34 -9 -14 -11 -6 7 6 -8 3 -14 -25 -12 -13 -10 -12 5 -3 -8 -13 3 11 -13 7 13 8 -3 21 -3 -7 6 -17 -7 11 -3 14 -3 -11 4 6 13 -6 -10 11 3 12 24 -23 -4 -5 3 -17 5 -18 -17 -9 -3 -3 -4 -13 15 17 8 3 14 6 22 3 10 -3 -7 10 17 -3 -31 -6 -20 10 3 13 -15 -18 -10 -2 -5 4 4 -6 7 -3 -20 -2 -10 27 -6 -15 -3 6 -7 13 2 21 -7 -5 -17 -9 -14 11 -4 -18 -3 -15 9 8 -7 6 -14 6 6 -26 -3 3 -14 -4 3 -11 -10 -24 9 -16 -8 21 4 -8 -10 6 -17 8 -26 2 7 -1 14 -10 -5 2 6 -15 6 7 -4 -27 -6 -4 8 -8 10 -4 -15 16 -25 6 -12 -37 10 7 -14 10 -9 -3 -5 8 4 9 10 -10 26 6 4 -8 -13 -8 -9 -19 2 -10 7 -9 -17 -5 -6 -20 3 6 3 -6 -10 -13 -7 -10 3 -14 -34 3 7 26 -24 14 -25 3 6 4 17 -3 -8 3 -17 10 5 2 -20 5 3 -7 -14 -17 4 -10 -6 -6 3 -7 -3 10 5 -3 3 -3 -3 4 10 8 -1 -21 -9 -6 -3 -7 -4 -7 -14 10 13 4 11 10 16 -15 14 3 -19 10 -14 -11 -28 10 -10 7 9 -3 -1 -15 8 7 3 -13 -2 11 7 -5 5 -3 7 3 9 -18 23 13 -1 -31 -21 -14 -25 6 7 -18 -10 12 -7 27 -20 0 -4 1 21 3 -7 6 -11 -3 -7 4 8 6 -3 2 6 12 4 9 6 7 -27 -10 3 10 -22 2 -2 -10 -22 -18 -10 7 22 -14 -10 5 -3 3 -15 7 -14 -4 -35 -11 7 7 7 16 -4 -3 14 3 16 4 -7 3 3 -3 11 3 4 17 -3 17 -20 -1 -10 5 -17 -16 22 -3 13 3 -4 6 4 -28 7 -20 3 23 -17 13 -11 -1 -19 -12 -23 -17 -4 13 2 -3 -1 14 11 -3 -14 6 -3 -3 -3 -18 -10 -8 -25 -25 11 31 7 3 -6 -3 6 -16 5 -11 0 6 -3 14 -1 29 -1 1 -1 -3 4 -10 -17 -3 24 -17 3 15 18 3 -20 -17 -14 -5 -11 -5 16 15 7 -17 -25 -11 9 -25 -13 -3 6 3 6 -14 -10 -12 -16 -4 -3 -8 -1 24 -1 -5 3 4 12 -3 3 10 -17 -7 7 8 10 -6 -10 5 -9 -1 -11 29 6 -5 6 15 3 -3 -14 -14 3 3 7 -10 4 3 -6 -7 13 5 -2 -2 8 26 -5 -16 3 15 8 16 -7 7 -10 -21 -10 -13 -10 1 7 2 -18 6 7 -6 18 -1 6 11 -1 19 -5 3 -7 5 -20 3 -8 3 -17 -7 -9 18 -7 -2 -21 -7 -17 3 0 -3 3 -6 5 10 -6 -3 -4 -8 0 -13 -14 -6 -3 1 -3 -9 2 10 -3 -9 -12 4 -3 15 5 14 -5 11 7 -9 1 3 -14 4 3 27 3 4 0 18 -5 12 -3 -5 11 -7 13 -3 -22 -7 -4 3 7 21 13 11 1 3 -3 -9 8 -19 6 -10 -11 10 -13 3 -3 8 -10 11 -28 11 7 -1 -5 -7 -5 3 -7 14 0 -7 2 -7 18 15 -20 -17 30 -24 4 -15 14 14 6 -8 -14 -4 7 -6 -7 1 -10 -7 -3 8 13 11 14 -17 -7 13 14 -4 -17 7 3 7 -3 -3 10 -18 -10 8 -21 -6 2 -37 -12 -21 24 -20 8 -3 -20 -3 14 -6 -10 -1 7 2 -11 -3 21 3 20 8 3 -8 -8 -18 9 18 13 3 -8 1 -15 11 -3 -3 8 -1 3 3 -5 5 2 -20 -12 11 2 11 -21 7 -3 -1 5 14 -9 8 7 -20 -24 -12 6 3 14 -15 -14 13 28 9 14 -10 -9 3 7 -11 11 -21 3 -9 6 1 -6 6 -7 13 10 -10 15 8 16 3 7 0 14 6 -4 -7 6 -8 2 -10 -7 6 -5 12 -14 5 -11 -5 4 0 -17 -13 -3 16 4 -3 -3 3 -1 7 -28 -5 -6 17 -30 -21 -1 -7 3 -16 14 10 -10 10 -17 1 -2 4 15 15 3 -10 -3 8 9 9 16 2 5 7 15 -19 3 -22 -6 10 -9 11 20 -3 -8 -1 4 -3 -4 10 -5 13 17 6 -7 7 7 -8 -31 -11 3 -7 -2 -6 4 16 14 -17 -7 -11 -15 20 6 -3 -14 4 -2 -7 10 8 14 3 3 -14 -8 -6 -19 25 -4 30 3 2 -15 2 -15 -3 12 -34 -3 -8 26 7 -1 32 -11 14 13 -14 12 -7 -13 -14 -2 7 -10 -18 -15 -3 -3 -15 -11 -6 7 -7 13 -26 -5 -1 21 24 -16 6 -15 -19 -18 -7 28 7 -10 -5 3 -18 -4 -15 15 -8 -6 -17 15 -1 -10 -3 -24 -12 -8 25 8 -8 3 5 10 6 -4 -14 -2 -24 15 9 -6 -17 11 3 -15 -7 3 -20 -14 -10 -44 -28 -12 -25 2 -25 17 3 -6 -7 -7 -9 -24 -10 -4 4 -1 -10 -17 3 -37 -3 -2 7 3 -1 -3 8 -3 22 14 -7 -18 9 -14 -3 -13 -22 10 -8 13 -3 6 19 8 -2 16 3 13 8 0 -16 8 22 -3 3 -13 -11 -22 7 -9 -11 10 8 -21 11 17 3 -5 1 -8 -20 -2 -3 -3 10 17 18 -6 20 -14 -23 -5 -5 -27 22 -6 35 -3 5 3 6 -5 -23 6 6 -18 10 -9 3 13 26 -3 3 20 -13 -14 -3 -10 3 -21 -17 8 -4 -3 -7 -7 -4 -15 -17 -5 -17 12 3 14 -10 4 20 -1 -6 -37 7 -20 -2 7 -7 2 -23 10 3 -18 -5 4 -5 3 4 -17 -8 11 4 2 13 -10 3 3 24 -3 -6 7 9 -3 6 -7 7 -18 -2 19 14 6 4 5 -14 -5 -3 -10 14 -3 -33 3 10 14 -18 -1 -9 2 -3 -25 3 -15 8 3 -6 -6 -4 -3 7 -18 -8 4 -7 -14 7 -3 6 -10 6 -21 -3 -4 17 4 -4 -10 14 25 15 -18 -6 7 -2 13 3 -19 -14 7 -4 -2 -6 -6 -8 -13 -16 7 -4 7 25 -21 11 -3 10 8 -4 -11 21 -6 -10 -4 8 5 -28 7 10 7 -3 10 -3 -19 -11 -22 -3 17 -13 15 10 5 -6 6 12 10 -3 22 -3 -7 8 -8 -3 -4 -10 -10 1 -16 -29 3 -4 6 -17 -16 8 8 7 19 1 -11 -5 8 -19 -18 -11 10 -10 4 -15 14 7 3 18 3 -2 -3 -3 6 -8 7 -1 15 -6 14 -7 12 -10 -6 -8 7 -15 3 17 -8 -23 6 -4 -8 -8 -10 -6 -10 8 -9 3 -9 -5 2 -17 -10 -2 14 30 -12 6 1 7 6 4 19 -7 -17 16 15 -3 -8 -9 -6 -13 -10 2 -14 -7 -31 -2 11 -3 -2 6 -19 6 10 -6 -10 7 -5 -10 7 6 14 12 -21 -21 -21 5 8 17 13 -3 9 -7 -31 -3 6 -14 29 1 -3 5 -6 24 -3 7 -13 -6 13 4 0 12 -6 0 6 6 -20 7 -9 -16 4 -10 5 -3 7 -10 -14 9 -7 -8 6 -15 -3 -5 11 -17 -4 3 5 -7 9 3 -2 -1 -1 -11 14 -5 -14 8 16 -10 -14 8 8 -10 -6 17 -11 6 -10 -10 -7 3 6 3 15 -4 -24 24 3 -15 -6 -10 -10 16 -12 -13 8 -2 11 6 -4 15 3 -24 27 -14 -6 4 -16 13 1 -13 21 -7 -4 -12 13 -3 13 -11 1 17 -1 14 -12 21 -14 -12 -10 10 -10 29 15 10 8 -19 10 -29 3 -3 3 -6 14 -5 -1 -14 -27 0 9 -10 -12 -3 21 -12 2 -14 -13 6 -3 20 -4 0 -3 -18 3 17 10 -10 8 -19 -13 14 -2 -6 -13 24 -7 -6 -7 -17 -6 -3 -6 7 3 0 13 -4 -2 4 -21 -6 -17 21 14 -7 4 -5 -31 1 28 -15 -7 21 -6 -8 12 3 -7 3 -4 -32 -2 -11 7 4 -1 9 -7 6 -31 3 -11 -4 3 10 13 1 -18 17 -14 -6 9 -6 -8 7 0 3 3 -3 -27 17 -21 1 8 -11 -6 -8 -16 16 -1 7 -18 6 7 1 5 -1 6 -6 -3 -7 9 -2 -6 -3 11 -3 -17 -1 8 14 -3 3 3 10 3 13 -14 -6 -3 14 -16 -14 -23 18 -11 -4 6 1 5 7 10 -10 18 -20 10 -14 3 45 -3 4 3 2 3 -14 0 -3 -8 28 3 -3 4 4 10 15 6 3 -20 -10 -4 -7 -14 7 14 15 12 -7 22 -3 -14 3 6 1 17 -3 30 -2 7 1 14 -24 29 -13 -7 10 -13 -15 4 -4 -10 21 -12 17 11 -8 -4 8 -16 3 7 -35 -30 3 3 -15 -7 2 -17 -11 25 -17 -24 -3 -4 -25 -6 6 7 3 -1 16 -1 3 26 3 -8 -18 10 -3 16 -32 -5 -3 33 -25 -6 9 20 14 -20 8 -6 -1 -25 7 5 6 18 8 6 -17 -3 -6 0 -2 -4 3 -7 -17 6 -10 3 -42 5 8 -17 -4 4 -3 -7 -3 -19 6 -3 -10 -18 -7 27 -6 5 -10 -3 6 -8 10 -4 7 -6 -21 7 -20 10 -24 20 1 -10 6 12 -4 11 -20 -16 -9 -16 -17 2 -6 -19 -7 -2 -3 14 0 10 30 6 18</t>
+  </si>
+  <si>
+    <t>JSB(1.5285176512676353, 4.2189433700185575, -36.11890299895927, 186.87962499196414)</t>
+  </si>
+  <si>
+    <t>41 33 37 19 35 25 32 41 37 44 41 37 31 51 26 47 40 46 58 28 49 53 51 32 36 41 48 45 35 26 47 47 46 38 43 43 52 23 43 26 34 28 36 59 48 45 31 31 39 51 37 54 45 26 64 28 36 50 51 33 49 48 62 41 53 37 46 20 37 36 58 38 43 40 51 42 51 38 51 27 43 48 31 32 40 48 41 40 35 37 41 41 38 47 35 34 31 48 33 54 35 52 40 20 62 38 48 34 69 41 45 44 43 37 42 43 42 24 40 42 47 33 44 36 29 30 41 53 37 43 71 42 51 53 38 27 29 47 45 35 47 30 33 33 35 64 45 54 38 37 23 34 34 59 33 44 45 41 47 38 33 22 59 33 43 37 51 54 41 41 40 26 24 49 31 54 42 41 31 33 50 40 43 29 35 30 45 33 58 41 42 38 30 31 43 55 46 45 51 31 47 48 43 49 44 38 50 55 48 44 29 44 57 46 51 53 41 54 38 40 66 33 41 33 43 38 27 34 37 40 34 42 17 45 37 46 43 47 62 38 42 58 44 35 38 40 23 45 43 48 48 37 45 32 44 43 26 44 40 39 48 40 54 34 40 41 69 42 44 45 25 48 52 38 39 35 55 42 19 57 26 47 25 19 42 49 45 50 69 47 45 28 23 53 50 45 37 59 33 38 31 38 48 23 40 44 51 24 43 35 44 43 42 43 53 28 25 35 64 30 36 44 72 49 38 58 37 47 39 55 33 52 45 40 43 31 45 31 46 33 26 51 30 36 45 55 41 20 48 30 39 26 23 27 31 37 51 44 42 40 32 42 37 22 45 34 44 23 44 40 46 35 43 36 56 49 47 42 30 31 46 43 43 37 36 36 37 36 30 48 51 26 37 34 63 51 29 62 61 25 35 43 29 37 62 58 63 29 37 34 36 37 36 37 24 62 15 33 26 44 52 40 33 47 43 56 58 45 29 38 20 37 27 54 54 33 44 33 43 34 42 44 49 33 72 48 42 53 38 52 41 31 48 47 45 53 54 43 35 34 43 30 41 24 44 60 48 23 35 19 56 33 47 24 36 46 29 43 44 30 33 45 40 31 45 51 40 37 45 51 58 30 40 19 63 45 48 24 27 48 19 38 52 52 55 16 40 58 32 38 44 64 26 47 53 47 41 26 35 43 47 21 61 35 39 56 39 31 36 30 51 55 44 52 45 13 55 39 44 48 38 41 63 48 16 44 27 31 33 31 34 32 27 31 59 61 37 30 37 23 54 43 33 46 30 25 33 45 35 35 43 32 54 50 36 50 44 44 36 52 37 28 44 30 34 43 51 47 36 39 56 44 34 42 40 43 58 45 50 58 27 19 37 61 50 31 42 52 27 40 42 43 31 51 58 57 43 57 35 26 42 52 41 43 31 29 24 51 37 44 51 44 55 53 41 19 37 40 26 47 36 23 27 33 38 43 42 36 34 38 39 46 51 50 45 45 46 31 44 26 63 47 34 30 52 25 34 54 50 30 47 43 44 44 51 41 63 40 45 41 44 30 30 59 42 50 44 30 50 23 22 50 42 27 39 65 50 45 35 51 33 47 33 56 38 26 33 27 41 33 53 40 51 23 44 51 34 62 52 45 59 40 45 52 43 47 33 48 38 41 38 37 31 52 38 60 29 33 29 38 43 40 43 41 48 27 35 44 33 36 38 48 34 33 41 37 47 26 60 42 33 30 59 52 51 57 52 37 27 35 52 51 48 40 51 33 31 45 31 52 38 45 38 55 26 36 45 35 40 43 39 30 40 44 51 51 32 22 55 35 44 37 27 41 50 46 43 36 33 59 56 37 51 33 44 37 36 48 31 50 23 62 44 48 30 48 44 23 39 62 41 49 36 34 62 29 30 63 38 24 32 16 46 34 47 37 23 51 37 53 59 51 47 25 30 54 46 30 34 30 48 26 51 27 39 41 52 44 53 27 45 26 35 48 36 29 44 16 51 64 52 34 41 27 22 40 38 54 48 41 41 47 37 40 42 58 48 54 55 45 44 47 27 33 28 53 41 56 49 58 47 59 45 41 41 39 57 58 41 45 50 53 31 48 50 50 34 48 48 48 53 26 41 37 37 40 48 48 32 38 52 49 55 27 54 28 40 48 27 30 59 45 48 41 30 39 30 36 30 50 38 51 41 65 27 51 40 35 42 37 25 54 55 55 26 48 55 51 31 37 51 55 38 43 40 30 37 48 32 31 40 47 49 31 43 39 31 35 39 20 47 51 51 41 42 50 44 49 38 37 30 24 47 47 45 34 47 34 41 63 30 60 18 27 46 51 47 63 41 46 72 21 33 53 43 50 50 59 59 28 62 45 51 37 33 38 20 37 27 30 45 33 69 60 66 51 34 35 37 36 24 27 30 51 27 38 41 64 49 24 51 24 65 45 37 39 23 49 51 62 35 44 45 35 33 49 52 50 40 37 28 23 51 34 34 25 37 33 43 53 30 49 51 45 44 31 31 46 33 43 42 36 45 48 30 38 44 44 62 55 34 35 48 34 42 30 34 42 59 14 40 61 45 61 42 30 41 37 35 51 51 54 37 27 48 35 40 23 33 27 47 59 62 44 62 59 47 49 59 60 38 46 46 58 49 58 26 26 42 29 38 23 43 23 29 41 48 41 30 47 19 29 45 40 23 38 27 49 25 49 54 44 32 57 51 26 50 45 41 45 34 36 50 51 36 26 45 38 50 24 28 45 66 44 27 40 44 38 43 16 17 36 43 43 37 36 41 39 52 42 29 27 31 33 30 51 47 24 31 40 42 31 52 37 30 29 41 37 31 47 35 37 41 31 51 31 48 40 27 46 35 37 38 44 34 48 50 46 31 21 45 27 50 57 39 23 49 45 52 47 42 31 37 45 55 34 37 59 58 48 41 43 33 26 37 35 27 33 41 51 47 24 44 13 49 40 45 33 35 51 19 27 37 36 23 37 23 40 44 76 39 45 38 50 58 45 43 37 46 34 38 39 32 43 56 48 37 40 30 40 50 32 43 47 55 51 45 40 27 38 41 30 40 43 58 29 37 33 36 54 45 27 64 33 44 48 60 26 49 41 24 51 41 37 29 51 35 27 26 74 20 43 50 34 35 41 57 65 31 29 37 29 37 31 16 43 44 47 39 35 44 42 37 48 26 47 55 33 55 31 34 35 32 31 40 33 63 47 38 60 57 63 36 37 51 40 37 43 39 31 51 31 50 51 52 37 33 42 47 48 41 37 41 46 45 62 44 37 51 41 50 55 29 51 45 45 33 51 47 23 40 54 52 26 34 59 36 39 45 37 46 36 45 40 43 43 40 42 41 30 29 44 43 43 48 22 31 52 41 49 48 44 45 50 39 44 51 44 57 38 37 20 47 23 61 55 45 40 35 48 23 34 60 37 43 41 37 48 39 41 58 31 49 55 26 45 47 59 54 38 29 48 37 45 45 45 40 50 68 33 65 26 49 43 54 33 51 46 55 44 45 19 46 24 41 65 41 45 36 22 40 49 45 31 36 45 26 44 37 26 41 23 30 46 27 33 50 55 34 37 27 57 55 19 54 26 51 30 40 37 32 17 34 26 41 44 34 27 55 37 33 39 49 52 27 52 54 24 30 36 45 62 34 26 37 41 27 54 66 35 45 58 58 43 38 42 37 41 48 24 50 41 52 39 43 20 32 27 44 41 34 26 40 50 24 53 37 55 27 44 41 35 43 38 40 39 43 44 33 47 24 38 37 42 49 45 26 41 43 27 44 43 26 42 48 37 48 48 51 22 37 48 44 44 37 34 27 50 30 42 40 52 45 33 65 42 57 41 44 53 29 72 35 58 52 37 44 32 45 61 34 40 37 62 42 23 55 36 45 37 46 37 37 34 37 44 49 27 22 45 41 45 31 38 41 52 58 46 40 55 36 46 44 47 33 23 39 41 39 30 37 37 54 48 41 37 23 67 33 53 30 26 48 38 31 38 41 34 37 55 31 44 27 35 50 59 48 29 23 37 38 39 38 27 34 37 38 46 46 25 45 45 44 47 50 37 44 41 71 34 38 34 21 36 40 31 39 49 30 37 40 56 48 26 60 61 35 44 33 47 46 45 31 33 35 31 16 43 48 40 10 35 19 34 28 46 29 43 34 45 29 45 42 62 44 38 46 36 60 34 45 32 37 53 41 58 54 56 42 49 37 63 41 50 34 44 34 42 36 41 59 46 31 41 43 41 44 40 40 54 48 39 26 36 47 55 45 58 26 51 38 42 31 35 41 34 62 41 45 51 35 30 51 50 37 46 30 33 39 60 27 52 33 12 38 39 63 23 49 59 13 37 38 29 38 41 39 26 31 56 32 34 59 34 51 40 39 40 17 31 56 48 39 32 37 30 43 49 41 27 29 51 47 37 54 40 45 62 46 25 41 45 29 29 40 30 43 36 52 52 61 33 63 37 43 51 37 49 55 37 50 30 41 31 45 61 63 47 33 37 41 69 28 41 45 16 35 35 27 41 45 37 37 63 31 43 32 27 47 34 45 38 41 50 41 22 64 54 36 58 36 38 34 41 27 51 55 37 48 52 48 37 41 23 30 37 27 31 37 31 32 42 36 50 51 45 57 47 37 44 45 33 55 52 33 33 41 16 24 56 30 44 40 58 29 25 43 40 45 41 31 50 26 31 44 47 13 47 59 51 50 29 51 34 28 32 46 23 31 41 44 38 40 24 33 45 34 22 40 21 35 26 48 37 54 26 23 42 30 51 23 36 23 27 30 49 45 44 47 46 31 57 52 39 41 34 41 51 40 41 24 48 62 52 24 34 37 45 47 55 33 38 30 45 57 46 48 34 45 48 27 43 44 27 44 48 54 37 35 27 46 14 30 41 47 40 25 59 43 44 22 48 25 46 31 38 31 46 51 34 37 42 29 45 39 56 39 29 34 47 27 48 36 40 58 45 41 26 55 51 51 37 46 31 47 45 34 45 17 44 26 39 34 37 39 32 42 35 38 42 49 47 26 28 36 38 54 41 48 33 47 25 37 37 47 54 19 56 55 38 41 13 28 37 41 46 30 37 38 31 36 24 37 40 40 31 47 53 34 37 54 48 45 50 31 45 36 51 26 29 44 53 50 48 30 52 52 30 43 35 48 55 56 39 46 48 51 44 45 32 42 40 45 30 37 30 34 31 49 28 16 52 37 61 46 43 43 27 33 40 25 41 33 30 33 37 63 31 30 38 40 37 48 40 34 33 50 63 48 28 31 32 29 27 31 32 36 51 45 32 25 40 56 40 22 46 54 44 55 33 27 38 43 36 54 48 23 26 31 45 49 57 41 51 44 50 47 45 38 55 71 34 50 41 49 59 54 45 32 37 50 51 43 54 37 44 29 45 62 64 43 51 32 44 44 38 57 37 36 48 41 51 48 51 41 52 57 43 43 33 40 51 38 45 28 40 34 41 53 55 48 45 41 32 63 22 41 47 47 50 51 48 27 33 43 28 36 48 41 43 23 40 37 25 44 43 40 36 44 45 40 40 43 49 39 25 25 38 24 60 23 67 33 40 37 30 32 41 34 52 38 34 23 52 27 38 55 44 37 40 49 37 48 57 33 40 27 47 27 47 37 45 51 44 51 38 57 30 30 48 41 43 37 51 48 62 29 45 27 51 34 34 43 44 23 44 51 46 47 42 33 13 37 30 37 57 45 37 43 35 51 49 27 40 34 59 43 32 30 21 52 37 30 57 51 47 34 30 56 34 41 46 42 49 38 57 28 34 23 55 42 47 62 36 57 50 26 31 35 43 33 30 38 37 36 41 41 29 40 29 37 37 43 33 61 35 51 26 52 48 43 38 33 54 28 43 43 25 48 35 35 31 68 45 40 27 23 34 49 22 55 30 39 29 33 51 44 33 51 39 51 54 48 28 33 37 34 35 37 56 45 41 62 50 51 41 34 43 51 37 44 36 26 51 44 59 38 43 40 37 36 47 34 45 52 37 54 34 37 48 36 41 33 50 22 37 47 40 62 35 26 59 38 36 30 63 47 52 24 44 38 46 33 38 47 27 56 44 47 54 52 48 57 49 30 47 37 45 51 36 48 33 35 23 51 32 34 29 55 31 38 30 39 49 51 43 30 35 16 37 39 54 56 55 39 51 29 42 63 48 42 47 33 28 57 51 49 62 45 59 44 36 48 24 44 55 38 26 44 51 51 13 76 41 54 44 61 37 40 41 32 40 50 64 59 38 54 25 29 36 65 51 41 48 47 33 41 48 53 64 28 51 17 43 23 33 55 37 33 41 47 50 33 40 40 53 44 48 30 40 36 32 34 40 45 43 50 40 54 41 29 52 40 27 27 44 48 63 36 46 40 57 44 49 55 43 26 22 46 42 48 27 33 49 44 34 54 27 19 27 30 45 43 58 27 66 29 62 59 33 47 36 44 52 37 37 42 47 41 24 33 45 27 42 36 34 30 31 45 51 37 45 49 36 47 53 47 37 56 26 19 37 52 39 58 37 46 30 34 30 62 34 55 48 49 40 44 34 37 44 40 39 44 51 40 36 45 37 39 37 52 27 27 42 52 49 35 57 56 47 54 30 33 33 39 61 32 65 43 37 33 63 52 31 34 34 51 39 38 54 45 61 41 57 23 48 55 44 36 45 51 42 58 40 59 44 56 33 34 47 43 26 40 48 36 56 38 42 21 44 39 39 55 51 42 34 19 37 51 31 47 37 52 37 44 51 43 37 52 36 37 34 54 41 63 30 56 44 27 40 30 33 41 45 16 32 44 37 38 35 30 41 37 47 26 55 30 31 36 51 41 50 44 34 51 31 31 37 26 49 37 34 38 26 41 29 19 40 44 41 37 54 36 30 35 43 49 53 37 37 44 44 48 55 23 40 26 47 31 41 29 38 46 45 38 55 48 66 31 48 41 27 42 54 43 34 33 43 47 37 52 40 41 48 63 30 52 34 49 30 48 44 29 48 60 46 49 35 30 34 22 27 35 62 61 34 19 20 20 39 62 38 57 40 13 51 43 42 38 48 27 45 37 43 47 43 40 46 26 50 35 44 54 34 23 48 41 27 42 38 30 55 76 41 34 41 42 36 29 37 23 20 31 21 37 40 51 35 29 40 33 36 44 40 45 60 24 23 46 43 59 45 31 47 62 41 34 36 48 44 34 35 45 35 51 39 21 31 30 33 17 28 47 26 54 57 21 35 45 33 26 55 37 56 33 45 53 23 37 43 42 45 60 55 43 51 26 50 49 37 38 34 49 56 36 16 21 50 50 62 39 40 67 45 34 29 37 34 10 33 45 33 28 42 57 47 44 47 43 44 71 36 53 34 45 34 23 31 32 37 48 45 51 70 26 51 47 46 37 30 41 38 47 41 37 21 46 55 58 38 60 52 45 22 24 52 33 27 40 40 52 61 30 42 54 20 51 37 51 44 40 47 23 53 42 34 34 40 39 51 24 48 54 51 44 37 39 40 41 42 55 37 23 45 37 43 53 24 37 38 30 20 41 19 47 44 37 33 34 51 54 59 53 53 46 37 26 55 33 34 55 40 50 45 30 42 44 47 32 52 33 37 34 44 49 45 27 45 58 24 43 45 48 24 35 51 57 36 30 23 32 26 41 24 13 52 50 41 27 26 55 50 51 54 31 36 45 51 43 38 55 48 45 31 45 42 43 27 66 40 39 36 35 47 49 41 41 37 55 40 65 51 42 27 30 28 41 51 48 33 37 51 50 44 23 52 30 29 37 29 54 58 37 21 48 49 29 47 45 41 38 38 47 52 47 44 23 48 33 58 30 34 37 51 37 52 39 59 38 44 37 47 42 45 47 46 58 36 36 30 35 44 33 38 40 20 49 23 24 48 39 41 61 45 68 34 37 53 37 27 58 56 52 19 51 49 47 33 48 39 38 55 37 50 27 53 30 45 40 37 41 33 41 23 40 43 34 20 30 47 29 17 33 49 42 41 45 43 37 33 42 54 40 34 59 32 36 31 48 42 43 16 32 76 52 40 38 31 52 43 34 51 40 39 36 32 41 58 40 43 40 35 41 54 51 30 45 37 63 33 37 41 57 62 33 44 26 44 41 37 38 42 38 46 53 57 30 61 45 24 36 42 33 40 54 29 42 22 43 61 41 37 43 52 48 49 41 41 33 42 43 36 62 41 43 39 36 51 30 31 47 41 51 48 29 34 50 44 41 43 34 59 34 38 58 28 27 28 57 60 40 47 20 31 47 55 29 37 51 46 73 32 55 37 47 32 34 53 49 44 41 38 65 46 29 41 36 45 31 50 39 22 28 34 34 47 31 17 35 26 30 33 24 37 21 40 57 30 54 38 43 51 35 60 46 43 24 42 24 23 39 42 35 38 52 34 44 53 41 40 31 46 65 44 61 37 36 51 42 45 33 34 44 44 36 37 31 34 46 62 39 36 60 44 37 27 36 27 30 49 40 42 33 27 33 37 44 38 37 43 52 35 37 20 49 44 55 31 39 42 36 41 53 34 47 23 45 30 35 38 47 59 32 33 32 37 21 27 37 43 36 29 43 39 40 61 47 51 49 40 49 36 56 40 26 42 32 57 45 56 45 70 48 52 41 34 45 39 51 37 44 59 45 37 30 43 30 42 30 38 48 48 45 42 40 35 39 43 33 48 33 41 47 37 49 42 37 37 50 52 48 37 53 45 36 37 52 65 41 37 37 54 51 45 37 35 68 31 52 39 33 47 44 35 52 41 58 46 45 37 37 56 37 45 49 64 47 38 48 31 51 36 58 45 44 48 56 36 29 43 40 40 40 54 28 41 48 35 54 23 41 49 43 54 39 55 48 51 38 45 40 42 41 44 30 40 29 48 45 20 23 21 52 44 31 47 38 30 41 19 45 55 35 27 65 33 43 51 47 43 55 63 41 58 59 23 57 34 35 37 49 44 43 41 60 37 37 45 52 32 47 49 30 61 39 42 38 42 49 30 41 33 30 41 31 30 47 55 40 38 27 68 57 46 43 43 16 32 30 25 32 19 55 36 37 41 28 42 62 30 46 42 27 36 31 48 29 54 30 51 45 37 59 38 28 28 36 69 44 44 40 37 36 40 51 34 46 43 34 36 45 56 16 41 31 47 39 36 45 43 35 35 34 49 21 36 19 41 42 51 43 51 61 41 54 44 30 36 55 30 36 34 44 29 41 48 44 39 48 32 40 41 76 40 58 25 51 57 45 35 45 37 51 39 26 26 28 46 39 34 41 37 50 51 47 53 36 58 37 43 42 22 44 45 40 36 40 34 51 38 45 50 61 30 29 48 27 35 47 54 41 47 30 33 27 41 36 42 41 19 43 41 35 68 60 30 19 41 42 19 45 51 44 48 48 25 13 44 66 37 31 44 47 35 44 37 50 57 43 40 45 62 22 39 47 53 72 51 52 26 41 41 51 34 37 48 50 41 47 46 43 45 49 34 50 48 26 22 49 56 50 46 42 31 40 26 19 34 30 45 16 43 25 43 52 31 31 41 48 51 46 31 49 50 43 37 46 31 58 35 48 29 39 33 36 38 41 40 30 36 30 48 27 39 65 16 30 33 31 40 56 47 27 48 49 37 32 37 38 37 53 46 51 27 41 19 26 27 40 44 34 36 40 37 37 45 38 38 22 22 34 25 37 18 45 44 37 65 33 51 30 41 19 46 37 20 40 33 39 23 43 40 23 73 52 51 40 47 34 45 25 37 45 27 33 34 36 47 31 48 66 29 51 42 53 62 35 47 43 37 30 46 43 50 20 36 65 25 40 36 41 34 43 36 47 40 41 50 40 62 34 46 42 34 30 40 45 41 41 51 38 43 44 39 59 36 21 30 48 27 37 37 57 48 31 48 40 55 40 27 48 36 43 47 33 33 38 34 40 36 36 48 30 44 43 59 35 41 43 31 38 57 48 50 45 48 29 32 42 40 31 33 43 38 35 40 37 35 26 40 34 23 44 38 36 31 45 54 54 51 25 26 41 49 45 23 47 29 48 47 45 41 36 48 37 39 29 36 39 19 31 33 57 44 48 30 45 50 27 43 34 56 22 31 36 44 45 20 39 45 51 41 36 45 37 43 52 36 31 30 37 55 47 24 55 42 47 45 34 33 45 19 40 28 38 41 40 29 37 50 68 54 37 59 52 30 44 44 36 36 36 59 32 30 37 35 51 48 46 38 26 36 36 39 42 66 48 33 35 33 56 41 32 41 55 54 24 47 52 32 26 45 55 39 41 30 31 40 35 47 35 25 40 37 53 48 41 38 55 30 41 40 70 29 40 44 26 39 50 26 61 38 41 45 41 47 33 46 23 38 57 35 34 51 64 52 43 35 37 34 48 32 44 33 37 37 36 37 41 62 36 45 50 46 37 49 29 51 23 37 41 58 33 47 54 40 40 54 48 35 51 37 41 65 41 28 32 23 26 32 40 40 45 47 42 22 41 33 34 53 22 23 37 34 30 49 47 41 41 46 31 37 36 46 13 54 47 37 34 39 41 47 48 62 38 50 30 30 42 39 45 44 33 55 40 31 25 30 34 33 51 43 36 46 33 33 23 27 46 41 46 62 52 55 33 43 51 53 36 40 20 54 34 51 20 40 40 52 28 30 47 67 37 33 31 61 54 28 44 37 55 30 41 47 37 49 46 47 37 38 38 51 40 34 44 36 36 55 46 52 42 58 37 28 33 44 37 48 37 37 42 37 35 42 45 37 31 34 55 36 34 37 48 45 38 54 30 32 45 42 43 40 67 54 39 34 41 43 48 42 49 52 37 55 30 59 21 31 40 52 30 27 43 31 35 52 38 25 27 41 34 51 45 34 37 45 27 26 62 51 37 47 46 52 44 49 34 44 46 53 33 43 34 48 30 38 42 16 40 49 56 42 53 34 37 38 56 37 45 34 36 42 38 40 37 31 24 27 45 40 48 33 36 34 47 33 47 27 43 47 45 21 39 55 50 43 28 23 37 51 55 59 44 41 44 19 42 65 45 44 41 54 52 26 37 38 44 46 54 47 38 40 41 43 38 50 38 37 20 37 44 56 46 37 36 40 48 44 52 54 51 49 49 19 31 29 43 32 46 47 35 33 24 38 37 26 33 51 41 67 43 58 41 54 29 45 49 32 31 47 45 63 38 9 39 40 27 30 30 30 45 37 35 43 32 56 38 51 43 38 64 45 44 36 27 50 31 41 51 41 45 39 23 42 51 39 58 43 51 32 61 46 29 30 49 40 37 46 48 22 29 37 59 40 39 34 59 40 23 26 63 47 51 26 23 49 54 35 30 41 51 48 45 40 53 51 45 37 52 38 37 43 45 61 39 37 60 45 48 51 38 30 40 44 45 27 53 66 45 37 35 45 37 30 37 41 30 35 45 42 34 37 35 39 37 47 33 37 58 23 47 31 41 49 33 42 38 42 59 50 56 43 55 21 50 32 45 48 40 57 62 52 37 43 44 37 42 36 34 33 50 39 24 34 37 44 52 52 40 47 48 33 37 30 37 39 51 56 38 51 34 42 54 40 45 26 18 37 49 27 45 30 41 52 29 29 61 13 40 47 33 34 45 51 41 75 42 33 26 51 44 31 31 27 26 50 37 37 40 56 38 50 50 27 51 30 37 22 56 54 20 41 36 46 47 53 27 30 33 57 47 34 61 55 32 42 36 51 51 46 13 27 25 44 30 50 35 16 40 27 39 40 36 41 52 37 47 55 49 55 33 37 47 54 38 35 40 37 37 30 22 39 36 29 31 41 31 36 51 27 43 49 51 48 33 40 49 30 19 30 31 47 51 42 41 23 27 51 33 41 49 30 43 31 64 43 20 36 30 29 54 31 44 18 47 42 35 40 29 63 37 34 37 29 55 27 44 41 37 53 37 38 47 55 35 37 30 34 23 59 35 43 39 45 39 60 38 28 44 24 30 43 30 37 47 43 37 58 58 37 37 43 34 55 45 32 37 43 45 62 31 41 40 38 52 53 42 44 30 43 44 30 30 41 32 33 45 42 39 43 37 30 41 37 35 46 40 37 37 37 37 24 23 37 40 60 32 51 30 41 36 47 23 23 47 45 33 47 36 40 42 53 38 41 45 47 51 29 25 70 44 23 37 24 55 33 54 33 22 24 51 31 69 29 57 47 51 49 24 52 42 30 59 29 30 36 44 59 44 34 41 43 25 34 24 57 38 47 54 52 32 59 37 36 31 32 38 65 40 36 38 38 38 41 34 33 45 43 41 37 31 51 35 34 33 23 30 26 17 38 45 26 57 37 30 30 46 41 47 33 21 70 33 42 21 27 41 48 59 55 62 47 48 48 35 24 31 54 48 31 37 69 34 47 37 48 36 33 41 44 27 38 48 41 42 39 20 43 36 38 40 56 56 23 44 41 70 44 29 53 38 29 26 45 25 37 40 50 51 41 46 40 33 57 51 38 30 37 37 59 31 30 37 27 25 38 33 58 41 59 38 43 41 45 32 48 23 76 31 46 43 26 46 41 34 35 51 37 24 50 30 43 45 51 30 50 45 50 54 51 37 37 35 43 48 54 44 40 33 37 41 22 47 34 38 23 58 43 23 30 44 48 41 43 59 54 40 48 41 30 40 51 59 44 48 23 37 47 39 55 36 46 38 34 45 48 57 59 37 45 33 38 38 69 37 41 46 45 40 51 45 31 68 38 34 58 44 34 51 19 50 28 43 55 37 21 39 27 47 41 43 34 45 50 40 51 44 48 27 42 37 68 51 64 29 44 51 34 33 31 36 23 50 41 34 34 41 30 36 26 38 42 31 54 57 33 26 51 55 44 33 31 42 33 54 44 40 45 41 40 40 56 41 50 42 32 39 35 45 54 29 34 37 43 41 29 53 36 53 51 45 66 54 47 54 30 33 57 56 34 47 45 39 27 19 54 30 41 37 50 51 40 52 40 55 42 33 22 45 45 30 51 44 52 34 35 36 22 35 12 56 55 58 47 44 41 37 27 52 58 37 56 34 37 44 40 39 34 43 43 47 46 31 73 55 30 53 49 36 31 32 47 23 27 68 38 35 41 28 34 22 41 50 41 48 37 29 53 51 48 44 37 23 45 43 39 50 51 48 37 26 75 29 19 44 30 40 28 37 50 55 29 51 37 47 37 20 43 53 41 44 45 35 51 49 55 45 32 20 48 58 43 53 37 49 45 36 40 36 34 18 58 62 38 30 42 38 34 44 44 52 45 40 33 56 54 33 29 54 31 49 43 41 40 32 40 40 31 55 48 33 44 31 35 36 48 43 36 34 26 40 54 54 56 35 54 52 23 51 34 39 23 45 65 51 47 52 33 23 30 28 57 26 44 20 26 44 61 52 46 35 50 44 33 65 49 37 18 39 31 29 26 36 37 41 30 44 27 41 23 29 51 29 44 33 43 51 31 23 51 47 33 61 63 38 22 46 31 52 33 45 60 52 38 40 52 46 51 49 48 41 44 45 38 45 41 51 60 47 21 32 44 40 23 50 44 36 24 48 33 54 31 39 32 49 67 49 26 62 42 36 45 19 20 37 38 31 54 39 52 54 45 35 51 36 51 33 31 30 24 17 27 22 34 64 27 36 64 60 29 30 33 40 43 36 40 42 39 44 35 47 56 37 33 23 54 23 58 26 18 52 65 46 51 34 42 48 36 36 63 43 43 48 41 62 52 23 47 23 43 23 43 45 46 47 46 33 30 35 30 42 37 40 19 24 54 44 22 39 58 46 62 43 38 30 53 52 34 61 38 31 41 47 19 41 55 53 28 39 44 43 51 23 30 46 48 32 43 47 50 37 26 39 39 29 48 47 32 36 23 14 34 33 35 45 30 46 51 53 25 48 31 37 37 27 34 40 23 50 48 37 44 40 47 43 68 47 41 33 34 33 24 31 50 46 43 48 62 59 36 26 31 29 36 36 19 51 63 52 41 49 62 34 44 51 30 43 19 34 51 41 51 34 34 30 40 25 36 42 45 51 40 49 37 36 43 45 24 39 28 30 44 61 27 61 49 37 34 39 53 34 51 62 47 32 56 29 31 38 49 41 48 54 25 43 41 53 22 26 52 47 38 42 58 45 35 44 26 37 29 27 26 33 29 25 51 39 43 28 37 26 39 37 20 37 53 24 33 60 64 39 49 40 34 46 37 41 40 48 31 44 45 45 55 43 51 27 36 57 51 50 38 37 44 37 58 32 48 40 29 37 26 24 30 43 50 37 37 23 43 48 40 34 66 28 62 36 30 57 34 45 24 35 52 59 61 25 45 38 30 40 41 53 31 39 31 45 39 41 37 43 46 44 27 51 49 45 48 51 40 31 41 29 51 44 34 52 41 52 20 39 26 62 36 22 62 25 44 34 49 45 55 37 39 45 34 41 67 33 27 31 10 50 37 48 30 31 47 27 38 14 31 36 60 44 40 27 53 37 47 51 37 33 26 36 45 55 36 26 40 41 39 38 47 31 39 56 38 41 46 55 48 28 41 37 62 23 45 40 57 34 61 45 23 29 43 37 65 35 32 44 46 47 54 65 43 74 36 51 24 37 30 36 52 40 48 42 27 42 40 36 49 38 26 45 46 44 31 31 30 40 44 40 31 31 42 31 23 54 35 40 26 36 40 56 43 49 38 58 45 33 24 26 35 41 54 40 36 47 50 51 49 24 33 37 47 52 16 40 48 36 27 13 52 27 50 28 61 50 40 47 43 47 41 53 66 40 39 47 41 49 49 17 26 41 45 31 44 43 60 38 59 50 61 30 38 31 37 65 27 39 45 55 54 44 39 48 47 37 34 59 37 46 49 30 33 30 48 33 31 30 54 28 40 52 23 31 47 33 35 27 41 61 58 31 44 69 42 45 44 45 39 40 63 44 61 41 54 48 48 49 45 38 50 40 46 33 61 28 34 45 49 47 43 47 37 43 48 37 60 41 36 39 45 41 19 35 23 29 32 57 41 45 37 33 41 34 43 45 51 28 61 48 41 45 27 38 45 41 40 51 53 64 19 37 34 40 20 51 33 31 63 51 41 53 57 30 43 57 44 54 37 46 28 47 16 32 36 41 49 37 43 42 41 43 31 66 24 37 29 40 42 30 59 39 49 34 42 23 37 35 36 32 43 51 54 51 47 41 27 28 31 50 43 33 47 27 37 43 51 54 63 48 52 46 41 50 51 42 52 19 29 37 40 33 21 40 48 43 57 46 44 41 27 7 27 38 33 30 39 62 55 50 34 44 45 36 51 54 48 41 33 43 37 55 41 48 45 46 41 51 54 48 33 37 53 38 30 41 62 47 47 27 37 41 36 27 41 33 57 48 58 44 48 27 34 30 31 55 44 55 53 51 33 34 48 48 26 71 44 32 48 49 36 39 37 34 25 41 28 29 31 51 55 52 29 37 43 48 51 14 37 27 47 23 55 23 65 40 49 55 10 34 59 44 45 48 48 47 33 42 41 36 36 34 49 43 52 17 36 40 30 59 43 33 40 33 13 56 48 55 31 57 51 41 51 37 30 20 54 48 34 59 46 27 47 45 46 48 53 38 36 47 54 37 46 20 48 62 37 60 45 49 27 27 40 50 41 27 59 55 31 54 34 30 55 46 41 41 37 47 31 48 54 29 22 30 19 37 40 45 37 44 36 62 59 31 42 32 37 37 51 41 55 60 40 28 45 19 33 41 29 27 37 45 41 34 16 61 59 51 51 40 47 37 44 46 15 45 36 30 33 33 25 77 51 44 21 45 44 37 48 38 37 37 33 32 50 71 36 61 49 31 36 58 46 41 30 47 54 47 43 56 53 55 30 54 41 51 19 59 47 24 47 46 52 37 29 45 52 31 43 39 30 38 25 45 34 44 28 28 42 33 37 43 48 38 48 40 34 43 61 13 44 44 47 48 49 43 45 35 38 44 44 45 40 17 38 26 37 45 62 37 44 51 23 25 41 37 53 44 31 44 41 40 54 51 45 34 36 47 37 46 44 45 51 31 53 53 34 48 43 28 27 40 16 48 31 48 41 52 37 20 40 48 50 37 44 51 37 41 29 45 51 26 51 60 47 16 54 37 26 46 34 54 44 51 39 37 47 33 47 34 36 39 19 31 34 44 44 34 17 46 60 55 30 54 61 52 31 33 62 31 41 39 31 50 60 43 22 44 48 40 34 34 35 23 35 31 30 19 25 41 75 31 55 43 44 72 41 45 47 35 49 40 41 37 37 37 41 48 34 19 43 45 29 43 52 44 48 53 46 62 30 40 50 21 62 23 41 43 44 35 35 33 25 29 48 28 26 57 71 54 39 45 24 51 40 23 26 40 37 65 45 57 29 16 30 55 22 45 44 27 52 37 52 45 48 45 48 35 27 59 37 43 51 37 62 30 41 22 43 36 51 47 16 59 39 55 37 62 71 36 50 34 37 23 55 41 44 53 51 40 52 26 47 61 38 34 44 34 31 40 31 34 37 39 34 48 19 26 57 42 34 27 49 44 37 36 29 45 46 29 52 42 37 29 40 45 62 44 26 51 44 45 23 22 55 24 40 45 31 51 38 31 52 44 38 48 47 61 57 47 42 39 41 39 64 48 42 25 48 33 44 55 37 48 37 58 27 37 23 50 39 45 19 45 37 29 31 44 37 37 38 34 27 29 33 32 43 38 52 36 34 40 46 30 30 33 37 44 41 46 48 40 40 44 56 49 65 44 56 31 37 31 57 32 39 48 34 34 33 37 27 49 38 56 53 52 29 44 54 35 35 33 47 65 19 51 31 44 49 37 13 34 52 40 49 51 38 26 39 61 29 41 32 39 34 40 51 54 39 35 47 41 51 44 38 45 48 26 13 39 54 31 29 40 13 55 55 43 53 29 40 30 31 46 36 39 21 36 44 38 37 57 40 37 31 56 29 44 53 31 36 62 71 51 57 22 53 51 44 47 40 34 43 44 40 45 34 37 43 43 34 31 54 33 48 26 49 36 34 20 36 37 20 27 51 43 33 35 47 55 37 57 31 30 34 54 50 31 57 26 38 40 55 51 44 30 34 44 29 38 47 48 52 35 27 44 41 33 31 47 36 43 25 33 37 37 49 55 69 55 41 31 39 41 36 38 40 41 27 40 37 62 43 51 40 37 45 24 27 37 41 52 51 44 29 55 42 49 52 32 55 37 35 46 47 39 36 65 38 45 22 35 43 39 49 26 24 59 44 34 42 49 48 42 81 44 55 41 23 51 45 45 47 34 49 41 51 39 43 38 52 42 58 26 20 37 13 38 20 41 27 47 37 51 41 37 42 34 59 41 39 58 54 32 44 34 30 27 41 38 48 54 70 33 40 54 47 22 34 58 60 44 37 48 41 24 45 33 36 31 60 29 44 36 52 34 46 40 35 51 29 41 37 38 38 42 38 45 42 48 42 41 47 29 41 24 45 53 47 31 61 27 65 21 41 37 29 34 33 46 52 40 59 23 40 30 27 51 26 62 28 31 40 46 41 36 30 37 30 69 33 39 40 51 48 47 41 35 39 53 29 58 24 58 36 39 37 19 36 46 55 39 51 50 37 62 41 44 24 27 51 31 45 21 42 34 43 34 55 37 48 41 37 44 24 47 43 33 27 50 48 35 61 30 37 27 49 57 44 24 37 51 29 50 37 24 26 39 30 38 45 55 52 48 45 34 30 33 51 56 37 23 43 26 19 27 37 34 17 29 45 33 43 44 53 37 34 37 47 48 45 44 52 47 45 42 35 49 21 69 41 37 32 35 52 47 29 47 33 44 40 41 16 34 44 39 32 36 47 51 37 49 53 33 55 28 19 47 55 26 59 44 40 49 45 25 58 19 34 39 43 47 45 57 54 56 34 20 19 48 32 41 43 42 31 54 51 40 47 39 48 39 48 51 39 19 47 51 22 41 36 40 37 30 44 51 36 35 37 33 54 43 24 48 45 45 16 38 40 55 43 26 57 29 62 44 37 46 42 45 26 24 41 43 29 38 47 23 40 48 46 41 29 60 44 32 56 45 51 16 41 51 38 50 37 51 32 45 64 37 29 44 44 41 46 26 51 46 37 65 46 30 51 40 47 41 30 30 53 70 52 27 35 30 39 40 48 42 35 38 43 39 51 54 27 26 38 30 54 37 40 25 52 29 25 65 51 29 38 26 49 36 29 73 37 46 47 37 37 32 26 41 44 44 34 30 43 34 48 23 39 28 37 41 37 41 45 40 42 47 52 35 39 36 65 27 68 41 54 41 39 47 44 45 13 48 33 48 30 51 29 34 54 43 47 39 19 42 40 34 45 49 50 47 40 50 29 59 17 51 34 30 57 23 33 43 29 48 37 29 27 37 47 27 37 44 51 44 44 45 41 34 57 45 37 39 14 23 23 43 37 41 43 60 30 36 44 45 37 47 23 10 43 36 36 34 60 38 33 51 62 51 54 31 40 47 26 40 51 40 49 30 33 52 40 43 45 48 47 37 37 33 33 41 40 39 37 51 19 42 45 47 59 37 48 37 49 36 34 27 42 46 37 51 32 52 37 30 49 37 31 43 36 31 23 37 37 38 39 41 45 36 43 68 42 50 45 36 51 39 30 43 31 43 34 32 66 31 55 41 64 44 56 47 30 30 34 21 43 38 44 50 63 34 27 35 52 35 47 44 47 55 43 43 55 40 43 28 36 51 27 53 34 47 60 40 40 46 42 41 23 48 38 31 23 24 44 45 52 46 41 42 48 38 34 29 48 54 36 55 27 50 50 33 30 40 53 54 27 52 47 40 52 38 48 44 30 41 44 41 62 36 37 36 41 20 46 37 41 51 20 38 47 22 24 40 48 30 40 55 34 29 49 56 44 27 39 43 37 32 50 45 20 15 56 22 33 49 52 45 56 48 37 41 58 46 40 45 51 32 36 37 63 26 51 43 24 39 22 40 51 43 47 34 35 36 44 56 40 37 27 29 44 37 51 37 37 37 58 44 26 41 27 23 12 47 55 22 41 34 22 53 58 23 30 22 59 40 17 25 30 48 37 34 36 46 31 37 23 43 47 40 41 59 47 54 51 41 37 37 37 41 29 37 52 39 27 33 51 47 50 45 28 55 46 22 54 41 41 52 40 52 27 41 37 47 32 31 31 33 38 50 56 23 36 54 40 38 33 40 55 47 46 37 52 74 36 16 24 48 52 30 41 38 20 38 47 17 37 41 35 54 36 47 37 27 35 49 44 24 29 40 47 58 36 47 37 37 57 43 55 16 45 51 45 46 13 16 19 23 44 40 31 33 29 44 56 44 42 47 54 29 43 31 47 45 47 57 54 37 67 30 41 46 39 43 46 37 37 34 42 21 43 51 50 58 40 51 37 23 57 33 37 34 45 40 58 45 49 20 32 29 26 25 29 71 27 33 51 50 44 43 23 44 37 59 55 36 29 54 31 34 43 45 65 62 69 47 17 31 37 37 31 33 53 46 37 48 34 44 44 46 30 43 24 31 38 41 19 35 30 42 51 31 44 57 39 49 22 24 40 36 31 43 33 43 47 46 33 46 57 37 37 48 40 51 37 49 30 30 45 50 41 41 39 30 36 26 44 33 28 31 27 40 58 47 63 30 41 52 19 22 41 33 44 58 26 49 40 44 33 26 47 33 65 51 51 41 51 42 39 40 51 45 55 39 36 45 30 27 49 37 35 34 37 45 52 47 42 40 57 38 54 48 41 40 20 37 47 59 49 36 36 59 23 30 22 37 55 51 48 37 23 41 41 27 37 20 44 45 45 45 38 32 44 19 26 51 61 31 39 41 51 36 35 30 23 41 41 41 43 41 23 37 45 34 51 40 30 29 44 39 37 29 32 38 37 52 45 21 41 51 33 31 37 27 42 20 33 52 25 30 41 20 29 44 38 38 41 48 26 32 40 40 44 33 54 27 33 24 53 59 20 27 23 42 41 41 63 26 38 45 35 51 47 29 37 30 52 24 32 27 32 36 61 44 55 38 48 34 51 26 35 48 54 52 41 27 54 31 51 49 29 68 34 49 32 20 50 51 38 41 45 32 61 29 59 51 23 34 29 51 31 51 33 44 46 36 29 56 51 53 41 43 43 47 40 29 40 55 42 30 54 36 23 42 53 54 27 42 65 40 36 35 43 49 37 23 41 45 31 56 47 46 50 35 33 10 50 53 26 44 37 27 34 42 40 22 27 50 30 36 44 47 42 35 46 48 33 45 61 66 48 31 47 51 44 38 45 63 61 43 49 62 37 18 51 44 41 27 47 37 40 54 44 30 24 37 47 32 44 45 41 43 38 43 34 45 51 36 26 55 41 47 65 53 36 32 38 37 37 54 29 48 27 30 31 58 30 37 33 37 26 19 27 47 30 45 39 37 27 40 26 30 46 26 49 63 65 47 52 40 37 34 22 36 35 16 48 26 29 31 28 32 32 39 65 16 44 31 44 41 50 43 45 50 48 23 42 54 27 41 52 37 40 55 34 40 47 27 32 50 35 58 44 49 43 37 27 23 34 47 27 13 40 39 29 35 38 22 34 47 51 38 33 40 41 30 47 29 50 36 45 45 46 34 45 47 13 38 73 38 26 48 45 40 46 51 53 38 60 30 48 56 30 33 33 26 29 37 45 41 39 31 20 48 30 44 42 40 45 30 45 53 45 46 47 27 27 24 50 16 38 47 36 59 45 37 51 50 33 59 41 25 34 45 34 42 55 52 37 48 43 27 56 52 20 33 51 40 55 54 48 30 35 55 48 26 32 52 46 23 59 33 51 34 27 35 31 66 34 61 41 51 37 23 33 60 46 50 43 59 38 43 58 34 32 34 53 35 47 55 38 34 55 59 65 65 28 33 43 56 34 36 52 51 43 47 46 35 39 40 41 34 29 44 67 47 37 40 36 45 33 47 52 47 37 33 37 54 49 48 46 44 34 41 54 51 33 26 44 39 47 36 51 36 29 38 33 30 35 59 30 31 40 45 52 62 41 30 45 45 44 31 30 31 53 51 48 27 49 38 22 37 32 40 38 57 40 51 45 32 48 23 47 37 44 70 48 55 31 42 29 37 59 33 34 51 40 42 36 31 27 50 62 30 35 40 21 49 40 44 48 45 45 30 37 30 38 38 34 71 51 54 48 57 44 43 43 45 40 35 24 26 26 40 54 45 16 47 22 47 51 47 45 37 64 40 10 45 39 34 58 16 26 39 42 41 50 47 31 24 43 39 23 40 37 43 69 41 30 37 40 42 44 30 43 48 65 27 20 36 45 58 24 66 53 30 47 23 44 34 37 44 36 48 47 37 55 45 47 32 51 30 23 36 38 52 27 42 49 31 44 45 36 31 31 46 20 61 47 33 40 34 41 36 38 40 48 29 55 45 63 20 47 34 38 52 62 36 40 44 46 51 59 45 35 44 49 36 30 20 52 44 34 27 41 54 38 33 27 49 42 21 57 34 37 34 41 46 22 34 41 37 32 51 29 44 26 37 46 44 50 30 41 43 34 27 36 26 56 47 49 41 17 46 51 55 23 51 33 31 29 26 26 47 31 29 55 58 52 45 41 47 40 33 36 34 54 68 60 40 46 50 41 51 36 30 36 37 57 19 30 40 33 55 54 64 39 29 45 45 45 24 45 53 41 35 51 46 33 27 51 34 35 48 40 38 52 34 40 52 52 46 37 17 48 52 42 41 29 34 59 29 52 38 38 59 45 34 30 22 44 50 41 26 48 31 40 36 31 57 58 39 20 52 38 36 27 47 47 35 21 44 30 41 23 41 23 29 37 33 34 38 41 34 50 30 36 44 43 41 44 32 33 22 55 37 53 37 42 48 43 29 28 33 62 31 22 56 51 27 52 46 48 55 42 53 40 56 40 59 50 37 51 52 38 38 25 39 44 56 26 47 24 27 48 41 53 54 37 40 55 51 38 33 30 22 30 41 48 59 55 40 41 44 37 57 39 48 43 27 35 36 38 40 35 21 35 16 50 44 29 35 30 51 51 35 34 37 31 45 44 51 50 41 27 36 31 34 32 47 20 34 39 38 53 23 35 57 45 63 33 46 37 46 46 26 46 47 13 50 32 27 63 51 39 40 34 59 41 47 24 34 23 31 31 37 55 44 34 43 59 53 28 51 33 60 42 23 54 30 48 29 50 41 30 50 41 33 41 38 44 44 40 50 54 45 51 51 36 49 30 43 42 32 65 30 48 31 37 44 30 24 33 38 43 54 64 16 47 48 41 26 39 30 35 50 31 20 37 48 41 43 37 58 74 41 33 34 38 73 41 41 52 27 39 44 52 30 55 50 51 37 26 52 60 30 37 55 47 44 37 51 55 41 36 45 29 51 37 60 37 42 45 60 32 33 31 45 52 47 31 40 17 34 50 52 45 16 36 43 45 33 51 42 51 46 40 42 32 54 43 51 41 39 48 44 40 48 57 45 20 54 48 36 59 27 39 50 44 29 62 47 38 23 30 30 57 41 17 37 42 37 36 44 27 47 34 35 38 45 52 40 44 32 33 40 55 33 40 66 64 34 27 38 32 52 44 51 44 60 43 30 47 40 78 37 41 30 29 34 54 62 30 34 38</t>
   </si>
   <si>
     <t>PTS</t>
@@ -102,52 +102,52 @@
     <t>List</t>
   </si>
   <si>
-    <t>JSB(2.3432374051107137, 3.339217658546732, -22.05474414886137, 124.87491615970711)</t>
-  </si>
-  <si>
-    <t>13 28 6 33 10 11 16 23 22 20 17 17 20 28 31 20 16 33 24 23 33 10 17 27 3 14 34 34 17 16 10 17 17 13 24 13 20 14 21 24 19 16 18 13 10 24 14 26 24 10 14 14 7 17 7 31 35 17 30 20 21 16 27 13 19 31 28 10 10 15 34 10 24 30 9 3 20 27 23 41 23 17 14 14 7 30 28 31 21 0 14 13 24 21 16 31 13 20 16 10 13 18 9 15 10 13 10 10 30 29 14 14 14 17 21 41 21 24 21 21 19 14 38 10 30 27 27 17 24 28 24 14 20 25 3 14 18 17 17 20 21 16 24 6 24 14 36 17 20 13 24 24 16 7 23 26 13 38 34 9 16 27 30 13 17 20 23 13 23 16 31 19 7 31 3 14 6 10 24 31 35 6 21 18 10 33 26 20 21 14 24 20 21 24 35 27 37 33 21 16 14 14 10 20 21 27 17 20 20 17 24 8 31 10 23 10 21 17 24 28 8 23 31 21 20 22 24 10 7 31 23 24 19 24 27 17 17 9 27 17 16 7 20 21 3 24 17 13 14 27 7 24 27 21 17 22 0 17 13 21 31 24 27 20 21 23 24 26 13 14 14 20 24 17 18 14 28 28 13 13 31 7 24 13 15 7 13 21 7 13 14 23 21 28 14 27 16 28 20 28 7 28 37 24 17 21 17 26 30 41 24 10 35 14 42 21 14 13 41 22 21 16 17 14 21 27 14 23 27 29 35 9 27 20 17 38 16 9 24 17 16 24 14 27 13 30 20 14 20 11 27 27 38 13 26 28 13 21 12 10 28 6 10 28 28 14 34 31 20 9 35 0 19 23 24 14 20 13 10 28 10 28 20 7 14 17 13 0 17 8 24 17 30 13 10 17 24 19 26 21 29 28 24 17 35 13 13 17 24 20 27 28 12 17 27 18 17 14 10 7 17 23 20 17 23 21 14 9 28 20 16 23 6 23 20 27 13 19 13 19 23 10 13 17 23 13 31 23 10 10 14 13 28 14 14 17 27 17 13 21 20 30 38 27 16 24 28 35 11 10 20 9 16 27 24 16 38 10 34 20 19 19 26 27 6 13 10 17 17 15 28 38 17 27 29 19 17 27 3 23 28 24 15 13 15 28 24 23 20 34 10 17 17 17 20 6 20 34 10 7 24 14 17 27 7 9 3 14 37 20 16 11 13 3 18 13 24 31 17 6 14 6 20 17 20 17 30 14 20 13 21 13 28 10 17 31 10 9 21 18 31 27 17 3 10 26 23 24 20 24 20 56 13 25 13 21 28 17 21 12 9 13 24 24 9 7 14 20 16 23 17 13 17 26 8 3 21 17 20 16 27 10 23 33 17 35 27 38 24 23 6 27 19 24 10 31 6 45 3 17 19 19 14 14 17 17 20 34 27 20 24 31 10 31 33 17 24 22 35 17 19 14 34 14 17 22 18 29 12 11 16 27 20 9 13 27 10 31 27 15 17 7 17 0 23 9 14 27 28 34 36 27 6 7 14 10 10 29 22 24 20 13 24 13 6 24 17 13 6 9 31 18 10 24 14 17 24 3 0 20 13 22 16 21 21 13 29 7 14 17 42 13 24 17 17 3 22 24 45 17 31 14 19 31 9 27 38 17 20 19 35 17 20 20 17 10 17 6 18 27 28 14 27 21 34 23 25 24 20 16 31 18 13 15 13 27 14 16 28 41 18 24 7 35 9 14 10 13 22 25 31 20 9 24 31 24 31 34 20 12 13 23 25 14 17 13 33 18 24 9 21 13 9 21 17 21 23 17 3 10 34 11 13 13 14 20 15 23 17 14 24 17 10 17 28 28 21 17 23 41 26 13 24 25 13 14 12 10 27 23 14 24 10 16 21 24 26 24 31 24 26 13 10 7 14 14 10 13 14 27 19 13 23 28 24 17 20 13 24 6 14 20 21 27 10 12 10 27 3 33 21 19 16 10 10 14 30 23 37 17 20 30 14 22 17 13 26 38 28 3 16 10 30 24 7 18 24 34 6 27 24 42 9 27 31 29 6 21 15 24 38 13 17 26 24 10 7 22 13 17 3 20 27 27 31 14 11 28 20 17 26 9 13 14 31 31 34 13 22 21 16 13 44 17 22 10 17 24 46 13 14 20 21 24 31 3 19 24 16 20 19 14 17 26 17 13 14 19 35 29 21 12 10 20 27 19 32 20 30 25 9 26 20 24 13 10 20 13 31 17 24 37 10 48 13 23 13 13 13 16 17 13 23 10 6 20 20 13 28 30 16 21 21 14 31 3 27 27 21 30 13 27 37 10 13 21 7 35 22 24 27 24 38 21 27 37 16 24 16 3 13 26 16 28 22 21 20 10 23 20 23 18 18 3 22 17 17 17 13 21 20 21 31 19 28 13 10 14 14 14 23 24 13 21 30 20 9 44 23 16 14 30 24 25 17 34 14 17 16 14 31 6 24 13 9 21 17 14 3 16 24 36 29 28 9 11 24 27 38 21 26 20 24 10 27 6 17 17 28 14 15 10 31 22 16 14 14 9 23 36 16 27 17 23 13 17 13 20 30 30 14 11 17 17 30 13 20 21 24 17 13 13 10 10 21 10 58 19 13 23 7 23 16 28 27 20 13 28 23 24 30 10 23 17 24 28 38 30 14 34 24 22 17 21 24 6 12 27 21 20 22 20 31 13 24 7 20 26 21 7 24 28 25 20 24 16 24 27 26 21 25 27 17 24 14 17 16 28 23 20 20 21 9 34 27 24 10 14 7 26 20 21 17 14 20 20 13 24 25 29 13 9 14 24 12 17 20 16 14 17 20 17 28 28 13 21 21 27 27 20 28 6 21 24 29 23 24 28 17 9 20 13 10 17 17 6 17 18 23 27 22 9 31 16 10 10 3 7 9 9 23 10 7 16 20 24 19 16 21 25 20 20 13 0 16 17 13 14 20 13 17 24 31 24 6 17 17 14 10 24 13 17 16 27 28 18 17 31 20 17 17 31 28 19 21 10 27 10 19 10 18 24 31 27 17 27 31 16 13 17 24 35 16 13 12 16 14 14 21 14 24 35 26 23 17 19 14 10 6 29 17 3 19 14 35 10 30 29 24 20 15 27 13 23 14 23 22 28 10 14 17 31 14 31 27 24 20 38 10 17 7 17 23 24 10 17 24 3 24 14 20 34 31 28 17 17 15 20 6 10 28 17 7 13 3 16 35 34 21 12 30 24 7 17 7 15 16 28 28 17 20 34 16 31 20 27 10 17 31 24 29 22 21 27 27 17 14 13 21 15 16 20 14 10 30 14 18 14 23 6 18 16 16 10 27 14 17 14 26 27 16 0 24 16 13 10 26 16 15 13 21 17 7 24 17 14 17 17 28 30 20 14 13 52 19 7 23 20 17 17 24 12 26 10 21 17 21 3 20 17 24 34 10 26 21 24 21 45 20 20 7 13 17 24 17 17 20 14 6 13 26 21 14 20 4 17 18 20 28 16 28 24 15 14 10 13 11 28 30 27 10 9 15 31 17 3 41 26 10 16 17 21 14 13 20 26 17 13 17 15 17 19 20 14 26 24 30 9 27 13 31 16 28 30 31 27 24 7 20 28 7 35 17 14 23 20 24 19 20 17 10 31 27 16 7 7 27 10 20 6 21 38 35 10 29 13 17 20 31 12 41 7 17 13 10 24 17 31 17 13 11 20 0 13 24 7 23 13 12 34 14 21 6 31 31 16 16 34 30 16 17 19 21 0 20 17 0 13 17 17 18 30 17 26 11 6 17 31 23 13 15 9 18 35 24 20 31 18 17 16 14 23 17 13 24 16 10 24 37 17 24 17 17 7 31 27 20 17 21 34 17 20 27 19 26 17 17 30 14 10 13 17 31 7 24 23 17 23 20 3 20 18 7 34 20 19 20 7 30 27 14 17 10 30 16 16 7 20 20 14 6 33 14 21 17 16 24 17 17 31 16 6 22 34 20 24 7 21 23 14 30 14 14 17 24 11 17 21 14 14 12 23 17 17 21 10 8 14 27 27 17 24 26 17 12 16 21 20 35 24 31 16 6 24 0 28 31 24 31 13 27 10 23 23 14 14 8 11 34 27 13 20 28 21 13 14 28 18 13 27 34 35 24 17 24 10 18 20 22 33 23 27 10 10 20 31 22 17 7 21 26 23 27 17 27 19 17 22 20 20 21 42 30 6 27 31 34 6 11 27 17 15 31 7 14 27 31 30 13 9 16 7 18 24 13 26 17 18 17 6 24 14 7 16 13 17 19 31 16 31 10 23 26 17 31 42 18 23 26 17 27 27 17 21 17 16 17 12 12 26 24 10 24 10 21 38 27 20 33 38 11 17 17 19 17 11 14 42 23 9 24 24 31 34 24 27 7 27 33 30 7 10 14 17 10 35 13 10 17 17 17 24 27 24 13 31 16 27 17 20 17 34 19 31 19 31 10 16 17 10 10 6 31 14 31 21 10 16 19 10 45 13 17 24 21 16 34 24 33 19 12 15 20 21 23 13 24 11 18 21 20 35 26 24 14 13 31 31 27 14 21 24 21 21 20 21 31 7 10 14 23 14 17 34 17 16 30 7 9 24 17 6 14 24 26 22 15 23 17 20 6 27 20 10 6 33 23 13 24 21 17 42 7 13 27 19 40 17 13 13 28 30 28 20 28 23 16 17 28 16 28 17 27 16 35 10 32 27 10 17 31 13 21 17 12 20 29 20 13 14 13 20 6 24 10 14 20 23 16 10 34 27 34 17 19 35 17 21 24 10 17 27 31 3 28 21 14 13 41 21 14 21 15 23 20 18 17 15 24 10 20 17 21 28 24 17 24 31 23 15 17 24 34 20 16 24 17 24 23 17 35 16 7 23 16 30 10 10 17 12 7 10 24 7 13 17 28 6 27 24 41 24 17 13 13 17 16 7 24 31 13 27 23 15 16 9 24 13 21 28 24 24 16 10 21 28 17 30 20 6 24 35 24 12 24 20 24 21 0 16 13 21 38 16 20 3 18 11 14 27 31 17 19 17 17 26 10 28 16 27 14 14 23 24 27 17 14 31 26 17 21 28 14 6 19 26 28 10 15 20 35 13 7 24 27 19 17 12 15 10 19 9 28 10 17 8 37 31 20 35 20 27 6 14 28 13 40 10 31 14 26 13 13 23 18 10 14 27 31 20 31 19 20 8 27 30 14 31 21 19 13 20 17 27 24 28 6 35 20 19 26 31 24 13 4 27 7 20 16 14 31 18 14 17 10 20 18 24 28 6 10 31 10 17 13 24 9 23 23 21 21 34 26 13 17 17 12 18 10 52 14 24 17 19 13 24 17 27 31 23 8 13 30 28 18 31 20 16 17 21 20 10 26 17 19 21 34 15 33 20 21 20 10 24 13 3 28 7 21 17 32 23 17 24 10 31 11 14 10 21 24 13 17 3 10 31 21 24 10 27 24 16 26 24 52 24 31 24 17 20 14 24 17 13 24 31 19 24 21 10 31 20 24 24 30 24 35 24 25 28 14 24 21 6 17 17 24 17 28 16 34 17 21 14 21 34 10 20 24 15 23 16 22 9 10 23 16 31 38 23 14 12 14 23 10 10 28 24 30 6 17 19 13 10 17 9 31 19 13 13 6 21 22 7 16 22 35 13 31 13 34 27 31 16 24 20 6 24 30 17 28 26 24 19 31 13 14 21 10 28 3 7 42 19 17 35 23 24 6 17 25 7 27 21 17 28 31 25 21 13 21 42 21 10 29 21 7 7 31 31 13 21 7 20 45 28 14 21 17 24 20 29 34 16 13 21 28 17 27 20 9 14 19 14 16 23 30 6 3 22 13 19 27 9 27 19 17 27 14 34 3 27 17 13 20 23 27 20 6 38 10 34 10 23 19 38 28 13 27 20 26 18 14 16 21 20 31 15 14 28 11 23 21 24 22 41 18 27 23 24 27 24 9 27 23 17 10 24 10 17 17 21 21 6 21 7 31 14 27 9 31 10 29 24 21 9 14 24 18 20 16 33 17 20 14 16 34 9 10 28 27 27 15 16 19 17 24 20 17 24 16 17 20 24 27 14 25 10 34 15 17 31 7 20 22 24 16 31 31 24 21 27 27 22 10 28 27 48 14 38 23 27 21 20 16 22 11 17 22 38 9 17 20 11 21 14 22 20 6 15 21 31 24 10 30 26 34 20 20 15 17 26 31 18 30 14 17 20 29 24 14 19 24 20 20 10 13 10 16 13 24 18 24 31 14 17 24 11 21 24 10 20 27 27 31 3 6 14 9 6 20 18 14 13 24 28 31 3 20 7 24 23 35 27 21 17 13 20 6 31 17 31 31 16 22 27 34 27 34 30 28 15 7 10 27 20 28 38 24 16 27 24 25 10 28 20 28 13 0 25 18 24 9 21 29 20 35 18 14 14 13 24 35 23 24 14 13 9 19 20 24 17 14 17 24 35 25 17 28 17 13 21 24 27 20 34 24 24 34 17 42 16 0 17 17 12 27 21 24 19 20 28 31 17 30 30 19 28 16 24 21 13 28 24 10 10 20 28 28 13 30 20 15 26 34 12 16 25 24 24 16 27 9 28 16 20 14 0 10 10 17 20 13 14 17 34 17 14 21 28 6 3 17 21 31 16 14 19 17 16 27 14 17 27 16 16 10 28 7 10 17 13 7 31 34 17 13 27 16 34 11 30 17 21 16 21 28 21 0 14 13 24 24 20 13 17 13 14 31 24 21 18 22 31 38 17 30 24 20 21 20 14 20 20 30 6 6 31 28 20 24 10 24 14 24 10 13 34 10 3 34 7 34 23 21 21 31 38 16 17 10 17 13 6 16 34 28 17 0 35 9 24 13 20 33 10 30 7 17 8 17 30 12 31 16 17 24 0 20 20 20 21 17 24 23 27 10 10 14 17 21 21 20 24 15 17 28 40 11 31 17 10 20 23 7 14 26 20 13 25 24 13 16 17 24 9 17 13 22 27 16 28 19 24 20 24 15 26 20 20 31 10 11 22 9 34 15 28 6 38 21 27 19 12 17 14 34 7 27 23 18 29 16 26 23 21 10 17 14 16 17 15 21 17 17 19 31 17 3 21 28 17 24 10 41 10 24 14 27 24 17 13 24 23 21 7 14 14 17 13 21 13 34 23 17 20 13 29 17 13 17 34 17 27 3 27 29 10 31 23 14 31 13 20 30 17 10 15 16 3 24 20 20 19 21 17 20 24 20 34 8 24 10 17 21 21 21 31 16 19 16 20 19 20 27 29 20 31 27 24 6 24 42 17 21 10 20 24 20 24 17 24 10 22 38 16 13 22 14 24 27 31 24 13 7 33 17 21 34 3 20 27 13 24 24 3 8 26 9 15 23 27 23 10 20 17 20 27 31 29 14 24 6 20 24 12 31 21 31 28 13 10 27 20 35 22 24 14 38 40 28 31 13 20 13 28 31 25 21 13 19 38 28 23 21 24 29 10 10 14 22 42 38 27 23 31 27 29 34 21 24 14 3 28 24 28 20 10 20 20 19 20 17 7 14 20 20 3 10 31 20 7 36 3 35 27 21 13 34 21 16 21 10 10 13 13 26 26 14 24 38 28 13 27 41 17 17 0 21 27 3 26 10 7 27 29 9 20 23 27 21 19 24 6 30 7 10 38 17 20 9 20 23 11 31 20 20 16 30 17 24 17 7 17 21 21 17 16 17 24 13 9 27 20 17 14 27 25 10 41 17 17 23 13 17 23 6 28 14 13 14 33 38 31 19 6 13 3 23 24 14 32 13 20 20 24 15 27 35 19 3 26 21 17 28 10 13 35 6 13 10 14 14 24 21 21 12 31 3 18 10 25 17 19 27 27 31 22 24 7 16 16 30 33 29 13 16 21 25 12 26 10 16 18 31 14 9 16 17 48 17 24 17 21 23 10 35 24 27 6 20 10 17 17 16 0 13 3 15 20 20 24 13 27 34 20 13 13 10 15 17 26 20 13 14 27 30 17 20 30 21 35 16 13 24 35 24 31 3 24 7 27 20 20 21 10 21 11 9 20 20 20 17 21 21 21 7 13 24 14 24 10 17 10 7 16 31 6 30 30 20 10 17 23 18 24 13 24 38 10 10 26 29 20 0 24 35 10 20 24 13 26 27 6 22 11 38 24 31 20 14 24 10 13 20 28 19 9 24 7 17 14 19 21 14 23 17 20 13 21 31 16 31 17 21 17 20 17 13 23 26 17 30 14 23 20 31 10 9 10 21 17 41 28 30 23 15 19 7 32 14 19 23 34 30 20 3 13 13 27 21 10 5 18 14 23 34 20 14 21 27 12 20 6 20 37 23 3 27 14 21 13 7 10 16 31 9 17 10 31 31 24 27 10 28 25 33 16 17 31 3 15 22 14 10 14 13 30 15 24 15 30 30 15 23 14 8 41 20 18 14 25 24 17 27 16 16 16 17 17 34 24 17 17 6 17 14 20 30 10 23 13 28 6 17 21 13 0 14 16 7 17 13 13 13 10 16 14 7 28 28 19 38 3 24 7 17 13 23 18 14 33 33 24 12 20 21 20 13 17 27 24 13 14 10 19 33 23 17 10 16 23 28 24 19 33 13 3 34 17 6 20 13 16 15 20 37 24 11 19 15 27 24 27 7 13 6 17 24 28 10 30 25 27 27 20 17 10 23 3 14 20 24 16 6 23 23 7 13 31 24 10 13 16 31 28 10 18 10 27 30 11 23 15 27 24 20 20 31 24 21 9 14 28 21 24 24 12 32 24 21 26 6 19 36 21 31 17 17 10 7 17 21 20 17 30 21 28 24 29 9 20 24 17 17 26 35 7 27 27 6 17 20 28 23 27 13 17 20 17 23 16 21 16 31 20 24 17 19 17 27 10 24 34 20 28 37 20 24 9 27 9 38 20 23 12 12 24 21 20 13 28 35 19 11 13 19 23 21 28 23 23 23 14 17 36 26 27 31 22 23 10 24 13 6 15 35 30 38 10 21 16 23 12 17 29 13 14 19 28 7 27 16 17 9 17 13 21 21 17 16 20 17 45 15 9 24 14 14 27 17 35 36 15 26 7 13 38 30 37 21 6 17 6 16 19 21 18 19 3 35 14 20 16 16 14 20 25 14 10 16 15 9 49 31 21 21 19 21 14 14 13 21 13 21 17 15 25 15 20 17 20 20 24 28 17 11 13 25 17 28 27 28 3 37 19 27 26 27 27 19 27 20 23 17 24 34 27 20 20 3 22 26 30 13 21 13 17 10 20 24 9 24 24 10 3 10 10 22 24 24 17 13 21 20 17 13 14 28 16 14 10 27 26 24 13 34 12 13 16 24 17 27 13 16 22 17 20 16 13 29 17 19 26 6 17 20 27 17 7 35 23 3 16 7 30 27 13 6 17 23 30 10 24 18 12 41 34 26 8 27 10 7 23 29 13 28 24 31 3 13 16 23 38 20 26 24 29 23 17 28 21 24 13 16 26 17 24 17 6 21 20 44 27 14 23 10 27 35 18 21 10 28 30 14 13 10 21 20 17 3 17 27 14 38 14 38 11 21 17 13 13 16 24 15 24 26 20 26 31 16 27 14 16 10 13 16 21 25 13 23 21 17 38 30 33 27 17 17 14 24 20 33 9 16 3 38 20 24 24 30 17 17 13 17 9 24 13 24 34 13 14 14 25 25 23 24 30 24 27 14 17 16 28 17 10 9 30 24 37 3 20 21 7 10 13 16 19 16 34 18 23 30 16 14 31 20 34 16 38 3 10 28 38 23 16 30 28 23 23 28 21 7 31 27 17 17 17 13 17 21 27 35 13 6 21 18 10 41 28 10 28 20 20 14 17 16 13 24 3 32 24 27 12 18 23 21 35 23 31 35 25 21 21 27 24 41 10 6 17 20 38 29 31 16 13 20 6 9 17 0 28 45 10 34 0 28 17 17 30 17 19 10 10 13 14 31 10 11 10 17 27 14 33 24 13 26 14 24 21 13 7 14 21 16 7 21 17 30 16 19 7 13 10 15 7 19 9 27 7 14 0 14 20 14 7 20 24 13 25 21 14 17 23 21 21 14 28 31 21 10 45 17 26 15 15 12 27 8 24 14 27 13 17 31 27 30 29 16 14 20 25 24 19 24 27 13 9 7 7 33 13 10 24 24 24 17 10 31 10 17 21 17 17 29 23 27 34 34 27 31 3 16 26 21 31 24 24 10 13 17 15 21 15 20 24 14 19 13 20 14 16 21 10 31 3 17 24 20 17 21 14 21 20 24 13 21 17 33 14 17 21 6 20 16 31 7 21 24 16 20 11 7 10 20 24 17 16 20 10 20 21 28 20 24 14 19 16 21 3 13 14 17 12 22 28 10 16 27 17 17 16 33 23 22 15 16 7 21 27 23 14 36 13 10 13 20 24 23 10 27 21 24 10 13 34 23 27 21 9 17 10 27 13 13 13 28 28 31 22 20 6 11 31 14 32 20 24 17 21 22 20 12 20 14 22 28 16 17 23 14 16 14 14 34 17 24 21 19 13 14 17 7 27 21 24 25 17 31 14 20 17 24 34 17 10 14 26 7 20 19 35 21 34 30 14 20 21 17 20 21 21 14 6 38 31 13 23 19 31 21 28 20 17 17 31 31 31 23 21 28 10 23 15 6 7 21 27 15 17 13 23 13 28 24 14 30 13 21 6 28 17 17 26 22 19 7 27 21 17 9 6 13 30 17 30 24 31 35 23 24 3 23 31 28 20 22 33 25 9 19 23 35 3 12 26 16 14 16 14 28 10 10 11 14 12 14 23 35 27 21 13 19 31 16 10 26 17 16 27 38 20 17 21 22 13 13 27 19 9 14 40 14 14 28 3 15 24 17 6 9 37 21 25 23 18 21 13 16 23 19 10 24 10 17 20 10 13 17 14 13 24 17 27 26 19 21 25 17 19 24 24 16 17 17 14 23 20 24 20 17 10 31 13 20 24 23 24 24 20 24 20 20 23 16 21 16 31 14 21 31 19 24 13 31 24 16 14 16 17 28 23 21 30 28 12 17 21 10 24 16 20 10 21 20 17 13 24 30 17 24 24 24 3 13 24 6 27 23 9 28 35 16 28 6 10 21 31 17 27 10 31 28 27 26 21 28 21 21 27 24 28 12 17 24 13 10 16 14 23 19 17 13 13 24 14 0 26 24 20 14 14 17 23 28 30 7 27 6 24 14 31 19 7 10 13 23 23 31 24 16 24 24 16 27 14 16 16 24 14 27 7 6 16 17 14 24 16 16 21 20 24 30 23 25 14 25 21 17 21 24 16 17 20 20 17 29 24 24 17 13 10 14 10 37 21 31 24 38 7 13 29 10 3 7 32 21 29 10 24 12 6 31 20 31 13 17 7 0 19 24 24 17 14 16 14 17 33 17 22 17 24 23 37 24 13 23 34 17 15 28 31 7 21 31 24 23 20 44 22 23 3 16 28 27 7 17 21 7 20 26 24 3 10 10 38 30 0 6 24 27 10 28 10 28 12 10 10 9 35 16 14 20 10 24 28 24 7 31 9 13 34 21 19 11 19 34 0 10 7 31 35 34 3 9 6 27 37 16 21 10 21 33 10 15 20 20 3 23 21 20 13 0 20 30 21 27 13 17 6 17 22 34 24 15 21 24 22 3 17 38 13 13 31 37 10 6 34 9 18 13 20 20 14 24 26 9 31 9 17 13 13 29 10 21 24 37 19 37 6 24 12 17 41 24 19 13 17 19 3 26 3 14 19 15 36 16 16 31 23 28 27 6 28 16 14 30 19 28 21 24 16 15 21 3 8 27 10 16 13 30 31 24 17 21 30 14 16 17 0 24 20 16 17 20 10 13 25 34 21 24 20 10 38 24 34 20 16 13 31 17 26 24 17 28 13 13 10 24 13 35 17 20 13 27 21 23 26 22 19 14 14 37 9 24 13 20 14 22 14 28 29 17 21 30 13 33 31 20 21 37 22 14 23 26 43 25 28 29 20 21 23 37 27 17 9 13 19 17 23 48 40 23 17 23 17 27 7 27 3 21 16 24 34 27 7 20 21 13 26 27 15 13 20 24 13 20 27 17 27 10 22 10 17 31 9 34 27 21 23 25 13 10 24 21 24 30 22 24 28 12 10 13 31 30 17 13 32 28 18 14 17 13 20 17 22 28 13 13 13 26 17 10 27 21 8 28 23 35 21 10 38 28 7 17 13 24 17 20 30 26 14 24 9 14 16 31 19 20 26 20 21 27 10 10 31 10 23 7 17 17 13 33 27 26 17 9 31 26 24 13 16 13 3 14 20 10 27 27 21 17 7 17 7 10 25 14 24 17 12 24 16 12 24 25 34 24 19 23 20 9 0 13 24 0 17 21 21 31 24 10 20 24 21 27 20 18 45 20 18 32 17 14 20 16 19 7 17 10 19 17 19 22 3 19 6 17 17 3 28 16 31 17 10 14 14 6 10 31 20 16 14 20 24 26 30 16 13 17 20 20 31 34 16 14 26 6 33 24 16 17 31 31 24 49 13 17 0 31 6 27 6 17 17 22 31 21 17 9 23 20 20 34 17 21 16 31 10 17 21 14 14 24 23 34 41 37 28 15 12 10 24 0 17 34 24 14 6 14 21 35 21 17 17 24 16 23 14 30 10 41 7 19 17 14 18 24 16 23 31 7 13 17 16 20 6 13 14 21 13 13 24 20 20 17 5 13 24 7 7 30 7 19 16 23 14 17 20 37 31 35 27 14 13 42 33 9 31 21 13 30 27 26 18 16 21 10 9 16 6 20 24 3 16 17 17 14 7 13 22 14 29 14 21 16 17 10 27 30 23 26 14 13 16 27 24 27 12 21 13 16 17 20 16 26 14 0 14 23 17 17 14 13 17 16 31 19 23 15 5 27 14 16 26 24 25 14 30 23 16 14 10 10 6 23 41 21 10 27 31 27 20 30 7 44 24 16 13 17 24 38 17 22 18 13 13 13 24 24 24 34 30 13 28 27 33 14 34 16 23 28 21 17 31 14 6 17 20 31 24 6 13 26 24 31 24 20 10 13 16 23 18 30 10 16 6 20 13 17 24 19 13 13 31 16 12 13 14 21 14 19 34 28 20 9 13 24 13 10 13 13 21 10 26 20 14 21 21 26 24 13 31 27 7 14 13 13 38 23 22 17 18 13 27 27 20 10 24 13 21 14 14 13 14 23 3 7 20 14 17 16 13 28 10 27 20 16 30 23 20 7 17 20 16 13 21 10 21 21 14 23 10 28 38 27 37 21 34 0 14 14 13 20 44 10 10 27 17 17 10 24 27 14 17 10 38 24 20 21 10 30 17 27 27 10 18 10 10 21 24 24 16 45 34 13 19 19 17 14 29 13 35 36 15 24 28 21 17 13 20 33 26 16 19 10 17 34 24 17 31 17 13 16 14 20 23 29 6 13 23 13 17 25 10 17 37 17 23 45 14 26 17 23 23 13 3 14 17 31 20 24 16 13 41 17 14 27 9 11 20 48 13 23 31 26 12 21 10 16 20 17 37 10 21 21 10 6 20 41 11 31 7 24 19 24 10 9 28 22 36 9 6 11 15 12 20 17 17 6 17 23 18 10 17 20 13 23 10 7 20 24 14 17 14 13 27 13 23 38 0 14 33 26 24 16 19 34 8 14 20 17 27 10 24 20 17 31 26 13 17 34 27 13 31 21 25 21 10 22 7 14 13 31 20 21 31 17 12 7 0 34 17 33 24 21 28 9 20 25 28 17 19 10 10 17 7 13 31 35 38 24 6 0 13 27 22 9 16 24 14 10 20 14 24 27 35 17 18 31 28 13 20 27 21 10 16 7 13 20 9 22 19 14 21 20 30 20 20 13 14 12 17 20 20 19 20 17 22 24 30 21 23 17 12 17 34 23 41 17 37 24 21 21 17 23 27 21 21 21 16 24 23 17 9 31 26 9 17 33 21 10 17 28 31 9 35 44 17 11 23 24 17 13 13 7 20 28 24 9 16 35 17 17 26 23 10 7 20 17 29 15 19 6 22 16 19 6 35 24 10 27 16 21 30 23 23 23 29 41 20 16 24 23 20 27 21 16 23 9 26 17 13 25 22 17 23 20 7 13 10 19 15 14 17 10 17 18 14 20 20 20 41 13 42 24 27 34 20 6 16 28 23 20 26 13 19 13 7 24 10 31 24 14 21 3 7 35 28 15 24 13 30 23 13 35 20 14 27 10 17 24 31 23 23 38 15 17 17 15 14 24 27 12 33 24 13 27 24 45 20 19 21 27 9 22 24 17 24 10 22 9 28 20 29 7 17 27 17 27 24 27 15 10 24 30 27 28 21 17 16 10 20 11 9 27 19 12 21 17 18 13 20 18 13 24 3 17 17 15 10 17 9 28 10 16 38 17 13 24 6 27 17 42 22 9 24 34 10 9 14 17 3 18 24 34 30 10 21 23 31 24 24 18 19 13 24 20 24 13 24 6 21 20 16 17 13 31 13 24 33 20 14 26 26 7 18 10 41 21 24 29 26 30 7 20 30 14 21 45 16 28 20 9 32 34 27 14 12 28 28 17 14 27 17 14 30 7 23 14 21 20 14 27 20 13 28 28 20 21 6 25 18 35 27 27 22 21 24 30 7 27 20 10 16 15 17 24 24 22 31 10 23 24 24 17 3 23 29 26 17 14 37 18 20 17 17 26 31 26 20 13 3 33 17 21 13 17 34 5 24 21 13 27 17 20 24 28 30 22 44 27 20 16 13 13 16 23 17 16 10 10 24 25 21 23 13 17 24 24 22 20 27 27 35 35 24 26 24 17 13 17 6 10 14 30 19 20 34 31 35 20 24 17 7 20 24 30 13 14 25 13 13 7 22 34 23 24 7 15 13 14 16 17 17 20 12 17 24 17 20 16 21 30 13 23 10 7 28 30 7 28 21 16 7 28 17 39 13 16 31 10 21 21 10 15 20 13 10 20 9 31 27 6 6 27 21 7 16 14 3 24 13 21 24 16 13 20 21 24 24 25 22 22 17 9 14 34 14 24 27 27 25 3 3 20 21 7 15 14 24 30 10 37 7 17 24 24 31 9 21 34 15 10 24 18 21 20 28 23 19 31 27 15 10 33 24 33 35 16 37 21 24 20 10 6 32 27 23 21 9 14 21 28 10 33 27 10 17 10 3 10 10 25 21 33 9 19 17 21 20 26 7 17 14 3 17 31 16 10 36 17 35 19 14 20 10 19 14 12 24 17 7 9 39 24 26 27 23 28 20 17 27 24 16 13 19 21 31 20 27 10 19 27 16 21 24 20 10 17 17 12 6 23 20 24 17 22 10 10 30 17 10 10 14 27 24 7 21 23 10 19 27 12 18 30 18 23 28 34 17 27 16 32 17 17 17 16 33 24 24 27 31 13 14 17 9 24 7 17 23 25 24 19 28 20 10 24 7 30 8 16 23 3 10 10 16 20 14 14 20 22 21 13 14 38 16 34 17 16 28 24 21 20 19 25 33 13 20 10 28 10 17 19 30 18 21 13 20 27 13 14 8 27 18 29 16 38 27 13 24 6 23 35 21 27 17 23 35 17 14 38 17 24 26 10 8 17 12 13 20 24 28 30 8 10 10 41 7 20 7 33 7 6 21 19 21 15 17 30 16 20 7 10 23 16 10 7 13 10 7 10 41 28 21 28 21 21 20 20 21 14 16 21 31 9 34 21 27 24 17 16 38 27 24 24 10 9 3 30 27 10 24 20 13 24 24 17 23 23 14 24 14 14 17 29 9 38 17 24 13 25 27 27 14 14 20 10 20 17 20 24 27 6 17 17 7 23 23 13 13 10 24 10 31 21 35 10 21 26 21 34 17 26 25 20 24 10 17 27 20 28 34 24 16 13 21 20 17 17 13 34 20 31 19 10 34 28 24 13 23 15 7 2 23 24 16 14 20 17 23 17 7 19 13 31 18 24 17 37 17 27 20 24 14 20 17 14 17 20 10 21 35 44 41 10 17 27 24 17 23 31 18 12 23 31 7 20 3 21 27 20 21 13 34 3 17 21 19 27 23 21 14 37 16 20 17 24 23 7 0 10 17 11 21 19 20 23 13 9 13 13 17 14 28 17 35 41 16 17 25 27 24 28 17 12 24 17 14 14 31 10 14 20 31 21 17 13 20 21 28 23 14 31 16 14 37 35 16 20 20 28 20 21 20 13 14 28 7 20 28 20 20 33 7 20 28 13 26 13 17 24 21 3 6 0 21 29 21 3 24 30 14 34 21 7 26 10 14 3 14 34 16 28 14 10 19 20 21 14 38 31 27 17 6 17 22 20 13 12 17 13 17 35 27 10 28 21 17 12 27 30 25 23 20 34 7 27 10 0 3 11 19 30 27 23 16 20 30 17 20 13 35 19 14 20 38 10 9 21 11 14 27 17 15 34 24 24 14 13 20 10 10 21 17 17 20 14 24 11 13 17 31 25 27 16 19 10 20 27 10 13 31 18 20 20 9 17 16 17 31 24 12 6 17 24 14 6 24 10 27 35 34 21 14 20 16 6 38 10 22 21 31 27 14 27 3 13 23 3 40 31 30 30 31 18 33 30 21 16 22 23 17 20 17 7 9 21 16 13 26 22 9 13 12 30 16 16 16 20 16 34 31 14 28 10 27 27 13 10 27 23 10 31 36 14 20 24 21 20 13 31 13 24 17 41 20 7 17 30 6 17 14 18 24 31 14 20 21 16 9 12 7 20 19 31 10 17 26 21 17 16 21 17 0 24 17 19 18 26 23 37 10 18 20 24 31 33 27 31 21 26 26 28 14 27 13 24 19 16 21 17 21 13 14 13 14 21 14 14 21 28 13 20 31 7 3 22 9 12 24 20 8 16 24 28 42 27 30 14 21 20 17 23 24 13 14 18 14 17 21 14 17 14 10 19 24 17 0 15 21 10 24 20 20 13 19 24 31 17 24 14 34 30 33 21 34 18 17 17 17 20 22 17 24 13 17 28 24 14 19 13 6 24 22 24 31 19 16 21 23 17 19 24 31 17 26 41 34 36 21 26 10 38 27 30 12 14 24 0 26 10 17 22 16 21 28 24 31 31 17 35 21 37 24 31 20 17 24 18 18 10 27 23 34 20 24 10 22 17 20 24 28 21 20 24 16 20 25 3 20 9 35 34 27 17 16 27 21 31 41 9 13 24 24 31 24 13 23 24 30 10 21 12 13 27 20 16 23 26 29 13 14 22 21 18 26 35 21 13 24 24 22 10 16 10 13 33 23 31 18 28 16 14 20 6 24 21 29 13 24 29 28 24 7 21 10 31 17 24 8 20 15 27 3 10 10 37 14 13 13 17 24 19 24 34 23 13 20 3 6 34 17 10 21 20 18 31 31 31 17 17 21 16 35 22 24 22 24 26 23 14 13 27 23 10 3 17 30 27 38 15 13 27 8 12 16 13 6 15 13 24 21 21 13 28 20 34 22 26 30 17 24 10 37 9 20 20 6 20 20 26 27 17 24 20 29 11 24 29 28 17 10 30 20 21 13 23 23 14 20 30 13 13 14 17 26 16 16 18 20 27 21 9 12 13 21 14 24 20 20 13 13 30 17 17 21 24 41 24 20 38 22 17 27 17 8 6 13 31 31 30 10 19 14 27 24 10 16 31 16 15 24 20 16 26 19 20 20 23 3 26 24 20 16 21 11 26 21 0 17 27 16 21 20 13 19 28 20 17 27 17 16 17 16 11 29 20 17 28 31 35 10 12 14 36 27 10 15 16 21 8 31 10 14 25 31 15 24 10 30 17 20 23 24 11 17 26 21 28 23 15 7 20 10 24 6 30 13 27 28 17 7 16 16 10 27 10 20 17 27 34 15 13 34 24 24 19 30 31 27 3 20 10 38 21 21 10 27 17 14 20 16 35 20 20 14 22 22 26 20 35 17 24 17 10 30 21 24 23 26 12 30 34 10 21 24 19 26 16 43 13 23 30 21 33 28 27 15 27 28 21 20 3 16 28 20 24 24 27 27 24 14 21 24 14 15 13 13 21 20 20 16 25 17 14 20 17 19 17 31 9 20 37 6 18 31 20 23 17 6 23 24 33 0 24 20 20 23 13 24 33 18 27 27 15 20 34 14 20 33 27 31 19 10 24 20 33 21 19 20 24 21 24 16 12 27 16 23 7 21 10 21 19 27 26 23 21 8 13 31 20 10 12 27 13 27 13 31 6 10 3 26 6 24 20 17 17 28 3 16 16 27 24 27 28 24 31 16 21 23 19 18 24 21 24 20 15 35 12 14 13 17 17 13 3 7 30 26 30 10 13 24 17 14 30 19 14 24 17 23 16 13 20 14 16 20 34 7 0 16 12 17 3 17 13 27 10 27 30 28 3 13 24 17 7 18 30 23 10 1 24 13 20 19 23 17 17 17 27 24 20 12 20 27 17 17 27 3 14 9 23 20 29 21 14 13 14 32 21 31 16 24 30 30 17 16 17 13 23 40 14 13 10 21 7 16 20 14 0 18 28 7 14 20 24 28 27 10 28 20 16 16 38 17 27 17 30 27 0 28 14 7 7 21 20 12 19 20 24 14 14 13 18 35 20 16 10 28 27 20 17 22 14 20 7 16 24 38 10 17 6 13 22 45 23 24 13 14 6 27 17 14 18 6 24 30 13 21 14 26 14 34 28 21 42 7 24 13 24 19 24 14 13 20 10 33 41 30 31 38 17 9 15 3 20 10 26 27 17 29 19 7 11 16 27 17 14 40 31 7 23 10 25 6 10 17 23 26 20 24 6 33 28 24 21 10 14 14 42 19 27 7 15 27 28 20 21 6 22 6 21 19 17 24 27 22 17 21 20 30 13 21 20 13 27 14 7 16 20 27 10 31 24 26 31 7 37 24 17 13 13 20 16 16 13 14 9 0 7 30 20 17 6 16 16 25 9 24 14 7 16 24 16 17 20 14 14 6 6 28 16 29 10 28 10 17 23 31 24 27 23 31 30 14 10 30 27 24 17 19 6 26 7 10 14 23 23 37 10 21 14 17 30 9 27 24 33 29 17 13 20 24 16 27 19 31 21 13 18 13 28 19 23 3 27 17 21 20 40 16 27 9 22 20 21 38 23 31 20 17 28 24 0 17 19 20 32 16 16 32 3 23 0 17 25 16 3 19 27 27 14 7 23 24 16 34 3 17 24 16 21 19 20 19 0 9 37 17 6 7 16 13 16 32 6 16 7 14 21 24 27 20 24 28 24 20 34 20 22 31 21 24 10 24 7 20 16 17 21 34 24 29 29 17 19 20 24 23 20 30 14 27 20 10 35 28 28 24 14 30 14 6 10 18 19 29 24 14 17 24 10 21 14 21 17 14 28 31 20 7 20 17 17 35 15 17 12 14 16 9 28 20 42 17 22 34 28 19 31 24 31 24 24 17 31 18 13 10 9 17 11 17 24 17 20 10 20 26 0 28 28 13 27 13 13 6 10 17 45 28 26 13 30 20 32 6 28 24 17 21 13 9 35 31 14 24 14 20 17 26 17 20 9 29 14 24 14 24 10 17 3 11 10 27 8 11 23 20 19 31 7 27 21 21 21 27 23 20 10 17 26 27 23 31 26 17 26 13 9 13 17 35 21 11 20 17 24 24 31 34 16 13 17 15 10 20 24 11 17 14 6 30 10 10 13 7 3 31 10 20 20 12 14 16 17 24 28 16 38 24 12 20 27 13 10 20 10 34 13 6 17 28 16 24 14 17 20 19 38 40 8 26 21 20 12 20 23 20 34 24 11 27 17 13 20 17 13 19 31 17 33 24 21 17 6 21 14 17 23 7 10 27 20 17 10 19 19 0 21 31 13 10 21 23 30 27 14 14 21 8 26 17 14 26 20 31 20 33 19 17 21 15 28 13 20 10 27 21 13 38 20 12 26 17 13 21 27 7 29 9 19 21 26 23 3 10 3 38 27 16 21 34 21 24 17 10 10 10 20 11 13 13 23 26 17 14 21 31 17 3 23 17 23 3 13 33 22 13 16 7 21 21 24 24 20 27 41 24 10 24 38 24 24 23 24 14 23 27 16 16 31 21 20 21 27 19 28 20 24 17 10 16 23 28 24 27 16 27 20 16 28 16 17 10 24 21 26 9 17 9 12 3 16 17 27 30 22 23 16 13 17 10 17 30 23 29 11 5 29 10 24 31 27 17 10 10 16 20 16 21 30 16 14 20 27 30 18 23 31 34 37 14 16 13 30 17 20 16 6 7 31 13 21 33 17 24 24 31 28 17 17 24 17 10 7 8 17 16 13 24 14 14 38 20 22 6 24 34 17 20 27 20 0 38 31 23 34 24 24 30 3 20 24 28 9 33 17 6 24 21 31 21 21 14 13 6 17 30 13 20 3 10 3 16 13 14 13 29 17 31 6 34 14 20 27 21 24 23 7 31 17 27 9 19 17 24 20 14 27 48 27 7 17 17 13 21 10 24 21 18 24 23 7 7 20 31 7 18 13 21 16 24 16 27 10 21 38 10 3 38 27 24 20 23 17 16 20 13 19 25 17 27 27 23 24 20 13 31 27 11 28 20 28 14 20 21 13 31 26 17 34 6 18 17 24 14 19 17 31 16 34 17 12 20 12 27 22 34 29 31 17 17 21 21 14 19 23 23 13 21 14 24 34 23 13 17 16 15 27 20 34 31 24 23 7 31 17 27 7 20 27 34 19 17 10 7 17 16 13 20 24 20 16 10 28 6 14 14 8 17 30 21 13 24 23 20 14 14 23 3 17 14 20 8 27 14 19 17 14 27 9 21 24 17 16 16 7 31 23 19 31 24 41 21 10 21 21 21 35 17 27 3 17 22 14 13 14 16 14 28 19 15 20 31 27 13 31 3 38 21 26 24 16 28 31 13 10 10 16 12 14 16 20 6 34 12 27 17 21 24 37 24 17 10 7 27 21 19 9 3 20 10 13 17 14 26 30 22 14 16 21 20 17 29 31 35 10 0 13 19 17 17 13 3 27 10 19 27 27 27 37 30 17 14 31 30 10 22 22 34 19 16 28 29 27 13 17 28 23 27 6 14 38 21 14 9 21 10 10 21 16 11 31 16 13 24 25 14 21 9 19 20 18 14 16 19 23 24 34 17 20 11 10 27 14 16 14 17 21 10 6 13 14 22 20 0 10 33 17 18 30 17 20 17 23 3 9 17 21 16 20 17 17 17 11 17 31 33 31 24 41 3 10 17 27 20 14 16 16 15 24 17 14 16 3 10 28 24 34 34 27 28 22 27 27 17 17 27 13 17 6 20 20 12 21 20 35 16 9 17 6 27 10 13 14 27 20 17 31 13 11 27 31 23 28 20 34 27 13 17 24 12 17 24 27 13 11 24 31 14 10 20 13 34 22 24 34 24 27 10 16 10 14 9 9 6 14 13 21 24 17 31 3 17 10 23 14 17 17 14 28 24 24 36 14 19 30 10 18 31 17 22 20 35 34 23 27 20 7 23 20 20 13 9 37 37 28 17 24 7 18 13 27 9 20 11 17 9 17 21 27 38 17 27 16 34 24 15 13 40 23 3 14 20 20 17 17 9 9 13 7 10 10 17 20 20 17 16 20 12 23 24 14 34 10 45 21 28 17 10 27 20 21 34 22 10 7 34 10 14 10 14 16 6 24 17 27 9 27 17 17 10 13 21 17 31 20 45 17 27 32 31 14 20 21 19 17 38 24 13 23 14 16 13 17 20 10 27 22 13 27 26 35 14 10 14 23 20 23 7 17 13 26 16 24 23 14 16 12 15 21 27 15 21 9 30 33 24 13 21 24 20 27 16 23 20 20 22 10 10 30 20 16 24 12 27 3 17 19 14 16 22 0 10 30 26 27 20 15 13 17 24 15 17 20 23 43 20 6 3 24 33 27 13 19 24 10 6 35 20 23 8 23 10 8 35 12 34 10 17 31 8 30 21 3 0 24 27 13 21 31 13 10 20 41 17 31 15 20 9 14 20 9 6 9 17 31 38 17 15 17 35 27 24 7 19 26 14 10 21 17 17 21 10 30 17 26 17 31 16 3 10 18 9 24 16 20 21 11 27 16 24 15 10 17 21 21 17 20 44 23 24 10 14 19 19 17 31 32 20 17 8 31 23 17 14 17 23 21 34 17 7 13 20 40 10 31 31 14 26 10 24 27 21 16 21 13 3 17 21 10 7 17 34 10 29 6 28 20 22 24 26 22 16 14 13 22 28 35 21 16 24 17 20 15 7 17 25 17 16 14 7 24 10 13 31 32 17 14 20 20 29 13 27 33 27 23 14 13 13 16 24 21 28 13 21 21 24 24 20 26 20 27 24 14 17 30 20 31 21 20 19 23 23 13 19 21 12 17 17 14 34 20 14 16 10 34 22 17 10 30 21 33 28 34 14 17 20 35 35 27 10 28 20 24 10 35 20 31 31 13 19 6 6 35 31 21 24 34 20 15 23 17 41 0 30 21 41 31 21 45 21 34 32 41 17 24 6 37 17 21 16 24 22 17 19 16 24 9 28 7 17 28 35 21 16 9 24 12 24</t>
-  </si>
-  <si>
-    <t>N(22.0171, 4.239340466393327)</t>
-  </si>
-  <si>
-    <t>22 26 25 28 24 22 21 28 21 28 19 21 24 24 18 19 22 24 24 18 25 19 16 22 18 20 27 26 23 21 25 23 17 20 26 19 24 26 27 28 24 26 21 29 19 21 20 27 22 19 17 24 20 23 16 22 22 25 16 24 24 23 22 24 25 21 25 20 20 19 16 17 25 20 30 17 26 32 27 29 20 29 30 23 26 19 25 16 23 17 27 21 25 24 14 23 24 25 14 21 21 26 18 12 23 20 22 21 20 25 21 14 19 22 19 24 27 20 25 24 24 21 20 18 25 24 20 26 22 22 28 28 19 22 20 20 32 16 19 14 17 20 21 28 23 24 22 27 20 15 29 28 24 24 29 23 18 24 25 19 23 18 25 20 20 16 18 23 25 25 17 24 27 23 23 20 18 16 36 24 30 17 21 33 25 29 18 21 20 21 21 22 20 21 22 19 18 27 18 25 24 24 17 21 21 24 19 12 26 21 19 26 20 18 24 13 18 19 21 28 18 17 27 23 19 19 19 29 26 25 26 23 28 23 17 24 22 15 12 20 11 21 18 23 26 18 18 21 24 24 19 26 19 22 20 25 27 18 20 23 18 24 27 25 18 19 25 28 20 16 24 29 24 16 24 20 24 20 18 26 22 22 21 19 17 27 19 19 17 28 21 27 18 28 22 21 29 24 24 28 22 20 24 28 21 18 25 22 26 28 17 25 21 21 27 23 23 26 28 23 17 19 18 22 28 29 14 21 18 25 24 20 31 22 18 26 23 23 19 24 16 25 19 26 26 26 20 18 22 16 28 20 23 19 22 24 15 25 18 18 22 21 21 28 26 18 20 29 21 24 23 18 20 19 29 21 18 24 13 27 24 24 24 19 15 23 22 16 29 28 25 24 20 19 12 19 21 21 19 30 19 18 20 26 23 20 22 22 30 22 23 24 18 20 22 27 17 28 18 16 19 24 21 24 17 18 22 26 23 20 17 26 21 22 20 21 20 28 18 28 23 23 20 20 27 23 27 28 20 25 21 27 30 23 18 22 21 19 25 24 22 20 19 26 23 24 25 16 27 16 23 21 21 25 20 22 30 21 30 26 23 30 18 26 21 17 20 23 21 23 20 17 22 29 24 22 27 26 13 20 23 22 22 18 18 25 17 17 19 22 23 22 17 28 24 24 26 25 20 22 23 26 25 23 19 14 21 26 27 20 22 25 24 24 28 23 25 22 21 28 20 18 23 15 22 19 26 21 22 20 27 28 27 28 15 24 20 17 30 19 24 20 14 14 18 26 25 20 19 16 23 29 27 22 23 18 19 17 16 26 29 26 23 22 18 22 21 26 26 16 28 14 18 20 24 16 16 29 21 17 15 21 24 30 19 26 21 19 28 23 26 25 22 21 22 29 20 22 27 16 24 20 24 29 25 25 21 27 22 19 21 17 13 25 22 24 18 28 27 17 18 20 26 22 18 19 22 22 16 19 17 19 26 17 24 17 21 14 25 24 19 23 22 20 26 20 14 16 24 32 22 22 15 22 21 20 20 20 20 22 29 24 24 21 17 23 17 22 21 21 26 21 18 22 19 16 24 15 11 19 21 20 15 19 20 18 24 21 28 25 25 18 24 24 15 22 29 22 24 15 19 25 19 24 30 26 18 27 26 19 23 28 21 19 24 17 23 23 22 25 26 21 24 26 25 29 24 17 21 15 25 24 24 23 24 20 17 23 25 21 24 29 24 25 21 20 23 22 19 24 31 26 21 29 23 22 17 26 24 12 19 19 29 31 24 20 15 22 21 20 20 26 23 26 26 22 26 21 18 18 31 28 16 22 25 22 24 19 25 20 21 22 16 24 21 20 23 27 26 27 30 20 22 26 15 19 14 23 20 26 24 17 23 25 19 18 30 21 20 24 23 20 18 29 23 26 23 20 24 26 19 24 29 30 20 20 27 26 14 16 19 29 26 24 17 24 24 21 18 24 23 25 30 15 24 24 18 21 24 18 24 25 19 16 17 25 31 29 15 16 20 16 23 23 19 25 21 24 23 21 26 22 15 24 24 30 12 18 23 14 22 20 21 29 22 26 13 22 17 17 29 26 24 24 19 20 22 23 24 21 22 19 22 15 27 25 22 28 33 22 21 30 22 23 18 15 17 23 28 22 22 20 20 31 20 17 29 21 26 16 27 27 20 25 25 22 18 23 29 16 18 29 24 20 27 25 29 26 26 20 26 20 29 22 20 28 22 21 16 20 22 24 18 31 16 25 29 18 17 21 18 26 23 22 19 14 23 20 21 31 31 24 17 21 24 13 28 30 23 26 21 13 23 27 21 21 18 25 25 25 29 20 14 21 24 31 29 21 24 17 25 25 21 27 23 23 23 14 20 25 22 20 24 22 25 23 28 27 29 24 23 25 23 27 20 17 23 17 18 22 25 30 16 23 21 21 18 32 15 23 22 22 20 20 28 24 23 31 22 15 24 26 34 20 21 24 21 22 16 26 18 24 27 27 25 20 22 26 30 16 24 20 28 16 26 24 22 13 21 23 20 24 30 24 21 21 18 17 20 17 25 21 24 19 28 15 19 16 23 19 26 25 22 28 20 20 23 16 17 18 23 12 26 23 28 20 37 19 18 30 16 16 23 31 23 17 19 25 23 23 27 14 28 16 22 24 25 24 21 23 21 21 27 18 25 14 23 26 23 16 23 22 26 28 20 20 19 17 21 20 24 19 19 16 27 11 25 23 37 24 20 23 18 33 17 23 22 23 20 27 24 17 22 28 28 14 12 19 20 27 20 22 21 22 22 18 16 23 25 19 31 17 21 22 25 18 23 19 25 16 25 17 25 27 16 20 19 17 28 25 16 28 27 27 23 22 31 24 19 27 30 23 19 21 22 15 20 23 23 14 25 23 21 16 25 17 19 17 19 20 21 21 17 20 23 21 30 14 17 25 20 21 11 25 23 17 16 26 23 24 18 23 24 20 22 16 27 14 18 26 19 23 21 27 23 22 14 28 25 19 15 22 23 21 17 27 23 19 27 24 15 21 23 26 18 24 22 24 21 18 22 24 30 27 21 20 28 20 25 21 17 28 28 24 19 25 34 18 18 24 25 20 22 24 31 21 26 24 19 31 24 20 20 28 26 20 24 25 21 20 16 30 17 21 26 21 17 23 17 25 19 19 26 19 25 18 17 21 21 27 25 20 21 23 22 20 22 17 17 27 23 32 29 25 16 22 31 19 24 19 25 24 23 23 17 15 24 25 19 21 21 19 16 25 20 17 17 17 26 25 25 19 26 24 27 21 18 18 23 21 17 18 20 17 30 23 21 29 26 17 15 24 31 25 23 13 15 16 30 25 22 20 20 26 24 23 23 24 14 17 21 20 18 20 31 15 23 28 26 18 18 14 24 26 30 18 21 22 22 17 30 17 27 23 23 22 16 20 22 25 23 29 17 20 17 25 22 31 22 24 15 22 18 22 17 18 19 23 21 26 21 20 28 24 13 20 34 27 21 11 16 25 21 19 23 22 25 26 22 25 19 15 23 27 18 14 24 24 19 20 17 21 17 19 20 28 23 21 20 25 26 20 24 21 27 22 21 23 25 23 24 25 22 27 21 31 26 27 24 30 27 21 17 27 26 20 21 20 21 26 15 20 31 29 19 17 32 15 14 21 30 23 24 22 25 17 27 21 22 18 21 18 19 22 21 20 19 29 17 15 22 17 18 24 23 24 24 33 15 20 23 19 28 26 28 17 16 22 29 19 21 26 24 16 18 22 11 26 27 23 20 19 21 19 19 23 23 27 25 24 25 21 23 23 25 23 22 19 21 21 15 13 22 18 22 22 28 18 28 24 23 17 23 14 24 24 21 25 21 22 17 33 26 25 23 15 25 27 24 23 25 20 26 19 23 21 19 20 23 17 24 25 17 29 20 26 23 22 16 25 20 24 13 27 16 21 17 21 17 19 21 23 27 30 23 22 21 24 23 24 15 24 22 21 20 20 13 16 25 24 26 22 23 15 26 22 29 16 14 24 19 30 16 14 19 22 14 24 20 19 17 25 23 22 21 24 28 22 30 25 24 23 15 19 18 27 29 24 20 16 18 30 27 24 18 32 32 20 23 21 17 29 20 27 21 32 23 19 19 21 30 31 33 20 25 19 23 18 29 22 22 20 25 16 18 22 17 20 22 27 37 24 30 20 29 16 17 25 27 22 15 21 27 15 23 22 24 15 30 28 25 26 21 22 19 25 22 20 16 17 23 17 19 17 20 22 20 23 22 20 24 21 14 22 25 21 25 24 20 34 17 19 21 24 25 26 29 25 22 16 21 18 14 23 21 16 21 11 24 24 23 26 24 29 27 24 26 29 17 23 26 21 14 24 19 22 25 22 18 22 20 25 19 30 19 18 21 23 22 23 25 23 21 21 26 21 17 15 22 26 19 24 26 20 20 22 16 23 15 23 23 18 19 29 21 22 22 19 21 19 22 34 18 22 24 25 36 17 19 26 24 20 16 18 19 23 22 26 26 21 22 31 22 26 22 22 23 20 22 27 18 22 21 19 21 14 27 18 26 14 27 21 25 19 23 22 24 22 20 17 27 19 21 27 21 20 20 18 22 22 20 24 21 21 22 22 18 27 17 25 15 26 17 23 21 21 21 21 23 16 19 27 19 23 19 25 26 21 19 29 26 22 23 18 22 24 16 20 26 23 22 17 28 20 21 19 22 21 18 26 26 25 22 21 19 23 22 31 16 30 21 18 24 24 24 20 16 23 20 18 24 28 19 24 14 18 21 30 27 22 27 21 22 18 30 19 17 21 26 21 22 19 28 21 24 25 16 26 15 29 20 21 21 19 28 21 28 18 23 18 21 24 26 24 18 26 25 16 25 18 31 18 14 20 23 21 29 19 23 23 19 25 27 19 13 24 22 20 23 25 21 20 24 19 24 19 22 18 20 19 15 22 23 30 16 21 21 22 19 28 22 20 25 16 26 20 18 24 22 21 22 30 15 24 21 17 23 23 16 20 20 24 19 19 25 15 22 31 13 26 23 22 22 18 25 25 16 26 19 22 24 16 30 25 26 22 20 20 21 25 19 19 21 22 14 15 23 28 27 30 20 22 20 17 25 19 19 24 25 26 19 19 22 21 17 18 23 20 24 14 29 18 27 27 21 25 26 19 27 11 23 21 24 26 27 22 22 27 24 21 26 22 31 28 17 30 17 23 23 17 24 19 21 20 25 23 15 20 28 25 22 25 21 22 17 28 20 22 22 23 24 18 25 21 20 25 17 18 24 18 23 24 12 22 19 23 25 26 25 16 18 26 24 24 21 23 20 33 23 27 16 29 20 29 13 23 24 28 20 22 24 18 26 28 21 14 28 19 33 23 23 20 24 23 26 18 28 24 28 21 20 24 26 17 21 16 23 14 21 23 25 22 22 26 21 26 14 21 14 22 25 21 20 18 21 26 16 20 22 24 24 21 24 17 22 26 23 23 22 18 22 23 24 19 26 20 26 22 20 24 19 22 20 20 23 23 31 29 33 23 21 22 19 24 22 20 16 23 21 25 27 27 20 17 28 19 20 21 20 25 29 21 23 28 23 24 15 22 23 24 22 22 23 22 19 21 16 18 23 21 26 20 23 17 19 10 20 20 29 23 27 19 24 18 17 24 29 14 24 28 30 24 21 22 20 21 11 18 32 21 24 20 19 22 24 28 20 21 21 31 17 18 22 17 24 24 17 22 19 24 22 16 26 21 18 31 23 24 29 17 19 35 21 20 24 23 15 16 22 25 27 27 14 20 22 34 23 23 19 24 22 21 23 22 20 19 17 21 20 25 13 24 25 21 26 30 21 19 14 19 21 22 22 26 24 26 18 31 21 26 17 20 22 21 15 22 25 28 20 21 21 24 21 24 17 26 24 27 15 16 21 28 23 19 21 18 30 35 23 21 16 21 23 21 26 22 20 22 22 22 23 14 24 24 23 17 16 19 18 19 18 19 18 15 23 33 23 18 22 23 21 21 28 21 22 17 21 16 23 17 29 19 16 20 12 22 22 23 18 24 27 26 20 18 27 20 23 23 29 22 14 26 19 20 26 20 23 19 25 23 25 23 18 22 19 21 28 21 28 27 15 22 25 24 16 28 21 27 16 23 23 20 16 28 13 23 24 33 16 24 27 23 21 25 23 18 26 25 19 14 24 29 17 19 25 21 25 23 17 19 20 18 27 24 25 17 20 25 21 28 17 23 29 25 20 23 30 19 17 13 33 32 22 24 11 27 26 19 22 23 22 21 22 16 17 12 16 35 19 18 19 19 22 16 22 26 30 21 21 27 21 25 23 26 18 13 29 21 20 20 19 24 21 25 25 20 29 24 25 21 18 24 17 17 21 23 23 24 23 22 18 28 21 21 30 24 25 25 16 25 25 22 20 18 24 17 21 17 22 12 22 23 21 20 18 25 17 17 21 21 20 19 20 19 20 21 22 28 17 27 18 24 31 24 26 27 22 22 25 23 28 18 22 20 16 24 19 23 24 24 18 21 26 28 26 19 22 19 19 22 22 22 19 23 11 22 20 20 22 22 28 29 24 26 20 25 15 17 26 35 25 17 24 25 22 21 21 18 19 15 24 17 16 21 21 26 18 23 25 26 23 22 16 16 19 22 23 24 24 20 23 20 13 21 28 25 22 23 21 24 25 20 21 16 26 10 18 22 17 21 22 22 22 22 19 22 22 27 12 21 22 16 23 21 20 30 16 20 23 21 15 32 19 23 21 25 27 19 20 25 29 19 21 20 18 24 18 20 26 20 24 23 24 16 23 18 23 22 20 22 23 21 25 26 25 18 22 28 21 20 23 24 24 13 18 26 26 32 12 26 21 20 19 19 25 23 21 20 20 16 29 18 19 28 20 23 22 19 28 24 28 26 18 19 19 24 23 21 24 22 15 20 23 17 27 18 25 20 26 18 23 16 23 20 20 11 23 24 21 20 17 17 20 22 21 25 22 25 23 17 21 26 28 29 24 19 20 28 19 27 18 13 22 24 19 23 28 26 17 27 15 22 19 23 21 23 25 22 23 19 23 27 25 30 20 19 25 22 24 27 15 19 19 26 21 16 34 24 18 24 21 12 21 25 18 18 25 23 27 16 18 27 27 27 15 31 19 23 27 20 15 21 28 24 23 25 20 22 19 22 27 18 24 19 18 28 24 21 20 23 22 18 23 21 26 22 22 23 19 18 16 20 17 22 20 16 21 24 24 20 13 20 16 17 19 25 21 15 24 20 30 18 21 14 20 19 28 25 20 22 15 29 31 19 26 21 24 24 20 25 23 20 15 24 24 15 20 30 20 27 29 28 24 20 22 28 24 24 28 20 11 23 17 19 25 22 22 24 22 24 20 25 20 21 16 18 18 32 28 25 15 30 14 18 23 21 28 26 24 23 20 13 25 17 31 24 18 16 23 27 19 26 18 19 28 23 17 16 20 20 22 22 27 17 16 19 30 29 24 31 18 23 24 22 26 21 24 20 23 21 23 22 20 21 18 26 24 22 24 24 21 22 15 19 14 23 16 18 28 20 23 16 29 15 21 26 19 20 30 18 23 27 18 23 15 12 27 23 22 26 27 27 14 17 31 21 22 11 25 24 14 23 21 19 25 29 23 21 22 18 22 23 15 26 26 22 22 29 22 28 25 24 20 24 30 21 18 22 20 25 28 19 19 23 22 32 20 15 26 19 20 27 29 29 26 21 28 19 23 26 24 19 20 22 20 21 26 23 25 15 21 28 20 25 33 18 24 21 16 29 18 18 19 27 27 17 28 22 34 29 10 25 23 14 32 31 23 21 21 20 21 24 18 20 26 25 23 21 14 22 18 19 25 21 20 26 21 22 23 23 23 23 24 26 25 33 28 26 29 20 18 22 22 24 19 17 16 28 20 27 16 28 25 17 30 21 24 21 24 19 26 17 24 21 19 18 24 16 29 22 25 28 29 25 30 18 16 19 17 19 22 23 15 16 16 25 28 19 25 23 21 23 24 17 23 24 23 36 18 20 23 23 25 21 21 16 25 22 17 18 25 19 26 21 20 21 24 21 25 16 24 15 29 22 15 24 32 28 31 27 31 20 23 25 23 18 22 20 22 16 27 27 20 24 21 22 27 16 27 12 29 24 22 23 22 26 30 25 24 24 17 31 24 22 17 23 28 24 25 20 20 32 27 21 19 22 27 21 21 26 29 19 28 18 28 26 19 16 19 25 22 19 17 20 24 30 16 13 30 13 17 23 25 19 27 14 24 19 18 26 23 24 22 27 23 26 17 20 19 23 20 16 21 30 20 18 21 22 24 24 28 24 25 21 24 26 29 21 24 26 23 19 21 14 25 29 20 17 22 22 21 11 24 23 25 18 25 19 28 28 21 10 22 17 19 19 15 24 27 19 24 19 29 18 21 25 19 24 21 22 19 20 21 28 18 21 23 28 25 21 22 26 14 22 22 24 17 18 33 20 33 22 25 16 18 24 22 24 19 19 21 16 21 24 20 23 19 18 25 25 21 21 32 19 24 21 23 22 33 22 16 27 21 22 30 23 26 19 21 17 25 24 20 22 22 21 23 19 24 23 16 30 27 23 16 23 18 17 23 15 17 31 19 20 17 29 27 19 24 19 27 27 30 26 20 21 17 23 19 30 15 22 22 21 23 22 22 20 15 13 22 16 25 22 15 20 19 16 20 26 23 20 17 20 19 26 18 17 20 22 28 20 27 25 20 32 36 24 27 15 28 18 24 26 19 25 27 14 22 19 22 23 18 23 12 23 24 19 19 28 26 27 24 18 24 26 18 27 29 18 21 20 26 31 19 15 25 17 26 25 13 16 21 23 25 23 15 28 18 17 20 21 31 30 25 25 13 21 25 24 21 22 27 30 19 18 20 28 22 15 17 18 23 18 13 21 22 20 24 21 23 22 24 23 22 22 21 20 23 25 23 22 24 17 24 27 27 21 26 18 23 22 32 17 20 21 25 25 22 20 24 16 17 25 22 27 14 12 28 22 19 21 23 14 16 31 20 21 24 21 17 27 17 27 20 21 18 17 28 23 21 23 21 22 26 17 19 27 31 18 21 11 27 21 31 22 22 18 28 24 31 26 15 21 27 14 24 29 16 33 23 29 18 27 24 22 25 20 18 24 23 26 26 17 24 22 19 22 24 19 22 33 22 18 22 19 17 15 32 20 24 23 24 17 19 21 23 27 19 31 18 22 25 23 17 27 22 20 22 25 22 24 22 28 25 24 16 25 16 17 22 24 22 22 23 25 20 24 22 11 21 25 19 25 26 17 18 18 13 20 26 25 16 22 10 21 28 17 18 21 31 20 30 14 23 17 13 23 20 20 25 23 22 22 21 19 23 18 14 22 28 25 20 19 17 26 28 19 19 34 23 26 24 15 17 23 25 28 19 25 27 25 28 28 16 19 22 21 22 16 22 27 27 24 22 33 22 29 26 24 33 24 22 13 21 34 24 25 21 12 18 17 27 27 20 20 20 18 20 13 25 24 23 21 23 19 16 21 19 23 16 29 23 24 27 20 24 22 22 19 21 27 21 25 22 26 20 14 25 22 16 23 26 19 20 22 20 28 26 18 31 23 28 27 15 21 20 20 19 21 29 24 23 19 24 17 27 18 24 29 14 17 25 21 17 16 24 27 24 34 23 27 16 24 20 20 22 21 25 22 28 21 27 27 22 23 18 18 24 27 22 16 21 14 21 22 19 19 23 22 22 19 28 20 21 33 31 33 24 32 16 18 23 32 25 19 27 28 20 14 19 29 16 18 37 22 21 34 28 20 20 15 26 19 20 16 22 23 30 22 19 26 27 29 21 31 22 19 22 20 33 22 15 23 27 24 22 19 22 22 21 20 21 21 23 23 27 25 21 20 17 19 25 21 21 25 21 20 19 24 13 17 26 14 29 22 22 19 21 22 21 21 21 16 13 21 24 25 24 25 20 23 23 24 24 23 19 17 23 24 22 18 23 24 24 16 24 18 20 27 18 18 20 21 27 22 26 16 30 18 27 21 13 28 24 16 23 21 21 22 22 23 20 24 21 20 29 19 25 27 14 34 24 19 23 21 33 23 24 20 19 26 28 18 26 21 24 18 25 23 19 25 25 16 26 28 20 22 22 27 29 14 22 24 18 18 32 13 23 16 21 23 22 22 26 26 24 20 22 31 27 21 18 24 20 22 16 27 16 23 19 19 25 25 20 18 20 19 21 22 19 13 17 27 31 14 24 26 19 22 18 17 27 16 18 23 23 25 23 23 27 26 18 17 14 25 15 24 18 24 20 28 17 15 22 20 24 22 23 18 23 28 21 27 24 21 27 23 22 13 27 18 21 25 29 25 17 19 15 19 19 18 28 33 25 20 17 25 31 30 26 26 21 20 20 26 22 32 27 14 26 20 24 19 13 23 21 17 21 23 18 17 22 21 24 17 23 25 24 21 21 15 25 23 21 24 27 23 15 23 26 22 22 19 19 25 21 22 18 17 20 24 28 27 22 16 25 24 23 30 18 22 15 20 21 12 20 19 27 23 32 20 27 25 17 20 16 24 19 20 20 25 27 19 37 20 25 30 29 21 20 29 19 23 23 25 26 25 21 18 23 25 19 23 21 20 19 26 18 15 25 13 17 30 28 14 20 26 25 18 30 33 21 17 28 20 25 20 27 22 22 24 12 20 17 30 17 26 24 20 27 18 22 24 27 24 25 20 31 26 16 11 23 26 19 19 19 28 27 21 20 30 24 13 19 21 24 19 27 20 20 22 29 19 27 21 20 21 32 21 20 13 24 20 20 16 23 21 21 23 25 26 22 25 18 18 24 20 18 22 32 25 26 20 31 11 21 17 24 20 20 19 16 21 27 19 26 20 18 24 20 18 25 10 19 18 23 22 24 22 23 19 19 23 30 19 22 24 21 19 22 25 18 21 21 14 26 16 20 27 22 26 21 23 23 18 15 23 26 19 16 16 24 23 21 19 21 25 24 15 19 21 24 19 21 21 19 19 23 21 23 18 18 23 25 23 25 24 16 24 18 22 14 25 24 9 22 29 20 15 13 26 25 22 23 22 28 24 27 17 22 28 28 18 17 16 23 19 25 22 26 28 23 21 21 17 23 24 24 20 17 18 23 15 22 20 23 20 21 16 24 19 23 21 23 22 19 24 24 21 21 20 19 20 20 27 21 26 24 19 24 16 23 15 17 19 18 13 21 28 29 19 20 24 12 18 25 22 31 18 20 15 24 25 26 25 20 20 35 20 20 24 25 28 19 26 24 32 15 24 22 25 21 27 27 20 27 22 21 14 14 20 21 24 21 22 24 22 21 24 20 21 27 21 18 22 28 20 22 20 20 27 23 24 26 14 21 18 19 21 19 20 24 21 25 24 20 24 13 21 20 20 24 19 16 18 23 25 24 22 19 27 16 30 17 25 23 22 23 30 23 15 16 23 21 19 23 21 19 23 30 31 23 18 25 22 28 14 23 25 20 18 25 23 23 16 30 17 23 23 26 18 22 19 21 19 24 29 28 19 25 30 14 23 19 25 24 14 16 18 17 28 26 16 21 26 24 22 21 33 29 28 22 19 22 17 22 17 25 24 22 20 16 23 23 18 23 24 16 16 21 27 19 30 22 25 29 28 20 25 27 19 22 20 26 17 21 16 24 24 23 20 26 26 26 20 23 22 23 21 28 23 25 22 16 18 23 24 25 24 31 27 16 24 19 26 27 22 28 25 30 15 20 22 30 28 16 25 21 25 22 23 24 24 22 30 27 17 29 18 26 27 30 28 14 19 26 17 25 26 18 27 19 24 31 27 19 22 24 21 24 24 27 19 20 24 19 16 26 30 17 22 29 24 21 27 21 26 15 21 18 23 26 22 24 29 22 18 21 21 26 20 20 20 27 20 25 24 32 19 18 17 25 21 22 15 26 14 23 18 17 30 23 26 25 20 27 24 23 25 27 23 21 23 21 20 20 18 16 20 19 22 25 24 22 16 22 16 19 24 26 20 24 18 23 24 22 12 25 23 17 26 22 23 23 24 29 25 18 17 21 21 23 29 26 25 17 23 24 15 20 18 26 20 20 22 21 26 20 16 17 30 22 22 24 25 26 24 21 18 20 10 19 23 22 26 16 30 22 23 21 27 26 11 20 17 18 21 26 19 34 22 15 22 23 16 27 17 25 26 13 18 26 23 28 18 29 21 25 22 22 14 24 23 25 21 29 19 19 23 23 22 21 24 25 31 19 22 17 19 17 14 23 28 26 31 19 24 22 30 19 23 22 13 24 22 24 26 22 17 27 21 21 12 21 30 17 24 23 19 20 25 20 27 33 22 18 15 21 15 17 29 17 24 25 18 22 24 26 21 19 22 26 20 22 27 15 26 19 22 27 29 16 24 21 24 24 20 18 20 18 26 23 25 22 15 18 20 21 27 24 22 24 22 18 26 22 18 24 24 21 23 23 25 24 25 23 21 27 18 18 27 27 20 25 22 19 26 16 17 23 25 26 23 28 21 23 14 23 15 19 18 30 18 28 23 23 26 15 18 21 19 25 20 22 22 22 22 25 13 19 22 22 22 21 30 27 22 19 28 13 24 17 23 25 20 21 14 20 21 28 17 20 22 20 25 22 21 20 22 21 26 28 26 28 31 23 19 23 23 20 21 21 22 20 24 22 21 20 21 27 22 19 24 15 21 11 17 29 14 19 27 22 22 28 23 27 16 28 23 27 18 21 23 28 28 16 24 23 23 30 23 25 16 26 28 17 29 22 27 28 24 29 16 14 22 21 18 19 20 25 20 16 23 18 24 22 21 24 24 17 21 21 19 23 23 24 23 30 16 17 21 28 23 26 19 26 21 29 11 22 20 18 19 26 28 18 20 23 22 26 29 22 22 21 31 16 30 26 21 20 18 21 19 23 27 20 24 33 19 19 11 29 18 22 19 20 14 32 21 24 20 26 18 19 32 23 24 16 21 17 20 23 18 18 27 23 24 14 28 20 17 21 20 17 16 22 19 23 15 23 24 19 24 28 24 24 17 26 21 15 23 23 30 14 26 30 16 23 22 22 30 28 29 17 25 17 21 19 24 17 32 24 21 16 22 22 22 13 21 20 22 23 25 27 21 27 23 20 25 20 29 22 26 18 21 17 27 29 26 17 17 20 22 22 28 27 25 24 23 25 19 27 24 30 17 22 22 19 24 12 21 24 11 27 22 28 19 21 24 19 19 22 21 28 26 19 25 33 22 20 23 25 22 23 23 22 27 10 24 18 27 36 27 23 19 23 20 31 14 27 24 16 21 23 16 20 22 19 22 22 22 25 28 23 28 22 20 20 24 16 25 21 26 25 21 25 19 14 16 18 24 24 21 17 24 33 19 21 28 26 18 22 24 19 21 27 24 21 19 20 15 18 19 16 20 24 22 22 22 18 16 20 20 23 29 19 22 30 16 27 20 28 24 20 20 21 15 24 16 20 16 18 29 14 23 22 14 16 24 23 21 25 29 24 21 17 13 15 32 21 28 17 25 23 22 23 28 27 22 29 25 24 20 18 18 25 17 19 23 24 21 22 24 24 26 14 23 20 15 19 24 33 22 20 16 24 25 17 23 19 22 18 20 17 26 20 28 23 25 16 20 27 21 28 20 25 16 26 31 20 24 18 25 15 24 25 18 27 17 27 23 16 25 33 26 21 12 19 21 22 24 27 26 21 24 22 25 20 20 21 14 23 20 20 15 20 23 31 23 15 21 25 14 19 23 18 23 27 18 24 23 18 17 22 29 22 30 34 24 23 22 20 22 21 29 25 22 21 23 16 22 18 18 20 19 21 26 15 5 18 21 21 26 22 24 27 25 14 19 20 24 21 17 21 18 29 22 16 26 24 26 20 18 25 31 22 26 23 27 20 22 26 19 19 20 19 27 23 21 24 17 28 27 27 18 19 14 26 25 21 24 25 22 21 25 30 26 16 23 21 23 20 19 20 25 18 15 24 17 23 23 23 26 22 19 19 19 18 29 29 15 12 19 25 25 19 24 23 17 25 27 20 26 20 26 25 20 26 23 23 26 26 20 23 23 25 20 18 27 20 25 20 21 36 26 23 12 11 20 20 20 22 27 23 23 24 19 19 21 28 35 13 27 22 17 26 23 24 16 22 20 21 26 27 22 17 27 19 19 29 25 19 22 19 23 22 25 26 25 20 26 24 15 28 16 17 22 26 18 25 19 19 26 30 19 23 23 20 21 23 20 23 21 21 19 21 24 31 23 26 24 29 25 17 15 22 21 8 23 21 27 25 25 24 15 25 22 25 23 24 24 21 18 21 32 24 21 30 12 15 26 15 22 28 18 23 20 22 24 16 19 18 18 22 14 14 17 27 19 27 26 26 23 14 26 19 15 21 26 22 24 26 18 21 20 27 21 19 20 30 25 28 17 16 32 16 17 35 24 21 19 23 14 17 16 22 24 11 14 15 18 20 21 18 17 22 23 22 26 22 19 28 26 17 22 21 30 20 18 25 28 22 16 19 28 25 20 23 26 22 20 17 23 31 25 19 21 21 21 23 30 28 18 19 22 25 26 21 28 19 20 25 26 23 19 23 32 25 20 15 27 25 22 24 16 18 16 37 19 15 22 28 23 29 23 23 24 24 24 26 18 17 27 22 12 26 17 23 20 23 23 22 26 16 26 27 23 29 20 23 21 19 21 23 15 19 30 21 19 30 25 15 21 23 30 26 18 27 24 13 22 29 20 21 21 23 24 22 18 21 27 25 25 17 17 25 33 22 31 20 19 21 26 36 16 28 27 19 18 30 24 22 17 15 27 18 23 22 31 32 20 21 20 25 19 25 23 25 20 18 21 21 19 27 18 23 17 19 20 25 26 18 26 21 25 22 16 16 24 23 17 14 22 21 21 17 25 23 15 16 24 24 15 31 18 30 19 21 20 18 21 22 29 18 19 20 21 17 21 19 26 23 12 19 18 26 24 16 23 27 16 30 21 22 27 32 21 23 15 23 27 23 21 16 20 27 18 20 26 19 21 20 18 17 25 21 30 15 25 19 24 26 24 23 22 21 22 27 20 28 20 26 16 25 24 24 33 26 16 27 18 20 18 28 21 26 26 24 27 21 19 22 24 24 21 21 26 21 19 19 26 19 27 29 24 18 20 10 25 26 28 23 19 28 16 23 22 24 22 18 16 27 15 6 23 25 13 20 26 23 30 16 21 24 20 21 26 23 27 24 16 25 33 23 15 21 23 11 26 19 28 21 21 19 22 20 24 18 25 22 20 18 21 21 19 21 22 28 14 16 20 29 20 25 26 19 18 24 22 21 17 19 21 24 22 17 30 17 25 19 26 19 21 21 24 31 26 28 20 18 21 23 22 20 23 18 21 25 22 21 26 20 25 17 20 22 23 20 22 23 21 19 26 22 18 23 26 21 19 18 21 23 15 26 18 17 17 17 17 24 26 27 24 21 18 33 32 20 26 26 22 23 22 17 23 27 21 20 25 20 27 22 27 18 23 26 17 23 16 20 21 17 18 21 13 29 20 19 21 20 15 29 21 21 18 17 22 18 14 26 20 20 21 24 24 17 15 28 27 26 23 24 18 27 25 24 24 27 15 26 14 16 21 17 26 16 15 28 21 22 16 19 28 23 19 11 25 18 12 22 24 18 18 27 17 27 26 22 26 21 16 18 11 24 23 25 22 25 18 32 27 17 22 20 18 21 12 31 22 22 20 19 14 22 25 19 26 20 24 22 17 22 20 21 14 20 22 23 33 23 21 21 19 13 20 25 26 24 19 22 29 19 22 19 25 30 18 19 14 23 24 22 25 22 24 13 24 28 20 18 33 28 26 21 23 28 16 21 30 18 24 20 16 23 27 26 16 23 24 28 29 22 21 21 22 25 21 18 22 17 23 17 22 18 21 24 22 15 21 16 22 24 24 29 19 28 22 18 24 22 18 27 19 25 21 24 23 25 20 24 25 33 28 24 24 32 22 21 17 18 19 14 19 22 11 21 18 17 24 18 24 24 19 20 25 25 19 25 25 13 25 27 20 29 22 19 20 24 16 20 13 24 22 22 19 25 20 16 18 22 17 26 18 22 26 32 21 26 15 18 15 26 24 23 27 15 18 18 21 13 21 29 20 20 24 25 18 20 32 22 16 25 29 25 27 24 21 30 24 27 19 24 21 20 23 29 17 22 21 23 26 25 18 16 24 27 27 22 25 21 25 19 25 14 24 25 27 26 22 23 21 24 19 17 14 22 19 22 21 23 24 22 29 23 15 21 15 20 16 20 22 17 18 24 21 21 19 19 19 21 16 26 22 17 21 22 23 26 19 26 24 28 23 25 23 18 18 11 12 22 18 21 18 21 21 17 19 21 22 17 25 19 12 18 28 16 19 24 23 21 23 18 27 25 20 21 15 13 27 20 18 24 22 15 16 23 26 27 16 20 25 20 23 26 27 22 22 20 16 24 22 22 25 17 20 24 18 21 25 26 20 19 24 29 25 18 26 26 22 23 16 27 25 20 33 21 29 19 20 16 26 23 23 19 15 21 25 20 25 28 17 23 24 15 30 18 22 22 26 21 22 20 18 26 18 23 27 21 18 24 25 22 23 20 19 18 21 23 21 29 26 20 26 14 27 20 19 20 20 25 26 25 23 31 26 26 16 23 16 28 17 27 14 30 21 24 23 19 16 30 23 19 27 16 21 29 20 21 25 20 25 26 19 22 18 25 20 15 23 29 20 20 25 18 28 23 23 25 22 32 17 21 21 19 23 22 22 22 29 24 31 31 22 21 23 19 15 22 19 21 20 24 24 21 25 18 28 26 24 20 26 23 19 26 20 24 23 21 30 23 27 23 21 28 24 25 27 20 21 18 26 21 27 26 22 14 20 20 17 23 19 11 21 18 25 21 16 22 25 14 21 20 25 16 22 19 31 21 27 21 25 25 28 20 29 24 21 29 28 31 18 21 13 17 28 31 24 19 26 16 18 21 27 21 28 24 17 22 22 17 26 28 18 19 22 21 21 29 20 30 17 31 30 22 23 19 19 16 25 16 21 24 21 22 27 21 25 18 26 24 18 29 26 24 23 16 23 22 29 19 22 18 22 21 29 16 18 18 29 18 23 21 24 30 20 18 28 19 22 21 23 18 26 12 18 27 23 21 23 15 27 29 16 18 24 20 23 22 27 15 31 25 19 27 17 18 19 21 24 24 25 21 30 17 28 18 18 21 17 23 29 13 21 21 17 20 24 26 23 23 19 16 17 26 34 19 28 22 18 27 23 28 17 23 18 19 15 17 22 23 23 26 17 17 28 32 17 26 20 15 22 28 23 29 24 18 19 16 22 21 19 16 16 22 21 22 26 21 23 20 23 17 23 31 22 33 22 22 21 21 21 18 30 22 23 17 22 27 17 20 17 22 26 17 18 20 20 24 21 23 29 18 23 27 18 27 20 22 25 25 15 12 25 21 22 20 23 26 25 23 22 22 27 24 26 22 26 22 25 26 27 24 19 25 22 16 27 20 17 24 20 27 27 27 23 15 27 17 21 22 23 21 14 14 18 21 24 16 24 14 26 27 23 18 19 26 22 25 20 23 33 14 25 24 22 22 23 22 26 23 19 24 18 26 20 24 24 28 21 23 26 21 17 26 12 31 17 23 23 32 20 21 21 18 24 22 25 14 25 19 21 20 15 17 23 23 27 19 25 25 21 18 23 20 29 26 16 33 27 21 15 16 23 30 21 30 28 23 24 17 24 21 21 25 19 13 19 23 21 14 23 23 27 21 21 23 20 24 26 23 28 23 18 22 12 31 23 22 24 22 19 29 20 18 23 19 25 26 21 35 14 23 31 21 15 25 28 30 21 13 22 19 27 25 20 17 28 25 18 14 23 28 28 28 15 27 25 28 13 25 21 24 16 15 24 20 13 20 20 16 24 27 16 21 17 20 30 22 21 16 19 21 26 21 22 17 19 21 32 25 28 21 28 21 22 19 14 23 16 22 20 22 19 24 21 21 25 31 24 27 22 18 23 22 27 16 20 19 17 29 26 24 23 22 24 14 22 25 15 21 25 20 15 25 19 19 21 22 19 29 24 25 21 21 23 24 22 21 22 24 16 21 21 27 26 27 20 20 20 23 21 18 17 17 23 23 23 23 24 21 30 30 28 24 20 29 11 19 24 22 21 22 21 21 32 15 17 23 17 18 25 23 20 21 17 17 23 23 23 25 24 26 31 23 22 30 21 12 21 16 20 25 16 17 21 18 23 29 21 17 25 19 18 21 18 22 29 27 21 26 23 31 30 31 25 23 23 22 25 17 24 21 24 16 29 23 15 24 20 21 27 23 17 19 19 18 22 26 26 13 19 17 23 20 20 25 26 24 22 19 21 15 26 25 22 21 26 19 18 27 26 25 31 27 22 29 20 16 29 22 21 20 24 28 24 23 29 19 26 18 20 25 25 28 25 23 25 22 26 21 18 17 20 19 23 19 23 22 20 23 15 18 21 21 17 17 23 25 17 19 18 24 19 26 20 29 27 17 23 18 22 19 22 17 20 19 19 13 23 21 26 29 24 20 12 18 31 15 21 25 22 23 22 20 20 24 34 28 16 23 21 26 29 22 22 20 18 18 20 27 14 24 15 22 24 19 23 23 22 25 27 27 21 29 20 28 15 23 28 19 19 20 20 23 27 28 21 21 26 16 24 14 13 20 19 21 17 22 29 23 14 18 21 20 18 24 30 23 24 25 26 13 18 25 28 23 21 21 20 20 28 26 21 21 22 24 24 23 22 21 19 25 23 20 25 29 18 24 19 20 21 18 21 31 24 18 28 23 27 26 22 22 25 20 18 16 22 21 18 14 22 24 23 25 21 26 26 19 22 28 18 19 20 28 20 17 19 18 30 23 25 17 19 30 21 23 21 18 20 19 22 21 20 21 24 24 20 18 18 26 21 23 22 23 22 18 29 22 23 23 23 18 19 20 21 28 24 25 22 14 23 11 19 19 17 22 32 26 19 26 20 18 27 24 21 27 26 19 19 20 20 22 18 26 21 31 17 24 18 22 19 21 17 22 22 24 19 29 23 16 23 24 22 19 28 22 18 23 28 26 27 26 16 23 26 18 21 16 17 19 21 20 17 25 19 15 26 21 25 22 16 16 22 16 28 15 25 21 17 16 29 26 18 12 17 15 24 21 19 24 21 17 17 20 19 20 22 16 25 28 28 21 27 24 24 21 28 22 23 22 27 19 18 17 21 26 23 22 17 23 29 22 28 24 27 22 26 14 30 21 23 21 27 27 27 25 22 26 26 22 22 19 26 26 17 25 22 21 25 15 27 24 18 27 19 31 22 22 18 24 25 18 25 19 23 20 21 15 14 21 22 23 20 20 27 19 23 20 16 30 17 25 30 30 17 25 18 21 20 28 11 19 18 21 24 20 17 19 25 26 17 18 18 16 14 14 27 27 19 18 19 21 19 25 24 19 22 21 22 16 17 26 24 20 23 29 24 22 23 13 20 16 23 23 15 24 20 15 21 23 34 25 28 17 18 20 22 20 27 16 19 21 22 30 20 19 24 22 18 24 22 25 26 17 26 19 20 19 23 21 27 22 24 20 22 26 22 30 24 20 22 28 23 17 17 20 29 22 18 27 27 21 14 21 20 19 21 20 20 19 24 21 21 27 23 32 16 27 20 21 23 24 17 19 14 22 31 19 25 17 30 26 26 27 22 32 16 32 25 18 26 22 19 29 25 27 27 24 19 12 21 19 20 20 28 16 20 32 18 15 24 28 16 20 19 26 21 21 23 30 21 28 17 17 21 20 14 24 21 25 21 24 22 26 20 19 17 16 12 20 18 17 28 21 21 24 24 22 23 29 22 24 23 25 21 22 20 20 21 21 16 23 17 25 23 26 16 26 24 29 16 26 27 19 22 18 27 13 21 29 27 16 21 24 25 15 28 16 19 18 18 25 25 19 24 22 22 28 17 19 29 24 22 24 24 19 19 17 22 21 17 19 19 22 25 23 26 22 24 27 19 22 24 21 25 16 20 16 20 27 29 23 28 23 23 27 20 24 21 22 25 22 27 24 26 20 27 18 22 26 23 14 17 27 22 24 24 22 23 26 17 22 21 23 19 21 22 17 22 17 17 24 18 27 18 23 24 23 18 21 25 25 22 19 21 21 19 20 19 26 17 16 22 30 25 24 22 21 30 27 17 18 20 22 24 34 23 17 19 25 13 15 25 24 22 22 15 30 27 26 19 23 16 18 16 16 22 19 24 22 27 21 28 21 16 22 27 20 24 25 27 25 24 26 16 26 24 16 24 15 18 19 23 16 21 20 28 27 25 26 19 29 22 20 27 24 19 17 30 14 23 12 27 22 16 21 27 20 23 20 23 26 25 19 21 24 26 30 17 21 25 25 22 23 16 25 23 27 23 22 18 19 19 20 23 17 20 25 21 30 22 24 23 28 25 25 21 18 25 15 19 21 16 30 17 26 21 15 23 14 26 16 19 25 24 19 19 15 27 25 28 28 19 20 24 22 20 24 23 22 25 26 19 22 15 24 18 19 15 18 18 20 21 22 19 25 22 25 23 13 28 23 27 23 25 22 23 30 24 20 17 23 31 27 25 25 28 24 28 19 23 29 15 24 24 19 22 23 22 34 28 21 19 20 28 27 31 14 19 27 27 25 22 18 26 23 30 22 25 22 20 28 24 26 14 25 19 24 26 26 19 18 17 26 18 21 15 26 20 23 22 20 25 16 16 19 21 24 18 20 20 25 19 24 23 21 22 26 19 31 18 27 21 25 25 15 21 28 20 27 20 20 27 23 21 17 19 25 23 25 16 16 19 28 19 22 20 24 17 22 20 21 21 24 23 22 21 21 17 19 22 29 20 26 20 23 21 22 20 30 17 21 12 11 23 27 17 19 15 25 26 20 18 19 24 17 25 20 19 27 21 21 29 30 21 30 28 19 20 18 21 26 23 27 24 14 23 29 26 29 18 24 22 24 17 19 25 25 23 19 24 20 22 20 15 23 21 24 25 22 23 18 23 15 18 18 26 28 25 27 29 28 22 16 15 23 26 23 17 21 16 22 28 21 25 21 22 23 18 18 20 16 25 24 16 29 18 22 22 20 13 20 21 28 14 15 28 23 19 27 19 20 19 15 21 26 23 26 23 23 19 22 24 25 24 23 27 29 22 26 19 19 30 22 28 36 16 23 15 21 20 24 21 22 21 20 25 23 24 24 24 28 31 18 25 16 19 16 25 24 20 25 30 27 24 17 20 21 18 24 26 20 19 17 15 15 21 22 17 21 25 18 20 30 29 25 25 17 23 19 20 23 28 29 21 17 23 20 21 20 15 22 25 20 26 26 20 19 20 21 22 21 14 27 19 16 21 22 19 22 28 20 20 18 25 26 21 24 18 18 18 26 31 23 15 18 23 25 22 25 21 27 22 19 23 26 15 25 16 20 27 18 18 28 24 25 23 24 18 26 21 25 22 26 14 18 24 18 28 24 31 26 28 21 21 21 18 22 20 26 21 22 26 26 20 17 17 19 23 16 18 18 17 23 24 17 20 25 16 22 23 16 23 20 23 22 22 20 18 25 24 21 29 21 17 14 24 17 20 24 16 23 11 18 21 15 20 21 18 15 20 24 22 21 24 21 27 25 22 23 24 21 17 23 27 22 32 24 18 22 21 30 19 26 21 21 19 21 20 17 20 31 21 19 18 20 17 18 19 25 22 19 24 21 23 15 23 24 20 22 21 17 24 29 29 25 21 23 21 23 24 27 28 26 25 21 30 20 15 25 22 15 21 23 28 23 21 24 19 27 27 21 14 33 20 27 20 26 21 19 18 24 26 26 19 30 18 19 17 18 26 22 16 22 18 28 15 22 22 17 24 24 20 18 25 27 22 19 18 24 19 22 26 12 14 23 22 25 28 23 29 18 16 22 24 20 21 23 21 18 23 23 15 27 17 22 25 14 27 19 25 23 16 25 20 21 25 15 21 21 27 20 22 27 18 27 26 26 18 17 19 19 24 18 22 23 24 20 23 17 22 21 22 20 20 19 18 20 25 23 19 21 25 22 23 20 21 25 22 15 17 29 23 21 20 21 18 17 31 18 22 32 20 26 28 28 23 18 26 20 26 28 23 17 21 26 20 24 32 24 24 17 24 20 16 19 23 25 21 16 21 22 18 26 18 30 28 22 19 17 21 13 19 22 20 24 21 18 18 13 28 23 18 22 24 27 13 18 24 23 22 28 32 29 28 19 24 20 20 17 26 19 20 23 28 17 28 21 19 28 28 18 22 24 20 25 27 21 29 31 20 32 20 22 20 27 28 22 21 23 31 23 27 19 16 22 21 27 15 17 24 17 23 24 18 25 19 27 32 23 15 20 27 19 23 26 20 23 21 19 24 18 19 23 27 25 23 28 18 22 19 22 27 17 14 23 23 24 25 24 30 19 20 27 18 24 14 23 16 21 18 24 20 24 15 20 22 21 18 14 13 23 25 22 16 20 30 25 27</t>
-  </si>
-  <si>
-    <t>GAM(60.28514600233784, -11.248582065665293, 0.7295525549995213)</t>
-  </si>
-  <si>
-    <t>32 40 47 42 40 38 27 42 28 41 31 39 40 33 26 33 33 34 32 28 32 26 24 26 25 32 34 34 33 30 35 35 25 35 36 29 40 37 42 32 34 37 38 42 33 31 34 34 27 31 29 37 31 37 32 28 26 33 24 34 31 31 27 36 32 27 38 28 34 32 29 33 38 37 47 31 34 40 35 46 26 45 44 37 38 24 35 23 35 27 46 30 34 31 23 34 32 34 32 34 34 37 29 27 36 38 36 32 25 37 30 21 26 33 31 35 33 23 32 33 33 32 32 30 33 32 31 35 25 29 33 44 31 35 32 33 48 30 30 27 30 33 30 46 35 33 27 31 29 26 36 35 37 35 36 27 24 34 37 39 40 26 36 35 32 23 26 35 35 33 25 37 46 32 42 32 31 30 44 32 41 27 27 44 46 39 30 29 26 28 29 29 30 35 31 26 23 37 27 39 34 39 30 23 29 33 29 20 36 31 32 41 30 27 35 24 30 26 34 38 37 24 33 40 32 29 29 44 37 35 46 33 43 36 27 41 34 25 21 32 16 30 28 32 42 30 27 27 35 31 31 39 30 28 26 37 38 25 30 35 25 31 34 38 25 26 34 39 29 21 36 47 32 30 34 32 37 33 28 43 37 34 28 31 32 45 30 32 29 40 29 38 26 41 34 29 36 31 39 39 32 31 32 38 25 30 35 27 35 37 29 44 28 28 37 33 30 45 45 37 23 34 29 32 33 37 30 33 30 33 32 40 47 29 22 43 35 36 27 35 25 31 29 33 36 39 30 31 29 33 42 35 34 34 40 31 25 36 30 26 34 38 36 44 40 34 29 37 27 37 29 27 28 24 40 31 29 36 25 39 37 35 35 37 26 34 32 32 43 38 41 35 28 27 21 32 28 29 29 39 32 25 31 39 32 28 38 38 39 36 28 32 28 24 33 37 34 43 38 27 33 36 31 41 27 25 33 41 30 28 29 43 30 33 29 31 33 39 33 37 37 38 31 33 36 34 33 40 24 45 32 50 33 35 26 34 23 27 34 35 38 29 25 36 34 29 29 28 36 24 37 29 34 34 23 26 35 31 34 37 32 42 27 36 40 34 31 39 33 40 25 24 33 36 29 38 38 27 24 30 33 32 29 30 30 30 28 23 26 32 39 31 26 42 30 31 30 32 37 33 36 40 41 30 22 27 37 39 37 28 39 35 39 36 48 31 34 29 36 40 27 29 32 23 38 29 35 36 35 29 37 37 37 37 18 34 37 31 45 31 37 28 22 29 29 34 38 27 28 22 36 37 39 34 36 34 27 23 19 36 36 43 34 31 28 33 39 40 37 20 42 27 28 33 34 31 29 40 29 27 26 41 36 42 35 36 32 29 39 30 40 36 32 33 34 36 31 31 47 29 39 29 36 38 35 36 38 39 31 25 26 25 23 36 31 37 29 37 37 27 28 27 31 28 26 27 36 28 32 37 30 29 40 35 36 24 33 20 33 32 35 36 35 40 36 32 31 23 32 41 31 30 23 29 35 34 38 33 26 28 34 32 34 28 28 27 28 33 34 28 36 29 26 33 28 33 35 24 18 31 29 28 26 28 28 28 32 32 40 34 35 25 35 33 21 30 40 32 33 22 28 38 27 34 51 36 34 37 34 27 30 39 30 33 35 24 34 37 37 34 29 31 36 34 31 40 32 24 30 30 32 34 38 36 44 27 26 32 31 28 40 42 32 34 35 34 40 40 25 32 37 33 29 40 34 30 22 36 29 20 31 29 39 47 41 29 23 34 28 31 32 38 44 32 36 31 31 40 32 33 38 37 23 33 37 31 34 24 32 31 28 27 30 39 31 26 28 40 33 36 44 29 25 38 29 27 32 39 26 37 32 26 32 32 32 25 42 31 28 37 30 30 29 40 33 32 40 27 36 36 29 35 41 46 35 30 49 50 24 32 33 45 34 34 33 36 31 33 30 30 32 34 39 26 34 33 29 37 32 27 33 33 31 26 25 32 42 37 24 32 33 25 31 38 39 40 30 32 42 26 34 26 25 36 29 42 22 30 36 27 35 31 32 49 34 37 20 33 30 23 42 32 37 38 28 32 35 31 37 37 28 27 35 25 36 34 33 38 48 31 27 45 30 31 26 28 26 32 34 32 26 25 29 39 29 30 46 37 39 23 45 41 29 34 41 31 31 33 37 26 27 40 36 32 32 44 40 35 40 28 44 37 42 34 36 37 31 41 28 30 34 29 29 37 27 37 43 32 26 29 30 41 33 33 32 23 38 33 27 40 51 37 32 28 34 27 39 43 29 38 32 24 28 38 29 29 27 32 36 31 42 35 18 34 31 41 40 27 30 29 46 36 34 36 31 32 32 23 32 35 36 29 35 36 38 33 41 39 35 37 32 34 31 40 29 36 37 26 30 30 41 41 34 35 28 31 30 43 21 36 33 27 31 27 41 38 33 41 32 22 31 38 51 34 32 35 30 37 26 44 24 35 37 33 37 30 30 39 39 25 35 33 40 26 34 35 33 17 30 40 35 32 39 32 32 32 25 25 31 26 31 34 37 24 33 24 33 30 38 31 37 39 32 35 26 33 38 28 30 32 38 28 41 35 32 39 44 31 24 37 23 23 36 42 32 27 29 33 33 38 36 27 44 30 34 36 37 29 32 32 31 30 33 32 32 27 37 40 30 26 32 37 35 39 26 28 33 24 31 35 36 28 33 21 30 27 31 29 52 32 35 35 26 47 31 35 35 29 35 34 32 22 32 39 44 22 23 31 30 34 28 32 34 32 26 33 30 31 32 30 45 25 37 30 39 30 33 32 30 25 33 31 30 36 24 26 28 30 40 35 24 44 39 40 33 33 46 34 28 42 46 35 36 31 34 28 32 32 37 19 37 37 26 27 35 31 35 27 35 38 33 37 27 33 30 28 42 24 25 38 28 33 18 43 34 28 29 34 36 39 29 33 32 25 34 31 39 23 42 38 33 35 34 34 29 31 25 38 35 23 24 32 29 33 25 36 28 34 31 36 21 27 30 32 26 38 31 32 29 30 31 39 42 43 35 33 49 26 37 30 24 40 36 33 28 37 45 30 34 34 34 33 31 39 37 31 35 37 31 42 30 28 32 37 40 32 37 30 24 33 21 46 31 32 36 32 25 30 29 37 25 31 34 25 39 29 26 40 34 35 35 30 26 37 39 24 31 26 32 34 32 45 47 39 26 30 42 28 35 26 32 30 37 36 32 26 38 37 25 35 27 27 27 34 34 23 26 29 34 36 35 27 30 34 41 32 29 30 33 34 26 26 39 28 39 31 35 39 42 30 29 37 44 35 29 26 26 36 46 37 34 40 26 42 37 37 39 34 31 34 27 32 31 31 44 24 30 38 50 27 29 26 32 39 44 30 27 32 31 27 41 32 38 33 36 31 24 35 32 35 36 43 28 33 24 35 30 36 32 35 30 30 29 36 27 30 29 34 36 41 27 26 40 39 27 27 43 39 32 21 23 37 35 29 33 33 40 38 33 33 23 26 35 35 25 31 32 38 30 27 32 36 31 32 32 41 36 35 32 39 37 30 34 29 42 31 29 39 35 39 30 45 32 38 28 42 39 40 32 35 52 27 26 38 45 23 35 27 32 39 33 33 47 39 23 29 43 25 21 36 42 30 29 35 35 32 43 35 26 31 31 27 27 33 33 25 32 37 25 26 39 33 36 45 30 31 40 45 32 25 35 29 42 32 33 25 25 32 39 27 35 35 39 29 27 36 27 42 39 31 31 31 32 27 27 35 32 36 33 33 39 36 36 32 37 34 35 28 32 29 28 18 30 26 31 30 43 29 43 32 38 20 42 21 30 40 30 39 32 32 32 53 33 37 33 20 43 40 34 32 34 31 38 28 29 29 28 38 28 28 32 40 33 37 33 39 34 38 29 32 37 34 29 35 31 31 24 29 25 28 33 29 32 40 36 39 29 39 32 41 24 36 34 32 27 27 24 20 32 35 30 36 35 22 38 35 41 26 23 29 29 38 26 28 28 34 32 33 29 24 27 35 28 31 32 37 45 31 35 31 33 30 24 23 28 38 39 35 27 29 29 38 34 31 38 49 42 33 35 31 27 34 26 40 33 46 30 30 30 28 38 39 49 39 35 37 32 37 44 40 32 27 38 31 27 29 26 31 33 31 51 38 44 33 36 24 32 32 42 35 23 28 38 24 34 32 29 30 52 37 39 40 34 31 34 34 35 28 27 28 31 30 27 28 36 32 34 33 30 45 35 31 23 29 34 31 39 35 26 42 30 25 32 36 36 36 44 34 31 30 27 27 21 36 29 26 25 22 38 30 41 31 37 42 39 31 34 37 28 35 40 34 26 37 28 37 38 30 19 37 32 39 29 41 27 24 31 32 34 30 37 39 33 30 41 32 28 28 39 35 32 33 33 30 30 34 28 27 30 34 36 32 36 36 32 28 38 26 32 34 32 48 31 35 30 33 52 23 33 39 37 32 27 32 26 35 33 36 40 29 27 42 31 36 34 29 35 27 34 34 34 26 31 26 30 23 30 24 34 23 37 28 41 23 41 35 29 34 35 29 35 24 30 38 32 36 26 31 37 31 37 37 31 27 37 34 29 42 31 41 25 36 28 34 43 39 29 42 30 26 33 38 29 38 27 36 31 35 28 39 37 28 29 28 33 32 28 30 33 32 36 29 37 28 27 31 37 35 27 40 34 36 36 33 26 29 31 39 28 44 37 26 33 36 34 29 27 37 28 31 32 35 27 36 23 26 30 43 39 36 35 25 38 30 39 29 25 35 42 36 32 22 39 28 35 34 24 41 20 44 24 30 33 28 37 29 37 25 33 32 39 32 37 34 33 35 32 24 34 28 41 24 25 27 34 34 40 26 36 37 31 35 40 31 24 30 31 35 34 35 29 27 43 29 36 29 34 29 31 25 25 31 34 38 26 36 28 32 27 36 30 32 39 33 37 27 30 33 31 40 30 35 20 40 29 32 31 38 21 32 31 36 32 28 30 22 37 46 26 33 34 31 36 32 29 36 23 35 28 30 42 22 40 39 39 31 37 26 30 42 28 33 30 35 21 22 31 38 41 40 24 37 31 24 32 31 27 36 38 41 29 33 28 35 33 33 30 25 42 20 43 24 42 36 27 43 42 29 32 24 38 31 34 36 46 33 35 36 34 39 39 33 36 41 27 37 22 24 29 25 38 32 33 34 34 29 23 30 35 34 35 30 28 41 38 39 31 32 34 36 33 32 40 33 30 36 32 27 31 28 32 37 24 33 26 34 37 32 32 20 25 30 35 38 27 37 31 39 35 36 25 44 35 41 24 28 33 40 32 40 39 32 38 35 31 20 37 27 47 32 33 28 38 33 35 32 36 32 48 33 27 29 42 25 38 27 30 22 33 37 38 33 33 37 32 36 28 30 30 32 35 36 29 28 36 38 22 25 42 35 34 27 33 25 29 34 27 37 29 28 32 33 37 32 34 30 42 32 32 42 29 34 28 26 31 31 36 36 42 36 33 30 24 30 36 32 24 28 35 31 33 38 34 28 41 31 34 35 28 38 40 33 32 42 34 31 30 29 32 31 32 39 36 32 31 32 27 25 28 31 35 33 32 28 31 21 32 34 44 30 44 26 44 29 29 37 37 24 33 41 43 31 25 28 31 30 26 31 40 28 34 29 31 37 36 40 25 34 31 47 29 29 31 24 36 31 32 30 29 31 39 27 32 31 29 38 33 28 41 25 31 47 33 31 36 32 29 29 27 39 39 36 28 27 29 46 30 30 32 34 28 33 29 30 29 28 25 28 31 36 29 33 35 36 44 43 28 28 24 33 32 35 32 36 34 38 28 40 33 31 35 25 31 34 26 31 35 38 35 30 35 30 31 40 27 33 35 39 19 25 36 39 39 31 36 27 34 49 32 31 29 27 33 34 34 35 34 29 31 35 36 19 48 35 35 32 21 26 30 29 31 30 25 27 33 46 29 31 32 38 24 37 37 29 32 27 29 29 33 28 37 28 24 29 25 35 28 35 31 33 40 34 32 23 38 33 34 33 37 28 24 33 24 35 38 33 34 28 33 36 31 38 25 35 29 35 41 27 40 42 23 32 37 40 31 38 30 29 30 32 34 28 20 42 21 38 38 50 25 31 40 28 33 42 37 33 37 35 31 24 36 32 35 32 33 37 33 37 22 32 28 26 34 39 45 35 33 35 33 41 24 42 40 34 25 36 44 35 35 32 44 39 33 35 20 39 30 42 34 40 32 35 28 26 25 23 27 49 34 32 27 24 32 27 28 37 41 34 37 45 28 28 30 36 27 24 47 29 30 32 29 42 34 40 43 29 37 31 32 34 30 35 27 28 28 26 35 34 31 32 29 39 39 34 45 36 38 32 27 35 36 33 31 26 33 29 28 29 40 18 32 33 30 31 21 36 24 25 32 29 28 39 35 29 30 27 39 32 26 40 31 35 37 34 39 35 34 32 32 35 34 29 41 29 29 36 27 37 39 41 25 32 34 41 34 28 36 33 26 31 30 34 27 32 18 33 29 26 34 36 42 36 35 32 28 39 29 24 35 45 33 23 42 40 34 27 33 27 40 24 34 33 25 34 30 31 23 38 34 37 34 47 30 28 32 35 40 42 36 32 36 27 25 30 42 40 32 32 36 33 40 28 34 22 38 22 30 33 19 30 32 29 30 35 26 34 32 35 23 30 34 25 33 27 36 38 34 29 30 30 20 44 28 35 29 36 42 28 29 33 45 26 33 34 23 39 29 30 40 31 34 33 33 25 33 34 35 28 34 43 31 36 37 38 41 24 29 38 25 32 36 36 40 26 24 40 36 43 26 36 32 28 33 26 37 34 28 33 33 33 48 27 33 35 30 31 27 38 36 36 42 44 27 26 25 34 39 39 31 34 21 32 31 23 47 29 31 28 36 30 34 28 34 27 28 18 31 37 34 38 29 23 32 38 27 39 32 39 38 24 27 38 45 38 33 24 35 34 26 37 27 25 33 32 31 27 40 34 29 39 26 25 23 33 33 39 31 34 38 34 28 30 34 42 36 25 42 38 34 35 21 30 25 39 37 30 42 30 30 32 26 24 32 41 25 27 35 36 36 24 28 43 39 35 24 44 28 35 39 38 21 38 33 37 35 36 31 38 33 38 38 23 32 31 32 39 29 32 27 39 36 26 34 32 34 33 36 36 26 35 24 31 22 32 35 20 32 33 40 34 29 26 26 26 29 37 31 25 36 29 46 29 34 27 33 33 37 39 23 33 25 35 41 28 36 34 34 36 31 42 34 32 29 36 32 26 31 48 28 37 34 36 37 29 31 35 37 35 36 40 23 34 24 32 33 31 34 37 41 29 32 39 25 36 24 30 24 43 34 40 24 45 23 27 32 33 38 33 32 32 30 26 33 27 36 33 29 24 27 37 26 40 27 23 45 32 29 27 32 30 32 31 35 25 20 24 42 40 35 44 31 32 34 32 39 31 35 31 36 28 35 38 37 31 30 34 37 35 33 35 36 33 27 29 23 32 24 36 41 31 33 37 40 26 27 30 29 34 38 26 32 37 30 32 25 26 41 30 36 37 40 37 23 23 40 30 33 32 34 42 27 32 35 27 34 47 36 28 36 28 29 31 26 41 35 31 37 37 38 41 36 34 30 39 40 30 34 26 27 36 38 31 35 33 34 50 32 27 33 29 32 43 37 38 37 32 40 31 36 36 27 25 29 35 28 32 36 30 32 34 37 35 31 32 49 26 39 37 26 40 29 27 35 43 38 21 42 37 46 47 19 32 34 20 37 45 38 28 34 30 35 35 27 29 37 40 37 30 27 32 27 33 35 33 27 31 34 35 37 36 32 33 32 34 36 49 38 36 40 32 32 34 35 32 26 28 26 39 33 44 23 41 38 22 39 30 34 33 34 31 37 27 38 34 29 29 38 34 37 30 36 37 46 33 36 21 22 32 21 30 31 32 28 27 28 43 34 28 43 29 30 35 37 28 34 33 34 52 31 30 41 31 36 29 32 32 35 32 27 31 34 31 36 28 33 29 40 36 40 22 29 22 39 31 29 35 42 39 46 37 42 35 30 35 35 28 31 23 28 25 36 38 33 39 37 28 33 33 39 20 39 33 29 38 31 35 41 33 40 35 25 44 33 33 22 28 34 33 33 29 29 50 40 32 29 35 38 31 27 31 42 28 41 35 38 40 36 29 26 34 37 27 26 36 33 45 21 25 48 24 27 31 35 27 32 21 34 36 31 37 32 36 31 37 32 41 31 36 33 30 27 28 38 44 30 25 31 33 38 32 34 35 32 32 35 34 37 45 35 47 37 38 38 25 37 37 33 27 32 29 28 22 31 31 36 27 36 31 35 36 38 21 28 23 27 25 26 28 42 31 33 26 35 28 33 33 31 34 28 35 30 26 28 40 27 28 36 39 31 32 33 37 26 30 35 31 26 25 37 33 48 32 31 32 28 35 33 38 32 32 39 28 32 39 31 34 32 28 34 33 24 27 37 28 29 32 32 40 45 29 21 38 33 29 47 36 40 33 35 30 40 34 28 38 33 33 32 29 34 33 27 39 38 31 29 32 36 29 35 23 26 43 31 30 26 41 37 25 39 27 42 38 42 31 27 34 23 36 34 43 24 29 32 29 31 34 35 35 21 25 35 21 43 36 33 31 32 24 25 38 30 33 27 32 29 41 31 26 30 31 44 37 42 37 30 37 48 38 34 27 37 28 35 36 26 34 33 21 36 24 31 31 33 36 17 32 34 27 29 43 33 38 30 29 34 34 32 34 48 30 41 37 38 42 32 27 33 28 39 36 24 19 30 33 37 32 26 38 27 21 33 32 43 43 37 35 22 32 43 34 28 35 36 41 26 25 25 48 31 30 24 28 31 24 26 31 31 30 32 33 33 32 30 33 40 29 37 28 31 38 38 35 37 20 37 35 36 31 40 22 29 39 42 28 31 34 31 34 26 31 31 29 30 34 34 39 24 22 44 26 31 25 35 31 30 46 31 32 34 32 23 37 29 48 29 32 30 26 35 34 28 30 33 36 40 30 34 37 42 24 32 27 32 41 37 31 31 31 41 37 40 38 21 26 41 23 34 38 29 49 36 39 37 37 40 37 29 30 25 36 35 37 33 25 34 35 32 32 36 33 34 45 31 31 35 30 29 27 40 30 26 30 32 31 25 32 29 37 36 49 21 30 37 33 24 37 32 28 32 31 37 25 35 40 41 37 23 37 25 26 32 40 33 32 36 43 28 38 31 17 33 31 32 36 36 31 27 25 20 24 36 34 24 35 20 26 36 23 27 32 38 29 34 25 28 26 18 41 33 31 31 30 29 28 33 31 35 29 25 31 38 33 28 35 43 38 36 31 37 45 38 35 31 26 33 32 35 36 26 37 42 41 44 41 31 38 29 29 37 30 35 40 39 32 29 47 34 37 45 31 47 32 35 20 33 46 30 28 38 25 30 36 39 41 36 33 32 24 27 20 31 36 30 31 34 30 24 32 25 36 27 34 29 30 31 29 34 31 29 30 34 44 27 37 30 37 24 25 36 27 24 33 41 31 33 34 27 36 38 30 42 39 43 34 30 30 28 33 28 34 38 35 30 32 36 29 37 27 32 39 23 30 42 38 29 33 34 46 33 41 36 38 27 37 31 25 35 27 30 33 44 35 40 38 30 29 26 26 30 37 28 24 38 24 38 35 25 34 37 33 33 30 49 30 36 38 36 43 30 45 34 36 31 37 36 31 36 38 30 20 29 44 31 27 52 37 27 46 46 26 25 21 33 36 35 28 31 37 38 33 29 32 36 40 35 46 38 27 28 33 42 29 24 39 40 33 34 26 28 29 30 27 38 31 34 31 31 39 31 31 28 27 39 27 36 40 33 31 29 33 28 22 33 19 38 39 27 32 30 28 28 31 43 27 22 29 35 35 37 35 26 33 37 33 35 29 27 24 29 31 33 35 33 29 32 28 36 27 30 40 28 27 39 32 39 30 38 22 43 29 44 38 26 41 38 26 30 31 37 29 29 34 28 34 31 31 36 28 36 38 29 42 33 25 34 35 49 31 33 29 31 31 37 25 37 33 34 26 34 31 32 33 34 31 33 33 29 38 36 44 37 25 34 34 22 30 47 21 33 27 32 30 32 34 33 33 35 26 32 40 39 36 31 38 29 32 22 44 30 31 29 28 34 35 27 31 23 30 38 44 27 25 31 40 37 29 34 37 36 38 29 27 38 27 34 35 35 30 35 29 33 36 28 24 26 32 33 38 26 41 33 42 26 29 28 30 32 30 36 40 47 38 26 41 33 31 40 31 30 27 35 28 28 35 40 30 27 34 27 30 31 29 33 42 29 31 31 30 39 39 34 41 29 33 30 34 29 43 40 21 35 22 31 29 22 36 27 33 34 41 27 24 33 38 41 23 25 37 35 37 30 30 37 28 32 33 37 31 24 31 30 36 30 26 29 42 26 32 32 23 35 35 38 39 29 24 36 28 35 48 27 34 27 31 30 24 30 32 34 32 48 33 33 38 20 26 26 35 31 29 33 32 34 25 57 32 33 41 39 25 32 38 28 45 31 38 32 44 32 23 33 37 26 34 34 28 24 31 28 24 40 21 23 45 37 28 29 35 36 26 34 45 35 28 39 30 35 33 31 42 23 31 27 32 28 39 29 30 41 31 40 39 31 31 39 35 35 29 40 34 25 25 32 37 30 26 28 41 37 31 38 43 34 25 22 35 33 30 43 37 34 31 40 32 35 31 32 29 44 34 24 25 30 29 27 36 37 36 28 37 35 39 34 33 37 27 35 34 27 33 48 34 41 28 41 21 26 30 30 31 37 27 26 27 35 35 33 32 25 34 34 26 35 20 31 22 38 34 38 27 37 33 30 34 46 27 32 40 30 36 29 35 27 30 27 27 35 21 30 37 34 33 34 32 38 30 24 27 34 28 28 25 34 26 32 32 32 39 38 20 24 32 36 26 32 26 32 28 34 36 31 28 31 33 36 36 36 35 30 42 28 30 24 39 31 20 36 39 37 28 25 35 36 38 36 37 45 38 38 27 34 34 37 26 32 29 32 29 37 30 41 40 31 39 30 25 37 36 35 26 26 26 35 25 31 28 32 33 26 29 29 33 33 35 35 26 29 38 37 24 31 33 38 28 32 37 38 38 38 32 36 23 28 26 30 25 31 21 27 46 41 27 33 36 19 25 30 35 44 30 29 30 37 33 33 33 28 27 49 30 35 33 37 42 27 37 36 43 23 35 31 43 33 33 31 32 44 34 27 28 20 40 30 33 26 35 33 30 27 42 28 33 42 33 35 28 39 30 41 33 30 34 30 31 39 18 33 25 31 31 27 27 37 33 37 33 29 35 26 36 29 33 31 26 21 30 29 36 41 40 27 37 29 40 28 35 37 31 30 34 30 28 23 28 33 30 35 26 30 35 41 50 40 39 37 30 30 35 40 35 34 30 37 36 31 24 39 28 41 32 34 24 33 38 28 24 39 44 36 30 39 40 21 33 30 33 34 27 27 32 28 39 34 26 33 44 36 33 39 42 41 35 32 37 39 29 34 28 36 36 27 35 32 33 31 26 33 38 26 30 27 35 27 40 29 41 33 35 36 40 30 42 35 30 37 32 33 25 31 31 36 27 36 40 31 33 35 27 34 37 41 37 39 35 23 27 30 39 36 35 46 49 28 33 29 36 36 28 45 40 40 19 35 35 42 32 26 38 25 36 31 31 37 30 32 37 33 25 47 28 38 35 43 38 33 30 33 30 32 35 33 44 23 31 42 31 28 34 39 32 28 37 42 32 34 41 34 30 36 46 26 27 38 34 33 37 36 38 32 25 26 39 33 34 37 43 25 30 37 40 33 30 29 37 34 24 37 32 49 27 32 32 35 38 29 35 43 28 33 29 27 44 29 38 35 30 33 36 34 36 36 35 31 30 30 25 37 27 24 32 25 35 30 33 34 30 33 26 25 32 36 30 32 32 28 35 35 22 32 33 29 37 31 29 33 46 36 41 28 29 31 27 36 42 33 42 24 33 37 22 39 21 41 27 31 41 31 40 26 28 26 46 33 27 39 40 32 36 39 33 35 20 32 33 35 41 25 37 29 35 33 37 41 22 36 29 29 30 42 34 49 28 26 32 33 33 40 25 32 38 22 25 36 28 37 27 41 33 33 29 29 24 36 39 37 33 39 26 28 32 35 33 25 34 42 40 31 35 24 24 29 30 35 36 32 49 34 29 38 40 33 35 30 25 31 30 36 34 30 30 42 51 32 27 31 45 33 33 37 24 33 36 32 40 54 32 24 31 35 20 30 50 35 33 35 31 32 34 30 27 27 34 38 27 33 33 29 31 27 29 33 48 23 34 32 33 34 27 26 35 29 34 40 38 36 31 23 32 36 37 37 29 40 37 34 41 33 30 34 36 33 32 38 36 32 34 32 30 36 26 32 35 40 29 40 31 35 34 27 30 40 38 31 29 34 35 31 27 28 28 30 28 42 24 40 37 36 36 27 30 30 26 42 33 33 35 31 33 29 29 24 44 30 35 28 35 36 35 35 39 27 34 30 35 33 27 32 28 27 29 36 23 29 37 31 48 27 35 31 34 33 41 41 31 37 46 30 33 29 32 27 32 25 31 33 42 36 32 24 36 44 37 30 32 24 44 25 24 50 24 32 39 29 35 36 34 35 31 33 29 35 24 33 34 38 39 27 37 32 36 41 33 34 25 31 36 31 43 29 46 33 30 46 25 28 38 31 28 27 30 39 30 28 32 32 37 32 30 35 32 28 32 31 31 32 34 32 33 38 27 27 38 41 37 36 29 43 31 41 18 33 33 32 32 35 38 28 36 38 35 35 37 35 34 32 46 24 39 39 28 33 27 34 26 34 37 25 35 41 27 26 20 38 30 32 24 33 28 48 30 32 30 37 28 28 47 34 38 23 29 25 27 35 20 27 34 41 34 26 37 26 27 30 31 24 29 35 27 33 24 42 36 28 33 39 28 31 28 34 31 22 32 33 45 29 38 40 26 30 32 28 38 41 38 24 36 28 29 27 27 29 40 27 30 33 41 34 38 25 31 30 30 35 40 40 32 46 33 30 35 32 44 34 42 24 32 34 41 43 37 23 29 35 27 27 43 40 40 39 37 36 34 41 44 42 33 35 33 28 35 21 35 34 26 35 36 38 31 32 35 32 27 32 27 37 35 34 37 52 42 31 37 32 31 33 32 30 36 25 45 29 39 51 38 29 33 34 29 39 27 46 33 30 32 37 23 29 32 31 31 33 35 27 34 38 42 36 29 30 32 29 41 28 39 37 40 39 27 24 26 33 35 36 30 31 33 46 28 35 42 39 27 32 33 31 35 40 30 30 30 32 26 27 31 25 30 33 33 30 32 24 23 30 29 27 43 26 29 34 22 34 35 34 39 27 29 30 24 37 27 26 31 29 32 19 39 29 28 36 38 37 33 38 37 34 29 31 20 27 44 31 37 29 36 38 37 38 39 35 34 42 33 28 27 27 24 44 24 30 31 36 47 35 34 36 36 26 31 33 23 31 32 38 30 34 26 33 39 29 31 26 33 29 31 28 33 34 35 33 45 26 29 38 31 38 27 35 30 37 39 35 36 34 33 27 33 34 31 40 27 42 34 27 34 41 33 25 23 25 34 28 37 39 36 32 30 34 40 33 31 31 32 32 28 31 23 25 35 37 29 27 30 35 24 35 37 28 31 34 25 33 34 33 31 30 32 39 42 44 33 33 34 34 26 27 38 41 34 30 32 25 28 26 29 33 28 31 38 28 13 27 30 30 36 33 35 43 45 23 34 22 39 35 28 31 31 39 34 23 33 33 34 27 29 40 37 30 32 31 39 27 28 35 23 24 28 26 40 35 28 34 32 43 45 42 26 29 27 36 29 28 35 36 27 34 32 37 39 33 28 35 34 29 33 27 38 29 25 38 31 36 29 38 35 32 34 32 28 28 40 39 27 21 27 32 35 28 36 29 29 33 43 35 38 25 31 29 29 36 35 42 34 31 32 32 38 33 32 29 36 29 40 28 32 56 40 35 24 22 36 32 33 34 35 36 32 31 29 31 34 42 42 21 35 25 24 34 42 42 28 32 33 38 33 46 31 22 37 29 32 36 34 30 31 37 37 32 31 40 32 28 33 31 28 36 26 29 33 42 37 33 24 25 34 43 29 33 36 30 31 36 34 42 31 28 33 32 34 43 36 37 31 43 37 28 25 30 31 15 40 32 35 44 40 29 20 37 33 40 35 32 36 41 28 32 45 38 35 48 19 31 35 30 32 38 28 39 31 34 38 28 31 30 31 28 26 26 26 48 36 39 45 36 35 28 43 34 24 33 41 32 30 35 26 31 29 36 30 28 41 48 38 37 26 29 46 29 23 56 38 26 28 39 27 28 29 32 34 20 24 23 38 36 29 24 25 29 34 32 37 34 27 37 38 30 34 34 42 22 22 34 43 33 25 39 32 37 30 30 36 27 35 28 34 37 33 27 38 31 28 31 40 37 28 24 31 39 37 30 43 30 31 31 37 30 28 33 46 40 41 18 34 32 33 38 29 29 36 48 32 21 32 40 32 46 33 36 35 36 35 39 26 29 39 33 22 43 25 31 32 34 27 32 31 24 40 42 41 39 27 36 29 34 32 26 22 29 43 30 23 46 38 27 30 37 42 29 25 32 31 23 34 45 29 29 34 35 39 31 32 34 41 42 29 27 31 34 52 30 39 35 27 34 35 48 27 39 41 29 29 46 34 29 31 31 37 29 31 27 40 46 26 29 31 32 31 34 37 37 32 29 34 31 22 37 31 36 28 33 36 36 36 26 36 27 36 34 24 21 37 32 22 25 30 30 32 29 41 36 24 35 33 35 25 42 30 41 30 36 28 27 30 35 36 33 31 28 27 29 29 30 35 33 25 29 25 40 35 26 40 35 40 40 33 30 44 41 36 29 26 30 37 29 27 28 36 36 32 31 39 23 29 28 35 32 31 28 47 27 36 32 41 37 37 31 36 33 34 44 31 41 36 39 24 39 33 38 43 40 28 35 25 34 24 38 36 45 36 37 37 31 31 28 38 40 31 31 37 36 29 31 35 22 31 38 37 34 28 20 44 35 43 32 24 43 27 33 30 34 30 27 23 31 26 18 38 32 24 40 43 39 42 25 33 36 29 29 38 42 35 32 27 42 49 33 24 24 29 19 41 27 36 31 32 36 31 27 34 28 31 41 30 25 33 33 27 26 36 36 23 29 33 41 30 38 37 33 26 38 35 41 28 30 33 34 31 28 40 23 36 39 34 26 31 28 34 41 35 35 26 27 40 31 28 27 35 29 34 34 31 28 42 32 36 30 31 32 31 31 32 35 29 32 36 29 25 30 38 31 34 30 31 35 27 40 32 30 32 27 30 34 39 33 40 33 29 40 38 32 38 39 29 35 29 25 33 42 30 32 33 30 37 30 40 24 34 48 27 39 29 31 29 24 32 40 25 38 25 29 31 37 23 39 31 29 29 27 29 28 31 30 30 33 28 48 46 25 26 36 42 31 28 30 29 40 32 29 41 36 25 39 25 27 35 23 40 25 23 35 29 29 27 36 39 29 28 20 34 36 25 30 31 28 23 35 28 40 37 34 32 26 27 23 19 36 34 33 37 30 32 45 35 27 32 27 28 29 23 43 29 35 32 27 23 27 39 37 38 29 33 28 30 35 33 31 23 29 32 29 40 26 28 30 31 28 30 39 36 33 25 36 37 29 35 33 34 38 29 30 25 37 32 35 35 34 30 21 33 34 31 33 53 42 35 32 32 43 23 30 38 32 33 29 27 28 35 34 24 33 35 37 41 29 25 32 31 36 32 26 34 33 39 32 37 24 30 33 35 23 31 19 31 35 36 36 31 38 30 27 32 31 25 39 26 33 36 43 38 36 33 36 33 42 38 39 36 43 31 32 28 25 27 21 25 32 23 28 34 20 35 24 32 40 29 33 35 37 29 37 36 21 32 34 30 37 33 26 31 51 29 26 23 37 33 31 28 35 35 27 30 27 28 39 29 31 38 40 37 29 26 32 24 37 36 42 39 20 32 28 34 25 34 40 29 21 33 37 23 27 44 27 28 31 51 36 32 29 30 41 33 33 29 37 29 32 35 35 25 37 27 29 37 32 38 25 41 37 36 29 35 29 31 35 40 29 33 35 45 44 33 36 35 40 31 28 24 35 33 40 32 28 38 28 40 35 34 25 24 34 20 30 30 22 31 34 37 34 35 27 27 35 23 35 28 34 32 30 36 39 26 31 34 39 34 38 31 29 28 22 22 39 28 31 29 30 30 23 30 32 34 25 38 30 33 33 37 29 30 34 35 28 31 26 40 36 28 33 24 23 31 31 24 34 32 23 26 35 36 40 32 29 32 34 33 40 39 35 25 31 33 30 25 35 36 26 33 31 34 31 31 38 34 23 30 38 37 28 41 37 31 33 26 40 43 36 46 38 47 31 29 24 34 26 43 35 26 30 36 34 33 37 30 31 29 24 41 27 34 39 36 27 35 26 40 37 31 40 33 31 28 37 33 32 32 32 27 30 36 39 33 37 35 36 39 21 35 25 31 32 31 34 35 30 37 47 35 35 35 42 26 41 25 35 18 38 33 36 36 24 28 41 29 26 34 24 37 44 34 31 34 34 41 34 34 28 28 35 30 25 33 35 32 28 39 27 37 37 39 34 32 47 28 29 32 32 31 32 30 30 46 37 47 45 27 27 39 26 27 37 25 31 33 30 44 28 32 22 33 40 35 34 33 38 28 34 32 42 31 36 41 34 38 29 23 38 37 34 43 33 32 27 33 34 34 37 35 24 26 31 28 33 27 16 31 33 36 32 32 34 33 30 30 29 30 24 34 30 45 35 37 33 31 38 39 31 38 39 38 39 46 46 33 31 23 30 44 40 30 22 41 28 42 27 47 28 35 36 30 31 29 27 41 36 24 25 31 30 34 39 39 38 27 39 36 31 33 30 28 24 34 28 42 30 27 28 38 25 34 27 37 35 28 43 35 35 34 22 36 30 41 35 31 26 28 26 38 29 23 25 42 27 33 27 36 42 33 24 37 32 34 30 37 26 33 23 26 34 34 31 29 30 41 38 24 28 38 28 38 31 41 23 44 38 38 36 19 29 26 34 28 31 34 32 41 27 38 27 28 35 26 32 45 22 38 35 24 36 32 37 41 35 27 26 25 38 40 29 37 26 31 39 29 31 24 30 31 30 34 23 33 33 38 34 29 28 36 46 23 36 24 18 28 38 34 34 38 27 30 28 33 30 31 25 23 33 36 37 29 29 35 31 35 27 31 44 36 46 39 35 38 37 30 26 42 38 40 29 33 35 23 30 29 33 37 27 24 31 33 38 28 36 44 27 39 36 21 40 26 37 36 34 17 21 30 30 31 29 44 34 34 31 36 32 39 37 36 37 37 35 35 34 44 34 27 34 38 29 39 33 30 32 34 41 42 35 34 30 41 29 27 28 31 29 27 22 34 32 35 26 33 24 41 34 34 31 27 37 30 31 34 30 45 20 36 34 34 41 33 31 36 28 32 36 24 40 30 35 35 37 36 35 31 33 22 37 20 42 27 34 45 44 31 29 29 27 32 32 33 28 40 27 27 31 28 26 29 33 41 34 35 38 31 27 28 42 38 38 25 42 30 28 24 26 27 42 29 44 39 30 32 32 34 36 33 42 29 25 28 37 39 24 36 30 37 33 33 33 27 32 40 40 46 30 34 29 21 44 27 31 33 32 29 36 39 27 33 32 34 36 33 41 31 36 40 36 22 33 38 50 29 21 37 28 37 33 25 30 35 37 24 23 32 36 38 42 30 37 43 40 24 29 30 36 28 24 33 32 17 29 32 29 34 37 26 31 23 27 39 28 29 28 29 29 42 32 29 26 36 31 43 35 40 38 35 27 36 25 25 36 30 35 29 31 27 37 37 35 39 45 36 34 32 26 29 30 39 24 29 28 23 46 33 35 28 31 29 23 42 39 23 32 38 35 33 38 33 30 29 35 28 42 40 34 31 38 34 34 30 33 30 34 21 26 30 38 36 39 27 33 28 29 31 27 25 29 33 33 37 37 29 34 39 43 36 31 32 42 22 31 33 35 36 34 26 32 47 20 24 32 33 35 33 43 31 33 33 31 35 30 38 51 33 36 42 30 27 39 30 22 34 27 26 32 34 24 28 27 32 38 33 37 31 30 33 39 26 30 45 34 36 48 33 44 40 48 34 30 31 31 34 32 35 33 33 22 44 28 35 32 31 31 37 38 31 32 28 25 29 34 36 25 31 21 38 36 30 35 42 38 39 27 34 24 46 31 40 33 49 24 31 33 38 34 39 32 33 35 30 29 45 33 31 29 32 38 43 33 41 26 34 23 32 35 40 32 39 37 39 36 33 28 28 29 30 30 33 24 35 33 27 30 22 24 32 33 34 23 33 32 26 25 29 37 27 39 27 46 34 33 33 32 44 37 41 31 33 33 33 19 36 35 39 45 30 29 25 32 42 21 30 39 35 40 31 31 35 35 42 39 25 37 30 38 35 27 30 35 29 31 28 44 25 40 26 29 25 35 32 31 30 33 32 35 35 38 37 36 27 35 37 28 28 28 36 38 35 32 36 26 32 23 39 26 29 26 31 33 24 35 44 31 26 30 41 28 28 40 38 31 34 33 39 19 31 40 46 31 29 30 29 33 42 35 31 30 36 38 34 33 29 30 27 39 31 32 39 45 31 39 33 31 35 30 27 41 30 24 35 33 37 42 27 36 36 33 27 28 32 32 24 27 29 28 34 32 38 39 31 33 40 37 30 27 30 39 32 30 38 27 40 29 35 25 31 47 35 36 24 28 34 30 33 35 24 32 35 40 29 31 23 40 33 39 30 39 37 23 34 31 35 38 31 25 34 32 30 34 35 43 27 22 32 24 33 25 28 32 46 38 24 32 33 29 47 40 29 36 34 30 28 25 27 32 25 36 28 38 31 35 22 27 30 32 31 30 38 36 23 35 40 27 36 38 33 23 39 31 25 32 37 35 38 47 21 33 38 28 37 38 22 36 24 38 25 39 32 31 36 33 33 34 20 28 36 30 34 24 33 31 27 28 37 40 31 21 29 22 35 37 34 37 33 31 25 36 28 32 27 20 29 41 41 32 36 34 30 27 41 28 30 32 36 28 31 32 30 40 31 33 26 31 44 29 38 35 43 32 38 21 38 32 36 36 39 37 36 29 32 40 38 31 32 37 32 40 31 37 36 35 32 29 37 32 27 33 31 41 28 30 32 34 43 23 40 27 35 38 34 27 22 31 33 35 31 26 36 27 29 31 26 47 23 37 47 40 30 37 32 30 34 39 19 29 28 36 29 27 26 29 31 31 28 29 27 25 27 30 36 32 27 31 32 32 32 33 41 27 32 33 30 32 23 35 32 33 30 39 36 35 37 19 33 28 31 36 24 40 26 32 23 36 46 36 34 27 34 33 31 30 40 25 24 37 28 42 36 33 31 30 30 33 38 35 36 31 41 30 37 38 41 30 38 31 44 31 33 36 31 36 37 30 33 44 35 32 27 33 45 34 25 46 40 37 27 47 29 34 29 30 34 34 31 27 29 37 32 40 33 31 35 35 37 32 28 32 26 33 41 31 43 28 40 38 36 39 37 45 25 46 34 29 38 30 26 48 32 40 30 30 31 23 34 31 31 29 40 25 37 38 30 22 30 39 29 36 26 38 36 30 38 42 34 40 30 27 33 35 33 32 30 38 34 31 30 39 36 36 29 24 20 25 27 28 37 32 30 35 41 31 32 41 38 39 34 40 34 29 30 31 26 35 29 39 26 33 32 39 26 34 43 42 24 43 44 33 39 31 35 27 34 42 34 29 34 38 31 29 40 25 37 33 23 33 32 30 35 31 31 35 32 25 40 36 44 36 30 30 36 27 39 25 26 30 27 27 35 30 27 33 32 36 26 30 33 30 37 27 29 28 30 34 46 40 44 38 36 34 32 40 26 37 32 33 38 31 38 33 39 25 33 39 36 23 22 31 32 36 34 32 35 37 27 34 32 35 28 34 34 26 35 25 30 27 26 32 26 34 33 32 32 34 33 42 36 39 34 29 25 30 30 34 27 24 32 35 31 36 27 27 39 34 25 35 33 29 34 48 31 28 33 33 29 27 32 38 35 39 20 40 34 40 31 37 26 31 29 24 34 34 31 34 42 31 39 33 28 31 41 23 34 28 32 37 32 36 28 33 33 23 35 24 30 29 31 33 31 30 43 42 37 39 28 43 38 34 37 43 31 31 42 28 38 20 36 33 24 29 38 28 30 36 30 42 37 26 26 38 40 42 27 24 37 36 30 35 24 31 32 32 29 29 29 39 26 31 32 29 33 33 32 46 26 36 34 32 32 39 30 30 34 25 30 42 27 43 27 37 33 23 30 22 43 24 30 35 39 24 35 26 31 40 40 32 36 26 32 29 27 33 40 29 36 36 33 27 18 42 26 28 27 26 27 38 34 30 24 33 32 31 36 23 38 39 35 36 37 36 35 37 34 29 30 32 36 41 31 36 33 40 37 32 31 34 28 31 38 32 31 32 34 41 33 31 31 41 42 37 49 21 29 32 32 31 35 29 38 40 53 32 38 35 27 44 35 31 27 31 27 41 36 34 29 26 30 37 25 32 21 39 40 36 33 27 35 31 24 27 32 33 28 38 28 33 29 31 34 34 35 39 26 45 25 33 34 32 41 25 23 38 27 35 36 27 39 35 35 24 26 33 30 36 25 28 24 45 25 31 27 36 24 37 29 32 36 34 39 36 36 28 28 26 34 36 29 32 37 32 31 31 34 42 25 28 24 20 33 39 35 26 24 35 42 25 27 30 38 30 37 30 29 38 26 33 45 42 34 55 41 26 29 37 31 34 39 37 38 23 38 43 38 33 31 39 35 30 28 28 36 34 27 28 40 26 31 31 27 41 26 37 33 36 37 25 30 24 28 29 40 46 31 40 44 37 30 25 22 30 38 34 29 33 25 33 33 35 34 30 32 31 26 27 34 28 36 43 26 42 24 29 35 32 24 28 34 41 29 22 41 32 28 37 32 28 32 27 33 36 32 35 38 39 29 33 31 34 34 29 37 39 30 34 31 31 44 31 46 59 33 35 27 28 34 34 27 37 35 29 34 38 32 36 29 35 39 26 37 25 32 27 35 36 29 37 42 36 33 30 32 37 26 36 36 26 31 33 23 26 37 32 21 33 40 27 23 39 42 37 34 31 30 27 32 34 40 39 35 31 31 24 29 28 24 31 33 29 36 36 29 26 34 39 41 30 23 45 30 24 30 34 31 33 35 34 28 36 38 33 34 38 27 24 25 34 46 36 21 24 40 37 30 40 30 41 34 22 36 31 28 39 23 30 43 30 26 41 35 30 29 29 29 37 34 40 30 36 28 27 30 32 42 41 38 33 41 35 29 31 25 30 29 33 38 31 36 36 33 24 28 32 36 37 32 27 24 29 32 24 32 39 26 28 31 29 33 36 31 27 34 31 28 31 36 28 35 31 32 28 34 28 34 33 27 35 16 25 28 19 38 34 25 24 31 38 26 31 31 33 35 38 30 35 37 33 24 32 37 30 42 40 24 36 28 43 28 33 29 36 27 31 35 27 31 34 32 37 31 31 31 28 35 34 42 25 36 30 33 23 34 41 28 33 27 31 32 46 42 35 36 36 31 35 37 37 36 32 39 31 47 36 31 35 31 25 29 37 37 43 32 35 36 39 36 30 26 43 27 35 28 37 32 36 30 37 38 32 34 38 30 33 28 30 40 34 28 36 25 39 29 32 37 29 37 35 30 25 30 41 34 28 28 30 38 32 36 23 25 34 32 32 31 37 43 35 25 27 36 24 27 35 36 26 30 34 28 38 27 30 35 22 41 33 31 32 24 46 25 29 29 23 32 37 39 31 32 35 24 45 37 33 22 31 39 34 29 30 32 29 30 28 30 31 33 32 36 27 29 26 28 33 37 33 25 31 40 32 35 31 30 36 36 28 35 34 29 38 31 33 32 29 40 25 31 46 32 38 36 36 34 28 34 30 32 36 35 27 29 38 36 35 40 30 33 28 39 38 22 34 29 32 31 24 28 30 27 35 29 46 36 30 29 28 32 25 32 29 33 34 28 29 28 21 32 31 26 35 35 44 21 21 40 31 30 45 41 39 42 35 38 35 35 26 35 27 28 38 44 28 38 28 29 39 39 27 35 42 28 33 34 29 40 40 29 40 26 33 29 42 44 35 29 39 44 34 36 31 28 34 27 38 24 30 32 25 30 36 24 34 30 36 48 31 25 31 39 26 38 38 30 33 32 29 43 29 30 32 37 32 32 38 25 29 32 30 34 31 22 30 28 35 35 38 40 25 31 32 21 33 23 35 26 27 35 32 29 31 22 28 28 36 31 24 29 29 36 29 25 38 42 42 35</t>
-  </si>
-  <si>
-    <t>EXN(0.48067461397771155, 220.30157319538688, 44.578000832119045)</t>
-  </si>
-  <si>
-    <t>230 306 260 301 246 240 214 325 212 293 182 232 252 276 210 177 242 306 278 197 318 192 163 255 177 206 281 287 274 200 260 242 191 208 317 209 263 266 338 296 226 263 263 321 227 264 224 314 231 214 167 286 194 270 180 212 254 283 191 248 219 246 231 213 291 227 297 225 227 222 170 191 267 246 294 183 279 349 262 339 223 303 290 240 252 197 235 178 263 216 312 258 277 243 192 296 241 268 170 207 241 275 205 110 237 194 246 236 214 254 199 163 212 237 214 286 287 225 254 209 263 249 233 223 296 276 219 298 254 242 290 329 190 217 227 228 345 183 184 173 177 218 260 266 275 253 228 305 207 155 310 318 269 261 335 246 175 297 266 218 267 190 258 228 228 208 203 220 278 270 184 258 276 270 249 199 176 185 404 285 349 180 212 375 258 340 207 209 223 254 204 255 211 243 275 247 188 296 175 301 256 271 170 243 228 271 223 112 237 250 228 270 208 230 233 174 179 239 229 294 185 171 342 253 247 199 200 327 282 260 273 268 329 261 178 247 196 161 160 200 102 212 207 279 292 193 197 237 246 313 173 293 212 237 205 285 261 201 201 257 204 253 300 291 174 215 258 326 193 187 248 361 239 210 277 227 299 196 189 259 257 234 207 198 164 299 184 217 207 332 233 309 229 312 247 202 289 274 249 289 225 224 257 284 218 204 265 209 259 355 176 261 230 231 314 251 273 270 347 225 185 214 203 234 317 291 155 243 171 263 251 232 314 213 188 305 246 271 207 248 179 296 221 306 259 309 205 194 230 203 321 199 249 219 253 260 168 255 207 177 241 227 233 327 307 206 207 297 222 291 258 189 219 243 336 257 196 260 135 305 276 234 249 193 166 245 230 164 301 317 275 267 237 204 130 210 240 206 238 311 209 177 228 303 246 209 241 215 307 247 227 246 183 193 192 311 195 305 203 208 197 277 225 276 186 169 217 319 224 215 205 267 237 231 246 235 210 316 188 258 258 226 217 240 303 253 282 324 246 270 254 303 309 257 232 247 237 196 280 262 275 242 182 285 278 258 262 167 321 163 245 243 233 250 211 234 341 237 356 305 248 313 200 267 209 184 207 216 271 263 215 206 235 286 248 264 295 288 146 230 258 256 221 194 222 252 183 161 224 263 223 262 158 317 255 264 255 274 215 211 253 253 226 235 204 158 196 276 322 212 266 275 260 238 317 236 322 218 199 325 220 209 246 157 223 196 290 226 281 235 325 335 315 275 168 277 240 176 312 225 262 189 158 175 164 281 262 224 203 157 255 359 262 273 250 214 167 169 175 281 317 288 267 229 199 236 205 245 269 169 302 156 213 286 237 146 194 315 228 180 166 225 273 353 226 280 219 199 323 238 314 272 241 241 233 311 214 299 299 178 284 203 298 328 299 276 209 292 244 199 220 196 153 265 225 244 213 332 302 163 204 196 332 216 207 192 246 244 168 209 173 178 304 205 278 204 231 164 251 270 210 225 235 210 320 221 156 173 246 353 249 255 155 241 241 197 230 224 224 254 298 255 298 257 132 216 184 237 210 244 271 230 213 268 192 171 229 165 112 192 237 208 195 229 209 208 255 218 296 273 289 203 260 278 150 217 362 257 294 180 205 288 245 238 342 361 198 325 288 214 254 275 221 238 253 172 256 270 219 285 270 260 247 287 283 279 265 180 225 191 266 236 246 270 239 244 188 234 331 230 256 272 274 246 231 193 259 246 178 260 349 305 241 314 310 255 170 257 269 162 235 246 300 300 283 222 165 242 238 218 221 286 237 291 289 249 295 229 183 220 341 305 186 251 249 220 292 199 251 216 217 225 167 268 209 224 289 290 295 313 302 234 219 283 161 175 119 262 212 291 256 169 225 269 242 178 297 241 212 238 265 203 207 304 241 267 241 206 281 304 225 258 319 337 223 208 307 277 130 169 198 309 237 255 183 243 249 218 229 317 274 274 340 188 272 266 213 228 273 178 245 283 197 188 209 253 313 283 137 170 216 169 243 244 184 239 207 232 241 219 281 238 155 248 239 320 138 193 250 148 253 227 246 330 232 287 116 213 174 207 305 277 280 234 215 270 231 244 261 230 280 194 231 176 270 267 232 280 348 246 209 298 236 230 198 170 169 249 315 251 232 235 195 334 213 209 345 218 264 171 294 306 241 303 302 284 205 281 312 204 200 307 275 233 327 248 278 301 269 212 295 225 303 216 250 268 256 225 184 214 235 241 206 372 208 249 317 187 167 203 199 267 248 241 199 148 231 219 232 332 340 263 193 240 262 155 341 321 235 306 230 183 255 294 223 243 190 296 237 284 318 252 153 250 224 362 330 222 240 162 239 296 219 288 249 266 251 157 246 268 269 234 253 245 273 253 301 293 301 260 238 260 273 317 255 169 254 187 200 251 292 308 146 245 266 196 199 321 172 241 270 249 190 212 291 262 249 325 212 175 293 260 393 220 228 269 219 240 185 262 215 273 295 285 280 195 233 258 329 161 256 238 309 206 282 242 224 161 239 224 203 260 371 249 246 218 178 176 208 223 245 247 280 219 296 145 212 168 246 185 258 286 239 311 232 195 205 172 186 182 270 139 259 263 272 204 396 209 186 306 175 178 266 339 244 192 177 256 269 263 310 145 315 198 232 248 292 281 242 261 247 244 267 211 287 146 256 296 200 174 278 254 270 353 247 184 218 193 212 233 284 196 199 166 286 121 258 255 340 279 177 252 213 340 181 248 246 250 234 295 251 184 219 336 287 166 137 220 222 284 216 215 212 237 223 213 185 242 286 242 332 184 228 268 257 187 242 213 257 180 264 193 267 316 175 215 213 188 326 251 206 302 316 275 284 259 360 224 183 256 311 235 187 227 215 169 236 255 256 172 282 256 238 166 282 202 200 191 200 223 236 231 182 195 265 235 315 143 183 278 230 264 150 246 210 183 190 274 246 308 217 253 291 230 255 176 244 153 228 297 216 249 232 310 258 216 156 300 283 213 168 224 264 216 183 304 260 221 279 230 179 231 233 287 179 245 265 249 195 212 231 245 314 256 257 203 318 217 280 241 194 312 314 294 221 256 343 166 206 293 252 210 238 294 361 223 290 278 216 311 272 241 244 300 335 248 238 301 220 210 157 356 191 202 314 212 181 259 189 254 213 210 275 250 255 202 211 248 235 281 304 199 229 241 252 223 244 154 206 317 243 289 279 304 160 226 298 199 291 203 286 263 255 233 200 181 259 297 187 246 221 245 155 285 214 199 178 245 274 261 247 185 252 233 326 227 199 188 235 243 194 229 259 177 328 223 221 293 282 169 164 281 327 256 261 144 201 186 375 309 253 210 226 269 251 246 253 252 135 197 207 204 197 176 362 148 256 298 286 240 228 163 292 269 333 194 221 229 234 185 326 207 358 243 253 262 158 211 220 252 250 338 186 247 193 277 269 356 225 239 155 223 191 296 173 208 213 233 235 259 287 202 299 263 128 187 393 279 260 110 156 248 230 206 233 272 268 250 258 247 184 159 262 284 180 167 250 275 213 211 198 252 188 212 246 310 245 260 196 244 260 216 257 221 278 271 232 254 250 280 253 290 235 335 291 361 265 259 238 326 307 260 227 278 287 200 220 250 230 316 173 219 367 313 216 188 372 185 153 218 307 292 265 253 274 180 309 215 258 203 234 198 202 220 271 233 191 357 194 147 246 189 182 244 259 289 290 350 164 218 267 219 311 269 371 193 192 258 346 207 222 281 259 214 214 214 103 289 319 234 213 213 210 230 208 263 251 290 293 275 296 238 262 275 290 284 230 200 219 228 168 170 248 206 235 246 301 177 301 277 241 169 246 175 278 265 218 267 246 212 200 322 316 252 247 151 282 301 254 255 233 207 293 222 237 224 218 213 244 179 276 283 196 299 207 271 255 212 183 292 255 273 176 289 152 249 165 235 168 204 248 235 294 319 258 255 248 268 238 289 152 271 228 223 220 252 128 201 245 274 288 260 249 150 253 217 283 202 162 273 198 327 173 154 213 240 167 245 216 230 145 269 274 261 236 247 309 232 343 238 250 227 174 193 201 294 304 296 220 176 179 283 306 280 229 334 339 217 277 217 204 302 206 304 233 360 225 215 221 251 325 332 328 244 265 191 247 216 297 246 282 223 266 171 202 231 177 232 239 338 400 241 352 232 314 156 168 299 288 249 146 237 293 145 246 231 289 143 328 303 293 290 221 208 184 285 241 230 207 188 257 180 228 190 203 247 198 267 248 215 318 217 146 234 311 248 288 264 193 383 197 228 220 253 264 319 290 290 239 193 201 239 167 239 217 188 202 136 243 315 236 287 234 310 256 234 259 291 193 266 287 244 146 283 236 231 275 274 189 258 261 284 185 328 211 202 230 245 246 244 263 255 254 211 279 244 168 178 258 266 203 245 305 215 218 229 183 260 155 253 251 183 206 318 224 259 225 197 242 227 268 361 202 258 287 275 363 173 205 281 278 195 160 212 208 254 263 255 304 221 244 333 244 276 236 262 261 214 228 306 205 267 220 239 220 164 259 191 276 164 308 220 310 186 267 222 279 236 238 150 303 189 213 272 208 225 228 187 212 254 204 229 246 284 257 240 206 312 203 283 174 266 189 246 246 240 222 238 289 185 224 318 182 304 210 246 283 217 213 305 316 247 266 204 263 211 162 249 309 263 289 193 298 237 228 228 248 236 209 297 283 236 289 216 184 243 245 389 196 340 221 226 260 275 302 216 182 245 226 229 251 299 222 258 142 211 263 328 292 222 305 256 265 224 310 209 191 234 280 210 269 210 277 227 251 246 221 251 184 317 266 230 260 188 302 260 321 210 236 185 239 280 283 251 202 301 274 167 301 192 401 215 140 227 268 245 345 218 269 257 242 272 298 194 150 238 253 209 274 294 232 207 273 182 272 274 222 204 221 209 156 271 278 321 186 219 240 278 220 290 236 218 320 166 292 234 211 284 236 272 258 366 174 251 286 213 258 255 166 251 215 256 246 189 258 133 275 328 169 267 274 271 237 214 280 299 165 294 190 246 256 185 316 265 294 272 216 211 238 271 230 226 204 236 130 192 276 304 270 354 218 256 199 202 275 229 208 242 269 294 206 167 248 215 214 213 233 207 248 155 355 189 252 287 266 251 273 196 276 123 277 226 235 280 295 216 186 295 262 193 268 237 335 269 210 306 199 260 246 197 220 197 239 224 304 235 188 222 321 264 255 268 252 231 193 308 212 225 254 216 288 239 292 217 229 268 196 180 262 199 257 263 132 228 203 269 265 272 251 204 200 289 243 244 202 240 228 380 246 345 151 334 245 304 150 273 283 329 211 259 246 193 320 297 229 151 281 238 361 225 268 191 255 227 256 202 318 298 296 224 229 244 321 196 264 181 296 151 209 298 248 255 245 266 252 288 152 240 161 258 243 233 202 172 212 328 177 204 232 282 283 257 251 189 237 321 269 255 241 258 230 274 257 240 283 218 287 266 221 288 208 243 252 194 207 241 331 371 373 261 233 203 177 251 227 207 177 251 259 255 307 303 236 173 331 244 220 219 216 313 328 201 251 310 244 242 165 211 259 258 249 229 244 242 169 239 147 204 268 223 280 228 267 193 204 107 262 210 327 264 296 218 248 198 191 266 328 151 245 296 335 276 244 268 226 210 129 213 353 239 239 210 212 224 271 335 218 239 215 279 157 211 208 190 256 271 199 275 184 218 275 154 279 244 171 342 258 251 339 175 188 405 203 208 238 260 139 159 226 281 285 300 145 262 260 363 256 264 243 277 261 226 273 251 205 244 208 222 254 281 133 255 280 216 270 337 237 209 161 199 219 219 218 277 262 273 175 338 240 294 233 219 273 255 160 215 283 322 239 256 231 281 246 286 188 306 245 252 176 159 257 261 263 207 219 179 310 405 253 223 172 216 235 217 272 248 235 209 277 253 253 161 258 296 256 199 160 222 183 211 203 233 216 175 236 376 255 189 218 227 248 204 322 294 255 184 224 145 205 177 326 220 163 216 104 215 257 250 215 244 294 301 226 227 285 261 232 281 305 265 143 272 217 275 300 249 250 204 270 249 298 272 191 250 196 219 310 227 287 273 172 294 300 251 180 337 220 312 179 254 261 181 186 277 147 234 223 388 177 249 293 236 258 296 276 163 267 249 200 150 277 291 187 199 238 245 246 273 207 191 214 183 294 284 268 177 201 279 216 300 229 264 298 266 239 214 281 208 190 143 383 376 221 268 149 303 281 225 262 273 237 237 234 189 202 136 157 386 180 212 241 195 244 184 234 301 313 272 229 340 221 271 259 303 178 151 325 209 215 239 190 327 239 275 283 262 339 256 320 230 217 276 182 182 252 252 239 262 285 235 174 322 260 220 324 247 290 312 178 258 273 255 241 222 255 170 273 179 266 129 221 237 237 262 202 267 169 185 228 262 217 227 219 181 230 252 205 295 184 297 216 272 321 241 296 288 245 226 268 275 274 189 218 260 181 253 216 236 260 321 195 236 287 349 290 196 273 183 185 235 304 238 203 225 115 268 227 237 257 238 290 318 254 295 235 269 157 191 287 365 264 188 245 287 233 228 220 189 195 165 278 193 195 244 211 252 202 260 279 303 240 235 171 182 223 241 269 263 274 236 256 216 142 236 289 237 250 286 216 267 257 229 243 177 315 87 194 285 175 194 242 247 284 231 229 248 229 287 103 211 256 166 260 249 202 328 167 227 247 284 163 348 231 267 257 270 296 198 228 362 297 201 228 244 205 213 198 223 279 229 256 254 248 169 231 161 248 189 230 220 282 210 288 289 237 189 247 369 241 256 242 263 290 159 226 260 275 332 124 287 243 217 219 216 287 249 233 214 221 149 311 209 214 310 231 202 255 213 284 265 313 256 169 236 273 267 282 248 267 238 169 236 250 180 234 206 305 228 298 201 258 177 288 215 217 126 270 239 264 224 228 181 197 245 220 266 231 240 270 196 271 254 282 296 264 203 224 319 210 341 206 153 258 261 207 280 312 293 178 289 218 275 214 255 205 288 334 241 273 218 233 304 241 311 239 210 262 219 251 294 164 241 200 274 216 189 338 241 180 258 222 143 237 273 178 175 270 227 245 172 217 312 282 289 150 318 182 261 361 211 162 232 257 248 251 289 226 245 192 215 266 209 235 220 208 300 263 196 251 274 272 210 251 237 286 245 234 247 213 220 160 185 178 244 212 172 202 290 262 245 136 216 169 196 226 289 206 179 242 243 320 191 203 146 196 218 329 253 225 253 164 308 320 180 284 222 253 261 226 294 199 262 160 273 284 145 216 342 200 280 311 338 263 236 216 281 255 263 292 226 140 275 167 204 279 214 219 277 245 269 193 292 211 200 153 212 192 320 309 300 184 309 146 231 223 228 340 280 256 241 215 160 280 189 390 280 201 190 270 313 200 298 204 198 329 241 231 196 205 222 218 245 323 244 190 207 345 306 238 312 246 267 305 267 238 252 256 198 235 235 230 216 193 214 184 299 240 232 275 261 216 227 173 195 129 221 178 218 347 261 228 158 292 188 271 256 216 249 316 211 258 313 189 277 196 151 268 270 211 299 305 320 145 191 395 236 204 94 299 271 171 252 254 185 228 345 249 240 256 211 241 245 166 298 293 203 217 316 244 312 258 258 248 258 310 211 199 214 215 267 340 211 232 245 232 394 214 182 287 218 217 256 321 332 254 218 289 227 236 286 263 235 198 258 190 215 285 273 269 156 199 280 248 274 400 195 253 202 202 299 173 183 187 281 304 181 270 233 432 330 117 306 235 136 309 352 249 208 211 199 256 244 173 238 261 272 236 219 134 215 195 198 286 229 241 339 233 210 278 188 223 238 258 232 314 364 316 284 322 213 206 203 238 257 232 172 183 313 234 346 169 296 253 177 361 220 271 254 291 173 312 239 269 231 232 186 271 163 335 215 297 298 323 239 385 191 164 192 188 218 232 270 190 199 202 264 309 201 262 271 221 249 242 170 291 281 268 393 192 218 248 267 324 240 173 195 229 221 176 192 247 212 284 240 221 201 268 229 258 163 249 171 319 268 137 280 304 298 279 328 327 214 251 295 236 206 270 176 253 210 274 280 245 276 219 226 284 187 269 136 290 264 270 245 222 241 373 330 263 258 155 344 264 245 190 247 281 266 293 199 201 375 312 248 191 223 267 224 220 270 284 223 339 198 306 309 195 201 204 317 293 221 170 219 278 343 208 157 316 140 167 252 268 230 336 149 278 255 188 310 236 267 284 272 289 269 159 200 206 229 214 174 220 281 195 194 232 255 273 273 259 230 248 209 254 269 315 243 287 262 243 246 217 164 259 302 208 194 220 251 213 143 273 227 242 190 252 207 318 285 222 117 234 220 231 222 176 243 267 206 271 244 382 225 290 279 190 294 233 279 234 278 200 302 203 227 233 293 289 243 254 268 183 252 248 239 176 188 322 202 353 238 262 160 186 246 254 267 221 203 258 168 256 322 219 262 211 200 316 287 239 223 336 222 248 226 238 248 352 263 179 276 258 199 344 226 277 210 207 146 253 271 257 237 219 244 282 191 249 254 171 344 309 267 177 253 178 184 265 162 218 295 204 247 178 301 295 221 249 186 287 306 313 287 209 247 197 252 194 328 157 262 239 216 246 233 271 218 177 128 259 164 274 226 149 235 226 171 242 265 282 250 182 187 203 293 164 192 235 250 318 206 304 281 222 342 394 261 308 178 288 199 252 279 216 270 314 160 235 220 180 240 229 253 156 229 263 181 200 318 246 299 257 212 278 302 187 256 323 191 202 248 302 296 226 193 327 187 310 285 157 198 254 246 285 286 173 316 195 184 219 253 324 319 267 252 150 227 312 253 237 243 271 331 189 232 218 268 259 170 176 198 215 208 140 257 258 218 273 216 232 266 274 239 287 239 222 203 235 289 258 239 264 155 267 312 286 226 270 174 245 226 338 195 217 237 279 364 251 219 239 171 187 267 229 280 176 144 311 236 217 237 240 146 205 335 229 225 249 238 172 244 179 303 237 213 166 185 326 231 198 257 245 220 278 157 206 328 361 195 232 151 322 227 373 259 274 191 301 272 318 274 165 233 289 153 244 301 191 389 240 323 193 303 256 228 280 225 203 227 232 335 280 182 314 231 224 250 272 241 250 330 228 216 236 211 198 175 390 203 260 238 306 197 204 226 256 300 202 307 198 256 259 270 181 263 209 221 226 296 247 250 235 313 294 233 192 263 187 178 278 245 225 219 242 255 214 263 254 144 262 266 203 248 279 176 190 200 125 198 287 253 177 214 133 214 289 179 218 221 298 217 328 158 279 211 172 286 241 222 255 222 233 228 209 200 279 198 162 217 311 281 234 210 182 272 313 197 222 335 236 260 246 172 178 260 268 298 188 251 294 282 307 323 170 213 247 230 270 173 231 279 322 264 271 323 249 303 276 263 330 263 238 126 204 352 254 294 216 110 239 190 276 292 193 224 246 221 237 129 273 290 282 248 242 207 195 224 200 239 148 277 260 251 300 210 236 242 217 185 221 284 193 259 251 303 233 137 277 245 176 267 269 196 249 257 210 271 293 221 367 272 294 287 165 195 187 193 191 255 328 248 275 215 288 185 278 202 278 302 153 195 277 242 185 161 258 271 258 360 262 282 157 293 210 195 259 203 251 247 340 245 288 296 252 263 196 218 256 325 233 170 267 136 216 228 195 198 292 221 221 206 287 226 233 404 327 361 256 313 164 209 263 336 252 210 267 324 209 194 195 299 166 203 428 249 223 357 308 215 252 179 277 233 224 186 262 274 315 246 183 252 270 317 212 346 263 217 260 205 301 240 179 217 289 287 244 168 256 249 254 185 249 278 252 244 304 263 252 265 187 220 264 275 263 260 259 206 186 253 130 186 327 177 310 271 230 221 214 285 225 205 203 177 149 238 272 293 275 273 223 277 259 288 268 212 210 180 245 266 272 243 243 249 257 157 239 193 228 265 223 188 199 222 283 236 284 182 311 209 272 241 130 326 296 169 215 235 236 224 241 225 228 277 222 182 327 229 293 297 161 375 253 214 255 260 377 276 254 229 201 274 283 197 279 232 250 189 241 265 215 276 253 173 261 323 210 244 233 333 355 140 243 263 182 217 359 125 232 156 232 276 256 232 278 264 248 194 209 327 291 219 218 298 218 245 167 322 160 242 186 210 260 264 208 202 216 192 219 203 209 156 176 286 304 173 293 269 219 226 192 172 303 184 216 280 232 288 257 262 268 257 196 189 158 256 170 281 172 285 252 264 165 155 242 221 229 259 231 213 303 312 252 315 267 237 311 264 241 138 311 183 224 266 298 262 186 182 153 216 232 178 316 336 269 189 161 275 319 319 287 297 253 211 204 248 241 338 301 133 311 249 277 246 157 242 214 219 224 234 235 168 266 232 219 181 266 307 265 234 222 151 271 252 225 236 299 227 194 239 272 265 223 186 212 259 262 257 245 150 275 296 334 269 230 143 274 261 271 344 189 250 195 232 235 134 210 212 299 230 348 230 321 257 210 225 198 250 196 220 199 259 310 214 370 239 243 340 321 219 236 317 194 213 243 282 324 272 246 237 211 282 191 282 204 251 250 326 193 143 272 136 193 340 305 182 241 268 319 183 399 334 252 212 330 214 253 222 297 245 255 248 140 228 206 317 174 325 261 188 285 219 246 255 273 254 294 244 339 286 157 121 266 286 203 203 221 278 295 237 170 334 237 126 238 233 247 232 303 190 211 212 301 193 289 210 226 207 368 236 231 137 248 228 211 183 315 241 193 235 276 291 255 288 209 192 243 239 202 238 346 334 323 220 313 113 259 193 233 236 235 200 168 225 273 249 292 239 171 277 267 204 251 121 240 187 262 251 260 291 253 224 198 275 306 179 237 275 233 209 245 282 241 250 237 141 273 194 206 317 241 265 230 260 208 181 155 230 318 252 193 204 242 247 234 219 221 275 265 181 228 247 266 215 281 222 229 195 259 220 252 211 237 231 314 254 285 234 157 262 201 226 145 267 301 85 248 305 221 187 157 295 304 222 247 260 303 261 277 208 278 326 317 181 173 142 218 209 302 233 287 299 254 226 195 208 224 253 278 239 211 171 235 163 241 203 242 236 228 184 273 237 267 238 245 240 214 228 268 212 260 209 216 207 241 279 238 216 273 204 278 171 239 150 176 179 212 141 231 297 339 207 223 263 147 191 274 244 349 198 222 147 253 228 264 287 217 245 339 213 220 237 275 305 182 313 288 328 181 238 231 285 237 289 307 228 284 239 245 186 145 228 237 246 271 203 249 270 247 258 195 222 275 221 174 266 302 214 256 221 228 261 261 260 297 138 225 232 198 252 197 205 263 228 286 273 222 304 147 242 213 224 254 204 188 201 266 259 249 246 181 286 170 300 165 263 223 224 296 317 256 155 192 265 249 197 259 231 207 229 319 345 245 217 239 207 255 161 221 261 248 160 239 258 274 207 313 177 276 224 273 187 231 218 243 158 235 309 312 194 296 330 158 250 160 257 274 122 178 199 211 288 283 185 232 260 285 243 251 347 328 288 263 156 255 221 252 188 305 240 231 219 195 264 218 189 256 249 160 170 235 287 203 331 238 276 331 306 246 305 317 219 236 212 301 171 261 152 245 251 265 240 300 277 242 232 235 228 217 241 304 247 276 231 173 176 236 255 279 233 354 278 208 233 196 283 315 215 298 259 358 159 233 238 320 303 195 271 247 292 229 246 237 250 263 311 283 164 301 203 266 288 362 288 152 217 264 208 292 308 200 270 181 278 342 342 215 284 253 236 334 278 285 197 222 260 222 179 286 340 207 259 344 265 219 315 235 301 173 254 238 284 279 215 266 322 223 210 213 229 311 216 232 196 258 227 275 285 357 204 241 189 228 214 219 175 284 154 269 213 178 321 225 281 299 217 304 274 259 275 357 231 265 235 244 196 213 219 178 209 203 239 247 232 223 177 248 171 208 239 287 221 250 202 254 233 259 121 291 261 216 293 296 310 225 243 312 249 184 177 230 231 249 335 274 273 213 298 276 163 228 175 283 195 215 231 233 263 209 175 213 301 224 249 264 279 276 242 224 198 205 123 200 250 220 268 143 331 260 260 235 271 276 126 210 193 215 225 295 200 373 241 188 249 238 194 282 200 264 242 117 219 241 230 326 200 307 184 276 235 236 159 244 261 284 237 318 212 219 253 267 205 243 241 267 366 197 298 186 205 171 184 251 297 302 309 208 296 256 341 250 275 228 156 254 241 262 289 267 182 286 232 240 102 222 329 204 258 253 212 191 260 207 309 364 219 202 170 240 152 208 327 183 251 275 232 228 302 297 237 180 218 279 236 227 275 144 344 187 204 277 325 159 269 269 243 249 234 186 225 177 275 250 307 245 135 200 247 239 302 272 222 251 235 197 290 234 191 248 256 241 230 252 245 262 254 270 222 277 235 183 292 292 231 267 243 236 295 191 195 257 265 261 269 351 223 227 129 263 184 202 211 324 198 284 293 280 262 147 193 233 272 312 238 240 237 264 229 301 149 187 229 225 231 230 335 298 274 227 256 144 242 175 220 237 205 221 146 228 216 272 215 231 243 215 302 231 203 246 248 256 274 319 278 294 346 246 211 262 248 188 252 242 223 236 228 229 217 233 218 304 262 203 272 165 248 151 213 297 164 263 260 248 215 305 262 286 172 297 261 285 178 242 240 307 263 138 228 226 248 309 237 278 172 295 302 172 287 235 251 282 249 292 178 161 255 242 198 186 219 260 254 186 224 205 287 256 253 236 240 207 242 227 176 253 265 278 276 306 169 199 254 287 270 282 209 291 231 279 157 259 184 203 190 296 316 207 239 222 264 283 336 241 211 231 350 162 304 316 242 246 163 201 192 248 296 246 261 347 220 204 128 294 240 234 209 259 141 344 229 286 219 296 173 199 312 245 244 173 230 162 208 239 197 164 286 257 280 161 294 196 164 244 206 175 180 260 212 234 163 239 286 212 283 317 255 250 166 308 227 172 210 233 368 160 273 287 199 235 236 231 350 306 306 204 293 168 228 198 293 191 383 278 258 171 245 226 235 140 208 203 234 254 332 292 244 264 238 223 258 206 332 223 268 176 247 213 291 325 237 204 194 218 265 255 298 292 321 221 243 254 174 294 264 323 204 244 250 194 237 146 251 264 144 296 247 334 213 234 256 200 192 225 264 304 311 180 267 364 254 243 233 237 234 245 222 192 337 113 220 193 356 362 310 250 217 270 228 351 156 271 241 175 203 234 197 235 251 211 209 269 253 304 304 257 307 244 230 198 278 168 288 255 258 269 265 272 194 163 204 215 283 285 221 188 263 364 196 223 344 289 197 252 295 208 237 299 302 222 183 204 145 213 231 186 239 257 277 236 230 193 180 248 212 239 315 208 238 342 192 338 239 323 256 242 228 214 160 285 185 201 151 227 357 172 222 236 137 180 261 268 234 279 349 300 203 205 122 154 359 215 323 177 246 247 232 220 294 291 234 329 300 242 206 184 216 247 191 235 285 247 229 239 274 249 279 177 243 226 167 212 235 334 247 186 146 322 292 168 225 236 217 194 223 206 245 216 309 249 277 162 220 286 244 311 266 341 199 270 329 223 242 194 297 185 263 238 207 304 211 293 267 190 233 370 294 243 140 222 207 260 271 317 302 249 246 240 272 228 223 205 168 257 193 234 133 220 245 349 248 163 260 255 146 192 277 190 260 305 215 292 239 237 211 232 278 231 301 350 245 276 234 192 246 232 327 246 225 220 251 174 291 219 201 225 231 230 278 182 41 200 254 203 307 257 253 305 276 155 236 238 261 211 185 226 200 290 239 188 264 258 317 247 185 218 351 241 276 266 314 241 228 277 178 195 218 191 279 248 239 260 200 282 302 316 191 214 178 283 247 232 282 262 258 244 225 304 293 156 247 227 285 210 228 228 249 183 175 339 180 259 265 251 341 258 209 202 177 196 305 308 155 140 216 291 290 239 261 245 210 252 269 229 294 198 284 265 184 258 278 262 275 255 237 213 284 271 247 190 277 234 283 213 232 374 277 240 137 115 202 244 231 256 258 253 249 252 190 199 271 342 376 157 314 236 179 254 248 254 186 244 249 216 296 297 227 209 297 228 213 323 255 172 234 242 260 218 295 236 275 190 242 278 202 324 179 173 248 310 167 318 241 208 247 391 219 222 244 190 238 244 223 263 218 199 232 251 297 359 244 308 245 297 260 205 164 239 243 84 246 235 262 276 274 247 204 294 227 338 276 266 290 237 203 253 374 242 246 310 117 176 268 203 191 318 188 239 234 247 264 197 187 207 202 247 151 141 190 332 182 349 252 295 248 159 306 226 127 248 272 234 267 278 174 240 221 256 214 193 228 316 252 320 160 180 363 176 173 360 287 236 213 234 142 201 201 232 261 119 139 165 189 226 257 177 187 260 290 275 285 227 204 296 288 187 236 198 339 193 196 244 316 229 182 234 337 283 229 258 294 213 212 164 255 347 253 228 244 230 207 266 278 330 166 178 270 291 284 204 292 214 250 297 256 236 199 215 364 316 212 166 297 310 252 246 176 213 193 413 217 182 229 320 268 331 218 268 237 267 290 310 175 151 267 236 134 329 220 270 205 217 211 279 280 212 288 335 221 340 225 245 244 199 227 235 158 202 325 233 211 291 253 212 222 259 304 266 202 315 253 110 278 285 202 241 237 277 232 219 207 244 343 265 266 168 206 275 343 243 321 193 229 227 288 428 166 288 249 197 200 305 281 222 196 182 273 234 310 247 317 369 188 210 175 274 230 260 254 271 228 198 212 234 221 263 167 261 194 216 189 291 283 216 288 234 267 232 179 178 293 267 176 152 239 244 263 178 254 257 141 191 249 247 182 346 203 352 227 240 231 185 249 239 351 183 199 223 216 209 235 255 283 233 120 205 232 285 265 153 209 282 161 322 224 240 320 357 222 252 184 251 266 259 256 169 229 306 201 201 294 196 253 232 196 172 240 242 325 187 303 226 256 312 284 252 208 264 228 302 213 308 244 297 206 283 254 256 426 284 189 267 230 209 208 306 231 310 278 268 273 216 209 261 276 261 244 225 283 238 181 214 283 191 308 312 303 158 207 90 265 273 280 238 189 314 214 281 211 300 227 208 141 303 151 79 190 251 148 232 281 261 306 175 233 248 243 215 286 224 296 231 172 264 319 251 171 253 269 136 287 219 301 262 219 192 232 199 280 165 261 240 252 191 227 207 227 229 237 313 137 146 238 393 216 296 245 184 203 256 233 233 188 200 232 289 241 195 340 185 265 229 286 197 208 246 265 384 271 324 255 232 229 300 229 209 217 161 214 287 243 263 321 232 262 223 229 217 261 219 255 233 223 209 259 249 205 224 284 273 201 210 237 274 195 274 190 198 168 170 197 256 284 276 229 230 199 361 305 190 274 285 260 257 231 184 291 309 200 212 261 224 281 229 282 193 263 287 228 291 182 221 245 189 184 272 156 333 234 213 258 222 164 348 224 210 180 191 238 195 165 257 208 216 272 261 275 189 165 256 260 282 268 281 216 320 255 284 272 300 160 278 146 186 215 172 302 159 165 349 230 238 164 215 295 240 209 111 263 182 138 254 261 180 198 311 189 299 306 217 312 195 166 175 128 259 278 243 250 249 234 364 291 163 244 219 191 225 127 327 246 246 236 209 154 241 279 215 270 223 292 231 178 242 203 219 157 214 224 262 364 264 247 265 189 155 215 245 268 275 197 292 292 214 227 214 286 314 192 198 138 234 262 242 270 233 284 153 235 331 235 175 338 301 285 265 277 300 149 260 381 176 247 217 189 253 270 270 182 253 263 291 342 264 278 243 269 283 258 239 224 169 292 169 237 203 223 260 237 133 209 195 205 262 264 367 209 335 215 215 236 240 181 297 205 258 236 284 271 316 242 276 276 378 368 243 272 323 224 220 197 177 203 148 201 265 111 219 187 204 252 199 255 254 192 207 295 274 229 274 276 116 244 304 230 296 282 215 208 265 179 203 128 230 250 244 223 306 208 202 180 258 180 275 206 207 334 377 215 254 205 228 160 342 259 272 287 150 215 183 231 125 232 304 190 199 247 250 191 234 344 225 187 295 259 269 300 251 233 339 255 342 190 304 212 229 233 305 169 245 233 231 283 301 216 175 268 295 332 238 302 191 270 229 259 146 295 272 312 266 224 236 231 281 189 187 158 242 215 229 218 265 256 262 331 236 172 242 148 227 183 248 258 166 181 216 256 229 195 213 207 216 184 298 225 155 224 201 208 326 216 276 276 310 292 283 281 208 195 112 141 269 203 266 234 240 206 168 195 239 251 185 288 193 166 202 306 180 180 278 234 256 237 189 302 294 244 226 148 132 285 206 148 286 257 133 169 232 310 283 187 204 240 250 240 281 302 177 232 199 169 261 237 205 275 192 230 259 208 242 284 278 165 201 264 351 254 175 276 285 245 242 179 309 245 213 344 233 305 211 221 168 319 257 259 239 141 193 284 203 245 292 185 274 275 177 288 194 227 278 302 212 224 184 236 258 175 262 298 226 217 265 280 217 241 220 194 209 266 236 232 276 282 235 274 170 305 239 193 245 215 321 329 280 259 284 293 285 154 245 189 322 206 304 138 358 223 254 283 198 164 298 268 199 305 183 258 318 214 240 296 191 303 296 228 222 209 280 209 181 253 327 186 221 259 180 288 261 252 299 231 367 204 176 212 211 241 252 246 219 315 284 345 351 214 264 240 181 150 232 229 250 226 250 250 229 262 244 307 244 242 248 273 264 196 320 213 248 224 262 344 253 280 256 236 297 293 279 302 225 226 205 288 232 286 256 229 164 224 213 179 223 195 91 218 179 297 217 178 245 253 148 241 192 284 189 253 199 340 240 271 218 283 289 326 222 301 274 221 279 322 369 183 214 126 214 311 333 214 182 284 216 219 197 324 229 296 246 164 187 239 182 275 347 221 224 260 276 235 315 218 337 202 345 372 271 253 192 210 183 267 166 203 255 222 228 288 229 243 211 260 237 256 250 288 264 237 179 271 263 322 215 239 210 273 210 288 176 186 149 316 195 238 225 266 323 230 190 294 193 238 229 252 195 300 141 166 342 234 224 224 158 278 316 190 187 245 221 252 219 290 157 347 268 196 292 174 211 204 250 250 251 256 231 309 193 257 217 200 244 212 228 286 141 217 234 174 260 237 267 290 233 223 156 209 319 384 206 319 192 202 309 263 306 174 267 168 211 192 224 225 286 275 285 190 174 291 326 188 308 202 164 242 303 267 349 277 195 228 196 210 224 202 157 167 252 214 254 259 211 282 224 275 198 233 338 227 370 219 228 240 219 237 228 284 212 259 193 259 290 206 193 190 273 254 156 200 206 209 294 224 266 323 167 262 271 201 318 242 227 268 280 160 140 259 237 232 227 254 269 261 269 230 243 268 244 309 237 299 219 281 297 318 253 215 281 223 177 306 236 179 258 246 315 313 255 232 194 301 197 249 239 256 209 161 148 186 219 228 162 258 126 280 308 273 219 208 316 213 283 220 245 346 161 313 229 246 257 263 251 277 277 222 278 222 249 235 239 227 301 243 242 263 239 173 264 103 330 172 271 249 357 213 207 236 186 273 266 251 163 279 187 211 230 163 191 219 300 289 242 267 302 228 194 278 251 332 256 180 353 297 253 150 142 225 390 219 315 335 253 262 180 250 222 226 297 233 143 230 228 207 138 245 267 283 220 258 260 227 262 295 278 348 225 193 247 118 380 223 234 276 219 223 321 227 173 233 230 241 302 233 402 160 251 351 234 155 291 323 299 241 158 268 212 303 283 209 212 290 262 159 153 226 354 293 285 173 288 287 320 154 291 212 302 163 157 248 222 136 210 252 185 271 350 195 211 180 256 359 250 217 201 200 248 300 260 270 176 230 266 323 266 323 209 293 221 288 193 154 241 153 294 248 230 195 278 251 236 257 360 272 274 270 213 230 226 273 200 237 194 199 339 325 288 211 243 260 138 220 300 164 218 274 213 157 306 222 196 257 275 227 336 254 277 213 224 279 254 265 221 226 270 224 228 237 264 273 308 200 234 197 264 245 192 197 183 259 258 265 253 260 206 330 291 340 280 225 327 112 220 260 236 202 250 205 196 323 126 171 238 204 209 274 227 254 197 203 186 241 244 255 267 282 261 348 213 235 364 244 142 247 199 214 287 213 193 239 190 223 329 231 213 264 229 191 229 177 238 287 310 217 284 263 306 381 313 292 241 251 260 297 207 234 214 240 165 327 259 157 246 197 206 306 216 192 218 207 200 248 266 282 125 224 204 268 248 201 283 302 215 224 191 255 175 276 254 267 225 286 213 194 299 283 261 369 277 199 291 215 132 323 287 260 242 263 350 254 262 316 215 270 188 254 250 295</t>
-  </si>
-  <si>
-    <t>F(1.439726817026352, 1.2228876321811435, -1.9123459933260866e-30, 1.3389965485950968)</t>
-  </si>
-  <si>
-    <t>2 3 0 2 1 1 1 2 3 2 1 2 0 2 1 1 1 1 3 2 4 1 0 3 0 1 4 3 2 1 1 1 0 1 2 1 2 2 3 2 1 1 2 1 1 1 2 0 3 1 0 2 0 1 1 3 3 2 2 2 1 2 2 1 1 2 2 1 1 1 2 1 3 2 1 0 3 2 2 1 2 2 2 2 1 3 3 2 3 0 1 0 3 2 1 2 1 0 1 0 1 2 0 1 1 1 0 1 2 0 2 2 2 1 1 4 3 2 2 3 2 1 4 0 3 2 2 2 1 2 2 2 1 2 0 0 1 1 1 1 1 2 3 0 3 2 2 0 2 1 3 2 0 0 2 3 1 3 3 0 2 2 2 1 2 1 2 1 2 1 3 0 1 2 0 1 0 1 2 3 1 0 3 1 1 4 2 1 2 0 2 0 2 2 4 1 3 2 1 1 1 1 0 1 2 0 1 1 2 1 3 1 1 1 3 0 1 2 2 3 0 2 2 2 2 1 3 1 1 3 3 2 1 1 0 1 2 0 2 2 1 1 2 1 0 1 0 1 2 0 0 2 1 1 2 1 0 1 1 1 2 3 2 1 2 3 2 1 0 1 1 2 1 0 2 2 4 3 1 1 1 1 2 0 2 0 1 1 0 2 1 1 0 2 2 2 1 1 1 0 1 3 2 3 1 1 1 2 1 3 2 1 3 2 3 3 1 1 2 1 2 0 2 1 2 3 2 1 2 3 2 0 1 2 1 0 2 1 3 2 1 1 1 2 1 3 2 1 2 1 2 3 3 0 2 4 1 3 0 1 4 0 1 3 3 1 1 2 1 0 1 0 1 1 2 2 2 0 0 2 1 3 1 1 1 1 1 0 2 1 2 1 2 0 0 0 2 0 1 2 2 2 1 0 1 2 1 2 3 2 2 2 0 0 1 1 2 2 0 0 1 2 2 1 2 1 1 1 2 1 1 2 0 2 2 0 0 1 0 2 2 1 1 1 1 1 2 3 1 1 1 2 3 1 2 1 3 1 1 2 1 1 2 2 1 3 3 1 1 1 0 0 2 4 1 0 3 1 2 2 1 2 1 1 0 1 0 2 1 0 3 2 1 3 1 0 2 1 0 2 2 3 2 1 2 2 2 3 1 2 1 1 2 2 3 0 1 1 1 1 2 2 1 1 0 0 0 2 1 0 0 1 1 0 2 0 2 3 1 0 0 1 2 2 2 1 2 2 1 0 1 2 3 1 1 2 0 1 3 2 2 0 1 0 1 2 2 2 1 2 1 3 0 2 1 2 3 2 2 1 0 1 3 2 0 0 1 2 1 1 1 0 1 1 1 0 0 1 1 1 0 0 1 3 1 3 2 3 2 1 0 2 0 2 1 2 0 4 0 1 1 1 1 2 1 2 1 4 1 2 2 1 1 3 2 0 1 2 0 2 1 2 1 2 1 2 1 2 0 1 2 3 1 1 0 3 0 2 3 0 1 1 2 0 1 1 1 0 4 3 2 2 0 0 1 0 1 2 2 1 1 1 1 1 0 2 1 0 0 0 3 1 0 3 2 1 2 0 0 0 1 2 0 3 1 1 3 1 1 1 3 2 2 2 2 0 1 2 2 1 3 1 1 4 1 1 3 1 2 2 3 2 2 0 1 1 0 0 0 2 3 0 2 3 2 2 3 1 1 1 4 2 1 1 1 2 2 0 1 1 2 1 1 1 1 0 1 1 1 1 3 0 0 3 2 3 2 3 2 0 1 2 3 1 2 1 2 1 2 0 1 0 1 2 1 0 1 1 0 1 2 1 0 1 2 2 1 1 2 1 1 2 1 1 3 2 2 2 2 3 1 1 3 1 0 1 0 1 3 1 0 2 1 2 1 1 1 1 2 2 2 1 1 1 2 2 1 2 1 2 1 1 2 3 2 1 1 1 2 0 1 2 2 2 1 1 1 3 0 1 3 2 1 0 1 1 1 2 3 2 2 3 1 1 1 1 3 4 3 0 0 0 1 1 0 1 2 4 1 2 1 3 0 2 3 1 0 3 0 1 2 1 1 2 3 1 1 2 0 2 0 2 1 3 3 1 1 0 2 1 1 1 1 2 2 2 2 0 2 1 2 2 5 2 1 0 2 2 3 1 1 2 2 1 2 0 2 2 2 1 2 0 1 1 1 1 1 2 3 2 1 1 0 2 3 1 1 3 2 2 1 1 1 3 1 1 2 1 4 1 3 1 1 5 1 2 1 1 0 1 2 0 2 1 0 0 2 1 0 4 2 3 1 1 1 0 2 2 2 3 0 1 3 0 1 1 0 4 1 2 1 1 2 1 3 3 1 1 1 0 1 2 1 4 3 2 2 0 2 2 1 2 2 0 1 1 0 2 0 3 1 2 3 1 2 1 1 1 2 2 2 2 1 1 2 2 0 2 1 1 1 3 1 2 2 3 1 1 2 0 1 0 3 0 0 1 1 2 0 1 2 0 2 2 1 1 1 3 2 1 2 1 3 1 3 0 1 1 3 2 1 1 2 1 0 0 1 1 2 1 1 2 0 1 1 1 1 1 3 2 2 1 1 1 2 1 2 1 1 1 0 0 1 1 3 1 5 2 0 1 0 2 0 3 1 2 0 4 1 2 1 0 2 1 1 2 2 2 2 2 2 1 2 2 2 0 0 2 3 0 2 2 3 1 1 1 1 0 2 0 3 2 2 1 1 1 0 0 2 3 1 1 1 2 0 2 0 2 1 2 1 2 0 3 2 0 0 1 1 2 1 2 2 1 2 1 0 2 2 3 1 0 0 1 1 2 2 0 1 1 2 0 2 2 1 1 2 0 2 2 3 0 3 2 4 1 3 4 1 1 3 0 1 0 2 0 1 1 2 0 3 1 2 2 0 1 0 1 1 1 0 1 1 1 0 2 2 1 2 2 2 2 1 0 2 1 0 2 1 0 1 3 3 1 1 0 2 0 1 2 1 2 1 2 2 1 0 3 0 1 1 3 3 0 2 1 2 1 0 1 1 3 1 2 0 2 2 1 0 1 2 4 1 1 1 0 2 2 1 2 1 3 1 3 2 1 2 1 1 2 2 0 1 0 4 0 2 1 0 2 1 1 1 1 1 1 0 2 1 2 1 0 1 3 3 1 1 2 0 2 1 1 1 1 1 1 1 0 2 2 1 2 2 3 1 2 2 2 0 1 3 2 1 0 0 2 4 1 2 0 1 1 1 0 1 0 1 3 3 2 0 3 1 4 2 0 1 1 0 2 3 2 2 2 2 1 2 1 2 1 0 1 1 1 2 1 2 1 1 0 1 0 2 1 2 1 1 0 1 1 0 0 0 1 1 1 2 1 1 0 3 2 1 3 1 1 1 2 4 2 1 1 1 7 0 0 1 1 2 1 2 0 3 1 1 1 0 0 2 1 3 4 1 0 1 1 3 5 1 2 1 1 0 3 1 1 2 1 0 1 1 2 1 2 0 1 1 2 2 1 3 1 1 1 1 1 1 2 1 2 1 0 0 3 1 0 1 1 1 2 2 2 2 2 1 1 1 1 1 1 1 1 2 2 1 3 1 0 2 1 2 0 2 1 1 1 3 1 2 2 1 1 2 0 0 2 3 1 2 2 1 2 2 1 1 0 2 1 2 0 2 4 3 1 2 1 2 0 0 0 2 1 0 1 0 3 2 2 2 1 1 2 0 1 1 0 2 2 0 2 1 1 0 2 4 2 1 1 2 1 0 0 1 0 0 2 0 1 1 2 2 2 1 1 0 0 2 4 0 1 1 0 1 3 1 0 1 1 0 1 2 1 2 0 1 0 1 1 1 0 2 0 1 0 1 2 1 2 2 3 1 2 3 1 2 1 1 1 2 0 1 1 4 1 3 1 1 1 0 0 1 2 1 3 1 2 0 1 1 3 2 2 0 2 0 1 1 1 2 2 0 3 2 2 2 2 1 2 2 1 2 0 3 2 1 2 1 1 2 1 3 2 1 1 3 1 2 2 2 2 1 2 1 1 2 1 1 2 2 1 2 3 2 0 1 2 0 2 4 1 4 1 0 3 0 4 2 3 2 1 2 1 1 2 1 1 1 0 2 3 1 2 2 2 1 1 1 2 1 2 2 3 3 2 3 0 0 3 3 4 3 2 0 0 1 2 1 1 1 3 2 1 2 1 1 0 1 0 3 0 2 3 4 0 3 2 4 0 1 2 2 2 1 1 2 3 3 2 1 0 1 0 1 1 1 1 1 1 1 0 1 1 0 2 1 1 1 2 1 4 1 1 1 2 4 2 2 1 3 1 2 2 2 3 2 1 1 0 1 1 2 0 2 1 2 4 3 1 1 2 1 0 1 1 2 1 2 3 1 0 1 2 1 5 1 1 1 2 3 2 1 1 2 2 0 3 0 0 2 2 1 2 4 1 1 2 0 2 1 1 1 3 1 3 1 2 1 1 2 1 1 0 3 2 3 2 1 2 0 1 2 1 1 1 2 1 2 3 1 1 1 1 2 3 1 2 1 1 1 2 1 2 2 2 1 1 4 0 3 0 2 2 2 1 1 3 1 0 1 2 1 1 0 4 2 1 0 1 1 0 2 0 1 3 2 1 2 1 2 2 0 1 2 0 0 1 1 0 2 1 1 4 1 1 1 0 4 0 1 1 3 0 3 2 2 2 2 0 2 1 2 2 2 0 4 0 2 3 0 2 2 2 1 1 1 1 2 2 0 2 1 1 1 1 1 2 1 1 2 1 3 1 2 1 1 3 1 2 2 1 2 1 4 0 2 0 1 1 2 1 2 2 1 0 2 1 2 1 2 0 1 1 2 4 3 1 2 3 2 2 1 1 3 2 0 1 1 1 2 2 2 0 1 1 0 2 0 0 2 1 1 0 3 1 1 1 2 0 1 2 4 1 0 1 1 2 1 1 0 2 0 2 3 0 0 0 0 1 1 2 2 3 0 0 2 2 1 2 1 0 1 2 0 1 2 1 2 1 0 1 1 2 2 1 2 0 1 1 2 1 1 2 1 1 1 2 1 0 1 2 2 2 2 1 2 1 2 2 2 2 2 2 1 0 1 1 2 1 2 2 1 0 1 3 2 0 2 1 1 1 1 0 3 1 2 0 3 2 3 3 2 2 0 2 2 1 3 0 4 1 1 1 1 3 2 1 2 1 3 1 4 1 0 0 2 1 1 3 1 2 1 1 2 2 1 4 0 4 3 0 3 3 2 1 0 2 1 1 0 1 3 1 2 2 1 1 2 3 3 0 0 2 0 2 1 2 1 3 2 3 3 4 0 0 0 0 1 2 1 3 0 1 2 2 0 2 2 3 1 0 0 0 2 2 2 1 1 1 2 2 0 1 2 1 0 1 4 1 1 0 1 1 1 1 0 0 3 1 2 2 1 3 2 3 1 3 0 0 1 1 2 1 0 0 1 3 2 2 1 1 1 1 0 1 5 3 4 0 0 0 0 1 2 1 3 4 1 1 2 1 1 1 2 2 2 1 1 1 3 2 1 1 2 0 2 1 1 1 2 1 1 1 2 0 1 1 1 2 2 1 1 2 2 0 1 2 0 3 1 2 1 0 2 1 1 0 2 1 1 1 0 0 0 1 2 0 2 1 1 2 0 2 1 1 1 2 5 0 2 1 3 0 1 0 2 2 0 1 3 0 3 2 3 2 2 1 2 3 1 3 0 1 4 1 0 3 1 2 0 2 3 1 3 3 2 3 2 2 2 1 0 4 2 1 1 2 0 0 2 3 1 3 1 1 4 3 1 2 2 1 2 1 4 2 1 2 1 2 1 1 1 1 1 1 1 1 2 0 0 1 1 1 1 0 3 1 2 3 1 5 0 2 2 1 0 3 2 2 0 3 0 1 1 1 0 2 2 1 0 1 1 2 0 1 1 1 3 2 1 2 0 3 1 2 1 3 1 0 2 2 2 0 0 2 1 2 1 1 0 1 2 3 3 0 3 1 2 2 1 0 1 0 1 3 1 0 1 1 2 2 1 3 0 1 2 2 4 0 1 3 2 1 2 0 3 1 1 1 1 1 0 2 1 1 1 0 2 1 2 1 1 2 1 1 2 3 0 1 3 2 0 1 2 2 0 1 3 1 0 4 2 2 1 0 0 3 1 0 0 4 0 0 2 1 2 1 2 3 0 0 1 0 2 1 2 1 2 2 0 1 2 1 3 1 2 2 1 0 2 3 1 2 2 1 3 1 1 1 1 0 2 2 3 2 0 1 1 1 2 2 0 1 1 2 2 0 0 2 0 0 1 0 2 0 2 1 2 0 1 1 2 2 4 3 0 1 2 2 0 0 2 2 2 2 1 2 1 1 2 2 2 1 1 1 2 2 2 2 2 0 2 3 1 1 2 1 3 0 0 2 2 1 0 3 4 1 2 1 0 0 0 1 3 0 2 2 1 0 0 2 2 2 2 2 2 3 2 1 2 1 1 2 3 2 0 2 2 1 4 1 3 1 0 1 1 1 2 1 1 1 2 2 4 1 3 3 1 1 2 1 3 0 1 1 1 1 1 2 1 1 3 1 1 3 2 1 1 2 3 1 1 3 1 2 2 2 1 0 1 1 0 1 1 1 0 4 2 0 1 2 0 0 1 1 2 1 2 2 1 1 3 1 1 1 1 2 1 2 0 0 2 0 1 1 2 0 1 1 2 1 1 2 2 1 1 3 3 2 0 2 0 2 2 1 1 1 1 1 3 2 2 2 2 3 1 2 2 1 0 1 2 2 0 1 3 0 0 2 3 2 2 1 0 2 2 1 1 3 0 0 4 1 3 2 2 3 2 1 0 1 1 2 0 0 1 3 0 2 0 1 0 1 1 1 1 1 2 1 0 1 1 2 0 2 1 0 2 0 2 2 1 3 1 1 2 1 1 0 1 2 1 2 1 3 2 1 2 3 1 2 2 1 1 1 1 1 3 1 1 1 1 1 1 2 2 0 2 1 0 2 1 2 1 1 1 3 0 3 1 1 3 1 1 1 1 1 2 1 0 3 2 2 2 0 2 1 2 1 1 2 1 3 1 3 2 1 1 2 2 1 1 0 3 1 2 1 2 2 0 1 2 1 2 1 2 1 3 1 3 2 1 2 1 1 2 1 1 0 1 0 2 1 3 2 1 2 1 2 2 1 2 1 2 3 0 2 2 1 2 1 1 1 1 1 1 2 1 2 0 0 2 1 1 1 2 1 2 2 2 2 1 3 1 1 0 2 2 1 2 1 2 1 1 1 3 3 1 4 0 1 0 3 3 1 1 1 1 2 0 2 2 2 1 1 2 1 0 3 1 2 3 1 3 0 1 2 2 2 5 0 1 2 0 1 2 0 1 2 0 2 1 2 2 0 0 0 2 3 3 0 1 1 0 1 2 1 3 2 2 3 1 0 2 2 2 1 2 1 2 2 2 2 1 1 1 1 1 1 2 0 1 3 2 3 2 2 1 0 1 2 2 3 2 3 2 3 1 3 1 2 1 0 0 3 1 3 2 1 2 1 2 1 2 1 1 1 1 0 0 3 1 1 3 0 1 0 1 0 2 2 0 3 1 1 1 0 2 2 2 2 3 2 0 1 4 1 2 0 2 3 0 1 1 0 1 3 0 1 2 0 2 2 1 0 4 0 1 5 1 1 0 2 0 1 4 1 2 1 3 1 2 0 1 2 2 2 2 1 1 1 2 0 1 0 2 1 3 3 0 4 1 1 2 0 2 2 0 1 2 1 1 4 2 4 1 0 1 0 0 2 1 3 1 2 1 3 0 0 3 2 0 2 3 0 4 1 2 2 1 1 1 2 0 2 3 2 0 3 0 2 0 1 1 1 2 2 4 1 1 0 1 1 1 3 2 1 1 0 3 1 1 1 2 1 0 1 0 1 1 1 1 2 1 3 2 1 3 2 2 0 2 1 1 2 0 0 1 0 2 0 1 1 2 4 4 2 1 1 1 1 1 1 0 0 2 3 2 1 1 2 2 2 2 1 3 2 1 3 0 1 1 2 2 2 2 1 2 1 0 0 2 2 1 1 1 0 1 1 2 0 1 0 2 1 0 0 4 0 3 2 2 1 2 1 0 1 1 2 4 0 1 2 2 1 0 0 3 1 2 0 1 3 3 0 2 1 1 2 3 1 2 2 1 0 2 3 2 1 3 0 0 1 1 2 2 0 2 1 1 2 3 1 3 1 2 2 2 2 1 2 1 1 2 2 2 2 1 0 0 1 1 2 3 4 1 1 2 1 1 2 2 2 1 3 2 1 0 1 1 2 2 1 0 2 2 1 2 0 1 1 3 1 2 0 2 0 2 0 2 1 3 2 0 0 1 2 0 2 0 2 2 1 2 1 2 1 2 0 1 2 0 0 1 1 1 1 0 2 2 0 0 1 2 1 3 1 1 3 1 2 1 2 3 2 2 1 0 1 2 0 3 2 1 1 0 1 2 2 4 0 3 1 4 0 1 3 1 0 2 1 1 1 1 1 0 1 1 1 1 4 3 0 4 0 1 1 1 0 3 0 2 2 2 2 0 2 2 3 1 2 3 1 0 2 1 1 2 2 2 1 1 2 2 2 2 1 1 0 2 1 0 1 0 2 2 3 3 2 1 1 2 3 1 1 0 1 0 1 2 3 0 2 3 3 2 0 2 0 1 0 2 0 2 2 0 2 1 1 0 2 1 1 1 0 1 3 0 2 0 1 3 1 2 1 1 2 3 1 3 3 2 0 2 1 2 2 2 0 3 0 2 1 0 1 0 2 2 2 1 1 1 1 1 0 2 3 3 4 3 1 1 2 2 2 1 1 4 1 3 2 0 1 1 4 1 3 0 1 0 1 3 1 3 1 1 2 1 2 1 2 2 1 1 2 2 3 2 2 2 1 2 0 3 1 0 0 0 3 1 2 1 3 2 1 1 0 1 1 2 2 1 1 1 2 1 3 2 3 2 1 1 1 3 1 0 2 3 2 2 1 3 0 1 0 1 2 1 1 1 3 1 1 0 1 0 2 1 1 1 2 0 1 1 2 1 1 1 1 2 3 1 3 1 1 1 1 1 3 3 1 1 0 1 0 1 1 1 2 2 0 3 2 2 1 2 0 1 2 1 1 1 0 1 3 2 1 2 2 1 2 1 1 2 1 2 1 1 2 0 0 1 2 2 0 3 1 0 0 1 2 3 2 4 0 3 1 2 0 1 3 2 2 2 0 0 1 2 1 0 1 0 1 2 2 1 3 1 0 1 2 2 1 1 1 1 0 0 1 2 1 2 2 2 3 1 1 0 1 1 1 1 1 3 3 2 0 1 1 0 1 3 0 3 1 1 0 1 1 0 1 2 2 2 2 0 0 2 1 1 1 5 2 0 0 1 4 1 0 0 2 2 2 1 1 2 0 4 4 1 1 3 0 1 1 1 1 1 3 2 0 1 1 2 2 0 3 2 3 2 0 4 1 2 2 0 3 2 2 2 0 2 1 2 1 2 1 0 1 2 0 2 0 3 2 1 0 1 3 1 0 0 1 2 1 3 2 3 1 2 1 1 0 1 1 0 2 1 2 0 0 1 3 2 1 1 1 1 2 2 0 3 2 2 5 1 3 3 0 2 1 1 1 2 0 0 0 4 1 1 3 2 0 1 0 0 1 2 1 3 3 1 1 0 1 2 1 2 2 0 2 2 2 1 3 1 0 1 2 2 3 0 3 3 1 0 1 2 2 0 1 2 0 1 1 2 4 3 4 2 3 0 0 3 2 1 1 2 1 2 0 2 2 1 3 3 1 2 2 1 2 1 2 3 1 0 1 2 1 3 3 1 2 2 2 2 2 1 1 2 0 3 1 1 0 2 1 2 2 1 1 2 3 2 1 1 3 1 1 0 1 1 1 2 2 1 1 1 0 0 0 0 3 3 0 2 0 1 0 1 1 2 2 1 0 2 1 3 1 1 1 0 3 2 2 2 1 2 1 2 2 1 1 2 3 1 0 3 1 3 1 1 0 1 1 2 1 0 0 2 1 2 0 1 2 1 0 0 3 1 1 2 1 1 2 2 3 2 1 2 3 0 4 2 1 2 1 1 2 1 1 0 2 1 1 2 3 2 1 2 1 1 1 3 0 2 3 1 1 1 1 3 0 1 1 2 1 2 1 3 1 2 2 1 1 2 2 1 4 2 2 3 0 1 3 0 1 0 1 1 1 2 2 3 1 1 1 2 2 1 1 1 1 2 0 4 0 2 2 0 2 2 1 3 2 1 1 2 2 2 1 1 1 0 1 1 2 1 2 3 0 2 1 1 1 1 1 2 0 1 1 1 2 2 2 3 2 2 1 2 0 1 2 1 2 3 3 0 1 2 2 2 1 2 3 1 2 0 1 3 1 2 2 2 0 0 2 2 1 0 1 3 3 2 1 0 2 1 1 1 1 0 1 2 0 1 1 3 2 1 0 2 0 1 1 1 4 2 1 1 1 2 0 0 2 2 2 3 2 2 3 1 1 1 1 3 1 2 3 2 1 2 1 1 2 3 1 1 1 2 1 3 1 2 3 1 0 1 2 0 1 1 4 2 0 3 2 2 3 2 3 2 2 2 0 3 4 1 1 0 0 2 2 1 2 2 3 1 3 2 2 1 1 1 1 1 0 1 2 2 1 0 3 0 1 1 2 1 1 2 0 1 1 0 2 0 2 0 1 3 1 1 0 1 2 2 2 3 1 3 1 1 0 1 2 3 2 2 4 1 1 1 2 2 0 1 1 0 1 0 0 1 1 1 1 1 0 1 2 4 1 0 0 0 3 0 1 3 2 1 3 3 0 1 1 0 0 1 2 1 0 2 4 2 2 4 0 0 1 1 0 0 1 3 2 3 2 3 1 1 0 1 1 2 1 2 1 1 1 2 0 1 2 2 2 3 1 1 2 1 2 2 2 2 2 2 1 2 2 2 1 2 1 2 2 1 2 1 3 3 1 1 1 1 1 0 2 1 4 2 0 1 2 1 1 2 2 1 1 2 1 2 0 1 3 1 0 1 3 1 3 1 2 1 3 2 1 1 1 1 1 1 2 1 0 1 2 0 2 1 1 1 3 1 1 0 1 1 2 1 2 1 2 3 4 2 2 0 3 1 1 1 2 1 2 2 2 1 0 1 1 2 2 1 1 3 2 0 2 3 1 0 1 1 1 2 2 1 2 1 2 1 3 0 1 1 1 1 2 2 3 2 3 2 2 1 1 1 2 1 0 1 1 0 2 2 1 1 1 1 2 2 2 1 1 1 2 1 3 0 2 2 0 1 2 1 1 1 2 0 0 1 1 1 1 2 2 3 2 2 0 1 0 1 0 1 2 2 2 0 1 0 1 3 1 2 0 1 0 0 0 1 2 2 1 1 2 1 2 1 2 1 1 1 4 0 1 1 2 2 2 4 4 1 2 2 2 2 2 3 2 2 0 1 2 2 1 2 3 0 1 2 3 0 0 1 3 2 0 0 1 1 1 3 1 3 1 1 0 0 0 1 1 2 1 1 2 1 0 3 0 0 1 2 1 1 1 1 0 1 1 2 3 1 0 1 1 2 3 1 2 0 1 1 1 1 1 1 0 3 3 1 1 0 1 2 0 3 1 2 0 2 0 2 2 2 3 1 1 0 2 3 1 1 3 2 1 0 3 1 2 1 2 0 1 3 2 1 2 0 1 1 0 1 1 3 1 3 1 1 0 2 1 2 2 2 0 1 1 2 0 1 0 1 0 2 3 1 1 3 0 1 2 0 4 1 2 1 0 2 1 3 1 0 3 0 1 0 0 1 1 3 3 2 2 3 3 1 2 1 0 2 2 2 2 2 1 1 1 4 3 2 1 0 2 0 3 1 1 1 3 1 2 1 1 1 1 1 0 3 1 1 1 1 1 2 0 2 0 2 2 0 1 3 0 1 0 0 1 1 1 3 3 2 2 3 0 2 2 0 2 2 1 0 2 2 3 2 1 2 1 1 2 5 2 2 1 1 1 1 1 5 3 1 1 2 2 2 0 2 0 3 2 1 2 1 0 2 3 1 2 2 1 1 2 3 0 1 2 1 1 1 1 1 0 4 1 1 3 3 0 1 2 1 2 3 1 2 0 1 2 0 0 0 1 4 1 1 1 3 1 0 1 1 1 2 1 2 0 0 1 2 2 0 3 2 0 3 1 3 3 1 2 2 1 1 1 3 0 1 2 1 1 1 1 2 0 3 1 0 3 1 3 2 1 0 4 0 1 0 1 1 0 1 1 3 1 0 3 2 2 0 1 2 0 2 2 1 3 1 2 2 0 1 0 0 3 1 2 2 0 3 1 0 1 3 2 1 1 1 0 1 0 1 2 0 0 3 2 3 2 1 2 3 1 2 2 1 3 1 2 2 1 0 1 0 2 1 1 0 1 2 1 2 0 0 0 2 1 0 2 1 2 0 1 1 1 0 1 2 0 1 2 2 2 1 3 0 0 0 1 1 1 3 1 1 2 0 3 2 1 2 4 2 2 3 2 2 0 2 0 2 0 1 2 3 3 3 2 0 1 1 2 3 1 3 2 1 1 2 2 1 1 3 2 3 4 3 3 1 1 1 2 0 2 3 3 2 0 1 2 3 2 2 2 3 1 3 2 1 0 2 1 2 1 2 2 2 0 2 2 1 0 1 1 0 0 1 2 0 1 2 3 1 2 1 0 0 2 1 0 1 1 0 1 1 0 1 1 3 3 4 2 1 0 3 2 0 2 3 1 3 2 3 1 1 1 1 0 1 1 3 1 0 1 1 1 2 1 1 1 2 0 2 1 1 0 1 1 3 1 2 1 0 1 3 1 0 0 3 2 1 1 2 2 1 1 0 1 2 1 2 1 0 2 1 2 1 1 1 0 3 0 1 2 2 3 1 2 2 1 1 0 0 0 2 3 2 1 3 1 2 1 2 1 4 2 2 1 2 3 2 2 2 1 1 2 1 2 2 2 4 0 0 1 1 3 2 2 1 2 2 2 0 3 2 0 1 1 4 1 0 1 2 1 2 2 2 1 1 1 1 2 1 0 1 0 1 0 0 2 0 1 2 4 2 1 1 2 1 1 0 2 2 2 0 1 2 1 0 0 0 2 1 2 3 1 3 2 1 3 1 3 0 1 2 1 1 2 2 2 1 0 2 1 2 2 1 1 2 2 2 1 0 1 1 0 1 2 2 1 1 0 2 0 1 1 1 2 1 2 1 2 1 1 1 2 0 3 3 2 2 0 2 3 2 3 3 1 0 1 0 0 2 3 1 1 2 0 2 0 1 4 1 1 1 1 0 3 3 0 1 1 3 1 1 1 0 1 2 1 2 1 1 3 1 0 1 0 2 1 0 2 4 0 2 2 3 1 1 3 1 2 1 1 1 1 3 1 1 3 1 1 0 2 1 2 2 0 2 1 0 0 1 1 1 4 1 1 4 0 2 2 1 1 1 0 2 2 1 1 0 1 1 5 0 1 1 1 0 1 4 0 1 2 2 2 1 0 1 0 0 3 0 3 2 1 1 2 2 1 3 1 3 1 0 1 0 1 2 1 0 0 1 1 1 1 2 2 0 1 0 2 1 1 1 0 2 1 1 2 2 1 0 0 0 3 1 2 3 0 1 1 1 1 1 1 3 1 2 2 2 2 1 1 1 2 2 1 0 1 3 1 1 4 1 3 1 1 1 1 2 1 4 1 2 1 1 0 1 0 4 0 2 3 3 1 0 1 2 1 0 0 0 1 2 1 1 2 3 1 1 0 0 1 3 1 1 1 2 2 1 1 1 2 1 3 2 1 1 1 1 1 2 2 0 1 1 1 1 0 1 0 1 1 2 2 1 1 0 1 0 0 2 1 1 2 0 3 2 1 1 1 0 0 2 5 2 2 2 3 2 1 1 2 1 2 1 2 2 1 1 1 0 0 3 1 1 2 2 3 1 0 3 3 1 3 3 2 1 2 3 0 0 1 1 2 1 3 0 0 3 2 1 2 3 0 0 1 1 3 1 1 0 1 2 2 0 2 2 0 2 2 0 2 1 1 1 2 4 2 1 2 2 0 3 2 1 1 1 2 1 0 3 2 2 2 1 0 1 0 2 1 2 2 1 0 2 2 2 1 2 3 0 4 1 1 4 1 0 1 1 1 0 2 1 1 0 0 2 1 3 2 2 3 0 1 3 2 1 2 1 2 2 1 3 1 1 2 0 1 2 1 3 2 4 2 2 2 2 1 2 1 0 1 2 1 3 1 2 1 2 2 3 1 2 2 1 2 0 2 0 3 2 1 1 2 3 2 2 2 2 0 0 0 3 3 4 2 2 1 0 1 1 0 3 2 0 0 1 2 1 1 0 2 1 0 0 1 1 1 2 1 1 1 0 4 2 1 2 1 1 2 6 3 0 1 2 1 0 1 2 0 2 2 2 0 1 2 2 1 3 1 1 2 1 2 2 1 0 2 0 1 0 1 1 0 3 1 1 2 2 0 1 2 1 1 1 2 3 2 3 2 2 1 2 2 2 2 2 2 4 1 0 3 2 3 1 0 2 2 1 2 2 1 1 1 1 2 1 2 1 1 0 2 1 2 3 2 2 0 1 1 5 2 1 0 2 2 3 1 2 2 1 1 0 2 2 2 2 1 0 2 3 2 2 0 2 3 1 1 1 2 1 2 1 1 1 2 2 2 0 0 2 2 2 0 1 4 0 1 1 0 2 1 2 0 3 1 1 3 2 2 1 1 0 1 1 2 1 1 1 2 3 1 1 1 1 1 1 2 2 3 0 4 1 0 3 0 2 1 2 0 0 1 1 2 2 4 2 4 2 2 2 1 2 3 3 1 1 3 1 1 0 2 4 1 1 0 0 1 0 1 1 2 2 1 1 2 1 1 2 0 2 1 2 1 1 2 1 0 2 1 1 0 1 1 3 1 0 2 1 1 1 1 0 2 0 1 1 1 2 3 0 0 1 2 1 1 1 0 3 1 2 1 1 0 2 2 3 1 2 2 1 0 1 0 3 1 2 1 1 2 0 0 2 3 1 2 1 3 2 1 2 1 2 2 0 2 0 1 3 2 0 0 1 1 1 4 1 1 3 3 2 1 3 1 3 3 1 1 3 3 0 1 0 1 2 2 2 0 1 1 3 0 1 2 0 1 0 0 1 1 2 2 3 0 1 1 2 0 1 1 2 1 0 1 3 1 1 5 1 1 1 0 1 1 0 1 0 2 1 1 1 4 2 1 2 1 2 1 2 2 2 2 1 1 3 2 2 2 1 1 2 2 3 2 0 0 2 2 1 0 1 1 2 1 2 1 1 2 1 1 1 2 2 3 1 2 1 0 1 2 1 2 3 0 2 2 3 1 2 2 2 0 2 1 1 2 1 2 3 4 0 2 0 0 2 1 0 1 0 2 0 3 2 0 1 0 1 1 0 1 0 0 0 1 2 1 0 1 1 2 1 2 4 1 3 2 1 3 3 1 1 1 2 2 2 2 1 2 1 2 1 2 1 1 1 0 3 0 2 0 0 1 0 1 3 1 1 2 0 2 3 3 3 2 1 2 1 2 2 1 3 2 1 1 1 0 0 2 2 2 2 1 0 1 3 1 2 1 2 1 0 1 2 1 1 1 3 1 1 1 0 1 2 1 0 1 1 1 1 5 4 2 2 2 1 0 2 3 1 0 2 1 0 3 2 3 3 2 1 2 2 3 2 0 0 0 4 3 1 3 1 1 3 2 1 3 2 2 2 2 2 2 4 0 3 2 1 1 3 0 0 0 0 1 1 2 1 2 1 0 0 1 0 0 2 2 0 0 0 3 0 3 2 4 1 1 3 2 2 2 2 2 1 3 1 2 3 2 3 2 2 1 0 2 2 1 1 1 3 2 0 1 1 2 1 1 1 0 1 0 0 0 2 1 1 2 1 2 1 1 2 0 3 2 0 2 3 0 3 2 3 2 2 1 2 2 2 0 3 2 3 0 1 2 2 1 2 1 4 0 1 1 2 1 1 0 2 2 1 1 1 3 0 1 1 2 3 3 1 2 4 1 1 0 2 0 1 0 1 2 1 1 2 1 1 1 0 0 0 0 2 3 1 3 4 1 1 2 2 2 3 1 1 1 2 0 1 2 0 0 1 4 1 0 1 1 2 2 0 0 3 2 2 2 3 2 1 1 4 1 2 1 1 2 4 1 1 2 1 0 1 1 1 3 0 1 1 1 1 1 0 1 0 2 2 2 0 2 3 1 3 1 1 0 1 1 0 2 2 1 4 2 0 0 1 2 0 2 1 2 1 0 2 2 1 1 1 0 1 0 2 4 1 1 3 2 1 1 1 3 1 0 3 1 1 0 0 0 1 1 2 3 1 1 2 1 1 1 1 1 0 2 1 2 1 0 1 1 0 1 2 2 2 2 2 2 1 1 1 1 0 1 2 1 1 2 1 0 2 4 2 3 1 0 1 1 1 0 1 3 1 2 0 1 2 1 2 3 2 0 0 2 2 1 0 2 1 1 3 0 1 1 1 2 0 4 1 1 2 2 2 2 1 0 1 1 0 3 3 2 4 4 2 2 1 2 0 2 1 2 2 1 1 0 3 2 0 0 2 1 0 0 2 1 0 0 2 1 2 3 1 4 1 2 2 1 1 2 2 0 4 2 2 0 2 3 3 0 0 0 3 1 2 1 1 1 2 0 2 1 1 3 1 2 1 3 2 0 2 1 2 0 1 1 1 2 2 2 2 2 2 0 2 1 2 1 2 1 3 1 1 2 3 1 2 1 3 3 1 2 3 1 2 1 1 0 1 2 1 2 0 2 0 2 2 1 2 1 2 2 2 2 1 0 2 0 1 3 1 1 1 2 3 3 1 3 1 1 1 2 0 2 1 1 1 1 1 1 1 2 0 0 0 1 0 0 1 2 0 2 1 1 1 1 2 2 1 2 2 2 2 2 1 2 2 0 1 2 1 0 1 1 1 1 2 2 2 1 2 1 2 1 3 4 1 1 3 3 2 0 1 2 2 1 5 2 4 2 1 1 4 3 0 0 1 1 0 3 1 1 1 1 1 3 1 4 1 2 4 2 2 2 3 2 2 2 1 2 0 1 2 1 3 3 0 1 1 1 2 3 1 2 1 1 2 2 0 2 0 2 3 1 1 2 2 3 3 2 0 2 2 1 2 1 1 3 3 2 1 3 1 0 3 1 1 3 3 3 1 2 2 1 0 2 3 2 1 1 3 2 1 2 1 0 3 1 2 2 2 2 2 1 1 2 3 2 1 2 1 4 2 1 1 1 1 1 1 1 1 0 2 0 1 0 3 0 2 2 1 2 2 1 1 1 1 2 0 0 2 1 1 1 1 2 2 4 2 1 1 1 1 3 2 1 2 2 2 1 2 2 0 3 0 0 1 3 3 2 1 1 2 1 1 2 1 1 1 1 3 2 1 1 2 1 2 0 1 3 2 1 0 2 0 2 1 1 3 1 2 1 1 2 2 1 1 1 2 3 0 1 2 2 3 1 2 2 0 1 2 1 1 2 2 2 2 2 1 0 1 3 1 0 1 3 2 3 2 0 1 1 2 1 1 3 1 2 2 1 4 3 2 2 2 1 0 1 0 2 3 1 3 1 2 1 0 2 3 1 1 3 1 1 2 0 2 1 3 0 1 3 1 1 3 1 3 2 0 1 3 0 2 0 1 2 2 2 2 1 0 0 0 0 1 3 1 2 2 3 3 1 0 1 3 1 0 2 2 3 1 2 1 1 2 2 1 2 1 2 1 1 0 3 0 1 2 0 2 1 1 1 0 1 0 0 3 0 1 4 1 1 1 1 1 3 1 2 2 2 5 1 1 2 1 3 2 3 2 1 0 1 1 3 3 3 1 2 2 0 1 1 3 1 1 2 2 2 2 1 5 1 2 1 0 1 1 1 1 1 0 2 3 1 1 2 1 2 1 2 0 1 2 1 2 2 1 2 2 4 2 1 0 1 4 2 1 2 2 4 3 2 3 1 2 1 1 1 1 1 1 2 2 1 1 1 1 0 2 0 0 2 2 0 2 2 1 2 1 0 2 3 3 0 2 2 0 2 0 1 4 1 2 3 2 2 4 1 0 3 2 3 1 1 1 2 1 1 2 2 1 2 2 1 1 2 2 1 0 2 1 2 2 2 1 1 2 1 0 4 2 1 1 3 2 3 0 3 0 0 0 2 0 1 2 0 2 3 0 1 2 2 2 3 2 1 3 0 0 2 1 1 2 2 3 2 1 5 1 2 1 2 1 0 0 0 1 3 3 1 1 1 2 1 3 1 0 3 1 1 1 1 2 1 0 2 2 0 0 1 0 2 0 1 1 0 1 2 2 2 0 2 1 2 1 2 0 1 0 0 2 0 1 2 2 1 2 1 3 1 1 1 1 1 2 1 2 0 0 0 1 2 1 2 0 0 1 2 3 3 1 2 4 2 0 2 1 0 1 4 2 0 1 1 0 1 1 2 0 1 1 1 1 2 0 3 2 1 3 1 0 0 2 0 3 2 2 1 0 4 1 1 1 3 2 0 0 2 1 1 2 1 2 2 1 0 1 2 2 1 2 1 2 1 0 1 2 2 1 2 1 0 0 4 0 3 1 1 0 3 2 2 1 0 1 2 1 3 2 1 1 3 3 2 3 0 3 2 2 1 1 2 1 2 0 3 4 1 1 3 0 1 0 0 0 1 2 1 0 1 1 0 1 1 2 1 0 2 2 1 2 1 2 0 0 2 2 1 2 0 0 3 3 1 2 0 1 2 2 0 2 1 1 1 1 2 2 1 1 0 2 0 2 2 3 3 2 3 2 1 2 2 0 2 4 2 1 0 2 2 0 3 2 1 1 1 2 1 2 1 1 1 0 0 2 1 0 0 0 2 1 1 0 0 1 3 0 0 1 1 1 3 0 1 1 2 2 0 0 2 1 2 0 3 0 0 1 2 2 1 0 3 2 1 1 2 2 3 2 0 0 2 1 0 1 1 2 4 1 3 1 2 0 1 3 2 1 1 1 1 0 1 2 1 1 1 2 0 1 0 2 1 2 0 2 2 2 1 4 1 0 0 1 2 2 1 3 2 2 2 2 3 0 1 0 2 2 1 1 3 0 3 0 0 3 2 0 1 1 3 2 1 0 1 0 2 0 1 2 1 2 1 2 0 0 1 2 1 0 0 0 1 1 0 0 0 1 2 0 2 2 2 3 3 2 2 3 0 2 2 3 3 1 1 1 2 1 2 3 0 2 1 3 1 2 2 2 2 1 1 1 2 1 1 4 3 3 0 0 3 2 0 1 2 2 0 1 1 1 1 0 1 2 2 2 2 2 2 2 1 2 2 2 3 2 2 1 1 1 0 3 1 4 1 1 3 2 2 1 2 2 2 3 2 3 0 1 1 0 2 1 1 2 2 2 1 1 2 0 4 2 1 1 1 1 0 0 1 3 1 2 1 2 1 2 1 4 3 1 1 0 0 3 3 2 1 2 2 1 2 1 1 0 2 1 2 2 3 0 1 0 1 1 2 1 0 2 2 0 4 0 2 1 3 1 1 0 1 1 2 2 2 0 2 2 2 1 0 0 2 2 3 2 1 0 2 2 3 4 1 1 1 2 1 0 2 3 1 0 1 0 4 1 1 1 1 0 2 0 2 1 1 1 1 2 3 4 0 2 0 1 2 2 1 0 2 1 4 1 0 1 3 2 3 2 2 2 1 3 3 0 1 2 2 1 1 1 2 3 1 0 1 0 0 1 2 0 1 2 1 1 2 2 1 0 2 1 0 2 1 1 3 2 2 1 1 2 0 2 3 1 1 3 0 1 1 2 1 3 1 3 0 1 1 2 2 1 1 1 2 2 1 4 0 1 0 2 2 1 2 2 0 2 1 1 2 3 0 1 1 1 2 1 1 0 1 0 5 1 1 3 3 1 1 0 0 0 1 1 1 1 0 2 3 2 2 1 2 2 0 2 1 1 0 1 1 2 1 0 1 1 0 2 1 1 2 3 0 1 3 3 1 2 2 2 2 2 3 1 1 2 1 0 1 2 1 3 1 2 2 1 2 2 4 2 1 1 0 0 1 3 1 2 0 3 2 3 0 1 1 1 0 0 1 1 1 2 2 0 0 2 1 2 2 1 2 1 0 3 1 3 2 3 0 1 0 1 2 0 2 2 1 2 0 2 0 2 2 1 2 3 2 1 0 3 2 2 1 0 1 2 0 2 3 1 2 0 3 3 0 2 1 2 1 1 1 1 1 1 3 2 1 5 2 2 0 3 4 2 2 2 1 0 2 3 1 4 1 1 2 0 2 2 2 1 1 2 0 3 2 3 3 3 1 0 0 1 3 1 1 0 1 0 0 1 1 1 2 1 2 0 3 1 2 3 2 3 2 0 3 2 2 0 0 0 2 1 1 3 2 2 1 2 0 1 2 1 2 3 0 2 2 1 1 1 3 1 2 0 2 2 1 1 2 0 3 3 1 0 2 3 3 1 1 1 0 1 1 0 2 1 1 3 1 3 2 0 3 3 1 3 2 1 0 0 1 1 0 1 0 1 1 2 2 3 2 1 2 2 1 0 2 2 2 1 4 1 3 1 2 2 2 1 2 2 2 2 1 1 2 2 0 4 1 0 1 0 2 1 1 2 3 3 1 1 3 1 4 0 2 3 4 0 2 0 1 2 1 1 2 2 1 2 1 4 0 2 2 0 2 2 2 1 1 0 1 2 0 2 0 2 1 2 1 1 0 0 2 1 1 0 2 2 2 1 1 1 3 1 1 3 2 3 2 1 2 2 2 1 2 2 0 0 2 2 1 2 0 0 3 2 0 1 3 3 1 2 0 2 1 1 1 1 2 3 1 0 0 0 0 1 0 1 0 3 1 3 2 1 1 4 3 2 1 0 2 3 0 0 0 2 1 0 2 1 2 2 1 2 1 2 1 2 1 3 4 1 0 1 1 2 2 1 0 2 1 1 2 2 3 2 0 2 0 2 1 1 2 2 2 1 1 3 1 0 0 1 1 1 3 0 1 0 2 2 0 1 1 1 1 1 1 4 2 0 0 3 1 3 0 1 1 1 2 1 1 1 2 0 2 1 1 1 1 2 1 2 2 1 0 0 0 1 2 2 0 0 4 2 2 2 1 2 2 1 0 0 1 2 0 0 1 2 2 1 2 3 2 1 1 2 0 0 0 3 1 2 1 1 1 3 1 1 0 0 1 4 3 2 3 2 3 3 2 1 1 1 3 1 1 1 0 2 2 0 1 0 1 0 2 0 1 1 0 0 1 2 0 2 1 1 2 3 3 4 1 2 2 0 1 2 0 1 2 1 1 1 1 2 1 0 0 0 3 2 2 4 1 1 1 1 1 0 0 1 0 0 0 2 1 2 3 0 2 0 1 2 1 0 0 3 0 0 3 1 1 0 1 2 4 2 0 2 2 2 1 3 1 1 1 2 2 1 1 1 1 2 2 1 1 2 1 3 1 1 1 2 1 2 1 2 3 2 4 0 2 3 1 2 4 0 0 2 1 2 2 1 1 1 1 0 0 0 1 1 2 0 0 0 0 3 2 2 2 1 3 3 2 1 1 3 2 2 1 1 1 0 2 0 1 1 1 1 0 1 2 1 0 2 0 1 1 1 1 1 4 2 4 1 2 1 1 2 1 3 2 2 3 2 1 1 1 2 0 2 0 0 0 2 1 1 1 4 1 0 0 2 2 1 1 0 0 2 1 1 3 1 0 1 2 1 1 0 1 0 4 2 2 1 2 2 1 2 1 1 2 1 3 0 1 2 1 1 2 1 2 0 2 1 1 1 3 0 1 2 1 1 2 2 1 2 2 1 2 1 0 4 1 0 0 3 3 0 1 1 0 1 0 3 1 1 1 1 1 0 4 1 3 1 1 3 1 1 2 0 0 2 1 1 3 3 1 1 0 5 2 2 1 0 1 0 1 0 0 1 2 3 3 2 0 2 5 1 1 0 1 0 0 0 2 1 2 2 1 2 1 1 1 1 1 0 1 2 0 3 2 1 2 0 0 1 1 2 1 2 0 2 1 0 1 1 1 1 2 1 1 1 2 2 1 2 1 3 2 2 2 1 1 1 3 1 0 1 2 2 0 2 3 1 3 0 2 1 1 0 1 1 0 0 1 1 1 1 2 1 1 0 3 2 0 1 1 1 1 1 1 3 2 1 2 0 2 0 1 1 1 0 0 1 0 2 1 3 0 0 3 4 1 1 1 1 2 1 2 2 2 1 1 0 0 1 3 1 2 0 2 2 3 2 1 3 1 2 3 1 1 1 0 2 2 2 1 3 1 0 1 3 1 2 2 2 3 2 2 1 0 2 1 1 0 2 3 2 3 3 1 1 1 2 1 2 0 1 3 1 1 2 0 2 2 0 2 0 0 2 3 2 3 2 0 0 0 2 3 0 1 3 2 3 2 6 2 1 2 3 2 3 0 2 1 1 1 2 2 2 0 1 2 0 2 1 1 2 1 1 0 1 3 1 2</t>
-  </si>
-  <si>
-    <t>GAM(0.17272422201661974, -7.644677420052031e-29, 0.5129830188425994)</t>
-  </si>
-  <si>
-    <t>0 1 1 1 0 1 0 0 0 1 1 1 0 2 0 0 0 0 0 0 0 1 2 0 1 0 0 0 0 0 0 0 2 2 0 0 0 0 1 0 1 0 1 4 0 1 3 0 0 0 0 1 2 0 1 0 0 0 0 0 0 0 0 3 1 0 0 1 1 0 1 0 0 1 1 2 0 0 0 0 0 0 1 1 2 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 1 0 0 0 0 0 3 0 1 0 0 1 1 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 2 0 2 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 2 1 1 0 0 0 0 1 1 1 0 1 1 0 1 1 1 2 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 2 1 0 2 0 0 2 0 0 1 0 1 0 0 2 0 0 1 1 1 1 0 2 1 1 1 1 1 0 0 1 3 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 2 0 0 0 1 0 0 0 2 1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 2 0 0 0 0 0 2 0 1 1 2 0 1 0 0 3 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 1 0 1 0 1 0 1 0 1 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 2 1 0 1 0 0 0 0 1 1 0 2 2 0 1 2 0 1 1 0 1 1 0 0 0 1 0 1 2 1 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 0 1 0 1 0 0 1 0 1 0 0 0 3 2 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 1 0 0 2 0 0 1 0 1 0 0 2 0 0 0 0 1 0 0 0 0 1 1 0 0 0 1 0 0 1 1 1 1 1 1 0 0 1 0 1 0 0 0 1 1 0 2 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 1 1 0 0 0 1 0 0 0 0 1 0 0 0 1 1 0 1 0 0 0 1 0 1 0 0 0 1 0 0 1 0 1 0 0 1 0 1 0 2 0 1 1 1 0 0 1 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 2 1 0 0 1 0 1 0 0 0 1 1 1 0 1 0 1 2 0 0 0 2 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0 2 1 1 0 0 0 1 0 0 1 0 0 0 0 2 2 0 1 0 0 0 0 2 0 0 0 0 1 1 1 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 1 1 1 2 0 0 0 0 0 1 0 1 0 0 0 3 1 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 2 1 1 0 0 0 1 0 0 1 0 0 0 2 1 1 1 0 0 1 0 0 0 0 0 1 1 0 1 0 0 1 2 1 1 0 0 1 0 1 0 0 1 1 0 0 0 0 1 1 1 1 0 0 1 0 2 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 1 0 3 1 1 0 1 2 1 1 1 1 2 0 0 2 0 0 1 2 1 0 1 1 1 1 1 1 2 0 1 0 0 1 1 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 3 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 2 0 0 1 0 2 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 1 0 0 0 1 1 0 0 1 0 1 0 1 1 0 0 0 1 1 0 1 0 1 1 1 0 1 0 0 0 3 0 2 0 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 1 0 1 0 1 0 3 0 0 0 0 0 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 1 1 0 0 1 1 1 0 1 0 0 0 1 0 0 2 0 1 0 0 0 0 0 0 0 0 1 1 1 2 0 0 1 0 1 1 0 0 0 0 0 2 0 1 0 0 2 1 0 0 0 0 0 0 2 1 0 0 2 0 1 0 0 1 0 1 0 0 0 0 1 0 0 1 1 1 1 0 0 0 0 0 1 1 0 1 0 1 1 1 0 0 0 1 0 1 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 2 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 2 1 0 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 1 0 1 0 0 2 1 0 0 0 0 0 0 0 1 1 1 1 0 0 0 1 1 1 0 1 0 0 0 0 0 1 0 1 0 0 2 1 0 0 1 0 1 0 0 1 1 0 1 0 1 1 0 0 0 0 0 1 1 1 1 1 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 2 0 1 0 0 0 0 1 1 1 0 1 1 0 0 1 0 0 1 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 1 1 0 1 1 0 1 0 0 0 1 0 0 1 0 0 0 0 2 1 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 2 0 1 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 1 0 1 1 2 0 1 1 1 0 0 0 3 1 0 1 1 0 1 0 0 2 1 0 1 0 2 2 0 0 0 0 2 0 2 0 0 0 0 0 1 1 1 1 0 0 0 0 1 0 0 1 1 0 1 1 1 1 0 1 2 1 0 0 0 0 0 2 0 0 1 0 1 1 0 0 1 1 0 0 0 0 2 0 1 1 0 1 0 1 1 2 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 2 0 0 0 1 0 0 2 1 1 1 0 1 0 0 0 0 0 3 0 0 0 0 0 0 1 2 1 0 0 0 0 1 0 0 0 2 0 0 0 1 1 1 0 0 1 0 1 0 1 0 1 0 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 2 0 1 1 0 2 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 2 1 1 0 1 1 0 0 0 0 0 0 0 0 1 0 1 1 2 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 2 0 1 0 2 1 0 0 0 0 2 0 0 1 1 1 0 0 2 1 0 2 0 1 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 2 2 1 1 0 0 1 1 0 1 0 0 0 1 1 0 0 1 0 1 1 0 0 2 0 0 0 1 1 1 1 1 0 1 2 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 2 1 0 0 1 0 1 1 1 2 0 0 1 0 1 0 2 2 0 0 0 1 0 0 0 1 1 1 0 0 0 1 1 0 0 1 0 1 0 0 0 0 1 0 0 0 0 2 1 0 0 0 0 0 1 1 1 2 0 0 0 0 3 1 1 0 1 0 0 0 0 0 0 1 1 0 1 2 1 1 0 1 1 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 1 0 1 1 0 1 1 1 0 0 1 1 0 1 2 0 0 0 1 1 1 0 0 1 2 0 1 1 0 0 0 1 0 0 0 3 0 0 0 1 0 0 1 2 0 0 1 1 0 1 1 0 2 0 0 0 2 0 1 0 1 1 0 0 1 0 0 1 0 0 0 1 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 2 0 0 1 0 2 1 2 2 0 2 1 1 0 1 1 1 1 0 2 0 1 1 0 1 0 0 0 1 1 0 1 1 0 1 0 0 0 0 1 0 2 0 2 0 0 0 1 0 0 1 1 1 0 2 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 2 0 0 2 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 1 1 1 0 0 0 3 1 1 2 0 0 0 1 0 0 1 0 0 1 0 0 0 0 2 0 0 2 1 1 0 0 2 1 1 0 1 0 0 1 0 0 0 2 0 4 0 1 2 0 1 0 0 0 0 0 0 0 3 0 0 1 0 2 0 0 0 1 0 1 1 0 2 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 1 0 2 1 1 0 1 1 0 0 1 0 1 1 1 0 0 1 0 0 0 0 0 0 0 2 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 1 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 2 0 1 1 0 1 0 0 0 1 2 0 2 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 1 2 1 0 0 1 1 0 0 0 2 0 0 0 0 0 0 0 2 0 0 0 0 1 1 2 0 0 1 1 1 1 0 1 0 1 0 0 0 0 2 0 1 0 2 2 0 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 1 0 0 1 0 0 0 1 0 0 1 0 0 1 2 0 0 0 2 1 1 0 0 0 0 0 1 1 0 0 0 0 1 1 1 0 0 0 0 0 1 0 0 1 1 0 1 1 0 0 0 0 1 0 1 0 0 1 1 2 0 0 0 0 0 2 2 0 1 0 1 1 0 0 1 0 0 0 0 1 1 0 0 1 0 1 0 1 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 1 1 0 0 0 0 1 0 1 1 1 0 0 1 1 0 0 0 0 1 1 0 1 0 2 0 0 1 0 0 0 0 1 0 0 0 1 0 1 1 0 1 0 1 1 0 0 1 0 2 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 2 1 0 0 1 0 2 1 0 0 1 2 0 0 0 0 0 0 0 0 0 0 1 0 1 0 2 2 1 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 1 0 1 0 1 2 0 1 0 0 0 0 0 0 0 1 2 1 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 2 1 1 1 0 2 0 0 1 0 0 0 1 0 2 0 0 0 1 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 3 0 0 1 1 0 0 1 0 3 1 0 0 0 1 1 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 2 0 1 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 1 1 2 0 0 1 0 0 0 0 1 1 1 1 0 1 0 0 1 0 1 1 0 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 2 0 1 1 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 3 0 0 0 2 0 0 0 2 0 2 1 1 0 0 1 0 1 1 0 0 0 0 0 1 1 0 0 1 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 2 0 0 1 0 0 1 1 0 2 1 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 2 0 1 2 0 0 0 1 0 0 0 0 0 2 0 0 1 0 2 1 1 0 1 1 0 3 0 0 0 1 1 0 3 0 0 1 0 0 0 1 1 0 0 0 1 0 1 1 0 0 0 2 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 2 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 2 0 0 0 1 0 0 0 1 0 1 0 0 2 1 0 0 1 0 0 0 0 0 2 0 1 0 0 3 1 0 1 0 0 3 2 0 1 4 0 1 0 0 0 0 1 1 3 0 1 0 2 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 3 1 2 0 1 1 0 2 0 0 0 2 0 1 0 0 0 0 1 0 0 2 0 0 0 1 1 0 0 0 0 1 0 1 0 1 2 0 1 0 1 0 0 0 0 0 0 0 2 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 1 0 0 0 0 0 0 1 1 1 1 1 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 1 2 0 0 1 0 1 1 1 0 0 1 2 0 1 1 0 1 0 0 0 0 0 0 0 0 2 1 2 0 1 0 0 0 0 0 0 0 0 0 0 2 1 2 0 0 1 0 0 1 1 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 1 0 1 0 2 1 0 0 0 0 1 0 0 0 1 2 2 0 0 0 0 1 0 2 0 1 0 0 1 1 1 0 1 0 1 0 1 2 1 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 1 0 0 2 0 0 0 1 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 1 2 1 0 0 1 0 2 0 1 0 0 0 1 1 0 1 0 0 0 0 0 0 0 1 1 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 1 3 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 1 0 1 0 2 1 0 0 2 1 1 0 0 1 0 0 0 1 0 1 0 2 0 0 0 1 0 0 1 1 1 0 0 1 0 0 0 0 0 1 0 0 0 1 1 0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 1 0 1 2 2 1 2 0 0 0 0 1 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 2 2 1 1 0 0 0 2 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 1 1 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 2 2 0 0 0 0 0 1 1 0 0 2 1 0 0 0 1 0 1 1 0 0 0 1 0 1 0 0 0 1 0 0 0 1 0 2 1 0 0 0 0 0 1 0 0 0 1 2 0 1 1 1 0 0 0 0 0 0 1 1 1 2 0 0 0 1 0 0 0 1 1 0 1 0 0 0 0 2 1 0 1 1 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 1 0 1 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 1 2 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 2 1 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 2 0 2 1 0 1 2 1 0 0 0 0 1 0 0 0 0 2 0 2 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 1 2 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 1 0 0 2 2 0 1 0 1 1 1 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 1 2 1 3 0 0 0 0 0 0 0 1 1 1 0 2 1 1 0 0 0 0 1 2 0 0 0 1 1 1 0 0 0 2 0 0 1 1 1 0 0 1 0 0 0 0 0 0 1 0 0 1 1 1 0 2 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 0 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 1 1 1 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 1 0 0 0 0 0 2 2 0 1 1 0 0 0 0 0 1 0 0 1 2 1 0 0 0 0 1 1 0 1 2 0 0 1 1 1 0 0 0 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 5 0 0 2 1 0 0 0 1 0 0 0 0 0 0 0 0 3 0 0 1 0 2 1 0 1 0 0 0 1 3 2 0 0 0 0 0 0 0 2 1 0 0 0 0 1 0 0 0 1 2 1 0 0 2 1 0 1 0 0 1 1 0 0 2 0 2 1 0 0 1 0 2 1 1 1 0 0 1 0 0 1 1 0 1 0 0 0 0 0 3 0 1 0 1 0 0 1 0 1 1 0 0 0 0 0 2 0 0 0 0 0 1 0 0 1 0 1 1 0 1 1 0 0 0 0 1 1 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 3 1 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 4 1 1 1 1 0 0 1 0 0 0 2 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 2 0 1 0 1 0 0 1 2 1 1 0 0 0 1 1 3 2 1 1 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 1 1 3 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 2 0 0 0 0 1 2 0 0 0 0 1 0 0 0 0 1 2 0 1 0 0 0 1 1 1 1 1 0 2 0 1 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 1 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 1 1 3 0 0 0 1 0 2 1 1 0 1 1 0 0 0 0 1 0 2 0 0 0 1 1 0 1 0 0 3 0 0 0 1 0 2 0 0 0 1 0 0 0 1 0 1 1 0 0 1 0 2 2 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 1 2 0 0 1 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 2 0 0 1 0 1 1 1 0 0 0 0 0 1 1 1 0 0 1 0 0 0 0 0 1 0 0 2 0 0 0 3 0 0 0 1 0 1 0 0 0 1 2 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 1 0 0 1 0 0 1 0 1 1 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 1 0 2 0 0 0 0 1 0 0 1 0 1 0 0 0 2 1 0 1 2 0 1 0 0 0 1 2 0 0 1 1 1 1 0 1 0 0 0 0 1 0 0 1 1 0 0 1 0 0 2 1 1 1 0 2 0 0 1 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 2 0 1 0 0 1 0 1 0 0 0 0 0 3 0 1 0 0 1 1 1 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 2 1 0 1 1 0 0 1 1 1 0 1 0 0 0 0 0 0 1 1 0 2 0 0 0 1 0 0 0 0 0 0 1 1 0 1 1 0 0 2 2 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 2 0 1 0 3 0 1 0 1 1 1 0 0 0 0 0 2 2 1 0 0 0 2 0 1 1 0 0 1 1 0 0 1 0 1 0 0 0 0 1 0 1 2 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 2 1 0 1 1 0 1 0 0 0 1 0 0 0 0 2 0 0 2 1 1 0 0 0 1 0 0 0 0 1 0 2 1 1 0 1 1 0 1 0 0 0 1 0 0 1 0 1 0 0 1 0 0 0 3 1 0 1 1 1 1 0 0 0 1 0 0 1 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 1 0 0 0 0 1 0 1 0 0 1 0 1 0 1 0 1 1 1 0 0 0 0 1 1 0 1 0 0 1 1 0 1 1 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 1 1 1 0 0 0 1 0 1 0 2 0 0 0 1 1 0 0 0 0 0 1 1 2 0 1 0 0 0 0 0 0 0 1 0 0 0 2 0 0 1 0 0 0 1 2 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 1 1 1 0 0 1 0 0 1 0 1 0 0 0 1 1 0 0 0 0 2 0 2 0 0 1 0 1 0 1 2 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 1 1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 2 2 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 2 0 2 0 0 0 0 1 0 0 1 1 0 0 2 2 0 1 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 1 1 0 1 0 0 0 0 1 0 1 2 0 1 0 0 0 0 3 3 0 1 2 1 2 0 0 1 0 0 0 0 0 0 1 0 1 2 0 0 0 0 1 1 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 1 0 0 1 0 0 0 0 0 1 0 3 0 0 1 1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 3 0 0 0 1 1 1 0 2 1 1 1 0 0 0 2 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 2 0 0 1 0 1 1 0 0 0 1 1 2 0 1 0 0 1 0 1 2 0 2 0 0 0 0 0 0 0 1 0 1 0 2 0 0 1 1 0 0 2 1 0 0 0 1 1 0 0 3 0 0 0 0 1 1 0 0 2 1 0 2 1 2 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 2 0 3 0 1 0 0 0 0 0 0 0 0 0 0 1 1 1 0 1 1 0 1 0 1 0 2 0 2 1 1 1 1 0 0 0 0 0 0 0 3 1 0 0 0 0 0 1 0 0 0 1 2 2 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 1 1 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 1 1 0 1 1 0 0 1 0 1 0 0 0 0 0 0 1 2 1 1 1 1 1 0 1 1 0 1 0 0 0 1 0 0 1 1 2 1 1 0 2 1 1 0 0 1 0 0 0 0 0 0 2 1 0 1 0 3 0 0 0 0 0 0 0 0 0 0 1 1 2 1 0 1 0 1 2 0 1 2 1 0 0 1 1 0 0 0 0 1 0 1 2 0 2 0 1 0 1 0 0 1 0 0 0 0 1 0 0 0 0 1 1 1 1 0 1 0 1 1 0 0 0 0 1 0 0 0 0 0 1 2 0 0 0 0 1 0 0 0 1 0 3 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0 1 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 2 1 0 0 0 0 0 0 0 0 0 3 0 0 1 0 1 0 0 1 1 1 0 0 1 0 5 1 0 0 0 0 0 1 1 0 0 0 0 0 0 2 2 0 0 0 0 1 0 2 1 0 0 0 1 0 0 0 0 0 3 1 0 0 0 0 1 2 0 0 0 1 0 0 0 0 0 0 1 0 0 1 2 0 1 0 0 2 1 0 0 0 1 2 1 1 2 0 1 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 2 1 0 0 0 0 0 1 1 0 1 0 1 0 0 0 0 1 0 3 1 1 1 1 1 0 0 1 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 2 0 0 2 0 0 1 0 1 1 1 0 0 0 1 0 1 0 2 0 0 0 1 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 2 0 0 0 0 1 1 0 0 1 1 0 0 1 1 0 1 0 1 1 2 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 2 0 0 1 0 0 0 2 0 0 0 0 0 0 2 1 0 0 0 0 0 3 0 2 1 1 1 1 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 1 1 0 2 1 2 0 1 0 0 0 1 1 1 1 1 1 1 1 1 1 1 1 1 0 1 1 0 0 0 0 1 0 0 0 1 0 0 0 1 1 0 1 0 1 0 1 0 0 0 0 1 0 1 0 1 0 1 0 0 2 1 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 2 0 0 1 0 1 1 1 2 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 2 0 0 1 0 2 0 0 1 1 0 0 0 1 0 0 1 0 0 0 1 0 0 1 0 0 0 0 2 1 0 0 0 1 0 0 1 1 0 0 0 2 0 0 1 0 0 0 0 0 0 2 1 0 0 1 0 0 0 1 0 0 1 0 1 0 1 2 0 0 0 0 0 0 0 1 2 1 0 0 0 0 1 1 1 2 0 0 0 0 0 0 1 0 0 0 0 1 2 0 1 0 0 0 0 1 0 3 0 0 1 0 0 0 0 0 0 0 0 0 0 1 2 0 0 1 1 0 0 0 0 2 0 0 1 0 0 0 0 2 0 0 1 1 1 0 0 0 0 1 0 0 1 0 0 0 1 1 1 0 0 0 0 0 0 0 2 0 0 2 1 2 1 0 1 0 0 0 0 0 2 0 0 1 0 0 0 0 1 0 2 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 1 0 0 0 3 0 0 0 0 0 1 1 1 0 0 0 2 0 0 1 0 0 1 1 0 0 0 2 1 1 2 0 0 0 1 0 0 1 1 0 1 1 0 0 1 0 1 1 1 0 0 1 0 1 0 0 1 0 1 0 0 1 2 0 0 1 1 0 0 0 1 0 2 0 0 0 1 0 0 0 1 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 1 1 0 1 1 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 1 1 0 0 1 1 0 1 0 0 0 0 3 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 2 0 0 1 2 0 0 0 0 1 0 0 1 1 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 1 1 1 1 1 2 0 0 0 1 1 2 0 0 0 0 0 0 0 1 0 1 2 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 2 0 0 0 0 2 0 0 1 0 2 1 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 2 0 1 0 1 0 0 0 0 1 3 0 1 1 0 0 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 1 0 1 1 0 1 2 0 0 0 0 1 0 0 0 0 0 3 0 0 0 1 1 1 1 0 1 0 0 0 1 3 2 1 1 0 1 0 0 1 0 0 0 2 0 0 0 1 1 0 0 0 1 0 0 1 2 0 0 0 1 1 0 0 0 0 3 1 0 1 2 0 1 1 0 0 0 2 0 1 0 0 1 2 0 1 0 0 1 0 0 0 0 0 1 1 0 1 0 1 1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 1 0 0 1 1 1 1 0 0 1 0 0 1 1 0 0 1 0 0 1 2 0 1 0 0 0 0 1 0 0 1 0 2 0 2 0 0 2 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 3 0 0 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 1 1 1 0 1 1 0 0 0 4 1 1 0 0 1 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 1 3 0 1 0 1 1 0 0 1 0 0 1 1 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 1 2 0 0 0 1 1 0 0 0 0 0 0 1 1 2 1 1 1 1 0 0 0 0 0 0 1 0 1 0 0 0 2 0 0 0 0 1 0 0 0 0 2 2 0 0 0 0 2 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 2 0 3 1 0 0 1 1 0 1 1 1 1 0 0 1 1 0 1 3 0 0 1 0 2 0 0 1 0 0 0 0 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 2 1 1 0 1 3 0 0 0 1 1 0 1 0 1 2 0 1 1 0 0 1 0 0 0 1 0 1 1 0 2 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 2 0 1 0 0 0 0 1 0 0 0 0 0 2 0 0 2 1 0 0 0 0 0 0 0 0 0 1 1 0 2 0 0 0 0 0 0 0 0 0 3 1 0 0 1 0 1 0 0 1 0 0 0 1 1 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 2 0 1 2 0 2 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 2 1 1 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 2 1 0 0 0 0 0 1 0 0 1 2 0 0 1 1 0 0 0 1 1 0 1 2 0 0 1 0 0 0 0 2 1 1 1 2 0 0 0 0 1 0 0 0 2 0 0 0 1 0 0 2 0 0 1 0 0 0 1 2 1 0 0 0 1 0 1 0 0 0 1 0 0 2 1 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 2 0 0 1 0 0 1 0 0 0 0 0 0 0 0 3 1 0 0 0 1 1 0 1 0 1 2 0 0 2 0 1 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 4 2 0 0 1 1 0 0 0 0 0 1 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 1 2 0 1 0 2 0 0 2 0 1 1 1 2 0 2 1 1 0 0 2 1 0 0 0 0 0 0 0 0 1 0 2 1 0 1 0 0 1 0 0 0 1 0 0 2 1 0 1 1 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 1 1 1 1 0 0 0 0 0 1 1 0 0 0 1 0 1 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 1 1 2 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 1 1 0 0 0 1 0 0 1 1 0 0 1 1 0 1 1 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 3 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 2 0 1 0 2 0 2 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 2 0 0 0 1 0 2 0 0 2 0 2 0 1 0 0 0 1 0 0 3 0 1 0 0 1 0 0 1 0 1 2 0 1 1 0 0 0 0 1 0 0 1 0 1 0 0 2 0 0 0 1 0 1 0 0 1 2 0 0 0 0 0 1 0 0 1 2 2 1 0 1 0 0 0 1 1 1 1 0 1 1 0 1 0 1 1 0 1 0 0 1 1 1 0 0 1 0 1 0 1 0 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 2 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 1 1 0 1 1 0 0 1 1 1 0 1 0 0 1 2 3 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 2 1 0 1 1 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 1 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 3 0 0 2 1 1 0 0 1 0 1 0 0 2 0 2 0 0 1 0 0 1 0 1 1 0 0 0 1 1 0 1 1 0 0 0 0 0 0 0 0 2 1 0 0 0 1 1 0 0 0 1 0 2 0 1 1 1 0 0 0 0 2 0 0 0 0 0 0 0 2 0 4 0 0 1 2 1 0 0 0 0 1 0 0 1 2 0 0 1 1 0 1 0 2 4 0 1 1 3 1 1 0 0 0 0 0 1 0 0 0 1 1 2 1 0 0 3 0 0 0 0 0 0 2 0 0 0 1 0 1 1 0 0 1 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 2 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 1 0 1 0 0 0 0 1 1 0 0 0 0 1 0 1 0 1 1 0 0 1 0 0 1 1 0 1 0 0 0 1 1 1 0 1 0 0 1 0 0 0 0 0 0 1 1 0 1 0 2 0 0 4 0 1 0 0 0 1 0 0 1 0 1 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 1 0 2 1 0 0 0 2 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 2 0 0 1 2 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 2 0 0 1 0 1 0 1 1 2 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 3 2 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 1 2 1 0 0 0 0 0 1 0 2 0 0 0 0 0 1 0 0 1 0 1 0 0 2 0 1 0 0 2 0 0 0 0 0 0 0 0 4 1 1 0 0 1 0 0 2 1 0 2 2 1 1 0 0 0 0 0 0 1 0 0 0 1 0 1 1 1 1 0 1 0 0 2 0 2 0 0 1 0 0 0 0 0 0 0 0 0 1 1 1 2 0 0 0 0 0 1 1 0 0 0 0 0 2 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 1 0 1 2 2 0 0 0 1 0 1 1 0 2 0 0 0 0 0 1 0 1 5 0 0 0 0 2 0 0 0 1 0 1 1 2 0 1 1 0 0 1 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 0 1 1 1 0 0 0 1 1 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 2 0 1 1 0 0 0 0 1 0 1 0 0 0 0 1 0 2 1 0 0 0 2 0 0 0 1 0 0 2 0 0 0 0 0 0 1 0 0 1 0 1 1 0 2 1 2 0 0 1 0 0 1 0 1 1 0 1 0 0 1 1 1 0 0 0 2 0 0 0 1 0 0 1 0 0 2 0 0 0 0 0 0 1 0 1 2 1 0 0 1 0 3 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 1 0 2 0 1 2 0 0 1 1 1 1 1 0 1 2 0 0 0 0 0 2 1 0 0 1 2 2 0 1 2 0 1 0 0 1 1 2 2 0 0 1 0 0 0 1 1 2 0 0 2 0 1 3 0 0 0 1 1 0 0 0 0 0 1 0 2 0 1 1 0 1 2 0 0 1 1 1 0 0 0 0 1 1 0 1 0 0 1 1 0 0 0 0 0 3 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 2 1 1 1 0 0 0 0 3 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 3 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 1 1 0 0 0 0 1 0 1 1 0 0 0 0 1 0 2 0 1 0 0 0 1 0 1 0 1 1 1 1 0 0 0 0 0 0 2 0 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 2 0 0 0 0 1 0 0 1 0 0 1 1 1 0 0 0 0 1 0 1 0 0 1 1 0 1 0 0 0 1 0 0 0 2 0 3 1 0 0 1 0 1 0 1 0 0 0 1 1 1 0 0 1 0 1 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 2 0 0 1 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 1 0 0 0 0 0 3 0 0 0 0 2 1 0 0 0 0 2 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 1 0 0 0 0 1 1 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 1 2 1 2 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 2 0 0 0 0 1 0 1 1 0 0 0 1 2 0 1 1 0 1 0 0 0 2 0 2 0 2 2 0 0 0 1 1 0 1 0 1 0 1 0 0 0 0 1 0 1 0 1 0 1 2 0 0 0 2 1 2 0 1 0 0 0 1 0 0 0 1 0 1 2 1 0 0 1 1 0 0 0 0 1 0 0 0 0 3 1 0 1 0 0 1 1 0 0 2 0 1 1 1 0 0 0 1 2 0 1 2 0 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 1 1 0 0 0 2 1 0 0 0 1 2 2 0 0 1 1 0 0 0 2 0 0 0 0 1 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 1 2 1 1 0 0 1 1 0 0 1 0 0 0 2 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 0 0 2 0 0 0 0 0 1 0 1 1 0 1 1 2 0 1 1 0 1 0 1 0 0 0 1 0 0 0 0 1 0 1 0 1 0 1 0 0 0 1 0 0 0 1 0 1 1 2 0 1 0 0 0 0 0 0 0 0 0 0 1 2 2 2 0 1 0 1 0 0 1 0 1 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1</t>
-  </si>
-  <si>
-    <t>GAM(23.71849758069593, -97.97683127627741, 8.859837407446935)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74 78 65 127 54 54 97 122 147 93 87 141 77 157 105 132 96 130 119 125 135 97 98 102 59 106 140 184 70 72 85 107 116 112 87 96 105 97 70 115 156 140 77 40 70 80 112 78 96 66 129 102 164 72 107 184 165 93 205 142 125 65 149 123 86 166 126 110 136 133 194 42 121 108 33 62 147 88 129 174 139 69 59 109 120 172 82 108 108 66 74 90 117 149 181 143 45 78 101 116 124 90 78 127 109 82 58 63 165 167 108 115 132 73 130 110 60 130 111 52 86 103 126 113 177 185 129 131 163 188 53 51 98 107 68 147 35 132 158 89 187 47 95 72 105 59 210 116 124 125 113 73 129 53 67 114 102 139 136 85 54 160 91 115 90 144 113 96 122 19 156 122 58 191 48 123 48 98 138 91 126 131 107 49 73 74 183 151 162 92 94 101 135 123 160 188 177 141 146 118 115 70 94 62 142 102 99 155 80 120 142 102 138 126 136 57 125 67 136 133 42 94 98 197 152 102 98 17 33 121 102 200 46 175 165 147 130 81 143 150 213 43 134 119 38 203 132 79 46 167 57 103 176 122 145 106 125 113 116 169 167 108 81 126 140 99 141 112 142 127 56 83 122 108 92 20 122 162 124 21 169 153 159 43 74 74 140 97 30 45 136 124 177 113 79 105 75 141 177 128 111 158 132 74 100 189 90 157 208 111 285 101 170 86 113 112 98 59 109 170 168 117 139 63 116 107 41 122 190 128 214 85 106 53 135 139 68 70 171 77 156 101 124 126 147 164 84 119 133 84 113 62 171 59 113 61 82 111 135 119 114 40 82 105 165 128 202 125 151 97 195 33 115 80 79 126 178 69 64 77 70 129 118 26 132 83 48 61 46 32 74 83 157 117 156 160 76 133 138 47 89 170 138 63 171 129 75 92 142 74 161 138 99 54 153 70 89 74 42 65 195 151 79 137 157 108 29 20 123 99 159 67 96 140 143 172 52 68 106 95 33 59 80 80 105 93 157 27 89 37 52 46 87 148 62 36 137 188 58 111 170 127 210 108 166 111 117 203 45 76 95 59 67 160 102 106 183 50 111 61 123 90 114 101 49 138 84 92 181 76 136 195 135 88 137 145 67 118 62 142 151 139 41 115 21 81 90 147 152 158 109 79 104 92 80 137 100 114 43 97 122 142 120 119 88 138 65 21 105 101 155 14 79 54 54 100 118 166 99 50 72 50 83 123 95 117 155 81 103 109 115 77 92 26 167 150 105 99 37 87 149 219 184 40 121 122 150 82 149 150 80 246 54 60 99 88 117 159 138 78 79 21 135 170 144 48 136 89 160 159 187 158 79 114 113 56 114 103 177 132 171 54 131 109 94 190 161 263 212 100 81 161 145 127 48 155 65 121 125 116 40 196 37 59 99 67 92 160 128 128 151 246 100 134 219 82 219 91 173 83 157 80 195 116 151 103 121 154 110 75 98 130 52 188 67 153 124 266 169 149 95 72 125 75 98 128 76 159 133 118 235 169 54 78 58 50 33 133 120 148 80 33 44 96 121 147 112 91 75 93 68 55 128 40 86 139 187 106 35 174 67 160 114 116 129 173 111 53 84 95 232 135 132 49 99 35 72 84 261 78 188 36 101 156 51 141 226 68 118 152 155 177 112 145 82 66 80 64 133 50 90 69 92 88 163 95 38 171 130 94 82 78 112 122 79 178 33 109 105 150 111 129 51 203 103 41 49 76 111 122 92 121 79 61 129 99 181 104 115 108 101 91 47 76 54 82 207 141 91 101 120 109 69 156 90 110 134 98 88 64 79 68 104 117 94 90 97 122 82 101 107 74 79 67 97 137 112 56 99 150 50 107 136 54 154 110 84 150 100 113 47 121 77 80 126 175 120 69 115 117 135 113 88 89 140 76 64 119 62 72 104 78 138 49 139 134 89 55 194 71 106 112 94 90 58 59 67 67 77 189 99 65 101 132 62 88 198 93 146 154 150 130 106 150 115 136 53 116 253 83 124 57 151 114 92 142 69 168 73 136 79 162 121 124 94 113 129 69 73 285 151 59 64 50 129 130 85 93 102 98 63 127 150 116 140 122 32 175 183 69 109 93 80 134 122 156 109 39 38 90 63 78 187 122 166 119 127 127 263 71 171 89 143 72 181 40 141 97 50 110 42 107 78 116 39 83 97 140 100 155 122 53 128 88 144 138 157 57 113 122 84 160 150 100 110 66 64 105 168 93 135 146 60 141 117 162 103 114 79 103 86 123 89 115 118 188 99 145 172 23 37 95 88 122 134 100 138 95 114 107 90 169 118 109 94 158 123 101 105 57 116 117 237 138 140 131 65 131 61 48 63 86 176 71 129 136 109 70 149 97 191 18 95 63 70 146 82 46 182 108 54 153 139 145 153 72 114 147 75 54 91 81 148 110 173 173 121 151 92 133 52 81 99 129 40 108 159 171 44 124 212 44 71 108 112 84 158 96 24 80 180 130 106 106 66 98 118 109 158 195 97 140 86 147 71 66 96 154 134 49 202 73 96 177 86 113 89 56 85 168 45 115 80 124 62 93 113 181 176 150 85 72 99 133 124 85 73 177 97 52 71 98 37 76 152 87 103 106 114 187 78 135 85 117 134 133 75 165 121 100 140 74 98 181 153 160 137 111 124 203 160 143 90 95 83 88 54 105 156 183 83 104 72 107 120 66 152 107 132 23 63 168 135 155 94 122 116 150 104 63 175 122 150 57 129 122 99 155 133 70 123 149 82 74 84 178 62 94 38 98 143 100 108 46 151 133 118 79 123 180 26 60 88 127 61 115 88 55 92 140 128 202 140 99 96 186 79 114 53 119 166 112 64 115 90 146 6 113 120 118 131 42 92 118 48 36 134 117 122 203 63 59 200 154 105 97 58 100 57 49 99 93 135 87 59 75 46 181 136 118 130 101 120 47 63 176 155 135 121 78 120 159 183 163 62 166 74 180 61 98 66 92 38 29 193 136 156 98 91 181 125 124 89 158 159 96 141 9 73 63 150 124 139 157 183 74 128 64 137 98 153 181 63 93 91 169 96 146 84 79 114 138 102 112 145 99 20 61 62 180 55 23 118 99 98 100 132 135 103 72 92 123 120 89 53 175 113 85 49 36 106 121 164 145 105 126 131 177 89 67 120 136 113 164 89 204 112 48 112 82 76 210 120 114 110 45 84 167 102 56 81 77 51 114 64 203 175 259 80 106 217 199 41 171 149 82 85 49 148 79 87 158 122 111 185 151 111 75 140 87 79 139 127 148 144 159 42 128 76 117 176 81 45 110 177 125 50 64 139 121 99 77 69 85 116 53 76 131 55 107 103 44 109 92 77 104 127 98 101 73 137 99 32 134 117 139 82 119 94 213 132 138 115 212 90 32 104 65 103 125 74 57 78 131 130 113 141 97 77 76 98 119 58 146 108 149 88 187 131 80 65 151 130 94 116 74 99 75 108 91 129 116 59 110 97 91 33 122 123 239 189 144 80 149 102 102 47 144 167 185 81 107 93 136 136 56 280 106 186 54 80 85 87 16 114 181 118 88 130 74 93 144 117 121 122 111 165 145 101 73 164 111 151 161 164 92 79 52 92 144 36 117 72 93 111 164 113 118 120 65 116 171 123 98 90 110 87 161 169 74 92 135 147 59 99 89 83 124 101 165 221 81 138 71 123 79 112 95 107 131 45 129 38 155 128 60 79 106 161 202 104 194 57 120 90 135 80 120 79 135 82 111 86 33 91 165 102 19 113 116 66 104 143 108 111 70 49 78 104 105 19 154 85 151 130 121 171 89 99 90 50 227 97 80 118 76 65 132 144 127 74 125 44 89 144 167 118 75 94 148 98 35 98 89 169 105 115 135 88 136 230 123 104 52 98 74 66 124 174 91 53 83 47 154 92 105 44 64 253 109 64 57 133 135 108 109 70 198 228 106 74 140 85 145 102 96 198 77 105 117 138 68 41 166 92 75 119 176 91 96 167 81 153 155 88 89 155 115 101 119 92 110 128 130 187 114 81 33 142 200 114 137 99 65 90 74 98 50 150 142 147 95 83 175 26 134 94 127 104 105 163 108 162 219 85 23 60 51 127 139 53 101 178 29 154 62 235 68 112 124 165 153 133 114 112 111 134 137 46 210 156 142 42 94 87 130 131 121 71 130 82 113 105 199 98 176 154 91 77 141 125 205 29 97 104 164 132 110 87 133 98 59 97 103 76 76 83 175 41 122 132 77 56 191 184 101 143 81 91 58 105 86 87 125 62 66 106 182 90 104 108 127 203 62 138 124 75 97 159 99 142 174 148 59 124 75 185 87 94 118 104 106 93 76 127 110 105 142 172 132 56 116 57 147 107 68 134 149 137 79 62 170 183 96 248 135 30 113 153 194 31 48 54 91 86 144 153 116 85 162 140 135 96 99 157 125 108 122 131 125 104 155 69 97 161 134 84 63 127 98 75 49 237 108 170 74 59 140 127 59 123 123 141 114 83 116 195 119 104 68 92 109 115 91 93 103 112 57 118 47 67 144 206 141 75 151 134 162 134 83 156 121 87 152 180 99 134 121 47 123 49 146 155 101 83 98 166 80 87 118 86 48 104 39 158 120 72 93 190 74 166 158 135 181 59 161 175 121 118 156 99 140 24 38 119 189 152 137 96 40 94 101 176 129 105 99 101 94 183 81 149 96 83 125 149 106 156 132 76 91 102 85 117 146 112 140 142 118 113 113 54 102 81 157 32 59 192 134 101 65 127 176 205 73 105 184 71 61 138 89 109 134 169 95 87 103 106 164 186 170 62 100 33 139 89 153 88 90 135 118 77 55 117 219 84 119 87 160 138 119 111 99 108 130 108 89 124 174 91 170 139 65 72 164 101 168 112 76 91 108 74 165 73 75 181 70 176 64 110 86 205 115 75 115 132 46 63 125 142 184 120 118 113 98 85 95 162 155 120 186 92 114 126 179 55 110 133 154 122 86 107 157 113 78 95 175 124 90 54 73 94 88 110 109 100 62 151 54 143 159 150 98 155 155 49 183 47 104 79 123 69 72 164 132 70 93 86 122 173 113 133 168 38 89 205 158 116 48 77 132 180 173 28 128 194 141 150 27 48 99 150 59 127 123 143 85 153 128 78 181 20 149 70 29 91 54 125 68 126 122 91 52 158 121 62 86 60 144 116 145 178 122 45 107 112 111 138 160 81 124 61 162 60 170 56 211 29 117 97 131 130 264 105 131 140 109 95 164 133 115 152 97 123 118 91 92 69 132 149 28 101 158 69 129 129 113 61 175 130 62 96 153 205 164 114 94 87 44 40 165 112 155 85 34 96 94 77 123 161 130 150 114 140 62 69 214 91 103 26 167 143 74 158 159 76 131 124 178 62 104 135 122 55 123 72 51 95 57 93 68 151 127 110 109 56 148 114 83 80 138 120 91 128 86 121 103 218 161 135 205 110 98 171 206 211 47 173 71 112 168 111 139 55 73 148 174 90 118 145 118 151 126 115 144 123 154 182 113 93 106 91 119 118 66 38 42 215 81 189 95 123 113 208 110 93 180 90 137 90 64 54 107 71 25 84 159 76 138 146 138 79 89 96 60 37 77 201 58 193 98 92 107 112 68 193 29 101 160 74 44 47 113 85 52 144 68 120 53 126 122 97 117 133 39 95 145 109 210 110 100 164 177 91 102 147 38 140 105 174 67 97 57 165 154 113 128 133 187 91 67 112 62 175 146 123 97 95 108 70 114 156 94 81 72 224 140 144 85 165 184 91 116 84 144 248 62 64 69 156 137 151 138 173 211 53 60 164 78 147 102 60 76 122 113 117 99 196 83 78 108 150 135 123 90 122 104 166 101 104 131 48 138 106 91 161 132 74 36 64 173 94 171 38 76 84 153 163 121 132 90 141 104 128 75 128 187 100 -2 63 175 136 207 73 119 188 142 63 177 107 139 145 179 60 156 118 99 106 190 56 89 93 64 111 124 122 37 143 109 178 46 118 149 132 84 127 98 50 178 118 89 120 178 158 132 74 107 137 55 81 114 174 106 88 90 64 141 185 103 49 105 141 113 151 82 79 122 131 188 130 105 96 110 68 94 100 160 109 174 117 84 120 163 87 94 109 105 106 196 73 130 99 191 118 81 151 60 72 97 110 132 82 93 135 32 115 159 123 114 62 170 36 142 113 64 148 174 152 166 157 138 105 168 117 96 116 118 80 102 114 76 83 65 65 141 73 44 43 69 150 133 83 33 124 132 80 97 135 22 76 158 56 133 129 179 98 150 96 29 134 63 159 68 80 99 165 93 155 85 120 79 153 139 148 92 201 107 52 174 71 147 101 110 181 80 64 96 96 132 90 274 159 129 71 149 104 73 137 100 62 92 115 52 89 69 63 91 62 116 113 123 84 146 68 85 99 133 135 78 115 161 124 176 181 137 171 42 129 63 146 94 92 40 87 89 147 155 109 99 142 128 72 94 129 117 95 133 108 154 190 95 154 101 50 88 113 71 63 111 117 127 145 128 96 116 96 211 88 241 126 128 77 113 106 98 98 127 133 137 89 139 114 137 83 154 191 194 156 69 156 166 135 127 92 145 107 96 87 49 93 83 55 148 94 100 118 128 138 96 67 201 90 49 97 156 294 46 71 85 72 64 150 128 105 120 101 116 59 118 48 111 77 161 58 249 107 143 60 148 140 148 54 189 84 136 145 84 113 103 67 78 149 138 155 90 127 82 168 59 132 70 138 69 118 159 166 55 101 103 125 118 67 81 115 146 135 81 60 153 180 133 146 95 101 65 193 74 170 188 82 61 166 56 152 156 27 135 110 113 147 79 103 60 90 101 97 106 89 102 77 110 84 113 118 145 106 71 148 89 122 61 67 195 58 91 127 139 87 55 93 66 129 102 129 117 150 157 62 64 172 91 144 149 144 142 101 101 133 226 12 232 123 151 79 168 90 147 110 102 91 166 138 94 119 82 145 120 109 48 123 186 114 122 87 105 110 126 125 136 112 19 170 87 93 163 72 133 38 207 64 151 151 85 72 97 87 65 92 27 182 88 101 103 103 88 108 102 51 75 144 112 119 102 120 129 138 127 136 71 128 107 142 130 97 79 262 101 136 86 164 140 96 46 165 72 100 82 115 98 91 89 147 131 158 105 114 105 175 184 81 75 57 230 118 169 84 161 124 82 159 144 104 125 135 145 166 111 51 60 162 39 157 132 105 75 29 56 131 91 79 98 121 95 70 117 106 163 144 126 91 128 73 112 117 157 217 103 99 201 177 170 77 107 216 158 94 81 79 134 90 105 91 126 130 94 135 115 82 57 120 113 126 164 103 78 64 141 106 134 138 57 159 134 113 247 126 101 60 115 88 95 155 140 143 99 170 84 139 79 136 162 50 111 67 138 150 90 89 120 153 125 67 183 164 169 54 103 218 110 216 284 209 95 100 178 38 111 192 174 145 104 184 132 126 93 167 142 156 74 122 56 66 267 178 73 58 144 109 219 190 128 111 120 100 149 122 98 66 56 99 115 97 130 142 69 179 142 154 95 92 187 139 92 101 80 246 120 240 104 116 153 97 93 154 90 76 95 86 101 91 67 135 32 147 154 144 111 84 33 135 117 45 165 112 43 99 94 88 101 97 170 115 85 125 78 70 190 85 118 92 95 101 41 120 89 114 122 52 122 120 168 75 150 42 102 75 76 109 113 105 112 10 51 204 102 53 81 127 158 109 153 131 103 139 119 92 114 75 114 102 130 71 151 150 54 113 132 71 67 102 134 33 133 123 27 141 125 108 163 107 50 92 143 155 119 148 78 19 201 49 54 88 60 152 164 124 83 91 186 61 34 102 170 88 110 114 85 206 82 121 90 106 101 167 150 142 83 43 150 118 62 126 63 114 107 205 109 170 106 57 184 154 72 95 97 126 110 145 123 129 112 134 69 157 61 148 54 85 33 73 101 110 142 88 155 48 120 186 85 107 160 112 153 145 117 90 97 106 124 149 158 141 170 36 136 91 165 146 175 97 164 23 167 82 116 154 107 131 86 105 116 116 81 37 123 124 169 93 38 134 143 92 85 81 137 95 118 120 102 103 120 90 35 54 103 165 86 120 130 117 78 82 131 139 108 22 170 122 105 232 127 73 115 180 77 67 33 119 116 162 93 167 129 86 96 106 102 63 123 86 39 72 72 60 117 74 102 75 144 81 149 91 119 73 94 153 64 106 178 68 110 103 134 174 69 95 106 147 149 83 114 150 107 215 167 106 178 82 111 37 124 76 64 59 153 132 116 45 76 135 180 125 60 83 95 43 195 185 196 82 123 125 79 62 93 155 195 98 33 139 61 96 35 107 160 111 205 87 73 97 230 175 229 160 80 147 136 157 185 77 127 55 204 198 80 104 62 151 135 61 200 117 166 132 115 69 108 59 165 119 51 76 91 112 51 94 158 69 164 85 127 186 110 69 144 111 99 73 102 97 98 59 91 130 87 152 113 60 31 82 151 87 161 79 36 134 82 81 108 67 141 84 139 99 39 149 32 89 97 113 129 117 99 165 142 30 185 132 147 103 79 110 117 76 62 103 129 155 148 90 45 95 68 94 124 153 146 129 55 204 111 46 64 159 70 126 64 194 119 50 115 108 89 78 145 78 90 154 59 161 104 67 110 116 152 168 92 96 56 156 43 50 162 132 57 45 146 162 76 93 124 107 84 115 168 176 67 73 112 89 191 63 78 155 72 213 97 18 153 107 132 158 119 126 141 117 142 70 154 154 151 175 102 29 128 207 166 135 184 145 82 73 109 87 106 135 105 141 108 42 216 73 117 77 100 75 142 89 75 98 101 190 173 152 74 121 93 126 86 141 200 151 68 134 58 194 128 248 103 106 66 131 137 129 121 136 131 188 73 119 113 130 76 186 133 211 112 101 111 157 60 100 90 130 123 116 51 171 176 109 101 91 213 87 131 93 203 101 59 157 144 194 68 127 142 86 91 77 137 172 105 85 111 148 89 110 114 109 89 112 65 72 194 134 113 104 59 111 93 123 73 87 113 142 130 64 72 134 105 61 57 199 89 127 77 176 86 51 112 66 193 91 51 120 84 26 94 88 137 88 114 144 107 135 125 98 175 149 131 125 49 109 71 32 210 173 156 118 50 170 69 71 67 146 93 122 189 107 102 130 120 176 92 170 104 159 116 94 161 77 57 147 139 51 39 141 81 198 113 165 91 111 111 101 104 122 195 142 181 220 101 47 69 202 80 62 31 169 78 75 108 72 58 96 165 89 22 69 64 95 105 113 117 57 110 97 78 103 143 222 113 88 88 171 144 123 74 89 83 76 78 38 106 87 133 90 161 144 137 106 130 154 101 116 83 84 131 118 174 120 133 101 91 40 194 52 109 128 103 88 29 166 80 94 106 122 118 136 149 164 12 118 105 127 100 233 82 116 137 140 89 112 51 94 170 92 86 155 92 183 149 237 94 60 140 123 65 74 91 19 110 106 173 177 196 82 160 85 180 106 170 84 69 126 74 115 143 190 100 152 60 45 132 180 105 161 73 178 72 160 184 66 65 79 134 99 89 99 133 127 207 108 124 100 160 102 74 118 78 26 124 69 83 99 217 110 168 123 148 109 67 118 139 136 85 96 29 205 83 122 138 161 129 122 135 167 90 128 52 105 80 36 42 91 142 87 211 140 159 179 210 62 133 41 146 150 60 86 122 96 115 77 130 130 105 123 54 105 149 124 166 74 178 141 99 109 129 48 111 57 112 82 44 126 192 171 165 179 115 115 167 182 83 36 164 25 199 124 111 38 134 105 184 148 62 56 171 122 55 95 153 124 213 89 80 62 76 170 124 173 97 118 125 184 126 81 152 170 207 140 185 168 140 82 111 118 115 201 97 61 107 138 198 185 115 115 95 84 78 72 142 27 175 242 105 148 63 105 136 111 93 155 144 97 114 138 89 153 65 23 108 169 157 52 152 106 78 138 155 89 57 50 124 103 209 141 94 67 109 154 47 75 35 70 126 32 83 166 87 128 112 143 33 91 122 65 121 92 163 139 117 89 143 95 121 135 93 103 202 120 73 65 112 94 165 66 118 53 147 51 124 103 140 93 168 77 165 109 190 98 76 125 119 91 104 157 87 68 34 96 53 99 85 58 146 116 100 91 135 188 129 110 111 114 98 148 133 126 218 162 121 119 104 138 111 116 164 212 143 65 150 140 114 124 124 161 88 112 59 72 151 127 164 171 116 62 125 68 86 169 113 67 104 74 133 99 115 100 92 168 100 168 53 128 214 123 212 53 81 143 113 80 36 135 84 75 166 53 112 149 104 35 102 85 44 181 54 92 163 108 88 57 144 133 86 65 103 213 142 239 59 81 156 137 108 117 79 172 83 71 109 131 93 208 84 103 45 154 180 130 152 147 113 79 53 88 130 147 228 54 56 35 92 109 66 79 126 150 92 171 102 161 84 113 161 74 112 114 117 141 124 85 219 73 126 152 93 158 109 83 82 78 92 75 53 120 119 133 141 123 202 52 116 85 132 80 189 143 137 96 113 16 90 141 160 165 144 75 151 71 182 138 161 156 201 75 85 130 87 35 124 75 68 152 85 171 167 83 146 161 114 90 83 131 108 71 105 163 86 210 185 134 136 233 72 78 112 92 155 28 106 103 90 105 175 88 76 92 188 90 45 104 108 84 152 146 71 29 125 56 126 20 82 103 115 63 138 154 123 152 80 159 95 119 95 146 116 132 124 170 48 93 89 179 80 97 149 139 34 68 60 155 67 42 82 112 98 73 154 76 142 120 86 121 188 130 62 78 124 111 105 189 131 76 154 153 132 129 125 161 133 102 155 59 132 46 144 130 105 166 68 73 192 149 96 92 64 114 128 111 118 150 90 164 181 28 119 120 35 108 118 137 88 89 182 164 212 125 123 130 153 161 162 100 89 79 129 123 60 145 98 72 77 152 54 144 158 205 101 80 172 143 171 135 112 126 101 154 118 67 142 161 138 114 82 83 172 141 130 46 128 165 120 145 149 158 109 115 94 64 75 98 144 72 61 90 102 82 87 145 108 171 101 118 68 113 117 83 108 158 128 119 120 84 164 112 76 202 212 82 219 98 121 108 158 190 122 153 74 95 146 192 212 71 121 115 120 144 83 104 94 77 75 36 78 149 83 92 100 52 164 86 117 95 193 101 178 35 116 63 122 88 170 116 105 81 43 144 191 135 127 35 78 126 46 180 136 91 79 173 60 150 40 75 83 71 61 119 99 109 120 117 173 176 164 118 25 65 74 51 149 122 100 62 55 102 117 163 130 117 177 149 80 110 51 177 94 169 123 126 50 161 176 33 101 75 149 99 144 57 125 45 19 105 119 92 99 128 81 81 156 124 186 100 121 135 94 137 99 106 91 87 156 109 169 118 115 110 216 102 25 106 86 116 67 118 84 135 133 192 108 117 91 104 93 218 90 35 93 179 152 69 60 6 54 186 144 141 56 70 121 145 129 153 94 159 73 58 129 72 246 97 149 106 86 135 145 87 109 103 146 121 128 130 134 56 106 146 37 112 53 214 106 198 101 58 44 92 132 68 70 36 126 170 60 92 123 131 76 111 117 150 120 105 131 193 116 87 85 77 75 75 116 208 110 74 31 78 115 55 72 155 58 57 224 102 46 85 164 48 63 130 110 113 68 157 155 86 150 50 79 78 103 85 112 196 135 123 82 204 32 131 44 72 223 144 105 68 121 89 47 79 94 69 89 82 91 183 107 124 66 190 127 140 121 52 93 187 146 168 166 84 105 108 129 73 87 145 65 137 114 172 145 156 49 102 97 120 59 100 57 93 53 123 109 123 51 40 115 90 101 144 133 106 117 129 80 95 90 66 123 130 92 113 105 114 112 66 99 159 86 208 106 137 132 92 87 178 190 12 111 78 93 227 29 144 146 62 112 83 92 146 110 75 22 123 115 135 179 116 93 139 156 75 150 152 155 135 184 159 160 159 160 201 74 96 86 118 111 150 112 202 158 142 120 162 163 178 73 138 86 70 107 67 129 144 115 53 93 148 161 140 143 102 65 111 137 155 117 170 214 51 171 58 117 166 27 98 112 108 143 115 46 98 145 129 112 137 109 138 154 104 77 81 115 134 99 69 98 136 140 149 110 81 146 108 88 151 105 96 36 49 117 104 155 109 115 79 170 152 63 72 128 174 92 81 118 102 150 186 169 137 129 131 49 120 156 131 115 113 127 85 111 220 65 51 96 140 85 128 147 109 100 173 199 88 66 86 155 189 139 76 78 56 54 91 57 84 112 115 134 147 68 52 107 110 46 82 133 78 76 160 129 112 133 101 211 141 119 136 146 32 20 124 196 51 104 86 76 83 186 84 148 68 174 133 60 173 186 182 106 137 66 91 118 97 68 90 76 142 163 100 91 77 16 93 82 154 137 73 128 124 137 154 93 105 14 141 104 141 134 66 79 81 119 133 138 101 106 151 114 138 142 99 74 56 161 170 183 185 85 80 193 155 75 153 62 102 45 149 96 147 47 91 109 27 151 133 138 88 171 130 129 129 121 95 153 141 69 127 165 96 48 95 139 157 142 132 126 124 66 129 82 44 79 218 140 57 63 96 109 140 108 191 67 101 74 73 77 171 112 200 69 161 117 73 55 91 74 97 148 61 125 115 78 123 109 102 57 94 83 50 92 101 114 104 38 111 109 59 74 118 45 119 114 115 71 88 144 165 162 133 168 155 65 205 222 106 141 111 135 126 89 147 34 104 87 161 108 48 73 155 141 55 115 71 125 45 38 97 161 33 127 151 154 103 68 72 155 158 154 87 129 131 102 96 136 88 58 83 176 129 153 67 35 102 68 8 171 83 150 76 161 120 61 89 163 200 106 80 78 93 96 164 108 108 32 93 120 73 103 84 57 129 125 84 158 113 73 89 181 114 120 181 131 200 162 79 88 33 96 169 71 69 86 59 55 111 90 150 117 193 190 84 161 142 94 56 247 134 162 153 119 72 166 111 74 104 129 173 140 71 152 134 164 86 94 117 92 78 84 124 115 130 56 131 21 108 88 129 107 84 73 70 167 93 114 109 80 87 41 129 197 107 144 53 90 148 66 115 114 52 92 73 116 77 116 48 118 164 163 61 73 132 38 132 95 94 251 135 97 130 117 18 102 205 95 91 118 37 102 75 88 96 107 77 92 47 78 84 154 94 68 153 115 116 120 105 162 117 91 77 46 111 141 85 108 147 66 75 26 200 121 143 263 102 168 154 107 23 42 78 77 10 126 73 44 101 128 67 181 235 162 99 166 64 229 189 66 132 57 152 85 119 144 81 55 88 106 162 91 158 96 185 147 80 82 146 84 79 195 82 117 197 120 187 95 129 135 53 102 89 190 99 104 155 118 118 93 102 173 104 132 112 37 114 100 198 87 97 111 126 108 104 84 74 145 137 85 187 179 104 71 89 101 67 94 83 124 156 118 159 99 193 107 143 96 103 74 78 120 182 158 127 96 152 86 108 150 113 124 146 106 90 108 70 41 105 49 184 64 125 51 132 84 101 61 108 153 101 122 80 90 51 66 21 81 102 78 84 105 106 107 89 48 192 91 174 100 103 98 113 74 90 123 67 116 103 144 124 74 78 109 185 161 70 108 142 56 44 64 114 162 70 177 184 64 166 93 111 127 188 118 171 126 82 83 121 96 129 99 75 57 108 67 142 169 151 99 45 71 153 118 143 152 98 167 90 115 74 139 187 130 91 86 86 43 97 171 131 197 137 88 87 109 152 140 86 66 91 62 47 158 52 82 98 152 61 102 125 164 96 120 128 112 89 73 81 70 203 123 133 102 60 35 137 135 107 107 113 76 160 94 135 212 69 154 72 137 196 184 165 67 120 84 93 96 144 173 79 164 181 122 142 89 137 136 146 110 92 134 121 201 106 25 196 190 49 76 108 101 90 137 215 126 92 166 192 50 72 162 88 98 125 114 142 71 145 100 125 112 176 91 135 85 127 122 83 217 114 161 85 174 107 186 97 113 105 219 92 81 98 45 131 154 82 103 76 168 185 118 145 85 158 98 209 159 129 63 96 128 161 43 114 92 58 134 173 84 85 29 76 101 77 128 27 114 82 54 77 143 67 161 135 129 160 127 217 70 57 101 85 74 104 99 101 113 96 100 115 103 119 146 157 133 73 74 188 128 127 106 160 173 154 105 107 154 106 101 34 106 68 195 83 79 134 42 188 49 135 157 137 119 44 169 158 65 112 113 141 92 163 74 134 131 202 147 101 114 132 130 61 85 49 108 57 90 94 117 160 132 223 125 42 136 116 145 107 90 174 129 70 104 60 150 95 90 188 194 105 111 98 190 129 64 114 117 224 101 98 91 52 51 92 91 134 88 163 121 154 67 151 106 140 156 106 192 155 88 104 98 82 38 68 76 66 147 75 112 78 195 89 124 39 127 84 176 77 121 145 163 41 170 127 97 121 49 80 106 73 144 129 89 146 98 44 114 96 179 113 129 193 114 170 59 86 76 34 121 225 60 75 196 126 196 80 156 103 66 122 179 96 58 156 158 96 129 56 112 80 29 185 110 104 120 83 161 103 63 25 63 147 103 129 140 199 130 128 84 21 85 210 166 48 93 66 91 86 122 98 156 82 191 199 90 109 46 94 115 152 162 93 196 78 83 32 68 79 108 94 142 102 126 179 94 109 73 105 101 154 94 78 133 103 109 96 71 138 195 115 226 218 115 62 50 111 88 130 119 113 112 63 145 42 146 126 105 70 81 120 113 69 77 194 169 146 141 68 137 139 58 42 97 90 141 236 89 172 91 121 156 55 79 84 47 141 102 107 85 131 124 89 76 76 135 124 140 167 99 83 74 66 108 130 103 109 97 110 136 138 140 134 171 198 120 154 59 53 128 203 54 152 97 139 102 158 124 118 98 114 162 173 120 100 76 108 129 147 60 175 78 182 180 82 111 149 154 74 101 121 93 101 92 59 163 177 111 120 61 97 119 168 95 96 116 111 50 124 103 106 169 121 100 53 64 104 129 80 54 38 101 177 45 148 54 81 92 145 222 70 125 157 54 97 186 73 139 81 53 59 86 66 182 62 58 195 108 84 189 156 147 112 130 175 38 63 229 198 96 99 116 97 77 158 65 135 110 99 132 84 81 94 106 134 142 136 76 83 143 103 120 183 50 46 120 74 109 122 154 61 142 111 108 121 175 122 83 119 130 114 115 148 92 18 92 124 150 117 120 253 48 112 139 152 119 109 124 122 131 108 52 64 122 149 48 80 113 120 81 86 142 96 33 74 126 119 94 166 78 185 164 102 114 108 68 172 167 135 40 133 102 156 132 205 107 128 148 68 116 169 165 145 24 95 61 103 102 60 212 125 95 135 94 139 129 135 73 105 55 83 161 144 180 103 96 135 101 144 61 136 84 209 76 67 134 48 103 89 145 101 187 146 87 25 123 111 50 169 92 133 136 154 123 112 92 170 161 71 99 55 114 125 111 190 79 170 149 107 44 162 84 104 61 206 42 101 157 163 118 79 139 52 158 127 179 92 107 98 170 145 134 187 128 118 195 53 51 124 115 100 72 84 109 136 34 66 127 127 129 65 83 211 148 106 91 153 101 128 120 66 174 74 88 66 136 72 94 61 116 87 91 17 141 125 111 107 112 56 99 79 27 147 170 181 207 56 136 78 92 198 95 133 158 210 122 184 107 118 121 99 142 65 131 118 42 73 121 103 124 127 76 100 135 64 106 152 96 206 163 113 100 91 146 79 131 96 183 13 98 137 91 93 121 99 95 88 106 107 152 112 110 134 90 70 122 88 138 135 66 149 164 271 104 168 151 69 87 143 155 160 80 162 162 130 144 132 74 117 112 157 133 133 137 88 144 56 107 133 155 58 145 148 91 102 99 122 88 82 130 115 133 126 127 89 87 80 112 91 104 170 153 138 121 97 124 96 38 68 102 80 68 131 168 102 197 28 85 85 150 106 177 170 153 113 155 188 107 178 92 53 132 143 95 93 152 48 127 156 144 124 118 152 73 110 115 101 85 141 159 42 91 114 107 68 140 104 175 91 107 124 124 93 108 24 90 75 125 96 176 81 159 152 131 45 112 105 203 172 97 87 143 97 140 134 162 93 85 93 172 81 87 170 107 176 55 89 72 183 137 36 96 27 187 70 147 72 67 144 80 108 126 113 102 224 86 142 153 168 129 158 56 136 132 34 4 48 90 131 62 32 141 129 176 125 152 40 118 93 40 75 39 155 82 107 97 83 210 156 156 101 199 189 151 110 121 68 119 102 110 42 119 37 87 134 96 82 214 71 168 86 209 151 72 147 79 108 61 190 73 42 78 54 69 199 130 170 123 218 142 120 81 107 151 179 91 107 165 86 81 100 132 62 161 102 75 110 113 204 117 116 120 226 115 213 129 164 70 116 85 84 141 76 141 69 168 73 74 57 196 178 114 100 139 142 110 165 81 117 161 77 176 118 76 108 48 102 76 102 109 183 89 109 150 62 66 121 28 47 140 107 93 106 160 141 50 163 86 137 62 81 161 96 192 147 113 100 81 160 100 86 109 148 141 95 110 60 197 119 92 66 173 114 42 194 99 123 137 103 145 107 124 85 113 81 88 113 122 135 68 54 129 108 52 116 132 59 91 127 164 95 154 87 97 52 133 126 126 47 76 124 52 64 151 156 56 148 87 83 83 81 59 27 33 108 143 134 118 105 131 98 121 27 93 93 25 115 70 111 104 112 177 131 64 177 100 143 129 146 111 126 19 114 128 69 100 104 99 153 175 149 145 89 77 176 60 118 56 88 92 92 118 145 55 47 129 79 22 119 115 24 105 186 51 133 182 121 145 183 170 111 133 127 44 140 77 87 125 90 95 130 108 133 138 162 53 176 136 136 67 128 55 67 151 130 125 123 124 180 128 129 137 54 120 140 161 91 107 40 103 140 61 89 159 117 163 107 118 114 114 99 178 150 18 92 88 90 100 83 102 115 107 179 118 101 180 164 95 90 134 98 147 120 129 155 73 82 91 119 98 103 128 61 144 74 94 108 91 113 116 149 91 158 120 124 59 98 97 152 85 80 43 81 194 168 138 86 132 74 145 128 84 154 183 99 21 109 106 140 186 123 97 91 154 164 142 133 146 50 123 164 251 73 30 75 137 219 125 89 63 164 131 115 68 42 167 81 128 92 178 72 65 67 78 79 103 119 167 156 133 79 108 82 69 78 82 60 133 134 133 180 51 140 73 108 155 28 87 104 89 56 98 221 168 70 140 112 93 216 164 105 95 144 131 135 85 164 59 84 110 45 87 156 64 115 147 121 117 54 111 94 98 157 112 64 107 136 177 163 127 179 85 93 128 163 137 142 151 129 88 143 156 132 73 132 73 86 62 132 124 139 221 96 135 167 79 165 108 87 84 15 138 111 91 187 48 188 137 143 138 191 194 68 197 48 118 88 92 155 54 68 96 128 114 157 151 161 108 66 188 143 112 113 60 91 128 66 15 173 93 132 140 90 81 42 55 115 95 99 79 125 137 208 157 76 54 49 91 83 110 149 127 110 81 122 130 122 116 106 186 122 159 121 79 97 140 142 19 85 82 171 94 139 105 116 84 157 135 122 84 86 122 118 113 135 100 97 139 28 97 95 38 135 148 94 79 80 123 145 169 59 76 143 131 85 171 90 82 63 33 57 147 182 99 119 100 72 183 131 188 93 117 136 78 81 83 99 211 57 38 136 72 47 107 146 140 107 171 133 137 34 94 134 105 204 54 70 83 107 159 117 105 45 38 132 26 227 44 138 87 169 89 139 83 63 81 79 147 125 132 65 84 27 100 84 120 167 165 136 78 183 195 88 97 64 172 120 159 143 70 83 166 122 83 72 70 66 170 54 23 183 187 86 87 91 204 145 96 154 176 134 193 89 141 133 100 100 148 96 142 65 190 117 170 76 81 131 89 133 68 73 85 74 60 65 74 91 100 216 87 94 155 172 42 66 175 50 51 93 62 81 79 94 99 164 186 63 48 139 103 121 239 29 52 177 176 67 128 143 68 136 47 210 88 213 54 97 136 140 97 145 120 92 93 156 128 71 63 212 61 68 188 148 191 71 117 135 106 110 172 109 68 112 132 143 140 101 185 131 134 21 69 64 50 60 79 102 70 39 137 123 107 220 70 89 173 81 109 116 198 74 89 18 132 78 112 72 57 100 167 88 77 72 131 167 64 122 216 113 85 209 133 159 98 132 96 94 133 109 188 73 85 50 77 91 76 67 87 164 80 128 116 68 173 77 58 110 139 175 129 129 86 160 95 59 92 79 56 162 72 34 92 76 79 81 175 86 163 55 195 127 98 108 51 106 105 55 49 154 107 43 83 117 88 180 11 91 51 122 121 114 113 55 65 88 113 79 164 107 70 97 152 59 139 85 81 61 97 114 63 82 120 128 131 107 109 53 125 132 87 115 149 105 186 135 75 72 115 166 101 31 75 94 22 61 115 91 153 197 96 136 125 129 71 210 153 127 126 95 146 61 149 109 37 87 42 158 173 128 108 210 8 58 74 100 165 155 134 80 45 134 119 68 84 76 130 51 201 80 142 70 133 97 82 107 167 119 48 80 103 47 107 43 86 113 71 103 144 112 122 74 157 105 128 108 97 110 44 156 39 120 119 85 62 138 97 54 145 146 217 162 190 112 79 119 76 61 109 145 131 71 69 98 91 33 111 124 65 121 124 125 83 82 35 181 110 68 48 91 184 118 118 68 93 167 139 101 53 119 97 241 100 166 69 144 134 251 128 143 53 99 53 123 102 117 106 117 85 106 98 129 120 24 106 96 63 115 113 95 117 66 156 94 166 136 97 166 67 136 121 42 136 118 116 150 47 65 50 57 106 114 99 145 141 92 112 33 165 95 46 66 84 92 101 100 76 121 121 66 78 37 109 112 224 77 101 158 65 191 136 85 133 106 102 162 103 150 159 71 171 120 173 95 111 81 130 94 118 132 125 148 103 108 123 157 40 96 157 145 100 95 71 117 153 125 120 53 205 64 116 73 155 193 91 44 103 139 95 41 85 156 116 192 46 122 149 94 227 164 136 148 152 59 146 24 138 58 70 218 58 85 131 61 175 23 86 99 130 67 76 45 87 87 75 185 171 193 166 93 61 136 94 194 71 68 135 70 53 134 80 88 44 118 83 94 143 41 114 86 184 104 146 114 94 97 133 138 109 157 80 94 114 43 130 124 96 57 154 26 109 125 228 226 123 223 103 56 42 162 97 124 153 112 180 196 38 170 107 161 126 76 101 168 88 55 65 177 256 138 97 163 54 137 55 123 154 150 103 65 152 146 75 89 133 127 111 61 49 133 70 91 44 150 118 272 131 105 186 110 59 107 127 107 118 121 39 131 161 118 132 62 122 50 162 91 102 67 149 184 133 86 200 149 87 153 139 135 96 130 96 208 180 94 80 142 121 194 48 162 114 77 120 78 75 164 155 135 68 87 83 132 143 81 227 133 137 71 146 40 106 102 51 69 42 86 148 10 76 65 108 106 153 77 211 87 78 50 144 89 98 83 122 216 69 125 106 224 113 177 82 66 92 81 123 116 50 130 147 98 106 100 181 61 65 98 71 101 173 63 28 133 120 16 122 92 98 104 62 65 88 110 109 93 87 90 67 129 83 72 110 206 106 50 87 132 64 96 161 71 146 61 72 101 112 74 61 114 114 62 105 67 164 40 98 81 88 99 100 199 101 174 121 58 144 148 93 127 80 68 177 55 77 155 212 54 82 44 131 84 156 116 10 55 148 54 122 134 124 117 42 136 135 108 93 121 70 122 136 22 133 100 61 166 105 86 85 187 186 111 97 115 63 107 40 146 77 92 53 114 130 70 265 112 204 73 104 97 75 162 58 118 74 152 146 77 144 39 185 46 178 104 214 59 159 142 98 121 124 153 78 110 58 109 139 105 125 180 65 136 165 96 83 93 87 105 19 123 167 147 37 73 25 131 132 142 121 112 75 121 126 13 157 162 142 144 87 149 134 130 112 172 109 143 135 99 72 157 120 90 108 40 153 117 98 149 172 97 130 95 117 161 85 101 101 113 90 80 100 135 96 147 48 81 72 120 75 129 140 171 159 134 88 155 84 92 137 100 185 63 68 154 111 67 155 107 73 60 89 94 144 64 88 85 99 110 115 74 192 77 105 186 181 166 182 87 104 120 98 38 97 66 58 112 86 85 125 65 78 119 174 131 93 33 123 74 147 45 51 66 119 109 75 166 67 205 111 71 54 159 148 134 60 86 178 83 145 140 140 142 148 136 154 64 101 91 102 46 173 124 44 37 57 134 96 83 127 85 33 84 237 118 70 60 109 102 78 88 150 104 138 83 133 24 139 58 88 135 49 108 203 83 149 110 146 84 95 166 183 133 158 131 188 105 43 66 115 122 94 72 81 89 103 113 77 102 30 71 101 40 87 112 147 186 119 63 139 50 170 172 72 89 184 138 108 129 126 101 74 108 60 89 94 57 109 85 87 161 57 113 160 157 68 156 83 168 102 126 148 52 186 </t>
-  </si>
-  <si>
-    <t>MIE(0.3399323001920347, 2.2887511758373598, -9.712792554841573e-29, 1.9042097474819843)</t>
-  </si>
-  <si>
-    <t>0 1 0 1 0 0 0 0 0 0 1 0 1 2 3 1 0 2 0 0 1 0 2 0 0 1 0 1 0 1 0 1 2 0 0 0 1 0 0 1 1 0 0 1 0 2 0 2 0 0 2 0 1 1 0 1 2 0 1 0 1 0 1 0 0 2 1 0 0 0 2 0 0 1 0 0 0 1 1 4 0 0 0 0 0 0 1 2 0 0 0 1 0 0 1 2 0 2 0 1 0 0 0 1 0 0 1 0 1 3 0 0 0 1 2 1 0 1 1 0 0 1 1 1 0 1 1 0 2 2 1 0 1 1 0 1 1 1 1 1 1 0 0 0 0 0 2 2 0 0 0 1 1 1 0 0 0 2 1 1 0 1 2 0 0 1 1 0 0 0 1 1 0 2 0 0 0 0 1 1 2 0 0 0 0 1 0 1 1 2 1 2 1 1 1 2 1 2 2 0 1 1 1 1 1 3 1 1 0 1 0 0 3 0 0 1 2 0 1 1 0 1 2 1 0 2 0 0 0 1 0 1 0 2 3 1 0 0 1 0 1 0 1 2 0 2 2 0 0 3 1 1 2 2 0 1 0 1 0 2 2 0 2 1 1 0 1 1 1 1 1 0 2 2 0 0 0 1 0 0 3 0 1 1 0 1 0 2 0 0 1 1 3 0 0 1 0 3 1 4 0 1 2 0 1 2 1 1 2 2 1 0 2 0 3 0 1 0 3 1 1 1 0 1 1 0 0 1 1 0 3 0 2 0 1 4 0 0 0 0 0 1 1 1 0 0 0 1 0 0 1 0 2 1 0 0 0 0 1 0 0 0 0 1 1 1 3 2 2 0 4 0 1 1 0 0 0 1 1 2 0 1 1 0 1 1 0 0 0 0 1 1 2 1 1 2 1 2 2 0 2 2 2 2 4 0 0 0 0 0 1 2 1 2 2 1 0 0 1 1 1 0 0 1 1 2 0 0 2 1 0 0 0 0 0 3 1 2 1 0 0 0 0 1 1 0 2 0 0 0 1 0 1 1 0 1 0 1 0 0 1 2 3 1 0 0 1 4 0 0 2 1 0 0 2 1 2 0 3 0 1 0 1 2 0 0 1 0 1 1 1 3 1 0 2 1 0 2 0 0 1 0 0 0 0 2 1 0 1 2 0 1 0 0 0 0 1 3 0 0 1 0 1 2 1 0 0 0 4 2 1 0 0 0 0 1 1 1 1 0 2 0 0 0 0 1 2 0 1 1 1 0 1 0 1 2 1 0 0 0 2 3 1 0 0 0 1 1 1 1 1 5 1 1 0 1 1 0 1 0 0 0 0 1 0 1 1 0 0 1 1 2 1 2 0 0 3 1 1 0 3 1 1 1 0 2 1 2 1 1 0 1 1 1 0 2 0 2 0 1 1 1 0 0 1 0 1 0 2 0 1 3 0 1 1 2 2 1 5 0 1 0 3 0 1 1 1 1 1 0 0 0 0 0 1 0 1 2 0 1 1 0 0 0 1 0 1 2 0 1 2 1 0 1 1 1 0 2 0 2 1 0 2 0 0 1 1 1 0 1 1 1 1 0 0 1 1 0 0 2 0 0 1 0 1 0 1 0 0 1 3 0 1 0 0 0 1 1 4 1 1 1 0 0 0 2 2 1 0 0 2 0 0 2 1 0 2 0 2 1 1 2 1 0 2 0 0 2 1 0 0 0 0 0 0 1 0 2 1 4 0 1 0 4 0 2 0 0 1 1 1 2 1 0 2 0 2 1 0 0 0 1 0 1 0 0 2 1 1 0 2 1 0 1 1 2 1 1 0 0 2 0 1 0 0 0 0 2 0 1 2 0 0 1 1 2 1 0 0 2 2 0 0 1 1 1 0 0 0 1 2 1 0 0 2 2 1 2 2 1 1 1 0 0 0 0 0 0 1 1 1 0 0 0 1 1 1 0 1 0 1 0 1 2 0 0 0 1 0 3 0 0 0 1 0 1 2 1 1 0 0 0 1 1 1 0 1 1 1 0 2 1 2 1 1 1 1 0 0 1 2 2 0 1 1 2 0 0 1 2 3 0 1 0 0 0 0 0 1 0 0 0 2 0 1 1 0 4 0 1 2 0 0 0 2 2 2 1 0 1 0 0 1 0 1 1 0 0 3 0 1 0 1 1 2 0 0 1 0 1 0 2 0 1 1 1 1 0 2 2 2 0 1 0 0 0 2 0 1 1 0 2 1 0 0 0 0 0 0 1 0 3 0 1 0 0 0 0 1 1 0 1 1 0 0 2 0 0 4 0 0 0 2 1 3 0 1 1 1 0 1 2 2 1 0 2 1 1 1 1 2 2 3 1 0 2 1 2 1 0 0 1 1 0 0 1 0 1 0 0 2 0 0 0 1 1 2 0 1 0 1 1 1 0 2 0 0 1 0 0 0 1 0 2 1 0 0 3 1 1 0 0 2 1 0 1 1 1 0 2 3 0 0 1 0 2 1 0 0 1 1 4 1 1 0 0 2 0 3 2 1 1 0 0 0 0 1 1 1 0 0 0 2 1 1 2 1 0 0 3 0 1 2 2 0 1 0 1 0 1 0 0 1 1 1 0 1 2 2 1 1 1 0 0 0 0 3 0 1 1 1 1 1 1 2 0 1 0 2 1 3 1 0 1 2 2 3 1 0 2 1 1 0 1 1 0 0 2 0 2 0 0 1 0 2 0 1 2 1 1 0 2 0 1 2 0 3 3 1 0 1 2 0 1 2 0 1 1 1 0 1 1 1 1 0 3 1 0 0 1 1 1 0 1 0 1 1 1 1 1 0 0 2 2 0 0 0 1 1 1 0 2 2 2 0 1 1 3 1 0 1 0 0 1 0 1 0 0 1 0 0 1 0 2 0 0 1 1 1 3 0 0 2 0 1 0 0 0 0 0 2 0 0 0 2 1 0 1 1 1 1 0 0 0 0 1 1 0 1 1 1 0 1 2 0 2 0 2 0 1 0 0 0 1 2 1 2 1 2 1 1 1 1 1 1 0 1 0 1 0 1 0 3 1 2 1 2 0 1 1 1 1 0 1 0 1 0 0 2 0 2 1 2 0 0 1 0 0 0 2 0 0 1 2 1 1 1 2 3 0 0 2 0 1 1 1 2 1 0 0 1 4 1 1 1 2 1 3 1 0 0 1 1 2 0 1 2 0 1 0 1 2 2 0 1 0 0 0 1 0 1 0 0 1 0 0 1 4 1 0 3 2 0 2 0 0 1 0 1 0 2 1 1 0 0 3 0 1 4 1 0 1 1 1 0 1 0 0 1 0 1 1 0 0 1 1 0 1 1 0 1 1 0 0 1 1 1 2 2 2 2 0 3 0 0 0 1 0 0 1 0 0 0 0 1 1 1 0 0 2 1 1 0 0 2 1 2 1 0 1 0 1 0 0 2 1 3 0 0 1 0 0 0 2 2 2 0 1 1 0 0 0 2 0 1 1 0 1 0 0 1 0 0 0 0 1 1 0 2 0 1 2 1 1 0 0 0 2 2 1 0 0 0 1 1 0 4 1 0 0 0 0 0 0 1 1 1 0 1 1 1 1 0 0 2 0 3 0 1 0 2 1 2 2 3 2 0 0 0 2 0 3 0 2 2 1 0 0 0 0 0 2 1 0 0 1 1 0 0 0 1 1 2 0 1 0 0 2 4 0 3 0 2 0 1 0 0 2 0 0 0 0 0 0 2 1 0 0 0 2 1 2 0 2 0 0 0 3 1 0 2 2 2 0 2 0 0 0 1 0 0 1 1 1 1 0 0 0 2 1 0 0 1 2 2 2 2 1 2 0 0 1 0 1 2 1 0 2 3 2 1 2 1 1 3 1 1 0 1 0 1 0 1 1 1 1 1 2 0 1 0 1 0 0 0 1 1 0 2 0 1 0 0 1 1 0 2 0 2 0 0 0 1 1 1 0 0 1 0 0 0 1 0 1 0 0 2 0 0 3 0 0 0 2 1 1 0 2 1 1 1 0 1 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 2 0 0 0 2 0 0 2 1 1 2 0 1 0 0 0 0 2 0 2 0 1 0 1 1 1 1 0 0 2 0 0 0 2 0 0 1 2 0 1 1 2 2 0 0 0 1 0 0 0 1 0 1 1 1 1 2 1 1 0 0 0 1 1 1 2 1 1 1 0 2 1 1 0 0 0 2 0 0 0 1 0 0 3 0 0 0 1 2 0 0 0 1 1 2 0 2 1 1 1 0 2 1 1 0 0 1 0 2 0 0 0 1 2 0 0 4 0 1 0 1 1 1 0 0 0 0 1 1 0 2 1 1 1 0 0 1 0 1 3 3 0 2 1 1 0 0 0 3 2 0 2 1 3 0 2 2 0 1 0 2 0 0 0 0 1 2 1 1 0 0 1 1 0 2 0 2 1 1 1 1 1 1 1 1 1 2 0 0 0 0 0 0 1 0 1 1 0 0 1 0 4 0 1 2 1 1 2 0 2 0 0 0 0 0 1 0 2 0 0 0 1 3 1 1 1 0 0 4 1 2 1 1 1 2 1 0 3 1 0 0 1 1 2 0 0 0 3 0 0 3 0 0 1 0 1 2 0 1 0 1 0 2 0 1 0 2 1 1 1 2 1 2 0 0 2 2 1 2 0 1 1 3 1 0 2 1 0 2 2 0 1 0 1 1 1 1 2 0 1 0 2 0 2 1 0 1 1 1 1 0 0 1 0 2 0 0 1 1 0 0 1 2 2 1 0 2 1 1 1 0 0 2 0 0 2 3 1 0 3 2 0 1 1 3 0 1 0 0 1 1 1 1 1 0 0 1 1 1 0 0 1 2 1 0 1 2 1 2 0 0 3 2 0 2 1 1 1 1 0 0 0 1 0 0 0 1 2 0 2 1 2 1 2 1 0 0 0 0 3 2 1 1 0 1 1 0 3 0 1 1 1 0 1 1 1 2 1 1 1 0 2 3 2 0 1 1 1 1 0 1 0 1 3 0 0 0 1 0 0 2 3 0 0 1 1 1 0 3 0 1 0 0 1 2 1 1 0 2 2 0 1 2 1 0 1 2 2 0 0 0 4 1 0 0 1 1 0 0 1 0 0 0 1 0 0 0 1 2 0 2 0 1 0 0 2 0 1 1 0 1 2 0 1 0 0 0 0 2 1 0 0 1 2 0 1 2 1 1 1 1 0 1 0 2 1 0 0 1 0 2 0 1 1 0 0 1 0 1 1 1 1 1 0 0 0 1 0 0 1 0 1 2 1 0 0 1 0 0 0 0 0 1 2 1 2 2 0 0 0 4 2 2 0 0 1 1 0 1 3 2 0 1 1 2 0 3 1 0 0 1 2 0 0 1 1 2 0 0 2 2 2 1 0 2 1 0 1 0 1 0 2 0 0 0 0 1 1 2 0 1 1 0 2 0 0 1 1 1 0 2 1 0 3 1 2 0 0 3 2 2 2 2 0 0 0 0 1 2 1 0 3 1 0 1 2 2 4 2 0 2 1 2 1 0 0 0 2 1 2 0 3 1 1 2 2 3 0 0 0 0 2 0 1 0 0 0 2 1 4 1 1 1 0 1 0 1 2 2 3 0 2 2 1 0 0 0 2 0 0 0 0 1 0 0 1 0 0 1 2 0 1 3 3 1 1 0 0 2 1 2 1 1 0 0 2 0 0 0 0 0 0 0 2 1 2 2 2 1 0 0 0 0 0 0 0 1 2 1 1 0 3 2 1 0 1 1 1 1 2 1 0 0 0 1 2 0 1 1 0 2 0 2 1 0 0 1 3 0 2 1 0 1 1 1 1 1 1 0 0 1 0 0 2 0 0 1 0 0 1 0 0 2 0 0 2 0 1 0 0 2 1 3 0 1 1 3 2 0 3 1 2 0 2 1 1 1 1 0 0 2 0 0 2 1 1 2 1 3 0 1 1 3 0 1 1 0 0 2 1 1 0 0 0 0 0 0 2 0 2 0 3 1 2 0 1 0 1 2 0 0 1 0 2 1 0 0 0 0 0 1 1 2 0 1 0 1 2 1 1 2 1 0 1 2 2 2 1 0 2 0 1 2 0 1 1 0 1 3 1 1 2 2 1 1 1 2 0 5 2 1 0 1 2 2 1 0 0 2 3 1 0 2 0 0 1 1 1 0 0 0 2 4 0 0 1 1 2 0 2 0 0 1 1 0 1 0 1 2 1 0 1 0 1 1 0 0 0 0 0 1 0 0 0 2 2 1 2 0 1 1 1 1 2 1 2 0 0 0 0 0 1 0 0 1 1 3 2 0 1 0 1 1 1 0 3 1 0 0 0 4 0 2 2 0 0 1 3 2 2 1 2 1 0 0 1 0 2 3 1 1 1 0 2 0 1 1 1 1 0 1 0 2 0 0 0 1 3 1 2 2 1 2 2 2 1 0 0 0 2 0 1 0 0 0 1 2 0 1 2 1 0 1 0 1 2 2 1 1 1 0 3 0 0 1 1 0 1 2 1 1 0 2 0 1 0 1 1 2 0 2 0 1 3 2 0 0 1 2 3 0 0 1 1 0 2 0 0 1 0 2 0 0 0 2 0 0 1 0 0 0 2 1 0 1 2 0 0 2 1 2 0 0 1 2 2 0 0 0 1 0 0 1 1 2 0 0 0 2 1 1 0 1 0 3 2 2 0 2 0 3 0 1 0 2 0 0 1 1 0 0 1 1 1 1 0 1 0 1 1 1 0 0 1 1 4 0 1 2 2 2 0 0 2 1 1 0 0 1 1 0 1 0 3 0 1 0 0 1 1 0 1 0 1 0 0 0 2 4 1 1 0 0 1 0 0 1 2 0 0 2 0 2 0 1 2 0 2 0 2 0 1 1 1 2 0 2 1 0 0 0 1 0 1 2 0 2 0 1 1 0 2 1 1 0 0 1 2 2 0 2 0 0 1 1 0 0 0 1 1 1 2 0 1 0 1 0 0 0 2 1 0 2 1 2 1 0 0 0 1 1 1 0 0 1 0 3 0 2 0 2 1 1 0 0 0 1 3 0 2 0 0 1 0 0 1 1 0 0 0 0 1 0 0 1 0 1 2 0 0 2 2 1 1 0 3 0 0 1 0 1 1 0 2 2 1 0 1 2 1 1 1 0 2 0 1 0 0 1 0 0 0 3 0 0 0 1 2 0 2 1 0 3 0 1 2 0 0 0 1 0 1 1 1 1 0 1 0 1 1 3 0 0 0 1 3 1 0 3 0 0 0 1 0 1 1 1 1 0 3 2 0 0 3 1 2 0 1 1 1 0 0 1 0 1 3 0 1 0 1 1 1 3 0 1 0 2 0 0 0 0 1 1 1 2 1 0 0 0 0 0 1 1 0 1 2 2 0 1 1 2 1 2 0 1 1 0 1 1 2 1 0 1 1 0 3 2 1 1 2 2 2 2 0 2 0 3 3 2 1 1 1 2 2 0 1 1 2 1 0 0 1 3 3 0 0 1 2 0 3 0 2 2 0 1 2 1 0 0 0 1 1 1 0 0 1 1 1 0 1 1 1 0 1 0 4 4 0 1 2 1 1 0 0 0 0 1 1 0 0 1 2 2 1 2 1 1 0 0 0 0 0 2 0 1 2 1 0 1 0 3 1 0 2 0 0 1 0 0 1 1 0 0 2 0 0 1 0 1 1 1 1 2 0 0 1 1 0 0 1 1 0 0 2 2 0 0 0 0 1 1 1 1 1 1 0 0 0 3 0 0 1 0 3 0 0 0 0 0 2 1 0 1 0 0 1 0 2 3 2 0 0 0 0 2 0 0 0 3 0 0 0 0 2 1 0 1 0 1 0 0 1 1 1 1 1 2 0 2 2 1 0 0 2 1 2 0 0 3 0 0 2 0 0 1 4 1 1 0 1 5 1 0 1 0 1 0 2 1 1 0 0 0 1 0 1 0 0 0 0 2 1 2 0 0 1 0 0 0 0 0 1 1 2 1 0 0 2 1 1 1 0 3 0 0 0 3 2 1 0 2 0 1 1 0 1 0 1 0 0 2 0 0 1 2 2 2 0 0 1 2 2 1 0 0 1 1 0 0 1 1 0 0 0 1 0 2 0 1 1 1 0 1 1 1 0 3 2 0 0 3 0 0 0 0 1 0 4 1 1 1 0 1 0 1 0 1 0 0 0 0 2 0 0 1 0 2 0 1 1 1 1 0 1 1 1 0 0 0 0 0 1 1 2 0 0 0 3 1 1 0 2 0 2 0 3 1 0 0 0 2 0 0 1 2 1 1 0 0 0 1 1 0 0 0 0 2 2 2 1 2 0 0 0 0 0 4 0 0 1 1 0 0 1 1 0 2 0 0 1 2 2 2 1 0 2 2 1 1 1 2 0 1 2 1 0 1 2 2 0 3 1 3 1 1 0 1 0 2 1 0 1 1 0 0 1 0 1 0 0 2 1 1 1 1 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 1 1 1 0 2 0 1 1 0 2 0 1 2 1 1 0 1 0 0 0 1 2 1 0 0 0 2 1 0 0 0 0 2 1 0 2 0 0 1 1 0 2 1 0 0 0 2 1 0 1 0 1 2 3 1 0 0 1 1 1 1 1 0 1 1 2 0 1 2 0 0 2 1 0 0 1 1 0 1 2 2 0 0 2 2 1 1 0 1 2 0 0 0 1 2 1 0 1 1 0 1 0 0 2 1 1 1 0 0 3 1 2 0 1 4 1 2 0 1 0 0 1 1 2 0 1 0 0 0 1 0 0 1 0 1 2 1 0 0 1 0 1 1 0 1 0 1 1 2 1 0 0 0 0 3 1 2 0 0 0 1 0 2 2 0 1 2 0 1 0 1 0 2 2 2 0 0 0 2 0 0 1 3 1 0 1 0 1 1 2 2 1 1 0 1 1 1 0 2 2 1 0 0 0 0 0 2 1 3 0 0 1 1 0 1 1 0 1 1 1 0 2 2 1 0 0 0 2 2 0 1 1 1 4 0 0 2 1 0 0 1 2 3 1 1 0 0 2 0 3 1 0 1 0 0 0 2 0 0 0 2 0 0 0 0 2 1 1 1 0 0 0 0 3 2 2 1 0 2 0 1 0 1 0 1 1 0 1 0 2 1 0 0 3 1 1 1 1 2 0 1 1 0 0 2 0 1 2 2 0 0 0 0 2 2 2 1 2 2 0 0 2 0 1 0 0 1 2 0 0 1 0 2 2 0 0 1 0 1 2 1 0 0 0 2 1 1 1 2 0 1 0 0 1 1 1 3 0 1 0 0 2 0 0 1 2 1 1 1 0 0 0 0 2 0 2 0 2 1 0 0 0 0 1 0 0 2 1 0 0 0 1 0 2 0 0 1 0 2 0 0 1 0 2 1 0 3 0 2 0 0 0 1 3 2 0 1 0 0 2 0 1 1 0 1 1 0 1 0 0 1 1 3 2 0 1 1 2 3 2 1 1 1 2 1 1 0 0 1 2 0 1 1 1 2 0 2 0 1 1 0 1 0 1 1 1 2 0 2 3 0 0 0 1 0 0 0 1 1 1 0 1 0 0 3 1 1 2 0 1 2 1 1 0 1 0 1 1 2 0 2 2 1 1 2 0 1 0 0 1 0 0 2 1 1 1 1 1 3 1 0 0 0 1 1 1 0 1 1 1 0 0 0 0 1 0 0 0 1 3 0 2 2 0 0 0 0 0 0 2 0 1 1 3 2 1 2 3 0 2 2 1 0 1 0 1 0 0 0 0 2 1 2 0 0 2 0 0 2 1 0 2 0 0 0 0 0 0 1 0 1 2 2 0 0 1 1 3 2 3 3 0 1 2 2 0 4 0 0 1 1 4 1 2 0 0 1 0 0 1 0 1 3 1 2 0 3 2 1 2 0 0 0 1 0 1 1 0 0 0 2 0 0 1 1 0 0 1 1 1 0 0 0 0 1 1 0 1 1 1 1 1 1 0 0 0 1 0 1 0 0 0 1 0 1 1 2 0 0 2 0 1 1 0 0 0 0 3 2 0 1 2 0 2 0 1 0 1 0 2 2 1 0 1 2 0 2 2 0 1 1 2 0 1 1 0 1 0 0 0 0 1 0 2 0 2 0 0 1 0 0 1 1 0 1 0 2 0 2 2 1 0 0 0 2 2 3 1 0 0 0 0 0 1 1 2 0 1 0 1 1 0 1 1 0 0 0 1 2 0 1 1 0 0 2 1 1 0 1 1 1 1 0 1 1 2 0 1 0 1 0 0 0 0 1 2 0 1 1 0 1 1 2 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 1 0 0 1 2 0 0 0 1 0 0 2 1 0 2 1 1 0 0 2 2 0 0 0 1 0 1 2 1 2 1 0 2 0 1 1 0 0 1 2 3 2 0 0 0 3 1 0 0 2 1 2 1 2 0 0 0 0 1 0 0 0 1 0 1 1 1 1 1 0 0 1 0 1 0 1 0 2 2 1 2 0 0 1 1 1 1 1 1 1 1 1 1 1 1 4 0 0 0 0 0 0 1 1 0 0 2 0 0 0 1 3 1 2 1 0 0 1 3 1 0 1 1 0 1 1 0 1 2 1 0 1 1 0 1 3 2 0 2 0 1 0 3 1 2 0 2 0 0 2 0 1 0 0 0 1 0 1 0 3 2 2 2 0 2 2 1 0 1 0 2 0 0 0 3 0 0 1 1 0 1 2 3 0 0 0 1 0 0 1 1 2 3 1 2 0 1 0 0 0 1 0 2 3 1 2 1 1 0 1 1 0 0 1 0 0 0 0 1 2 1 0 0 3 0 1 0 0 0 1 0 2 0 0 1 0 0 1 0 0 0 2 0 1 0 1 0 1 2 1 1 0 1 1 0 0 0 1 0 1 1 1 0 0 2 0 1 1 1 0 0 1 2 1 1 2 1 1 0 0 0 2 3 0 2 0 2 1 0 0 0 1 2 2 2 1 1 0 1 0 0 0 0 0 0 0 0 1 0 1 2 1 2 1 2 0 0 1 0 1 1 0 3 2 1 3 0 0 2 2 0 1 0 2 1 0 1 1 2 0 2 2 2 2 0 0 1 0 0 1 1 1 1 0 0 0 0 0 0 0 0 1 2 1 1 1 1 1 0 1 0 1 1 1 1 0 0 0 1 0 2 0 0 0 1 0 3 1 0 0 2 2 2 0 0 0 0 1 2 0 1 1 0 1 2 1 2 0 2 0 2 1 1 1 1 0 1 1 2 1 3 2 0 0 1 0 2 1 1 1 3 1 0 3 0 0 0 1 1 1 1 2 0 0 1 1 2 1 1 1 0 1 2 1 0 1 1 0 1 2 1 0 1 2 1 1 3 0 2 2 0 0 0 0 0 1 2 1 0 0 3 0 0 0 1 1 1 0 0 0 1 1 1 0 0 1 0 2 2 0 0 2 2 0 1 0 1 0 0 1 0 5 0 1 0 0 2 2 2 1 1 0 1 3 1 1 0 0 3 0 0 0 2 2 4 0 0 0 1 1 0 1 1 2 2 0 0 1 1 0 0 0 1 0 0 1 1 3 0 0 0 0 0 2 3 1 0 0 2 1 0 0 2 0 0 1 2 0 0 1 0 0 0 0 2 1 0 0 0 2 1 1 0 1 2 0 0 2 1 1 4 0 1 0 0 3 1 1 0 1 0 0 2 0 1 1 0 1 0 0 1 2 3 1 0 0 1 0 2 1 2 2 0 0 1 0 0 0 3 1 0 0 0 1 1 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 1 3 3 1 1 1 0 1 1 0 2 1 2 0 0 1 0 0 4 1 1 0 1 3 0 3 0 0 2 0 1 1 2 1 2 1 1 1 1 0 0 1 1 1 2 2 2 1 3 1 2 1 1 1 0 3 2 1 2 0 0 1 0 0 0 0 1 1 1 1 1 1 0 0 1 1 1 0 0 0 2 2 2 1 0 0 0 1 1 1 0 0 0 1 1 1 1 2 0 2 0 2 0 0 3 0 0 2 2 0 0 1 0 2 1 1 1 0 1 1 1 3 0 1 0 2 1 1 2 1 1 1 0 1 2 1 1 0 1 0 1 0 0 0 0 2 2 0 0 2 2 0 1 0 0 1 1 1 2 1 2 0 0 1 1 1 2 0 1 0 1 0 1 0 1 1 1 1 1 1 3 2 1 1 0 1 1 1 1 0 0 0 0 0 0 0 2 1 0 1 1 1 1 0 1 1 0 1 0 0 0 2 0 2 2 1 1 2 0 0 0 1 0 2 0 1 1 1 0 0 0 2 1 1 1 3 1 0 1 1 2 1 2 0 0 1 1 0 0 1 0 0 1 0 0 0 0 1 1 2 2 0 1 1 0 0 2 2 1 0 1 1 1 0 1 1 2 1 1 3 1 0 1 1 0 1 1 0 0 0 2 1 4 0 0 0 2 0 1 0 1 0 0 1 0 0 0 1 1 0 1 1 0 0 3 0 0 1 1 0 0 1 1 1 2 1 1 0 0 1 0 0 2 0 0 0 1 1 2 1 0 0 0 0 0 0 2 1 3 0 0 1 0 0 1 1 1 2 0 1 1 0 2 0 0 0 3 0 0 0 1 1 1 0 1 1 0 1 2 0 2 1 1 2 1 1 2 1 1 2 1 1 3 1 0 2 0 0 1 1 1 0 1 1 0 0 1 0 0 2 0 0 1 1 0 0 0 2 0 3 0 2 0 2 0 2 0 1 1 1 1 0 0 2 3 0 0 0 0 1 1 0 1 1 0 1 0 1 0 0 1 0 0 2 0 1 1 0 0 2 0 0 1 0 1 2 0 0 1 1 1 0 0 2 1 0 0 3 1 1 2 0 1 1 0 1 0 0 3 0 0 1 1 0 0 1 1 1 0 3 1 3 2 1 0 2 1 0 2 1 2 1 0 0 1 1 0 2 0 0 1 2 2 1 0 0 0 0 2 0 2 1 0 0 1 2 2 1 2 0 0 0 0 0 0 0 2 1 1 2 2 0 0 0 1 0 1 2 1 0 0 0 0 1 0 1 1 0 0 1 3 0 0 0 0 3 0 1 1 2 0 2 1 0 0 2 0 1 0 1 1 0 2 0 0 0 0 1 0 1 2 1 2 1 0 1 1 0 0 0 2 0 0 1 1 0 0 0 0 1 2 2 1 2 0 3 0 0 2 1 0 2 0 0 1 2 0 1 2 0 1 0 0 4 3 0 0 1 2 1 0 2 0 1 1 0 0 2 1 0 5 1 0 2 0 2 0 3 1 3 0 2 1 2 0 1 0 0 2 1 0 0 0 1 1 2 1 1 1 0 1 0 1 1 1 1 0 1 1 2 2 0 1 0 1 1 2 2 1 0 1 1 0 0 0 0 3 1 3 1 0 1 2 1 1 0 0 1 2 2 1 2 1 0 2 1 0 2 2 2 1 0 1 0 0 1 3 0 1 0 0 0 3 0 0 3 0 4 0 0 0 1 0 1 0 0 0 1 2 0 0 1 1 1 1 0 0 0 1 1 2 2 1 1 0 0 2 0 1 2 1 2 1 0 1 0 0 0 0 2 0 2 1 0 2 1 1 1 1 2 0 0 2 0 2 0 2 0 0 0 0 1 1 3 1 0 0 0 0 2 3 0 0 2 0 1 1 3 2 2 1 0 0 0 0 2 2 4 2 0 0 0 1 1 0 0 1 0 0 1 1 1 2 2 0 0 3 3 0 2 1 1 1 0 0 0 1 0 1 1 1 2 0 2 1 1 1 1 1 1 0 1 1 0 2 0 1 2 2 1 2 1 0 0 0 3 0 1 1 2 2 0 2 2 2 1 1 1 2 1 2 0 1 1 0 0 1 0 0 2 1 1 0 2 3 0 0 0 0 2 1 0 0 0 2 0 0 1 2 0 1 0 0 1 1 1 1 0 1 0 0 2 0 0 0 3 1 1 1 0 3 1 2 1 2 2 1 0 1 1 1 1 0 0 1 1 0 0 1 1 0 1 0 1 1 1 0 1 0 1 0 0 0 2 0 0 0 1 0 2 1 2 2 2 1 1 0 0 3 1 2 0 0 1 1 1 1 0 1 0 0 0 0 0 2 2 1 1 0 1 1 0 2 1 1 1 1 1 1 3 0 0 1 0 0 0 0 1 1 2 0 3 1 0 0 2 4 1 0 1 0 0 1 1 1 1 1 1 0 1 0 1 0 0 0 0 1 0 1 1 1 3 0 0 0 1 0 0 1 1 0 0 0 0 0 3 1 0 0 1 1 0 2 0 2 1 0 0 0 0 3 0 1 1 0 0 1 0 2 0 0 0 0 2 2 0 0 1 0 0 0 1 2 3 0 1 1 3 0 2 1 0 0 1 0 2 1 1 0 2 2 0 1 1 1 0 2 2 0 1 2 0 0 1 0 3 0 1 1 1 1 0 0 1 0 1 4 0 0 1 1 1 2 0 1 0 2 2 1 0 1 1 1 2 0 0 0 0 1 1 3 0 0 2 1 0 1 0 2 1 0 1 2 3 1 1 1 0 1 0 0 0 1 0 0 1 1 2 1 1 0 1 0 0 0 1 1 1 1 3 0 0 1 1 2 2 0 0 1 0 1 0 1 1 1 0 0 2 1 1 1 1 0 2 1 2 1 2 1 0 0 0 1 0 1 0 1 0 0 1 0 2 1 0 1 2 2 1 0 0 3 1 3 3 0 2 0 0 0 0 1 1 3 0 0 0 2 1 1 1 0 0 0 0 0 0 1 0 0 0 1 1 0 1 2 1 1 0 2 1 1 0 0 0 1 1 1 1 0 3 1 0 1 0 0 1 2 1 1 2 0 1 3 1 0 0 1 2 0 2 2 0 1 0 1 0 1 0 2 0 0 1 2 1 0 0 1 0 0 0 1 2 0 1 0 1 0 2 1 0 1 2 0 2 2 1 1 2 2 1 0 0 0 0 0 0 0 0 1 0 3 0 0 1 3 2 0 2 1 0 1 3 1 2 1 0 1 0 1 0 0 0 0 2 1 1 0 3 0 0 2 0 0 2 2 0 1 1 1 1 1 1 3 1 1 1 1 0 0 0 0 1 1 0 0 1 1 2 2 0 0 1 0 1 1 1 0 0 0 4 0 2 1 0 1 1 0 1 1 0 0 0 1 1 1 1 2 1 0 1 1 0 0 0 0 2 1 1 0 0 1 0 0 1 2 1 0 0 0 0 1 1 1 1 0 0 0 2 1 0 0 0 1 0 0 0 1 1 1 1 0 0 0 2 0 2 1 1 2 0 2 2 0 1 0 2 2 1 0 0 1 0 2 0 0 0 2 1 2 1 1 0 0 1 2 1 2 0 1 1 0 1 1 0 1 1 1 1 1 1 0 0 1 0 2 0 0 1 0 2 1 1 1 2 0 0 0 2 0 0 0 1 1 2 0 2 0 1 0 1 3 1 2 1 2 2 0 1 0 0 2 0 0 0 1 3 1 0 3 1 0 1 0 0 1 0 1 0 1 2 1 0 1 0 3 0 0 0 1 0 0 2 0 2 1 1 0 1 1 0 1 1 0 0 1 0 0 0 0 0 0 1 2 1 2 2 0 0 1 1 1 3 1 2 1 0 0 0 0 3 1 0 1 1 0 0 0 0 0 0 1 1 0 1 1 0 0 0 1 0 0 0 0 0 2 0 2 0 0 2 3 2 2 2 0 0 1 1 2 3 0 1 2 1 0 0 1 1 1 0 1 1 1 1 0 1 1 1 2 0 1 1 1 0 0 0 0 1 1 2 1 0 1 0 1 1 1 0 1 0 4 0 0 2 3 1 0 2 1 1 0 2 1 0 0 0 1 0 1 0 0 1 1 0 3 0 1 2 0 0 0 0 0 1 0 0 0 1 0 3 2 5 0 0 1 2 0 1 0 1 0 2 2 0 1 0 1 1 1 1 0 1 0 1 1 0 0 0 2 0 0 0 1 2 1 2 0 0 0 0 0 2 0 1 1 0 0 1 1 2 0 1 1 2 1 0 1 1 1 1 1 1 0 2 0 1 0 2 1 2 1 0 2 2 0 1 1 2 3 0 1 0 0 2 2 0 1 1 0 1 1 1 0 0 0 0 1 2 1 2 3 0 1 1 1 2 0 1 1 2 0 0 0 1 0 1 0 1 1 1 1 2 0 2 0 1 0 0 2 1 0 0 1 2 1 1 2 3 3 1 1 0 0 0 1 0 0 2 1 2 2 0 0 2 0 0 0 2 3 0 2 2 1 0 2 1 0 0 0 1 1 1 1 0 0 2 0 1 0 4 2 0 1 3 0 0 2 0 2 2 0 0 2 1 1 0 1 1 0 0 3 1 0 1 1 1 0 1 0 0 1 0 0 1 0 1 2 1 0 1 1 0 2 0 0 0 0 1 1 1 0 0 1 1 0 1 0 2 1 4 2 0 1 0 0 1 0 1 1 2 1 0 1 0 0 1 0 2 1 1 0 0 0 2 2 1 1 0 1 0 0 1 0 0 0 0 1 2 1 0 1 0 1 0 1 1 0 0 2 1 1 0 0 1 1 0 0 1 1 1 0 1 0 2 1 0 0 1 4 1 0 1 3 1 0 1 1 0 0 1 1 0 3 0 2 0 0 0 0 0 0 1 3 0 1 0 1 0 0 1 0 0 1 1 0 1 1 1 2 0 1 0 0 3 2 2 0 0 1 1 0 1 1 0 2 1 1 1 1 1 1 0 1 0 1 1 0 1 1 0 0 2 0 0 1 0 0 0 1 0 0 1 1 3 2 1 1 2 1 0 2 1 0 1 1 1 1 2 1 0 2 1 1 2 2 0 1 0 1 1 1 1 0 1 1 2 1 1 0 2 1 1 1 2 0 2 1 0 1 1 1 2 0 1 2 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 2 2 0 1 0 2 1 1 2 0 1 1 4 0 1 2 0 0 0 1 0 1 2 1 2 0 3 0 1 1 2 1 1 0 0 0 1 0 1 2 1 3 0 0 1 1 1 0 1 1 2 0 2 0 0 1 0 0 1 3 1 2 1 0 0 0 1 3 0 0 1 2 2 1 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 1 2 2 1 2 0 0 2 0 0 0 0 0 1 1 2 2 0 2 0 0 1 0 1 0 1 0 1 2 0 1 0 1 0 3 1 2 0 1 0 1 0 0 1 1 2 0 0 1 1 0 2 3 2 0 1 0 0 2 1 0 2 1 0 2 0 2 1 1 2 1 2 0 2 1 1 1 1 0 0 3 0 1 0 1 0 0 3 1 0 1 0 0 0 0 0 0 0 0 1 2 0 2 1 2 3 1 1 0 2 1 2 0 0 1 0 0 1 1 2 1 1 0 2 0 2 2 1 2 0 1 0 0 0 1 0 2 1 1 0 0 0 0 0 0 0 1 2 2 0 0 0 0 0 0 0 0 2 0 0 2 1 1 0 2 3 1 1 1 0 0 1 0 0 0 0 4 2 1 0 0 1 1 2 1 0 1 0 0 0 1 0 1 2 0 1 0 0 2 0 1 0 0 0 0 1 0 1 0 1 1 2 0 1 2 0 0 2 2 1 2 1 0 1 1 0 1 1 2 0 0 1 1 2 1 0 0 0 0 2 0 1 1 1 1 1 0 2 1 1 2 0 0 1 1 3 2 1 0 0 2 0 3 0 0 1 2 0 0 0 0 1 0 0 0 0 0 1 0 1 0 2 2 0 0 0 2 2 0 1 0 2 0 0 0 1 0 2 2 0 2 1 2 0 0 0 1 1 0 1 1 1 1 3 2 2 1 1 0 1 1 0 2 1 1 1 1 3 1 1 1 2 2 2 2 0 1 0 1 1 0 1 0 0 2 1 1 0 0 0 0 2 0 1 0 0 2 1 1 0 0 1 1 1 1 1 0 4 0 0 2 1 0 2 1 0 0 0 0 0 0 0 1 0 2 1 1 2 0 1 1 0 0 0 1 1 2 1 1 1 0 0 2 0 2 2 0 1 2 1 1 0 0 2 0 1 1 0 0 1 0 1 1 1 1 0 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 2 0 2 0 1 0 1 0 1 1 0 2 2 1 1 3 1 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 1 3 0 1 0 0 2 0 1 0 1 2 0 1 1 0 0 0 1 1 0 2 1 0 0 0 0 0 1 0 3 0 1 1 2 0 0 2 0 0 0 4 2 1 0 1 1 1 0 0 1 0 1 0 2 1 0 1 2 0 1 1 0 2 0 1 0 3 1 2 1 1 2 0 1 0 1 0 1 2 0 1 1 1 1 0 1 0 2 1 1 1 0 0 1 3 0 1 1 3 1 1 0 1 0 1 1 3 2 0 0 1 2 0 0 1 0 0 0 0 1 2 1 2 0 0 0 0 3 1 1 0 1 2 1 0 1 0 1 1 1 1 3 0 0 0 1 1 2 2 0 0 1 0 0 0 0 1 0 2 2 0 0 0 2 1 1 1 1 3 1 0 0 1 1 2 0 0 0 1 1 1 2 3 2 2 0 0 0 2 0 1 2 2 1 0 1 0 0 1 1 2 2 2 0 0 0 1 0 1 0 0 2 0 3 0 1 1 2 1 1 0 0 4 1 1 0 0 2 3 0 1 0 2 0 1 2 0 1 0 0 0 0 0 3 0 1 2 0 0 0 0 1 1 1 1 1 1 1 3 0 2 2 0 0 0 1 2 1 0 0 0 0 0 1 1 1 0 1 0 0 0 3 1 0 0 0 1 1 1 0 0 0 0 2 1 1 1 1 1 1 1 2 1 2 3 1 1 1 0 1 1 0 0 2 0 1 0 1 0 1 0 0 0 0 1 0 4 0 0 1 3 2 1 0 2 2 0 3 0 3 0 1 0 2 2 1 0 0 1 0 1 1 1 0 3 1 1 0 1 4 0 2 0 0 2 0 0 1 1 0 1 0 0 1 0 0 0 2 0 0 0 1 2 0 0 0 2 2 1 2 0 1 1 0 1 1 0 2 0 0 2 1 0 1 1 0 0 4 0 1 0 0 3 1 1 0 0 1 1 0 2 2 1 2 0 0 0 1 0 0 0 0 0 4 1 2 1 1 1 0 0 1 1 2 1 1 1 0 1 1 1 3 1 0 0 0 0 0 0 2 2 1 1 2 1 1 0 1 0 0 2 2 0 0 0 0 0 2 0 0 0 0 0 0 1 1 2 1 1 1 2 0 3 1 2 1 0 0 1 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 1 1 2 0 0 0 1 1 3 3 1 0 1 1 1 0 0 0 1 2 1 0 2 1 0 2 0 0 1 1 1 1 0 1 1 1 0 0 1 1 0 0 0 2 0 1 1 0 1 0 1 1 2 0 1 2 2 1 0 0 1 1 3 2 1 0 1 1 0 0 0 2 1 0 2 0 1 0 0 3 0 0 0 0 1 0 0 0 2 1 0 0 0 0 0 0 0 2 1 0 1 0 1 0 0 0 0 1 3 3 0 0 1 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 2 2 1 1 1 0 0 1 2 0 1 2 1 2 2 1 1 0 1 0 2 1 3 1 1 1 0 1 1 2 0 0 0 0 1 0 0 1 0 0 1 1 0 0 0 2 2 2 0 1 0 0 0 2 1 1 0 2 1 3 0 0 1 0 0 2 1 1 1 1 0 3 0 0 0 1 0 1 0 1 2 0 1 1 1 1 0 0 0 0 2 1 0 1 2 2 2 1 1 0 1 0 0 1 0 0 0 0 2 2 0 0 0 1 1 0 0 3 1 1 1 0 2 2 1 2 1 1 2 3 0 0 2 2 1 0 1 0 0 0 0 0 2 1 2 2 1 1 0 1 0 0 0 0 0 0 1 2 0 3 2 0 0 0 0 1 0 1 0 0 1 0 0 0 1 1 2 2 1 0 1 1 0 0 0 1 2 1 0 0 0 0 0 2 0 2 0 1 0 0 1 1 1 0 0 2 2 3 0 1 3 2 2 0 1 1 0 0 1 0 0 0 2 1 1 1 1 1 3 1 0 2 0 2 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 3 1 2 0 2 2 1 0 0 1 1 0 2 0 0 0 0 1 0 0 1 1 0 1 0 0 1 0 0 0 1 0 1 0 0 1 2 0 1 0 0 0 1 0 1 1 1 0 1 0 1 2 1 1 1 1 4 2 0 0 2 0 1 0 1 0 2 1 0 0 0 1 1 0 0 1 1 0 2 0 1 0 0 2 0 0 3 0 0 1 1 1 1 1 0 1 0 1 2 1 1 0 1 1 1 0 0 1 0 2 2 2 2 0 4 1 2 3 0 0 0 0 0 1 0 2 1 4 0 0 0 0 0 1 1 2 2 0 0 2 1 0 0 1 1 0 1 0 3 0 1 1 1 2 0 2 1 2 1 0 1 0 1 1 0 1 0 0 0 2 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 2 1 0 2 2 1 0 2 0 0 0 1 0 0 2 2 1 0 1 2 0 1 1 0 1 1 0 1 1 1 1 1 2 1 0 1 1 1 4 0 1 0 2 0 0 0 0 1 2 1 0 1 1 1 0 0 2 0 3 2 1 1 0 2 1 0 1 1 1 1 1 1 0 0 2 0 0 0 1 2 1 0 0 0 1 1 0 2 0 0 0 0 1 0 1 0 1 2 0 0 1 1 0 2 1 1 0 0 0 1 0 0 0 0 1 0 1 1 1 0 3 3 0 2 2 2 0 0 1 2 1 0 1 1 3 1 1 3 1 0 0 1 5 0 0 1 1 0 0 1 0 0 0 0 1 2 0 1 0 0 1 1 1 0 0 0 1 1 4 0 2 0 0 2 0 1 0 0 2 1 0 1 1 1 1 0 1 0 0 0 1 1 1 0 1 0 0 1 1 1 2 1 0 0 0 0 1 1 3 2 3 0 1 2 0 1 0 0 1 0 0 1 1 2 0 0 0 0 2 1 2 1 0 1 2 1 1 0 1 1 0 2 0 0 2 1 5 0 1 0 0 2 0 1 2 2 0 2 2 0 0 0 1 0 0 1 2 1 1 1 1 0 1 1 2 0 0 1 2 1 1 2 1 1 0 1 0 2 2 0 1 0 1 0 0 0 2 1 1 2 0 1 0 0 1 1 0 1 2 2 1 3 3 1 1 1 4 0 0 0 0 1 0 3 2 1 0 1 0 1 0 0 0 0 3 3 2 0 2 0 0 0 1 0 1 0 0 0 0 1 1 2 0 0 1 2 0 0 0 2 2 0 0 1 0 0 1 0 0 0 1 1 1 1 1 0 2 2 2 0 0 1 0 2 0 3 0 2 1 0 0 0 1 3 2 0 1 2 1 0 0 1 0 0 2 0 2 1 1 2 1 0 0 2 1 0 1 2 1 1 2 3 0 1 0 0 0 2 1 0 1 1 0 1 0 2 1 3 0 0 2 1 1 1 1 2 1 0 2 0 2 1 1 0 2 0 1 1 0 0 2 2 0 2 0 0 2 1 0 1 1 1 1 0 1 0 1 0 1 0 2 1 0 1 0 2 0 0 1 0 0 0 0 0 2 3 2 0 0 0 0 1 1 0 1 3 2 1 0 0 0 0 3 0 1 3 0 0 2 1 1 0 1 0 0 1 1 1 0 1 1 0 2 1 0 0 1 2 0 0 1 0 0 2 0 0 2 0 2 0 2 1 0 0 0 0 1 2 0 2 0 0 2 2 1 1 2 2 1 1 1 0 1 0 1 1 1 1 3 0 0 0 0 0 0 0 1 1 1 3 0 2 0 0 0 2 1 1 2 4 2 2 0 0 0 0 1 2 2 1 0 0 1 1 0 0 1 1 2 1 1 1 0 0 2 1 2 1 1 0 1 1 3 2 1 0 0 0 2 2 0 0 1 2 0 3 0 1 0 1 2 1 2 1 1 0 0 2 4 1 1 1 2 1 0 0 2 2 1 1 0 0 0 1 1 1 0 1 1 1 1 1 0 1 2 1 1 1 1 1 0 0 2 2 1 1 0 0 1 1 0 1 1 0 0 1 2 2 2 1 0 1 0 1 1 0 0 0 0 0 0 2 0 0 0 1 2 1 1 1 1 0 3 1 2 1 1 1 3 4 1 1 3 0 2 0 3 2 2 1 1 0 0 0 3 1 1 0 2 2 1 2 0 2 0 2 0 3 1 1 0 1 3 1 2 0 0 0 1 1 2 0 1 1 0 1 1 1 0 2 0 1 2 4 2 1 0 0 0 1</t>
+    <t>JSB(2.814681805311209, 3.4185586837806725, -21.671868715944093, 134.2592454899864)</t>
+  </si>
+  <si>
+    <t>14 20 20 12 22 15 12 25 17 17 30 10 17 27 12 26 21 26 27 16 28 28 14 3 19 28 17 21 16 17 34 27 17 7 27 23 31 10 24 7 7 18 22 37 27 17 10 7 13 24 20 37 21 20 34 10 19 40 27 20 28 31 41 28 25 17 13 7 27 20 38 17 13 14 27 14 24 24 27 17 20 27 7 18 14 28 21 24 14 17 10 24 14 24 0 24 15 17 9 34 21 18 13 17 34 21 24 6 25 10 21 10 18 20 28 26 35 17 23 31 9 26 17 15 17 17 11 23 17 24 41 7 24 19 21 14 9 34 24 22 20 10 9 14 14 35 21 33 17 20 13 10 14 35 20 16 15 31 27 17 27 6 31 16 20 17 34 20 24 24 27 9 3 18 17 31 18 20 31 10 23 17 24 12 20 10 23 20 34 17 17 16 10 20 22 24 27 26 31 17 21 31 10 21 10 17 20 23 27 23 13 23 30 17 31 26 14 38 21 17 38 9 24 13 14 22 13 10 11 24 21 18 10 7 17 20 23 20 45 31 14 35 7 8 7 6 17 15 31 28 31 20 21 22 21 27 17 14 17 16 28 33 27 20 16 13 36 22 20 21 9 40 24 27 7 14 14 8 9 40 12 37 15 6 14 23 24 27 31 27 24 7 0 31 33 21 17 28 13 7 7 12 35 13 13 21 28 10 24 16 10 23 28 23 18 18 15 23 34 27 19 26 45 28 28 27 13 21 26 24 17 8 24 19 30 20 8 10 34 3 23 24 18 19 21 31 17 7 21 7 24 9 6 7 23 24 21 14 11 27 7 28 21 10 28 10 20 7 14 30 30 15 23 21 25 28 31 28 24 17 20 19 19 20 16 13 10 17 10 14 34 6 17 24 38 24 26 38 52 15 28 30 12 20 41 28 21 3 13 20 17 17 23 13 10 38 3 20 6 14 22 23 7 34 23 37 21 12 13 13 0 27 6 17 34 16 17 16 20 10 15 28 21 13 38 17 24 31 24 24 31 17 20 27 17 33 48 13 13 7 27 3 31 7 27 21 20 10 8 3 35 13 20 14 20 28 12 27 17 23 19 21 13 14 14 17 10 21 21 22 17 10 27 12 43 7 17 14 14 17 6 24 35 28 31 10 24 24 17 17 17 35 20 27 19 23 24 17 13 27 27 7 34 23 20 40 8 8 30 13 24 24 17 17 18 6 24 9 31 27 17 13 27 28 6 27 7 14 16 17 14 19 13 21 28 27 20 14 20 9 23 10 16 26 16 12 13 14 16 7 16 13 30 19 9 22 24 20 12 28 27 7 23 14 21 20 35 31 12 20 21 23 21 18 17 20 37 14 31 37 13 12 20 27 22 21 26 37 6 23 9 13 10 17 31 27 17 17 25 16 23 31 14 27 7 13 24 24 20 24 31 23 27 28 24 13 20 21 10 10 21 13 13 20 10 19 22 30 10 15 21 15 24 23 21 24 24 17 20 10 28 21 7 13 21 16 13 17 19 7 26 23 19 13 27 10 21 13 37 23 20 21 17 31 14 26 13 6 38 9 3 19 24 7 19 38 23 17 23 27 7 7 13 32 17 10 23 10 13 17 31 17 10 13 24 16 14 34 21 31 48 23 24 14 10 26 13 25 17 31 14 20 24 24 22 38 19 17 16 22 23 17 26 10 31 10 3 34 16 27 16 13 10 23 26 29 22 13 27 18 10 7 28 15 24 26 24 10 13 13 34 31 26 27 24 9 14 10 14 22 13 17 24 31 16 16 35 10 16 23 21 20 16 30 24 28 19 12 24 15 24 17 10 20 31 18 20 26 19 21 25 17 42 10 20 17 16 31 21 34 10 31 28 14 20 13 20 10 23 34 17 21 16 24 27 9 9 35 23 7 14 10 16 20 25 24 9 17 27 36 31 24 9 10 14 33 26 16 27 23 34 16 31 10 13 17 35 27 29 13 14 9 21 28 14 16 18 10 24 37 26 20 21 7 9 30 18 41 21 24 17 9 20 13 29 36 31 6 24 17 34 24 13 20 21 28 10 30 29 27 30 31 14 7 17 23 34 34 17 14 31 25 17 27 24 22 24 17 15 21 23 14 27 17 10 27 31 31 19 28 31 20 24 13 24 9 16 21 10 14 7 15 27 20 6 13 20 26 10 35 24 27 14 27 21 27 21 8 26 20 8 16 28 20 0 13 20 24 31 17 24 21 11 20 19 13 23 21 13 17 17 23 21 14 19 15 10 14 20 7 27 20 27 31 24 26 10 21 21 24 17 17 6 30 35 14 31 24 17 27 10 32 5 10 20 35 27 33 7 26 24 14 6 35 23 19 17 28 35 15 34 28 24 17 16 22 13 21 7 10 17 17 31 34 11 31 10 14 17 3 17 17 13 20 14 35 17 44 28 10 24 10 45 21 24 19 3 23 34 28 16 27 28 15 23 28 19 34 24 24 21 20 24 7 14 13 20 9 20 35 16 24 44 24 17 24 14 18 20 7 25 17 10 14 14 14 20 20 34 17 14 13 10 24 18 13 6 18 17 0 17 37 3 16 23 3 35 20 21 27 24 21 9 7 13 29 16 13 10 17 31 28 28 11 28 14 21 27 31 32 26 27 27 31 14 34 10 16 10 12 21 20 20 13 20 17 31 10 24 20 13 3 35 16 9 14 7 18 15 20 27 16 12 30 38 7 31 17 28 31 26 12 20 24 12 16 21 24 30 17 21 28 14 10 10 7 20 21 23 3 14 12 24 13 20 16 24 16 23 18 9 17 14 17 24 24 20 14 14 23 24 17 31 16 21 16 20 17 21 16 20 14 18 17 23 0 21 16 7 31 28 20 21 24 17 21 27 8 24 9 21 10 28 36 19 10 26 17 24 21 18 14 23 21 24 14 17 21 34 21 19 22 20 20 10 21 10 23 24 27 20 10 30 3 25 27 24 27 14 24 10 7 20 9 13 17 13 13 27 17 22 24 24 16 18 20 12 24 27 10 38 30 6 15 35 27 20 26 10 17 16 8 20 21 24 27 23 27 7 24 24 14 16 16 35 13 17 13 9 20 28 21 34 23 17 31 25 17 15 19 10 17 10 20 20 35 14 17 6 38 0 23 34 15 14 20 29 38 3 17 20 13 20 14 13 23 17 10 21 19 27 24 17 28 6 21 31 6 14 10 20 13 12 14 15 9 25 20 24 24 27 42 13 10 38 17 16 20 12 14 28 18 28 13 15 13 23 21 13 15 31 17 28 37 24 10 17 17 34 31 20 42 10 24 28 24 19 21 26 16 32 30 31 6 24 28 23 19 28 14 19 10 28 34 24 19 13 12 10 8 13 31 14 23 27 8 21 17 7 20 17 24 21 10 9 20 18 27 27 17 20 6 25 16 32 21 28 13 15 0 16 13 27 10 23 20 7 17 19 17 30 14 23 24 6 35 13 28 40 21 20 17 10 21 21 15 27 19 44 13 31 10 35 17 13 19 27 21 31 24 38 13 19 7 14 34 17 23 9 10 23 23 28 10 19 24 16 13 17 13 27 6 20 31 8 20 16 33 14 20 7 27 31 13 23 3 27 7 17 16 23 3 20 16 21 20 7 24 24 17 16 24 21 35 10 25 34 10 3 16 21 28 21 9 17 16 7 28 31 32 14 27 27 25 14 24 20 14 20 10 17 31 22 15 23 13 13 17 17 14 10 20 30 16 7 38 24 31 10 23 14 14 17 0 19 22 20 31 10 21 14 24 17 8 28 31 9 14 23 7 27 20 10 15 21 24 27 28 42 0 6 45 20 17 3 24 10 28 14 35 26 21 14 14 30 24 36 31 24 18 7 52 14 27 17 24 27 16 7 37 13 24 17 31 14 10 34 6 7 17 17 20 17 21 17 30 22 17 13 21 24 28 17 14 14 28 24 17 23 20 17 27 13 31 26 6 15 23 17 17 13 17 13 27 20 10 3 32 13 28 14 0 20 21 17 17 31 14 20 34 11 34 10 14 31 31 35 22 10 13 21 23 14 20 24 20 17 24 15 13 17 21 20 10 28 30 24 20 37 13 7 13 6 15 24 17 17 23 7 17 9 25 24 16 42 45 23 13 13 20 18 36 14 20 14 13 10 16 35 30 7 20 13 6 19 26 12 19 24 18 12 24 18 31 23 7 17 23 33 24 21 13 10 18 21 42 31 29 28 24 20 45 17 6 10 24 20 16 23 16 31 20 21 14 34 18 27 17 13 13 22 18 16 15 21 43 24 26 9 30 21 18 14 14 24 10 38 17 20 24 21 0 24 13 21 23 20 14 20 27 10 35 21 6 22 23 35 14 28 32 3 13 18 9 17 6 22 16 14 25 12 13 28 7 37 3 23 17 7 17 25 31 22 13 20 17 20 33 17 17 16 41 17 20 30 23 24 14 17 13 17 14 9 13 7 10 23 17 17 28 35 24 39 24 20 17 6 27 41 10 17 14 31 17 24 28 38 17 7 30 17 38 21 24 24 3 17 18 7 17 24 16 20 30 21 20 20 13 26 31 37 17 17 20 0 16 20 24 0 28 26 15 10 14 13 28 41 29 31 28 10 20 17 10 17 10 15 19 13 31 12 14 23 27 24 31 27 23 17 21 17 10 21 27 20 13 10 6 3 21 27 24 21 34 13 8 15 16 24 31 14 26 16 13 24 27 3 37 31 27 24 20 27 10 22 19 20 16 7 14 16 14 17 7 7 14 24 9 17 12 0 13 25 20 24 16 23 18 7 9 10 13 0 13 13 21 24 6 21 23 7 30 31 13 10 20 20 34 30 17 10 21 38 21 17 21 27 21 20 24 15 29 7 24 27 15 34 24 31 17 13 23 24 3 17 27 34 13 14 17 16 14 17 17 13 26 10 24 12 27 9 28 9 24 17 22 14 24 21 24 17 26 19 24 16 31 8 13 13 23 24 27 13 13 31 21 17 3 21 17 31 14 24 14 30 27 24 17 7 21 16 19 21 16 22 12 28 21 14 14 28 26 3 19 15 24 34 13 24 24 13 10 2 24 27 17 6 35 28 14 7 10 12 17 20 22 16 16 31 17 13 10 20 19 23 17 23 30 13 21 38 27 11 20 14 24 9 13 7 9 23 28 22 27 20 38 14 17 16 15 21 17 27 16 27 31 17 20 28 15 17 34 21 14 10 13 10 24 26 7 6 35 20 27 13 20 9 7 20 26 6 6 14 6 20 10 29 7 14 0 21 17 20 17 13 13 28 22 31 10 7 13 16 7 17 20 22 24 21 17 16 16 28 23 15 20 24 10 24 12 10 10 17 23 16 17 20 12 14 21 19 27 24 24 19 30 13 24 10 24 37 20 24 24 15 45 34 25 12 17 16 24 24 10 14 24 16 14 24 37 19 20 12 10 20 17 23 27 20 20 23 27 20 17 41 14 30 23 27 20 23 30 17 7 14 10 24 31 35 17 28 11 21 17 35 9 21 37 30 20 28 28 7 19 13 20 17 28 28 20 16 26 20 20 23 24 20 22 14 24 34 26 13 23 22 14 13 14 9 27 10 44 23 13 10 13 15 17 13 28 14 31 10 24 10 17 14 31 27 16 23 20 21 31 17 17 10 23 10 16 24 21 24 24 24 14 30 20 13 27 21 23 21 18 10 24 20 17 17 27 14 3 15 13 7 17 27 29 25 18 24 6 16 20 13 30 24 17 26 22 20 23 21 16 7 31 35 19 0 3 21 20 3 24 21 31 27 10 31 14 10 20 19 21 17 27 7 21 6 20 11 14 30 16 22 33 10 24 9 22 27 6 11 16 26 17 10 17 23 13 9 27 23 17 24 7 24 6 37 14 30 3 16 16 12 10 13 19 29 13 11 14 37 21 10 7 10 21 27 10 21 10 13 22 13 27 24 13 24 24 14 30 22 21 9 17 10 21 17 31 24 3 34 16 27 17 13 13 24 27 27 22 16 30 20 31 17 9 16 11 8 34 20 17 21 24 34 10 31 13 19 24 3 27 13 17 33 24 34 21 20 31 14 20 3 35 17 28 0 20 17 27 17 14 20 17 21 20 13 34 28 38 34 22 20 23 24 21 34 17 37 0 19 10 27 10 20 13 34 18 15 10 21 23 24 20 14 16 10 17 23 14 21 28 11 21 6 24 20 17 24 27 20 21 30 31 28 28 28 24 23 23 14 7 38 26 7 16 37 34 17 3 48 21 30 10 48 17 19 14 20 31 21 22 21 27 30 12 6 17 35 27 24 38 26 4 31 10 34 28 9 27 0 27 13 9 24 17 14 14 26 26 21 6 17 24 24 17 24 23 17 15 20 37 21 20 13 23 30 25 16 17 27 27 17 27 21 27 17 15 26 33 14 23 17 17 19 16 20 14 17 17 17 28 28 20 27 3 16 14 20 17 24 34 10 42 16 28 31 13 20 17 0 21 7 23 19 34 27 7 30 14 10 9 23 10 13 10 31 24 13 21 28 10 17 31 26 17 38 10 6 20 31 27 20 17 30 3 24 20 28 10 21 31 20 23 17 20 17 21 17 19 17 28 23 6 31 20 17 17 24 10 17 18 28 35 27 41 18 34 24 20 14 13 30 37 13 38 10 14 10 15 28 14 14 24 24 28 22 31 18 47 24 44 13 11 28 10 9 14 27 19 41 13 31 17 21 13 10 13 15 16 23 27 23 14 21 27 0 24 27 23 35 20 7 20 9 13 31 17 24 28 38 21 17 28 30 17 31 6 17 31 17 17 31 13 38 23 10 19 6 13 17 21 3 7 16 13 22 14 14 18 14 30 23 17 14 28 26 24 17 28 17 20 34 17 14 17 16 27 17 7 14 9 27 13 10 23 17 17 14 30 17 10 9 30 21 28 20 13 20 20 27 17 3 17 7 37 14 14 22 17 26 24 24 24 27 24 16 21 22 14 22 20 20 10 24 22 17 20 18 17 20 31 21 16 24 14 30 10 24 27 16 27 45 26 19 19 17 20 16 14 21 28 23 14 10 17 6 21 28 21 8 13 0 20 16 14 24 31 17 28 17 16 21 23 21 22 9 30 7 10 24 20 10 13 7 13 14 14 17 20 35 24 13 7 14 13 17 7 7 6 10 12 23 26 27 25 23 27 24 13 24 20 24 31 3 10 20 6 28 24 14 30 38 17 14 17 21 27 14 16 13 14 24 19 7 17 13 20 10 7 12 3 13 49 14 9 28 16 9 23 24 37 20 24 28 10 21 19 19 24 19 28 19 34 6 34 14 21 19 7 23 21 19 3 0 22 20 20 20 17 31 28 10 20 26 20 10 16 24 20 12 24 38 21 20 20 31 31 37 20 18 10 17 10 20 14 22 17 31 21 16 37 10 34 31 31 14 10 17 14 21 16 20 9 20 30 24 24 27 37 28 9 7 17 17 17 9 23 35 37 23 28 27 3 27 20 21 27 23 26 13 24 15 14 20 14 12 24 3 18 38 17 24 20 32 27 18 7 31 20 13 24 17 23 28 17 24 15 7 13 24 13 33 17 20 16 10 21 30 31 30 31 16 21 16 17 13 13 24 16 22 28 3 18 9 33 13 12 26 13 10 27 15 24 14 15 31 15 13 21 41 7 21 24 23 16 14 13 23 7 24 7 0 21 27 24 3 10 28 31 38 34 14 17 18 24 20 17 31 21 17 14 27 9 9 10 48 10 24 23 26 19 15 31 17 17 24 27 24 27 28 10 6 18 20 24 17 16 20 12 13 13 6 26 10 13 17 16 24 31 31 7 22 28 13 26 24 14 7 18 16 37 25 18 20 14 13 13 23 17 27 24 7 28 26 29 21 17 21 31 25 24 22 26 28 12 12 23 14 18 16 14 17 0 16 6 10 38 13 24 23 7 37 14 20 28 17 13 31 25 35 9 24 21 30 6 31 19 21 35 20 21 24 38 17 21 16 20 28 17 21 6 17 20 10 7 17 30 20 0 10 35 26 14 21 24 20 13 14 31 17 20 31 23 21 14 27 14 27 6 17 45 24 17 21 17 28 23 17 17 7 20 17 19 22 34 34 6 13 19 24 34 30 3 24 13 25 16 10 13 20 34 16 6 19 23 27 17 24 20 10 24 23 30 27 42 14 10 13 24 19 21 42 17 24 16 23 38 24 13 20 24 21 27 14 3 13 23 20 23 35 13 19 8 21 31 16 17 20 14 28 27 17 21 26 24 24 24 10 31 3 24 34 7 6 21 24 34 17 13 13 7 31 20 9 7 27 34 45 13 24 20 27 12 21 28 24 23 20 7 34 16 13 10 19 35 14 27 16 9 10 14 10 27 3 10 21 10 10 10 24 20 7 17 31 17 31 14 14 28 16 33 20 30 10 21 3 16 13 22 14 24 18 24 24 35 28 23 10 21 34 21 45 27 12 27 30 17 19 20 20 14 14 27 7 13 24 20 7 17 27 34 23 20 9 3 6 21 18 16 20 13 23 21 24 21 17 9 28 14 10 7 26 17 35 24 19 28 14 10 26 7 32 9 17 9 14 14 23 30 20 6 17 24 0 21 10 20 30 10 12 17 29 37 29 31 27 17 21 24 31 18 9 31 23 27 25 18 21 28 14 24 27 14 17 16 24 27 17 28 21 16 20 23 30 14 13 21 21 17 21 17 13 15 26 12 20 38 14 17 14 27 20 18 27 20 16 22 21 20 28 28 6 10 28 27 17 17 16 44 24 24 21 12 31 21 30 16 10 19 28 32 35 38 37 27 22 28 20 25 30 17 12 44 17 17 23 17 27 16 42 31 24 21 25 13 10 9 17 23 23 30 11 10 27 14 24 6 22 33 23 35 20 24 27 17 17 22 23 7 14 21 23 23 16 10 14 7 13 7 24 17 25 30 14 10 27 12 14 35 17 21 35 12 23 14 14 16 31 35 24 38 38 13 26 24 14 16 14 20 9 17 45 20 0 17 22 6 20 21 24 27 23 15 24 24 24 10 28 24 13 14 14 10 13 31 13 17 10 38 30 19 27 20 10 16 27 13 3 3 24 14 17 10 28 9 35 10 11 18 13 16 17 31 7 20 13 24 25 20 31 21 17 14 17 41 25 17 30 15 23 13 27 14 26 19 14 16 24 35 3 7 24 24 23 13 28 20 14 19 21 7 14 24 13 14 12 24 20 24 33 20 26 24 24 6 21 10 13 24 17 16 17 31 28 20 3 17 24 6 24 16 30 13 6 20 21 19 24 31 17 20 17 3 16 19 13 7 32 16 33 24 21 24 17 17 25 20 23 5 17 21 19 12 24 24 24 23 21 16 33 17 13 20 20 14 20 24 14 16 17 15 10 24 10 18 10 13 26 13 21 35 43 6 10 24 21 9 21 24 14 28 27 13 3 14 49 24 18 20 27 22 28 27 24 28 23 17 21 31 14 20 19 25 31 31 28 20 31 10 31 14 17 15 28 10 38 20 23 21 28 14 30 28 19 10 41 35 28 35 18 21 16 19 6 10 6 24 6 30 16 23 31 14 24 23 15 28 26 17 27 23 22 27 16 17 24 14 27 16 15 26 16 17 14 27 10 13 16 7 13 18 34 13 13 20 17 24 25 27 10 27 28 20 10 17 24 10 30 31 23 17 24 13 17 20 24 9 7 19 20 16 20 21 31 17 13 9 7 3 21 15 14 24 20 22 19 24 13 17 3 16 20 13 24 7 16 17 16 22 10 38 14 24 14 24 34 24 12 9 19 17 9 20 13 16 10 21 30 13 31 17 26 37 21 14 20 27 10 22 19 16 7 20 34 19 27 13 24 10 20 20 30 17 18 31 19 28 20 27 18 20 6 23 21 13 28 31 21 23 27 20 28 22 0 17 35 14 20 17 20 11 14 21 30 41 16 3 24 23 24 24 7 6 24 21 16 10 26 28 10 21 23 38 19 24 20 14 6 23 20 17 24 13 17 22 14 6 7 10 21 21 19 24 17 14 10 19 20 13 27 29 20 17 24 30 24 24 9 9 24 23 31 3 34 16 21 34 21 26 30 23 14 23 12 20 15 9 7 20 28 20 17 8 27 27 6 23 10 29 10 21 9 16 14 3 10 21 38 17 21 25 21 16 10 26 7 6 17 27 20 14 31 29 18 24 10 16 35 6 24 16 21 10 10 16 16 10 30 31 20 21 22 21 23 31 13 9 16 41 23 13 21 21 30 27 27 17 9 10 10 19 12 36 31 13 14 13 18 27 26 31 24 31 14 23 24 20 26 14 37 22 17 13 7 13 21 28 19 9 13 20 37 27 21 24 24 17 24 17 42 16 17 20 7 21 15 9 24 15 17 14 24 20 13 33 9 11 38 14 18 17 29 33 19 7 17 10 31 12 21 20 20 20 23 20 24 24 14 24 26 31 13 21 13 23 10 17 35 36 17 38 26 23 14 30 21 16 20 17 10 34 19 11 13 16 6 13 6 13 14 34 23 9 17 16 7 25 3 7 10 14 17 23 23 7 25 27 14 9 16 32 10 24 23 20 13 23 21 20 14 34 29 20 20 17 23 28 14 27 13 31 24 14 18 23 21 19 31 10 17 16 19 9 10 6 27 17 16 17 17 24 10 16 23 22 16 14 3 31 27 20 13 28 27 18 13 10 31 38 10 16 17 35 30 9 34 17 38 20 24 13 3 7 26 27 16 17 14 23 14 21 20 13 23 38 36 22 28 35 17 11 11 27 13 31 16 17 8 24 21 24 17 17 14 6 20 24 18 21 27 21 17 44 17 14 21 28 16 26 22 24 6 20 10 20 27 15 23 24 10 24 20 28 14 7 27 25 7 24 27 17 21 28 17 8 7 25 20 29 21 13 10 14 20 16 45 23 17 23 26 24 14 16 14 19 12 22 0 23 28 20 23 28 33 3 24 22 31 24 28 3 13 14 27 20 24 13 22 26 15 37 11 10 17 15 15 16 27 14 22 14 24 16 27 17 20 26 18 14 17 26 16 20 13 16 16 20 38 21 16 17 16 7 24 41 24 27 7 30 23 10 24 17 20 20 28 20 31 16 27 21 17 35 15 10 3 31 20 31 16 20 17 17 27 23 38 24 24 23 28 3 17 9 13 19 19 30 17 20 7 11 16 17 24 27 31 36 23 24 34 32 23 10 21 9 11 30 19 28 10 9 6 26 20 27 20 16 22 20 13 23 20 21 24 17 24 17 17 21 20 17 6 30 17 10 17 17 24 13 13 14 21 17 31 23 17 19 45 23 13 14 21 23 8 25 27 7 12 27 17 7 16 13 28 23 10 9 42 16 34 6 10 21 33 16 13 27 24 28 21 19 25 27 15 17 21 10 17 23 17 29 18 10 33 28 17 34 24 21 17 31 24 17 25 31 24 20 14 14 31 20 20 14 13 19 24 28 21 15 14 22 13 34 20 31 27 13 13 17 20 28 13 22 18 26 32 22 22 40 28 12 13 15 14 27 14 27 38 41 13 13 27 28 24 20 20 19 17 9 7 14 13 27 28 21 20 9 25 23 21 20 17 29 27 18 17 27 24 20 27 3 17 17 9 13 33 17 24 16 12 15 12 9 28 3 14 17 16 14 23 24 24 40 24 6 13 31 10 11 17 3 3 28 10 16 13 33 14 34 23 10 27 7 16 10 27 23 13 31 14 26 38 18 17 16 16 33 31 24 26 35 19 24 13 27 27 34 3 10 10 17 17 19 13 6 10 0 17 7 13 13 25 20 24 20 21 21 9 20 20 34 14 14 11 24 3 23 16 16 26 10 10 26 17 6 33 21 13 21 13 17 20 23 7 16 6 23 17 23 31 28 17 13 10 31 12 38 24 14 23 11 29 26 7 10 16 7 27 14 24 12 21 25 14 23 10 37 13 7 16 12 36 17 13 14 23 32 20 7 28 31 16 20 20 10 6 29 21 17 20 24 22 33 21 21 27 10 7 19 10 20 13 26 21 23 27 14 20 23 3 31 27 18 10 9 31 24 14 24 17 17 21 28 20 27 17 20 31 20 13 28 19 23 24 28 27 20 20 14 27 20 15 20 10 21 10 16 27 3 6 10 17 27 17 27 21 24 12 30 10 9 31 10 20 20 9 10 9 33 21 24 24 31 34 17 11 38 7 6 20 7 45 3 20 20 13 10 27 18 28 10 31 38 27 21 7 28 14 13 31 6 3 9 14 28 20 27 20 13 12 24 24 27 31 20 30 34 24 28 17 20 14 22 10 23 21 16 17 17 10 14 20 13 24 20 31 17 24 27 13 13 6 7 7 10 14 17 25 14 31 20 16 23 3 7 28 6 21 34 20 24 7 17 27 19 28 17 34 23 20 34 13 14 14 34 27 24 17 35 14 20 17 27 19 15 17 13 10 17 17 20 28 28 0 20 19 23 23 25 25 14 24 27 42 20 17 15 15 16 16 18 6 20 24 16 24 13 20 27 17 26 24 14 16 17 10 28 24 10 20 17 16 24 6 27 24 31 17 34 17 17 9 28 10 45 17 30 33 6 27 9 10 19 26 14 17 24 17 23 21 16 13 16 17 20 23 27 10 17 15 26 21 34 24 23 16 20 20 22 20 3 7 7 27 20 10 13 24 17 24 23 28 24 17 28 10 20 23 23 38 20 24 13 13 18 23 34 13 29 22 13 21 34 30 38 24 24 20 17 16 32 24 10 24 17 14 38 24 10 34 16 13 27 23 7 27 6 24 12 23 42 20 14 15 10 17 21 9 27 15 8 24 27 27 21 13 27 20 48 24 25 7 27 35 14 17 10 26 13 33 20 10 10 24 16 27 10 17 22 14 20 31 17 6 11 24 20 9 17 21 17 45 7 27 24 17 14 23 31 31 21 8 3 20 14 28 24 6 17 13 24 24 20 30 19 15 28 24 32 19 14 16 16 20 23 21 14 20 24 15 20 9 21 11 16 20 23 24 10 31 23 21 20 19 9 21 24 20 15 23 30 20 21 13 12 10 6 22 34 30 27 11 17 10 17 30 28 16 35 7 16 17 27 23 21 26 6 33 26 17 45 24 16 13 26 23 11 13 17 13 17 47 24 16 13 21 10 10 18 34 14 13 17 13 33 24 27 17 22 13 17 17 26 26 27 27 17 17 35 23 7 27 13 13 13 20 23 17 6 37 19 16 17 14 19 34 17 10 21 26 24 21 24 24 12 17 31 28 24 25 20 7 21 26 30 13 24 12 23 38 17 13 28 16 24 10 27 24 31 11 17 29 31 20 16 36 8 14 13 21 13 14 17 34 17 31 17 14 7 14 7 24 20 16 17 26 3 17 28 26 25 19 30 21 6 23 20 20 0 17 34 13 33 30 20 13 17 10 27 10 16 17 3 16 20 21 28 21 23 23 14 34 22 13 12 23 21 12 10 26 13 13 20 27 17 27 3 13 30 13 24 10 23 28 25 20 27 23 16 51 38 7 12 19 3 31 13 21 27 42 18 23 14 22 27 21 31 28 24 9 17 21 41 24 27 28 7 13 21 21 13 44 20 12 8 28 12 13 17 26 17 26 35 27 10 31 18 9 21 16 7 24 13 14 20 22 38 26 21 24 27 19 20 10 14 13 10 10 24 6 24 40 17 17 26 20 13 10 20 13 6 13 27 9 22 26 10 27 21 20 20 3 17 17 34 6 6 21 31 25 24 26 24 27 21 9 28 20 24 21 21 24 24 16 26 10 20 3 16 21 16 12 30 20 10 9 13 15 20 24 12 14 31 17 9 27 38 27 35 24 9 20 22 31 24 34 17 14 21 21 7 24 24 15 12 26 21 24 23 3 10 33 17 13 19 34 33 24 16 17 23 13 10 7 13 13 10 6 20 13 15 14 17 27 27 22 16 21 7 13 13 16 13 27 13 16 34 7 6 34 26 20 44 22 17 19 10 17 3 17 23 31 13 35 24 21 10 16 17 9 22 12 3 24 45 10 17 34 30 20 20 23 9 20 13 13 37 21 30 21 14 20 10 16 13 23 24 24 14 12 27 17 33 18 10 18 17 7 28 19 10 26 35 23 20 23 31 20 31 27 30 24 21 10 17 21 34 24 28 20 12 20 6 24 6 7 17 27 11 10 30 31 19 31 16 20 22 10 10 10 9 11 27 18 20 7 20 6 22 17 0 17 35 14 19 16 34 22 26 33 24 13 17 20 37 27 17 18 21 24 31 16 7 13 19 31 31 26 24 17 24 11 30 16 35 23 9 17 16 10 16 20 16 17 20 17 12 30 16 24 29 7 38 19 7 37 20 14 7 14 18 28 27 14 14 9 13 14 17 24 14 19 10 17 13 17 24 12 23 17 14 31 22 21 11 44 17 14 14 13 24 20 14 30 17 31 7 22 10 28 16 16 28 13 27 24 18 21 31 24 23 17 21 14 27 17 17 17 3 17 17 17 17 20 26 17 24 14 24 16 31 13 23 14 27 27 33 10 20 13 16 16 24 24 27 3 24 17 13 10 27 21 28 31 21 24 27 31 17 17 23 24 28 20 22 20 30 27 30 17 10 20 26 17 51 12 6 10 34 27 31 30 19 29 9 24 15 14 10 24 14 30 30 14 10 22 10 23 38 17 7 21 19 27 24 17 30 26 23 24 10 18 14 24 16 27 16 20 16 13 27 25 13 28 24 24 24 20 7 10 19 31 20 17 17 20 23 29 28 7 6 14 27 38 6 21 21 19 7 3 28 7 20 16 17 23 24 17 6 21 20 38 28 17 31 34 13 38 41 14 6 17 17 14 20 34 31 10 31 34 30 10 11 14 17 31 21 19 31 17 26 20 16 31 20 34 10 28 17 31 28 13 16 14 17 27 17 10 24 21 34 38 13 14 15 19 19 6 14 27 31 7 21 42 18 21 16 7 26 9 49 30 27 17 23 21 20 38 24 17 33 9 37 13 51 7 27 27 25 24 24 14 14 13 20 24 33 10 16 21 24 17 10 9 13 17 15 38 14 21 20 17 28 24 10 14 24 18 32 21 17 24 13 20 33 14 16 31 30 31 13 10 20 23 0 27 14 11 28 27 21 40 27 7 23 36 13 16 17 19 21 23 9 19 20 17 24 20 14 23 24 23 7 45 9 17 13 16 23 17 17 13 29 20 23 17 20 22 19 20 23 24 23 20 31 13 15 13 14 30 14 9 19 3 17 23 27 27 26 28 28 15 21 24 27 24 24 10 20 23 17 20 14 24 14 19 16 18 28 24 3 7 3 14 21 21 18 17 21 16 14 31 17 6 24 9 21 17 27 16 3 20 17 24 14 15 17 27 16 24 20 20 22 23 17 24 41 27 17 10 20 19 10 10 31 13 16 17 24 17 20 13 10 20 17 28 24 20 28 24 6 10 20 21 9 34 27 9 13 21 9 26 17 14 15 14 12 20 7 27 35 23 10 13 24 27 27 14 20 10 27 10 24 10 35 30 21 27 7 20 28 23 34 14 31 17 6 28 17 20 20 31 26 27 35 3 13 27 20 28 13 13 9 13 13 25 34 31 17 29 28 17 22 17 17 13 30 27 20 31 22 17 16 24 18 17 35 17 24 27 20 10 30 7 17 27 17 23 21 25 7 14 30 27 17 3 34 31 22 30 21 7 31 22 27 20 16 20 14 17 30 10 3 3 12 17 16 21 17 30 23 48 31 14 18 15 17 17 34 21 17 22 13 17 17 13 12 28 10 10 17 21 11 7 9 21 28 16 2 27 31 24 17 27 6 21 20 13 24 10 15 45 28 13 14 20 30 20 17 14 9 20 19 19 30 37 13 37 21 17 20 17 26 24 13 30 23 27 23 35 19 21 17 24 13 13 6 21 16 3 27 25 27 17 13 17 29 14 23 22 20 14 12 21 10 24 17 19 14 17 20 26 30 21 21 20 24 19 40 6 20 20 30 27 15 20 18 21 17 20 23 34 17 0 17 16 20 7 21 13 20 34 13 3 24 10 37 13 14 17 34 16 17 27 18 31 13 20 20 24 17 21 17 17 35 22 24 35 13 13 10 13 7 31 14 13 17 14 14 14 27 17 35 24 20 27 20 27 13 24 20 16 31 33 23 10 30 20 10 38 20 20 7 27 3 14 30 19 19 24 16 11 16 10 10 14 19 20 7 20 29 31 17 25 27 42 10 10 41 3 17 26 14 27 35 23 19 28 17 17 24 10 20 16 21 17 13 9 10 7 29 17 36 19 13 41 24 24 20 13 25 27 20 16 16 17 24 20 7 0 33 21 12 20 27 20 31 23 27 21 20 16 35 7 24 13 17 20 16 15 21 13 12 13 27 15 16 27 34 27 22 27 17 31 27 10 10 9 20 31 14 30 13 7 10 31 3 7 17 3 17 17 31 21 27 21 27 0 17 31 13 24 27 14 24 13 12 6 20 23 23 16 10 17 0 17 17 31 34 20 27 14 14 16 22 20 16 22 27 23 34 10 28 49 14 14 26 14 17 20 0 10 20 26 6 34 3 23 31 18 20 17 23 16 14 27 23 17 17 13 17 7 30 13 24 14 38 14 10 27 24 24 13 0 29 10 14 17 17 41 27 17 18 20 14 17 27 27 31 17 35 24 27 24 41 17 14 9 20 16 17 24 30 20 7 35 10 13 9 33 8 23 10 10 20 16 14 13 20 6 15 20 7 16 10 20 33 16 18 10 15 27 24 10 9 11 17 14 20 21 24 30 17 24 42 26 35 28 21 0 20 17 28 19 33 17 10 7 13 27 20 28 14 21 28 24 13 23 30 12 7 20 20 24 6 24 21 20 30 20 3 31 14 20 23 40 17 9 20 20 17 19 26 18 14 27 20 38 12 16 20 38 27 24 17 24 27 16 6 26 34 17 20 16 10 14 41 20 33 13 23 7 13 17 19 26 14 13 17 16 20 33 20 14 7 23 13 17 28 7 24 38 38 28 27 10 30 27 17 44 13 20 12 23 17 21 21 17 20 23 28 7 24 30 17 20 14 14 17 17 23 27 13 3 28 16 10 3 20 21 20 27 14 17 10 17 29 10 27 20 17 23 13 28 7 14 10 28 6 20 27 27 31 25 7 17 19 17 17 26 13 13 10 20 17 17 14 24 41 18 24 21 20 17 13 17 13 10 6 16 20 31 20 27 16 20 34 3 8 14 13 22 27 30 14 24 21 28 27 23 24 17 21 20 27 14 20 24 21 14 9 14 23 19 28 17 10 40 20 24 12 26 13 21 42 17 35 17 10 24 14 24 10 14 21 24 24 19 20 8 21 18 28 9 14 16 3 14 14 10 10 30 7 28 17 17 14 21 28 14 24 28 13 9 21 3 20 6 17 10 17 23 42 23 7 24 27 6 24 27 40 27 17 41 24 17 24 17 29 17 18 6 17 12 14 20 22 17 14 13 16 17 10 10 14 28 29 17 26 17 11 24 12 9 24 10 24 24 31 10 27 20 31 15 6 13 13 10 19 28 28 25 35 6 19 13 14 24 6 24 25 14 23 22 24 16 10 20 17 31 16 26 33 28 28 27 31 21 21 22 13 27 7 27 16 24 7 6 20 26 34 24 30 35 20 32 27 24 14 7 27 17 11 14 30 10 20 7 28 20 27 28 27 21 7 27 20 14 14 28 21 28 34 14 14 21 25 28 20 7 17 27 20 16 20 9 10 17 20 14 21 31 28 41 11 24 7 30 21 35 17 13 21 16 13 7 6 20 10 13 24 16 27 24 15 14 10 14 20 10 21 20 18 27 7 7 21 28 7 45 13 17 14 0 14 26 16 33 13 20 31 13 3 20 21 19 10 17 16 27 0 19 25 9 38 12 10 23 18 9 34 20 17 34 28 12 18 10 10 11 17 27 29 27 24 39 24 13 13 17 6 17 27 24 11 16 33 16 20 24 21 18 31 27 15 11 16 9 10 17 15 0 10 20 17 25 17 21 20 14 21 20 15 21 19 24 13 31 17 32 20 10 26 13 38 14 30 19 23 30 10 10 17 19 13 14 24 10 13 24 26 24 22 35 17 24 29 31 27 3 17 27 24 22 17 31 19 15 27 13 16 27 21 24 22 6 24 34 20 31 19 20 28 27 20 14 17 13 28 37 21 17 9 13 19 6 31 16 14 10 14 21 28 12 10 17 14 27 31 16 16 16 31 16 14 36 20 10 16 6 35 16 13 51 21 28 37 20 17 26 19 29 18 24 24 20 27 13 27 17 19 21 20 17 27 10 28 23 18 28 14 22 18 16 35 7 48 34 28 21 15 27 24 21 10 31 13 21 10 27 13 10 31 22 23 22 6 16 14 10 14 19 23 24 17 24 13 26 7 27 27 17 15 7 13 24 7 17 20 7 17 16 17 10 6 13 24 30 17 24 3 20 30 24 20 33 0 10 13 23 27 10 20 28 10 23 27 35 16 20 10 0 20 13 17 13 27 14 13 24 48 21 20 10 17 27 16 16 27 13 12 9 10 21 14 24 21 20 17 20 24 10 20 27 24 18 29 24 6 24 14 20 35 17 31 17 19 20 20 20 18 18 24 27 22 38 7 13 22 20 7 24 9 7 7 17 17 17 13 28 31 22 23 41 24 36 24 23 24 16 20 30 14 6 14 6 38 17 34 13 23 17 27 21 17 17 14 14 20 9 21 20 45 14 6 16 29 14 30 23 34 24 19 13 23 13 27 12 9 24 6 31 21 20 33 13 23 26 8 19 13 17 17 17 6 7 10 27 18 19 31 23 20 14 20 6 28 14 19 31 13 32 20 14 16 23 19 30 17 24 10 17 24 23 20 27 13 13 30 8 34 12 0 23 24 3 28 14 19 23 14 21 28 16 7 33 27 17 16 21 13 10 15 29 17 17 15 13 16 13 15 24 13 9 25 6 10 21 21 24 21 7 20 24 42 11 27 10 27 19 20 27 30 9 27 13 17 22 12 10 28 23 20 10 9 20 17 25 17 20 10 13 27 21 24 20 17 17 31 27 17 20 3 7 3 22 24 9 17 10 16 33 31 17 20 19 22 27 10 3 20 17 13 3 23 18 19 23 10 21 16 24 24 31 17 26 31 24 16 21 17 24 16 23 17 31 20 16 10 13 18 10 17 31 14 6 33 17 34 16 20 24 14 31 20 20 19 10 14 13 21 29 31 10 19 30 26 21 21 23 31 10 18 20 31 26 19 7 7 13 17 10 24 30 3 14 26 7 20 13 21 20 16 6 13 17 21 28 30 10 13 27 25 37 20 20 20 20 27 27 29 10 31 24 31 13 6 3 12 3 14 31 14 23 16 20 31 24 7 27 17 16 33 7 30 17 23 19 21 7 25 13 27 24 18 21 30 24 17 10 24 9 20 24 16 24 16 13 6 17 44 20 20 14 21 23 21 25 19 10 19 13 20 12 29 35 14 16 24 27 17 13 10 34 10 31 35 27 16 17 7 10 19 17 30 39 42 27 0 3 13 23 3 10 25 26 20 27 10 17 16 15 13 20 8 15 31 20 7 19 17 27 24 17 27 20 16 28 15 17 17 13 18 17 16 16 38 26 14 26 36 20 17 17 13 27 20 28 10 17 24 22 17 27 22 14 17 17 35 14 6 17 21 24 37 20 35 10 10 21 3 6 21 20 23 20 16 28 17 31 16 16 29 16 42 23 27 17 28 11 21 16 27 14 24 15 27 19 14 3 21 10 19 17 17 24 23 26 26 17 27 17 23 24 14 13 7 17 24 28 20 19 23 28 7 9 13 17 35 28 31 16 17 24 16 14 20 3 24 24 36 24 21 16 31 7 19 24 28 21 16 27 24 7 14 13 13 24 31 27 27 21 13 17 18 21 16 23 10 9 27 13 20 13 20 14 24 12 28 14 20 23 13 13 20 10 28 10 13 27 9 24 28 0 6 37 7 21 13 31 20 19 16 13 20 20 24 10 17 7 23 28 14 20 17 28 12 17 38 20 17 14 21 27 27 13 17 20 17 7 20 3 13 19 12 16 17 31 14 21 24 3 16 31 24 21 20 17 28 10 24 35 16 44 21 26 12 6 16 30 28 27 24 12 31 7 35 24 10 21 14 27 17 23 19 23 13 12 20 29 31 16 24 20 21 26 27 10 24 31 11 3 21 21 13 28 19 20 20 35 37 27 13 13 23 28 13 17 10 24 11 31 24 20 28 14 23 10 20 34 17 30 20 17 17 28 23 9 10 28 11 19 17 20 24 15 29 17 19 17 28 35 24 7 17 24 30 21 21 30 32 21 28 17 16 6 34 7 10 13 20 20 12 34 27 10 17 10 24 15 24 30 28 23 14 20 21 27 30 26 14 30 24 31 23 28 7 13 24 14 24 37 13 20 13 17 14 27 20 16 23 27 16 6 17 27 11 7 14 20 10 19 10 17 31 20 16 28 27 16 36 23 17 10 13 17 14 13 28 20 16 17 7 12 13 10 45 6 37 17 23 13 26 14 21 31 7 10 17 40 17 20 42 13 27 34 10 26 20 7 9 24 21 24 13 17 20 17 6 6 14 27 10 13 7 17 14 28 31 3 20 16 16 10 13 34 24 10 21 16 16 16 15 30 19 14 14 31 6 14 35 7 7 20 35 24 19 27 29 24 33 13 17 27 3 24 21 10 6 24 24 13 16 17 0 17 10 0 7 14 10 16 10 35 24 20 20 10 9 0 20 6 21 23 13 21 24 0 24 24 20 31 20 11 21 21 28 28 24 17 23 17 20 7 17 31 6 23 24 23 37 31 23 23 19 34 28 13 8 30 34 10 31 10 20 6 17 13 10 38 21 20 26 34 20 9 17 26 13 24 20 28 24 30 38 14 26 10 15 15 21 14 30 14 45 28 35 34 17 14 10 31 20 9 31 21 23 30 36 16 21 30 14 10 13 17 35 13 10 24 16 21 13 20 24 16 10 14 10 33 26 31 18 24 27 20 24 7 20 3 21 23 20 19 14 23 16 10 14 17 15 31 17 7 16 28 28 32 27 10 24 24 34 14 12 19 31 24 27 10 28 10 10 28 23 23 21 31 13 23 21 11 31 10 7 20 27 42 15 27 11 22 13 6 31 9 21 27 17 18 16 14 17 16 27 17 14 13 14 23 23 17 27 12 21 13 27 17 17 14 24 48 33 18 21 32 21 28 23 13 13 21 10 12 10 17 23 16 0 27 9 27 38 13 28 17 37 24 3 17 30 14 24 6 17 22 7 24 30 27 14 17 20 10 6 9 17 30 28 28 20 21 17 24 28 20 20 35 31 10 14 14 21 27 7 28 27 7 9 13 20 20 10 14 22 28 27 28 28 17 21 20 16 6 6 23 14 28 6 28 28 17 31 24 17 14 14 26 6 34 23 24 17 24 17 24 14 17 20 18 20 24 40 6 12 20 17 22 27 13 17 17 27 21 31 18 15 23 16 13 14 17 41 16 20 14 24 30 21 26 10 16 29 18 27 13 14 14 14 18 12 10 17 3 15 31 13 21 16 9 26 27 22 10 24 19 12 17 21 20 34 13 14 10 11 27 34 34 10 30 13 0 13 16 6 38 16 13 30 26 38 21 24 17 17 23 20 17 33 31 30 23 26 15 24 21 10 17 13 21 27 13 10 13 21 24 23 35 12 13 20 28 14 10 24 29 17 22 27 22 16 13 20 24 15 17 24 27 21 10 24 30 21 20 27 3 27 21 16 17 16 20 31 22 24 7 31 31 15 14 10 6 30 19 14 17 23 21 23 16 23 30 17 33 3 23 21 10 20 24 17 28 7 20 9 27 10 27 6 15 27 16 24 13 31 10 19 10 23 17 36 28 27 20 7 16 13 20 25 20 18 31 19 14 7 3 31 20 6 22 24 24 20 24 17 21 24 25 30 26 20 28 16 20 34 31 14 23 3 13 29 27 10 17 24 10 21 17 18 24 17 17 31 27 19 23 13 10 17 10 21 21 38 27 17 24 16 13 20 38 14 10 28 15 15 26 19 7 19 6 9 21 9 21 17 25 30 14 20 3 17 17 20 27 30 27 14 9 24 10 13 28 7 13 23 19 28 13 16 15 31 21 17 27 13 20 19 5 31 23 10 16 19 17 32 28 19 23 14 28 17 28 11 14 10 21 14 10 27 26 24 20 31 28 19 27 23 23 18 10 34 7 17 3 34 15 13 28 21 19 24 24 17 31 10 30 20 24 48 24 20 26 16 23 14 16 31 11 38 17 17 24 17 17 24 22 23 17 27 6 20 17 24 20 27 21 14 36 14 3 20 27 21 30 17 44 36 24 17 24 7 51 14 17 31 7 12 24 24 10 38 19 34 24 9 24 34 7 20 31 6 7 20 27 20 17 19 14 9 38 10 18 17 19 10 27 19 20 17 22 34 23 17 33 10 13 16 31 21 16 2 19 21 33 13 18 30 33 27 11 20 24 21 13 24 22 27 31 24 27 20 21 7 27 23 16 31 10 11 28 17 16 10 26 23 3 13 17 27 17 7 9 24 17 13 13 10 37 14 20 14 21 29 16 27 14 20 17 17 20 10 38 20 27 14 14 19 32 20 31 12 22 17 7 15 21 36 9 17 14 13 24 27 36 30 20 28</t>
+  </si>
+  <si>
+    <t>JSB(9.001551280961193, 8.822109959183766, -29.86382653460042, 195.1958084283351)</t>
+  </si>
+  <si>
+    <t>19 18 22 18 20 21 21 22 15 26 18 21 22 29 25 23 24 27 24 21 26 16 18 18 20 24 16 22 20 17 23 20 15 20 19 26 17 24 15 25 16 20 15 28 22 19 25 20 26 27 18 26 22 18 20 18 24 21 25 19 23 26 29 21 27 22 18 12 30 24 25 22 19 25 25 14 26 19 25 22 23 29 24 24 21 23 21 22 25 18 23 25 19 19 18 22 28 22 26 22 18 25 26 23 20 18 22 16 25 24 20 17 24 26 20 18 21 23 26 23 19 21 17 21 24 20 19 20 20 27 29 26 21 20 23 13 19 21 24 33 18 20 17 27 23 19 26 25 20 19 17 19 18 17 16 29 26 27 18 19 28 17 24 16 18 16 22 27 22 25 16 19 18 29 23 17 21 29 28 21 25 22 17 23 18 18 26 17 22 12 21 25 17 22 20 23 25 20 21 17 19 22 19 24 24 24 21 18 22 22 21 19 21 23 21 17 26 26 18 22 28 22 17 15 17 27 20 14 25 19 22 26 20 27 24 23 21 23 30 30 26 29 16 17 25 18 15 22 22 25 17 19 19 24 23 15 14 19 20 16 22 28 32 17 17 25 28 24 12 22 24 28 29 24 16 19 17 30 20 26 18 19 23 19 26 15 22 21 23 24 22 21 18 22 19 20 20 23 15 21 18 24 21 19 14 21 29 23 24 14 26 21 32 22 26 21 20 20 26 26 19 19 27 23 22 25 18 22 22 16 14 35 21 20 28 24 20 24 24 12 26 20 25 21 16 27 23 18 21 19 18 17 22 22 22 19 20 18 26 23 19 24 26 20 28 19 18 14 22 18 20 26 18 20 21 20 27 23 25 18 22 27 22 23 17 26 16 21 28 32 20 17 27 24 22 25 16 23 22 21 31 18 18 23 22 30 19 22 24 19 25 28 14 25 25 28 19 17 23 22 19 24 18 31 24 29 18 29 19 26 21 23 14 20 23 20 21 16 22 23 22 16 21 17 25 22 18 26 20 24 19 24 23 20 20 31 29 16 23 29 20 14 31 22 15 32 28 22 17 19 25 19 18 16 19 18 13 17 22 25 24 16 23 16 28 28 21 19 23 24 22 19 21 23 23 21 32 15 14 28 23 25 29 23 21 19 20 18 23 23 22 19 15 20 29 21 17 18 16 24 20 19 27 19 24 28 17 18 30 23 27 28 29 22 24 14 16 20 29 22 14 29 19 26 21 22 18 20 27 20 14 24 18 24 23 28 23 16 26 15 23 23 20 26 13 16 15 29 16 19 24 15 26 21 19 29 27 22 19 24 26 16 20 20 25 23 30 19 22 23 22 16 19 20 18 19 29 21 26 29 18 22 20 22 20 18 28 23 14 25 15 21 17 25 21 20 24 23 20 16 26 26 22 25 24 15 27 14 17 20 18 25 22 24 21 14 15 22 20 27 26 20 15 25 16 23 26 29 20 17 19 23 17 18 21 23 21 20 21 14 22 16 19 25 29 19 19 18 17 17 23 18 21 16 27 18 29 17 34 17 21 23 20 22 26 18 30 24 31 24 23 27 20 20 22 14 20 20 24 28 20 15 16 21 11 21 23 22 23 19 23 18 17 19 23 26 21 22 17 27 32 22 21 20 11 21 16 32 20 22 16 25 22 23 25 28 16 19 22 30 19 21 18 24 18 14 17 26 25 21 19 25 16 22 27 25 26 25 21 31 19 15 20 17 18 33 17 20 14 24 26 26 14 27 22 20 17 15 18 26 22 26 20 29 17 19 22 22 25 21 19 18 19 28 24 25 23 29 25 17 25 25 22 17 21 22 16 20 25 24 28 22 22 24 20 23 23 22 23 30 20 17 28 24 24 20 24 16 19 24 21 22 22 22 25 20 19 21 19 22 20 13 21 21 23 23 20 28 23 21 20 21 25 14 24 31 22 12 24 24 23 27 19 21 21 23 30 24 29 23 29 22 22 21 32 27 22 17 24 33 26 29 25 20 24 24 19 29 20 21 19 26 17 20 27 22 21 21 17 24 25 18 25 16 23 23 17 23 22 23 22 25 29 21 27 25 24 22 17 24 23 26 13 22 27 19 22 19 22 20 15 15 23 19 22 18 21 23 17 22 22 23 24 21 28 18 17 21 16 22 23 20 21 16 25 17 29 25 14 26 27 22 23 19 21 17 19 19 24 18 28 32 17 25 20 15 28 16 31 20 26 32 24 26 25 16 22 17 16 23 22 18 21 16 23 26 22 19 22 18 23 28 24 24 22 23 22 27 23 25 20 27 25 19 27 17 21 28 23 21 12 21 14 23 28 22 26 38 19 21 23 18 16 27 13 21 19 24 28 20 24 28 27 20 26 17 23 21 19 17 28 15 22 23 20 19 24 18 24 16 25 20 27 16 17 28 16 28 16 24 25 24 24 21 20 17 10 25 27 24 21 20 27 29 21 23 21 23 24 18 27 21 23 14 23 18 29 24 25 25 17 14 29 27 29 24 27 30 26 25 23 16 23 27 20 25 21 24 20 24 19 13 23 25 22 20 21 24 23 22 24 25 20 27 18 22 24 22 19 16 25 28 23 17 22 21 24 18 15 13 19 36 23 21 24 22 19 28 27 21 23 23 20 29 25 28 15 32 20 25 17 24 32 20 21 20 24 22 18 19 21 19 31 28 14 20 18 23 21 25 25 17 12 26 22 14 22 24 21 23 28 22 23 17 22 19 27 21 25 17 24 23 19 14 21 15 22 18 28 11 27 20 24 19 16 25 20 20 22 17 23 20 21 20 22 22 16 15 27 23 21 19 23 25 16 18 25 24 30 27 18 23 19 24 23 18 21 24 31 25 26 23 17 19 31 24 20 18 29 20 27 22 19 27 26 15 27 20 22 19 19 19 23 22 16 15 22 26 20 25 20 24 28 20 18 19 17 24 25 15 25 20 23 14 21 19 29 27 27 21 14 11 22 20 21 25 22 19 23 24 23 24 14 27 20 16 15 24 19 25 20 27 23 25 25 19 12 21 24 22 28 29 19 25 14 27 19 15 21 19 23 18 26 18 16 18 20 22 16 27 23 18 20 22 16 22 31 23 24 24 20 26 22 23 17 28 26 24 17 22 9 23 31 18 20 15 26 32 19 20 22 24 24 23 29 21 24 16 14 19 16 19 26 24 16 21 16 22 21 13 25 26 23 23 29 30 27 23 23 25 14 27 21 19 17 31 25 16 23 18 21 20 28 29 25 26 21 21 28 26 22 25 30 22 25 27 21 19 23 22 17 25 12 25 23 21 18 25 19 23 28 24 24 22 21 27 30 20 16 18 27 16 28 26 21 21 24 22 24 16 30 32 17 21 29 16 18 24 17 23 22 16 23 25 27 21 33 28 35 19 21 28 22 24 32 24 23 19 20 9 22 14 25 21 21 19 28 19 20 23 25 20 28 22 18 28 21 24 32 20 26 17 23 23 20 23 25 26 27 19 24 20 22 17 27 22 23 23 28 24 25 16 20 13 25 22 21 17 22 24 17 13 21 22 20 18 15 28 21 29 26 20 18 22 20 18 30 27 25 28 22 26 23 21 25 23 20 20 21 23 21 16 34 25 25 31 21 24 19 20 18 23 23 25 20 24 27 21 23 20 25 25 26 21 19 26 22 19 25 27 21 21 21 28 21 16 12 21 16 26 26 28 25 20 22 20 15 18 27 24 24 23 18 21 15 20 22 27 26 19 19 16 14 23 18 23 20 31 18 23 17 27 18 24 20 22 24 20 18 16 30 24 18 21 20 20 24 30 23 19 26 32 16 24 15 16 18 22 18 27 25 18 22 16 24 25 19 28 19 25 15 31 28 22 27 22 23 27 15 25 21 21 22 25 27 15 27 19 17 14 21 29 23 22 27 25 19 17 18 24 23 25 19 20 21 22 30 21 21 25 23 25 27 18 25 21 29 22 22 15 19 19 26 18 22 22 17 28 24 24 24 19 25 23 16 26 26 23 27 29 19 23 20 20 23 26 26 24 18 28 19 19 19 27 21 15 23 12 30 24 24 20 22 28 20 24 31 17 31 22 26 25 21 15 21 22 8 22 14 26 24 21 26 26 25 34 20 22 23 23 21 26 18 26 21 18 17 22 26 28 25 23 16 21 23 29 29 18 20 24 19 26 18 29 23 26 15 24 30 21 31 19 30 27 16 20 20 25 20 20 26 20 26 16 15 24 21 29 20 20 19 16 26 18 24 20 22 20 21 26 22 23 21 31 16 29 22 24 17 28 27 21 25 19 23 21 26 19 19 24 24 17 16 32 25 21 23 21 14 21 21 25 23 22 28 26 26 14 27 19 17 19 28 31 18 15 24 18 23 34 15 23 26 21 30 26 26 14 26 16 23 24 26 23 20 22 21 27 23 28 21 25 33 18 25 19 19 20 32 13 19 26 20 19 20 20 26 20 22 25 30 28 25 26 25 28 28 24 36 22 27 19 26 19 26 24 24 20 19 26 16 19 26 21 26 20 20 11 25 14 24 21 23 27 27 27 14 23 25 22 23 24 22 20 19 19 19 23 16 20 21 20 14 20 20 21 31 23 20 31 22 28 21 29 16 20 28 19 26 21 27 20 21 21 15 20 23 21 21 23 23 27 33 28 19 20 23 16 24 24 17 21 12 29 26 26 19 22 16 23 23 23 22 27 23 28 22 25 22 20 17 21 30 19 18 13 17 24 20 17 29 19 21 16 22 18 16 21 25 21 22 25 18 26 22 20 30 22 19 23 12 23 19 18 23 19 25 12 24 33 15 34 30 22 21 23 20 30 26 23 22 20 25 24 21 23 20 23 25 19 16 22 14 27 26 30 24 27 28 23 12 21 13 17 21 22 23 15 18 26 21 27 28 18 24 21 24 32 18 26 24 18 13 21 19 21 21 22 22 19 18 19 22 26 18 21 18 17 20 18 17 21 18 30 24 23 20 22 22 18 27 20 22 17 22 28 25 18 18 19 21 20 21 20 22 26 26 24 24 20 30 21 25 23 16 18 24 20 28 23 27 17 18 22 24 24 14 27 19 27 23 14 22 21 14 31 25 13 23 21 20 17 21 26 20 16 20 25 21 18 23 18 18 26 31 27 25 25 27 16 14 20 31 20 21 27 25 20 24 17 24 22 23 16 16 26 24 18 27 22 29 23 25 17 27 21 26 26 23 20 16 35 20 14 24 17 27 19 22 27 20 23 18 19 17 25 18 21 19 22 15 18 31 16 20 20 32 26 20 17 18 21 17 24 9 31 24 26 22 20 19 20 21 18 21 15 25 24 23 21 21 16 23 8 26 32 21 20 18 23 26 18 23 24 17 23 28 23 24 27 24 18 18 24 22 21 27 23 26 29 23 21 23 28 17 23 17 27 26 23 20 25 19 25 21 21 28 17 17 18 22 19 22 25 30 18 20 26 21 16 23 22 25 22 24 20 27 30 18 26 27 21 19 17 28 19 22 33 28 21 28 20 19 23 19 28 29 23 24 20 27 22 17 24 26 23 23 28 18 23 30 20 21 31 23 24 19 19 20 24 18 30 30 22 20 15 23 23 21 23 19 17 19 26 23 17 22 18 22 16 19 19 26 22 19 24 18 16 21 33 23 20 32 17 23 19 18 24 17 24 20 21 21 30 14 20 22 23 17 24 20 19 29 15 24 19 21 19 22 23 22 22 25 23 14 37 18 15 15 22 23 27 19 19 28 16 25 25 16 17 26 23 9 24 25 24 22 26 27 17 20 28 18 27 30 17 21 14 22 27 25 16 32 19 24 20 18 26 16 21 25 21 32 29 26 26 27 23 21 21 21 21 22 24 27 16 21 23 17 27 20 32 20 16 22 26 24 23 17 19 28 17 23 23 26 20 19 19 20 19 29 23 20 25 20 22 23 15 28 27 23 23 19 25 19 24 15 20 30 15 28 28 19 23 28 23 21 24 22 22 25 23 21 25 20 24 32 22 19 19 29 22 22 22 29 23 27 20 23 19 23 19 26 23 20 26 26 17 18 24 20 21 20 18 20 26 21 24 26 24 20 20 20 21 20 26 28 30 16 32 28 23 23 26 21 23 20 18 25 18 36 16 24 17 21 15 19 25 19 22 27 18 22 17 19 24 20 24 15 22 13 20 34 21 19 21 18 20 22 21 25 18 25 27 25 26 25 20 20 20 24 29 22 25 34 21 20 19 33 27 18 16 24 17 30 31 27 22 21 22 17 24 21 30 29 21 25 21 16 25 19 22 18 25 24 17 25 30 24 22 18 25 21 22 17 19 25 23 20 25 22 22 16 16 24 22 19 21 19 24 24 23 26 25 37 24 28 17 22 18 25 22 29 21 19 19 21 22 29 20 24 26 26 22 24 21 23 21 20 24 25 27 19 29 15 15 24 18 20 17 23 21 19 26 15 19 19 23 20 23 20 28 22 26 20 20 22 24 24 22 24 23 18 14 22 25 22 18 27 23 26 25 28 19 27 26 20 24 29 24 16 21 25 28 29 26 23 20 18 19 21 17 32 25 22 29 22 20 18 30 12 17 19 28 28 28 29 21 15 23 20 26 24 25 18 27 20 20 24 25 23 17 24 23 18 20 24 23 26 15 12 25 22 14 19 27 17 30 26 20 23 24 30 28 22 22 28 21 14 23 23 19 24 20 24 16 18 17 27 22 21 10 22 19 24 26 29 21 16 18 20 25 20 20 19 22 20 23 28 21 16 30 21 19 28 20 22 17 22 19 18 23 12 20 24 25 27 20 16 20 27 21 23 26 21 29 22 17 18 19 17 17 16 24 21 23 28 20 20 29 20 21 21 24 28 20 17 23 12 26 26 21 29 16 23 15 20 20 20 18 18 28 18 19 25 17 27 19 24 29 19 25 26 27 17 20 23 24 22 29 23 20 17 28 22 16 20 29 20 14 24 23 23 26 19 23 15 28 24 21 19 17 19 22 26 22 14 19 23 23 31 23 19 24 32 28 20 23 22 25 16 24 24 19 21 24 18 15 21 23 18 26 23 18 19 18 26 21 20 26 20 29 17 26 19 15 22 16 21 20 19 19 20 21 19 22 16 20 17 22 20 33 26 21 20 23 24 23 16 14 15 15 24 21 26 27 27 20 20 28 22 28 22 27 26 18 18 21 22 23 18 19 26 24 29 17 20 20 19 19 16 26 16 17 18 21 23 19 19 20 13 25 18 19 26 24 21 21 27 29 20 23 20 32 25 27 27 21 24 22 20 20 25 26 19 26 16 27 19 19 28 18 23 26 17 20 17 21 29 17 20 21 24 23 24 18 23 21 30 23 22 18 17 19 25 22 17 28 24 22 20 24 34 17 22 31 26 15 22 25 27 26 24 24 16 25 23 25 30 20 17 24 27 14 15 14 26 24 21 21 19 30 20 19 20 27 20 19 25 24 27 30 19 31 29 24 23 25 24 24 24 22 25 25 23 24 23 28 24 28 14 27 27 25 22 25 29 23 25 21 20 21 17 21 17 20 19 25 20 22 16 20 23 19 30 27 25 20 25 29 23 16 25 23 28 19 21 27 21 15 24 20 27 17 15 28 17 22 23 21 25 14 14 22 22 15 17 20 21 21 27 20 29 16 20 18 22 18 17 18 26 19 24 24 15 23 15 27 25 15 27 24 24 23 21 19 17 24 24 22 23 23 27 22 23 23 24 21 29 28 15 26 21 28 21 24 27 19 19 25 18 20 20 14 27 16 26 25 26 23 17 19 25 21 26 26 14 14 21 24 23 19 21 21 21 23 17 21 19 22 14 27 22 22 20 22 21 29 17 30 26 26 18 24 17 23 23 20 20 27 20 26 24 26 23 27 27 25 25 27 18 24 17 24 24 23 27 21 26 34 26 22 24 21 34 17 15 25 21 24 29 18 20 18 31 30 32 17 23 22 18 22 24 23 22 19 14 22 15 17 20 20 23 21 21 27 15 27 16 27 19 20 20 24 21 25 20 24 21 22 22 19 21 26 27 22 19 30 29 16 24 20 17 23 18 25 21 19 18 17 31 29 15 27 20 26 23 24 29 16 21 20 22 28 19 22 17 20 23 23 14 15 27 28 26 30 15 24 22 20 24 19 20 17 22 17 29 28 22 21 20 31 22 21 20 20 25 23 29 25 26 17 22 24 20 17 21 13 22 21 20 23 24 16 22 24 15 18 21 20 23 26 22 23 22 27 18 21 18 22 19 26 17 17 22 24 19 18 28 19 21 23 19 18 18 19 27 24 23 16 25 24 18 21 21 16 14 27 29 19 17 21 24 19 22 23 22 29 19 27 17 24 18 18 25 27 27 18 26 13 23 23 25 19 20 22 24 19 21 30 17 21 18 28 21 16 23 24 15 28 15 18 25 27 23 28 19 23 19 26 24 21 18 25 22 29 21 17 27 18 22 22 27 26 16 24 15 15 20 26 18 23 22 21 16 28 17 20 16 28 25 21 21 28 19 18 26 26 25 22 27 11 30 19 23 20 24 31 16 23 22 27 15 29 27 18 15 18 14 21 19 24 24 19 24 18 13 18 22 17 27 17 20 24 24 13 23 27 25 27 12 22 21 23 20 32 23 15 20 23 14 26 22 23 18 19 26 17 22 19 26 20 15 22 24 36 33 11 24 20 17 21 22 14 25 23 13 22 18 26 27 19 28 30 20 28 24 26 24 25 26 20 21 27 24 21 13 21 21 19 25 31 24 23 22 19 18 26 21 25 18 25 23 22 26 23 17 23 19 27 24 20 23 19 25 23 23 19 23 24 17 29 25 23 19 20 26 17 21 24 24 35 30 21 23 18 22 19 22 22 23 25 25 22 13 29 30 17 19 27 24 15 20 17 23 29 29 16 31 11 24 19 21 21 18 25 28 19 26 20 22 21 17 19 17 22 17 19 16 23 34 19 20 20 33 22 24 21 23 19 20 25 33 21 32 20 13 21 23 18 22 26 23 13 21 20 30 24 19 12 30 27 16 22 22 21 19 19 17 23 21 26 31 22 27 15 20 25 17 17 14 12 28 22 21 22 27 23 30 19 25 21 22 15 20 23 11 28 18 25 24 13 28 21 31 28 16 33 27 24 25 28 26 10 22 17 23 19 25 16 23 24 13 26 26 23 25 24 16 23 12 24 27 23 14 23 12 25 19 20 25 19 22 21 20 21 25 22 26 26 26 23 25 20 20 25 22 15 26 18 22 17 31 21 26 21 25 21 24 18 20 29 24 22 21 19 17 24 17 20 25 19 26 22 19 25 18 29 27 26 23 20 27 23 27 23 20 31 22 17 24 26 23 19 28 27 21 19 16 26 19 26 24 16 16 19 15 19 24 14 18 22 26 27 21 23 19 26 18 16 27 22 28 27 29 14 13 23 31 21 17 24 16 26 24 21 13 25 25 20 20 32 19 19 22 29 23 25 21 25 22 19 28 25 18 24 18 22 26 18 16 21 22 31 28 19 21 16 21 23 17 27 24 15 25 19 24 21 17 27 21 35 18 22 26 14 13 21 25 22 16 24 24 17 21 24 18 14 28 18 23 19 22 25 17 22 24 20 17 18 22 19 14 22 26 14 22 24 20 25 22 25 25 19 22 24 17 22 25 18 20 24 27 23 19 20 23 25 27 29 31 23 20 18 20 25 27 20 22 14 18 14 25 17 38 23 23 25 21 28 18 15 18 25 19 17 26 18 19 20 21 23 21 28 22 17 25 25 23 22 22 23 22 17 19 25 28 33 20 22 24 17 21 17 20 27 23 21 22 29 25 28 24 21 16 17 29 21 25 24 16 19 14 23 27 25 20 25 21 30 16 21 23 31 11 19 22 22 18 21 26 16 19 12 27 19 17 24 25 13 28 26 26 16 16 18 31 19 18 14 25 24 20 21 15 28 31 23 19 21 26 23 16 15 17 23 22 25 26 20 17 28 19 28 31 24 18 18 15 21 26 23 30 23 29 19 28 20 14 24 18 20 21 22 17 15 18 16 33 24 17 22 25 27 21 21 29 23 20 21 27 27 25 17 19 24 22 18 16 16 19 21 20 16 22 20 23 21 14 25 20 14 15 14 24 22 20 20 14 24 24 19 21 24 21 26 21 30 18 21 17 22 21 20 23 22 25 21 16 25 28 21 17 20 23 20 22 17 17 24 23 25 22 26 22 22 19 27 17 27 19 24 31 11 20 21 25 27 23 25 24 27 15 17 28 30 25 18 18 16 22 26 23 16 18 23 18 23 20 20 24 14 26 27 22 16 22 23 18 26 28 15 26 20 28 25 21 20 25 18 12 18 31 22 18 15 12 21 28 25 21 22 26 24 25 23 19 23 22 25 23 27 19 24 30 19 28 18 25 22 23 21 20 20 17 16 26 26 22 16 16 25 25 23 23 23 19 27 20 16 26 20 19 28 19 22 18 27 24 24 30 27 17 23 31 20 23 16 19 20 20 20 19 25 18 20 23 26 19 22 18 26 21 19 19 34 22 21 22 18 22 30 19 20 15 15 20 20 19 20 19 20 32 21 22 18 27 23 22 26 30 14 17 26 22 20 31 16 20 22 25 24 19 17 20 19 28 18 29 24 26 28 25 24 24 19 23 20 25 15 12 19 17 21 21 19 21 23 20 22 28 23 22 17 20 25 26 21 18 21 23 17 20 14 24 20 19 26 31 12 24 24 20 23 21 21 30 25 19 25 22 26 22 24 19 18 27 27 20 26 18 20 23 23 15 17 23 20 23 14 25 29 31 14 19 34 23 20 15 22 15 16 28 31 21 20 22 30 22 20 19 16 24 24 17 26 17 16 25 25 21 36 28 25 20 23 28 22 13 25 23 14 21 24 27 11 23 22 28 23 21 27 27 22 24 21 23 15 24 29 25 24 18 23 19 25 29 19 23 23 21 28 16 21 29 23 32 20 17 24 20 23 21 20 20 22 19 23 17 28 20 25 24 20 25 12 19 27 24 23 25 21 23 23 23 22 23 20 23 23 22 24 17 18 20 17 29 24 20 23 22 27 28 17 22 22 20 23 25 15 27 22 22 19 28 20 24 22 19 22 13 24 24 22 22 14 23 18 26 20 24 12 19 22 24 17 12 27 27 28 29 20 22 14 9 16 23 27 21 25 26 25 28 19 23 16 22 12 24 27 26 25 26 9 26 25 21 25 20 25 24 29 22 22 18 24 22 18 22 24 29 17 23 18 18 22 22 28 26 24 22 25 22 19 27 22 26 24 21 17 32 19 21 16 27 30 15 20 22 19 19 20 22 19 27 18 20 32 11 17 26 22 17 11 27 24 22 17 11 22 20 15 16 22 20 26 18 20 24 20 20 22 18 27 18 19 30 24 19 22 17 30 15 24 23 17 21 26 27 22 21 16 19 26 21 29 24 26 19 27 19 17 20 20 28 22 17 31 15 22 21 19 15 23 16 23 17 21 25 22 28 25 20 21 16 23 26 17 19 24 26 34 21 26 22 28 17 25 24 25 16 22 14 20 23 22 23 16 20 14 24 27 21 18 20 22 22 25 17 16 22 25 26 23 19 18 23 22 26 20 20 22 22 25 17 30 30 17 17 24 24 28 10 22 25 24 26 20 27 25 18 28 26 21 16 18 14 25 10 21 21 21 26 21 18 16 27 18 29 31 19 23 15 17 19 28 21 27 24 29 23 25 22 20 19 19 18 26 19 19 19 19 21 23 18 31 21 12 22 16 17 19 23 18 12 17 23 23 25 22 18 22 20 21 21 18 29 23 18 24 23 19 29 17 26 28 16 15 26 28 22 21 24 30 25 25 24 19 17 29 20 17 25 24 27 19 17 24 25 38 25 21 21 18 26 25 17 21 16 20 25 17 21 19 15 21 18 24 26 28 22 19 23 24 22 19 21 21 26 22 29 21 21 20 19 13 21 30 15 23 30 22 23 26 17 25 19 27 24 24 20 23 24 18 18 21 24 16 26 18 18 19 13 24 21 18 26 19 21 22 26 20 16 25 26 19 22 22 23 24 24 18 20 17 26 21 20 22 25 20 23 23 21 24 20 16 16 27 28 23 29 26 21 20 21 22 18 25 25 19 25 21 16 20 21 21 26 27 17 20 14 23 18 22 27 26 26 23 21 28 19 18 22 21 25 24 16 20 21 21 25 19 26 22 20 24 18 24 28 25 21 28 24 15 17 21 24 19 21 33 24 27 24 22 18 23 28 26 19 22 17 24 24 24 14 23 28 37 20 21 15 22 25 19 24 17 24 26 20 20 28 20 21 11 19 22 22 20 25 20 17 18 18 19 23 26 24 22 22 22 20 28 21 16 20 19 17 26 21 30 31 25 22 24 15 22 23 26 20 27 19 20 19 27 25 27 18 16 12 26 24 17 19 20 15 21 20 24 17 20 22 32 33 20 25 25 24 31 19 25 18 18 24 19 11 24 15 20 22 22 24 29 20 17 29 22 24 32 20 28 17 17 13 17 18 12 20 18 21 24 20 25 25 24 19 17 17 24 20 23 19 24 25 20 27 21 14 18 17 28 20 21 18 22 17 18 29 23 23 21 16 18 20 20 23 26 20 21 21 19 19 23 23 17 24 11 26 20 23 21 24 23 24 29 25 17 17 22 29 22 21 22 23 26 31 22 15 28 24 19 21 23 24 18 14 25 24 28 24 26 23 21 18 29 24 21 23 24 27 26 19 19 22 17 21 23 16 20 19 22 22 19 20 28 25 20 28 15 20 22 21 20 24 16 22 15 24 28 22 25 33 23 20 22 18 21 26 21 19 20 25 20 24 15 22 24 18 15 18 14 18 17 15 20 25 18 20 22 24 30 19 19 30 17 31 22 16 23 17 20 19 23 24 18 23 19 25 22 22 23 20 21 19 24 19 16 24 21 23 17 15 22 16 21 26 25 18 32 28 18 17 24 30 24 19 23 19 17 21 16 23 23 16 22 22 20 17 20 19 20 20 23 17 22 22 26 14 15 16 28 19 29 17 20 18 26 16 17 26 28 22 19 20 17 22 24 27 21 25 21 21 21 21 17 26 18 20 25 16 25 16 21 16 23 32 23 18 20 13 20 30 25 23 16 22 24 19 31 18 26 25 27 17 23 28 26 30 32 20 26 23 25 29 21 25 27 27 17 17 21 26 23 25 20 20 23 22 22 19 21 20 19 19 32 26 26 24 23 25 18 23 17 25 25 25 19 22 26 22 21 20 16 22 19 24 26 16 18 20 19 21 28 15 18 25 30 24 19 31 17 29 22 20 20 21 24 30 25 17 18 20 16 26 26 27 15 17 23 25 14 21 18 23 27 19 28 24 15 22 20 14 21 19 26 23 26 25 22 25 18 19 25 17 16 23 18 22 23 24 24 16 22 17 18 24 30 24 20 24 21 14 31 27 21 23 26 17 25 22 20 15 25 16 20 27 31 26 28 25 16 18 23 26 20 24 22 21 22 29 24 26 18 33 21 18 29 23 21 25 21 22 23 21 21 29 27 27 20 23 22 27 20 19 17 30 21 25 21 19 12 25 24 27 24 23 16 18 16 27 14 20 16 24 16 29 23 18 20 21 20 25 27 24 25 17 25 20 20 11 16 24 24 18 23 29 21 24 26 31 21 18 26 25 14 33 18 20 25 23 16 24 23 17 22 21 24 23 28 23 20 24 25 30 16 24 19 18 20 22 25 20 23 23 20 25 20 19 23 16 24 22 17 22 21 18 23 18 17 19 20 24 20 25 19 18 22 28 16 15 30 14 25 25 24 25 28 25 30 23 21 21 20 19 12 18 20 25 19 25 26 25 21 21 23 25 34 22 24 25 22 26 18 18 27 24 25 18 23 19 27 22 19 22 29 23 17 24 21 33 18 21 18 28 18 21 18 20 23 20 22 18 15 25 19 19 25 22 28 25 20 20 20 20 15 21 24 19 28 30 17 23 20 27 26 27 21 19 28 25 25 23 20 29 15 26 16 21 21 15 20 27 23 23 22 20 21 22 21 26 15 20 13 25 28 26 26 35 21 18 21 27 21 18 17 28 23 17 23 27 20 17 19 25 28 23 25 19 16 25 30 20 22 25 17 19 29 13 24 17 25 26 28 18 25 25 24 23 22 19 21 16 16 22 17 23 23 19 24 19 18 22 23 21 21 23 26 17 20 29 21 23 18 23 15 18 24 22 18 35 20 26 22 18 25 21 24 20 19 27 25 20 21 20 19 24 27 21 25 24 16 21 20 14 18 19 26 22 18 22 17 32 22 23 35 23 24 27 14 17 23 27 28 21 30 26 26 23 25 24 23 21 20 20 25 16 17 25 20 25 30 22 26 24 26 20 26 27 21 25 28 18 23 17 26 25 19 22 28 25 17 22 18 22 30 20 21 21 26 26 29 17 26 16 18 18 25 20 21 27 31 23 17 23 20 23 24 20 24 22 18 17 29 24 22 26 24 24 29 28 25 16 21 27 17 20 22 14 23 14 16 23 19 24 22 20 27 22 22 18 28 19 24 22 23 16 16 24 19 26 17 21 20 22 25 20 21 26 26 14 16 15 17 24 24 23 25 30 15 21 25 21 15 20 20 19 20 30 18 24 22 24 26 17 29 20 24 26 22 21 25 18 23 18 27 23 19 24 20 31 19 23 13 21 15 27 20 19 27 17 20 18 18 17 23 25 29 20 21 20 28 25 20 20 21 27 23 29 17 21 23 16 22 18 31 16 24 25 15 25 29 23 24 25 27 28 23 24 24 29 28 27 27 17 26 25 23 20 21 23 23 16 25 23 30 18 21 14 17 25 22 26 26 21 29 20 22 24 18 30 19 24 14 21 16 16 19 16 23 31 12 22 28 33 23 24 21 17 22 19 25 17 17 23 23 25 19 31 26 17 22 16 20 22 29 22 18 14 20 21 24 29 24 18 22 20 26 24 33 15 27 26 22 15 16 15 24 21 22 19 26 25 19 19 27 30 22 24 22 20 19 20 29 27 19 20 29 19 27 31 25 15 26 18 28 30 18 28 16 27 18 27 20 19 21 13 19 21 17 22 18 28 25 25 23 26 26 16 23 25 19 24 19 26 28 25 15 25 22 25 15 16 26 20 24 20 22 36 21 24 20 19 21 23 21 20 21 23 18 18 21 26 23 18 20 21 25 37 21 27 20 19 27 22 17 30 22 16 17 18 29 33 19 18 25 27 24 18 22 19 26 23 20 18 19 15 21 16 24 31 23 24 25 22 12 16 25 17 22 25 23 22 22 30 23 24 25 21 26 21 21 18 22 16 18 26 17 24 23 21 14 22 27 21 22 19 31 25 19 25 30 21 25 19 22 21 15 15 24 20 21 23 30 19 18 22 11 19 22 27 26 25 24 26 23 22 20 25 21 18 21 24 19 21 19 22 14 19 20 14 15 18 20 21 22 26 14 26 18 27 22 28 18 26 20 18 19 27 22 19 24 28 24 29 21 28 28 25 21 36 17 27 20 22 24 33 25 25 29 15 23 18 18 23 12 19 13 25 27 30 27 22 22 23 24 17 24 21 20 17 29 22 23 19 17 26 17 22 19 26 26 15 21 25 20 18 22 21 23 29 22 32 17 20 22 15 26 26 16 21 17 21 17 28 18 17 23 23 25 25 22 17 17 21 24 20 17 24 21 30 20 26 18 25 24 26 23 22 23 17 23 22 19 22 26 17 19 19 18 23 18 19 17 19 14 22 28 17 21 24 26 22 16 22 28 21 17 21 22 27 22 21 24 23 26 30 29 30 16 22 26 21 26 20 27 25 21 20 25 25 22 25 23 19 16 13 26 23 20 23 26 25 22 27 22 30 16 26 25 24 17 25 24 22 25 19 28 21 21 22 20 22 19 25 28 26 14 23 17 21 19 26 27 18 25 14 25 26 21 26 27 21 25 13 19 17 26 21 20 21 24 20 26 30 21 18 20 17 18 19 23 27 27 14 22 24 21 17 25 25 22 22 21 26 27 19 21 26 25 24 17 23 25 17 18 18 17 26 25 35 26 27 20 19 20 17 19 19 18 23 16 25 26 20 16 26 23 21 22 26 21 23 27 20 24 17 27 29 25 15 21 20 24 25 24 23 15 28 10 13 17 22 29 24 16 27 15 22 26 19 21 23 22 24 31 27 21 16 26 28 18 13 26 18 17 21 23 23 23 26 22 29 25 24 24 21 15 21 20 24 15 21 16 12 31 21 17 28 22 22 19 22 26 20 22 24 24 23 26 21 17 28 24 13 27 23 17 26 24 25 25 18 25 28 22 18 23 28 25 19 20 21 21 19 18 16 24 20 27 22 19 27 18 22 24 26 22 19 20 14 15 21 20 28 24 22 19 23 17 29 17 33 23 29 19 23 25 28 20 23 24 17 19 23 20 16 27 13 39 20 19 17 15 25 16 25 19 23 16 25 23 32 24 24 20 23 16 22 27 17 17 27 23 29 32 19 21 36 21 20 23 19 21 23 23 25 18 24 15 27 19 19 26 23 25 22 25 22 18 22 16 24 30 18 17 17 20 20 22 21 30 19 20 30 17 21 24 25 25 24 20 29 24 29 23 19 17 17 13 22 21 28 20 23 26 18 22 16 22 23 22 20 27 16 27 25 23 19 17 26 22 25 21 23 19 26 24 18 23 18 21 17 25 26 23 23 21 21 21 21 25 18 34 23 19 19 19 21 21 11 18 26 25 25 27 22 22 25 26 23 29 27 29 19 22 20 22 22 29 22 24 18 22 20 26 18 17 21 27 19 13 27 30 19 21 23 21 32 18 26 19 26 19 22 24 21 24 23 26 30 22 17 14 31 20 19 23 17 10 26 25 29 18 23 19 25 28 22 19 22 17 19 13 29 14 26 23 24 16 21 22 17 22 16 23 22 16 19 19 24 15 23 19 21 25 22 19 17 22 29 16 28 22 23 20 24 26 29 27 18 28 22 30 27 20 23 25 18 17 21 19 29 30 22 27 22 18 32 15 18 27 21 28 19 24 23 18 18 23 21 24 19 22 23 22 23 17 25 17 24 20 19 20 23 22 20 28 24 19 20 22 28 19 21 26 23 22 24 26 24 24 21 19 26 26 21 14 29 21 22 19 20 18 24 17 19 19 18 17 12 23 26 21 21 26 28 26 24 24 20 24 25 19 21 18 22 27 22 16 27 23 28 14 19 26 27 21 21 19 21 19 30 19 22 17 17 22 17 25 24 14 25 26 23 21 24 25 25 26 20 35 17 17 15 22 26 20 19 23 25 25 24 28 23 26 21 27 19 22 15 16 22 20 27 18 28 23 23 24 23 21 20 20 20 24 23 28 23 23 21 21 22 19 18 23 26 31 29 18 21 29 10 27 27 29 19 25 29 23 26 30 17 22 26 27 22 19 24 21 23 19 22 19 21 20 23 21 28 16 22 23 28 19 21 23 20 25 20 23 24 19 20 23 26 25 20 27 18 18 26 20 22 23 20 25 27 26 20 21 17 20 22 17 18 30 27 16 27 20 21 17 19 18 25 17 23 29 18 22 22 21 17 20 25 24 26 23 26 18 24 20 21 19 30 26 18 21 25 21 24 18 16 19 19 27 15 25 22 26 18 18 28 17 23 25 24 20 25 19 27 24 20 20 21 26 23 25 21 23 26 26 23 24 20 25 23 23 31 14 21 22 18 25 16 23 22 24 31 16 22 16 28 26 33 21 19 18 22 15 23 22 24 21 19 18 19 22 25 28 14 24 13 17 16 23 17 24 21 28 23 14 25 22 26 28 18 31 22 23 24 22 24 24 27 22 23 17 18 25 19 20 22 15 14 22 24 29 22 24 24 23 21 31 21 23 21 24 29 24 17 26 16 26 22 22 19 22 18 21 30 25 12 20 17 18 23 30 26 27 32 26 19 17 26 22 26 18 27 21 19 25 19 20 21 12 17 21 22 28 22 16 25 22 19 23 25 22 25 22 22 19 20 21 22 20 19 23 12 26 16 29 19 17 22 15 20 17 29 18 21 32 18 20 28 27 18 26 25 15 25 25 23 25 20 27 21 31 27 27 15 20 21 19 23 22 21 19 22 20 20 29 33 21 17 19 21 16 25 18 20 19 27 27 22 28 19 27 23 20 17 28 15 21 24 18 23 24 37 21 20 22 21 24 28 24 19 24 22 17 26 26 20 19 20 31 18 27 27 17 14 28 19 26 27 20 26 17 17 22 20 23 17 23 13 14 28 32 15 29 20 19 15 29 24 18 24 14 18 25 19 35 20 20 18 21 21 24 18 15 25 23 21 20 30 19 24 18 29 21 25 19 19 21 21 32 24 19 20 27 27 18 21 16 20 30 19 28 24 24 26 19 24 19 21 20 14 28 17 25 18 23 23 19 19 24 26 28 17 26 30 15 21 20 25 22 21 17 22 14 26 18 24 24 16 21 14 29 24 22 19 26 20 13 20 30 22 22 28 24 28 24 24 20 23 30 24 27 19 21 19 20 32 31 20 24 17 21 23 22 20 28 24 23 19 20 21 29 17 25 25 22 26 22 22 23 22 23 22 19 23 17 21 23 23 23 23 13 24 22 22 25 24 20 32 24 24 14 25 22 29 25 19 16 22 19 26 18 23 21 23 23 19 23 15 24 26 25 20 16 19 16 20 27 21 23 25 28 23 14 18 22 23 17 18 24 25 26 18 21 13 25 24 26 21 28 23 29 18 15 22 23 24 15 26 21 24 14 17 22 29 21 24 28 24 24 19 23 21 21 18 18 21 20 26 26 29 23 18 25 20 24 25 17 19 20 21 24 20 22 15 18 26 23 21 24 21 18 27 24 19 21 13 16 22 28 20 23 26 16 21 19 17 20 33 27 25 21 25 25 20 24 17 22 17 21 22 20 21 25 21 20 25 26 19 22 23 28 19 33 22 18 16 18 16 23 21 18 13 22 14 24 21 23 20 19 22 24 21 23 17 22 20 19 26 18 23 17 21 19 23 15 22 16 27 24 23 24 16 18 25 18 14 25 19 29 21 28 20 20 22 18 20 22 21 29 30 23 24 8 22 19 19 19 22 25 25 17 20 19 21 24 21 20 21 23 26 19 25 20 28 19 27 23 31 28 25 19 21 18 18 27 29 26 28 29 19 11 29 25 20 15 18 25 19 19 20 17 19 15 26 22 25 20 20 22 24 30 29 22 26 16 20 21 26 27 16 23 24 18 23 27 24 15 19 14 18 14 27 19 20 27 18 15 26 17 24 21 26 23 20 15 26 28 17 21 14 29 29 22 28 16 14 18 11 23 24 18 22 14 21 28 19 18 17 19 17 20 19 26 21 20 26 24 20 37 13 23 17 16 18 34 19 25 18 18 18 18 22 27 34 26 20 20 18 33 18 19 16 15 18 30 19 23 20 32 19 19 21 24 24 18 18 24 23 21 19 24 28 15 22 27 21 18 34 15 15 28 22 30 28 22 16 20 22 22 16 25 22 25 23 18 28 17 18 19 26 21 18 15 22 32 21 18 25 25 26 21 19 19 26 21 25 25 20 19 18 21 18 23 21 24 21 24 23 15 28 20 25 21 25 12 22 18 23 26 25 22 20 25 23 26 15 24 21 21 24 25 24 23 22 29 21 21 24 19 19 22 23 24 20 21 18 15 28 21 18 21 19 20 19 11 28 24 25 14 18 20 27 24 26 24 20 19 10 30 13 21 21 20 25 20 21 21 27 22 18 23 31 23 20 20 22 24 29 31 14 22 28 18 16 12 16 36 23 22 23 27 21 22 26 22 16 17 16 26 23 18 24 26 20 25 27 17 22 19 21 25 17 19 27 24 24 29 25 19 23 20 28 21 18 29 28 24 23 20 17 21 17 18 24 21 23 26 25 22 25 19 24 25 23 20 23 20 22 18 29 23 25 18 31 30 24 22 24 17 24 20 23 27 25 17 19 21 20 26 31 18 26 16 31 25 25 24 9 21 19 23 26 31 28 26 34 25 16 20 17 15 20 21 21 25 26 24 17 17 18 24 25 33 24 23 19 23 18 21 23 27 33 19 18 17 23 31 28 18 26 23 25 19 20 19 22 29 13 16 23 23 22 24 26 19 25 18 16 28 22 30 20 19 26 20 25 20 26 23 17 25 23 15 30 22 31 20 26 26 25 24 24 22 24 25 23 28 19 14 25 23 19 24 14 23 26 21 23 17 17 18 26 25 30 19 22 9 19 21 25 24 18 22 18 22 24 24 32 20 26 19 23 30 20 19 28 29 23 21 24 29 20 24 19 27 27 25 26 18 18 24 16 28 23 25 22 24 13 20 23 30 22 27 28 22 24 23 19 16 24 24 30 24 22 25 23 20 27 25 27 20 21 14 24 16 23 24 22 19 19 23 13 21 27 24 21 17 18 20 19 18 18 25 13 20 20 31 27 29 28 22 17 21 24 20 18 27 24 22 23 20 25 17 31 18 17 30 19 21 21 20 18 24 21 13 20 21 28 25 28 34 19 20 22 19 31 23 19 17 25 17 28 20 27 19 29 12 24 18 21 24 24 17 24 19 25 21 16 17 31 27 14 15 25 22 25 22 24 15 16 24 21 27 22 26 23 20 20 19 18 14 24 21 19 30 35 27 21 26 18 19 18 27 23 18 24 22 17 30 19 22 23 14 27 18 14 27 13 25 19 16 16 22 21 30 18 20 15 26 23 20 18 13 24 15 19 18 29 14 31 14 15 18 23 20 24 17 17 17 24 22 29 22 28 18 15 12 24 26 19 25 20 18 29 29 18 23 28 24 21 21 17 12 23 18 15 27 25 21 29 19 26 26 23 20 27 20 18 23 22 20 15 24 21 28 22 17 16 18 26 27 17 32 19 27 22 20 19 22 29 19 19 24 17 23 27 24 24 20 20 27 21 22 14 21 27 23 22 18 21 22 20 22 20 21 25 18 26 20 21 16 15 23 9 26 20 14 19 22 18 20 22 34 23 15 28 23 15 25 27 14 26 19 21 26 23 22 15 25 20 25 15 21 18 19 26 29 19 25 19 23 26 21 17 23 18 20 22 18 24 22 18 13 18 23 24 25 28 24 21 14 19 22 20 24 21 13 24 7 17 14 28 24 20 23 26 15 22 23 22 20 21 20 15 24 24 13 21 18 25 21 22 23 28 22 24 18 26 21 22 21 15 15 23 32 23 22 24 18 22 30 22 24 19 22 23 20 20 24 20 19 23 16 20 16 28 15 20 21 23 15 19 18 20 20 22 26 24 21 18 20 24 25 19 21 21 25 16 25 29 25 25 17 19 26 14 15 20 27 21 17 20 12 24 20 21 24 23 16 17 19 20 20 24 14 26 25 29 20 27 23 23 24 11 19 25 24 25 22 23 20 24 17 25 20 21 24 20 21 24 32 15 24 26 19 30 23 16 22 35 20 16 20 22 20 30 24 18 22 16 25 22 19 17 21 19 16 26 24 19 25 24 23 20 27 24 22 24 15 17 17 24 18 23 29 23 20 19 22 23 25 20 16 30 17 17 29 22 19 15 20 22 21 23 21 21 17 28 17 20 23 20 17 25 17 25 15 27 27 18 25 21 27 23 22 22 28 31 22 31 20 15 23 19 18 18 19 22 16 22 30 18 23 21 21 28 21 22 16 19 20 19 18 20 27 19 22 27 22 21 21 23 19 30 22 23 28 19 23 28 24 15 20 20 24 21 18 25 17 22 27 16 29 19 24 24 23 27 22 25 28 21 22 24 23 23 25 21 22 25 27 24 27 16 20 23 27 25 28 20 14 22 20 15 17 24 24 24 25 25 19 15 25 24 24 23 18 27 31 23 29 22 16 20 21 17 28 22 21 20 28 21 22 12 32 22 18 24 21 15 14 21 23 28 21 27 25 23 20 24 22 20 25 21 17 29 16 18 18 20 17 17 20 17 29 23 22 21 21 18 22 22 24 15 24 18 21 21 21 25 28 20 15 20 19 26 16 27 22 25 25 18 26 26 21 12 24 23 31 22 19 21 20 18 18 19 22 24 24 21 17 31 29 24 14 17 32 15 21 16 18 17 25 29 27 19 20 26 21 31 15 17 22 25 22 17 26 19 14 16 16 24 23 23 20 19 18 30 27 23 16 26 21 23 16 21 23 20 14 22 20 30 20 18 22 20 14 18 22 15 22 24 24 28 16 22 30 20 26 26 28 28 22 26 22 24 27 19 25 20 24 36 21 21 29 16 30 18 30 24 16 28 21 18 21 23 23 13 16 21 32 25 30 28 13 35 20 20 20 26 21 22 23 29 30 18 19 26 21 27 21 24 19 22 25 16 24 23 28 24 22 22 22 23 17 17 30 22 28 24 21 23 28 18 23 20 18 24 19 25 23 22 25 19 21 17 21 23 32 31 19 26 24 18 23 26 20 24 21 27 21 27 22 22 24 25 22 25 22 26 26 29 21 26 21 22 24 17 24 14 18 24 20 16 21 26 22 24 28 20 20 26 28 19 18 19 24 18 20 23 19 21 36 26 21 22 16 23 17 28 24 24 20 19 26 21 26 25 24 23 23 28 27 23 21 18 19 26 20 28 24 25 25 19 31 29 22 20 20 28 27 25 28 15 21</t>
+  </si>
+  <si>
+    <t>JSU(-5.546250248846845, 6.942111942814527, 6.389104349854738, 29.31851706575316)</t>
+  </si>
+  <si>
+    <t>34 32 37 25 26 36 34 30 23 35 25 39 36 40 40 29 35 40 35 34 38 26 27 28 32 31 25 35 38 20 41 28 26 31 19 41 27 36 27 34 27 33 35 35 35 32 38 33 38 44 27 33 35 26 31 27 34 26 33 32 33 35 37 26 33 28 31 23 36 39 43 32 33 34 33 30 36 30 29 30 32 43 35 32 27 30 35 33 39 25 39 33 27 27 30 32 41 34 45 29 23 40 35 35 27 28 34 27 30 37 31 35 38 42 29 27 29 24 34 33 36 26 30 29 34 38 33 30 26 37 32 38 27 37 33 22 32 30 38 45 30 28 26 40 33 29 44 36 25 27 29 37 24 23 26 40 34 38 20 30 34 27 27 26 32 24 29 38 31 39 29 29 29 44 29 21 43 35 34 36 34 33 29 32 29 25 39 22 28 22 36 33 30 31 24 38 36 34 32 31 32 32 33 31 40 33 32 31 33 34 34 31 30 34 30 33 36 29 32 31 33 33 27 28 27 40 29 27 32 28 29 40 35 39 35 30 32 28 38 40 41 34 23 33 47 36 21 38 26 35 30 29 30 32 31 29 21 29 33 24 27 38 41 27 34 38 36 32 23 27 31 34 36 35 25 36 30 46 30 31 26 31 33 35 36 27 31 32 36 37 28 30 30 28 27 40 34 36 23 34 35 45 29 31 18 31 40 37 31 20 40 36 36 34 38 30 26 32 35 37 27 33 34 33 31 35 25 39 33 23 25 54 27 33 35 31 38 36 30 25 34 29 42 34 23 33 35 23 29 31 26 27 33 35 32 27 33 32 37 30 27 37 32 42 37 34 29 34 38 23 34 36 24 34 36 35 35 29 36 33 33 39 32 37 26 37 26 28 46 50 30 28 41 37 29 33 22 29 28 27 38 26 29 29 32 37 38 34 48 23 36 42 21 36 38 39 36 26 37 36 30 31 27 38 34 38 30 45 32 33 32 38 23 32 35 38 35 27 36 37 37 26 29 29 35 39 28 34 31 29 28 32 29 26 35 35 39 25 38 41 33 26 44 31 26 42 38 34 30 30 35 36 26 24 23 35 21 22 38 37 35 28 38 25 41 44 37 28 31 36 31 31 28 35 30 38 44 24 29 42 35 41 38 27 32 25 27 25 31 36 33 24 28 36 42 29 25 25 31 33 30 31 35 32 34 31 35 33 43 36 32 36 47 29 33 33 24 32 35 26 25 46 30 28 38 32 27 40 39 29 30 31 27 35 34 37 36 23 40 21 34 28 32 38 23 28 24 41 25 28 35 31 38 32 38 37 31 28 31 37 38 30 31 28 31 37 38 27 36 33 34 25 22 23 27 41 38 30 37 38 29 34 25 32 32 25 38 37 26 34 33 35 28 40 27 34 34 40 31 25 40 38 31 27 35 26 40 25 25 26 28 33 31 37 33 25 28 31 30 42 38 29 29 35 31 31 38 37 30 25 25 45 27 24 29 29 31 34 33 23 28 27 28 36 50 29 30 31 28 36 31 27 26 25 40 29 43 28 45 27 34 32 30 29 36 32 45 42 40 44 37 39 30 29 29 22 33 28 36 38 28 31 25 35 17 30 35 36 38 28 30 27 32 27 36 36 32 29 25 35 37 34 38 31 21 30 29 41 31 30 27 38 33 32 37 38 28 28 33 42 31 32 28 33 25 22 32 37 38 35 26 45 21 36 33 37 42 35 33 43 32 24 24 27 24 53 23 32 23 40 37 34 24 34 35 40 23 29 25 32 31 40 35 35 27 31 28 36 42 31 24 27 38 37 31 36 29 42 38 26 33 37 30 23 26 34 28 27 39 31 35 37 29 40 37 30 33 32 31 41 27 29 37 38 35 42 33 29 32 32 28 32 37 30 41 31 37 33 29 26 30 19 46 31 31 31 39 41 33 29 28 28 39 23 30 38 31 24 32 38 29 38 29 35 30 32 41 33 39 35 42 34 34 27 41 39 34 25 36 42 39 35 38 34 37 33 29 38 29 32 32 46 27 37 43 35 30 37 24 40 37 29 43 23 31 31 31 36 28 31 29 34 37 28 41 35 30 32 24 32 30 38 24 32 39 28 30 30 34 30 28 26 30 26 34 30 26 28 28 32 30 37 37 28 35 29 29 29 27 33 37 37 34 31 36 27 37 35 25 31 37 31 29 29 32 26 30 33 33 30 45 43 24 40 31 27 39 21 41 35 38 46 40 32 35 29 31 25 25 31 23 33 32 23 32 39 31 33 34 23 30 40 39 31 33 35 31 37 34 32 28 32 38 30 36 30 36 36 34 41 29 26 28 35 34 34 33 53 32 29 38 27 34 36 21 35 30 29 33 34 33 42 34 28 35 26 39 36 39 29 39 22 31 32 37 32 34 26 33 32 34 32 36 29 23 33 30 36 27 37 31 37 32 25 26 27 21 34 43 42 34 23 38 41 31 34 37 29 32 27 35 32 28 27 33 29 34 40 42 31 24 20 39 38 46 34 41 47 35 43 37 26 35 42 34 39 38 43 27 37 26 30 37 33 37 27 36 33 36 37 37 33 31 43 25 35 30 29 23 24 41 38 34 25 37 32 39 27 21 23 37 50 31 32 34 29 27 36 37 37 33 31 33 36 42 36 24 41 34 40 25 35 48 29 31 25 33 36 29 24 32 29 38 41 28 30 38 41 36 36 37 31 19 34 26 29 33 40 27 38 37 33 33 25 34 31 35 30 34 24 33 30 36 27 32 25 36 26 36 19 35 27 31 41 30 39 24 30 29 22 34 38 33 35 27 30 27 26 38 36 28 27 30 36 24 26 34 31 36 40 26 36 32 37 41 31 34 37 43 29 38 28 24 28 45 37 32 28 41 36 35 38 29 37 34 28 35 30 28 33 30 28 34 36 25 27 39 39 28 35 32 38 37 29 26 28 28 31 38 23 35 34 32 25 34 24 40 38 37 32 23 20 28 29 30 34 34 36 36 39 28 36 21 37 32 29 37 29 27 33 24 39 37 35 31 25 25 29 34 30 41 49 26 32 23 37 26 18 29 30 32 25 36 30 20 26 28 28 24 33 31 27 31 33 33 34 40 32 37 37 30 40 35 32 23 37 38 34 35 31 19 35 40 28 30 22 34 41 37 36 29 38 35 38 42 30 33 35 20 34 23 28 35 28 25 35 24 38 40 25 37 33 40 33 39 45 38 30 32 41 31 34 35 32 21 45 42 25 33 25 31 30 41 42 47 43 33 32 42 36 26 33 36 32 32 38 26 31 31 30 33 32 24 38 30 29 31 35 30 32 32 38 29 35 28 39 41 33 27 28 39 28 42 38 30 30 35 36 39 29 40 36 30 28 34 26 26 36 32 46 32 24 29 46 41 28 50 41 49 27 28 43 36 33 45 42 35 27 31 22 36 28 35 30 34 29 38 36 32 37 38 35 38 34 30 43 31 30 43 27 33 29 31 30 28 33 35 41 34 25 27 35 34 25 46 29 29 32 36 30 38 27 28 29 34 31 31 21 37 38 32 26 30 38 27 28 25 39 31 42 34 37 30 27 29 25 44 39 35 40 36 39 34 34 34 40 30 31 28 31 27 28 43 35 32 44 33 32 25 29 31 36 33 33 33 35 43 25 43 31 35 37 42 35 31 37 39 25 30 36 44 26 36 36 30 22 19 36 29 34 42 33 38 29 31 30 25 27 38 34 35 32 26 41 28 27 29 37 45 31 26 27 22 40 29 32 28 42 28 30 23 35 24 36 30 31 31 32 24 31 42 41 25 30 31 27 32 36 32 32 38 45 25 34 34 32 24 33 34 36 32 29 37 26 30 37 23 43 25 39 27 39 42 33 43 34 30 38 30 35 33 29 32 41 34 27 34 33 29 26 33 40 33 28 41 36 34 26 22 33 28 30 32 33 32 36 42 37 33 41 32 33 45 22 44 33 45 40 30 31 31 29 42 27 31 33 29 36 35 28 35 29 37 31 21 34 34 36 39 42 30 38 31 33 34 35 32 35 27 44 24 31 34 38 30 25 34 21 48 38 37 31 32 39 31 34 40 25 41 38 41 37 37 25 27 34 16 42 19 36 37 31 39 33 33 41 25 33 31 35 35 33 27 34 27 24 27 37 32 40 35 33 23 33 34 40 46 34 31 36 30 39 24 37 34 37 25 33 43 30 42 30 40 42 22 25 33 32 29 33 37 33 40 28 26 35 33 49 29 35 26 27 34 26 32 31 35 28 32 33 34 33 35 42 30 38 34 37 32 37 36 34 30 31 31 36 39 28 31 39 35 32 34 50 31 35 34 36 21 28 37 31 30 37 38 36 32 23 42 27 26 33 38 45 26 30 31 30 31 42 24 30 32 32 39 36 31 21 31 24 30 37 32 32 33 28 30 32 37 35 26 35 47 33 32 28 27 34 39 24 25 36 35 29 35 35 32 31 28 31 37 39 31 37 40 39 42 39 46 35 43 35 35 30 34 34 38 32 31 34 24 27 36 29 30 24 27 21 39 25 36 35 36 36 35 36 20 31 44 30 35 35 32 32 32 28 35 33 26 32 30 27 20 32 31 31 37 34 28 35 30 39 29 45 28 32 38 29 39 34 36 25 32 35 29 31 32 36 30 37 36 38 45 42 30 35 32 31 43 40 28 31 16 41 39 39 34 35 28 34 29 33 32 39 32 35 32 36 28 28 27 32 39 27 30 24 28 37 23 26 40 35 27 28 36 35 30 32 33 34 33 36 28 39 34 32 37 31 28 39 28 35 34 32 34 32 34 26 41 44 38 40 39 35 36 31 29 37 32 33 39 29 35 29 31 29 28 29 38 29 28 41 23 34 39 38 30 35 36 38 23 32 22 26 35 29 33 27 34 41 30 36 40 33 43 31 38 49 36 31 35 25 31 29 33 35 34 29 30 21 30 27 32 38 29 32 36 20 39 29 28 28 30 40 35 33 30 44 31 34 36 39 28 24 35 42 38 33 31 30 31 32 24 29 33 35 38 30 36 29 39 31 40 32 26 22 34 28 38 32 42 28 37 27 33 35 28 35 27 36 40 27 31 31 26 44 34 24 26 33 32 27 29 40 30 28 28 35 35 29 31 24 31 36 46 37 48 35 39 33 21 34 40 26 32 36 37 24 36 31 35 36 31 24 22 34 35 29 37 32 38 39 41 31 38 34 38 35 31 30 20 41 29 23 30 27 44 33 34 29 38 40 34 34 29 37 30 37 27 41 24 26 39 22 38 30 38 39 28 29 29 35 28 40 20 44 35 35 29 26 24 32 28 28 31 19 46 38 33 33 29 25 38 18 40 42 36 33 27 29 38 29 33 38 26 33 37 33 37 40 31 29 33 37 35 35 37 31 39 36 34 33 27 39 28 32 29 37 33 34 33 40 35 38 29 32 41 27 25 27 36 31 33 35 37 28 26 36 32 27 33 33 38 37 37 34 38 38 23 38 33 36 27 24 35 24 26 45 36 28 37 25 33 36 33 38 36 30 38 31 37 28 24 31 39 32 39 40 28 34 40 26 32 35 33 34 28 30 30 40 33 37 38 33 33 23 33 34 29 31 30 28 24 33 35 30 31 27 37 21 32 31 37 33 32 32 26 29 27 51 31 30 45 27 32 27 27 37 28 38 24 36 27 41 22 27 34 33 30 29 29 31 43 25 37 33 31 29 34 37 30 34 36 27 29 44 30 23 24 33 31 40 27 32 40 27 30 41 31 30 37 35 20 37 36 34 36 39 38 27 39 38 32 32 43 27 33 17 35 46 41 23 38 33 34 34 29 35 31 28 30 35 50 41 39 35 38 33 35 34 33 31 34 32 43 29 34 41 24 32 28 60 32 32 34 35 35 39 25 27 37 33 28 27 48 31 30 23 31 22 37 32 30 35 32 26 32 25 46 35 40 33 24 33 33 29 28 28 42 21 39 36 26 34 43 33 34 45 26 29 38 35 25 35 31 30 42 34 29 35 53 29 29 34 44 30 36 30 31 33 36 27 45 36 31 39 35 25 29 36 34 31 29 26 26 33 35 36 37 37 31 30 27 38 27 37 41 44 30 42 42 32 28 41 35 30 29 26 31 31 50 32 36 33 30 28 29 41 28 29 42 32 25 28 27 32 24 41 31 29 22 32 43 29 30 30 31 25 32 30 33 25 37 39 35 35 43 31 27 29 33 34 32 40 45 31 39 24 46 37 26 28 36 21 43 46 37 34 32 38 26 32 33 54 41 34 28 29 33 34 25 32 29 35 31 33 33 49 31 35 30 36 35 28 29 29 30 35 25 37 38 31 35 36 35 30 28 36 29 34 32 34 38 31 56 36 42 29 38 27 36 31 34 34 32 25 35 32 37 33 33 38 43 28 36 29 30 28 28 37 39 35 31 32 18 26 35 29 31 23 34 40 30 37 20 26 32 31 29 35 31 43 35 34 32 35 31 35 32 32 41 37 33 20 33 40 35 23 38 34 44 30 37 32 43 31 32 38 40 33 28 31 34 33 43 38 40 38 29 27 31 28 41 32 35 40 30 29 28 40 20 26 31 38 32 41 36 37 25 34 27 38 31 41 29 35 36 30 35 32 33 31 32 30 27 26 38 31 42 28 28 40 30 24 33 43 24 41 36 26 30 34 38 41 38 33 41 32 27 32 30 30 29 34 33 24 30 30 39 30 34 23 30 32 35 40 44 31 24 30 28 33 32 33 35 33 29 34 36 29 27 39 26 29 42 29 33 30 32 32 25 27 25 27 34 32 33 26 27 32 39 35 27 35 34 47 32 32 27 33 31 26 29 34 31 34 43 25 34 33 36 27 34 32 34 26 33 28 20 33 33 32 46 25 29 28 30 29 30 25 25 39 23 28 35 26 36 31 36 39 30 31 42 38 39 29 43 33 36 41 38 27 27 44 30 21 27 35 34 20 34 30 29 40 30 34 22 40 37 34 31 27 26 31 34 29 23 31 34 37 42 33 28 35 36 42 37 38 32 40 30 39 33 25 31 34 24 28 37 28 27 41 38 30 28 24 40 32 25 37 33 43 32 38 24 24 28 26 29 28 31 39 32 31 23 32 33 29 31 39 28 54 37 28 31 38 44 37 26 27 27 26 37 39 39 33 38 28 30 42 29 42 27 42 40 28 29 32 31 38 29 29 35 39 39 30 35 29 27 26 29 37 28 30 26 28 34 24 32 27 21 42 30 36 44 34 28 35 34 37 27 38 30 44 33 39 36 35 36 32 34 34 41 34 34 34 25 41 28 23 40 31 32 38 27 30 31 29 44 29 27 31 29 29 38 28 31 35 36 32 28 32 29 25 31 39 24 32 32 31 30 31 49 24 28 39 36 20 31 38 32 36 32 36 31 33 32 35 37 37 26 43 35 25 22 28 33 32 32 29 31 44 29 28 27 37 36 33 35 32 32 40 22 35 47 43 32 35 30 36 31 30 31 38 41 35 32 45 33 45 25 42 39 37 31 33 39 33 28 39 32 33 24 28 27 27 26 33 32 28 30 32 36 28 37 41 41 26 33 39 38 22 34 36 43 29 33 38 35 28 36 34 37 22 27 39 31 27 31 30 36 22 23 32 36 21 28 35 28 29 42 31 37 27 28 31 37 35 25 29 36 33 42 42 26 34 29 33 39 24 37 29 30 33 32 29 35 29 38 34 31 27 42 30 36 42 36 30 40 42 24 32 23 45 29 33 38 29 27 37 28 23 26 26 38 26 34 32 34 36 25 31 40 33 36 36 28 24 36 35 34 27 26 32 33 32 23 29 34 34 27 38 33 28 33 30 31 46 24 41 40 34 24 41 24 33 33 32 29 42 25 41 32 38 33 34 33 39 35 33 25 36 23 35 39 34 46 33 37 41 34 33 43 38 44 27 26 37 29 41 35 30 30 28 42 45 39 24 28 31 23 28 35 39 31 33 26 38 23 28 25 26 33 36 30 40 25 38 28 35 31 32 34 30 27 36 27 35 30 33 35 29 32 37 37 30 27 42 40 24 32 32 30 29 30 34 28 31 25 25 50 47 28 37 33 38 30 31 34 34 30 30 33 37 33 35 26 30 37 35 27 31 41 34 39 44 24 35 30 28 33 30 33 27 36 28 45 39 35 32 32 39 31 29 32 33 32 34 43 35 31 31 34 28 31 25 34 22 42 28 27 31 31 29 43 37 20 27 32 28 36 36 26 34 33 28 27 32 23 29 34 40 37 25 30 44 29 30 41 24 34 39 30 28 33 31 45 39 28 25 35 35 31 32 33 25 21 42 39 32 24 32 33 29 39 34 31 35 27 32 28 34 29 25 45 44 43 26 34 26 38 40 33 25 29 32 35 31 29 45 26 30 24 39 33 22 28 32 30 41 26 32 39 37 41 33 23 30 30 37 34 30 25 38 30 37 34 32 34 22 28 31 42 39 26 38 26 34 27 39 36 30 32 33 26 38 25 32 28 36 36 34 31 38 25 30 32 35 39 34 37 18 42 27 39 25 30 40 35 30 37 44 25 47 37 26 29 30 28 30 33 33 31 30 30 26 27 31 40 24 38 32 32 34 39 24 29 37 34 41 27 33 29 32 24 43 31 23 38 31 19 41 30 31 30 30 39 25 39 27 37 28 26 36 31 51 38 30 30 26 26 30 29 28 44 35 22 36 28 35 42 29 44 42 29 42 32 33 35 30 33 27 31 39 38 31 29 31 28 28 35 47 39 28 30 33 26 37 39 33 25 41 32 30 30 34 24 36 26 39 36 30 36 33 49 30 36 29 37 28 25 38 36 31 30 27 33 29 35 42 36 46 50 32 39 36 25 29 31 36 39 33 38 34 29 41 38 32 29 38 35 29 26 29 35 44 37 23 45 22 32 26 28 35 27 40 43 33 36 32 32 31 26 29 22 35 24 39 28 33 48 26 29 25 44 35 40 29 36 25 35 40 48 32 44 25 29 35 37 34 31 41 35 22 31 37 39 33 28 25 34 39 33 33 33 32 32 26 24 33 38 37 38 39 33 24 32 33 32 24 18 19 39 33 32 37 40 37 35 30 37 27 29 30 31 30 17 41 25 38 36 21 37 31 43 38 25 42 39 40 39 38 33 20 30 25 31 33 31 25 33 29 25 40 36 31 37 33 25 36 24 34 32 40 19 33 18 37 34 27 40 32 32 29 35 29 32 35 36 38 41 30 41 32 29 34 30 25 37 31 33 30 44 31 31 35 45 34 30 24 32 36 27 37 29 38 31 36 35 30 34 29 43 28 30 36 32 42 39 37 32 33 45 37 37 35 29 37 30 22 35 38 29 31 45 38 27 27 25 41 33 44 34 26 29 25 26 27 37 26 24 32 37 32 29 39 30 36 25 28 36 32 38 39 39 30 23 33 41 29 22 33 21 32 32 30 23 32 31 36 34 44 28 32 30 37 39 39 31 39 28 34 38 37 28 39 29 39 37 26 31 30 29 44 40 29 26 26 33 29 26 43 30 25 39 23 40 32 33 32 36 42 26 33 35 23 26 29 35 29 23 42 37 25 33 35 27 28 44 29 38 33 34 33 28 39 34 26 30 26 41 36 32 29 39 20 31 39 30 37 29 36 42 25 28 35 26 37 38 34 33 34 44 32 34 35 30 37 42 42 54 34 29 27 36 37 34 27 30 27 35 27 39 26 51 38 33 38 31 41 35 26 28 42 33 27 37 31 30 24 34 34 29 32 37 26 36 36 27 32 29 35 36 25 29 28 41 47 36 36 33 25 27 31 29 39 33 31 37 39 33 37 33 36 31 29 38 33 33 36 29 30 22 35 41 34 25 39 27 39 22 33 33 44 19 25 37 28 26 35 35 25 32 24 39 31 29 29 33 24 37 32 41 27 27 23 46 26 29 25 42 35 28 32 24 38 38 27 28 42 34 32 23 26 28 30 37 37 36 34 30 40 36 42 40 44 25 25 34 33 42 42 39 26 40 29 45 28 26 34 32 27 27 30 29 27 26 25 42 41 26 34 36 38 28 36 35 36 31 34 42 35 33 30 35 34 31 32 23 25 36 29 28 25 33 30 26 28 23 35 30 20 28 23 36 33 34 35 27 35 32 30 27 34 30 37 40 41 31 29 23 34 29 25 33 31 40 32 22 34 34 34 24 32 30 34 37 34 25 42 31 34 30 34 33 33 32 35 33 37 24 29 36 22 29 24 31 35 32 34 38 37 35 29 38 37 38 30 28 32 40 34 33 29 34 32 23 27 31 29 35 25 41 37 29 31 33 43 27 38 38 32 40 27 32 34 34 24 32 30 21 28 40 27 31 25 25 27 43 44 31 33 35 35 40 34 36 28 37 36 34 42 34 33 42 27 41 32 40 32 39 33 27 32 25 30 34 37 29 25 27 39 35 30 41 34 34 37 31 28 31 27 25 37 33 37 36 37 35 31 49 31 30 33 49 33 39 22 37 32 35 30 27 32 25 34 30 38 37 36 32 35 36 31 30 53 26 34 33 26 36 46 33 29 23 29 31 30 31 31 28 27 51 29 26 26 37 38 32 41 42 23 26 35 32 31 38 24 31 35 34 39 22 29 31 35 39 30 41 42 33 38 36 34 36 32 29 32 32 26 25 25 28 28 30 24 28 35 32 34 38 28 29 29 27 33 36 28 27 33 38 28 33 28 44 32 28 36 38 22 38 43 29 30 26 34 38 33 27 31 35 33 37 36 35 31 36 36 26 42 27 31 38 29 25 37 34 33 32 23 34 36 40 25 28 47 33 24 28 34 27 26 33 43 38 31 41 37 32 31 31 27 36 35 28 33 24 28 37 39 35 48 31 32 27 33 36 33 21 38 29 24 36 38 43 28 36 29 37 36 33 40 37 31 32 32 29 26 38 38 42 37 27 35 30 31 41 33 30 30 31 42 22 33 46 40 43 34 24 41 30 33 27 34 31 27 32 36 26 37 26 39 31 29 35 20 25 34 31 31 31 32 31 30 42 29 37 33 33 38 27 38 26 34 39 27 37 36 30 29 39 32 37 35 38 34 29 37 33 26 40 27 31 25 38 25 36 37 30 26 29 34 37 28 27 27 33 32 34 25 41 19 23 40 37 29 20 43 42 39 39 30 36 31 20 27 35 40 29 36 37 41 38 27 31 26 32 24 39 39 38 35 46 23 40 35 35 34 30 35 32 42 39 29 31 35 32 30 35 35 40 24 30 25 33 35 29 38 39 35 30 35 33 31 42 30 35 33 32 27 38 28 34 21 36 38 24 30 32 32 27 29 28 30 35 25 27 41 24 28 37 34 23 20 38 29 32 31 21 29 29 25 28 38 30 40 31 34 38 36 20 37 25 35 27 30 45 29 30 29 22 40 23 26 30 30 37 33 31 28 28 27 29 29 29 51 36 37 28 34 29 28 30 29 38 30 25 45 25 37 37 31 30 28 20 36 28 31 35 35 42 32 30 25 33 32 37 24 30 33 35 47 33 43 36 40 28 28 37 36 23 36 27 32 38 36 28 23 31 25 31 35 30 29 30 28 25 37 26 27 31 35 39 41 28 27 35 36 29 28 29 33 27 37 27 43 42 38 29 34 35 37 21 26 32 33 33 31 38 33 35 40 38 33 29 26 33 36 19 28 33 35 35 38 24 28 38 28 39 40 30 36 28 28 32 44 27 40 35 41 37 37 33 32 26 28 36 41 29 26 31 28 32 38 23 49 35 17 39 36 28 31 34 28 20 30 31 38 30 26 29 37 34 29 35 25 39 32 38 36 30 28 44 35 34 36 31 32 39 34 39 35 36 41 35 35 44 28 31 35 30 32 35 30 44 27 29 35 38 46 44 33 33 36 37 36 36 33 24 32 42 27 30 30 21 35 29 35 41 37 32 28 36 38 31 27 38 37 34 35 39 34 28 29 31 27 26 41 20 27 32 38 31 33 27 31 29 34 36 38 38 35 39 32 32 36 33 30 32 28 26 31 26 30 27 29 37 34 28 36 35 30 28 40 36 24 31 34 32 38 30 24 27 27 38 32 28 27 35 31 32 35 39 31 30 25 35 41 39 32 38 39 34 32 31 34 25 33 36 25 44 31 30 29 30 30 32 38 31 36 23 34 21 32 35 33 38 26 31 41 28 33 29 37 37 47 29 31 36 30 31 33 43 37 29 31 27 38 49 28 34 40 28 30 33 34 32 26 24 42 35 47 38 32 24 32 39 42 27 27 22 30 36 39 31 33 39 56 27 35 22 32 34 32 35 22 28 39 24 30 36 28 29 21 35 40 36 30 40 34 23 27 27 25 30 39 39 32 23 39 29 39 28 32 31 32 23 36 26 38 37 37 34 34 28 32 37 36 28 36 30 29 26 42 37 36 28 26 23 37 34 28 27 27 25 31 29 32 24 32 31 48 47 25 36 38 30 43 32 36 28 33 33 30 22 34 22 32 27 36 34 36 28 26 35 36 32 40 31 42 23 30 21 24 29 19 34 33 31 35 24 35 36 36 31 24 24 33 32 32 28 41 40 28 41 39 25 25 27 41 26 32 25 35 31 31 42 32 33 31 30 25 32 34 31 33 32 29 30 28 25 34 40 30 41 23 38 30 29 33 35 35 33 44 33 29 26 27 46 31 29 33 29 39 40 26 28 39 31 29 37 32 32 27 24 31 27 35 31 37 26 35 31 42 29 39 31 35 43 32 29 36 33 24 30 37 22 33 31 32 29 29 36 37 36 29 39 25 30 29 39 32 35 28 32 30 27 42 30 41 45 36 28 32 28 30 37 33 32 37 32 32 31 23 36 33 25 28 25 32 34 27 31 35 37 25 32 34 36 42 30 30 38 21 41 38 29 31 24 33 27 30 30 26 36 36 33 32 28 32 31 34 32 32 33 20 33 31 34 20 27 31 27 30 35 30 26 46 40 31 28 34 41 36 30 26 25 28 25 33 28 29 22 29 35 29 31 28 26 36 32 33 27 30 35 30 31 19 30 43 33 40 23 26 29 40 29 23 38 40 32 29 31 29 29 36 41 31 33 35 33 34 27 25 40 29 35 35 25 38 26 31 25 34 40 32 24 34 24 29 43 30 34 24 32 35 31 40 34 38 41 35 27 38 41 35 44 43 30 34 31 34 33 31 38 40 42 25 24 37 41 33 36 31 32 32 31 28 25 31 35 37 31 39 36 38 33 36 38 25 27 22 37 37 44 28 34 41 39 38 28 23 27 26 31 38 33 26 32 34 33 39 32 28 34 36 30 29 43 29 47 38 27 35 34 33 37 33 25 35 31 24 36 39 40 25 39 36 36 24 35 26 33 34 32 36 36 30 32 32 27 36 23 36 39 40 34 36 37 26 29 33 27 34 37 33 34 37 33 33 22 38 30 26 37 44 36 37 31 31 20 45 42 30 41 34 27 38 35 30 30 32 29 31 40 41 35 38 36 30 29 35 35 29 32 31 32 38 37 42 39 28 45 35 29 42 35 31 37 35 32 39 34 30 40 36 38 26 29 36 40 28 30 21 41 29 41 32 25 33 42 33 34 35 31 20 25 25 40 24 39 27 32 29 36 31 25 31 33 27 37 34 38 37 23 37 32 31 25 27 33 34 30 34 40 32 38 45 46 29 25 36 44 26 46 32 33 32 30 27 32 37 22 32 37 34 36 39 43 31 36 32 35 25 30 25 24 28 39 31 33 30 32 29 34 33 25 29 28 41 35 26 31 32 35 32 27 28 30 26 35 31 36 30 31 29 43 31 19 42 23 33 35 37 31 38 37 41 32 31 29 30 26 19 21 25 42 31 35 31 33 30 36 35 32 45 34 38 35 30 35 27 27 33 33 38 29 36 29 33 30 34 34 43 36 29 35 34 43 28 33 35 42 31 32 29 31 37 36 34 38 32 32 34 28 33 32 37 34 30 28 33 30 26 28 34 27 39 47 28 31 27 36 36 38 31 24 35 39 37 33 30 43 24 34 25 29 31 21 34 37 34 32 31 30 38 29 31 33 23 32 25 41 33 32 34 47 35 30 29 40 35 28 24 41 32 29 31 40 27 20 24 32 38 33 34 30 23 33 39 25 32 35 29 28 50 24 32 35 34 28 44 32 34 36 31 33 33 22 31 25 32 40 34 29 33 31 45 29 27 27 31 25 38 38 32 26 32 43 35 38 28 37 23 33 33 28 30 46 34 36 29 25 35 30 46 31 33 41 32 35 35 32 29 34 41 34 30 33 30 34 27 21 31 24 36 32 31 30 32 40 34 33 53 35 28 32 24 26 34 40 42 30 52 34 31 30 41 40 28 29 31 36 46 26 31 36 33 34 40 33 33 43 31 28 35 38 40 35 45 27 37 29 33 42 29 29 38 33 21 30 33 29 39 29 29 33 38 40 46 23 37 25 30 29 35 29 31 44 40 31 34 36 33 38 29 33 33 33 31 28 38 30 29 43 33 38 40 33 43 26 28 41 28 31 32 21 32 32 27 31 29 37 28 30 40 31 26 28 33 35 35 33 33 26 32 32 35 38 28 28 27 31 39 33 31 37 31 18 34 25 23 36 35 33 44 39 36 31 35 40 24 26 32 32 25 43 35 36 30 32 33 26 42 26 32 37 29 25 33 23 30 26 37 31 29 35 32 47 35 30 26 36 22 39 33 28 33 31 28 26 32 30 33 37 37 26 30 33 44 33 27 34 31 41 37 34 28 31 36 25 37 28 44 27 38 34 24 35 39 30 37 40 34 38 39 35 33 42 37 34 41 24 44 33 30 29 28 35 31 28 33 33 40 29 38 23 24 34 32 34 38 33 46 28 32 29 31 41 33 30 22 31 24 30 27 22 31 45 19 30 35 52 31 32 30 20 36 30 35 25 24 30 31 38 25 41 36 24 32 31 30 36 34 38 24 21 33 30 34 34 37 31 36 36 38 38 40 21 35 35 33 22 26 28 35 37 35 28 38 36 28 24 35 38 35 34 29 31 25 25 46 40 28 32 35 26 36 45 35 32 42 29 40 40 32 39 23 41 34 33 30 29 33 28 26 27 37 32 28 36 33 38 33 38 37 19 31 32 34 35 31 37 41 36 26 32 29 37 22 23 38 36 28 29 31 48 35 36 33 31 26 31 31 37 26 39 23 22 34 34 37 28 30 34 40 51 26 41 27 31 37 37 35 44 32 27 26 27 39 45 29 23 37 38 40 24 30 31 35 31 29 27 25 24 32 21 31 42 34 33 36 32 20 24 37 27 31 34 30 35 35 48 34 35 34 30 38 32 33 28 31 26 26 44 27 37 33 36 20 27 43 31 27 28 47 36 26 35 38 31 36 34 32 33 23 21 31 27 35 37 46 32 29 35 24 33 29 34 33 36 36 31 40 30 31 36 35 30 29 32 31 37 27 31 21 31 35 22 23 28 30 30 28 38 24 41 30 35 32 35 30 39 27 23 24 39 34 35 33 43 31 46 29 39 45 34 27 52 34 36 29 31 39 40 38 39 41 30 36 28 27 33 19 28 24 33 41 44 37 29 30 30 35 30 39 27 30 32 42 33 33 27 25 33 30 28 32 37 36 19 28 33 27 28 33 33 49 39 29 44 31 32 31 25 32 37 29 35 21 27 30 32 28 27 31 34 33 33 32 27 33 29 28 29 26 40 35 44 31 31 25 30 34 37 29 40 30 30 31 32 28 29 37 27 25 26 26 34 28 25 24 32 20 36 47 30 30 36 31 41 28 31 41 29 31 27 35 35 25 34 30 37 32 42 39 41 26 31 43 33 39 27 48 38 29 34 35 40 40 31 31 30 22 27 32 32 38 39 31 32 38 35 41 44 24 34 40 33 31 34 39 36 35 31 32 30 28 33 30 35 30 33 43 35 25 35 27 30 31 33 46 29 33 16 35 35 25 40 34 31 34 27 23 27 37 27 30 38 39 32 32 39 27 28 27 27 27 28 37 44 43 26 29 35 34 33 31 35 27 35 31 35 41 28 35 34 33 36 26 33 34 28 30 26 23 34 29 46 34 40 29 29 33 36 30 21 26 31 25 39 40 29 19 36 33 36 30 32 28 34 39 29 35 29 41 43 32 21 35 29 35 33 36 36 27 34 22 26 25 27 47 36 28 38 22 31 38 29 32 37 34 39 44 36 27 32 38 32 30 27 33 32 26 30 30 41 28 37 32 36 33 35 37 35 30 31 32 28 24 32 27 28 41 31 23 36 40 34 27 28 40 29 34 33 32 35 39 29 24 41 33 30 37 33 29 38 30 37 33 31 39 42 31 32 29 40 32 29 39 38 31 32 26 32 34 33 33 30 28 33 30 35 37 32 35 31 32 26 27 35 35 43 35 29 33 30 27 45 35 48 32 48 29 35 34 38 28 27 34 33 26 31 38 22 34 25 57 31 29 29 25 36 34 32 24 37 30 37 37 44 39 33 27 31 30 30 32 31 24 36 33 42 51 29 26 41 27 35 28 32 30 29 33 36 26 35 33 33 27 29 35 33 37 30 39 34 27 30 21 38 45 30 25 22 35 36 33 30 41 31 31 45 27 29 43 36 37 33 29 40 36 41 35 33 27 26 22 34 36 33 28 37 38 27 31 25 27 33 39 29 43 24 35 31 34 28 28 33 32 37 32 30 37 47 31 31 31 26 28 31 36 37 36 32 32 31 38 30 30 27 50 35 25 26 22 32 35 18 24 36 38 34 37 31 33 33 41 36 38 31 45 37 33 30 31 32 34 39 39 27 31 34 40 20 29 28 38 31 22 38 46 30 33 30 33 49 35 37 29 40 28 29 33 38 35 29 34 35 38 23 19 46 26 23 34 26 20 35 35 35 32 33 32 38 39 31 29 39 25 32 23 43 22 33 30 32 25 34 29 29 35 27 34 33 24 32 23 32 29 37 25 37 37 35 26 27 33 49 26 42 30 33 31 32 34 40 42 23 40 31 45 45 38 35 40 27 32 29 28 42 37 32 32 41 24 45 22 28 45 30 41 25 31 36 28 29 31 31 33 35 30 39 34 33 19 35 23 34 33 30 28 33 33 26 48 36 31 29 30 38 35 31 36 35 31 33 36 36 35 34 31 33 38 28 20 38 30 37 26 28 27 36 25 26 30 21 29 21 41 42 34 28 31 43 36 35 35 28 30 37 29 29 31 35 35 35 27 39 34 37 21 27 40 36 35 32 27 30 27 43 23 34 27 23 34 31 33 32 28 38 35 27 34 34 43 42 33 32 44 27 27 23 36 35 34 30 32 30 37 31 39 35 36 31 38 34 30 21 28 33 30 37 35 35 32 35 35 34 32 32 31 33 28 32 44 34 33 41 27 37 35 29 37 40 41 45 29 34 41 20 35 34 41 28 46 35 31 36 41 26 33 35 38 42 37 31 39 37 28 32 27 35 35 29 30 48 29 27 32 43 31 33 32 29 46 35 32 35 31 37 29 36 44 30 36 24 39 39 32 35 34 24 35 34 27 34 28 31 30 34 32 28 42 36 26 46 27 32 25 29 23 35 33 36 44 26 29 27 34 25 28 35 41 38 38 36 29 34 30 33 35 35 35 23 33 35 30 32 28 27 28 28 35 29 36 32 39 29 30 41 30 32 34 29 29 33 31 36 33 30 30 33 40 33 39 34 33 38 41 29 37 33 40 39 33 44 21 35 38 26 30 32 30 30 27 42 35 27 27 36 35 40 29 29 31 34 24 33 34 37 36 29 29 30 28 37 47 22 39 22 34 30 31 26 43 32 41 34 24 33 27 39 42 27 46 37 35 34 34 36 40 37 28 33 26 23 35 34 35 34 21 28 34 36 41 33 33 42 36 29 45 37 35 33 27 33 32 28 41 27 37 33 32 25 32 32 29 39 33 19 24 27 31 30 41 40 40 49 31 32 32 30 34 34 26 31 31 29 44 35 30 32 22 29 34 26 39 29 31 31 35 27 39 37 35 35 31 34 30 22 35 30 36 33 33 26 37 24 40 31 32 29 27 31 32 41 30 38 45 34 32 39 36 24 34 27 25 36 37 30 37 33 38 33 44 37 41 23 30 26 30 36 35 30 32 33 31 31 39 40 28 29 28 34 23 34 29 30 33 33 32 33 32 31 44 36 25 34 38 32 31 34 35 28 30 50 36 27 34 31 33 47 36 29 31 31 25 37 39 29 37 36 43 33 36 43 27 24 39 25 35 36 28 39 26 23 32 28 33 28 35 24 22 48 47 23 38 33 20 27 41 26 35 33 30 28 32 26 40 31 30 30 27 38 37 26 25 35 35 32 32 39 24 38 25 43 29 34 36 27 37 34 55 37 28 28 34 36 28 29 28 30 38 28 43 41 35 37 32 31 33 41 26 21 42 34 34 29 29 31 29 30 40 30 33 27 39 44 26 35 28 32 35 41 30 28 25 33 27 27 37 34 33 25 43 41 29 32 32 35 27 29 39 34 42 43 39 37 35 33 26 39 49 42 44 27 34 28 35 47 40 28 36 27 35 36 28 26 36 32 36 24 28 32 37 21 33 38 40 34 32 35 33 30 30 28 31 31 27 32 33 36 39 34 21 41 32 34 34 42 34 42 31 36 28 26 37 37 38 26 29 27 28 38 25 39 33 39 36 29 34 25 38 39 38 28 24 22 28 29 41 41 35 36 36 36 26 28 34 31 27 26 33 38 35 35 30 28 32 31 41 30 41 29 37 30 27 34 33 30 23 41 31 34 21 27 29 45 37 35 43 33 33 25 41 31 29 29 20 35 27 31 36 35 32 32 30 27 42 37 26 32 35 31 35 26 35 23 28 35 35 37 34 32 34 35 37 30 31 23 28 32 41 28 31 37 28 34 27 33 31 50 39 35 37 31 31 24 35 33 29 31 31 32 23 28 46 34 34 36 32 32 33 39 36 31 41 31 25 23 35 36 31 30 31 28 31 24 37 28 33 30 25 32 36 35 35 30 41 35 34 40 29 33 26 31 30 33 21 34 24 37 32 37 40 27 31 30 28 31 32 29 35 34 39 27 26 27 30 31 35 38 43 45 42 36 16 31 26 30 29 37 36 34 25 26 27 27 35 30 26 29 36 37 31 38 35 40 29 41 30 41 43 41 26 26 32 33 37 38 35 43 41 31 22 39 30 31 20 30 34 32 27 28 26 29 24 40 28 39 24 29 27 36 38 47 32 32 20 30 33 42 36 25 31 35 30 35 35 33 30 35 19 22 25 35 32 23 41 24 29 36 26 33 32 36 35 31 29 34 37 24 29 25 35 37 26 42 32 27 31 21 32 33 25 35 23 25 33 25 29 26 33 23 27 27 34 27 35 38 40 33 57 19 31 24 24 27 47 25 39 31 28 28 23 34 44 48 35 32 39 26 39 26 27 24 24 28 39 30 35 29 47 29 28 34 38 30 25 31 31 33 30 31 31 39 30 30 39 31 29 47 22 23 40 40 39 42 27 23 33 36 31 27 33 33 32 37 30 35 31 32 32 37 32 26 30 35 47 33 31 33 34 38 28 33 30 36 29 32 32 29 30 27 28 25 28 32 33 28 41 33 23 40 29 33 31 33 17 28 31 36 38 33 35 29 35 33 30 23 33 30 36 34 32 35 30 32 33 31 36 36 27 34 29 39 40 33 34 26 29 40 29 31 29 33 29 28 16 40 32 38 22 30 30 38 37 42 38 31 29 20 36 32 33 36 34 33 33 34 28 35 30 29 30 40 30 29 28 37 36 42 37 24 36 45 33 25 27 24 48 33 34 34 34 27 32 36 32 32 28 23 33 32 31 36 34 30 32 45 26 32 34 26 42 32 30 41 36 34 34 35 28 33 29 41 35 27 49 43 29 31 30 30 31 30 27 36 30 45 38 32 33 34 27 39 34 39 27 37 33 27 29 35 41 35 29 39 41 34 33 35 22 34 27 38 37 35 30 33 32 29 31 43 25 42 28 42 28 36 34 19 29 31 36 37 36 41 36 47 39 25 34 25 24 40 35 35 36 37 37 25 25 34 37 37 39 35 31 32 25 30 30 30 42 43 27 29 27 31 46 35 29 38 31 33 25 31 27 32 34 24 28 31 31 34 33 38 29 35 26 26 38 43 38 23 30 34 28 36 23 34 35 32 43 27 23 35 34 49 29 38 34 40 36 33 37 35 39 39 43 29 24 42 30 29 29 28 32 36 31 29 23 29 24 29 35 37 26 33 19 26 31 40 32 33 32 28 33 34 36 49 32 32 32 41 49 34 26 36 41 34 29 35 40 26 34 27 32 44 48 39 26 27 35 21 33 34 34 32 35 19 24 35 37 31 39 36 32 35 37 32 28 36 31 44 42 30 38 33 32 35 32 37 35 33 26 33 26 34 27 31 33 26 37 25 32 36 36 34 31 28 25 30 28 25 36 26 33 29 39 40 41 40 33 41 35 34 27 28 37 36 33 29 27 36 24 47 25 28 42 29 32 34 32 27 40 37 30 33 39 40 30 45 41 30 26 30 32 43 35 28 34 33 25 40 28 37 34 37 22 35 30 33 34 32 37 38 28 35 28 24 26 43 37 22 24 30 34 39 33 30 31 26 35 31 41 29 39 31 33 34 29 36 30 35 32 26 44 49 36 29 35 30 35 30 41 32 26 33 47 22 43 33 33 30 30 36 30 26 40 23 40 29 32 23 26 27 41 30 41 34 44 33 27 28 27 35 24 32 25 37 18 40 26 26 23 39 31 36 28 26 27 39 33 47 36 40 35 19 20 40 35 30 38 31 25 35 39 32 38 38 31 28 29 30 28 38 30 22 38 32 30 43 33 40 34 35 30 42 33 28 28 27 29 24 34 32 35 33 34 30 28 36 41 32 43 33 35 32 29 27 35 36 30 30 33 30 36 38 35 36 34 33 46 38 27 22 31 46 32 34 34 28 32 27 30 32 43 37 30 33 28 29 25 23 27 19 34 38 26 29 34 27 28 29 56 30 23 50 27 26 37 41 23 41 30 31 28 29 32 31 30 26 34 21 31 29 32 35 35 31 34 35 30 36 33 28 31 31 31 35 25 34 30 24 33 27 34 30 37 37 41 28 25 32 30 33 30 25 25 37 17 28 25 46 28 27 31 37 25 36 36 31 27 40 28 26 32 31 23 38 25 39 31 34 35 43 34 36 32 41 30 30 31 26 25 31 46 33 31 34 30 33 37 36 33 24 29 30 34 30 31 27 36 34 23 31 32 38 19 31 27 27 25 33 26 30 33 28 44 36 32 22 35 31 39 27 34 30 36 30 34 35 34 34 33 28 31 25 27 26 42 37 35 34 28 32 26 31 30 37 28 30 30 37 39 32 27 38 38 38 29 36 30 28 40 18 26 39 32 38 29 33 32 37 27 32 27 24 32 30 35 33 45 21 38 36 33 45 34 23 29 44 33 27 24 39 26 36 35 28 27 25 38 35 32 27 27 24 28 39 36 27 33 37 31 36 49 34 35 33 21 25 29 44 32 28 39 40 28 36 32 29 32 33 21 43 33 26 37 27 31 21 31 33 28 37 31 34 26 39 32 34 39 30 29 28 23 33 22 33 32 23 36 30 38 29 28 30 34 38 34 47 29 26 30 32 26 34 38 31 23 31 48 39 37 32 31 37 36 34 25 25 36 28 22 25 33 29 42 36 25 37 34 35 25 47 31 38 42 29 33 35 34 26 29 27 36 27 28 34 32 27 35 32 40 31 35 36 38 41 44 40 35 29 42 34 28 33 38 28 34 33 46 31 42 26 29 39 34 38 43 26 25 31 28 25 28 39 35 37 33 40 23 25 31 42 43 34 28 37 43 27 37 32 29 30 36 27 46 37 28 27 40 35 35 22 48 32 32 36 28 17 31 28 38 38 27 35 37 30 34 37 35 24 30 28 28 42 27 28 23 32 26 33 27 28 38 36 35 33 31 27 32 31 33 29 34 22 26 31 33 40 34 25 30 30 29 41 20 34 40 38 33 25 45 33 33 24 32 42 40 34 29 33 35 24 24 30 33 39 36 31 26 43 40 33 26 30 42 25 30 22 31 29 35 38 36 31 33 44 30 43 24 28 35 37 34 32 39 32 34 31 25 43 29 33 27 27 34 41 36 34 37 36 35 33 26 33 33 35 28 31 30 39 28 28 32 31 27 34 31 24 28 38 35 40 23 31 42 28 29 33 42 34 48 37 35 36 40 25 30 33 40 51 37 32 36 23 33 28 45 33 25 35 30 26 34 47 31 25 26 33 39 34 46 44 26 50 28 33 28 35 30 27 36 39 38 25 25 35 37 43 39 34 27 47 39 20 38 39 35 35 31 28 31 32 30 22 39 31 45 39 28 33 40 32 31 39 30 33 31 37 35 36 40 25 27 23 31 33 41 43 31 33 38 34 33 37 31 36 38 37 30 39 33 41 31 42 29 43 32 40 35 41 29 37 29 32 32 21 41 31 30 30 28 24 32 34 35 33 43 30 34 33 34 37 26 24 33 25 28 39 30 30 60 40 29 25 33 32 25 37 37 37 29 35 31 32 44 39 32 32 42 42 37 35 38 30 29 32 37 41 37 38 39 24 46 48 34 32 35 35 36 33 37 22 26</t>
+  </si>
+  <si>
+    <t>JSB(2.8061106066092236, 4.976794142702534, -150.11137116656462, 1076.1263722513854)</t>
+  </si>
+  <si>
+    <t>221 227 260 169 196 215 253 199 167 307 220 207 244 329 257 230 258 295 312 222 285 148 169 193 225 257 187 247 227 186 218 199 164 216 198 265 187 241 159 261 202 196 163 329 257 223 282 208 310 326 180 300 254 203 228 202 262 262 276 198 267 289 367 229 258 262 175 159 308 220 324 219 189 279 295 159 280 226 216 240 240 299 268 257 227 260 236 254 238 206 261 263 218 204 161 244 286 237 276 276 203 267 265 231 237 211 242 179 293 262 220 181 281 275 227 208 236 240 285 212 200 218 179 241 232 229 185 222 231 307 350 267 212 202 237 128 231 249 247 332 188 214 171 268 235 191 285 330 196 198 202 226 188 179 151 340 264 276 178 240 279 179 263 190 212 236 233 284 235 293 168 227 204 336 213 181 216 300 295 182 253 277 228 243 190 201 271 167 259 128 224 253 196 242 203 233 278 223 247 186 249 258 202 262 234 258 255 214 222 272 235 265 211 238 255 183 272 296 206 235 332 257 201 177 194 325 245 119 283 204 204 262 198 259 219 248 247 230 311 316 259 299 147 202 310 187 152 244 235 268 198 231 238 295 268 139 163 211 252 149 264 276 339 168 231 266 326 255 178 220 219 283 288 304 153 207 198 281 203 333 179 231 229 196 294 165 221 217 275 253 266 200 180 229 198 240 226 240 202 233 169 255 231 192 183 236 323 262 241 147 277 243 360 266 294 240 213 182 299 277 204 225 311 231 224 277 177 239 238 157 137 397 242 195 275 247 233 223 262 117 304 243 269 211 188 294 228 159 196 212 175 184 203 234 256 210 233 200 274 272 190 282 284 194 269 212 213 120 244 222 224 323 215 210 219 236 279 274 249 210 243 256 283 248 175 277 194 246 288 333 210 167 307 270 226 239 162 281 252 255 355 214 197 259 237 298 192 225 261 203 268 279 143 250 245 304 183 216 215 223 212 253 219 365 274 322 210 336 179 272 240 266 155 235 237 221 255 196 205 245 228 184 228 207 344 226 154 265 230 271 197 239 268 239 251 329 303 191 246 314 241 156 324 231 162 366 289 276 160 219 301 184 199 144 216 221 124 177 246 300 256 190 252 161 267 327 241 231 255 239 232 218 215 276 235 228 379 160 146 299 248 291 331 264 203 206 211 198 218 233 220 212 144 248 285 236 213 261 156 258 220 227 293 224 288 319 181 195 303 246 243 302 314 220 244 180 180 223 330 251 137 309 210 304 240 245 197 222 305 232 149 264 212 250 255 302 263 149 265 156 245 249 200 286 141 180 157 338 190 207 262 172 309 281 219 271 293 249 205 265 301 184 228 203 251 216 310 214 232 265 207 169 222 200 187 194 287 253 297 298 186 257 220 260 222 191 294 236 168 243 154 249 178 260 232 231 241 254 219 181 282 320 248 260 233 167 309 151 199 215 182 285 227 243 217 157 181 247 206 282 271 238 179 301 209 267 273 292 201 216 195 261 214 216 253 249 255 224 226 181 219 177 227 284 314 249 206 192 190 167 230 204 218 192 291 188 316 164 387 169 228 244 204 244 276 216 340 312 328 286 252 250 222 198 227 155 206 188 258 341 213 151 135 248 139 196 238 256 272 199 256 185 180 216 258 280 174 219 204 314 343 299 226 203 118 230 169 340 204 239 202 266 265 242 258 276 191 218 212 300 202 201 169 268 218 142 176 300 286 213 227 305 167 251 266 293 271 308 224 324 167 133 244 178 209 387 240 265 162 283 273 302 147 319 273 215 211 197 202 285 255 260 236 335 190 239 261 227 283 244 223 209 165 320 293 355 240 315 239 191 281 286 212 184 241 226 173 224 300 275 347 252 247 252 232 239 277 253 239 280 220 166 279 241 305 245 271 180 232 298 194 228 234 268 283 240 198 207 196 239 204 153 258 242 242 265 257 335 259 226 225 243 274 134 260 359 237 153 262 228 252 273 213 212 237 255 332 273 299 237 312 263 206 225 361 290 217 182 283 358 296 335 257 206 269 252 225 310 224 245 211 264 169 216 307 254 231 238 190 250 286 243 305 178 234 223 173 233 232 288 210 316 306 252 256 307 269 236 210 303 252 347 137 213 305 227 231 223 227 216 160 205 260 234 246 216 217 237 210 256 241 243 259 230 326 186 197 248 200 236 262 198 241 180 277 192 302 283 166 288 281 229 226 210 219 209 207 202 297 186 289 345 181 280 215 168 314 198 354 228 264 294 239 295 254 164 240 219 183 264 243 201 217 176 252 255 250 235 226 223 265 291 256 263 222 264 246 270 223 230 189 268 252 191 266 199 234 342 278 222 124 236 124 263 325 276 320 399 226 233 256 212 178 310 186 241 193 283 302 237 296 303 299 230 273 184 227 221 183 202 307 180 224 255 251 204 308 229 333 192 262 215 302 148 159 337 174 342 167 308 270 297 301 256 211 180 119 254 330 255 226 193 280 287 247 256 230 243 292 187 252 214 254 159 221 199 296 231 295 276 194 160 333 281 323 277 275 285 286 266 252 180 260 300 210 258 230 242 238 248 191 129 246 259 227 208 241 264 229 198 257 285 200 286 219 223 255 245 193 179 264 328 236 200 225 228 258 197 140 155 241 357 233 231 266 231 191 303 301 242 265 225 204 303 274 328 157 337 256 258 173 234 337 209 233 237 288 241 222 207 258 203 343 306 146 234 214 238 251 298 259 176 118 263 263 132 239 259 242 264 319 234 196 167 248 199 295 222 292 224 234 241 207 151 230 146 234 198 282 114 291 213 230 239 188 299 220 232 241 169 265 216 245 250 201 263 186 174 280 267 215 230 244 243 175 220 298 283 315 274 186 239 210 267 262 193 222 263 319 234 271 270 166 175 347 249 194 186 328 209 235 263 213 300 293 163 313 241 252 216 228 204 199 275 168 169 223 303 220 275 217 263 291 236 178 187 209 249 285 168 282 227 262 152 184 215 349 328 270 231 125 126 266 217 205 277 225 184 251 277 222 257 177 293 228 201 200 233 213 270 222 303 245 274 287 223 135 232 261 228 301 356 211 268 165 288 210 167 213 211 276 184 279 228 163 198 213 221 173 266 254 189 224 248 164 310 342 280 240 250 210 252 249 250 227 284 294 257 189 281 93 272 361 207 220 160 310 307 188 174 247 244 262 226 321 175 277 170 148 197 189 188 314 207 170 193 156 214 206 153 245 310 225 249 320 337 330 240 257 243 130 318 228 179 184 365 242 185 220 182 229 201 318 340 257 273 219 206 305 286 253 264 361 234 254 260 237 199 221 270 205 326 133 291 282 241 207 259 192 234 325 270 260 239 275 319 331 226 168 221 299 170 296 308 217 214 260 210 268 183 328 359 183 244 328 191 199 276 172 246 230 200 272 250 295 234 356 277 401 226 234 306 246 285 352 277 293 191 234 86 243 160 301 205 224 215 267 221 222 263 249 230 341 257 194 322 266 234 354 239 277 174 250 285 248 237 273 269 319 196 272 197 253 166 240 276 254 257 314 257 253 162 199 164 265 284 250 199 225 311 169 165 235 235 195 196 193 277 238 362 255 210 217 203 209 196 310 295 274 311 270 311 296 257 268 274 237 217 249 263 225 151 369 277 234 336 245 292 180 233 203 235 255 313 212 228 301 222 235 205 266 252 275 201 207 268 223 217 272 298 255 233 252 275 229 168 109 247 156 251 306 315 267 250 228 196 176 189 282 270 275 282 220 252 165 209 288 298 268 204 225 231 162 243 222 255 194 333 194 251 197 250 189 259 228 265 260 218 238 176 302 282 199 259 191 243 240 337 303 170 297 330 172 259 172 189 205 231 220 286 281 213 257 187 268 267 210 322 243 280 204 384 328 264 301 241 276 280 158 252 233 246 231 353 301 150 327 203 195 146 209 325 240 242 293 245 173 162 213 298 238 267 204 180 212 240 305 208 236 289 226 275 314 218 273 230 310 250 216 195 232 209 276 194 253 247 211 299 257 280 235 180 290 244 174 288 272 230 287 321 204 244 242 200 284 265 281 239 226 318 201 217 213 302 251 178 236 154 308 231 254 241 209 310 197 261 314 200 335 256 283 242 236 188 229 214 92 267 152 250 242 217 251 297 255 398 220 222 287 233 252 332 223 337 230 210 178 248 320 301 275 241 195 235 223 349 339 181 251 250 219 255 191 294 248 261 170 265 348 240 327 203 315 297 172 223 276 296 200 210 281 225 321 174 148 282 194 281 241 217 206 196 303 177 273 239 248 219 224 272 262 251 226 360 206 296 249 261 207 326 318 208 293 192 247 221 286 202 189 278 252 174 193 361 244 208 285 199 179 244 217 288 260 254 294 302 263 167 329 246 162 206 328 349 193 178 295 225 233 385 148 277 285 249 343 269 281 145 253 226 246 295 295 255 198 239 210 301 260 313 245 267 339 206 272 178 191 219 326 116 181 328 210 214 199 190 277 203 212 252 332 311 317 347 256 313 311 279 418 226 288 233 282 223 248 277 291 240 218 281 203 234 273 201 294 202 202 110 218 157 268 262 244 291 325 285 152 243 294 264 318 249 243 236 185 221 221 244 162 239 223 193 146 249 225 263 344 250 227 369 255 267 255 263 163 239 326 202 253 285 289 195 206 248 157 205 264 254 218 251 260 259 361 301 213 205 255 168 245 244 198 235 134 330 298 286 209 250 183 243 264 266 219 307 238 331 243 251 229 212 206 230 299 206 159 136 201 239 203 198 328 195 230 164 222 171 220 227 249 220 245 276 171 275 266 247 309 228 185 328 126 261 182 191 235 215 316 116 273 328 169 351 318 232 205 261 236 359 294 260 249 202 308 233 219 231 235 269 299 218 148 250 155 298 315 312 240 288 289 253 136 261 137 180 234 266 278 164 236 280 226 286 304 195 286 255 221 347 227 283 270 199 155 214 193 219 250 233 237 204 190 206 238 272 209 217 221 182 200 237 190 222 210 306 221 257 256 233 259 207 318 226 234 195 240 322 270 206 188 220 229 246 221 206 240 299 258 241 265 205 331 251 266 261 171 215 279 235 320 252 290 186 192 260 293 274 126 345 217 290 284 178 286 202 165 344 235 123 261 240 204 176 243 292 232 166 206 291 230 179 242 190 211 317 320 286 305 285 303 202 147 245 359 243 239 306 266 214 254 178 257 255 238 161 153 309 270 199 274 250 285 231 269 187 323 250 280 281 279 227 164 332 209 150 241 176 291 256 249 282 239 235 193 222 189 275 242 236 194 252 187 200 385 166 210 243 361 295 221 178 201 264 184 311 106 375 244 271 213 231 205 239 248 178 264 161 310 248 221 239 228 188 273 105 280 315 229 228 242 257 303 213 250 255 185 224 274 252 272 317 255 227 224 311 228 248 286 237 272 311 284 235 253 322 161 234 180 239 286 251 222 253 205 250 245 203 268 226 230 178 237 209 244 274 325 190 213 261 202 172 249 230 297 239 231 222 276 347 205 268 278 214 221 189 274 203 256 376 299 230 341 253 199 281 225 349 312 262 280 215 290 265 193 283 244 234 256 290 213 243 341 222 206 367 260 279 189 195 230 259 199 314 327 259 212 167 278 249 236 250 223 192 205 277 244 191 229 198 226 177 214 189 254 231 195 273 184 179 225 341 256 203 338 214 298 199 194 273 177 240 219 203 174 341 162 232 243 257 207 255 231 221 336 167 263 221 220 233 220 266 260 240 251 278 152 376 186 172 183 228 267 295 241 181 309 196 313 295 152 160 288 250 102 234 248 302 286 256 275 156 241 298 174 312 317 166 237 151 249 313 271 173 332 229 285 239 191 289 161 267 272 224 342 293 286 307 272 238 252 271 231 226 253 287 330 182 231 253 196 286 237 356 236 177 239 247 278 247 156 211 284 212 245 208 263 232 221 198 264 166 290 254 224 275 167 226 215 152 322 279 232 244 229 252 195 225 186 246 339 176 324 304 210 267 321 247 246 238 209 238 288 262 215 264 211 266 369 253 171 184 337 261 252 223 332 228 303 199 280 222 295 216 299 237 209 308 290 177 201 234 235 232 236 190 192 292 222 268 254 245 234 237 208 235 196 296 289 353 193 341 294 241 264 261 205 270 212 197 265 192 382 164 269 199 254 169 195 227 208 249 250 172 254 183 249 256 212 272 160 243 146 209 336 252 232 212 184 246 252 233 279 177 290 281 271 293 254 210 222 275 272 305 238 237 360 215 217 177 352 289 213 207 280 184 344 330 284 202 230 222 179 280 247 324 299 222 264 215 196 283 200 231 173 262 279 190 290 297 252 235 190 237 193 329 206 195 255 219 220 290 250 210 187 197 244 248 192 244 241 300 254 255 294 300 408 268 313 192 215 179 258 338 295 243 224 175 222 282 325 200 260 296 228 243 237 259 268 262 234 252 271 291 217 356 182 151 311 187 226 201 284 229 240 241 149 237 201 259 250 245 200 311 241 292 239 277 214 264 254 275 270 232 195 131 244 245 224 175 297 237 271 283 306 206 291 284 248 265 332 243 207 226 296 319 365 281 257 220 212 197 233 174 293 273 227 285 261 209 166 321 112 187 228 306 297 312 319 211 178 235 240 281 265 244 215 323 220 220 282 264 253 172 272 243 221 243 218 254 273 167 113 294 254 141 174 292 199 350 268 205 259 271 326 299 245 242 289 206 161 265 279 241 282 203 258 179 173 196 303 239 223 146 242 214 262 256 326 238 155 171 238 278 210 207 168 222 202 285 290 227 198 322 215 174 301 241 252 204 232 186 230 258 142 219 241 297 294 213 168 249 297 221 261 263 208 310 244 207 185 227 187 195 172 244 222 248 290 221 229 327 218 214 204 259 273 210 175 255 132 287 239 236 327 184 248 168 202 206 223 214 170 328 192 211 280 147 306 225 278 311 198 258 284 297 195 247 235 223 236 310 241 196 204 294 237 201 214 335 205 184 256 236 228 270 242 255 185 327 290 262 202 192 223 219 280 240 174 211 257 251 373 218 207 295 388 329 242 267 253 271 150 269 272 235 250 277 181 168 243 248 235 286 235 203 182 185 262 299 207 325 200 326 224 322 205 179 244 173 177 208 191 241 219 184 194 234 204 180 210 228 225 379 290 214 202 260 258 228 195 151 185 159 247 239 282 270 294 220 237 304 245 344 238 305 229 211 186 232 264 238 211 250 298 281 284 192 216 228 221 217 209 290 154 190 206 238 238 198 214 245 171 276 226 208 278 275 205 275 267 303 216 253 182 353 279 277 308 204 276 233 249 213 276 284 209 315 166 311 200 199 302 216 258 286 210 195 196 193 308 180 234 264 268 269 260 205 250 244 291 242 257 193 191 208 289 253 211 314 263 266 222 286 361 213 237 369 273 147 262 281 297 305 259 238 204 276 220 265 331 234 156 251 274 144 146 155 301 290 221 221 220 320 181 194 204 289 200 196 238 240 265 369 198 321 303 312 258 227 266 283 248 236 243 253 256 253 231 300 256 293 144 301 304 270 235 267 318 232 275 268 203 248 182 221 193 229 229 286 216 271 204 226 257 212 361 286 273 220 246 310 254 157 287 275 295 184 254 304 202 158 280 224 300 180 160 303 175 245 239 184 270 140 148 250 273 155 176 241 263 245 302 199 333 178 246 220 240 214 202 232 295 212 257 257 179 250 169 338 235 184 282 259 249 242 221 218 194 263 261 269 293 232 286 222 243 220 256 238 304 266 201 279 247 317 232 275 254 207 214 263 211 195 242 164 296 160 288 302 288 240 175 202 279 236 268 268 166 191 247 257 240 211 252 220 225 242 213 228 211 260 169 295 241 215 210 287 236 355 229 344 289 283 190 259 175 271 264 220 218 298 206 300 270 293 248 326 267 234 285 291 189 296 190 285 254 238 277 208 281 385 292 229 310 227 366 174 187 261 220 274 358 171 242 202 300 331 318 157 266 283 193 270 284 249 226 236 162 218 153 180 221 213 280 256 241 309 148 293 194 292 212 231 227 265 252 254 226 279 229 220 249 204 213 284 280 222 221 293 314 188 244 200 192 257 227 315 259 184 220 203 320 322 126 276 244 294 254 269 341 170 205 215 241 354 229 242 171 212 251 263 166 161 318 327 248 294 156 281 226 237 267 214 213 177 243 202 319 346 216 237 205 337 225 244 227 248 262 256 318 263 265 197 251 271 232 190 243 166 284 245 221 237 261 163 231 270 150 171 232 216 254 255 240 243 213 285 244 230 185 233 191 282 200 194 265 271 236 202 342 242 247 237 204 196 169 208 322 269 279 184 297 259 214 232 217 189 158 264 318 198 145 248 265 221 266 295 248 327 223 297 200 252 178 204 257 286 272 197 328 145 256 254 284 203 181 247 296 210 271 297 211 233 225 301 283 179 243 293 144 291 171 168 254 310 259 305 195 250 222 309 304 213 206 276 257 296 232 174 336 192 269 212 295 276 198 271 183 204 227 343 196 233 265 234 182 269 163 217 211 326 285 244 226 319 201 240 274 291 284 224 301 115 343 219 257 222 281 328 158 253 231 331 176 302 284 180 143 190 135 233 196 269 285 225 242 213 156 196 221 183 321 160 224 265 269 147 232 288 268 280 156 253 263 235 203 351 245 170 206 243 158 274 242 269 195 246 319 189 233 208 306 218 172 213 232 350 352 92 261 240 159 219 258 160 281 266 157 256 193 320 272 206 289 286 246 318 266 295 253 271 288 212 228 333 279 230 157 223 231 210 279 366 242 282 221 212 191 281 227 253 235 258 237 252 305 255 172 263 253 271 251 220 271 221 280 243 248 214 251 235 213 320 257 265 247 224 274 170 226 249 277 409 373 247 236 155 251 210 263 281 252 268 266 273 140 360 311 189 217 307 304 160 229 166 255 288 317 172 338 110 256 184 226 228 235 290 318 195 323 227 252 223 185 220 221 234 165 198 173 266 404 227 185 263 375 218 255 211 254 221 227 316 333 210 364 188 157 221 260 173 251 235 228 130 246 200 305 259 206 118 282 262 196 242 205 226 188 170 185 291 236 301 335 217 307 153 205 288 214 187 172 121 308 255 237 226 305 248 318 219 273 232 231 162 212 238 150 333 184 317 253 139 296 208 369 285 197 408 287 250 260 294 312 129 250 193 242 227 278 181 228 271 109 262 264 241 265 281 189 235 138 298 292 222 158 253 119 299 197 228 252 219 246 250 262 245 273 247 297 266 276 219 307 285 218 263 250 142 292 167 264 208 309 241 291 220 250 261 243 211 169 313 252 229 242 211 195 267 178 216 261 181 277 301 218 298 189 295 293 265 286 239 257 254 291 248 223 298 259 196 257 289 245 240 315 285 219 205 149 252 197 307 287 157 197 189 131 218 279 162 214 218 299 275 238 267 226 289 228 183 266 279 275 297 292 148 117 240 398 215 197 246 158 308 238 233 175 293 224 202 207 340 197 191 227 320 284 270 287 300 226 202 285 303 221 238 224 298 310 179 186 246 278 345 311 201 225 185 224 237 212 291 285 148 297 236 277 182 177 300 242 394 202 264 277 150 161 199 255 259 186 230 261 167 264 279 211 159 286 175 247 195 222 273 192 302 249 243 176 181 216 190 143 249 296 149 260 267 226 255 242 262 269 189 258 293 177 229 300 181 223 239 281 247 161 228 220 285 342 347 343 227 207 198 211 269 272 258 206 188 208 121 300 193 427 275 246 301 261 296 200 185 166 256 202 187 280 213 204 221 221 253 233 332 262 198 320 286 264 259 269 231 268 196 212 265 332 331 210 190 257 186 249 203 228 297 231 230 251 322 268 307 241 205 153 177 311 237 281 240 177 239 150 236 289 310 227 276 235 304 175 269 249 318 116 206 246 259 199 224 270 163 223 139 301 185 175 279 301 144 330 302 359 141 175 204 374 229 219 176 265 256 211 208 146 295 301 297 202 232 298 289 166 173 196 282 236 238 266 210 195 327 227 276 362 249 212 208 150 232 280 258 324 239 293 203 283 243 151 270 216 201 220 209 189 179 177 202 319 294 177 256 270 278 234 244 315 211 223 252 292 291 263 192 200 260 234 226 191 154 194 208 220 159 275 223 245 228 149 294 250 159 182 130 252 240 193 189 142 259 268 200 235 275 199 269 243 328 225 233 194 226 223 225 247 294 249 212 163 249 317 245 193 203 251 207 246 194 222 277 264 271 243 272 254 248 213 285 183 320 192 286 366 108 233 240 290 307 251 283 283 251 139 211 312 290 279 183 200 182 248 273 268 183 178 270 194 257 271 198 242 164 295 297 227 164 243 266 206 280 250 161 299 199 341 288 231 251 239 189 152 211 359 260 205 153 137 252 336 277 239 222 277 260 275 228 227 265 272 275 281 279 212 288 294 197 360 189 257 263 253 238 220 210 173 195 264 263 246 206 141 303 314 257 269 242 178 293 218 176 269 255 216 272 206 240 196 341 255 237 306 257 159 232 318 239 268 160 215 192 239 218 197 275 188 239 227 274 193 259 178 242 238 209 207 344 214 259 246 187 273 322 217 248 159 173 206 231 190 200 210 229 301 250 209 242 298 277 239 276 335 170 179 312 252 207 317 171 196 247 266 236 190 169 227 190 269 158 299 309 279 306 248 265 242 241 287 202 262 153 148 213 179 223 230 223 222 261 209 220 344 270 236 198 248 249 289 209 194 191 271 167 219 144 245 247 218 319 353 101 240 269 215 242 233 212 337 264 251 275 235 286 227 251 218 200 317 310 220 259 188 217 240 240 165 203 239 255 259 194 264 315 337 174 203 336 236 222 194 237 162 195 334 277 226 216 258 320 257 210 241 199 233 246 218 304 193 164 286 270 227 340 275 256 252 263 315 226 140 262 275 149 221 254 332 119 246 210 282 236 202 279 282 242 285 256 234 177 287 300 299 256 176 292 212 256 297 224 277 260 204 295 164 225 322 268 323 192 206 265 244 256 221 214 247 240 189 265 218 274 224 296 299 196 281 133 192 274 247 269 269 227 238 226 263 238 228 216 275 250 301 238 204 206 256 190 314 273 241 264 240 288 302 203 265 255 227 266 278 156 314 249 281 197 330 228 237 244 219 274 152 257 281 235 268 165 280 194 302 229 236 118 196 224 254 170 171 294 314 348 265 210 237 156 87 168 261 306 238 239 278 270 282 195 259 154 240 108 293 291 311 279 293 90 262 289 222 316 210 298 267 306 226 251 222 262 256 237 237 274 339 179 210 187 182 267 262 268 269 247 280 280 237 203 289 224 310 262 239 194 372 213 224 161 306 323 147 233 252 204 209 242 290 201 322 186 237 352 127 198 276 242 202 133 301 230 227 197 112 227 240 211 198 240 229 271 196 236 235 243 237 251 192 306 195 211 290 282 217 205 194 341 158 235 265 187 255 285 274 218 249 213 205 273 216 267 244 279 230 296 196 196 237 225 311 260 215 332 194 254 222 228 147 238 153 259 191 208 272 232 311 275 206 237 175 263 291 194 209 280 269 339 246 302 240 334 200 291 260 257 199 224 162 178 272 220 231 181 194 174 279 298 235 163 221 253 225 334 193 204 242 264 305 249 211 197 263 226 317 208 229 250 239 269 199 267 326 215 190 269 225 308 130 243 295 263 281 211 307 268 183 289 278 244 169 203 131 293 117 261 219 216 283 245 201 157 296 172 311 363 200 286 151 214 187 300 219 276 262 279 301 275 220 247 193 209 212 278 156 203 223 191 204 200 169 320 234 124 254 142 200 188 291 198 139 214 257 227 291 249 204 251 251 218 245 194 317 306 212 267 242 203 299 198 264 317 165 203 297 287 263 213 275 343 263 259 294 211 179 328 235 198 276 274 357 195 222 272 262 414 291 230 225 184 285 277 180 274 206 219 271 163 234 209 168 254 241 300 292 309 239 230 259 272 261 220 196 254 313 216 308 221 192 228 229 153 227 323 169 276 377 250 243 299 213 276 211 279 285 274 207 213 286 185 201 232 258 217 289 178 194 189 133 274 244 204 270 210 223 274 270 188 172 271 308 219 246 223 234 292 263 176 221 179 359 241 245 239 250 205 253 231 229 245 232 205 160 252 321 234 303 288 243 217 274 228 192 269 278 202 260 185 180 252 239 241 264 272 177 266 148 264 190 244 254 277 301 234 248 315 202 216 276 228 261 265 188 250 204 237 314 278 302 241 227 322 211 236 312 273 239 307 256 143 146 192 278 200 209 371 273 295 261 245 187 266 317 261 195 216 218 256 259 270 157 235 310 386 243 228 156 207 255 236 242 222 242 278 212 217 316 215 225 143 200 243 209 187 265 227 221 224 210 195 309 335 247 213 238 220 234 284 231 169 214 215 178 326 223 291 335 275 251 248 183 233 234 307 221 277 220 249 236 296 260 301 199 172 174 263 274 193 188 247 179 234 232 273 199 213 231 311 407 226 210 271 298 333 202 272 189 209 252 230 112 248 191 201 239 225 275 309 232 203 300 245 262 373 201 342 206 191 143 215 179 145 192 183 222 221 234 295 254 283 230 199 198 284 190 280 238 279 277 216 277 216 152 175 204 319 216 228 214 263 155 196 325 263 256 241 167 171 204 232 265 284 212 242 235 238 212 248 238 187 270 131 281 230 236 238 239 254 230 291 264 212 202 229 298 267 214 257 250 235 345 230 180 265 261 201 219 265 243 176 157 253 267 331 212 312 255 195 236 300 278 241 237 247 286 252 232 185 291 181 247 225 183 220 227 250 208 222 247 307 275 195 305 143 220 223 218 241 219 205 227 160 280 300 227 273 339 240 241 233 200 229 284 255 206 221 297 245 306 138 235 255 208 139 182 173 231 216 194 221 295 188 200 217 238 309 250 207 306 170 303 219 193 260 148 230 224 262 229 212 232 207 286 224 249 258 237 232 241 285 225 185 257 229 247 196 144 279 180 197 285 259 227 361 322 194 189 254 323 251 177 249 218 188 227 194 264 261 193 237 240 208 159 201 185 242 200 235 200 232 229 261 196 165 177 306 222 300 176 200 187 293 170 167 294 329 243 211 205 175 234 279 324 238 257 204 230 232 216 215 289 187 239 274 184 254 180 209 183 257 314 280 165 239 124 217 333 277 281 169 283 280 185 341 216 320 268 299 231 222 268 278 328 323 215 300 276 273 307 212 297 269 314 196 213 245 322 219 249 237 237 262 266 257 211 235 255 241 199 408 268 256 261 227 262 195 263 186 247 292 275 263 229 281 230 211 192 214 269 211 283 275 166 208 210 199 222 318 156 184 272 344 259 199 344 213 292 221 194 231 207 231 359 280 194 208 206 177 308 275 279 163 190 272 278 185 247 209 240 302 232 289 259 166 253 196 162 211 218 266 255 329 300 239 292 203 208 269 200 186 247 199 225 255 281 273 186 205 192 226 276 296 277 216 253 240 165 335 300 247 265 276 167 256 278 198 196 259 139 243 253 318 272 315 278 173 240 249 251 241 245 236 235 259 354 248 259 213 391 247 210 315 253 244 265 234 254 250 226 258 365 286 309 254 268 252 304 259 205 208 317 228 270 210 205 143 281 275 321 258 273 168 224 171 293 186 204 170 270 175 305 225 190 201 220 229 297 312 275 292 174 275 212 210 133 163 268 282 164 245 324 216 251 265 335 186 212 293 265 156 355 170 236 282 253 201 249 256 187 251 253 286 244 327 256 229 268 324 317 153 262 250 249 199 241 266 254 234 257 192 307 252 205 248 173 265 227 161 238 222 187 288 185 204 205 185 273 199 270 195 202 246 342 211 154 315 204 261 278 244 286 289 286 308 265 216 242 212 207 136 210 231 268 206 271 283 271 216 249 236 254 404 244 249 293 236 258 204 213 283 265 278 235 274 232 269 221 222 222 317 251 183 253 252 324 197 241 189 282 221 226 185 205 242 194 262 177 164 285 202 222 254 261 282 256 213 227 213 211 144 254 223 223 299 307 197 238 235 286 302 263 226 222 277 256 278 268 232 324 176 291 171 226 196 183 216 285 260 262 252 237 203 225 205 283 150 224 137 294 315 273 250 373 219 215 211 287 225 215 176 335 257 166 274 277 230 218 225 270 309 236 289 183 165 262 366 224 279 258 216 217 276 152 270 177 258 315 288 206 240 296 292 274 255 192 253 165 203 234 201 249 290 215 284 201 174 253 257 244 236 275 280 198 219 340 243 271 214 232 192 185 238 248 226 367 221 293 214 214 284 221 255 244 233 294 268 200 298 235 189 248 274 223 267 275 151 228 218 141 175 240 274 221 207 292 177 319 283 261 408 206 271 306 146 177 270 304 343 230 340 288 266 222 279 234 247 227 209 214 266 155 184 270 222 266 338 220 261 283 332 223 299 280 222 272 314 199 291 194 293 267 201 200 307 271 223 246 212 256 357 197 216 208 258 316 281 177 289 173 200 219 256 226 202 275 377 208 179 236 194 303 271 234 277 269 201 188 303 233 255 276 267 251 312 331 289 197 222 327 196 236 206 150 239 158 182 258 219 248 246 258 271 263 251 230 328 218 251 222 267 176 150 281 193 275 196 245 270 216 300 211 246 284 340 151 171 148 208 262 255 253 295 329 195 227 281 254 150 196 206 203 232 338 183 249 236 322 284 205 262 238 270 299 248 247 246 254 229 184 291 261 207 237 238 342 192 254 127 261 199 334 251 258 292 174 189 200 177 177 272 275 327 204 203 215 308 302 265 196 250 342 283 325 174 246 247 204 278 210 301 181 247 226 171 282 321 219 255 304 279 283 240 242 260 329 295 312 297 169 286 284 231 217 226 292 241 171 267 262 327 166 216 162 187 244 266 290 265 220 278 226 220 251 213 323 196 268 173 198 173 173 181 171 267 318 131 231 278 358 258 298 218 177 213 246 265 178 176 218 231 271 210 337 276 176 235 159 191 261 311 244 216 153 270 254 286 323 287 168 227 205 277 270 347 155 322 271 235 166 166 165 259 219 233 192 268 260 237 199 289 309 258 256 227 207 217 235 288 289 220 223 300 187 285 345 277 215 296 222 293 384 208 301 169 320 221 282 218 204 234 154 209 233 231 261 183 300 254 286 264 307 288 155 246 278 209 262 246 283 284 278 163 287 229 281 158 166 252 242 277 232 226 358 231 255 229 214 255 225 235 218 247 259 202 197 261 288 249 198 206 242 284 400 249 303 179 190 259 240 185 340 241 182 174 216 364 379 208 197 259 313 270 225 249 206 263 266 222 186 206 157 206 150 238 305 223 263 325 254 135 211 250 193 248 234 250 234 237 279 237 313 267 215 293 235 230 197 233 207 198 327 190 276 256 227 159 283 293 260 261 208 344 242 193 232 334 254 276 234 229 206 155 176 259 244 225 286 352 218 215 274 146 189 240 330 279 274 300 295 227 260 205 268 216 205 235 244 207 202 190 265 152 208 223 171 166 162 217 215 237 258 140 315 216 304 227 283 218 266 229 172 197 320 266 230 283 296 256 326 269 297 290 244 246 356 185 290 212 217 287 343 276 283 309 164 240 197 225 253 138 230 140 264 324 302 313 249 227 258 270 217 304 225 192 187 278 248 267 215 205 270 175 228 223 276 287 165 215 253 231 190 239 229 253 304 226 327 172 231 257 161 271 288 172 246 210 231 203 344 192 206 250 293 245 315 238 193 171 261 270 234 168 265 215 318 233 315 177 287 259 267 277 232 246 200 228 248 230 250 260 195 235 224 204 246 216 237 194 222 194 264 273 183 233 279 300 231 181 254 311 262 200 227 260 299 269 234 232 208 286 325 322 341 190 225 284 210 317 187 297 284 192 280 256 292 214 278 239 189 177 149 271 244 221 235 305 296 229 284 281 323 207 296 325 275 168 252 252 243 278 196 313 240 249 209 198 224 227 261 304 277 153 238 190 242 195 289 249 198 263 149 289 304 210 274 258 211 291 139 186 159 268 230 242 275 211 194 257 314 200 212 229 174 180 233 255 278 295 140 241 293 242 188 253 246 253 230 218 279 264 180 227 282 270 289 162 239 246 184 201 198 210 299 289 341 255 306 214 188 224 197 202 205 181 248 217 263 290 185 163 289 281 234 238 259 259 263 272 231 310 187 270 310 295 156 240 203 283 287 301 254 153 337 124 139 209 257 302 229 177 261 168 281 277 233 250 259 217 219 323 312 231 208 285 288 204 141 267 183 199 334 261 219 258 285 231 304 313 282 256 224 159 222 231 234 148 208 152 129 360 245 219 306 255 269 201 226 283 203 212 266 229 276 273 213 213 307 250 120 294 243 204 276 272 257 274 208 250 274 225 236 265 256 258 201 220 213 211 212 216 152 245 206 292 248 213 324 190 237 329 261 238 220 276 158 176 238 218 324 255 233 195 262 171 320 186 345 276 313 246 267 280 269 231 242 281 174 203 263 229 135 303 142 421 252 217 173 182 282 162 248 210 275 173 244 261 339 320 279 212 265 154 208 267 186 191 302 266 294 337 230 242 379 219 231 262 210 197 252 238 252 189 248 175 293 211 210 281 266 293 206 300 225 237 254 154 262 315 190 193 175 209 214 235 247 325 213 216 326 154 194 287 287 286 246 199 277 279 317 224 191 197 197 174 255 235 302 222 256 281 195 235 189 281 257 243 223 300 195 303 291 276 191 196 301 228 249 205 243 207 270 270 183 250 210 289 204 307 308 248 230 213 219 223 253 324 193 345 249 229 247 176 229 224 112 190 244 274 305 307 294 230 254 267 260 303 303 340 186 212 232 234 234 323 241 262 188 223 213 286 170 196 252 343 217 137 332 289 252 213 248 260 346 177 292 183 247 195 243 224 243 238 237 258 329 259 185 156 366 229 208 225 151 111 263 245 331 218 286 213 277 307 280 225 246 196 219 140 348 156 263 245 260 168 244 259 169 239 171 282 228 171 220 193 269 188 307 171 220 267 226 225 167 247 288 197 304 216 244 213 267 272 316 279 191 329 214 318 321 179 233 262 184 192 276 220 343 344 269 299 253 195 351 138 221 336 208 313 174 278 264 212 189 218 229 229 192 234 263 267 244 173 277 189 268 218 213 231 221 232 202 327 237 198 214 256 264 189 234 262 248 205 266 276 235 282 244 250 299 301 244 178 291 216 240 184 237 204 261 171 201 218 211 153 133 258 306 219 237 331 340 286 250 299 236 268 257 202 225 229 237 287 260 171 292 220 328 196 205 312 297 243 296 237 212 199 303 189 199 175 193 236 201 243 262 168 346 322 205 230 304 281 292 281 219 387 194 172 155 227 327 221 232 264 291 270 244 318 226 262 217 294 176 221 162 196 261 227 279 196 289 235 204 265 252 252 204 219 206 232 242 311 246 261 217 268 266 187 224 226 278 309 323 186 199 362 142 288 299 377 254 281 332 258 280 337 176 254 276 292 221 222 282 237 230 203 231 208 213 211 238 239 278 162 259 273 287 189 232 276 218 294 210 266 259 213 207 298 270 288 232 329 191 191 269 217 258 247 217 278 288 310 206 211 177 226 264 185 197 327 291 208 320 202 235 155 221 187 272 181 256 338 194 246 276 218 168 229 260 277 305 251 263 223 244 209 268 251 340 307 184 223 278 220 261 183 182 206 211 303 164 265 208 307 187 222 274 207 270 247 209 267 244 208 296 241 196 201 238 278 247 264 245 244 306 291 289 265 220 295 227 229 338 153 231 218 185 259 178 207 239 273 337 163 228 161 323 321 366 237 194 221 247 160 263 230 220 240 165 213 207 259 287 296 143 290 126 194 195 248 228 267 234 299 267 148 278 246 321 290 213 373 241 232 265 214 254 249 298 254 230 187 200 266 217 242 225 146 173 250 301 308 232 272 292 272 218 344 234 249 226 243 302 277 189 332 180 288 246 253 208 262 207 233 368 271 127 213 183 179 257 316 280 299 334 277 221 212 284 250 285 210 302 258 199 300 208 239 217 155 178 234 261 293 238 206 237 247 200 274 278 220 259 231 238 215 212 233 242 205 216 293 148 326 168 346 217 194 257 152 216 156 315 246 244 382 202 219 314 313 199 303 279 162 292 276 283 232 217 286 230 377 275 263 166 232 232 224 242 234 248 177 227 206 240 320 368 225 196 225 233 191 257 196 238 208 283 277 252 324 196 302 292 244 179 264 177 207 272 196 228 255 388 244 228 258 247 280 293 270 222 269 239 181 284 269 223 215 198 288 200 268 291 156 147 339 213 304 306 215 294 214 173 270 211 275 185 280 126 168 328 351 149 306 232 214 165 336 273 193 248 163 196 266 193 390 241 248 187 227 240 263 226 173 279 270 229 195 346 225 274 201 344 241 287 199 195 248 183 371 294 180 212 293 279 188 272 178 204 322 232 279 261 263 328 219 235 199 219 194 184 296 187 285 218 234 272 215 204 234 271 308 151 252 346 145 241 250 290 265 218 182 226 169 272 203 280 263 202 225 160 309 295 248 212 283 201 148 178 349 255 201 290 279 288 234 267 200 275 341 237 275 224 243 232 225 329 378 226 277 171 238 268 214 231 328 220 243 189 2</t>
+  </si>
+  <si>
+    <t>F(1.4397263716806328, 1.2228878725253847, -1.3243832187893344e-31, 1.3389966018438875)</t>
+  </si>
+  <si>
+    <t>2 0 2 0 1 1 0 1 0 1 3 1 1 4 0 2 3 2 1 0 2 2 1 0 1 2 1 1 1 1 2 2 2 1 1 1 2 1 0 0 1 1 1 4 2 2 1 1 1 3 1 3 3 1 3 1 1 3 3 1 2 4 4 3 3 0 0 0 2 1 2 1 1 1 2 2 2 0 3 2 1 3 1 1 1 2 2 1 1 2 1 2 2 2 0 2 1 1 1 2 1 2 0 1 2 2 0 0 2 0 2 0 1 1 2 0 3 2 2 2 0 0 1 0 2 2 1 1 1 2 1 1 1 2 2 1 0 3 2 2 1 0 0 2 0 3 2 2 2 0 1 1 1 2 0 0 2 3 2 0 1 0 4 0 2 2 2 2 1 2 1 0 0 2 2 0 2 2 3 1 3 1 1 1 1 0 3 1 4 1 2 1 0 1 1 2 1 1 3 0 2 2 0 1 1 1 1 0 3 1 1 1 2 2 3 1 2 4 1 1 2 0 1 0 1 2 0 1 1 2 2 2 0 1 2 1 1 2 3 2 1 5 0 1 1 0 1 2 3 4 3 2 3 2 2 2 2 0 1 0 1 2 2 1 1 1 3 2 1 2 0 3 2 1 1 2 0 1 0 4 0 1 1 0 0 1 2 2 0 2 0 0 0 1 1 3 1 3 1 1 0 1 3 0 0 2 1 0 1 1 1 2 3 1 2 0 0 2 2 1 0 1 3 3 4 3 1 1 2 1 1 0 2 1 1 1 1 0 2 0 2 1 0 0 1 4 1 0 2 0 2 0 0 1 1 2 1 1 1 2 1 1 2 1 4 1 1 0 2 0 2 0 2 0 1 2 4 2 1 1 2 2 1 2 1 1 0 0 0 2 2 0 1 3 3 1 3 3 2 1 1 1 0 1 3 3 2 0 1 2 2 1 0 0 1 4 0 1 0 1 2 1 1 3 0 1 1 1 1 1 0 1 0 1 1 2 1 0 2 1 1 1 1 0 5 1 3 4 3 2 2 1 1 2 1 3 4 1 2 1 0 0 4 1 0 3 2 0 1 0 4 0 1 2 2 3 1 0 1 0 1 0 1 1 1 2 0 1 2 1 0 0 2 0 2 1 2 1 1 1 0 2 4 2 3 0 1 3 2 2 1 3 2 1 2 2 1 0 1 1 2 0 4 1 0 2 1 1 2 1 2 2 1 1 1 0 2 0 4 3 1 1 2 3 0 2 1 2 2 1 2 2 0 2 2 3 2 2 0 1 2 1 0 2 0 0 1 1 1 1 1 1 3 1 1 3 1 2 1 0 2 1 0 2 2 2 3 3 0 2 2 1 3 2 1 2 4 1 1 3 1 0 1 3 2 2 2 2 0 3 1 1 1 1 3 2 1 2 0 1 1 3 1 3 1 1 1 3 2 1 3 2 1 1 1 0 0 2 0 1 2 0 1 1 1 0 1 1 0 2 2 2 2 1 1 1 2 2 3 0 2 1 1 0 3 0 1 1 2 1 3 1 2 1 2 1 3 1 3 0 1 2 2 2 2 1 2 0 3 1 0 2 0 1 0 3 2 1 0 2 1 1 1 2 1 1 1 0 0 2 4 1 1 0 2 1 1 3 0 3 3 1 1 1 1 0 1 1 1 2 0 1 1 1 3 3 1 1 0 1 1 2 1 1 1 1 0 2 1 2 1 0 0 2 1 1 0 0 2 2 1 1 2 1 0 3 1 0 0 1 2 1 2 3 2 0 1 1 1 2 1 2 1 3 1 1 4 1 1 1 2 0 0 3 3 4 0 0 1 1 2 0 0 1 2 1 1 2 0 2 2 2 2 1 1 2 1 2 2 3 1 1 3 2 2 1 1 1 2 3 1 1 1 2 3 1 0 0 1 1 2 0 1 2 2 1 0 1 2 1 3 1 1 0 2 3 2 1 2 1 3 0 2 1 2 2 3 2 1 1 1 0 3 3 1 1 2 1 3 2 2 2 3 1 0 2 2 4 1 2 1 0 2 1 3 1 2 0 1 2 2 1 1 1 2 3 1 3 2 1 3 1 2 0 1 3 2 1 1 2 3 2 0 1 3 1 3 1 1 3 1 0 2 1 1 1 3 2 1 2 2 2 3 1 3 0 0 2 0 2 1 1 1 1 0 1 2 2 0 4 2 3 2 1 2 2 2 1 2 1 1 2 3 3 0 1 2 1 2 2 2 2 1 2 3 1 0 1 1 2 1 2 3 1 2 2 0 2 2 1 3 3 1 3 2 1 1 2 2 1 1 1 1 1 4 2 1 2 2 2 1 2 0 0 1 4 3 4 0 3 2 2 0 4 1 1 1 2 2 0 1 2 2 1 1 1 1 2 1 1 2 1 3 2 1 2 1 0 2 0 2 2 1 1 1 4 0 3 0 1 2 1 5 1 2 0 0 3 2 0 2 3 4 1 2 2 0 2 1 1 3 2 1 1 1 1 3 0 2 3 1 1 2 3 1 2 1 2 2 1 1 2 0 2 2 1 0 2 2 2 2 1 1 2 2 0 0 1 2 0 2 5 0 2 1 0 2 2 2 2 3 1 1 0 2 2 2 1 1 2 2 3 2 1 3 1 1 2 3 3 1 3 2 3 2 3 0 1 1 1 0 0 2 0 1 1 3 1 2 1 0 0 4 1 0 2 1 2 1 2 1 1 1 4 3 0 4 1 3 3 1 1 2 2 1 1 2 2 2 2 3 2 2 0 1 1 0 3 2 0 2 1 3 1 2 0 1 2 1 2 0 1 1 2 3 2 1 1 2 2 2 2 2 2 2 1 2 2 3 0 1 2 2 1 1 0 1 2 1 3 2 2 2 2 1 0 0 1 2 0 3 1 2 1 0 1 0 1 2 2 1 1 2 2 3 1 2 2 3 2 2 0 1 1 1 0 1 2 2 2 2 1 2 0 3 1 3 3 0 2 1 1 1 0 0 1 1 1 2 2 1 1 2 2 2 1 1 1 1 1 2 1 1 1 3 0 2 0 1 2 1 0 1 3 2 3 2 0 0 2 3 2 1 0 2 0 1 1 1 3 2 1 4 2 2 2 3 1 2 1 0 2 0 0 1 3 1 2 0 3 0 0 2 1 2 1 2 4 0 0 1 1 2 2 1 2 2 1 2 1 3 3 1 3 0 2 2 1 2 0 1 2 0 1 2 1 2 2 2 3 2 3 2 1 3 0 1 1 1 1 3 1 4 2 2 0 1 2 2 2 2 2 3 3 2 0 0 1 3 1 1 5 0 3 3 1 1 3 2 0 1 0 4 0 2 3 0 1 3 1 1 0 2 3 1 2 1 1 0 0 1 4 0 2 3 1 0 0 1 2 1 2 1 1 0 0 1 3 2 1 2 1 2 1 2 1 2 0 1 0 0 2 1 1 1 1 1 1 2 2 0 1 0 2 0 2 1 4 2 1 1 1 1 2 1 2 1 2 4 0 3 0 0 1 2 0 1 2 2 2 3 1 2 1 1 0 1 0 1 1 1 2 1 1 3 0 1 1 2 1 2 0 1 2 0 1 1 0 2 2 1 2 2 0 3 0 2 0 1 1 1 0 1 0 3 2 1 3 2 0 1 3 1 1 0 2 3 1 0 1 1 3 2 0 1 1 0 1 2 2 1 2 3 2 2 1 1 2 1 1 1 4 2 2 0 1 1 1 2 1 0 1 0 0 1 2 2 2 1 1 2 1 0 0 2 3 1 2 1 3 1 2 2 1 3 2 1 1 2 0 2 2 1 0 3 1 0 2 2 0 0 3 1 2 0 0 1 3 1 5 1 1 2 1 2 2 2 2 3 1 1 4 1 3 1 3 3 1 1 3 2 2 2 3 2 1 1 0 1 2 2 1 1 2 2 4 2 1 1 2 2 3 0 2 2 3 3 1 2 1 2 1 1 1 1 0 1 1 1 1 1 1 1 2 2 1 0 2 1 3 2 0 2 1 2 2 2 2 2 2 1 1 0 2 2 4 4 1 0 1 1 1 2 2 2 0 1 1 2 1 1 0 2 1 2 2 1 0 3 1 1 2 0 2 1 1 1 0 0 2 0 2 1 1 2 5 3 1 1 1 2 3 2 0 1 1 0 0 2 2 1 1 0 0 0 3 1 1 1 2 1 2 2 1 0 0 2 2 1 2 2 0 1 2 3 1 2 2 2 1 1 3 2 0 0 1 2 1 2 2 1 2 2 1 3 2 1 1 0 2 2 1 1 2 0 3 0 3 1 2 3 1 1 1 1 1 3 2 1 3 2 0 2 2 2 1 1 1 2 3 1 3 1 0 3 0 4 1 2 2 0 0 2 1 2 0 1 0 1 2 1 1 2 1 2 0 2 1 1 0 1 2 2 1 0 1 1 2 2 2 1 1 2 0 1 1 2 1 2 0 1 0 0 1 1 0 1 2 1 2 4 3 2 3 2 1 1 3 2 0 0 1 3 2 0 3 3 2 0 1 2 3 2 1 3 0 2 2 1 2 3 2 1 2 3 2 0 0 1 2 0 2 1 1 0 0 1 1 0 2 3 1 1 1 1 2 2 3 1 3 0 0 1 1 2 0 1 2 2 2 1 2 1 3 2 1 2 2 2 3 2 0 2 2 2 0 1 0 0 2 1 1 0 3 0 1 1 1 1 2 2 2 1 1 3 3 0 3 2 3 1 2 2 0 2 0 0 0 0 1 1 2 2 1 1 1 2 0 1 0 0 0 0 1 2 0 2 1 1 1 0 0 0 0 0 1 1 0 1 2 1 2 4 1 0 1 3 4 1 1 0 2 2 3 1 1 3 2 1 1 2 1 1 2 2 2 2 3 1 2 1 1 2 0 1 2 0 0 1 2 0 2 2 1 0 1 1 2 1 2 0 3 0 2 2 1 2 2 3 2 1 2 1 1 1 1 1 0 0 2 1 3 0 1 2 2 2 0 2 1 2 0 1 0 2 1 1 2 0 2 1 0 2 1 2 0 2 2 1 1 2 2 0 0 0 2 1 1 2 2 2 0 0 2 2 0 0 4 3 1 1 0 1 2 1 2 0 0 2 2 0 1 0 1 1 1 1 1 1 3 3 3 1 1 2 1 1 1 1 0 2 3 3 3 2 4 1 1 2 1 3 2 3 1 3 3 0 1 2 1 2 1 3 1 1 1 1 2 0 1 1 3 2 2 1 1 1 0 1 2 0 0 1 0 1 1 1 1 2 0 2 2 1 1 1 1 2 2 2 0 1 0 1 1 1 1 0 3 3 1 1 1 1 0 0 2 2 1 3 0 1 1 2 1 2 2 1 0 1 1 1 3 1 2 1 2 1 3 0 2 3 1 3 3 1 5 3 2 1 2 1 2 2 1 0 2 0 2 3 3 2 1 0 0 1 1 3 1 1 2 1 1 2 2 4 1 2 2 2 1 2 2 1 1 1 1 3 2 1 1 3 1 1 1 4 0 2 5 3 2 3 3 1 1 1 1 1 2 3 2 0 2 1 1 1 2 1 1 1 3 3 1 1 2 2 2 0 1 1 2 1 4 2 1 1 0 1 2 0 2 1 1 0 2 1 1 1 2 2 0 0 1 2 2 0 0 0 0 0 1 1 2 1 3 3 1 2 2 1 2 2 2 1 1 1 2 2 1 2 2 1 0 2 1 1 1 1 2 1 1 1 0 2 0 0 2 1 1 1 1 2 2 1 1 1 2 1 0 0 0 3 2 0 2 2 1 1 0 3 1 1 1 1 3 1 0 1 1 0 2 1 1 2 0 2 2 1 3 0 2 1 0 1 2 3 1 1 1 1 1 0 3 2 0 2 0 1 0 1 2 2 0 1 1 0 1 1 1 0 1 0 1 3 3 1 1 1 1 3 1 3 1 1 1 1 2 3 1 2 3 0 2 0 1 1 1 0 3 1 1 1 0 2 2 2 1 0 0 1 0 3 1 0 3 1 2 2 0 2 1 0 1 2 2 1 2 3 0 4 1 1 0 0 2 1 1 3 1 2 1 2 2 1 2 0 3 1 1 0 2 1 0 0 2 1 2 3 0 0 1 3 2 3 2 1 2 3 1 3 0 1 0 1 1 3 1 1 0 3 1 1 1 2 1 0 1 1 0 0 2 1 1 3 3 1 2 0 2 3 1 2 1 2 1 3 2 1 2 2 2 2 2 2 0 2 2 1 0 4 2 2 0 4 1 1 1 2 2 1 0 1 2 2 0 3 0 4 1 0 1 1 3 1 2 2 0 2 1 3 1 1 1 0 3 0 0 1 2 1 1 1 2 0 0 2 1 2 1 0 2 1 1 2 2 3 1 0 3 1 1 0 2 1 3 1 2 1 2 2 2 1 2 2 3 2 2 0 0 0 1 2 2 1 2 2 1 2 0 1 1 2 2 2 2 1 2 1 3 2 0 1 2 0 2 0 2 2 4 3 0 2 1 0 1 2 1 1 1 4 2 1 2 1 1 2 3 2 1 2 1 1 2 2 2 2 2 3 0 1 0 2 1 3 2 1 2 1 2 1 2 2 0 1 4 2 0 3 1 1 2 1 1 2 2 3 3 3 2 1 2 2 1 1 1 1 1 1 1 1 1 1 1 2 0 1 1 3 3 1 2 2 2 1 3 1 1 4 1 0 1 2 1 3 1 3 1 1 0 1 1 1 1 1 3 2 2 0 2 0 2 1 1 3 2 0 2 0 1 4 0 0 4 3 0 1 3 1 1 3 0 0 1 1 2 2 0 4 2 1 1 1 1 2 1 0 1 1 1 2 1 0 1 2 2 1 1 2 2 1 2 2 1 1 2 2 2 2 2 1 2 2 0 2 0 2 0 0 1 1 1 2 2 2 0 1 2 3 2 2 1 0 1 2 2 0 0 0 2 2 2 1 0 1 2 1 2 3 2 0 2 1 2 2 2 1 1 0 2 2 2 1 1 2 4 1 0 1 2 2 1 1 2 1 3 4 2 1 1 2 2 1 2 1 3 1 1 1 1 1 2 2 3 1 1 0 2 1 1 3 1 2 3 1 2 2 2 2 0 1 0 1 0 1 2 0 1 0 1 2 1 1 1 2 2 1 1 1 0 0 0 0 1 1 0 0 3 2 0 0 2 1 2 3 0 3 3 0 1 1 0 2 1 2 3 4 1 1 2 2 2 1 1 2 1 2 0 1 2 1 1 1 0 0 0 0 3 1 1 2 1 0 2 2 3 0 3 2 0 0 2 1 1 2 3 2 3 0 2 1 2 1 0 2 2 0 0 0 2 2 2 2 1 4 3 1 1 2 2 1 2 1 2 1 0 4 2 2 3 3 2 3 2 2 0 1 1 2 1 1 2 3 1 2 3 0 3 2 4 2 1 1 1 2 0 2 0 2 2 1 2 1 2 3 0 1 0 2 1 0 3 3 3 2 4 3 0 3 2 1 0 1 1 1 2 1 2 2 0 1 3 0 1 4 2 1 1 3 1 1 1 3 2 0 0 1 1 2 1 1 2 1 0 2 0 2 2 2 1 0 2 3 3 2 4 2 2 0 1 1 1 1 0 3 1 0 0 1 3 0 1 0 1 0 2 1 2 1 1 2 1 1 2 5 1 1 2 2 1 2 0 1 1 1 1 0 2 2 2 0 1 3 4 5 3 2 2 2 1 2 1 2 2 2 0 3 1 0 1 3 0 3 1 1 2 1 1 1 2 2 1 2 4 1 0 1 1 1 1 2 0 1 0 1 1 0 3 0 0 2 1 2 2 1 1 2 1 1 1 3 2 1 1 0 2 1 1 2 2 1 1 0 0 2 3 1 1 2 2 3 2 2 3 1 1 0 1 3 0 1 2 2 2 1 1 2 0 2 0 1 4 1 1 2 1 4 1 0 4 2 1 3 1 2 0 3 3 2 0 3 1 2 1 2 2 1 1 1 3 1 1 2 1 3 0 2 1 0 1 0 0 1 0 1 0 0 0 2 1 1 1 2 0 2 2 3 1 2 2 2 1 1 0 1 3 2 1 1 2 2 0 0 2 1 1 1 0 1 2 2 0 1 1 1 4 1 0 2 0 1 1 0 1 1 4 1 1 0 2 2 2 1 1 0 2 1 2 2 4 0 0 1 2 1 3 3 1 2 1 2 2 3 1 2 2 1 1 2 0 0 1 2 1 3 0 1 1 1 2 1 1 1 2 3 2 2 1 1 2 3 1 1 3 0 2 1 1 1 0 3 1 1 1 1 1 4 0 1 1 1 3 4 0 0 2 3 1 1 3 2 2 0 0 3 0 0 1 1 2 2 2 1 0 1 2 1 3 0 1 1 0 1 1 0 1 1 0 2 1 2 2 1 3 0 2 1 2 0 1 0 2 1 1 0 2 2 3 2 2 2 3 0 3 3 3 4 3 1 1 2 2 2 0 2 2 1 2 1 1 2 2 0 2 1 2 1 2 0 0 0 3 2 1 1 0 1 2 2 2 1 1 2 1 0 1 1 2 2 2 0 3 2 0 2 1 4 0 0 0 2 2 2 2 0 0 1 1 0 2 1 2 2 0 0 2 2 1 0 3 4 1 2 2 2 1 1 3 2 1 2 1 1 4 2 2 1 1 2 0 1 1 1 1 1 2 1 2 1 1 0 2 2 0 2 1 1 0 2 1 0 2 2 1 2 3 1 2 2 2 1 2 1 0 2 3 0 0 1 3 1 1 2 4 1 1 3 0 3 2 2 1 0 1 3 2 2 4 4 2 3 4 1 2 3 2 1 3 1 0 1 2 0 1 4 0 2 1 2 0 0 1 2 2 3 1 0 0 0 2 3 0 1 2 1 2 2 2 3 1 1 2 0 1 2 2 0 2 1 0 2 1 0 1 1 1 1 1 1 0 3 0 2 1 2 3 1 1 1 1 1 0 4 1 1 2 3 1 3 2 1 1 2 1 1 2 2 2 0 1 3 0 0 3 2 0 2 1 1 2 2 1 4 3 0 2 0 0 1 3 1 2 0 1 1 1 3 1 1 0 2 1 0 0 3 1 2 1 3 1 4 1 1 2 1 1 2 2 0 2 1 2 1 0 3 3 1 1 0 5 1 0 3 1 1 1 0 0 1 1 2 1 3 3 0 1 3 1 1 1 1 2 1 2 2 1 1 2 1 1 1 3 2 1 1 2 2 2 1 0 3 0 1 2 1 1 2 4 1 2 0 1 2 0 2 1 2 1 0 0 2 1 3 2 1 1 0 0 1 2 1 1 3 1 1 1 2 2 1 2 3 2 2 0 2 2 2 0 2 1 1 1 1 2 2 1 1 2 0 2 2 2 2 2 2 0 1 0 1 1 0 1 1 0 3 1 3 0 1 2 1 0 2 0 1 4 4 1 0 1 4 3 1 1 1 2 3 3 1 4 2 2 3 3 2 0 1 2 3 2 3 1 1 1 4 2 1 1 2 0 2 2 1 2 3 2 1 1 1 1 3 2 1 5 1 0 1 0 0 1 0 1 0 2 1 2 1 0 1 3 1 3 1 1 1 1 2 1 1 1 1 1 1 0 1 1 1 1 1 2 0 0 1 0 1 1 2 0 0 1 1 3 2 3 0 2 0 1 0 1 2 1 2 3 1 1 1 0 1 2 3 1 0 2 0 1 1 2 2 2 1 0 1 0 0 0 1 2 2 1 1 1 0 1 0 2 0 1 1 1 1 0 2 1 0 3 2 2 0 3 1 2 1 1 2 1 0 2 0 2 1 2 3 1 2 1 1 4 2 2 2 1 1 2 1 2 1 0 4 2 3 1 1 1 1 1 2 2 1 1 1 2 2 2 2 2 0 1 3 1 1 3 2 1 1 0 3 0 0 1 2 1 1 2 1 1 1 3 3 2 1 0 2 1 2 3 1 0 2 1 0 1 2 3 1 2 1 5 1 3 1 0 0 2 2 2 1 1 1 1 1 1 0 1 2 3 0 2 2 2 1 2 2 1 1 2 2 0 3 2 2 1 0 0 1 3 3 0 3 1 3 2 1 3 2 3 1 3 1 1 1 0 1 1 1 0 1 0 2 3 0 1 1 0 0 0 1 1 1 0 0 1 4 1 0 2 3 1 0 3 0 1 1 2 0 0 4 2 1 3 0 1 4 0 2 0 2 1 1 1 1 0 2 4 1 2 1 2 1 1 1 0 1 2 0 0 1 1 3 3 2 2 1 1 1 1 1 2 3 1 1 1 1 3 1 3 1 3 1 1 1 1 2 2 2 0 1 0 0 1 1 2 2 0 1 1 2 3 3 3 1 2 0 2 2 0 0 3 0 2 2 1 2 1 2 1 3 2 0 1 0 1 2 1 1 1 2 2 2 0 1 0 3 1 1 2 2 1 2 2 1 2 1 1 1 4 1 2 1 2 1 2 3 3 2 3 3 1 1 2 3 0 0 2 1 3 1 1 0 0 0 1 0 1 2 1 2 0 2 1 1 1 0 0 1 1 1 2 3 1 1 3 2 1 0 1 1 3 1 1 1 2 2 0 2 1 3 2 2 2 1 2 2 1 0 4 3 2 1 1 2 0 2 0 1 0 0 0 1 0 2 0 0 2 2 2 1 1 1 1 1 1 0 4 1 2 1 1 3 2 1 1 2 4 1 0 0 3 3 1 2 2 2 1 2 1 0 1 0 1 1 1 1 2 2 2 1 1 2 3 1 2 3 4 0 1 1 2 1 3 1 2 1 0 3 2 2 1 1 0 0 1 2 1 1 2 1 4 2 1 1 1 1 1 2 3 0 0 1 2 1 1 1 2 1 2 2 3 1 1 2 1 0 3 3 2 3 2 0 1 1 2 3 1 1 0 1 1 2 1 5 2 1 1 3 2 0 1 2 2 1 2 0 1 2 1 1 3 3 0 1 2 2 1 3 0 0 1 3 1 0 0 1 2 2 4 1 0 0 0 2 1 3 1 1 1 1 0 2 0 0 2 2 1 1 3 1 1 0 1 2 0 0 3 1 2 1 0 2 3 3 3 1 2 2 0 2 1 2 2 3 1 3 2 1 3 0 3 2 0 0 2 0 2 0 2 1 2 2 1 4 2 3 1 2 0 2 0 1 0 3 2 0 1 1 1 0 0 2 3 4 4 2 2 5 2 1 1 1 0 1 2 2 3 1 0 1 2 1 2 2 0 2 2 1 1 1 2 2 0 2 2 2 2 1 1 0 0 2 1 2 2 1 0 1 2 2 2 2 2 2 0 2 0 1 1 2 3 1 1 1 1 1 1 0 0 1 1 1 3 0 1 3 1 1 0 1 2 2 1 0 1 3 2 2 1 1 4 2 0 3 0 1 1 1 3 1 0 3 3 2 3 2 3 2 3 2 2 0 2 2 0 1 2 2 1 0 2 0 1 2 3 1 1 2 2 1 2 2 3 1 1 1 1 1 3 1 1 0 3 3 1 1 2 2 1 1 1 1 3 2 3 3 5 1 0 2 2 2 1 0 1 2 1 0 2 1 2 3 2 1 1 2 1 1 1 1 2 1 2 1 2 3 2 1 0 0 1 0 1 1 1 1 0 0 0 1 1 3 0 2 2 2 1 1 2 2 3 0 0 0 4 1 1 1 0 0 3 1 2 1 1 1 2 2 1 2 1 2 1 3 3 1 3 2 2 3 2 2 1 1 3 2 1 3 3 1 2 1 0 2 2 0 0 1 2 2 2 1 0 1 0 1 1 0 1 1 1 1 1 3 3 0 1 1 3 2 0 1 1 0 2 0 0 1 1 1 3 1 0 2 3 1 3 0 2 0 2 1 1 0 2 1 1 4 2 0 1 1 4 1 3 1 2 2 1 4 1 1 1 0 0 2 1 1 0 0 1 1 3 1 2 1 1 1 0 1 2 0 2 1 3 1 0 2 1 1 0 0 0 0 3 2 2 1 1 0 5 1 3 2 0 1 2 1 0 2 1 3 2 2 0 1 1 0 3 2 0 1 1 2 1 2 1 2 1 2 2 1 1 2 0 3 2 1 3 0 1 3 2 3 1 2 1 2 1 1 1 1 3 1 1 2 0 0 0 0 2 1 2 3 2 1 3 1 1 3 1 1 2 0 0 1 2 1 2 3 2 3 2 1 2 0 0 1 1 4 0 1 1 1 0 2 1 4 1 3 1 3 1 1 2 2 0 1 0 0 1 1 2 0 1 1 0 0 2 2 2 4 1 1 3 0 1 2 1 1 2 1 3 1 0 0 1 0 1 2 1 2 1 1 2 1 1 1 0 0 1 1 1 1 1 0 0 2 2 1 1 0 1 1 0 1 3 1 2 0 2 1 1 2 2 2 1 2 2 0 0 1 2 1 1 2 0 1 2 1 2 0 1 0 1 0 0 0 1 1 2 0 1 0 1 2 2 3 1 3 2 5 1 2 2 2 1 1 1 0 1 1 0 3 1 1 3 0 2 1 1 0 2 1 3 2 0 1 0 0 1 0 1 2 4 1 2 1 1 0 1 0 2 2 2 3 0 2 1 1 0 1 2 2 2 2 1 3 1 1 1 2 3 2 2 0 1 0 0 1 2 3 2 1 1 1 1 1 0 1 0 2 0 1 0 2 2 0 1 4 1 2 3 1 1 1 0 2 1 2 0 0 1 3 3 0 1 2 1 0 3 0 2 2 2 1 1 1 1 0 0 3 1 2 2 0 1 2 1 1 1 0 0 0 0 3 1 1 1 2 1 1 1 0 2 0 2 1 0 2 1 1 3 0 2 0 2 3 2 1 3 1 1 2 0 1 1 3 1 1 1 2 1 3 1 1 1 0 2 2 2 0 1 3 1 0 1 0 1 5 1 3 1 1 2 1 3 3 2 0 0 1 1 2 3 0 1 0 1 1 0 2 0 2 0 0 3 0 1 2 0 1 2 2 1 2 1 0 2 0 1 1 2 2 1 2 1 1 2 2 2 2 0 3 3 0 1 1 2 2 2 0 1 1 0 1 3 0 1 1 1 0 1 1 2 1 3 0 0 2 2 3 3 3 0 2 2 1 3 2 0 1 2 1 1 0 1 1 1 5 2 1 1 1 1 1 0 2 2 1 0 0 1 3 2 2 3 1 2 1 1 1 2 1 2 1 5 2 1 2 1 1 1 2 1 2 0 0 1 1 0 1 1 2 1 0 2 1 3 2 2 0 1 2 2 2 1 1 2 1 0 0 0 2 1 1 2 4 0 1 1 0 3 1 1 3 2 1 1 3 4 1 1 3 1 2 1 1 1 2 2 1 0 2 2 1 0 2 1 0 2 1 0 1 0 1 2 2 2 1 3 1 0 3 1 1 0 1 4 0 3 2 1 0 1 1 1 0 2 1 0 2 1 2 3 2 2 2 2 4 2 1 1 2 3 0 0 2 2 1 1 3 2 1 0 1 2 1 3 1 2 3 2 3 0 2 1 5 2 0 0 1 0 4 0 3 0 4 2 1 2 2 1 2 1 2 1 1 1 2 3 2 2 1 1 0 3 0 1 4 1 0 1 2 0 0 1 0 2 2 1 2 0 3 1 0 3 1 1 3 1 1 2 2 5 1 3 1 2 0 2 1 0 1 1 1 1 0 1 3 0 2 3 3 0 0 1 1 0 1 2 0 1 1 1 3 2 0 1 0 1 2 2 0 0 1 3 1 1 0 1 2 1 0 4 1 3 1 1 2 3 1 1 0 1 0 0 3 1 1 2 0 1 0 0 2 2 1 0 0 2 1 0 1 5 2 4 1 1 1 3 3 1 4 0 2 2 2 0 0 3 1 1 2 2 1 2 0 1 2 2 1 2 1 1 3 0 2 2 1 1 1 1 1 1 0 0 1 2 2 1 1 2 2 0 1 1 0 1 2 1 2 1 1 3 1 0 1 1 1 3 2 1 1 1 0 0 1 1 3 1 3 2 1 1 1 2 0 1 1 0 1 4 1 2 4 1 1 1 3 0 2 0 1 3 3 3 3 1 1 1 1 1 0 3 1 1 2 2 1 0 1 0 0 2 0 3 2 1 3 3 1 2 2 2 0 3 1 2 2 1 1 1 3 3 1 3 2 0 1 0 1 0 1 2 2 1 1 3 2 2 4 1 2 1 0 1 1 1 1 3 1 2 1 1 0 3 1 0 2 5 1 1 2 1 2 3 3 3 1 2 2 3 3 1 2 2 2 3 1 0 0 0 4 2 0 2 1 2 1 2 1 3 1 1 2 0 1 1 0 2 2 1 2 1 4 1 3 2 1 1 1 0 2 1 2 1 1 1 1 2 2 1 1 0 1 2 3 1 1 1 1 1 1 2 0 2 2 1 2 3 2 1 4 1 2 1 0 2 1 0 4 1 3 1 1 0 2 1 1 3 0 2 2 1 3 2 1 2 2 1 1 1 2 2 1 0 2 1 2 2 0 3 1 1 1 3 1 2 1 2 2 1 3 3 1 2 1 1 1 3 1 0 0 0 2 1 1 1 2 4 2 2 3 2 1 2 2 3 0 3 0 0 1 1 1 2 1 0 1 1 1 2 0 0 0 1 1 1 1 2 4 0 1 2 2 1 3 0 2 3 2 0 1 1 2 3 1 1 1 1 3 0 2 0 0 2 1 1 0 1 1 0 2 1 0 1 0 1 2 1 1 1 1 2 0 1 1 1 3 1 2 2 2 2 2 1 1 0 0 2 3 0 2 2 0 1 0 2 0 2 2 1 1 1 1 0 3 1 5 2 2 1 2 1 4 3 0 0 0 2 0 1 1 2 0 4 1 4 1 1 1 1 4 1 2 4 1 2 2 2 2 1 2 1 3 1 2 1 1 1 1 2 2 1 1 0 1 3 3 0 0 2 2 2 0 1 2 4 1 1 5 2 0 1 1 1 0 3 2 0 1 3 0 0 5 2 2 2 1 4 1 6 1 2 2 2 0 2 1 2 2 2 1 2 1 2 2 3 2 1 1 1 1 0 2 2 2 1 0 2 3 1 2 2 0 2 1 1 3 0 1 0 1 1 3 1 3 0 1 1 2 0 2 2 1 3 1 2 3 1 0 3 1 1 2 1 1 2 2 0 1 1 2 1 1 2 2 2 1 1 6 0 2 1 1 0 2 2 2 2 2 2 1 1 3 2 2 1 1 1 2 1 1 1 1 0 3 0 0 2 0 2 1 2 2 1 3 2 2 3 1 3 0 2 0 1 0 0 2 1 3 1 2 2 2 3 2 0 0 0 1 1 3 2 2 1 2 2 2 1 1 2 1 2 1 1 1 0 2 1 1 1 1 1 1 2 1 1 1 2 2 1 3 4 1 2 1 1 1 1 1 1 0 1 2 3 1 0 1 0 2 2 3 2 2 4 2 0 1 1 3 1 3 1 0 1 0 0 0 0 1 0 1 0 1 1 3 4 1 1 1 2 2 3 1 1 0 1 0 1 1 3 0 1 2 0 1 3 1 2 1 2 2 1 4 1 2 2 2 0 3 4 0 1 2 1 4 1 0 0 1 0 3 2 1 1 3 2 1 1 2 2 0 3 3 2 2 1 2 1 3 1 2 3 1 1 3 1 0 2 1 2 3 1 1 2 1 1 1 2 3 1 0 2 1 1 2 3 1 3 0 3 1 2 1 0 1 1 0 0 0 0 1 0 2 1 3 2 4 2 1 1 1 0 2 2 2 2 2 0 2 1 1 1 4 1 1 1 1 1 1 0 3 3 2 0 0 3 1 2 2 0 3 2 0 3 1 0 3 2 1 2 2 2 2 2 1 0 1 1 1 4 4 0 3 0 1 1 1 1 1 1 2 1 1 1 4 2 2 0 2 1 2 0 1 2 0 0 0 2 0 1 1 2 2 0 1 1 1 1 1 0 1 0 0 1 1 2 1 3 3 1 1 1 1 4 0 1 1 4 3 1 1 2 2 2 1 2 2 2 0 2 0 1 1 1 0 1 0 1 0 1 1 3 0 1 2 4 2 1 1 1 2 1 2 0 3 1 1 1 0 4 2 1 4 2 1 0 0 1 3 1 2 1 2 2 0 0 2 2 2 3 2 2 1 2 2 2 1 1 3 1 1 3 1 1 3 2 2 1 3 0 1 0 0 1 2 1 1 1 0 1 2 0 0 0 2 3 3 0 1 2 5 1 1 4 0 1 2 2 2 5 1 0 3 2 1 3 1 1 1 1 1 1 0 1 1 2 0 2 1 1 3 3 2 1 1 1 1 2 1 2 2 3 2 1 0 3 3 1 2 1 2 2 0 3 2 2 1 3 1 3 1 1 0 1 2 1 0 0 1 2 0 0 1 3 2 0 1 1 2 2 0 1 1 2 3 2 1 0 1 0 3 0 1 2 0 2 1 4 3 1 3 2 0 1 2 1 1 2 0 3 1 1 0 0 1 1 2 0 2 0 2 2 4 1 2 1 2 1 0 2 2 1 1 0 0 2 1 1 5 2 1 1 1 0 2 0 1 1 1 0 2 0 2 3 1 2 2 0 1 1 2 2 1 2 1 1 1 1 0 2 1 3 2 0 3 3 2 1 0 1 1 1 2 1 2 2 1 1 0 1 2 1 2 1 1 2 2 2 2 3 0 1 0 1 1 1 3 1 2 0 3 1 1 0 1 1 2 1 0 0 1 1 0 1 0 1 2 1 1 1 1 1 1 2 0 0 1 2 1 1 1 1 2 2 0 2 0 2 3 4 3 2 3 2 0 1 1 1 0 2 1 1 1 1 0 2 2 1 2 2 3 1 2 2 0 1 1 2 3 0 3 1 2 2 1 0 2 1 1 1 4 1 0 1 2 2 2 3 2 0 3 2 3 1 1 0 3 2 2 0 2 3 1 0 3 3 2 1 1 1 1 2 1 1 0 2 1 0 1 1 2 0 1 1 1 0 1 2 1 0 3 0 2 1 1 1 3 3 3 1 0 3 1 2 4 1 1 1 2 2 3 3 1 1 2 3 1 2 2 2 1 1 1 1 0 3 0 0 0 2 1 0 0 1 2 0 0 1 2 1 2 3 1 3 1 2 3 1 3 0 1 1 3 0 0 2 2 4 2 1 1 2 2 1 1 1 1 0 2 2 2 1 2 2 2 1 3 1 1 0 2 0 0 0 2 1 1 1 3 1 2 2 0 1 2 1 2 2 2 1 2 2 3 2 1 3 1 0 2 2 1 2 1 2 2 0 0 0 1 3 1 0 1 2 2 1 0 1 2 4 0 3 1 1 2 2 2 1 0 1 3 3 1 0 1 1 2 4 1 1 0 0 1 1 0 0 3 1 3 1 2 1 2 3 2 2 4 1 0 3 0 0 0 2 1 2 2 3 2 1 1 1 0 2 2 5 2 2 3 3 1 1 1 0 1 2 0 1 1 1 0 2 1 0 1 1 1 0 1 1 3 2 2 2 2 1 2 1 1 1 1 1 2 1 0 1 2 1 1 0 2 1 0 1 1 3 2 4 0 2 0 2 2 0 2 2 1 1 2 1 1 1 1 0 3 1 1 0 2 3 1 2 2 2 3 0 2 1 3 0 2 0 0 1 1 3 1 2 0 2 3 2 0 1 1 2 1 1 1 1 1 0 0 0 0 2 3 2 3 0 3 3 2 0 1 3 1 2 2 1 2 1 3 2 0 2 2 2 2 1 0 1 1 0 1 3 2 3 2 1 0 1 2 2 2 2 1 2 1 0 0 0 1 0 1 0 0 1 3 1 1 1 1 1 1 3 0 1 2 0 0 2 3 1 4 1 2 1 0 2 3 1 1 1 1 3 1 0 2 3 0 1 2 1 1 0 2 2 0 4 0 0 0 1 1 3 1 2 1 2 0 1 0 1 1 1 1 1 1 1 4 3 1 0 2 0 1 2 3 1 1 4 2 0 3 1 1 1 2 1 1 2 0 0 0 2 0 0 0 2 2 2 3 1 0 1 2 1 2 0 2 0 3 1 1 2 0 2 1 3 1 1 1 2 1 1 0 1 3 1 2 2 0 0 1 2 2 2 3 1 3 1 3 2 0 1 2 1 2 2 4 2 2 2 0 1 0 0 2 1 0 3 3 1 3 1 1 3 0 1 1 1 1 2 5 3 0 1 0 0 0 3 0 2 1 2 1 3 1 1 0 1 2 2 1 1 0 1 1 2 4 2 0 0 0 4 0 0 5 1 3 2 1 2 1 1 2 1 0 2 1 2 0 2 1 1 2 2 1 2 0 1 1 1 2 2 1 1 1 4 0 5 4 2 1 1 2 1 0 1 4 1 1 1 3 1 1 3 0 1 2 0 1 1 1 2 0 3 2 2 2 0 1 1 1 3 2 2 1 1 2 1 2 2 1 2 0 2 1 1 0 2 3 1 1 0 2 3 3 2 3 0 1 0 0 0 1 0 1 0 2 0 2 0 0 1 0 2 1 1 2 1 2 0 2 3 3 2 1 2 1 1 0 1 1 1 0 1 3 1 2 2 2 2 1 2 1 0 1 1 1 1 2 0 1 1 2 3 1 2 1 2 1 2 1 2 2 2 1 1 1 0 1 1 2 1 2 1 1 1 0 2 1 2 3 3 2 0 3 1 3 2 0 1 0 1 3 1 1 2 0 3 2 2 0 1 2 2 1 0 2 2 2 2 1 2 3 4 2 0 1 1 1 2 1 1 3 1 1 1 1 3 1 1 2 0 2 2 0 1 0 1 0 1 1 1 2 0 0 0 1 1 3 2 0 3 1 2 0 1 0 3 1 1 3 1 2 3 1 1 1 2 3 2 2 1 2 2 0 2 2 1 0 3 1 2 1 0 2 1 0 4 1 0 1 2 2 2 1 1 0 1 0 0 3 0 1 1 1 1 1 2 0 1 0 2 1 1 0 3 1 0 1 3 1 2 0 1 1 4 1 1 0 0 0 2 2 3 1 3 0 1 3 1 1 3 2 2 1 1 1 0 1 2 2 1 1 1 1 2 1 2 1 3 2 1 2 0 1 0 2 2 0 1 0 0 1 2 2 1 2 1 1 1 0 0 2 0 0 0 2 1 1 1 2 1 2 2 4 1 3 3 2 1 3 1 2 0 1 1 3 2 0 1 2 1 1 2 3 2 0 2 1 1 2 1 1 2 4 1 1 1 1 0 0 3 2 2 1 0 3 3 3 2 0 2 1 2 2 2 2 1 1 0 1 1 1 0 3 0 2 1 0 1 1 1 2 1 1 1 1 2 1 2 1 1 3 2 2 1 2 1 2 1 1 1 0 3 2 2 1 0 0 0 0 2 1 1 2 0 1 2 2 1 1 2 1 4 1 2 1 2 2 1 1 2 0 3 1 1 2 2 2 2 1 2 0 2 1 2 3 0 1 0 1 3 1 1 0 0 1 2 1 2 0 0 0 2 0 0 0 1 0 1 2 1 2 1 3 0 3 1 3 0 2 0 0 2 1 3 1 4 2 0 0 0 2 0 1 3 2 1 2 0 0 0 2 1 1 1 1 3 1 0 1 2 2 3 1 2 3 1 4 1 1 2 1 1 0 1 1 4 3 2 1 1 2 2 2 1 3 1 1 1 1 0 2 2 1 1 1 1 1 2 1 0 2 3 2 2 1 1 1 1 2 0 0 0 0 1 2 0 2 1 2 1 1 3 1 2 2 0 2 3 0 1 1 1 2 1 1 1 2 0 0 3 0 1 1 2 1 3 1 2 2 2 1 2 3 1 0 1 2 3 4 2 0 1 4 1 1 0 0 4 2 2 2 1 1 1 1 2 0 0 2 1 3 1 1 3 1 1 2 1 2 1 1 1 0 2 1 1 2 3 3 0 0 0 2 2 2 1 2 0 0 1 0 2 0 0 1 3 1 1 0 1 2 0 1 1 0 3 0 1 1 0 2 2 0 0 3 1 2 0 3 2 1 1 1 3 2 3 0 1 1 3 3 1 1 1 3 1 1 2 1 1 0 3 2 2 1 2 1 1 1 1 0 0 1 1 1 1 1 1 2 0 0 0 2 1 1 2 2 3 0 3 3 0 4 1 1 0 1 1 3 1 2 3 1 2 1 4 1 0 1 2 2 0 2 1 1 1 1 2 0 2 2 3 1 2 2 1 1 1 3 1 0 2 3 1 3 2 2 1 3 1 1 1 2 0 4 2 1 1 2 1 4 2 0 3 2 1 0 2 3 2 1 1 1 1 1 2 0 0 1 1 1 1 2 1 1 2 2 0 1 2 4 0 0 1 3 2 1 1 3 3 3 2 1 2 1 3 1 1 1 2 1 0 1 2 0 2 1 0 0 2 1 2 2 1 1 1 3 2 2 1 2 3 4 2 1 0 1 2 2 1 5 1 2 1 2 2 3 1 0 2 1 1 0 1 2 1 1 2 1 0 1 0 1 2 1 1 3 2 2 3 2 1 1 0 1 1 0 2 1 1 2 1 1 1 1 1 0 2 1 2 0 2 1 1 2 0 0 1 2 2 1 5 1 1 1 0 1 2 1 0 3 1 1 1 1 2 1 0 1 2 2 1 1 1 2 2 4 3 0 2 2 0 0 1 4 3 1 2 1 0 0 2 3 2 1 2 3 0 2 5 1 0 1 2 3 2 1 2 3 1 1 1 2 0 1 0 0 0 0 2 1 2 1 0 2 1 0 1 0 1 1 1 2 2 1 1 0 0 0 2 0 1 1 1 0 0 0 1 3 1 3 1 0 0 3 2 3 0 2 1 1 1 1 2 3 1 1 0 3 5 2 2 0 1 3 2 1 1 2 3 0 3 1 1 0 1 1 1 2 1 2 1 1 1 0 2 3 2 1 2 2 3 3 1 1 3 1 0 1 1 1 2 0 4 2 2 2 1 1 1 3 1 0 3 3 1 2 2 1 2 4 2 1 1 2 3 0 1 0 1 1 1 1 2 0 1 0 0 1 2 3 2 1 0 0 3 0 1 0 1 2 2 0 1 2 0 1 1 2 1 3 1 1 2 2 3 2 0 0 2 1 1 2 1 1 1 3 2 0 4 1 0 2 0 1 3 3 0 2 1 1 3 1 1 1 2 2 1 0 1 1 0 0 3 1 1 2 1 1 1 1 0 2 1 2 1 2 0 1 0 1 3 1 1 0 1 2 1 2 2 2 2 2 3 2 1 4 1 1 0 3 0 1 0 1 3 1 0 1 0 2 4 2 2 2 1 3 0 1 2 0 2 0 2 0 1 1 1 3 2 2 0 1 0 1 0 0 1 1 0 2 2 2 1 1 1 3 3 1 1 1 2 1 1 2 3 0 1 1 2 2 0 2 1 3 1 2 2 2 2 2 1 1 0 2 2 3 0 3 2 0 2 1 2 1 1 1 0 2 1 3 1 1 2 2 0 2 3 0 1 1 4 0 0 0 1 2 2 0 1 2 3 2 3 0 0 2 2 0 1 2 3 1 2 2 2 2 3 2 1 1 3 0 2 1 1 2 1 1 0 0 1 0 0 3 0 2 0 1 2 3 2 0 1 1 1 1 2 2 1 0 2 0 1 2 2 3 1 2 1 0 0 1 0 3 2 1 3 3 2 0 2 2 1 1 2 0 3 4 1 3 2 2 2 3 1 2 2 1 0 1 1 0 2 1 2 5 2 1 0 2 1 1 2 2 2 1 3 2 1 1 1 2 0 2 1 1 3 0 1 0 3 2 2 0 3 3 1 1 0 1 0 2 3 0 4 3 1 1 1 0 2 1 1 2 2 3 1 1 0 2 2 2 0 1 0 1 2 2 2 2 0 2 0 0 1 3 0 1 1 1 2 1 1 1 2 1 0 0 2 2 2 2 0 0 1 1 2 2 2 3 2 2 1 0 2 2 1 3 1 0 2 0 2 3 3 1 2 2 1 3 2 1 3 2 1 2 0 1 3 2 1 1 0 0 3 1 1 1 1 1 2 1 0 0 1 0 0 1 2 1 3 1 2 1 1 2 1 2 0 1 3 2 2 1 0 0 0 0 1 2 0 3 1 1 1 2 2 0 1 0 1 3 3 0 1 0 2 0 1 3 1 1 2 2 3 0 1 0 2 2 0 3 1 2 1 0 2 0 1 1 0 1 3 3 3 2 1 2 2 2 0 1 1 1 1 1 2 3 1 1 0 3 1 1 1 2 1 1 2 1 2 0 2 2 1 0 2 2 2 2 1 3 1 3 2 3 5 2 1 1 0 2 1 1 2 0 3 0 1 2 1 1 1 1 2 2 4 0 1 2 2 2 3 1 1 2 2 0 1 1 2 2 2 2 4 3 1 3 0 2 1 1 3 1 1 1 2 1 5 2 1 1 1 3 3 1 2 3 0 1 2 2 1 1 1 1 0 3 1 2 2 1 0 2 1 2 1 1 3 3 1 3 1 1 1 1 2 1 0 2 2 0 1 2 0 2 1 1 2 3 3 2 2 2 2 2 0 1 1 2 0 1 1 1 2 0 1 1 2 0 0 2 3 0 1 1 1 2 1 0 2 1 1 1 1 1 2 0 1 1 0 1 1 1 2 0 1 2 1 3 1 0 1 2 0 2 1 2 0 3 1 1 2 1 4 1 1 1 1 1 1 2 0 1 2</t>
+  </si>
+  <si>
+    <t>NIG(0.23588138531945832, 0.23586217854132496, 0.0032716660675183983, 0.005314959311949328)</t>
+  </si>
+  <si>
+    <t>1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 2 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 2 1 0 0 0 1 0 1 0 0 1 2 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 1 1 2 0 0 0 0 0 0 1 0 0 0 1 1 1 1 2 1 1 1 0 2 0 1 2 1 0 2 1 0 2 0 1 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 1 1 0 0 1 0 0 3 0 2 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 1 0 0 1 0 2 0 0 0 0 1 0 0 0 1 0 2 0 0 1 1 0 0 0 1 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 1 1 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 1 0 0 0 0 1 3 0 0 0 1 0 0 2 0 0 0 2 0 0 1 2 0 0 0 0 0 0 1 0 1 0 0 2 0 2 0 0 0 0 1 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 2 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 2 0 0 3 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 0 0 1 4 0 1 1 0 0 1 0 0 0 0 0 0 0 1 1 0 2 0 0 2 1 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 1 0 0 1 1 1 1 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 2 0 0 0 0 1 1 0 0 1 0 0 0 1 0 1 2 0 1 1 1 0 0 1 0 1 0 0 0 0 2 1 0 1 0 1 1 0 0 2 2 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 1 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 2 0 0 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 2 1 0 1 0 3 1 0 0 3 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 1 1 0 0 0 1 1 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 1 0 1 0 0 0 3 1 1 0 0 0 1 1 0 0 0 0 2 2 0 1 1 1 1 0 0 1 1 2 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 1 1 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 1 1 0 0 0 1 3 1 1 0 0 0 0 0 0 0 2 1 1 1 1 0 0 0 0 1 0 1 1 0 0 0 1 1 0 0 1 1 0 0 0 0 0 0 0 0 2 0 1 1 0 1 0 0 0 1 0 0 0 0 0 2 0 0 1 0 1 1 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 2 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 2 0 1 1 0 0 0 1 0 1 1 1 0 0 3 0 0 0 0 0 1 0 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 2 1 0 0 0 1 1 1 0 2 0 0 1 0 0 0 1 1 1 0 1 1 1 1 2 0 0 0 0 1 3 1 1 1 1 0 2 2 1 1 0 0 0 0 0 0 1 2 0 0 1 1 1 0 0 0 3 0 0 0 0 1 1 0 1 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 2 0 1 0 1 0 0 1 0 2 0 0 0 0 1 0 2 0 0 0 0 0 2 0 0 0 0 2 0 3 0 0 2 0 0 2 0 0 0 0 0 0 1 0 2 1 0 3 1 0 2 0 3 1 1 0 1 1 0 0 1 0 0 0 1 1 1 1 0 0 0 0 1 0 2 0 0 0 1 1 0 0 1 1 1 0 0 2 1 0 1 0 0 0 0 0 1 0 2 1 0 0 0 1 1 1 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 1 2 0 0 1 0 0 0 0 0 2 1 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 1 1 0 0 2 1 2 1 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 1 1 1 0 0 1 0 0 0 0 0 0 3 0 0 0 0 0 1 0 0 0 0 1 0 0 2 0 0 1 1 0 0 1 0 0 0 1 1 1 0 1 1 0 0 0 1 1 1 0 0 0 0 0 0 1 2 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 2 1 0 1 0 1 1 1 0 0 0 0 1 1 0 1 0 0 0 0 1 1 0 1 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 2 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 2 1 0 2 2 1 0 0 0 1 1 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 1 0 1 0 0 1 1 0 0 0 0 0 0 0 2 0 0 1 0 1 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 2 2 0 2 1 2 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 1 2 0 0 0 0 0 0 1 0 1 1 1 0 0 1 1 0 2 1 0 0 0 0 0 0 1 1 0 1 0 1 1 0 1 0 1 0 0 0 1 0 0 0 1 0 1 1 1 0 0 2 0 1 0 0 0 0 3 0 0 1 1 1 0 0 0 0 0 1 0 0 0 1 1 1 0 2 0 1 0 0 0 1 0 0 2 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 1 1 0 0 0 1 1 1 0 0 1 1 0 1 0 0 1 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 1 1 1 1 0 0 0 1 0 0 2 1 0 0 0 1 1 2 0 0 1 0 0 1 0 1 0 0 0 1 0 0 1 1 1 0 1 0 0 0 0 0 2 0 1 0 2 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 2 1 0 0 0 0 1 1 1 0 0 0 1 1 1 0 2 0 0 0 2 2 0 2 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 2 0 0 0 0 1 0 1 0 1 0 0 0 1 0 1 0 0 1 1 0 1 1 0 0 0 1 0 0 0 2 0 0 1 1 1 0 0 0 0 1 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 1 1 1 0 0 2 0 1 0 0 1 1 1 1 0 1 0 0 0 0 0 0 1 1 1 1 1 2 0 0 1 0 0 0 0 0 0 1 0 2 0 0 0 2 0 1 1 0 1 0 0 0 0 0 0 1 0 1 0 0 0 1 1 1 0 0 1 0 1 0 0 2 1 0 0 0 1 0 0 0 0 2 0 1 0 1 0 0 0 0 3 0 0 0 1 0 0 0 1 0 1 1 0 0 1 2 0 1 0 0 2 0 1 1 1 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 1 0 1 0 1 2 1 0 0 0 1 0 0 0 1 1 0 0 1 0 1 0 1 0 1 0 0 1 2 0 3 2 1 0 0 1 4 0 0 1 0 0 0 2 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 1 1 2 2 0 1 0 1 2 0 1 0 0 1 0 0 0 0 1 0 2 1 0 1 1 2 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 1 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 1 1 0 1 0 0 1 0 0 0 1 1 0 1 0 1 1 1 0 0 0 0 0 0 1 0 1 1 0 1 2 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 1 1 0 1 0 0 0 0 0 0 1 0 0 0 0 2 1 0 0 0 0 0 0 0 2 0 0 0 0 2 0 0 0 2 3 0 0 1 1 0 0 0 2 0 1 0 0 1 1 0 0 0 1 0 1 1 0 0 0 0 0 1 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 1 1 0 0 1 1 2 1 3 0 1 2 1 0 0 1 1 0 1 1 0 0 1 1 0 3 4 0 0 0 0 2 1 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 1 1 0 2 0 0 0 0 0 0 1 0 0 1 0 1 0 2 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 1 1 2 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 1 0 0 0 1 0 0 1 0 0 2 0 0 1 0 2 0 0 1 0 0 0 0 0 0 1 0 0 1 1 2 0 0 1 0 1 1 0 0 1 0 0 0 2 0 0 0 1 0 2 0 0 2 0 2 0 0 0 2 1 1 1 1 0 0 1 2 0 0 0 1 0 1 0 1 1 1 1 0 0 2 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 1 2 0 1 1 2 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 3 1 0 0 0 1 0 1 0 2 0 0 2 0 1 1 2 2 1 0 1 1 1 1 0 0 0 1 1 0 1 0 0 0 0 0 1 0 0 1 1 0 0 1 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 2 1 0 0 2 0 0 1 0 1 0 1 1 0 2 0 0 0 0 0 1 0 0 1 1 1 1 0 1 0 0 0 0 1 0 2 0 2 0 0 0 0 1 1 1 0 0 0 1 0 0 1 1 0 0 0 0 2 0 0 2 0 0 0 0 0 0 3 0 0 0 3 0 0 0 1 1 0 1 0 0 0 0 0 0 0 1 1 0 0 1 0 0 1 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 3 0 0 0 1 1 0 0 0 1 1 0 3 0 0 0 1 1 0 0 1 0 1 0 0 1 1 0 0 0 1 1 0 1 2 1 1 0 0 0 0 0 0 2 0 0 1 1 0 0 0 0 2 0 0 0 1 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 1 0 1 0 0 1 0 1 1 2 0 0 4 0 1 0 2 0 0 1 2 0 0 2 0 0 1 0 0 1 0 0 0 1 1 0 0 0 1 1 1 1 0 0 0 0 0 0 0 1 1 2 0 0 0 0 2 0 0 1 0 1 2 0 0 1 0 0 0 0 0 1 0 2 1 0 0 1 2 0 2 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 2 0 0 0 0 0 0 1 1 0 0 0 1 1 0 1 1 1 1 0 1 0 0 0 0 1 0 0 1 1 0 0 0 0 0 2 2 2 0 1 2 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 1 2 0 0 0 0 0 0 0 1 0 0 2 0 2 0 0 0 2 2 0 0 0 0 0 0 0 2 1 0 0 0 2 0 1 1 0 0 1 1 0 0 0 1 0 1 1 0 0 2 0 0 2 0 0 1 2 0 0 0 1 0 0 0 1 0 0 0 1 0 1 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 1 1 2 1 1 0 1 0 0 0 1 0 2 0 1 1 0 0 1 0 0 0 0 1 0 2 1 0 0 0 0 0 1 0 0 0 2 0 1 0 0 1 0 2 1 0 0 0 0 0 1 0 1 0 0 0 0 2 1 0 0 0 0 1 1 1 1 1 0 1 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 1 0 1 0 1 0 0 3 1 2 1 0 0 0 0 1 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 1 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 1 1 0 1 0 2 1 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 3 2 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 0 0 1 0 0 2 1 0 0 0 1 1 0 1 0 0 3 0 0 0 1 0 1 0 0 1 0 0 1 0 2 0 0 1 2 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 1 0 1 1 1 1 0 0 0 0 0 0 0 1 2 1 0 0 0 1 0 0 0 0 0 0 1 2 0 0 1 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 3 0 1 0 0 0 1 0 0 1 1 0 1 0 0 1 2 1 0 0 1 2 0 1 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 1 2 0 2 1 1 0 0 0 1 1 1 1 0 3 1 0 1 0 1 0 1 0 1 3 0 2 0 0 1 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 2 0 0 0 0 0 1 2 1 1 0 0 0 1 0 0 0 1 0 0 0 2 0 0 0 0 0 1 2 0 0 1 0 2 0 0 0 0 0 0 0 1 0 0 0 3 0 0 2 0 0 0 3 0 0 0 0 0 0 2 3 0 0 1 2 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 2 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 1 2 0 0 0 1 1 1 1 0 0 0 1 0 2 1 2 1 1 0 0 0 0 0 1 0 2 0 1 0 0 1 0 0 1 0 3 0 1 1 1 1 0 0 0 0 1 1 0 1 1 0 0 1 2 0 0 0 0 1 1 1 0 0 1 0 0 0 0 1 1 0 0 1 1 0 0 0 0 1 0 0 1 0 1 0 0 1 0 1 1 1 0 2 0 0 1 2 1 1 0 0 0 2 2 1 2 1 0 0 0 1 1 0 1 1 1 0 0 1 0 1 0 0 0 1 1 0 0 1 0 0 0 0 1 0 2 0 1 1 0 0 0 0 0 0 0 0 1 1 1 0 1 0 1 0 0 1 1 1 0 0 0 1 0 2 0 0 0 0 3 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 3 1 0 0 0 0 0 0 0 0 1 0 1 0 1 1 0 1 0 0 0 0 0 1 1 0 0 1 0 0 0 0 1 4 0 0 0 3 1 2 0 0 2 1 1 0 1 0 1 1 1 0 2 0 0 0 0 0 1 1 0 0 1 1 0 0 2 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 1 2 1 0 1 2 0 2 0 0 0 1 1 0 1 1 0 1 0 2 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 2 1 0 0 0 2 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0 0 1 0 1 0 0 0 0 1 2 0 0 1 0 0 3 1 2 0 0 2 2 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 1 1 1 1 0 0 0 1 0 0 1 0 0 0 0 1 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 1 1 0 1 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 1 0 2 0 0 0 1 1 1 1 1 0 0 0 0 1 2 3 0 1 0 0 0 1 0 0 1 1 1 1 0 1 1 0 2 0 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 2 0 1 1 0 1 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 2 0 2 1 1 0 2 0 1 0 0 0 0 0 1 0 0 1 4 2 1 0 0 0 0 1 2 0 1 0 0 0 0 1 0 0 0 1 0 0 0 2 1 0 0 0 0 2 1 0 0 0 0 0 0 3 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 1 1 0 2 0 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 1 1 0 0 0 1 1 0 0 0 2 1 1 2 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 1 0 2 0 2 0 0 1 0 1 0 2 0 0 0 0 0 1 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 1 1 0 0 1 1 0 0 0 1 0 0 0 1 2 1 1 0 0 0 1 1 0 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 2 1 0 1 1 0 0 2 0 0 0 0 0 0 0 1 1 1 0 0 0 1 1 0 1 0 0 1 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 2 0 0 0 0 2 0 0 0 1 0 0 0 1 0 0 0 0 0 0 2 1 1 3 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 2 0 0 0 1 0 1 1 1 1 1 1 1 1 0 1 0 0 0 1 0 1 1 1 0 1 0 0 0 0 0 2 0 1 0 0 1 0 0 1 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 1 0 0 0 1 2 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0 0 0 2 0 0 0 0 0 0 0 3 1 0 1 0 0 0 0 0 0 2 2 0 1 1 0 0 0 0 0 1 0 0 1 1 2 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 1 1 1 0 0 0 0 1 0 0 1 0 0 1 1 1 1 0 0 1 0 1 0 1 1 0 0 1 0 3 0 0 0 2 0 1 2 0 1 0 1 0 0 1 1 1 0 0 0 1 1 1 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 1 1 1 2 1 0 0 0 1 0 0 0 1 0 0 0 0 2 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 2 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 0 2 1 0 0 1 0 1 1 0 0 0 0 0 3 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 1 1 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 1 1 0 0 0 0 0 1 0 1 0 0 1 0 0 1 1 1 0 0 1 1 0 1 1 0 0 0 1 1 0 0 0 2 0 0 1 0 2 1 2 0 0 0 0 1 0 1 1 1 0 2 0 0 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 3 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 1 2 1 0 0 0 0 0 2 0 0 1 0 0 1 1 1 2 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 1 3 0 0 1 0 0 1 1 0 1 0 0 1 0 0 1 3 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 1 1 1 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 2 0 0 0 1 1 1 0 1 0 0 0 0 1 0 1 0 2 0 0 0 1 2 2 0 1 1 2 1 0 0 0 0 2 0 1 0 1 0 0 0 0 0 1 1 0 1 0 3 0 0 1 0 0 0 0 1 0 1 1 0 1 0 3 0 1 2 0 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 1 0 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 1 1 1 0 0 0 0 3 0 1 2 0 1 0 0 0 0 1 1 0 0 1 0 0 0 1 1 0 0 0 1 0 0 1 0 0 1 1 0 1 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 1 1 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 1 0 1 0 0 0 1 0 0 1 0 1 0 1 1 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 1 0 1 1 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 1 1 0 1 1 1 0 0 0 0 2 0 0 0 0 0 2 0 1 1 1 0 0 0 0 0 1 0 0 0 0 1 1 0 0 1 1 1 0 0 1 0 2 1 0 0 1 0 0 1 1 0 2 0 0 1 0 1 2 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 1 0 1 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 1 1 1 0 1 2 0 0 1 0 1 0 0 1 1 0 1 1 0 0 0 0 0 0 0 0 0 0 2 1 0 0 1 0 0 0 0 1 0 1 1 0 1 1 1 2 2 0 1 0 0 0 0 1 0 0 0 0 1 0 1 1 1 0 2 0 1 0 0 1 1 1 0 0 0 1 0 0 0 1 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 1 0 2 0 0 0 0 0 1 1 0 1 1 1 0 1 1 0 0 1 2 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 1 0 0 1 1 2 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 1 2 0 0 0 0 0 0 0 0 0 1 1 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 0 0 2 2 0 0 0 2 0 2 0 0 0 2 1 0 0 1 0 0 1 2 0 0 0 0 0 2 1 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 1 0 1 0 0 0 0 0 1 1 0 1 1 1 1 0 0 1 0 0 1 0 1 0 1 0 0 1 0 2 1 0 2 0 1 0 1 1 0 1 0 1 0 0 0 0 0 0 1 1 0 1 0 1 1 0 2 0 1 0 0 0 0 2 0 1 0 2 1 0 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 3 0 0 0 0 0 1 0 0 1 1 0 0 1 1 0 2 0 0 0 1 1 1 0 1 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 2 2 1 0 0 1 0 2 2 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 1 3 1 0 0 1 1 0 0 1 0 0 0 0 1 0 0 0 1 1 2 0 2 1 1 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 1 0 1 0 0 1 0 0 1 1 2 0 1 0 0 1 1 0 0 0 0 0 2 0 1 0 0 0 1 1 1 0 0 0 0 1 2 0 0 1 0 1 1 0 2 0 0 0 1 0 0 1 0 0 2 0 0 2 1 0 0 1 0 1 1 0 0 0 0 1 0 2 0 1 0 0 1 1 0 2 1 0 0 1 1 1 0 0 0 2 2 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 1 1 1 0 0 0 0 0 1 1 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 1 1 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 1 2 0 0 1 0 0 1 1 1 0 0 1 0 0 1 0 0 0 1 0 1 0 1 0 0 0 1 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 1 1 1 0 0 1 0 0 1 0 1 1 1 0 1 1 0 1 1 0 1 1 0 1 3 0 0 1 0 0 1 0 0 0 0 1 0 1 1 0 0 2 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 2 2 0 0 0 1 1 0 0 1 1 0 1 0 0 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 1 0 1 0 0 0 0 0 2 0 1 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 2 0 0 1 1 0 0 0 0 1 1 0 2 0 0 0 1 0 0 0 0 1 3 0 0 1 1 0 0 0 0 1 0 0 0 0 2 0 0 0 0 1 0 0 1 0 0 1 3 0 0 2 1 0 1 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 1 1 0 0 2 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 0 0 1 0 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 3 0 0 1 1 1 0 2 0 0 0 0 2 0 1 0 0 0 1 0 2 0 0 0 3 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 0 1 1 1 0 1 1 0 0 0 0 0 0 1 0 1 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 1 0 1 0 0 0 0 0 1 0 0 1 0 0 1 2 0 0 0 1 0 0 1 1 2 2 0 0 0 0 0 1 3 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 1 2 0 0 0 2 0 0 0 1 1 1 0 1 0 0 0 2 0 0 1 1 0 0 0 0 1 0 1 3 0 1 1 0 0 1 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 2 0 0 1 2 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 1 1 0 1 1 1 0 2 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 0 1 1 0 1 2 0 1 0 0 0 0 0 0 1 0 0 0 2 0 1 0 0 0 1 1 2 0 0 0 2 0 0 0 0 0 0 1 0 0 1 0 0 0 2 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 3 0 0 0 0 1 0 1 0 0 2 0 1 0 0 2 0 1 0 0 1 0 0 0 0 0 1 1 1 0 0 1 3 0 2 0 0 1 1 1 0 0 0 1 0 0 2 1 0 2 1 1 1 0 1 0 0 0 2 0 1 0 0 2 0 1 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 2 3 0 1 0 1 1 1 0 0 0 1 1 0 2 1 0 0 0 0 0 1 1 0 1 1 0 0 1 1 0 0 0 0 1 1 0 1 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 2 1 0 0 0 0 1 0 1 1 0 0 0 2 1 0 0 1 0 1 1 0 0 4 0 0 1 0 0 0 2 0 0 0 0 0 1 1 0 1 0 0 1 0 0 1 0 2 0 0 0 0 1 0 0 0 0 2 1 0 0 0 1 3 0 1 0 0 0 0 1 0 1 0 1 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 2 0 0 0 1 0 1 1 1 1 0 0 0 1 2 1 1 0 1 0 1 0 0 0 0 1 1 0 1 0 0 1 0 1 1 0 0 0 0 0 3 0 0 0 1 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 2 0 1 0 0 0 1 1 0 0 1 0 0 0 1 1 0 0 1 0 1 0 0 2 0 0 0 1 1 1 1 2 1 0 0 0 0 0 1 2 0 0 0 1 1 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 2 1 0 0 1 0 0 1 1 0 1 0 2 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 2 0 0 0 1 0 0 0 1 0 2 0 1 0 0 1 0 2 1 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 1 0 1 0 2 0 1 1 0 1 2 1 1 0 0 1 1 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1 1 1 0 0 1 0 1 1 0 0 0 2 0 0 0 1 0 0 0 0 1 0 1 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 1 0 0 0 1 1 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 1 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 2 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 1 1 1 1 0 0 1 0 1 0 1 0 1 0 1 0 0 1 0 0 0 1 0 1 0 1 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 2 1 1 0 0 0 0 0 2 0 0 0 0 0 1 0 1 2 0 0 2 1 0 2 0 0 0 0 2 0 2 0 1 1 0 2 0 1 0 0 1 3 0 2 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 1 0 1 0 2 0 1 0 1 2 0 0 0 0 0 0 0 0 1 1 1 0 0 1 1 1 2 0 0 0 0 0 0 0 1 0 1 2 0 1 0 1 0 0 0 1 0 0 1 1 0 0 0 2 0 0 0 1 0 3 0 1 0 0 0 1 1 1 0 1 0 0 0 3 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 4 1 0 0 0 0 0 2 0 1 0 2 2 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 1 3 1 1 1 1 0 0 0 1 2 0 2 0 1 0 0 0 0 0 1 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 1 0 1 0 1 0 0 1 0 0 1 0 1 1 1 2 0 0 0 0 0 0 1 0 0 0 2 1 0 0 0 0 0 2 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 1 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 2 0 0 0 1 0 0 1 2 1 0 1 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 2 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 2 0 2 0 1 0 0 0 0 0 1 0 0 1 0 0 1 1 0 1 1 1 1 0 0 2 1 0 0 0 0 1 0 1 0 0 0 1 0 0 0 1 0 0 0 0 2 1 0 1 0 1 0 0 0 0 1 1 1 1 1 0 0 0 1 1 0 0 0 0 0 2 0 0 0 2 1 0 0 0 0 0 1 0 2 0 1 0 0 2 0 0 0 2 0 0 2 2 0 1 0 0 0 0 0 1 0 0 0 0 0 2 0 0 1 1 0 0 1 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 1 0 0 1 0 0 0 0 2 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 0 1 0 1 2 1 0 0 0 1 1 0 0 1 0 0 1 1 0 0 1 1 1 0 1 0 0 0 0 0 1 2 1 0 0 0 1 2 0 0 0 0 0 1 0 1 0 1 0 0 2 0 1 0 0 1 0 1 1 0 1 0 0 0 0 2 0 1 2 0 1 0 0 1 0 0 1 1 1 0 0 0 1 3 0 0 0 1 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 1 1 1 1 0 0 0 1 0 0 1 0 0 0 0 2 0 0 0 0 0 1 0 1 0 0 0 1 1 1 1 0 0 3 0 1 2 2 1 0 0 0 1 0 0 0 0 1 1 2 1 0 0 1 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 1 2 0 0 1 0 1 0 0 1 1 0 1 1 0 2 1 0 1 1 0 0 1 0 0 0 2 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 1 0 2 1 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 2 0 0 1 0 0 2 0 1 0 1 0 1 2 0 1 0 3 0 1 0 1 0 0 1 1 0 3 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 1 1 0 2 0 0 0 1 1 1 1 0 0 1 0 1 1 0 0 2 0 0 0 0 0 0 0 0 0 1 2 0 1 1 0 2 0 0 0 1 2 1 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 1 2 0 1 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 1 0 0 0 0 1 0 1 0 0 1 0 0 1 0 0 2 0 0 0 1 0 1 0 0 1 0 1 1 1 1 0 1 1 1 0 1 0 1 0 1 0 0 0 0 4 1 0 0 2 2 2 1 0 1 0 0 0 1 0 2 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 2 0 0 0 2 0 0 0 1 0 0 3 0 0 1 0 0 0 0 1 0 0 0 0 1 1 1 0 1 0 0 1 2 1 0 0 1 1 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 2 1 1 0 1 1 2 1 0 2 0 1 1 2 1 0 1 0 0 3 0 0 0 0 0 0 0 0 0 0 1 3 1 1 1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 2 0 2 0 0 1 0 0 0 0 1 1 0 2 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 3 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 1 0 0 0 2 1 0 0 0 1 1 2 0 2 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 1 1 0 1 0 0 1 0 1 1 0 0 0 2 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 2 0 0 1 0 1 0 0 1 1 0 1 0 1 0 0 0 0 0 0 2 0 1 0 0 0 1 0 0 0 1 0 0 0 1 1 0 1 0 0 1 0 2 0 0 1 0 0 0 0 1 0 0 0 0 1 0 1 1 0 1 2 1 0 1 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 2 0 1 0 1 0 0 0 3 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 2 1 2 1 0 0 0 0 1 0 1 0 0 2 0 0 2 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 1 0 2 0 0 0 0 2 3 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 1 1 0 1 0 0 1 0 0 2 0 1 0 1 0 0 0 0 0 0 0 1 1 2 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 2 1 0 1 0 2 0 0 0 0 1 0 0 1 1 0 0 2 0 0 1 1 0 1 0 0 0 1 1 0 0 0 0 0 0 0 2 1 0 0 1 1 0 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 0 0 0 1 1 1 2 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 1 1 2 0 0 2 0 0 0 2 1 1 1 1 0 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 1 2 0 0 1 0 1 0 0 2 1 2 0 0 1 0 1 1 0 0 0 0 0 2 1 1 0 1 0 0 0 1 1 1 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 1 2 2 1 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 1 1 0 0 0 0 0 3 1 0 0 0 1 0 1 0 2 0 1 2 1 0 1 0 3 1 0 1 1 0 2 1 1 0 2 0 0 1 1 1 0 1 0 2 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 2 2 0 2 1 1 1 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 1 1 0 2 1 0 1 0 0 0 0 0 0 0 1 0 1 0 1 0 1 0 0 1 2 0 0 0 0 1 0 0 1 0 2 0 0 0 0 1 1 0 0 0 0 1 2 2 0 0 0 0 1 0 0 1 1 0 1 1 1 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 1 0 0 1 2 1 0 0 1 0 1 0 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 1 0 0 0 1 0 1 1 0 1 0 0 0 1 0 1 1 1 0 3 0 0 0 0 0 1 0 0 0 1 1 0 0 1 1 1 0 0 1 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 2 0 0 0 0 1 1 1 0 0 0 0 1 0 0 0 2 0 4 0 1 1 1 0 1 0 1 0 1 0 0 1 0 1 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 2 1 0 1 0 2 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 1 1 1 0 1 0 0 0 1 1 1 3 0 1 0 0 0 1 0 1 0 0 0 1 0</t>
+  </si>
+  <si>
+    <t>JSU(-14.882620441610122, 7.621615717128085, -201.00227359570056, 89.79292527163301)</t>
+  </si>
+  <si>
+    <t>69 95 101 126 236 54 88 176 105 90 213 31 121 73 68 170 127 112 116 155 104 161 89 47 140 77 91 131 90 75 122 146 61 49 137 65 189 76 61 58 36 207 103 133 115 68 79 59 46 144 168 109 91 108 112 139 116 160 73 158 138 130 136 106 120 103 65 97 82 131 127 195 91 46 92 101 141 111 139 109 99 135 90 88 110 191 102 177 91 79 45 133 142 144 9 178 94 67 83 114 109 60 109 92 146 155 153 60 97 40 124 98 161 73 186 205 164 118 95 144 81 152 110 123 145 97 67 139 101 87 181 42 124 140 129 125 84 159 111 83 135 78 67 71 114 215 58 120 96 194 150 44 124 196 172 46 114 107 178 141 128 105 184 117 139 111 122 64 88 76 106 115 64 42 72 197 77 145 125 135 149 56 122 101 121 86 105 143 106 106 61 110 77 102 130 113 165 146 105 127 109 191 93 118 18 157 75 150 94 118 66 130 206 98 99 182 65 195 132 129 120 61 90 144 94 82 76 52 113 160 168 55 121 58 74 113 215 104 186 179 84 103 78 85 25 61 143 39 170 115 158 127 110 199 66 172 102 128 36 112 107 109 130 120 100 102 137 82 149 114 66 231 86 136 56 88 58 46 104 167 176 270 102 96 115 100 150 107 147 145 111 120 89 137 125 100 99 97 110 66 68 45 141 134 138 86 120 49 119 126 52 75 97 128 54 84 89 213 147 177 92 146 185 188 160 34 150 120 110 111 148 31 149 123 110 66 36 141 169 81 111 155 120 122 75 91 107 75 165 100 118 128 132 77 131 100 110 37 43 159 77 123 94 89 89 89 109 124 67 131 127 157 149 123 137 186 142 69 121 139 91 57 126 98 179 77 91 134 118 33 177 30 61 115 163 142 228 171 217 83 153 164 160 61 184 131 94 36 132 140 83 104 227 48 97 147 77 166 25 82 67 148 53 145 167 187 160 26 111 50 41 131 93 85 209 116 109 110 136 91 63 197 155 167 73 156 160 143 88 109 215 192 109 155 114 102 200 104 89 36 141 92 103 109 192 33 84 123 53 128 196 101 189 116 100 129 86 176 89 128 94 152 70 147 121 50 50 169 133 198 83 80 225 115 140 37 28 108 59 72 93 144 141 130 105 25 132 84 165 109 67 94 79 99 84 122 119 90 81 163 133 85 63 66 100 203 83 46 122 40 169 119 56 80 68 107 86 43 84 136 88 52 130 111 73 192 64 112 118 103 141 131 205 128 109 98 105 157 130 117 180 81 61 162 138 89 116 75 172 94 103 85 111 86 60 72 111 109 72 103 64 145 161 143 136 103 66 134 174 116 106 170 108 83 89 188 116 105 120 121 128 101 146 60 103 108 125 187 110 99 59 93 52 94 150 207 83 34 171 126 75 117 75 102 63 98 191 140 146 182 127 97 118 126 147 83 109 96 120 45 116 116 98 127 72 208 127 131 80 60 112 25 118 159 135 98 137 194 103 99 166 178 74 108 65 103 110 123 102 41 72 159 181 80 176 81 69 66 181 141 168 108 104 201 54 166 44 99 120 53 94 149 153 87 122 198 94 104 170 97 38 48 117 197 106 77 182 129 52 92 117 132 59 74 136 73 126 212 146 131 220 78 115 75 95 134 156 112 106 199 90 110 110 121 98 104 193 92 137 128 81 81 166 51 133 154 90 208 72 198 102 84 93 73 98 167 199 110 111 54 27 108 101 41 144 53 163 80 91 74 186 93 198 66 134 144 142 60 73 64 74 59 131 147 78 105 154 84 95 104 134 182 56 85 108 44 133 41 102 144 84 95 88 155 101 151 148 173 101 78 86 53 206 89 104 48 81 205 143 129 92 171 112 80 82 24 94 71 133 94 91 79 154 135 74 24 133 126 86 42 135 118 90 103 146 108 58 51 73 192 143 81 9 97 118 92 155 114 164 110 148 83 168 185 47 127 107 198 109 113 51 151 135 96 85 69 50 141 152 123 113 98 97 56 94 176 197 126 109 87 86 51 148 114 89 154 217 42 110 90 136 121 133 155 142 94 84 154 173 100 144 152 28 105 112 87 195 189 161 26 134 72 136 200 124 123 160 66 100 102 141 143 133 149 106 101 207 182 134 182 229 140 76 78 88 116 79 107 84 79 43 88 147 119 85 52 53 146 106 136 54 167 81 167 134 150 158 22 99 130 24 28 118 55 50 68 40 166 147 92 45 30 21 74 139 108 150 171 119 111 182 109 93 70 113 51 99 87 152 132 110 67 118 114 159 138 63 42 134 108 123 129 20 134 168 101 136 110 65 68 81 189 75 87 60 191 176 113 43 101 103 101 92 86 196 114 111 168 123 64 137 131 106 104 69 197 63 154 12 132 81 169 175 86 40 168 61 110 31 56 99 85 103 118 191 132 104 144 225 157 87 65 117 114 91 102 160 133 99 73 61 134 128 101 84 162 92 137 127 198 128 214 94 59 81 149 124 68 130 109 113 153 202 138 117 185 121 166 18 29 168 92 85 75 70 96 43 154 129 62 93 130 24 133 102 93 65 60 111 120 101 140 48 39 152 100 119 42 142 197 155 109 93 66 40 174 95 154 146 126 135 56 152 82 104 95 152 63 92 141 86 108 111 161 76 153 137 142 20 68 104 108 52 123 116 92 122 34 146 161 128 110 113 125 111 54 128 47 138 115 128 135 104 100 203 134 194 116 137 151 114 84 46 114 61 100 60 92 162 76 117 121 94 136 97 52 139 90 106 49 66 60 75 26 165 76 186 96 134 113 124 143 106 97 153 181 132 129 161 106 146 122 121 88 94 132 90 81 125 79 145 93 79 89 69 57 157 112 83 167 162 52 171 119 123 105 251 34 73 98 69 90 106 161 87 55 185 106 93 73 113 159 136 116 84 123 102 17 95 71 111 202 84 66 45 202 91 105 113 195 131 154 122 103 146 135 97 202 137 102 53 71 94 70 101 113 120 76 147 69 130 135 212 73 59 131 26 118 170 30 173 141 76 60 119 184 101 144 51 88 71 68 143 76 203 185 132 177 114 150 135 75 101 76 222 79 157 108 50 47 151 119 156 127 77 128 74 63 33 162 122 72 60 122 147 168 82 99 65 122 46 104 115 91 113 91 101 127 81 107 128 104 89 130 90 87 60 28 126 97 179 159 113 97 50 106 176 49 70 106 123 78 124 111 56 69 63 101 83 159 195 154 84 100 198 76 93 104 56 145 172 103 124 44 68 61 80 178 5 63 165 79 106 206 125 95 166 164 141 141 121 213 137 75 102 122 147 127 182 98 137 135 108 106 96 64 80 147 139 75 61 92 107 99 121 171 103 70 31 110 85 123 50 82 104 85 99 142 94 78 140 120 130 36 37 128 40 78 68 134 123 80 135 70 137 96 139 101 59 22 87 136 102 56 150 62 59 104 106 71 216 126 133 139 55 97 41 157 136 86 192 163 60 96 127 90 99 85 264 87 186 145 110 80 80 108 158 92 124 85 113 161 80 137 98 191 83 169 25 103 107 107 140 82 86 230 149 70 55 64 226 101 110 142 78 122 32 161 72 61 56 116 113 134 127 30 144 106 108 114 176 132 66 110 176 71 73 118 103 107 95 182 146 165 203 104 116 150 14 63 111 63 120 67 86 77 65 161 138 186 23 71 49 61 64 192 222 74 169 85 39 111 97 95 83 110 134 141 111 106 122 160 134 59 127 183 160 82 111 113 46 78 111 27 93 124 107 105 112 96 110 68 121 28 165 156 40 144 112 103 88 107 96 137 104 116 128 130 177 86 54 201 116 74 32 193 146 135 74 183 115 73 67 144 109 97 197 85 92 30 51 209 99 120 102 140 98 121 59 212 105 101 110 124 71 81 137 116 35 148 83 113 168 92 61 189 103 225 139 131 75 149 140 130 55 164 90 112 155 101 137 88 40 160 129 114 43 87 97 148 66 97 28 163 166 107 83 89 100 139 160 30 57 112 100 129 183 90 123 106 128 106 82 51 118 185 165 142 53 32 112 150 44 129 116 161 164 120 64 89 26 102 68 38 75 138 95 209 165 85 23 90 84 100 182 127 126 143 63 77 132 203 152 69 153 90 149 93 66 82 76 150 107 161 109 135 97 102 143 113 106 104 121 54 125 156 84 138 116 62 77 110 32 94 46 99 45 70 145 66 74 99 12 60 122 230 111 135 150 86 96 135 54 77 130 100 151 53 77 67 157 130 71 107 166 116 182 112 68 45 85 112 92 33 104 172 144 162 109 89 91 90 75 108 98 111 204 105 140 76 75 27 194 40 151 159 75 210 195 98 157 116 143 122 87 74 151 148 127 180 136 72 111 40 141 46 57 96 160 64 107 72 192 68 129 59 88 228 106 154 96 162 115 84 101 133 113 134 123 73 78 122 76 146 75 133 160 111 53 107 130 79 132 114 43 104 67 89 166 134 117 161 102 123 84 74 95 141 102 84 36 63 107 138 156 112 185 30 72 166 163 202 121 108 83 74 103 129 69 97 66 52 124 162 98 77 158 171 97 120 173 100 102 87 57 163 137 149 33 110 128 85 57 60 73 119 100 150 185 63 83 98 84 69 38 98 115 99 62 146 46 78 93 112 140 165 131 151 102 137 58 135 39 101 96 107 71 104 37 90 163 125 146 164 99 100 91 103 154 115 95 192 64 66 110 160 94 135 95 204 105 134 150 56 93 226 199 107 83 116 165 78 84 93 69 102 191 110 157 124 19 50 113 120 152 74 152 136 109 31 161 94 90 101 144 197 138 67 93 138 89 104 127 72 124 127 123 106 188 115 115 108 129 64 127 74 99 79 193 157 90 163 98 142 154 80 155 123 145 38 87 154 165 57 38 77 110 168 50 63 88 139 79 53 42 166 58 113 1 136 39 140 103 70 122 174 155 75 86 168 156 135 129 181 109 163 110 113 118 91 114 134 73 40 161 167 57 30 53 137 104 94 156 106 176 88 99 63 113 65 113 95 179 78 111 52 168 85 94 105 95 130 99 69 149 132 221 79 151 145 69 121 64 125 69 92 133 137 120 98 54 161 67 92 145 43 119 111 143 173 130 69 89 117 142 88 69 111 48 132 138 164 36 78 110 150 86 68 46 57 143 75 98 122 77 162 56 137 154 164 114 67 96 154 148 158 75 77 208 138 136 163 98 91 49 163 98 123 154 43 125 70 133 139 87 133 32 89 158 83 84 30 76 67 167 41 219 55 107 23 113 132 69 123 108 102 68 53 110 99 97 72 119 38 175 85 123 102 102 134 70 115 215 209 137 91 103 48 64 97 144 70 42 193 48 51 119 70 146 74 108 199 144 171 121 100 43 71 54 76 169 156 112 92 67 218 93 96 104 60 85 112 71 29 98 173 212 85 71 92 116 72 85 51 124 170 134 173 132 183 178 121 83 25 112 120 181 106 184 128 60 128 85 54 177 39 108 103 144 71 97 56 130 122 171 144 83 124 173 107 95 128 59 98 68 81 113 132 129 178 118 130 98 112 121 216 129 110 100 133 124 114 59 74 85 74 139 111 68 103 120 153 97 60 105 116 93 61 132 129 69 251 118 107 61 97 65 157 209 127 115 118 94 139 115 63 77 89 97 93 139 105 57 52 116 58 118 95 132 117 105 145 103 38 29 152 85 153 62 145 98 39 76 104 68 108 101 187 132 140 94 91 77 108 120 140 100 185 204 140 14 145 176 84 42 189 150 124 20 101 21 202 123 126 80 79 168 40 117 125 38 185 109 68 86 186 119 166 67 68 38 112 76 134 78 138 88 110 83 88 167 68 46 120 62 106 49 151 99 46 91 182 152 129 47 46 88 55 227 55 134 26 118 110 146 30 53 92 204 96 22 40 168 157 37 74 114 147 88 91 93 112 73 145 225 115 58 70 133 114 79 110 155 123 147 117 104 153 128 192 92 63 154 39 123 108 128 78 128 180 122 124 102 184 119 172 104 76 47 54 27 223 90 131 123 68 156 101 94 63 127 217 11 92 121 153 111 103 184 112 64 109 103 176 53 96 70 109 46 98 88 106 110 97 144 145 57 95 105 123 116 200 113 107 151 150 133 122 134 169 143 14 81 67 76 106 114 199 171 121 109 156 119 106 119 116 69 73 72 111 223 91 136 182 54 92 69 148 124 44 68 187 121 94 147 98 135 175 162 64 113 68 108 125 167 184 95 50 63 114 87 108 145 184 108 43 155 115 118 82 115 135 99 73 48 193 148 126 33 32 139 240 144 152 113 55 117 53 174 124 83 166 85 112 86 54 112 108 150 17 98 172 115 113 75 168 127 119 125 104 87 161 96 182 25 51 32 94 101 165 124 90 129 102 88 208 66 81 73 56 98 76 133 65 76 52 171 92 87 53 38 87 139 60 63 120 221 129 138 81 74 95 45 186 48 200 147 91 102 160 118 69 49 26 44 137 112 174 190 123 150 118 146 91 139 11 94 133 107 129 60 109 92 55 81 37 150 70 132 83 151 151 120 102 167 93 152 60 87 118 117 75 59 118 144 93 150 191 179 66 143 116 108 165 163 54 138 119 118 101 112 91 166 96 119 164 132 184 124 111 134 155 56 72 200 183 100 118 47 124 124 68 131 143 140 110 134 130 136 144 78 210 141 111 95 37 90 64 137 46 132 148 182 123 146 46 139 82 49 73 97 116 144 149 144 22 57 135 37 80 178 126 178 164 88 103 157 103 108 100 128 147 173 115 73 137 196 90 146 49 124 202 135 94 190 133 97 101 160 116 60 90 120 151 103 71 96 90 180 73 147 67 133 140 119 105 122 118 125 78 104 152 182 164 98 125 106 115 163 96 93 82 23 94 121 111 102 120 72 109 81 167 118 62 83 200 69 146 84 61 113 153 106 28 76 103 51 127 114 53 139 97 180 102 142 137 217 98 95 149 145 81 92 75 129 59 82 108 155 135 95 113 174 116 80 129 107 105 118 113 112 162 99 120 102 66 82 82 82 78 165 95 101 179 89 67 163 129 69 142 133 97 49 72 82 120 106 57 96 170 129 97 128 51 83 117 105 176 110 187 115 57 141 111 121 38 40 178 154 88 138 43 149 136 184 54 46 134 87 89 139 73 107 98 58 89 180 179 176 91 142 47 111 106 134 110 77 69 90 17 129 118 80 144 187 163 71 118 121 139 96 110 54 105 106 111 129 148 53 84 72 103 69 63 67 172 123 46 78 68 108 108 126 184 111 136 78 120 83 127 146 179 77 80 91 75 70 85 174 146 144 101 99 56 126 97 66 91 60 118 78 76 204 161 68 92 82 148 129 80 85 114 79 143 146 121 70 163 90 109 205 99 65 54 187 92 103 46 168 98 165 109 24 190 82 120 146 130 56 36 84 102 111 68 152 125 70 121 119 148 180 75 213 49 151 85 94 96 125 199 133 111 105 118 129 42 114 125 80 85 127 176 169 108 29 100 155 65 62 89 77 77 197 46 46 127 109 134 89 92 117 104 146 189 91 119 168 111 169 101 67 103 104 112 117 92 149 65 117 91 139 126 109 204 65 87 134 33 97 187 68 78 187 235 56 103 55 132 79 57 120 112 116 132 68 124 128 52 112 133 46 174 163 153 129 46 108 130 113 82 81 105 127 110 52 170 180 104 55 106 130 99 99 157 89 98 67 83 83 102 132 113 79 156 194 87 94 85 241 86 121 123 205 61 75 174 65 52 182 105 30 165 176 127 100 197 57 148 80 103 132 92 30 167 108 144 109 95 135 94 118 199 159 59 100 167 87 169 198 25 80 109 105 207 135 72 140 31 154 37 110 131 112 109 36 190 92 231 85 69 105 100 158 71 163 182 123 69 25 128 136 98 89 78 91 64 55 58 145 114 115 131 30 76 125 147 80 114 97 111 73 69 95 137 63 98 110 107 191 117 179 202 112 98 197 160 126 94 126 122 118 128 109 98 80 128 98 86 109 144 82 9 115 159 128 119 131 100 90 123 76 179 79 63 107 152 123 56 74 96 123 108 77 229 128 51 79 126 163 156 75 70 66 92 89 108 99 106 175 45 69 124 110 102 98 42 178 79 119 72 110 97 73 138 82 30 124 47 134 76 125 146 109 91 135 123 80 93 47 131 97 64 105 165 208 180 98 78 190 255 130 78 60 105 105 220 52 112 98 111 96 131 193 102 84 29 136 181 116 97 103 49 130 118 121 181 168 128 141 76 62 154 19 122 164 37 62 136 95 142 143 42 83 62 135 201 47 96 136 177 177 111 141 144 111 65 142 114 122 93 171 41 81 164 129 68 82 116 86 121 110 113 95 108 91 54 42 88 108 114 73 29 124 115 112 99 126 163 162 116 60 51 114 169 80 190 71 142 99 109 39 140 63 142 19 158 150 166 133 114 110 86 163 85 147 68 110 153 82 81 100 171 132 43 86 117 110 83 125 45 75 64 105 181 127 125 78 48 112 79 118 53 112 65 111 113 123 148 96 64 115 165 27 93 194 75 156 118 128 126 126 104 170 47 151 81 199 88 119 29 142 112 115 72 141 188 20 97 22 116 134 79 64 57 190 234 196 160 132 131 161 182 144 72 112 107 121 214 98 86 91 97 41 105 193 77 56 144 85 129 101 100 189 168 130 122 184 161 81 92 118 117 67 131 72 43 196 70 140 213 21 127 74 148 176 55 106 98 127 68 100 101 107 44 49 43 178 120 101 113 86 125 96 131 73 64 120 159 116 102 99 128 105 259 138 173 225 78 71 108 82 204 111 130 43 152 67 157 153 120 171 117 209 171 116 180 92 109 62 43 53 78 181 115 84 78 201 63 56 48 106 146 124 144 136 82 142 63 134 64 149 45 49 74 197 126 105 100 41 62 82 126 97 44 86 150 105 91 134 46 114 165 119 80 187 87 159 77 75 132 100 155 160 202 127 160 126 108 91 95 67 82 58 99 202 183 62 69 98 122 105 90 126 168 22 165 57 89 196 44 65 91 78 79 110 95 69 146 85 119 99 182 122 110 85 125 87 145 181 66 87 98 75 106 116 41 163 13 101 102 73 78 160 100 175 164 33 20 82 70 107 129 143 129 43 94 121 106 160 113 123 85 76 98 110 143 119 67 111 152 145 160 88 40 129 94 58 64 148 135 119 69 37 56 121 75 127 57 72 152 123 152 149 56 111 101 153 32 50 106 161 213 58 135 102 175 87 154 45 69 70 52 80 150 102 146 50 78 79 138 89 141 71 119 119 68 77 62 102 40 124 155 122 143 100 57 135 53 43 120 160 120 83 142 105 148 203 149 119 132 103 46 139 91 126 122 134 121 109 83 105 66 67 135 132 149 72 144 31 123 159 122 88 253 193 64 75 89 125 137 124 139 14 109 97 182 108 81 128 118 125 170 202 82 151 190 115 54 169 92 144 87 127 113 150 70 60 92 62 93 186 29 117 72 144 42 161 96 185 130 126 136 153 53 111 182 175 145 151 229 122 103 86 167 75 112 95 114 56 103 84 49 125 112 152 112 265 92 38 98 180 117 125 122 139 114 72 117 106 109 190 140 95 163 148 85 78 111 145 92 145 63 132 107 150 93 110 139 118 123 186 161 92 230 219 134 167 100 148 123 106 126 120 69 112 105 82 84 80 40 45 105 174 128 97 54 103 92 93 115 60 73 123 127 52 98 109 60 53 67 96 112 80 49 129 107 94 47 121 119 79 101 122 200 104 114 105 126 245 93 113 62 85 148 81 76 80 64 66 181 190 146 155 61 135 151 101 98 111 105 71 61 102 81 87 147 208 89 130 73 152 56 95 98 53 64 56 134 135 72 160 132 46 78 120 143 147 94 154 126 63 155 132 111 113 129 77 107 74 164 113 95 83 42 120 154 73 237 133 38 144 101 110 108 59 82 123 92 101 92 84 114 81 95 172 178 73 100 47 160 27 51 87 46 89 17 130 210 103 62 95 63 68 71 145 168 100 54 131 73 125 136 140 177 113 187 199 122 29 81 96 82 122 83 193 103 119 96 139 150 121 161 173 165 145 134 103 97 80 104 36 84 110 131 124 86 126 94 92 75 70 168 116 140 95 51 70 110 54 137 168 122 113 103 183 76 64 132 94 61 100 126 114 135 115 174 55 130 99 157 132 149 131 112 90 27 34 90 100 54 88 88 98 79 170 139 153 164 139 76 116 138 56 120 117 147 111 128 93 90 45 81 104 184 79 156 140 35 38 132 74 136 107 142 161 152 115 150 126 144 176 80 123 186 74 160 86 94 137 82 81 86 33 100 150 110 94 111 137 72 178 81 155 129 78 222 102 97 23 76 132 90 93 77 93 103 126 116 64 101 200 90 126 121 92 154 27 52 37 93 153 65 67 104 204 110 101 148 153 129 139 122 92 147 82 127 135 50 60 117 145 175 129 222 117 107 77 145 79 128 97 111 79 134 88 102 130 129 74 100 64 91 129 124 152 72 128 104 127 100 112 102 49 62 81 98 110 88 125 163 97 63 138 206 68 139 91 125 141 120 156 204 65 155 122 65 72 111 87 113 19 226 108 56 69 157 122 180 196 127 155 105 133 130 211 105 74 102 75 112 102 85 77 131 36 71 100 116 91 129 97 174 162 107 101 186 170 69 136 97 157 108 58 128 217 149 184 60 211 116 160 105 157 63 18 61 181 134 79 113 89 96 67 65 77 92 83 150 223 130 110 120 114 51 43 122 68 145 145 48 33 143 207 104 120 152 126 90 95 178 113 81 118 106 131 156 77 76 117 198 74 158 40 50 48 168 128 93 156 70 132 87 122 82 103 94 77 101 74 118 60 101 119 119 84 133 124 94 60 163 85 144 72 74 27 120 124 115 151 107 106 86 45 117 74 115 96 152 69 126 27 152 147 56 112 141 73 130 110 94 99 97 178 15 105 90 94 151 235 54 94 113 56 130 102 149 198 92 51 112 97 98 83 113 103 165 180 161 84 91 71 101 153 140 73 131 76 125 69 173 199 95 114 92 83 76 89 186 139 130 38 96 80 150 134 103 104 104 89 167 201 78 271 130 35 178 64 77 98 183 131 139 81 87 31 64 152 133 141 58 112 290 157 64 93 52 106 101 100 74 107 94 107 87 166 104 97 90 160 115 102 81 128 161 65 74 81 114 83 142 97 160 39 159 73 80 148 93 154 93 202 116 98 149 83 46 99 100 121 111 99 110 112 120 32 221 142 18 61 139 156 97 101 100 39 99 135 84 69 168 162 176 155 120 110 103 94 98 70 67 104 129 99 98 87 56 141 89 222 87 106 150 191 81 69 107 90 70 151 137 173 142 101 136 131 187 70 104 113 43 142 137 92 184 110 92 157 107 87 200 136 66 133 132 167 102 131 131 104 149 101 81 138 108 150 66 153 158 136 88 96 107 52 182 110 131 104 182 92 121 65 152 171 147 132 111 78 73 139 75 78 138 150 131 130 91 118 123 44 101 170 141 69 56 127 152 115 128 105 111 36 66 119 106 99 137 81 107 103 18 110 114 121 194 127 94 118 77 148 97 166 108 180 53 132 133 94 71 153 102 139 96 83 52 142 112 103 101 73 46 89 115 142 68 129 169 116 109 114 188 121 42 140 67 71 164 78 57 69 179 100 179 93 120 152 47 50 101 98 56 146 149 176 162 153 51 93 147 91 134 104 91 146 229 155 148 60 161 224 153 61 110 58 54 129 63 69 105 36 42 123 97 143 111 144 139 103 86 102 74 40 109 181 129 60 134 61 138 32 185 154 150 82 101 28 108 166 71 104 97 33 118 84 22 138 178 70 139 84 111 127 200 120 123 62 96 76 116 142 124 91 65 178 141 92 55 133 58 126 98 139 55 138 110 165 140 159 137 117 135 122 36 76 58 113 81 104 98 91 142 66 34 174 107 121 166 92 111 91 145 132 54 135 131 202 156 123 121 64 101 55 181 100 182 29 69 74 90 117 148 144 156 80 145 157 127 49 36 197 147 130 135 118 120 103 143 112 200 108 136 107 150 92 201 103 97 95 105 136 89 122 125 199 157 103 119 31 181 59 100 131 70 45 64 61 192 96 150 102 126 72 168 100 42 178 65 104 81 86 65 43 149 106 109 93 147 137 66 109 101 48 123 119 116 179 56 84 116 79 129 162 137 75 117 173 165 130 167 48 123 66 115 88 92 65 92 85 163 103 56 119 123 82 130 149 204 161 105 154 174 232 136 126 64 82 122 60 39 137 125 123 142 56 83 97 115 151 74 197 58 147 130 58 141 82 75 129 119 73 110 164 91 175 107 114 144 15 27 151 57 142 153 184 144 133 97 160 57 110 105 74 141 93 138 166 142 125 93 155 159 97 217 96 112 48 170 119 160 196 69 121 53 124 146 263 149 34 126 134 76 78 104 59 150 117 98 271 55 107 72 55 77 113 173 84 116 116 144 92 76 72 146 89 189 100 112 131 49 72 165 128 138 155 145 118 196 55 162 170 165 122 131 180 85 114 115 107 203 167 108 129 75 109 92 58 63 182 76 102 78 111 136 131 87 108 109 77 26 147 133 113 142 123 63 89 117 83 164 105 133 164 236 105 64 47 132 113 162 85 128 77 82 126 131 118 102 127 118 44 106 116 131 181 97 77 193 125 23 102 117 101 144 123 53 155 152 125 175 151 140 117 144 51 100 75 40 115 102 103 242 183 57 159 177 113 179 175 88 162 110 153 89 147 130 90 120 86 100 104 143 64 271 71 48 96 259 141 40 69 121 139 287 150 76 76 136 168 80 100 122 172 108 93 150 121 140 231 91 197 64 150 140 89 48 112 164 83 38 96 118 71 187 156 143 160 26 186 128 130 75 98 131 175 84 70 50 94 112 141 77 95 131 131 152 160 209 167 146 75 257 148 155 167 72 37 135 139 86 25 112 136 98 124 79 122 153 68 80 155 118 82 114 142 125 89 119 90 71 170 111 94 85 171 178 86 119 137 175 69 123 114 112 197 129 44 137 98 125 136 117 97 158 145 177 69 192 83 131 83 45 168 109 80 210 82 73 35 147 175 101 99 54 199 171 85 131 111 91 152 70 24 156 86 125 45 155 64 148 146 147 97 84 94 111 87 114 88 140 246 137 110 81 118 151 121 93 52 71 129 128 104 53 206 105 86 144 66 69 226 118 46 108 147 124 53 69 105 39 125 172 154 134 136 45 51 130 212 155 94 144 131 129 165 83 146 148 98 140 48 186 119 136 43 118 161 101 155 172 123 119 67 46 133 61 137 128 172 166 140 66 82 41 73 58 121 146 118 110 116 72 109 139 109 122 109 127 69 26 125 127 132 35 131 270 98 146 131 102 113 87 149 116 83 100 93 75 116 63 79 113 119 121 142 126 106 76 132 110 114 144 96 105 145 39 71 76 232 98 197 87 106 148 112 110 14 138 86 84 135 115 124 124 122 228 100 94 178 80 91 93 80 148 108 127 142 26 137 150 118 208 158 138 60 31 118 106 91 118 143 117 112 86 144 152 138 152 78 110 91 158 50 97 129 36 231 206 135 128 163 167 79 140 81 92 117 119 137 196 142 117 84 149 120 163 148 78 101 102 122 129 92 143 99 125 116 171 91 73 46 151 66 67 60 105 39 115 60 157 123 14 170 136 155 118 63 72 116 125 96 89 49 108 129 177 148 159 151 114 36 146 113 112 76 205 112 144 134 113 97 95 68 123 121 90 39 116 111 83 42 112 40 110 152 93 91 120 87 82 168 154 203 123 98 38 88 83 182 127 112 143 140 106 85 117 124 127 42 142 85 98 121 132 125 72 121 4 30 95 142 190 158 197 47 133 72 40 60 92 59 73 65 159 56 76 93 100 115 193 77 75 151 80 100 99 164 196 84 109 109 188 43 61 161 143 117 249 69 127 70 75 107 111 152 146 99 56 172 62 51 83 140 133 63 137 107 95 129 159 26 99 140 160 91 128 114 74 90 74 123 204 100 67 203 82 78 90 170 73 105 104 125 122 68 91 92 144 33 119 65 159 62 108 41 85 68 206 163 151 102 215 180 92 125 112 140 95 135 145 53 107 120 147 143 125 91 70 157 109 54 95 123 70 60 41 128 86 137 144 150 100 92 144 40 103 89 140 114 88 76 147 119 104 114 85 130 110 135 171 8 180 104 92 134 171 45 114 162 163 85 101 44 91 105 68 97 78 91 82 82 138 206 124 161 111 92 73 111 138 162 54 101 82 91 112 114 57 139 88 77 118 106 97 154 70 77 111 130 68 142 91 85 104 99 40 110 111 134 60 64 119 81 141 110 89 155 46 96 108 93 78 53 130 62 92 110 100 68 92 201 31 126 97 148 126 215 100 149 48 162 73 120 139 91 114 119 123 131 143 126 38 146 107 140 143 80 76 70 127 64 160 165 116 66 107 97 50 131 171 113 177 125 81 96 154 46 135 86 123 94 130 117 105 67 95 59 136 202 102 85 195 110 83 168 200 138 105 76 149 101 131 117 77 168 118 123 185 50 156 101 201 96 122 60 58 56 149 131 173 72 80 131 202 104 80 124 93 142 118 126 61 26 60 162 130 121 185 26 123 137 81 58 149 94 54 84 106 115 77 94 106 151 161 153 28 96 146 184 91 127 87 238 127 82 138 117 44 104 127 68 213 116 82 23 115 101 98 59 61 149 36 95 119 72 108 103 111 106 101 114 122 162 63 106 99 80 75 153 114 115 111 160 62 64 178 146 118 75 170 115 127 193 122 71 45 86 86 157 164 110 126 91 131 154 65 99 52 88 148 206 159 113 140 112 126 251 107 145 196 132 62 107 94 215 145 68 126 54 74 126 191 132 128 101 175 248 86 171 29 72 120 57 87 190 140 71 109 134 87 173 118 105 127 61 195 159 175 106 88 105 133 150 100 137 82 115 155 101 173 77 122 98 158 77 117 104 37 101 52 171 109 86 87 124 86 75 83 42 122 90 113 200 27 112 183 170 141 163 41 83 128 65 90 125 110 101 137 89 178 22 26 119 177 179 87 92 94 149 78 164 106 122 127 136 132 184 224 124 133 171 79 73 86 116 121 163 123 113 87 66 140 116 56 68 122 189 92 108 124 110 100 86 130 171 105 117 123 117 121 143 109 103 148 172 193 127 40 48 141 108 85 99 83 147 105 86 135 71 112 183 73 110 142 72 94 47 91 152 94 208 157 82 164 163 119 145 80 172 38 98 49 87 65 120 36 133 84 54 110 220 76 42 85 50 90 165 122 27 198 60 71 65 115 123 89 44 145 168 74 122 188 157 74 135 131 93 103 134 99 131 138 182 72 76 64 164 85 70 219 133 54 86 76 106 87 128 97 104 109 38 106 109 141 106 40 70 87 114 114 200 128 94 122 121 49 135 152 156 107 126 173 180 62 112 162 114 196 51 80 132 147 91 189 108 117 133 188 66 164 178 101 185 138 108 92 87 160 62 135 83 40 147 116 138 94 196 137 95 117 15 41 163 191 93 101 122 47 96 100 46 139 159 98 125 114 45 77 118 57 83 127 198 129 143 115 152 146 164 165 83 172 107 105 133 114 51 194 110 56 55 79 67 150 164 92 140 124 109 134 36 211 146 132 152 150 96 112 83 129 61 67 141 92 94 99 121 113 45 128 76 78 79 145 133 151 179 134 123 112 99 132 125 165 95 64 99 124 116 150 45 150 186 85 76 161 103 119 111 156 27 103 96 37 188 114 141 76 160 103 76 128 90 148 60 84 196 109 53 141 168 58 82 79 185 23 109 111 124 127 222 93 181 115 215 90 66 124 140 155 117 63 102 138 152 53 84 98 120 83 89 127 60 60 120 157 107 81 99 64 129 201 119 130 107 133 40 110 152 75 80 103 135 100 147 100 123 117 81 170 103 66 101 157 100 122 147 58 134 50 108 95 145 98 130 170 265 113 131 102 125 105 24 73 85 115 134 96 86 119 29 201 93 120 35 165 136 85 145 39 171 141 135 133 127 117 78 132 128 151 72 148 96 113 36 82 132 137 170 135 46 71 45 72 100 183 19 145 217 111 155 130 157 70 114 84 117 110 168 81 147 117 165 157 118 102 101 87 94 42 166 197 118 110 202 108 88 81 71 105 104 83 153 81 98 101 148 132 127 108 132 56 135 153 106 111 111 115 122 135 107 116 105 20 134 122 115 173 178 106 99 91 103 111 31 67 129 136 95 117 96 174 148 121 104 109 132 181 131 82 79 113 64 12 111 161 153 80 102 206 100 83 127 125 85 54 120 195 87 71 90 81 139 67 122 149 94 107 95 181 106 93 128 215 87 74 140 157 138 92 164 126 79 122 81 60 82 148 124 161 98 27 34 36 42 118 60 109 152 114 86 151 59 113 141 68 215 111 125 20 75 110 115 163 109 190 119 149 40 83 85 65 107 144 126 89 116 70 137 125 118 87 55 137 129 126 72 175 180 131 138 75 83 144 100 24 79 81 51 64 123 80 133 94 105 73 132 119 105 180 135 196 103 50 65 101 83 180 56 158 79 105 62 72 103 116 158 161 108 137 115 68 121 158 142 161 157 107 195 120 121 138 80 102 117 177 190 189 157 223 124 84 123 199 96 33 43 179 90 116 150 47 113 123 88 63 126 141 80 125 136 99 124 150 100 110 137 89 122 62 100 117 185 63 49 110 96 242 88 117 17 133 91 104 136 125 211 88 76 98 95 183 115 49 50 96 99 145 152 194 129 77 39 104 120 106 184 39 81 133 127 131 85 146 105 58 141 78 98 87 81 109 147 232 121 75 178 121 156 116 152 102 114 193 56 102 165 201 154 161 94 107 136 73 119 145 211 133 163 153 113 193 86 92 107 144 99 109 162 158 58 117 187 180 124 32 55 65 104 163 214 108 68 110 90 161 138 257 109 96 83 123 122 214 57 118 143 173 127 235 139 103 146 131 171 67 106 62 90 151 136 84 124 91 121 95 66 105 133 97 184 95 193 159 181 87 78 121 52 151 91 114 58 103 75 143 170 76 133 83 88 194 141 146 109 67 148 116 182 87 127 95 205 82 113 74 172 162 176 63 62 83 119 167 87 53 117 66 116 108 138 137 138 201 94 150 56 110 83 133 144 67 66 44 84 126 111 54 87 44 211 204 116 53 78 105 81 112 136 110 77 124 87 98 150 94 39 104 67 133 100 114 58 165 62 69 109 171 129 99 161 129 104 91 114 64 148 7 182 119 176 93 84 120 104 99 91 14 106 155 84 69 174 60 42 102 82 135 195 94 114 132 84 116 34 45 134 59 113 102 89 68 95 132 126 165 125 67 124 42 11 84 76 137 58 120 58 186 71 38 135 149 133 109 85 143 125 100 127 86 149 44 161 118 86 75 98 59 111 61 101 90 95 113 131 94 114 148 83 100 165 145 45 148 81 65 102 34 62 45 151 84 143 166 172 89 112 116 120 66 69 94 60 113 164 142 132 121 50 184 121 93 108 94 157 90 54 112 93 114 157 50 100 103 186 95 107 116 144 151 146 207 155 124 45 93 121 106 111 92 107 78 82 111 100 137 184 108 159 100 101 110 144 191 54 90 93 36 124 189 103 150 54 167 131 117 154 186 58 75 79 91 168 123 116 94 160 216 72 79 101 49 132 91 121 150 186 153 64 181 74 50 186 166 91 127 151 70 130 76 115 140 92 65 130 138 154 60 85 59 73 56 111 115 63 106 127 100 111 26 160 65 161 130 58 115 150 47 152 73 49 125 99 88 241 94 113 67 36 86 193 79 146 117 107 128 69 107 106 36 80 75 96 110 92 32 120 72 128 198 59 132 162 17 66 64 157 102 120 165 162 29 99 67 68 72 132 217 153 109 178 147 117 100 138 86 80 90 106 76 72 136 134 125 75 144 68 128 180 43 103 60 51 76 67 188 26 89 100 81 177 100 152 78 124 108 77 135 121 134 165 127 150 67 148 174 181 75 115 114 104 82 122 219 162 87 107 113 86 61 72 87 72 87 116 123 193 119 154 94 96 160 184 106 104 114 131 85 152 51 170 149 69 133 166 125 208 120 98 170 52 166 83 120 114 76 104 118 73 89 93 112 114 160 162 123 98 60 177 100 99 143 103 68 49 83 122 106 55 64 121 81 183 128 97 105 143 182 144 60 136 97 52 125 62 145 102 84 220 137 115 89 78 107 134 141 123 120 150 86 137 131 53 126 99 167 118 79 144 52 25 136 128 99 131 110 91 149 113 91 138 139 104 139 134 113 112 145 101 125 84 71 59 113 77 98 47 186 93 147 105 71 147 90 119 32 63 207 86 118 94 63 156 113 145 105 111 39 88 108 45 85 119 129 76 78 48 81 93 77 46 61 124 105 172 48 96 108 106 53 121 95 49 117 148 80 40 96 153 123 148 154 176 75 157 59 92 93 55 72 82 90 111 99 125 193 52 82 87 85 85 113 98 92 66 53 53 6 126 100 101 36 40 79 141 56 73 132 143 80 111 85 147 64 188 62 149 73 95 165 71 93 96 92 65 72 102 229 160 198 205 60 130 161 117 99 84 97 39 78 88 111 123 91 108 160 71 206 97 92 131 107 146 163 63 122 121 111 33 140 75 158 155 144 30 109 60 106 131 118 64 77 104 105 75 53 20 101 52 125 111 191 80 242 174 104 109 77 69 135 68 111 105 31 101 72 202 99 160 169 108 62 111 22 41 77 81 181 147 93 80 61 145 62 101 114 134 173 74 67 71 212 31 97 92 92 181 43 83 56 145 94 144 103 82 40 142 110 133 67 174 96 143 181 43 130 67 38 59 89 57 135 112 222 131 78 121 131 178 118 181 166 129 91 75 104 96 56 112 129 110 99 172 132 87 74 98 106 59 78 101 50 150 34 127 118 81 159 171 137 37 135 86 101 74 104 130 244 87 176 100 83 173 166 76 187 192 35 55 54 122 138 154 114 35 75 99 110 123 180 157 129 86 154 85 165 75 58 71 99 145 128 129 119 59 120 76 103 130 134 145 134 120 102 123 141 40 64 20 165 35 114 136 109 95 73 112 192 150 88 120 96 102 67 153 98 90 155 84 129 68 164 138 104 96 39 84 117 143 75 150 160 81 78 10 81 191 178 187 217 170 94 108 53 158 119 194 167 95 104 88 133 153 140 130 190 59 35 96 220 52 85 97 119 58 63 133 118 144 67 91 96 109 177 78 121 159 117 23 134 76 87 127 216 127 139 88 108 121 90 151 108 68 101 177 144 117 137 110 160 54 136 43 82 95 15 164 155 99 137 102 137 172 60 155 70 134 113 78 121 77 150 132 116 67 86 151 174 111 155 116 131 138 74 78 79 164 151 144 44 33 62 61 64 75 194 202 158 125 117 198 34 187 79 102 94 145 120 71 162 189 139 140 109 131 68 149 103 127 75 101 144 194 66 52 67 80 39 108 127 115 173 114 87 66 102 171 77 38 111 139 98 193 73 171 127 72 179 138 92 120 88 79 72 124 110 137 142 128 154 85 65 69 82 65 95 120 200 89 74 126 161 150 92 62 185 114 47 88 108 61 239 110 38 124 135 126 57 185 110 81 134 157 133 160 61 90 87 118 177 127 140 45 62 85 124 61 123 94 117 136 132 129 145 135 112 123 149 109 204 147 191 80 90 72 150 113 119 30 135 88 154 64 111 99 61 160 135 158 121 89 132 101 76 79 102 143 128 191 103 96 86 106 144 160 95 221 163 44 93 52 144 127 90 151 130 74 184 122 83 76 107 49 159 94 171 170 124 152 149 132 132 106 221 67 137 124 133 105 67 59 97 85 149 160 150 129 140 137 86 117 95 138 98 89 196 107 110 139 113 128 157 40 136 67 85 64 98 116 66 120 142 125 136 154 137 135 154 97 90 136 40 78 74 153 101 164 164 91 40 92 69 82 75 67 93 80 134 80 200 114 40 146 135 192 77 73 100 179 119 104 60 91 57 46 104 164 124 132 24 87 76 152 82 168 263 89 156 172 99 136 151 136 99 47 98 149 163 91 108 212 131 79 58 98 159 106 138 86 153 51 188 126 105 132 117 159 142 87 114 117 80 129 148 173 115 47 120 150 120 144 145 59 171 115 73 77 168 132 61 103 123 32 183 140 155 158 71 94 114 104 97 126 45 112 115 123 132 131 165 113 96 101 100 131 114 69 53 43 162 134 127 75 117 152 39 82 101 78 75 89 118 25 106 55 176 116 120 132 102 175 168 95 177 167 126 79 98 52 103 172 162 81 80 98 147 160 85 268 59 39 89 61 133 123 121 170 72 94 82 168 137 132 187 140 95 147 107 56 92 70 90 78 265 105 102 99 140 173 119 136 114 149 102 145 106 168 53 70 109 137 64 83 81 121 114 100 38 90 180 169 55 129 67 79 106 97 112 123 72 133 110 118 133 133 109 75 89 71 77 55 174 77 227 196 122 68 133 111 122 80 65 150 131 94 118 97 183 134 109 132 116 90 77 72 104 91 236 61 123 101 66 105 128 73 119 116 161 114 79 77 125 50 194 75 144 65 48 90 107 180 163 112 62 121 95 104 74 131 112 77 122 146 12</t>
+  </si>
+  <si>
+    <t>MIE(0.2810702221646968, 2.319183233666389, -2.013981970229645e-30, 1.4303758187051259)</t>
+  </si>
+  <si>
+    <t>0 2 0 1 1 0 1 2 2 1 0 0 1 0 0 1 0 1 2 2 2 2 1 0 1 2 1 2 0 1 2 1 0 0 2 1 2 0 3 1 0 0 1 1 0 0 0 0 0 0 1 1 0 1 1 0 0 2 0 1 1 0 1 1 0 2 1 1 1 2 3 1 0 1 1 0 1 3 0 0 1 0 0 0 1 2 1 2 1 0 0 1 0 1 0 1 0 1 0 2 1 0 1 1 2 1 3 0 1 1 1 1 1 1 2 2 1 0 1 2 0 2 1 0 0 0 0 2 1 1 4 0 2 0 1 1 0 1 1 0 1 1 1 0 2 2 0 1 0 2 0 0 1 3 2 1 0 1 1 2 2 0 0 1 0 0 2 0 1 1 2 0 0 0 0 4 0 0 1 0 0 1 2 0 1 1 0 1 0 1 0 0 1 1 1 1 2 1 1 2 1 2 1 2 0 1 1 2 0 1 0 1 1 0 1 1 0 1 2 1 3 0 2 1 1 0 1 0 0 1 1 0 1 0 0 1 1 0 3 2 1 0 1 0 0 0 1 0 1 0 1 0 0 0 1 1 0 2 1 1 3 1 1 1 0 0 2 0 1 0 0 2 1 2 0 0 2 0 0 1 1 3 0 0 2 1 1 2 4 1 3 1 0 3 2 0 1 1 0 0 1 0 2 1 1 1 3 1 2 1 0 1 1 1 0 0 0 0 2 2 1 1 3 0 0 0 0 2 1 2 1 1 1 1 2 1 0 1 2 0 0 2 2 1 1 0 1 1 1 1 1 0 0 0 1 1 1 0 0 1 0 2 1 0 0 0 1 1 0 3 1 1 1 1 2 2 0 2 2 1 0 0 1 0 0 0 1 2 1 0 2 0 1 0 2 2 0 2 4 0 1 3 2 1 2 1 1 0 1 1 0 1 2 1 0 1 0 1 0 1 1 2 0 1 2 3 2 0 0 0 0 2 0 1 3 0 1 1 0 0 1 3 2 1 0 1 0 0 0 1 2 1 1 1 1 1 3 0 0 0 3 0 0 0 4 0 1 1 0 0 1 1 1 0 1 1 0 3 1 2 0 3 0 1 1 0 1 0 0 1 2 1 1 1 3 0 0 1 1 1 0 1 1 1 1 1 2 0 0 0 1 2 0 2 0 1 2 2 0 2 1 1 0 1 2 3 0 0 1 0 1 1 1 1 1 0 1 0 0 0 1 0 1 1 0 1 0 0 0 1 0 0 2 1 2 0 0 0 1 0 1 0 1 1 1 0 0 1 0 0 1 0 0 0 0 0 2 0 0 3 1 0 2 0 1 0 2 1 0 1 1 1 0 0 1 0 1 1 3 2 0 1 1 1 1 1 1 3 0 0 0 0 0 1 1 1 1 0 2 0 2 1 0 1 0 0 2 0 0 2 1 0 2 3 2 1 2 1 1 0 1 1 0 1 0 2 0 2 1 0 1 0 1 2 2 2 1 0 0 1 2 2 0 1 0 1 0 1 0 0 0 1 0 0 2 0 0 0 2 2 1 1 0 2 0 1 0 0 2 0 0 0 3 0 1 2 1 1 2 1 0 0 0 1 1 0 1 1 1 0 0 1 0 1 1 0 1 1 2 1 3 1 2 1 0 2 0 1 1 2 2 1 2 2 0 2 0 1 1 1 1 0 2 0 3 0 0 2 0 1 0 1 1 0 1 1 2 1 1 0 0 0 2 1 3 1 2 1 1 0 2 3 2 0 1 0 1 0 1 1 0 0 2 1 0 1 1 0 1 1 1 2 1 0 0 0 1 0 2 1 1 1 1 1 2 1 1 0 2 1 1 0 4 0 1 0 0 2 1 1 0 3 0 0 0 0 1 0 0 1 1 2 0 1 1 0 0 4 1 0 0 1 0 0 1 2 0 1 1 4 1 2 0 1 0 1 1 0 1 1 1 2 2 0 0 0 2 1 3 0 1 0 0 0 1 0 0 0 0 2 0 0 0 0 0 1 0 1 2 1 1 0 0 0 0 3 2 0 2 0 2 2 0 1 1 1 0 1 2 2 1 2 0 1 1 0 2 3 1 0 1 1 2 2 0 2 0 1 1 0 2 2 1 1 0 2 1 2 1 2 2 0 0 0 0 0 1 1 1 0 0 0 2 1 0 0 0 1 1 1 1 0 0 3 1 1 1 0 0 1 0 0 1 0 0 0 0 2 2 0 1 0 0 0 0 0 2 2 0 0 1 0 0 1 0 0 1 0 0 0 0 0 2 1 1 1 0 0 1 2 1 1 0 2 1 0 3 1 0 2 0 2 0 1 1 1 0 0 1 0 1 0 0 1 1 1 1 2 3 0 3 2 1 1 0 1 0 1 0 0 0 1 1 2 0 2 0 2 0 0 0 0 0 1 1 1 2 2 4 0 1 0 1 2 1 1 0 0 2 3 0 0 0 1 0 1 1 2 2 2 0 0 2 0 1 0 0 0 0 2 0 2 3 0 1 1 1 0 0 0 1 0 1 0 0 1 2 0 3 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 2 0 3 0 1 1 0 2 0 1 0 0 0 0 0 0 2 1 2 0 1 1 2 1 1 1 1 0 1 1 0 1 1 1 0 0 3 2 0 1 1 1 1 0 1 1 1 0 1 0 1 0 0 0 0 1 2 0 0 0 2 1 0 1 1 1 1 0 0 1 0 0 0 1 1 0 0 2 0 1 0 0 2 0 0 0 0 0 0 0 0 1 2 0 1 0 0 1 0 0 0 1 1 1 0 1 1 0 2 0 1 0 0 0 0 1 1 0 0 1 1 0 1 0 0 1 2 0 1 1 1 2 3 0 1 0 0 0 2 3 2 0 2 1 1 1 1 1 0 1 0 1 0 0 1 1 0 2 1 1 0 2 0 0 1 1 1 0 1 0 0 2 0 0 2 1 0 0 1 0 1 1 0 0 2 0 2 1 1 0 0 1 0 2 2 0 3 2 0 0 2 3 0 3 0 0 1 0 2 0 1 0 1 3 1 1 0 0 1 1 3 1 1 0 0 0 2 2 1 0 0 2 0 1 0 0 1 0 1 2 1 2 1 0 0 2 0 3 2 0 0 1 1 1 0 2 1 0 1 0 0 0 0 0 1 0 1 0 1 1 0 1 2 0 0 1 1 0 1 1 0 0 1 1 1 0 1 3 0 0 2 1 0 1 0 1 1 0 0 0 0 1 2 1 0 0 2 0 1 2 1 1 2 1 1 3 1 1 1 0 1 2 0 0 1 1 2 4 0 0 1 0 2 1 1 1 1 1 2 1 2 0 0 0 1 0 0 0 2 1 1 0 3 2 0 0 1 1 2 0 0 2 1 0 2 1 1 0 1 0 1 2 2 1 0 0 1 0 2 0 1 1 0 1 0 0 3 1 3 1 0 3 0 0 3 2 1 1 0 1 2 0 2 0 2 1 1 1 4 1 0 1 2 1 1 1 2 0 0 0 1 5 1 3 0 0 1 0 3 0 0 3 0 0 0 0 1 0 1 2 0 1 1 3 0 0 0 1 2 1 0 0 1 1 1 0 1 0 1 1 0 0 0 0 1 2 0 0 2 4 1 1 1 0 0 0 2 0 1 0 1 1 1 3 2 1 1 2 0 0 0 2 1 0 1 0 1 0 1 0 3 0 0 1 0 1 1 1 3 1 0 3 1 2 0 2 0 1 2 0 1 0 1 2 0 0 1 1 0 0 1 2 0 1 1 1 1 0 0 1 0 2 3 2 4 0 0 3 2 0 0 3 0 1 1 0 1 2 0 1 2 1 2 2 0 1 0 3 0 1 1 0 0 0 0 1 0 1 0 1 0 0 3 0 0 0 0 1 1 1 0 0 0 1 0 1 1 1 2 0 0 0 0 1 0 1 0 2 0 3 1 0 0 1 1 1 0 1 0 1 0 0 0 2 0 1 0 0 0 2 0 0 2 0 0 2 0 3 1 0 2 0 1 1 1 0 2 2 0 0 1 2 1 2 0 0 1 3 0 0 2 2 2 2 1 0 0 0 0 0 2 1 1 2 1 0 0 1 2 0 4 1 0 0 1 1 0 1 0 2 1 0 1 1 3 1 0 1 2 0 1 0 0 1 2 0 0 1 0 2 2 1 0 0 3 1 1 1 0 0 0 5 2 1 2 2 1 3 0 0 1 2 0 0 0 0 3 0 1 1 1 0 2 1 1 0 1 1 1 0 3 2 2 0 0 2 0 1 1 1 2 0 2 0 1 0 1 0 1 0 1 1 1 1 0 0 0 2 1 0 0 2 1 0 1 1 0 1 0 0 0 0 1 1 1 1 0 0 2 0 2 0 0 1 0 2 2 2 0 0 2 1 1 1 0 0 0 4 0 2 2 1 1 1 0 1 1 2 0 0 0 1 1 0 1 2 1 0 2 0 1 1 0 0 3 1 1 1 1 0 2 1 2 0 1 2 0 2 1 2 0 0 0 0 0 0 0 0 1 2 0 1 3 1 1 2 5 0 1 2 0 1 2 2 0 2 0 1 0 1 0 2 4 0 3 1 1 2 1 0 0 1 0 0 0 2 0 0 1 1 1 3 1 0 0 0 0 1 1 1 0 1 0 0 0 1 2 2 3 1 1 0 0 1 2 2 0 0 0 1 0 0 0 2 2 0 2 0 1 1 0 2 2 1 1 1 0 0 0 0 0 1 1 0 1 0 0 1 2 1 1 1 0 0 0 0 1 1 0 1 1 1 1 0 2 0 0 1 0 0 1 1 0 0 2 1 1 0 3 0 1 2 0 1 1 2 0 1 0 1 1 0 2 0 3 0 0 1 1 0 1 1 4 1 1 0 1 0 0 1 1 1 0 1 0 1 0 1 0 1 0 1 0 1 0 1 1 1 0 2 1 3 0 1 1 0 2 0 1 0 2 1 0 0 1 1 1 2 2 1 1 2 2 0 1 1 0 1 1 0 0 0 2 1 0 0 1 1 0 1 1 1 3 0 1 1 0 1 0 1 0 2 0 1 1 0 0 1 0 0 1 1 1 1 2 0 1 0 2 1 1 1 1 2 1 0 2 0 0 1 0 1 0 1 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 1 0 1 2 1 2 0 0 3 0 1 0 0 0 1 2 0 0 2 0 1 0 1 0 1 1 1 0 0 1 0 1 0 3 0 0 0 1 0 1 1 0 0 2 1 1 1 0 1 0 0 1 1 1 0 0 1 0 0 3 2 0 0 1 0 0 1 0 0 0 2 0 0 1 0 1 1 1 0 2 1 1 1 0 0 1 1 2 1 0 0 1 1 1 1 0 0 0 1 1 0 2 1 1 0 0 2 0 1 1 1 1 1 0 2 1 0 1 3 0 0 1 1 2 0 1 1 1 1 1 0 1 0 0 2 3 1 1 0 2 1 1 0 1 0 0 1 1 1 0 0 0 1 1 2 1 0 1 1 1 1 1 1 1 0 1 0 1 2 1 0 0 0 1 1 0 1 0 1 0 0 0 1 0 0 2 2 1 3 1 1 0 1 1 2 1 1 1 1 1 2 2 2 1 2 1 0 2 1 2 0 0 1 1 0 0 1 1 0 2 1 0 1 1 1 0 1 1 0 0 0 0 1 2 1 2 1 2 0 0 2 1 1 2 1 1 0 0 0 2 0 0 2 4 1 0 0 0 0 0 1 1 3 2 1 1 1 0 1 1 0 1 3 0 2 0 0 0 1 2 1 1 2 0 0 0 0 2 0 0 0 0 1 0 1 1 0 0 0 0 2 1 1 2 0 3 0 1 0 1 1 0 0 0 0 3 0 1 1 2 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 1 0 2 2 3 1 0 1 1 0 1 3 1 0 2 0 1 1 1 1 2 3 0 0 1 1 1 2 0 0 0 0 0 3 0 0 2 1 1 1 0 0 1 2 0 2 0 1 0 2 2 1 0 2 1 1 0 2 1 3 0 0 1 3 2 0 1 0 0 2 1 3 1 3 2 0 1 0 0 2 2 2 3 0 0 0 0 0 1 1 1 0 1 0 1 1 3 1 1 1 1 0 1 1 0 1 0 0 0 1 0 1 1 2 0 1 1 2 2 2 2 1 0 0 0 1 3 1 0 1 0 2 0 0 2 2 3 0 4 0 1 2 1 2 1 2 0 3 0 0 0 1 4 0 2 3 0 0 2 0 1 3 0 2 0 0 1 0 2 0 1 1 2 1 2 0 0 2 1 1 3 0 1 1 1 2 0 1 1 0 3 2 1 0 2 0 1 1 2 1 0 0 2 1 0 0 0 0 1 1 2 1 0 0 1 1 2 1 1 0 0 1 0 0 0 2 0 4 0 1 2 1 1 0 0 1 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 0 3 0 0 1 1 1 3 0 0 0 2 1 0 0 0 0 2 2 1 0 0 2 2 0 1 0 1 0 0 2 0 0 1 0 1 1 1 0 2 0 0 0 1 2 0 3 1 2 1 1 1 0 2 3 0 4 0 0 0 0 2 2 1 2 0 1 2 2 0 4 2 3 0 0 0 0 0 1 1 1 3 0 1 1 2 1 0 0 1 0 1 0 0 0 3 1 0 1 2 1 1 0 1 0 1 0 0 2 3 0 2 0 1 1 2 1 1 0 2 3 1 0 2 1 1 1 0 0 0 0 0 2 0 0 0 0 1 1 2 0 0 1 1 1 0 2 2 1 0 2 1 0 2 0 0 0 0 1 0 1 0 0 2 0 1 1 1 0 0 2 0 1 0 1 0 2 0 0 2 1 1 0 0 2 1 2 0 0 1 2 2 1 2 1 1 1 2 1 0 0 1 0 2 0 3 0 0 0 1 0 1 0 2 1 2 0 1 0 2 1 0 0 2 1 0 0 0 0 0 0 1 1 1 1 0 1 0 1 2 0 0 0 0 0 1 1 0 3 0 1 1 0 1 0 1 1 0 4 0 1 2 0 1 0 1 0 0 0 1 0 2 1 0 0 1 2 2 1 1 0 0 0 2 0 1 2 2 1 2 0 0 2 0 1 0 0 1 0 2 2 0 0 1 1 1 0 1 1 0 0 0 1 1 1 0 0 0 1 0 1 0 0 1 4 1 0 2 0 0 0 1 2 2 0 0 1 3 1 1 2 0 1 0 1 0 2 1 1 1 1 1 1 1 0 0 1 0 0 1 1 0 1 0 1 0 0 0 0 2 0 0 3 1 1 0 0 1 2 1 0 0 1 1 0 0 1 0 0 1 2 0 1 1 2 2 0 0 0 1 0 1 2 0 0 0 1 2 1 2 2 1 0 0 2 0 0 0 0 2 1 0 0 0 0 0 0 2 3 1 2 0 1 1 0 0 2 0 0 0 1 1 0 2 1 0 2 1 0 1 1 1 3 1 2 2 1 2 0 0 1 1 1 2 0 0 0 1 1 0 1 1 0 0 1 1 1 0 0 2 1 0 3 0 2 0 1 1 0 2 0 1 2 1 1 1 1 2 1 0 1 1 0 1 1 0 1 0 1 1 0 2 0 0 1 1 1 0 0 1 0 0 1 0 0 0 2 0 1 2 1 0 1 0 0 1 0 3 1 0 1 1 0 1 3 1 0 1 2 0 0 3 1 0 1 1 2 0 1 1 1 0 0 0 0 1 1 0 0 1 2 3 0 0 3 0 2 0 0 0 0 1 3 2 1 0 0 0 1 2 2 0 0 0 3 0 0 0 0 1 1 1 1 2 2 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 2 1 0 1 1 2 0 0 0 1 2 3 0 0 0 1 0 1 1 1 4 0 0 2 4 1 0 0 1 2 1 0 0 0 1 1 0 2 3 1 0 0 5 2 2 1 2 1 0 0 4 0 0 1 1 1 0 1 1 2 0 1 3 1 1 2 0 2 3 2 0 0 1 1 2 1 2 2 0 0 1 1 0 2 0 1 1 2 0 1 0 1 0 0 0 1 0 1 0 2 1 1 1 1 2 1 0 2 1 0 1 0 0 3 1 1 0 0 3 0 0 0 1 2 3 0 0 1 1 0 1 2 1 1 0 2 2 0 1 1 0 1 1 0 2 2 1 0 2 0 1 0 1 3 0 0 1 0 3 1 0 0 0 0 2 0 0 2 1 2 1 3 0 0 0 2 1 1 1 2 1 1 2 1 0 0 3 0 1 0 0 0 0 0 0 0 0 0 1 0 0 3 1 0 2 2 1 2 0 1 1 2 2 1 2 1 2 0 0 0 1 2 1 0 0 1 3 2 0 1 0 1 0 2 0 0 2 1 0 0 2 0 0 1 1 0 1 1 0 1 0 2 2 1 0 0 0 0 0 0 1 1 1 1 1 1 1 1 0 1 0 1 0 1 0 3 0 2 1 0 1 0 0 0 0 2 0 0 0 0 1 2 0 1 2 0 1 0 1 1 1 1 0 1 3 3 1 0 1 1 1 2 1 0 1 0 2 0 0 1 0 0 1 2 1 0 1 2 2 1 3 2 0 1 1 2 1 1 1 1 2 0 1 1 1 1 0 2 3 0 0 0 0 1 0 1 0 1 1 2 2 2 1 0 1 3 0 1 1 0 1 2 2 0 0 1 1 1 1 1 1 0 1 3 1 1 1 0 0 1 1 0 0 0 2 1 2 1 0 3 0 2 4 1 2 1 1 1 0 0 1 0 3 1 1 3 0 0 0 0 1 2 2 0 1 1 1 1 1 2 0 0 1 2 0 0 1 0 0 1 0 2 1 0 2 1 1 0 0 0 4 0 0 4 0 1 1 1 1 0 4 2 3 2 0 1 1 1 1 0 1 0 0 4 0 0 1 0 0 2 0 1 3 0 1 2 1 1 0 0 0 1 0 2 1 0 1 0 0 1 4 2 0 0 1 0 1 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 2 1 0 0 1 2 2 1 0 1 1 2 0 1 2 0 0 1 0 3 2 1 1 0 1 0 2 0 0 0 2 1 0 3 0 1 0 1 0 1 1 0 0 0 0 0 2 3 0 1 1 2 0 0 1 1 1 1 0 0 0 3 1 0 1 1 0 0 0 1 0 0 2 0 1 0 2 1 1 2 0 0 0 0 0 0 1 3 2 1 1 1 0 0 0 1 0 0 1 0 0 1 2 1 1 2 0 2 1 0 0 2 0 0 1 0 0 0 1 0 3 0 1 1 0 1 1 0 4 3 0 0 1 2 0 1 3 0 0 0 0 0 1 3 0 1 1 2 0 1 0 2 0 1 0 0 1 0 3 1 1 1 2 1 1 3 0 0 0 1 1 2 1 3 0 1 1 1 0 2 3 0 0 2 2 3 0 1 2 0 1 0 0 0 2 0 1 1 0 3 2 2 0 1 1 2 1 2 1 0 2 0 1 2 0 2 1 1 1 1 1 0 1 1 1 0 1 0 1 2 1 1 1 1 0 1 0 1 2 4 1 1 1 1 0 1 1 2 1 2 1 1 0 0 0 1 0 2 1 1 1 2 0 0 0 0 0 1 1 1 1 0 2 0 2 1 1 0 0 2 0 2 0 0 2 0 1 1 2 0 1 2 0 3 1 0 0 0 1 0 0 1 0 0 1 1 0 2 1 1 1 1 0 0 2 0 1 0 0 0 2 0 0 0 1 2 0 1 1 1 0 1 3 0 1 0 1 0 0 0 1 0 0 3 1 0 2 2 2 0 1 0 1 3 1 1 0 1 0 1 0 1 3 1 0 1 1 1 0 0 0 1 2 1 0 0 1 0 1 1 0 0 0 1 2 0 1 0 0 2 0 1 1 1 0 1 0 1 0 1 1 0 0 0 0 1 0 2 1 0 2 0 1 1 2 0 0 2 0 1 0 1 0 0 1 1 0 1 0 1 0 0 1 1 0 0 0 2 2 1 0 1 0 0 1 0 4 1 3 0 1 1 0 1 2 1 1 3 0 0 0 1 0 1 0 1 1 2 2 0 1 1 0 1 1 1 0 1 2 0 0 0 0 1 1 2 0 1 0 2 1 2 3 0 1 0 3 2 1 2 2 0 1 1 0 0 0 0 1 0 3 1 1 1 0 1 0 1 1 2 1 1 2 2 1 1 0 2 3 1 1 1 0 2 2 0 0 0 1 2 0 0 0 2 0 3 0 4 1 2 0 1 1 0 0 1 0 0 1 0 1 1 2 1 0 3 1 0 1 2 2 1 1 1 1 1 0 2 0 0 1 0 0 2 1 1 2 1 0 0 1 0 0 0 0 2 2 0 2 1 1 1 2 0 2 2 0 0 1 0 0 1 1 0 0 0 0 0 3 0 1 0 0 0 2 0 1 0 1 1 0 0 0 2 1 0 0 1 2 0 0 1 1 0 1 1 2 0 3 1 0 0 0 1 1 0 2 1 0 0 0 0 1 1 2 2 1 1 1 1 0 0 0 1 2 1 0 0 1 0 1 2 2 0 1 0 0 2 0 0 3 0 0 0 0 2 1 0 1 2 2 1 0 2 0 3 1 1 0 0 0 3 2 0 1 1 0 0 1 1 0 1 2 2 0 1 1 2 0 0 1 1 1 1 0 0 3 0 1 0 1 1 0 2 2 0 2 3 1 1 2 0 1 2 2 0 2 1 0 0 2 0 0 2 1 1 1 0 1 0 0 1 0 1 2 1 0 0 0 0 2 2 0 0 0 0 3 1 1 0 1 0 0 1 0 1 1 0 1 2 1 0 0 0 1 0 1 2 1 1 1 1 0 2 0 2 2 1 0 1 0 1 1 3 1 1 0 0 0 0 1 2 0 0 1 0 1 2 1 2 1 1 1 2 1 0 1 1 0 0 1 1 0 0 2 5 0 0 0 0 1 1 2 0 0 0 1 0 1 1 1 0 0 1 2 1 0 2 0 2 2 0 1 0 2 2 2 1 0 1 0 1 1 1 1 0 1 1 0 0 0 0 2 0 1 2 1 0 0 1 2 1 0 0 0 0 1 0 2 1 0 2 0 0 1 0 1 0 0 0 1 1 0 0 1 1 0 0 1 1 1 1 2 1 0 0 0 1 1 0 4 0 0 0 0 2 1 0 0 0 0 2 0 0 1 4 2 0 1 1 0 0 2 2 0 0 2 2 1 0 0 3 0 1 0 2 1 3 0 0 1 1 0 1 2 0 2 1 1 2 0 0 2 0 1 1 1 1 0 1 1 1 1 0 1 1 0 0 1 1 0 2 2 1 2 1 0 2 1 2 0 1 0 1 1 2 1 0 0 0 2 0 1 2 0 1 1 1 1 0 2 1 0 1 0 1 2 2 0 0 1 1 0 0 1 2 0 0 1 1 2 1 1 2 0 0 0 1 0 0 1 1 1 1 0 1 1 2 1 0 1 2 0 1 1 0 1 2 0 2 1 0 0 3 1 2 1 0 2 0 0 1 0 0 0 0 1 1 1 1 2 3 0 1 0 0 0 1 0 0 1 0 0 0 2 0 2 0 0 1 0 0 0 0 0 0 1 0 1 2 0 0 0 0 1 2 2 1 2 2 1 0 3 1 2 0 1 0 0 0 0 0 0 0 0 1 0 1 0 1 2 2 1 0 0 1 1 1 2 0 2 0 2 0 0 1 1 1 0 0 0 1 0 1 0 1 0 1 0 2 0 0 1 0 1 1 1 0 2 2 0 0 0 0 2 2 0 0 0 0 2 0 0 1 1 1 1 2 1 3 1 0 0 0 3 0 0 0 0 4 0 1 0 1 0 1 1 1 2 0 2 2 1 0 1 1 0 2 2 1 0 2 0 1 1 0 0 0 2 0 1 0 1 1 2 1 1 0 1 1 1 0 0 2 2 0 2 0 1 1 2 1 2 0 2 1 0 0 1 2 2 0 2 0 1 0 1 1 0 0 1 0 0 0 0 1 0 0 1 1 1 1 1 0 1 0 0 0 0 1 0 1 1 0 1 0 1 2 1 0 2 1 0 0 3 1 0 1 0 2 0 1 1 1 1 1 0 0 0 1 4 1 2 0 2 0 1 3 0 0 0 1 2 2 2 1 1 0 1 1 1 0 1 3 1 3 3 0 1 1 0 0 0 2 1 2 1 1 1 0 1 1 1 3 0 2 3 0 1 0 0 0 0 1 1 2 2 2 0 0 1 0 0 3 0 2 1 1 1 1 0 2 0 2 0 2 1 0 2 2 2 1 2 2 2 0 5 1 0 1 1 1 1 2 1 1 2 2 1 3 2 0 1 1 1 0 1 0 1 0 1 1 1 0 0 0 0 0 1 0 1 2 1 0 0 1 0 2 0 2 1 1 0 0 1 1 1 1 2 1 2 0 2 1 0 1 2 1 1 0 3 1 4 0 1 0 0 1 0 0 1 1 0 0 1 0 2 0 0 0 0 0 0 1 1 1 1 1 2 2 2 0 1 0 1 1 1 1 0 0 1 1 2 0 1 1 0 3 1 0 2 0 1 0 1 1 2 3 1 0 1 1 1 0 1 1 2 1 0 3 1 3 3 1 1 1 1 0 3 3 1 0 0 0 3 3 0 2 0 0 2 2 1 3 0 0 0 1 5 0 1 1 0 2 1 0 1 1 1 1 3 2 0 1 1 2 5 0 1 0 0 4 1 0 1 2 0 1 1 0 0 1 1 0 0 1 1 2 0 2 0 0 0 0 1 0 1 3 1 1 0 0 1 1 0 1 1 1 1 1 0 1 1 2 0 0 1 1 2 2 2 1 1 0 4 2 1 2 1 0 1 1 0 1 1 0 2 1 0 0 2 0 0 0 1 1 0 3 0 1 1 0 0 0 0 2 1 1 2 0 0 1 0 0 0 1 1 3 2 0 1 1 1 3 2 1 2 1 1 0 1 0 0 0 0 2 1 1 3 1 1 1 1 1 0 1 1 0 1 1 1 0 0 1 0 0 1 2 0 1 2 1 3 0 1 0 0 0 0 0 2 1 1 2 0 1 0 0 0 1 0 0 0 0 2 0 0 4 1 0 2 1 1 2 1 1 1 1 0 1 0 3 0 0 2 2 2 2 0 0 2 2 3 0 2 0 1 1 2 0 3 1 0 0 2 0 2 0 1 0 0 1 0 0 0 0 0 2 0 0 0 3 2 2 0 1 1 0 0 3 0 1 2 1 0 1 2 1 1 0 0 2 0 0 1 1 0 1 0 1 0 1 1 1 1 0 2 1 0 1 0 0 1 1 1 1 0 0 0 0 1 0 0 0 0 1 1 1 0 1 1 0 0 2 0 0 1 0 0 0 0 1 0 0 2 1 0 1 3 1 0 1 0 0 1 0 4 2 0 1 0 1 2 1 3 2 2 0 1 0 2 1 1 3 0 1 0 3 0 1 1 1 0 2 0 1 1 2 0 0 4 1 1 1 1 0 0 0 0 0 0 1 0 0 0 1 0 2 1 1 0 0 2 0 0 0 2 0 2 2 1 0 0 0 1 1 1 0 0 0 1 0 1 2 0 0 1 2 1 0 1 0 2 0 0 1 1 3 2 2 2 1 2 0 0 1 0 2 2 1 0 0 1 1 1 0 1 0 0 0 1 2 0 0 1 0 0 2 1 2 2 1 0 3 0 1 1 2 0 1 0 1 2 1 2 0 1 1 1 3 0 1 0 1 1 2 0 0 0 2 0 0 0 3 2 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 1 2 1 0 1 1 0 1 0 0 0 1 0 0 1 0 0 3 1 1 2 0 1 1 0 2 0 1 1 1 1 2 1 1 0 1 0 0 1 0 0 2 2 0 0 0 2 1 1 0 0 0 1 0 1 0 0 0 1 1 0 0 0 2 0 2 1 0 1 1 2 1 1 2 0 1 1 0 0 0 2 1 0 0 2 2 1 3 2 1 2 0 1 0 1 2 1 0 1 1 0 2 0 0 0 1 0 0 1 2 0 0 1 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0 3 1 0 1 0 0 0 0 1 0 1 0 1 1 1 1 1 1 1 0 2 2 1 1 1 0 1 1 2 1 0 0 1 0 0 2 0 0 1 0 0 0 0 0 2 0 4 0 1 3 2 0 0 1 1 2 1 0 1 0 1 1 0 0 0 1 0 0 0 1 1 1 1 0 1 1 0 0 0 1 1 0 1 1 1 1 2 0 0 1 0 1 1 2 0 0 1 1 1 1 0 0 2 2 0 0 2 1 2 0 0 1 0 0 1 0 0 2 0 1 2 1 0 0 2 0 0 0 2 0 0 0 0 0 0 0 0 2 3 0 2 0 0 0 2 1 0 2 1 0 2 3 0 0 0 3 1 2 1 1 2 2 1 1 1 1 1 1 4 1 0 1 3 2 3 3 0 0 0 2 0 0 0 0 2 1 1 0 1 0 0 0 2 1 0 2 2 0 3 0 3 3 0 2 0 1 1 2 1 1 0 2 0 1 2 1 0 2 2 2 1 2 0 0 0 1 1 0 0 1 0 1 3 0 0 1 1 2 1 1 1 1 0 0 2 1 1 0 1 1 2 1 0 0 1 0 1 0 3 2 1 1 2 2 0 2 0 2 1 3 2 1 0 3 0 0 0 1 1 0 2 0 0 1 1 1 0 2 1 2 0 1 1 2 3 0 1 1 0 1 1 0 3 2 1 2 1 2 0 0 0 0 1 1 0 0 2 1 0 3 1 0 1 0 4 1 3 1 0 3 2 0 1 0 1 0 1 0 0 0 1 1 0 2 1 1 0 0 0 2 2 0 0 1 0 0 0 0 0 1 1 3 0 0 1 2 2 0 0 0 1 0 1 1 1 0 1 1 3 1 0 1 2 1 1 0 1 0 0 1 0 0 1 2 1 1 2 1 0 3 0 0 1 1 1 0 0 0 1 0 2 0 0 0 1 1 0 0 1 0 1 0 3 0 0 0 2 0 1 1 1 0 0 0 1 2 2 0 3 0 0 0 2 0 2 0 0 0 0 1 1 1 2 1 2 0 0 2 0 3 1 1 1 2 2 1 1 0 1 0 0 0 1 1 0 1 0 1 1 0 0 0 2 0 0 2 1 0 1 0 0 0 2 1 0 0 1 2 1 0 1 2 0 2 1 1 1 0 1 0 1 2 0 0 1 0 0 0 3 2 1 0 0 0 2 0 1 0 0 1 1 0 0 1 0 0 1 0 0 1 2 0 0 3 0 2 2 1 1 1 0 1 0 0 1 1 0 0 1 1 0 1 1 1 2 1 2 0 2 3 2 2 1 1 1 1 2 1 2 0 0 0 1 1 0 2 3 0 1 0 0 1 1 0 0 1 0 0 1 0 2 3 1 1 2 0 1 0 0 1 1 0 0 2 2 0 0 0 1 0 2 1 2 0 1 1 1 0 0 1 1 1 1 0 0 1 2 0 1 0 2 3 1 2 0 0 1 2 0 1 0 1 2 1 3 1 0 0 1 1 1 1 1 0 0 1 2 0 1 1 2 0 2 1 0 0 1 0 1 0 0 0 0 0 1 2 0 0 0 0 1 0 0 3 1 2 0 1 0 0 1 1 0 0 1 3 2 1 0 0 1 0 0 1 0 1 0 1 0 1 1 1 3 1 2 1 2 2 0 1 2 2 1 1 0 1 2 1 0 0 0 2 0 0 2 3 1 2 0 1 2 0 2 1 1 1 0 1 1 2 2 1 1 1 0 2 1 0 2 1 2 1 1 0 2 1 0 1 1 1 0 1 0 1 1 2 0 0 0 1 1 0 1 1 1 4 0 0 2 0 2 1 1 0 0 0 1 2 1 2 0 0 2 0 1 2 1 2 1 1 2 1 0 0 1 1 0 1 0 0 1 0 0 2 3 0 3 0 0 1 0 2 0 1 0 0 3 1 1 0 1 1 0 2 0 0 0 0 0 1 3 1 1 1 0 0 0 1 0 0 1 2 1 0 1 1 2 0 2 1 0 0 1 0 0 1 0 1 0 1 2 1 0 1 0 0 1 0 2 1 0 0 0 0 2 2 3 1 1 2 0 1 1 0 2 2 0 1 0 0 0 1 0 0 1 0 0 0 2 0 2 3 0 0 0 1 2 0 0 0 1 2 1 0 2 1 1 0 2 2 1 2 1 1 1 2 1 2 1 1 0 0 0 1 0 2 1 0 1 1 0 0 0 0 0 1 0 0 2 0 1 0 1 2 0 2 1 2 0 0 0 0 1 1 1 0 1 0 0 0 0 0 3 0 2 0 1 1 0 0 1 2 3 3 2 0 3 2 0 1 2 1 2 0 0 0 2 1 0 2 0 0 1 1 0 0 2 1 1 1 0 0 0 0 1 0 2 1 1 1 2 0 1 0 0 1 0 0 2 0 1 0 1 3 1 1 1 2 1 0 2 1 3 1 1 1 1 1 2 2 1 0 2 0 1 0 2 1 1 2 0 0 0 3 0 0 0 1 2 0 1 1 1 0 1 0 0 0 0 1 3 0 0 1 1 2 1 0 0 0 1 0 0 1 1 3 0 0 2 0 3 1 1 0 1 1 3 2 2 1 0 0 0 3 0 2 1 1 2 0 0 0 2 0 0 1 0 0 0 0 2 0 1 1 0 2 1 1 2 1 1 0 2 0 0 0 0 0 2 0 0 2 0 0 2 2 0 1 2 1 0 0 0 0 1 0 1 1 0 1 3 0 2 1 0 0 1 1 1 0 2 0 1 0 1 2 0 1 1 0 1 0 3 0 2 2 2 1 2 1 0 2 0 1 0 1 0 1 0 0 0 1 1 1 1 0 1 2 0 2 1 1 1 2 0 3 1 0 2 1 1 0 1 1 2 3 1 0 0 0 0 0 0 1 0 0 0 1 1 1 0 1 0 2 1 1 0 0 0 1 0 0 1 1 0 1 1 1 0 0 1 1 3 0 2 0 1 1 1 0 1 1 0 0 1 2 2 0 1 0 2 0 0 0 0 1 1 1 1 1 1 0 1 1 0 1 2 0 1 1 0 2 1 0 0 2 2 1 1 1 1 4 0 1 0 2 0 1 2 2 2 1 0 1 0 1 0 2 2 0 0 1 2 0 2 0 0 0 0 1 0 1 1 1 1 1 0 1 1 0 1 1 1 0 1 0 0 0 0 0 3 0 0 0 0 1 3 0 0 2 2 0 1 2 1 1 0 2 0 1 2 1 2 1 0 0 1 0 0 2 0 1 2 0 0 1 1 0 1 1 1 0 0 0 0 1 0 0 2 0 2 1 3 1 2 0 3 0 0 0 0 1 1 3 0 0 1 0 0 1 0 1 0 1 0 0 2 1 1 0 0 1 2 1 0 1 3 2 1 2 2 1 1 0 1 1 0 0 1 1 1 0 1 2 2 2 1 5 0 1 1 3 1 0 1 1 0 1 2 0 2 1 4 2 1 1 1 0 1 0 0 0 2 3 0 3 2 0 1 1 0 1 0 1 0 1 0 0 2 0 0 1 2 1 0 2 1 2 0 3 0 1 1 3 0 0 1 0 1 1 0 1 1 0 3 1 2 0 1 1 0 1 1 0 0 2 1 2 1 1 0 0 0 2 0 0 0 0 0 0 0 2 0 1 1 0 0 0 0 1 0 0 0 1 0 0 1 0 1 1 1 2 1 0 1 1 0 4 2 0 1 1 0 0 1 2 2 2 2 0 0 0 1 0 0 1 1 0 0 0 0 0 2 0 2 0 3 1 0 0 0 0 1 2 0 0 1 2 0 1 0 0 1 2 2 0 0 1 1 1 1 1 1 3 0 1 1 0 1 1 2 0 0 2 0 1 1 0 0 0 1 1 1 2 1 1 0 2 1 0 1 1 1 0 1 1 2 1 0 0 0 0 1 1 0 3 3 1 2 0 0 2 1 1 1 1 1 3 1 1 1 0 2 0 0 2 0 1 1 1 1 1 0 0 0 2 1 0 0 2 1 1 2 1 0 1 3 0 0 1 0 1 1 0 0 1 1 2 2 1 2 1 0 2 1 1 1 3 1 1 1 1 1 1 0 1 0 1 1 1 3 1 1 2 0 2 1 0 1 1 1 0 2 1 0 1 2 3 0 0 0 1 0 0 0 0 1 1 2 0 0 0 1 0 0 1 0 1 0 1 1 2 0 2 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 1 0 1 2 0 0 1 0 0 1 0 0 1 2 3 0 2 3 1 0 3 3 1 2 0 0 0 1 1 0 2 0 1 1 4 0 0 0 0 2 0 1 2 0 0 0 0 0 1 1 0 0 0 1 1 0 2 2 2 1 2 1 0 2 0 0 2 1 2 1 0 1 0 1 0 0 1 2 0 4 1 0 2 0 0 1 0 0 0 2 0 1 0 1 0 0 2 3 2 0 1 2 2 1 1 0 1 0 0 0 2 0 2 1 2 0 1 2 2 0 0 0 0 0 1 0 2 0 0 1 2 1 1 1 3 0 1 0 1 0 0 0 0 1 0 2 1 2 3 1 1 2 0 0 0 0 2 2 0 0 0 0 0 2 1 2 0 2 1 0 1 0 1 1 0 2 0 1 1 2 0 0 0 1 0 0 1 2 0 1 0 1 1 0 2 0 0 0 2 0 0 1 2 2 0 1 2 0 0 3 2 2 1 0 1 0 1 2 1 1 0 1 0 1 0 2 0 1 0 0 1 2 0 2 1 1 1 1 2 0 2 1 3 1 0 1 0 0 0 1 1 0 0 0 1 1 0 0 0 1 2 2 0 0 0 0 3 2 1 1 0 1 1 1 1 0 0 0 0 1 1 0 1 1 1 2 2 0 1 0 2 2 0 0 3 0 1 0 2 0 1 1 0 1 0 1 1 0 1 1 1 0 1 0 1 1 1 1 1 1 0 1 0 0 1 0 0 1 0 0 2 1 3 0 1 2 0 0 1 1 0 0 1 1 0 1 2 0 1 1 0 0 1 2 2 0 0 0 2 1 1 0 1 1 1 0 3 0 0 0 1 1 1 0 2 0 0 0 0 1 1 3 1 0 0 1 1 2 1 0 1 0 2 2 3 1 1 1 2 0 0 0 0 0 0 3 1 0 1 0 2 1 0 3 0 0 0 0 1 1 1 0 2 0 1 1 0 2 1 1 1 1 0 0 0 0 1 1 0 0 1 0 0 1 3 1 1 1 3 2 0 1 0 1 1 1 0 0 2 5 1 2 2 1 1 0 0 1 1 1 4 0 1 0 1 1 1 1 1 3 2 1 0 0 1 0 0 0 0 1 1 1 1 2 1 0 0 1 0 1 1 1 1 0 0 1 0 1 1 0 0 0 0 1 0 0 1 2 0 1 1 0 0 1 1 0 0 0 0 0 1 3 0 1 2 1 0 2 1 1 1 1 3 1 0 0 0 1 1 0 3 0 0 0 0 0 3 1 1 0 2 2 1 2 0 0 1 0 4 0 3 0 1 0 2 1 2 0 2 0 2 0 2 0 0 1 0 1 0 2 0 1 1 0 1 1 1 0 1 2 0 0 0 0 0 2 1 0 0 0 1 1 1 1 2 0 1 2 0 1 0 0 3 1 2 0 2 0 1 0 0 1 3 1 0 2 2 1 0 0 0 0 1 0 3 1 1 0 0 1 1 1 1 0 2 1 0 1 2 1 0 0 2 2 1 0 1 0 1 1 1 1 0 2 0 1 2 0 0 1 0 1 1 1 0 2 0 0 0 0 0 1 1 0 0 1 1 1 1 1 0 1 3 1 1 2 0 1 1 0 0 1 0 0 1 0 1 0 0 1 1 3 1 1 3 0 1 2 2 2 0 0 1 1 0 2 1 1 2 1 1 0 1 0 3 1 0 0 2 0 1 2 1 1 0 1 2 0 0 1 0 0 0 3 2 0 0 1 1 1 2 0 2 1 0 0 1 0 0 1 0 1 1 2 4 2 0 0 2 0 0 1 0 1 0 0 1 1 1 0 1 1 0 1 0 3 1 1 1 3 1 0 1 3 0 0 1 0 1 0 2 0 1 1 2 1 3 1 1 0 1 1 1 1 1 0 2 1 0 0 1 0 0 0 0 1 0 3 1 1 0 0 3 1 1 2 2 0 1 1 2 0 2 0 1 2 0 0 1 3 1 0 1 0 2 0 0 1 0 0 0 0 2 1 1 2 0 0 1 1 0 0 0 1 1 0 1 0 2 1 0 1 1 0 1 0 1 0 1 1 1 2 2 1 0 0 0 0 0 0 5 0 2 1 1 1 0 1 1 2 1 1 1 2 0 1 1 0 3 3 1 1 0 0 0 0 1 2 0 1 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 1 0 1 0 0 1 0 1 1 0 1 0 1 0 1 0 0 0 0 1 1 3 0 0 2 2 0 3 0 1 1 0 2 3 1 0 3 1 0 0 1 0 0 0 0 0 2 0 0 0 3 1 1 1 1 0 0 0 0 2 1 0 3 3 0 2 0 1 1 1 1 3 0 2 1 2 0 1 1 1 0 0 1 0 1 3 0 0 2 1 2 1 1 2 0 0 1 1 1 1 0 2 0 1 0 0 3 1 0 1 3 1 1 0 0 0 2 1 2 0 1 4 1 0 0 1 0 2 1 1 2 2 1 3 2 1 1 0 1 1 0 1 0 1 1 2 0 1 0 0 0 0 0 2 1 0 3 0 2 0 1 1 2 0 2 1 3 1 0 0 2 3 2 0 1 1 0 2 1 0 1 1 0 1 0 1 0 1 0 1 0 0 2 1 2 3 1 1 2 3 0 0 0 3 0 2 1 0 0 1 2 2 1 0 1 1 1 2 0 1 0 0 1 1 4 0 2 0 1 1 0 1 0 2 1 1 1 0 0 2 0 3 0 1 0 1 1 2 1 0 0 2 1 2 0 1 0 1 4 2 0 0 1 2 0 1 0 1 0 1 0 1 1 0 1 0 2 0 1 1 0 2 0 3 0 0 1 1 2 1 0 0 2 0 2 3 1 0 0 2 0 0 0 2 4 3 3 2 1 0 1 1 1 1 2 1 0 1 0 1 2 0 2 1 1 0 0 1 0 1 0 1 1 2 2 2 0 1 0 1 0 0 1 0 1 0 1 1 2 2 2 0 1 0 2 0 2 1 0 1 2 0 1 2 0 0 1 1 2 1 0 0 2 1 1 1 1 1 0 0 0 1 2 1 0 0 1 1 0 2 0 0 0 1 2 0 1 0 1 1 2 1 0 1 0 1 1 0 1 1 0 1 1 1 1 1 0 1 0 1 1 2 0 0 1 1 1 3 1 0 1 0 1 2 1 0 1 0 0 1 0 0 2 0 0 0 0 3 3 1 0 1 1 0 2 0 0 2 0 1 0 1 0 0 0 0 2 3 1 0 1 1 2 1 0 0 0 2 2 0 0 1 2 0 1 0 1 0 0 2 1 1 0 2 2 0 1 1 3 0 0 2 0 0 0 1 1 1 1 4 0 0 1 0 1 0 1 0 0 1 1 1 0 1 0 2 0 3 1 0 1 0 2 3 0 0 1 0 2 1 0 0 3 0 0 0 1 2 1 1 0 3 0 0 0 2 2 2 2 1 0 1 1 0 1 0 0 0 1 0 0 0 0 2 0 0 0 2 3 0 3 0 0 0 1 1 0 2 1 0 1 1 2 1 0 0 0 1 1 0 1 3 1 0 1 1 2 1 1 2 2 1 2 0 1 2 0 1 2 2 2 0 0 1 0 2 3 2 0 1 0 0 2 0 1 1 0 0 1 0 0 1 2 2 0 0 0 1 2 1 0 0 3 1 0 1 1 1 1 0 0 1 0 0 1 0 1 2 0 2 0 0 1 1 0 2 2 0 1 1 1 1 1 0 0 1 2 0 2 0 1 0 2 1 0 1 0 1 1 4 1 1 2 1 0 1 0 2 0 0 0 2 0 0 3 1 0 1 1 1 1 0 0 1 0 1 1 1 1 1 1 1 0 2 1 2 2 1 1 1 1 2 2 0 0 0 0 1 0 1 0 0 2 1 1 0 0 1 2 1 1 0 4 1 0 1 0 1 5 1 1 1 0 0 2 1 0 0 0 3 2 0 0 1 0 0 1 0 0 0 1 1 1 0 1 0 2 0 0 0 1 1 1 1 0 1 1 1 0 1 1 0 0 1 3 1 0 0 1 1 3 0 0 3 2 2 0 0 0 0 0 1 0 1 2 3 3 0 1 1 2 2 0 2 1 0 1 0 1 1 1 0 0 0 1 2 0 0 0 1 0 0 0 0 3 0 2 1 2 3 1 2 1 0 2 1 0 0 2 1 3 1 0 1 2 1 2 0 0 1 0 0 2 1 0 1 1 0 2 1 3 3 1 2</t>
   </si>
   <si>
     <t>Name</t>
@@ -264,52 +264,52 @@
     <t>C.McLaughlin</t>
   </si>
   <si>
-    <t>EXN(0.5299311945798255, 17.256078939273287, 7.076190085783319)</t>
-  </si>
-  <si>
-    <t>24 14 31 14 23 38 7 7 23 17 20 20 23 14 3 14 22 28 17 18 27 6 13 21 20 21 8 16 30 20 20 14 20 20 17 17 30 34 24 28 28 23 24 38 23 17 20 17 34 34 9 19 20 35 28 3 17 12 20 10 24 12 24 28 13 13 24 17 27 13 25 21 17 14 28 10 28 16 17 10 20 27 26 27 10 13 20 17 17 13 34 31 21 24 21 13 37 16 35 17 20 24 21 12 24 34 19 23 27 14 24 17 20 20 21 14 34 13 7 20 22 28 10 17 14 21 24 20 28 34 20 27 17 34 18 27 33 18 23 14 27 38 20 31 19 25 16 31 10 17 19 30 19 31 21 31 17 17 24 20 41 24 10 17 23 17 26 19 15 31 3 17 24 14 28 20 30 14 24 17 13 14 27 25 31 31 32 23 15 17 26 17 30 17 20 20 13 13 13 21 28 28 34 10 24 17 24 27 23 27 27 16 13 27 17 19 23 24 14 28 34 16 6 14 23 37 17 34 38 17 31 27 37 24 24 24 10 13 10 24 17 27 16 20 20 13 24 15 30 10 17 17 33 17 16 16 21 12 17 28 28 24 33 14 22 38 21 17 19 13 26 11 27 27 19 45 34 21 19 26 22 17 14 38 35 20 17 9 26 30 17 30 28 27 31 24 10 10 17 17 14 35 15 18 7 24 23 27 3 35 17 30 17 6 25 31 26 28 28 3 16 21 31 19 24 11 20 17 24 24 17 15 30 14 9 14 19 34 17 16 20 27 27 21 16 20 12 27 13 27 24 34 15 27 16 31 14 16 22 16 27 24 34 21 28 13 20 9 6 20 20 40 21 6 27 20 28 24 31 14 21 31 23 37 19 30 34 13 27 34 27 20 13 17 13 37 23 21 31 33 30 10 21 34 26 14 27 8 30 14 18 24 20 24 24 52 26 30 27 19 23 20 28 17 24 25 32 38 30 17 24 27 38 10 28 21 45 24 20 24 21 23 24 24 24 36 10 31 13 31 27 31 31 20 19 27 14 14 10 17 20 20 17 6 22 21 14 10 17 13 21 16 20 20 14 14 10 35 17 23 7 30 13 24 17 17 26 21 23 24 17 14 27 10 27 11 28 21 20 20 21 26 33 28 24 17 14 29 21 15 31 26 29 28 31 16 10 12 38 17 14 21 27 24 23 7 27 34 8 17 23 20 17 23 37 19 30 21 31 27 17 16 30 24 21 20 27 36 17 20 16 21 27 28 23 21 19 13 34 30 11 17 13 17 17 24 22 21 24 13 7 13 30 41 24 20 20 0 24 20 19 40 21 17 17 27 28 24 27 24 17 21 23 34 23 13 14 13 13 14 31 27 10 13 26 21 10 18 27 20 24 13 14 17 30 16 24 23 17 23 27 23 40 31 45 10 17 25 24 21 16 23 15 21 3 32 21 16 14 27 21 10 7 9 19 13 24 17 32 35 24 17 27 10 16 21 26 17 6 22 30 30 24 16 20 17 10 19 34 31 11 10 16 31 28 16 37 13 23 21 14 31 17 16 10 19 20 30 33 21 16 24 17 27 20 41 27 24 20 17 20 21 9 13 17 17 18 23 20 23 7 28 17 17 12 34 24 21 11 30 21 37 22 20 30 10 13 27 17 24 20 20 13 17 27 12 24 20 20 16 23 31 31 27 14 7 30 28 10 21 30 27 28 10 27 13 27 27 25 14 34 21 20 14 17 33 32 17 20 17 27 31 14 10 14 26 17 7 13 20 16 30 31 34 27 16 24 25 14 20 14 7 21 17 30 27 17 28 22 20 21 27 20 20 21 9 14 24 24 12 27 28 20 24 25 21 16 22 16 14 31 17 17 18 10 24 20 24 24 20 31 19 30 27 27 10 18 21 20 38 21 16 17 27 13 20 20 14 26 15 28 16 21 44 10 10 38 33 13 24 35 17 12 34 35 31 37 13 30 17 31 10 17 7 16 17 27 34 13 20 17 15 24 24 3 17 38 21 20 20 3 15 14 17 10 21 17 10 27 20 16 28 6 7 19 0 22 17 25 14 27 28 10 14 31 16 17 29 14 10 49 17 24 24 25 24 34 7 17 23 21 17 24 6 21 20 22 30 28 14 24 27 14 13 17 13 23 17 29 23 7 14 13 10 29 31 30 34 41 24 38 17 8 14 45 31 10 20 25 27 17 17 23 23 7 16 20 38 20 28 41 16 10 14 21 15 16 27 20 7 27 20 29 29 14 23 3 22 21 20 20 21 31 0 13 31 23 3 17 38 41 27 27 17 28 15 24 18 12 17 16 24 19 20 23 26 19 28 27 20 24 21 24 7 24 20 24 7 24 27 27 13 24 34 24 24 9 24 17 13 10 27 27 27 14 27 14 20 17 10 15 28 34 20 33 31 19 9 9 23 27 7 34 27 17 14 10 16 20 21 17 24 17 16 37 18 17 20 24 21 29 31 23 34 20 20 10 31 26 41 9 21 20 21 34 14 17 17 28 16 28 28 18 14 38 20 10 7 23 13 24 20 7 16 9 20 21 16 20 14 17 21 30 24 14 7 28 15 31 27 20 28 23 15 17 20 28 24 17 30 24 19 24 21 15 21 9 12 20 10 27 21 27 16 10 13 23 21 28 27 7 16 34 14 31 31 13 3 6 9 10 20 27 14 7 24 16 14 24 22 17 17 18 34 17 16 17 21 26 31 20 25 24 22 17 13 10 17 20 17 10 24 23 31 29 13 22 9 22 14 24 17 17 14 20 28 24 17 35 3 31 28 14 35 17 23 35 10 28 27 34 14 24 25 27 23 13 14 30 18 12 3 14 31 17 14 19 17 10 24 30 10 24 17 35 6 30 10 23 21 14 34 15 20 28 30 23 24 27 18 39 41 17 23 17 27 24 24 38 27 17 17 21 6 28 20 27 23 24 31 22 17 24 23 24 23 34 13 17 20 20 7 18 16 28 22 31 19 47 30 20 24 21 30 18 21 20 27 19 13 6 21 31 27 23 14 24 33 17 21 12 22 14 21 24 24 24 24 12 20 3 10 16 24 6 20 30 19 24 38 7 17 20 17 15 20 27 24 24 31 23 36 14 23 7 24 7 17 10 27 17 21 17 20 31 16 14 31 24 26 16 17 24 20 30 15 7 0 21 38 12 30 10 18 20 8 14 21 19 20 12 16 17 21 20 13 8 6 13 21 26 20 31 17 13 13 10 14 23 10 7 10 22 23 10 14 30 41 16 26 10 8 21 26 17 13 29 20 15 27 28 16 9 31 24 21 26 21 27 17 27 11 31 14 0 16 24 38 27 38 49 34 31 6 16 26 22 16 12 21 23 17 16 35 28 17 27 10 22 26 23 18 31 10 21 18 12 17 31 17 13 24 17 7 27 22 17 14 14 16 18 26 21 13 23 20 23 23 21 23 27 12 13 6 19 27 29 6 17 27 38 20 16 17 23 31 25 21 20 20 20 28 24 31 22 10 35 13 41 9 21 18 24 20 21 23 31 20 24 24 3 15 6 9 14 23 13 10 16 24 27 27 16 40 17 13 6 24 10 38 13 28 14 20 36 16 19 17 17 19 34 25 13 6 23 24 38 22 23 23 31 21 13 17 10 10 23 13 24 24 24 24 24 14 6 24 18 14 23 26 36 22 27 17 28 17 20 23 17 13 18 14 19 23 41 30 19 7 14 17 29 23 13 13 17 21 27 27 21 24 23 21 24 14 6 17 17 13 16 9 31 21 35 37 24 20 24 31 14 24 14 22 20 24 21 38 23 9 20 21 31 25 27 10 27 10 28 21 22 22 23 12 13 17 30 10 34 6 13 21 27 14 31 35 24 21 25 20 24 16 14 27 13 28 21 23 20 10 17 16 16 20 26 26 27 21 27 20 13 13 16 27 27 17 9 28 17 13 10 24 27 27 20 15 16 13 17 23 24 9 3 17 17 14 24 28 16 27 38 26 9 28 41 14 14 21 17 24 21 6 24 27 17 20 17 19 20 24 35 17 20 21 20 31 16 23 23 19 10 13 20 12 23 10 24 38 14 29 14 19 25 28 17 29 49 23 7 28 23 20 28 27 17 17 41 27 24 13 17 21 17 23 17 24 16 41 21 21 15 23 14 17 24 34 27 31 13 23 35 27 19 21 35 16 30 24 24 10 31 21 3 10 24 27 10 17 19 26 41 20 41 22 22 14 24 24 28 13 20 7 20 24 35 38 20 24 28 13 49 30 20 23 28 33 17 13 20 24 28 27 18 22 13 12 21 36 17 10 13 17 20 14 28 24 25 35 30 21 6 16 24 14 6 31 19 20 21 22 38 7 29 7 15 24 24 25 20 11 24 10 20 17 28 10 14 38 26 7 19 3 21 24 6 45 13 13 37 21 21 10 28 38 24 20 35 16 16 24 21 24 14 21 22 20 19 27 20 24 24 17 28 18 20 28 17 14 31 7 19 20 34 16 21 17 13 23 24 27 13 35 14 14 13 25 28 27 21 10 15 17 34 18 17 31 17 23 17 30 15 27 30 10 3 13 27 20 28 14 24 19 16 25 24 27 23 23 25 24 34 17 15 17 21 17 24 13 9 14 24 21 34 30 28 20 28 44 14 24 20 16 16 19 17 30 27 20 10 28 31 15 24 14 32 7 7 22 27 20 19 33 19 37 16 13 33 15 27 14 26 11 22 20 24 21 28 16 20 24 16 23 17 23 14 40 14 7 24 13 27 24 31 17 24 3 31 24 10 17 24 24 17 13 24 27 10 20 10 37 10 14 21 21 24 10 14 22 20 3 3 24 24 27 24 6 9 17 20 20 21 31 16 24 27 21 43 24 30 17 10 26 27 17 16 21 8 35 9 21 20 16 9 21 20 22 14 28 17 24 20 35 10 17 27 20 23 24 35 24 13 3 30 19 28 19 27 24 35 24 17 21 20 33 31 16 20 20 13 24 24 21 28 18 19 20 27 10 14 3 16 21 24 10 15 23 31 26 18 31 16 17 17 24 29 10 13 22 23 27 17 10 27 20 16 23 27 13 23 31 20 24 21 21 17 27 13 23 24 21 20 20 26 31 24 39 26 14 10 12 27 21 31 10 31 20 13 23 24 20 38 45 14 13 25 16 10 6 13 13 31 17 30 16 26 16 10 38 6 17 9 28 20 20 31 28 24 27 10 14 17 17 18 24 14 7 17 17 13 19 24 24 20 31 31 22 27 21 38 29 28 17 24 21 24 22 26 9 31 28 9 28 17 12 13 27 24 14 25 21 14 27 20 12 27 22 17 21 24 10 15 19 28 6 17 14 13 10 7 38 23 23 19 7 24 26 17 28 10 21 24 24 15 26 9 21 42 27 27 22 34 14 17 14 23 17 17 30 14 3 16 35 27 24 20 20 29 10 25 26 15 27 17 22 10 27 27 25 21 20 25 13 20 13 3 24 20 34 3 10 30 30 27 22 8 18 10 31 17 28 21 16 24 27 23 34 21 34 13 25 28 27 14 23 22 18 34 27 11 13 3 24 30 13 31 19 22 23 27 31 24 13 17 14 28 28 34 17 31 17 20 27 28 33 31 31 20 30 17 33 19 13 21 29 24 25 27 13 17 17 21 21 28 15 10 24 3 21 19 16 20 34 34 24 19 26 27 21 24 10 20 24 7 31 28 23 29 6 35 27 24 16 13 19 20 21 13 27 3 10 21 34 13 14 27 14 24 22 28 10 13 20 31 25 24 27 14 17 16 31 34 9 6 18 10 16 14 19 13 19 28 28 24 16 31 7 19 30 17 30 13 6 24 17 28 10 20 26 10 20 24 22 31 17 31 16 30 12 3 28 26 14 20 10 13 9 6 27 10 17 10 23 45 16 21 38 17 22 24 26 24 11 16 16 31 10 17 18 20 27 31 17 34 21 10 21 27 12 10 40 21 10 10 6 34 23 7 32 27 30 21 21 13 18 31 10 28 24 16 20 16 20 24 38 24 14 15 35 17 27 24 30 20 17 23 12 14 13 23 10 24 17 24 28 22 14 19 24 21 20 21 18 34 19 26 24 24 13 0 17 23 21 21 26 17 17 9 23 24 13 9 27 6 17 37 23 15 17 31 32 14 3 28 13 23 30 9 14 17 20 19 25 20 30 16 21 21 37 14 17 14 20 38 14 27 20 24 28 28 28 20 9 17 10 10 14 17 10 20 21 12 20 26 17 12 36 9 23 10 12 23 27 24 24 17 23 27 24 23 23 20 38 24 35 17 17 21 20 19 48 13 35 27 27 11 30 28 17 21 33 17 31 17 10 26 17 21 10 3 21 28 24 18 17 17 17 15 20 24 10 27 21 24 16 14 20 20 17 14 21 22 3 16 26 34 14 25 13 23 31 30 17 9 40 42 3 45 14 31 17 23 31 27 24 13 24 21 26 18 24 24 20 20 17 23 17 17 31 17 6 7 24 19 34 20 21 17 24 17 23 21 23 30 26 7 24 10 7 13 27 15 27 22 36 27 20 24 21 16 24 31 22 22 14 23 20 13 20 21 24 24 21 20 10 20 16 22 13 18 26 45 17 27 24 29 21 17 13 20 16 27 7 14 24 38 14 28 21 17 16 27 27 19 24 21 20 34 18 20 23 36 17 23 27 23 20 25 14 23 28 20 20 16 20 13 21 20 33 27 33 30 20 38 21 31 17 13 10 27 22 13 21 26 21 14 24 13 24 20 24 16 23 19 20 9 14 20 16 21 7 25 30 14 28 31 21 24 34 24 16 17 14 24 16 23 31 21 27 25 24 23 24 19 19 27 20 16 28 20 20 27 34 20 24 12 20 27 14 13 24 3 23 13 24 23 28 20 13 16 17 33 21 17 16 21 24 25 17 22 28 13 28 31 13 31 28 13 13 31 41 17 31 22 26 27 10 17 31 21 34 21 31 7 22 7 17 21 21 20 27 40 10 21 7 17 12 23 21 21 17 30 17 30 8 21 23 14 24 24 30 24 20 17 17 27 3 20 17 18 20 17 31 22 23 19 6 17 24 34 21 27 24 26 24 24 6 27 27 21 27 20 0 17 24 14 29 19 24 21 43 24 13 10 13 28 20 20 24 7 20 20 17 20 20 27 24 13 14 27 3 10 30 20 31 26 29 19 27 30 19 14 21 13 17 28 12 21 24 19 24 31 16 31 20 9 16 13 21 35 9 24 10 24 21 7 24 13 10 37 35 13 26 21 6 14 13 24 27 24 19 27 17 34 30 29 21 27 18 28 19 21 16 24 26 21 17 28 34 7 3 21 18 27 21 6 3 28 23 23 10 14 30 34 27 13 20 24 14 17 30 22 28 21 22 21 20 13 21 23 24 26 41 23 24 17 6 17 17 14 32 28 9 23 27 6 12 21 24 18 21 27 13 22 28 37 14 19 15 25 10 17 21 23 13 24 17 13 21 19 30 14 0 20 25 23 14 27 9 17 28 23 24 13 28 21 34 14 28 9 14 7 35 38 16 18 13 28 24 21 17 13 20 17 30 23 21 17 19 23 24 16 21 45 17 21 24 31 16 24 20 20 6 23 28 17 14 18 13 20 21 9 27 10 13 13 24 12 20 21 21 28 21 16 14 19 17 14 14 20 23 23 14 20 21 13 17 17 41 10 18 22 23 23 24 10 10 20 20 20 20 28 17 24 13 6 20 23 27 18 10 19 20 27 12 19 27 24 31 20 21 26 28 35 10 21 23 20 27 10 28 16 9 11 33 24 23 11 20 10 24 28 28 23 17 20 23 22 17 20 34 20 30 30 16 17 36 10 17 24 10 41 41 16 6 28 23 21 6 34 13 15 21 19 24 10 21 19 24 31 20 21 40 14 3 23 31 13 23 24 21 28 14 13 23 17 14 23 27 13 7 28 21 19 17 27 24 13 23 20 17 24 7 20 30 25 27 26 21 16 10 31 14 27 20 14 12 10 16 21 44 34 14 26 20 32 20 23 23 7 34 17 24 20 20 18 24 23 24 24 21 17 0 24 16 26 28 20 13 15 34 16 23 35 21 21 17 18 16 23 26 28 23 17 23 30 18 27 28 38 31 27 20 27 17 20 20 39 10 28 14 41 27 41 34 28 21 15 12 17 14 17 17 17 21 10 7 31 13 15 24 20 28 14 21 19 24 31 27 25 18 24 23 27 10 27 24 17 24 14 24 20 37 21 31 22 26 20 26 19 23 34 27 20 20 30 27 11 31 31 7 24 8 25 13 20 34 26 23 28 17 31 17 18 24 10 21 35 16 31 16 21 20 10 24 26 7 27 27 15 29 29 10 10 15 27 34 31 21 17 23 31 27 30 34 27 26 13 13 6 31 14 24 23 31 19 14 13 18 21 14 16 9 17 27 21 21 10 16 3 20 20 25 14 17 21 23 16 24 30 9 38 10 16 18 17 17 20 31 27 33 17 20 20 21 21 26 24 3 16 13 14 14 23 10 22 23 3 14 20 12 24 16 28 30 17 17 20 35 10 27 38 20 24 20 16 52 17 24 17 24 24 10 21 16 17 23 17 27 10 24 34 12 20 17 20 27 38 24 20 28 17 7 24 6 33 23 13 10 17 17 16 15 13 17 21 18 21 7 15 16 31 20 18 31 24 33 23 28 24 3 30 14 21 29 21 10 3 19 13 30 17 17 6 14 31 12 24 37 25 24 13 31 19 14 17 26 32 24 9 28 14 26 31 13 7 20 17 26 24 19 30 10 9 30 12 31 24 17 37 17 23 14 21 24 31 23 16 27 20 10 18 21 23 21 27 24 34 28 24 13 28 20 19 14 17 30 10 3 28 34 56 3 27 16 27 10 23 21 16 31 24 20 13 14 14 31 16 30 26 20 19 13 16 27 35 31 14 28 13 24 14 9 21 24 7 21 16 23 20 23 21 19 17 10 13 28 20 0 27 6 20 15 10 35 21 31 27 27 14 6 16 14 21 23 35 13 13 18 9 34 34 13 13 13 27 17 21 21 32 3 19 17 23 17 16 13 20 21 24 13 24 18 13 13 7 34 10 30 16 26 26 14 34 27 14 10 17 31 27 20 24 35 14 21 20 23 21 24 10 3 13 12 31 23 31 24 27 20 23 15 21 35 13 17 19 10 21 10 11 28 21 23 17 21 26 22 16 13 13 24 24 17 13 24 24 27 27 20 27 31 20 10 13 13 23 5 20 14 17 7 35 23 13 17 33 23 13 33 21 10 20 24 17 21 31 17 9 24 24 20 17 17 24 25 13 21 31 23 9 27 24 16 16 34 38 34 20 27 23 23 20 17 21 31 33 28 28 27 10 17 22 13 17 24 28 20 10 16 20 27 14 24 30 23 10 20 24 15 13 23 20 10 21 14 31 35 19 16 13 20 38 28 20 25 27 10 41 24 24 24 12 26 22 19 13 15 16 10 3 0 20 31 7 30 10 16 14 28 21 10 24 33 28 24 10 17 3 34 10 18 26 13 28 31 27 12 10 31 16 20 23 24 23 14 0 17 35 14 3 21 26 9 19 27 25 14 8 19 13 24 26 29 30 7 24 21 24 28 20 17 10 3 27 30 14 21 21 20 24 6 20 17 10 16 28 32 9 33 20 10 28 15 24 18 24 3 23 10 36 17 21 31 10 17 10 12 27 38 21 17 10 24 21 18 40 24 21 17 21 9 24 10 34 29 23 10 28 20 10 14 21 24 28 10 14 17 20 24 17 10 17 20 10 30 7 27 9 31 24 34 28 10 26 7 24 25 20 32 34 14 30 13 30 39 23 17 6 24 24 24 3 17 13 7 40 21 30 21 24 10 30 27 28 33 29 25 24 28 21 37 31 17 24 14 7 35 20 23 17 20 35 9 30 13 14 21 28 20 19 20 17 24 34 22 27 14 24 17 11 23 23 24 27 24 31 6 21 21 10 17 6 10 32 16 12 29 31 17 24 6 20 24 22 26 30 7 28 21 17 30 33 14 7 10 24 10 20 16 32 19 16 31 28 30 17 17 13 26 7 22 22 13 27 19 41 30 34 31 20 31 0 10 28 37 23 20 34 12 17 31 17 20 31 30 6 13 15 7 17 24 13 14 27 15 19 20 23 31 17 14 24 21 27 27 10 20 17 14 20 10 35 22 24 26 18 34 21 14 23 35 10 17 17 27 24 26 28 19 31 13 7 23 20 26 24 24 10 20 24 20 22 12 28 16 28 20 24 25 17 10 37 24 24 28 21 21 21 30 17 21 27 24 19 6 24 20 34 38 28 28 10 27 28 41 28 17 17 27 26 12 13 20 21 27 27 23 9 10 36 20 20 13 31 33 14 24 14 31 10 3 10 41 33 3 26 38 17 16 14 17 14 19 38 20 3 24 30 21 10 27 21 27 13 22 17 26 20 23 24 21 16 24 24 28 21 21 20 30 14 27 27 6 19 13 17 29 9 12 21 16 28 34 9 27 31 16 28 14 14 21 6 17 11 16 27 20 31 18 23 14 23 34 28 21 17 23 21 10 24 20 10 26 20 14 17 38 19 10 7 23 38 13 28 20 28 24 13 30 23 10 16 7 41 9 21 15 10 17 7 17 33 12 20 18 7 17 35 19 16 13 27 7 27 34 21 15 23 7 16 20 24 13 13 21 24 7 24 20 23 23 16 9 14 16 14 41 35 23 24 24 31 20 10 25 16 25 17 27 13 10 6 38 19 20 41 24 24 24 32 11 41 21 31 24 13 17 19 9 30 14 22 16 27 10 34 24 24 22 31 22 31 26 24 22 17 23 17 19 34 36 13 29 31 27 17 35 11 15 23 20 21 24 16 28 20 21 22 16 31 21 21 16 18 14 35 17 6 15 10 24 17 24 10 28 17 35 42 17 20 28 11 33 20 21 28 27 30 33 42 17 13 14 25 13 21 15 31 14 22 37 20 24 19 31 31 10 20 21 20 33 14 27 21 13 15 25 20 26 9 19 10 13 26 20 27 27 16 30 21 12 31 27 31 17 17 20 14 20 19 34 17 7 17 24 28 24 24 10 10 17 41 24 26 20 31 7 13 24 10 13 24 31 10 23 48 34 14 29 23 17 22 35 17 19 17 20 21 15 17 29 20 13 14 29 27 17 20 13 10 10 30 3 12 34 9 22 21 28 17 26 20 24 6 20 31 27 21 6 17 10 17 10 34 30 34 17 17 27 21 31 26 17 20 20 30 13 24 14 23 19 22 20 17 38 13 37 13 16 3 8 28 21 45 19 19 34 34 20 19 33 27 24 30 19 27 21 34 21 14 23 38 23 10 27 7 20 28 38 31 34 11 24 27 22 27 33 34 24 23 31 10 27 17 27 16 17 7 28 13 21 23 35 17 14 34 16 19 21 24 24 37 27 38 30 27 17 14 9 20 9 37 13 16 23 22 13 23 20 7 16 19 30 22 20 26 28 31 12 13 3 29 38 26 21 31 38 21 21 20 0 27 28 10 6 21 24 17 30 31 14 14 23 28 36 34 37 17 10 0 23 20 21 13 13 31 16 21 22 16 14 27 14 14 10 28 27 31 13 27 12 10 10 23 15 14 27 17 16 31 37 16 27 24 20 31 30 34 30 24 21 31 24 34 21 21 28 17 24 17 17 20 24 17 26 24 23 13 17 24 22 27 24 19 20 16 27 22 27 27 17 24 24 24 31 28 13 3 24 20 26 29 23 20 13 10 17 17 20 31 17 30 20 35 20 21 24 13 21 14 30 13 23 24 31 9 7 28 16 16 13 36 27 9 19 35 23 24 28 6 6 22 26 11 31 13 23 21 8 18 10 31 27 30 23 21 17 17 19 6 24 17 6 27 7 17 23 27 31 13 34 22 14 27 27 21 24 24 20 31 20 31 24 31 27 19 17 13 18 24 17 27 28 6 24 13 31 11 20 17 7 27 20 14 20 24 17 38 15 20 20 39 21 34 34 10 20 17 27 17 13 21 21 20 14 20 24 23 7 24 34 26 27 20 9 17 17 0 28 10 17 24 17 17 20 17 6 28 35 28 6 10 9 10 13 11 31 14 24 33 26 24 14 28 14 17 17 21 45 24 24 9 30 24 14 20 29 31 16 24 24 20 24 44 23 24 34 6 24 24 21 14 24 34 31 16 15 27 13 6 19 27 25 24 20 35 7 27 31 16 17 31 27 23 24 34 17 27 20 23 7 20 27 44 24 13 17 7 26 34 31 21 27 15 28 7 17 24 17 21 24 26 27 29 10 27 24 15 13 21 21 21 20 15 24 11 27 31 22 17 24 15 20 12 24 17 7 28 35 6 8 29 13 27 21 27 37 19 14 13 21 20 36 20 17 23 10 35 28 24 14 30 20 17 13 13 16 31 22 20 20 20 27 30 21 16 3 28 23 20 24 28 28 27 38 16 10 30 13 17 15 14 24 21 31 27 10 30 27 37 20 13 21 23 14 24 41 23 27 13 7 20 15 10 13 7 16 27 24 3 27 17 21 33 12 21 17 8 22 20 20 3 27 10 21 21 10 26 17 24 20 22 31 34 6 25 20 10 21 31 12 20 24 3 20 28 11 38 28 31 14 34 20 17 17 21 20 17 7 17 31 6 35 12 42 27 31 17 16 8 21 24 20 12 16 33 28 28 21 21 12 28 27 11 35 13 20 17 31 28 16 14 31 8 21 7 0 27 38 19 10 13 12 35 6 24 17 28 24 19 17 27 26 40 35 14 17 24 31 17 19 24 20 24 28 13 17 20 27 20 23 10 12 21 17 14 24 20 13 28 20 17 16 38 28 21 24 20 27 14 28 23 24 14 6 23 20 36 10 35 16 20 33 24 32 16 20 17 37 24 17 27 0 24 21 14 13 21 13 14 10 34 17 9 20 28 22 17 16 38 27 40 31 10 21 10 28 21 25 28 24 31 27 20 12 13 16 27 41 17 13 21 28 24 21 16 10 20 23 26 14 21 25 13 24 8 10 15 16 31 24 38 14 27 16 38 15 22 38 10 6 16 21 16 28 9 24 24 27 31 13 23 17 16 24 31 21 28 31 20 24 17 20 20 6 32 28 24 14 26 35 27 7 19 21 13 31 14 24 20 6 12 20 10 14 37 24 24 21 16 16 14 24 22 3 27 31 24 22 27 38 20 14 34 24 17 23 38 9 34 31 19 24 23 13 10 35 13 30 27 8 20 28 13 15 30 19 34 38 17 21 48 24 21 37 28 38 10 19 38 30 35 28 17 24 31 28 7 38 24 17 20 27 20 20 23 20 20 14 17 7 31 26 16 14 21 35 23 10 13 9 29 48 31 17 34 27 20 18 16 31 21 17 24 24 27 23 21 26 14 31 24 20 27 20 24 31 28 45 14 13 20 20 13 7 18 21 14 28 16 14 16 26 20 19 21 23 17 23 21 21 15 17 17 16 13 16 6 23 21 16 16 20 23 7 10 33 35 30 13 21 34 14 21 8 26 20 13 14 14 28 29 7 16 30 26 20 21 27 21 14 28 12 16 45 13 17 13 17 10 17 28 10 10 6 20 3 35 22 24 21 23 23 13 24 27 17 27 34 31 19 27 35 22 24 21 13 20 20 21 13 17 26 35 39 27 30 48 11 23 20 23 23 10 24 20 23 24 17 20 37 17 21 27 6 3 21 23 24 28 20 16 36 17 21 17 17 34 20 3 30 31 21 24 21 24 21 26 3 24 24 13 24 37 10 10 21 16 17 24 31 20 22 17 34 6 27 14 20 14 19 27 27 29 24 28 30 28 26 20 21 35 24 22 11 20 17 34 28 17 21 17 17 21 30 12 16 20 21 30 38 21 37 24 19 42 18 24 14 23 23 23 20 20 14 23 20 15 19 12 27 24 6 17 17 20 15 26 13 10 31 19 17 21 23 17 23 31 10 27 26 13 22 26 29 12 17 23 28 17 17 11 3 21 14 18 12 28 13 17 28 27 13 13 24 16 51 17 10 26 23 13 17 7 23 6 21 28 14 15 27 30 20 16 21 16 24 23 31 21 17 28 20 3 24 9 21 19 17 34 24 34 27 21 23 17 28 24 21 17 3 14 27 17 27 24 27 13 27 16 23 20 14 21 27 10 6 21 21 0 21 20 16 19 16 18 28 27 28 23 16 27 38 24 23 17 20 23 7 27 24 23 20 25 0 9 21 22 18 17 28 17 3 24 31 14 7 20 14 20 22 17 34 8 21 28 16 34 31 24 7 26 16 10 6 29 21 22 24 24 28 27 31 27 34 20 3 28 35 10 20 10 28 14 7 45 13 21 14 23 10 13 23 24 24 24 19 20 30 20 20 20 16 24 31 34 14 12 24 21 10 13 14 14 15 34 17 27 24 22 24 17 17 23 17 45 13 10 14 9 10 20 33 30 17 13 26 30 10 13 15 24 20 19 34 17 13 15 25 17 20 34 20 18 21 28 28 26 20 20 38 23 34 23 38 21 14 14 24 29 26 31 28 22 17 27 20 10 24 7 13 23 13 13 35 17 23 14 31 21 22 19 14 28 20 14 6 24 28 26 7 23 14 35 20 12 24 23 9 24 27 8 21 21 11 17 44 16 24 38 13 13 23 23 27 24 23 13 17 13 25 17 30 13 34 16 21 17 10 31 24 38 34 30 21 23 10 10 17 14 20 38 19 13 21 6 30 31 19 17 21 16 24 13 16 31 21 27 20 10 33 19 14 24 8 14 23 13 37 15 16 17 10 15 17 20 14 14 16 43 30 17 17 31 21 24 16 23 17 24 12 14 10 9 17 19 17 24 13 3 10 24 16 17 24 40 12 16 19 27 34 20 24 23 16 17 21 14 14 38 27 10 14 31 31 17 19 24 17 17 31 13 24 37 20 14 31 28 21 20 9 21 35 24 30 41 16 20 19 27 16 30 27 17 31 20 14 23 17 44 23 22 14 22 28 24 17 13 24 19 34 14 22 24 14 14 21 28 14 14 9 20 21 24 14 22 35 16 14 20 24 26 6 35 10 10 25 17 26 38 14 17 24 31 16 34 24 13 17 17 35 27 34 28 28 15 23 16 28 16 12 13 11 24 35 19 38 27 31 28 35 30 31 10 24 31 21 13 25 16 10 31 24 28 23 24 16 28 27 21 41 13 20 27 24 33 34 10 23 9 38 24 7 23 18 24 28 17 18 33 7 41 17 20 23 16 20 20 33 23 7 33 17 24 13 17 24 28 13 14 24 20 7 23 34 14 17 18 7 28 17 31 41 10 28 17 17 17 13 17 10 24 14 20 21 33 20 26 17 19 15 25 34 20 17 31 25 21 19 6 20 19 21 31 16 17 56 27 23 12 20 27 13 16 35 35 23 28 14 27 17 6 8 23 30 16 33 10 21 9 24 15 26 27 24 16 24 13 17 20 35 14 13 26 37 35 31 24 30 9 25 13 8 21 17 10 30 38 23 17 33 32 13 28 21 23 31 17 17 17 24 23 41 24 10 26 27 24 7 34 31 7 17 31 17 24 21 21 14 27 20 13 17 27 18 24 21 15 14 41 24 30 19 17 23 13 28 7 21 31 23 0 17 28 28 23 33 21 23 17 23 23 16 23 27 17 20 25 20 6 33 28 10 10 6 10 20 45 38 10 3 16 17 17 20 10 27 31 21 24 16 13 24 11 17 26 17 31 7 35 27 10 19 13 29 13 10 20 21 20 14 24 12 24 25 24 17 17 16 30 17 14 27 30 7 16 24 23 23 10 20 21 27 16 17 17 9 21 34 19 22 13 10 27 27 13 27 16 13 3 28 21 20 13 24 30 20 33 16 17 24 20 24 24 24 17 21 17 11 35 14 23 14 17 28 10 10 20 24 20 18 30 40 17 23 14 24 29 26 17 28 14 13 17 35 27 24 16 27 10 10 19 15 30 11 22 19 20 24 29 20 24 24 10 17 23 3 28 16 10 30 16 21 23 27 16 13 18 10 23 9 20 21 28 17 28 23 23 21 27 6 24 20 21 17 29 16 10 34 27 22 24 17 16 20 14 10 31 31 14 28 10 17 23 15 13 24 16 22 23 10 17 33 10 28 31 21 21 13 28 24 14 17 26 23 22 14 10 20 14 6 38 28 13 24 24 23 17 21 20 27 17 15 17 20 27 24 36 21 18 20 31 28 20 20 24 33 31 17 21 24 21 10 20 10 17 28 12 3 10 24 24 24 20 22 6 34 17 20 21 21 31 26 31 0 34 17 27 17 21 19 17 24 13 24 10 23 23 17 19 14 10 19 10 10 35 33 16 24 20 45 20 27 24 19 6 30 23 21 34 34 17 31 16 21 31 30 24 14 16 25 17 20 6 19 22 6 40 27 7 28 34 20 45 21 19 16 13 20 24 24 28 7 10 21 17 10 13 27 28 27 30 23 41 7 18 26 7 19 17 10 20 17 15 10 12 17 27 14 16 28 31 31 16 13 20 31 23 21 21 31 31 24 17 17 16 27 24 7 20 17 27 17 20 14 35 10 14 10 28 24 24 30 16 24 24 14 17 27 22 13 13 28 13 48 13 23 27 23 19 19 24 19 38 16 35 17 24 41 38 7 30 13 23 27 24 30 19 24 23 17 34 10 10 17 20 25 24 7 22 24 20 16 10 14 26 24 24 20 22 24 24 0 30 33 17 9 24 23 10 13 31 13 14 14 30 34 16 18 20 24 24 14 19 38 13 26 27 13 27 18 31 16 10 27 27 24 23 17 20 27 28 21 17 20 21 30 20 24 24 34 27 13 24 31 8 16 27 16 41 10 30 10 33 24 20 34 13 27 29 24 34 20 6 3 22 23 21 37 9 20 21 28 16 20 24 21 13 24 9 16 17 7 27 27 10 27 17 28 30 17 34 24 25 17 14 14 17 42 31 7 30 21 24 16 16 14 34 9 10 20 28 24 17 24 22 26 24 34 24 21 34 16 7 16 21 13 14 10 20 31 30 24 31 13 28 17 30 24 13 34 31 14 21 28 28 7 14 6 20 31 17 31 17 21 10 21 24 28 31 3 17 16 16 41 17 27 30 10 17 14 22 28 20 10 3 22 16 16 13 10 22 52 23 26 17 35 25 17 17 16 16 16 31 33 14 18 23 23 17 24 10 28 21 28 7 16 17 17 21 22 24 34 24 16 19 23 26 16 17 17 23 20 26 31 20 41 27 3 21 19 13 24 15 32 21 22 20 15 16 17 29 18 10 31 27 17 17 24 7 27 16 17 16 34 27 24 24 10 20 18 34 23 10 24 31 24 25 20 18 15 10 22 17 28 30 28 28 17 27 31 22 23 6 24 27 28 40 13 29 24 16 30 23 31 20 28 17 20 10 20 21 35 9 6 24 24 22 24 10 24 24 6 14 21 3 27 23 17 38 7 13 19 16 14 34 10 17 24 10 28 24 20 14 22 10 25 17 21 24 17 29 28 31 23 21 35 23 22 30 15 24 10 23 27 24 24 22 24 21 38 38 14 27 24 6 27 23 13 24 13 14 27 27 14 42 12 13 14 17 27 23 10 14 20 14 20 17 24 34 10 21 17 19 24 20 24 42 27 31 34 13 24 13 17 31 17 22 10 23 24 21 14 30 20 17 29 34 29 24 21 17 30 19 17 3 27 24 24 13 22 22 23 15 37 14 17 24 17 23 28 25 28 27 30 24 6 20 39 14 24 17 20 13 31 17 6 31 20 32 17 31 28 7 18 23 23 24 17 16 28 28 30 21 10 23 23 24 28 31 35 20 22 20 13 28 14 31 22 7 27 31 28 27 17 13 16 10 7 27 31 17 15 31 23 10 13 35 17 9 17 34 10 23 3 20 21 28 20 30 27 20 27 33 27 13 35 19 30 7 23 21 23 14 23 14 24 17 17 16 17 21 30 28 29 27 18 20 27 13 12 12 3 16 28 31 6 20 17 15 14 20 20 28 13 20 17 31 21 27 42 23 17 17 24 27 14 14 13 16 20 14 17 10 27 27 17 24 21 10 13 17 15 16 20 28 23 12 23 20 30 30 10 6 23 20 35 18 31 31 17 24 19 21 31 14 21 27 31 17 31 45 31 13 14 10 20 24 26 27 13 31 10 31 23 10 21 24 24 23 10 20 38 17 27 12 29 21 26 6 10 17 10 30 27 11 18 34 23 14 17 13 21 28 24 20 13 16 6 12 24 33 34 28 24 19 19 24 6 27 27 38 13 20 6 28 17 24 10 23 14 24 24 21 17 24 23 24 24 6 17 20 27 37 10 16 21 23 24 16 23 10 31 24 24 21 21 25 7 28 20 17 32 20 11 21 23 7 10 16 26 17 30 28 20 20 24 20 31 16 40 24 42 30 13 30 37 12 13 17 18 14 21 23 28 14 17 23 34 22 27 42 27 7 10 21 31 23 30 21 17 10 13 10 24 23 20 20 28 24 29 31 30 29 20 17 38 27 20 20 28 20 27 27 17 10 3 13 16 17 17 16 16 16 17 36 26 21 24 17 35 20 24 21 17 17 24 19 21 20 18 7 13 10 20 26 28 21 27 24 8 34 15 21 25 24 16 22 23 13 33 17 26 14 20 13 20 3 21 23 18 21 34 35 34 20 28 17 21 17 35 14 31 30 24 31 24 17 20 22 21 20 6 38 24 33 24 42 22 27 7 38 14 19 24 26 13 14 35 16 10 23 20 34 13 37 26 17 16 33 28 21 15 19 14 16 23 26 42 12 33 26 27 16 27 19 28 23 16 20 27 17 10 34 41 6 9 17 13 28 6 6 16 10 26 17 20 21 14 38 20 28 34 20 30 21 23 28 23 10 21 23 14 12 26 34 27 26 22 20 29 14 6 18 16 9 24 21 30 17 34 30 24 16 0 27 20 23 31 24 18 21 24 27 15 23 38 19 27 20 10 30 14 13 24 14 25 24 21 17 23 23 28 16 21 20 28 40 34 23 13 26 17 14 16 16 13 24 21 17 28 23 21 10 31 13 22 21 27 34 20 34 22 27 17 24 3 16 23 9 21 27 14 15 28 15 20 20 5 20 10 28 16 20 14 17 19 17 28 20 10 6 18 21 23 24 37 13 17 27 23 29 9 14 31 35 31 30 6 24 9 23 10 23 22 20 10 7 20 38 10 19 28 17 26 24 17 16 3 29 23 38 20 3 27 20 19 16 17 13 19 31 30 26 10 31 20 28 13 41 30 17 16 21 14 17 11 17 13 9 20 18 17 24 22 37 28 13 21 13 30 20 41 7 16 22 23 38 27 28 13 25 21 15 38 17 42 6 26 35 26 20 25 31 17 13 27 26 17 45 20 26 21 27 26 31 14 28 35 17 28 23 3 20 10 21 37 25 21 7 27 20 36 13 10 38 35 13 16 20 17 23 27 16 31 10 17 13 16 24 14 11 34 27 28 14 21 31 28 17 17 24 19 21 14 6 21 19 3 20 28 22 16 33 21 24 31 13 20 17 26 15 28 31 24 10 23 23 17 9 21 27 23 21 33 18 14 22 37 12 20 15 24 21 20 20 24 7 38 20 17 23 16 37 17 20 20 24 17 20 16 10 29 22 17 31 17 28 17 30 21 17 24 17 34 20 21 34 30 19 17 17 20 31 24 26 24 24 28 20 17 17 24 20 19 10 24 14 28 14 20 24 31 23 14 34 30 14 20 27 27 21 21 28 23 42 27 28 17 21 30 20 12 31 38 0 26 27 24 20 17 17 10 23 35 19 10 10 20 20 20 10 30 38 17 21 17 10 24 20 15 20 20 12 17 35 28 17 20 38 12 21 7 37 21 24 17 38 17 6 17 21 3 37 13 40 24 13 38 27 14 34 20 9 14 33 24 27 24 28 21 15 24 30 3 35 22 28 16 14 27 24 17 16 16 17 13 13 16 45 21 20 33 14 20 16 9 25 14 35 9 18 13 24 33 24 9 8 21 20 30 31 16 10 7 24 30 10 24 24 24 10 20 16 17 10 20 50 14 38 11 17 14 31 10 26 27 21 14 24 17 27 14 17 17 20 29 19 42 10 22 20 17 19 24 15 30 27 3 24 23 7 38 27 7 3 9 17 21 28 11 33 17 18 21 7 10 21 20 30 14 24 20 10 14 19 38 13 28 37 14 27 10 24 21 6 18 42 24 20 7 17 19 34 14 21 17 9 31 20 13 23 30 9 26 20 27 20 27 24 20 10 16 23 21 20 17 17 20 34 23 20 17 29 35 10 35 24 28 17 24 10 17 34 41 22 26 16 27 24 31 17 17 18 10 24 20 24 14 34 20 9 31 28 20 18 28 23 28 30 26 31 22 27 31 20 3 35 23 10 21 24 27 20 31 21 13 17 20 20 15 20 14 20 20 13 20 25 19 7 27 26 23 16 6 17 24 37 17 20 34 30 28 8 10 24 18 16 20 30 31 20 21 29 21 10 14 35 28 10 26 24 20 31 31 37 23 21 31 28 17 17 28 14 13 17 16 20 17 7 21 20 13 24 34 30 20 20 31 24 18 20 23 27 20 12 21 26 14 31 26 24 23 12 27 6 24 13 18 6 13 19 17 24 35 23 20 13 19 9 30 13 13 38 0 17 24 13 26 16 28 16 34 10 30 14 16 10 28 23 25 29 31 20 27 27 24 28 24 24 20 24 24 15 33 45 21 17 21 17 14 23 27 6 20 20 31 27 22 28 20 15 27 24 16 14 17 41 23 0 35 24 13 7 14 28 24 44 17 34 21 14 17 28 17 12 20 24 38 28 44 15 24 7 13 31 27 13 36 28 24 31 31 25 17 19 17 20 17 33 21 20 20 33 13 27 23 10 20 12 13 26 24 20 20 27 16 3 24 21 9 26 24 34 27 22 26 6 31 19 14 20 24 10 31 21 31 31 31 17 23 23 9 14 24 27 24 22 10 10 13 10 22 0 21 35 21 23 27 30 24 31 20 20 19 17 27 18 17 17 23 24 13 20 27 24 24 23 14 7 13 3 23 21 27 16 14 10 13 21 28 24 17 24 24 7 7 14 27 31 26 30 20 23 26 16 36 13 13 13 24 24 18 13 24 30 24 18 12 15 24 30 14 29 30 24 26 17 27 15 31 29 10 34 24 16 31 21 27 24 27 37 27 22 24 31 34 18 17 33 33 19 14 10 3 28 10 9 13 10 30 34 21 17 14 28 17 34 24 19 27 27 20 20 28 17 28 31 9 14 9 14 35 17 19 7 14 20 13 13 23 24 21 45 10 31 24 17 3 17 25 7 21 7 23 31 41 24 14 28 13 27 20 3 35 23 21 38 20 36 21 14 29 21 22 30 14 14 20 30 29 23 14 34 9 17 17 17 17 19 31 20 24 24 17 24 10 21 31 28 41 27 10 44 20 20 9 24 26 16 12 31 10 14 13 20 13 27 23 23 28 20 12 16 7 19 13 7 13 21 35 20 24 26 23 20 10 34 20 10 10 6 13 20 21 17 19 24 10 21 20 21 22 20 21 9 11 16 13 34 34 24 28 27 13 35 22 31 21 22 17 24 17 21 24 17 19 17 14 24 20 13 21 23 16 26 17 35 30 20 20 23 34 27 14 27 21 19 16 14 16 31 25 17 32 17 24 17 38 10 20 27 24 31 13 41 16 23 17 13 15 20 15 21 13 20 20 13 19 20 24 14 21 13 2 24 16 27 27 42 6 15 30 23 17 31 14 16 10 13 16 28 27 13 30 31 20 29 24 31 16 10 10 21 28 13 17 13 13 15 11 21 14 31 16 29 17 13 17 14 20 20 20 27 3 15 17 17 23 29 23 21 41 10 24 27 23 16 28 27 17 34 38 16 14 13 13 10 24 27 19 10 24 16 23 24 17 24 13 23 28 20 20 20 23 10 16 27 26 27 33 13 40 28 30 42 27 27 20 17 23 21 10 27 30 33 22 20 13 13 14 16 10 12 15 21 27 38 16 13 17 28 0 14 14 23 38 9 21 38 21 14 24 24 31 3 35 23 42 21 21 23 24 22 16 17 12 23 27 34 19 35 20 17 17 37 16 24 13 0 13 14 24 23 32 19 3 31 14 13 9 15 13 28 14 19 14 6 31 23 20 17 13 9 34 27 13 23 34 17 7 21 21 28 16 24 9 29 14 16 24 17 18 16 27 23 17 21 16 24 20 26 21 20 31 17 14 24 21 17 26 20 3 19 16 30 10 32 21 23 21 20 21 7 14 21 16 20 19 23 21 21 24 17 31 24 6 21 20 21 26 16 13 31 20 23 21 27 31 31 24 22 24 28 29 16 27 10 27 20 27 16 17 13 28 28 31 10 24 35 10 13 24 17 17 27 24 21 27 10 27 17 27 6 21 16 17 16 20 28 14 17 14 20 24 13 23 24 13 27 27 27 23 23 27 31 27 30 10 34 23 22 14 37 25 14 17 27 13 20 10 19 13 13 14 24 24 21 19 20 24 18 7 28 6 14 31 10 28 7 17 13 34 16 31 24 20 17 10 23 25 14 29 9 29 10 23 27 21 13 26 0 31 15 31 25 18 3 14 21 16 28 16 23 22 10 29 20 13 7 21 27 26 21 16 24 10 24 14 29 10 23 27</t>
-  </si>
-  <si>
-    <t>NIG(232.37284474745047, 94.42216496723574, -2.089781085579519, 57.68269879845435)</t>
-  </si>
-  <si>
-    <t>23 21 29 18 26 34 24 10 26 26 28 26 28 26 30 14 18 25 18 24 26 22 21 17 27 24 28 26 23 21 21 22 23 15 23 18 19 30 18 21 22 19 29 24 16 21 23 29 27 28 24 24 28 23 28 16 27 16 24 20 23 20 29 21 19 19 26 22 16 21 20 24 14 28 27 23 24 25 16 19 31 19 19 27 16 29 28 24 22 22 29 30 25 27 23 25 27 23 27 25 18 19 16 23 16 25 19 22 29 20 15 32 23 22 32 18 28 22 20 23 29 21 30 15 18 27 23 20 20 26 22 23 27 29 26 21 21 30 21 27 25 19 25 23 21 25 27 24 19 25 24 24 21 29 23 21 24 29 25 23 31 22 29 19 26 21 27 22 23 25 24 20 20 24 26 21 35 20 25 34 30 33 20 20 24 21 20 21 25 22 18 23 21 23 24 17 23 22 31 16 21 29 32 12 19 23 28 23 26 22 19 16 25 24 25 21 24 22 28 35 27 31 22 13 25 28 23 21 30 18 28 21 18 32 29 15 17 23 31 20 28 27 23 17 22 24 25 17 22 26 20 21 30 24 20 16 25 27 21 20 26 26 27 18 20 27 21 32 34 25 24 25 26 33 20 35 34 24 17 24 30 18 26 25 20 22 19 20 30 24 30 30 29 23 27 27 21 18 24 21 21 29 24 26 19 21 23 28 23 32 23 26 20 21 31 25 28 22 25 13 24 19 22 21 19 24 28 17 26 22 28 20 17 30 26 17 22 26 18 23 21 20 26 21 19 27 26 27 25 27 25 27 26 23 25 32 23 23 26 24 29 27 25 25 29 23 33 19 18 19 21 29 26 25 21 23 26 18 36 25 23 24 22 28 21 31 23 22 25 23 21 27 24 19 27 25 24 25 30 30 31 28 30 25 27 15 25 26 26 29 25 21 17 29 32 27 19 22 20 24 19 26 26 27 25 27 28 21 29 22 21 17 27 20 20 24 23 20 20 20 26 25 20 26 25 23 30 22 22 22 27 21 25 29 17 27 32 21 24 24 26 28 28 22 17 22 29 33 18 18 22 17 25 21 28 15 23 29 26 24 22 22 30 25 22 18 23 23 18 25 26 27 21 26 31 19 25 15 24 18 25 23 27 21 25 29 27 29 22 22 22 24 31 20 24 18 24 19 25 19 22 15 21 19 20 23 28 33 30 20 25 20 16 26 23 26 33 27 25 21 23 25 21 29 27 21 26 20 20 22 25 25 21 24 24 21 26 19 30 22 28 16 19 22 22 22 13 23 27 22 18 25 23 32 29 23 31 17 26 23 17 30 24 24 18 28 24 21 27 25 23 20 24 24 26 22 22 21 25 15 22 24 12 23 23 29 32 26 26 24 25 22 24 27 27 22 25 31 15 36 23 19 25 23 27 25 24 29 24 24 12 27 16 29 22 19 24 23 22 25 18 20 30 18 22 30 26 22 29 24 24 28 20 16 25 28 26 21 21 20 26 28 24 24 25 20 17 29 23 24 21 24 26 27 26 28 32 26 20 23 16 28 26 25 19 22 25 25 27 22 25 23 21 23 25 27 17 19 28 25 23 16 18 29 21 21 23 21 22 23 19 25 24 30 27 27 21 28 18 40 17 31 23 26 19 20 30 23 21 22 20 22 24 18 23 23 20 22 23 26 20 27 24 25 19 19 27 25 22 18 27 25 21 18 22 16 28 26 34 27 29 21 27 27 24 31 27 13 19 25 23 21 25 26 23 27 25 23 19 18 24 26 26 26 22 21 26 27 25 21 28 17 20 14 22 24 15 23 19 23 28 24 27 23 23 28 19 18 24 26 26 23 25 28 27 22 23 26 22 22 23 18 22 22 21 26 26 21 25 12 33 32 19 23 27 26 18 33 35 26 26 25 35 17 20 17 20 22 25 24 25 22 22 22 16 24 22 23 23 27 23 17 23 25 23 25 31 15 34 24 24 26 17 28 22 20 25 30 26 26 20 30 26 27 21 18 32 29 26 20 19 22 29 13 21 20 24 22 29 32 21 26 18 29 21 17 25 21 18 20 33 28 24 24 34 16 22 21 24 28 27 26 25 22 20 25 28 18 24 26 24 21 33 29 34 31 32 24 23 25 28 19 22 18 17 20 26 25 28 22 13 35 18 17 22 20 20 32 24 24 24 20 20 26 25 26 24 16 32 30 29 20 21 30 23 20 22 22 28 20 20 23 24 30 25 21 20 21 28 27 24 24 27 26 19 25 12 13 19 27 18 16 21 18 22 26 21 15 22 29 28 21 19 27 24 20 22 21 21 21 20 27 28 22 27 19 30 29 18 21 25 19 26 13 27 26 21 19 20 25 27 22 17 35 21 24 20 24 24 18 23 29 20 24 27 20 20 23 23 23 23 22 30 19 26 24 20 25 21 22 26 17 23 22 29 27 21 23 31 22 20 25 27 23 18 18 15 25 25 25 17 20 19 23 20 19 24 29 28 30 21 19 19 24 35 18 17 25 27 22 26 23 23 23 25 21 16 26 26 17 22 23 28 20 17 21 21 21 20 17 25 28 20 21 16 27 25 18 23 21 21 14 15 21 25 21 26 19 34 24 21 24 27 25 15 26 23 15 21 25 26 23 21 22 23 16 21 21 26 26 23 28 17 14 24 22 25 19 13 18 29 20 19 29 28 21 21 28 25 27 24 26 29 28 24 24 22 22 25 29 16 27 24 26 31 23 18 22 25 23 19 26 29 27 21 23 25 24 25 25 21 20 21 22 18 23 21 23 26 22 28 26 22 30 18 30 27 27 18 26 26 26 21 23 26 22 21 22 19 19 26 21 29 24 22 20 26 25 22 23 25 14 28 16 22 28 27 26 33 23 25 27 23 27 24 32 19 25 20 37 30 32 26 22 17 32 27 26 30 20 25 21 20 20 30 25 24 21 24 25 29 26 25 26 30 22 26 20 32 23 23 20 27 24 31 17 24 24 20 23 20 22 25 26 29 23 24 21 19 20 24 29 27 23 28 17 26 31 23 22 23 30 19 27 18 26 27 21 22 22 26 24 26 29 19 20 24 19 21 33 27 17 24 32 19 27 20 24 24 23 21 22 21 27 25 30 30 24 25 24 16 27 20 21 32 29 19 20 26 29 34 27 24 24 29 21 29 27 21 21 20 28 22 26 15 21 24 22 23 19 17 28 28 22 16 25 16 22 25 24 27 19 32 21 22 21 16 18 29 27 21 19 23 24 19 25 20 35 32 22 24 28 26 20 23 19 31 23 22 27 21 26 18 20 30 24 25 25 24 17 29 23 24 25 16 18 21 28 22 29 27 26 17 14 23 22 25 19 21 24 23 26 22 22 21 20 21 17 28 22 24 26 32 31 22 30 23 27 20 15 23 29 18 21 24 23 27 31 24 21 23 33 19 24 20 22 31 19 19 22 20 28 22 30 22 18 28 24 24 23 28 19 24 24 30 31 27 27 27 17 25 27 25 23 35 25 27 18 31 22 25 18 20 18 22 27 31 27 27 24 10 15 16 24 20 35 26 23 27 19 29 29 25 26 13 15 14 24 23 34 22 22 18 18 19 22 19 24 27 27 18 20 23 17 26 21 28 19 27 22 21 21 21 23 12 16 24 20 25 25 26 28 23 16 24 19 28 28 28 20 22 26 31 25 21 17 18 22 26 21 26 26 19 29 29 22 21 22 21 20 22 20 16 21 21 21 23 23 16 21 14 31 23 24 29 25 17 29 21 23 27 23 21 31 25 20 30 23 17 21 26 21 29 31 24 28 19 25 20 25 20 22 23 23 26 20 28 23 24 23 29 24 22 19 27 16 23 13 28 20 26 24 28 32 25 18 27 19 30 21 30 21 23 24 20 25 22 25 26 23 26 24 26 29 28 24 24 22 20 15 24 29 27 25 19 23 20 15 23 25 29 25 25 27 36 22 25 19 29 21 22 23 24 26 22 23 16 25 22 31 26 27 22 30 22 27 26 25 27 17 26 30 18 22 23 30 25 32 36 27 24 21 25 30 21 26 19 24 20 23 26 16 31 25 25 26 16 31 20 20 24 27 23 26 30 20 18 18 22 26 30 13 18 19 27 23 24 15 21 20 23 19 24 30 27 26 26 28 22 28 22 27 28 24 27 25 25 26 25 28 19 31 27 22 28 32 22 17 25 35 15 22 28 20 21 25 22 22 29 23 38 33 24 27 23 23 26 18 21 21 23 26 26 24 25 30 25 24 36 22 20 23 30 25 22 29 25 24 23 24 24 18 19 22 18 27 17 25 21 20 25 23 21 27 23 35 26 22 22 22 27 16 26 27 19 23 21 29 27 20 15 12 27 25 25 30 20 20 28 19 20 24 31 17 23 31 20 29 27 14 23 22 27 31 24 25 27 28 28 26 33 35 25 16 24 27 24 21 27 21 21 36 19 26 24 23 27 22 23 27 26 32 22 26 26 19 26 26 21 18 32 17 24 18 25 25 23 26 26 28 27 21 26 26 32 22 24 29 30 33 27 22 22 21 26 20 25 28 23 28 22 26 21 19 16 28 25 32 33 27 21 21 27 22 26 24 25 26 29 23 19 19 20 23 25 17 21 17 22 23 30 25 26 26 20 16 24 31 34 30 25 28 21 25 29 29 19 24 23 25 20 24 28 22 13 24 31 21 28 31 28 23 23 21 21 20 31 26 21 17 30 25 29 25 24 25 20 25 22 20 25 19 18 27 16 25 26 26 25 25 28 22 26 14 27 22 15 21 23 24 28 16 26 26 23 25 25 31 28 18 25 26 23 23 23 21 24 18 25 29 30 27 25 13 25 20 20 22 33 24 27 21 20 22 22 21 24 24 23 28 26 23 23 20 17 29 15 25 24 21 23 23 23 28 19 26 14 29 25 26 28 17 19 25 23 22 24 21 20 25 29 21 22 31 23 23 30 29 22 29 20 27 25 24 16 20 23 19 23 15 31 32 16 24 23 30 20 15 23 24 32 24 24 23 20 26 24 22 22 21 26 19 31 18 21 32 22 16 25 19 18 26 29 26 23 18 34 17 23 26 12 25 19 24 31 21 30 28 20 21 33 27 29 24 22 23 21 21 29 25 22 20 30 31 24 25 26 24 27 23 23 29 25 23 20 18 19 20 28 26 24 20 32 23 35 26 20 24 14 22 24 21 21 24 20 26 20 20 23 23 26 22 15 19 28 22 18 21 22 21 19 18 27 25 22 15 30 30 22 18 24 20 32 21 22 17 24 23 21 26 28 23 17 23 25 23 34 21 16 23 18 28 27 21 19 21 30 19 20 24 35 20 15 16 23 19 25 30 26 36 25 20 32 21 30 29 21 30 27 19 18 17 18 27 27 30 23 23 31 16 29 22 14 28 24 22 27 17 36 31 24 19 23 26 25 24 20 31 26 22 21 27 22 24 22 25 17 28 20 28 18 30 26 21 20 28 21 20 24 33 26 21 21 23 28 29 24 17 23 22 27 30 25 28 22 29 19 22 26 27 23 25 33 24 24 21 22 21 16 28 27 18 25 20 29 28 22 20 22 25 24 19 17 23 29 24 15 22 29 21 17 27 34 21 22 25 24 29 28 18 22 23 25 31 28 23 21 27 19 21 24 24 24 28 24 25 30 23 26 27 23 25 19 25 25 23 25 25 20 20 20 30 25 26 24 21 28 26 26 22 27 25 24 21 17 24 24 25 20 25 22 21 28 24 19 31 28 30 19 24 21 29 17 25 24 20 24 24 27 25 23 25 35 29 21 27 16 22 34 24 15 23 20 17 30 24 22 19 24 15 23 22 24 24 26 24 18 21 29 25 29 25 19 25 23 21 26 27 26 21 21 21 27 18 24 25 22 17 21 25 31 26 21 29 29 20 27 34 15 34 31 23 25 25 22 27 31 20 22 24 22 14 16 22 25 22 31 25 15 22 18 24 25 22 18 30 23 26 29 25 25 25 16 20 27 29 28 20 21 26 24 28 23 19 12 29 32 21 22 26 29 18 27 24 16 26 30 14 22 23 26 22 28 18 27 21 20 20 30 23 25 18 28 19 20 18 22 21 30 25 30 20 20 27 24 18 17 26 26 23 21 29 22 18 23 14 22 33 20 20 23 21 24 21 21 22 25 28 23 22 21 32 28 22 20 31 17 21 27 26 22 18 20 26 21 21 30 25 21 17 27 20 23 18 17 17 25 21 20 20 29 22 21 25 20 16 22 19 22 18 16 25 21 25 25 28 16 21 22 27 32 28 16 22 25 21 21 27 25 28 21 31 23 36 28 19 24 21 24 26 29 19 30 21 23 23 16 26 28 20 17 17 20 31 17 33 25 19 24 21 21 22 28 23 19 26 22 24 29 18 25 22 31 24 29 27 31 28 32 25 26 26 24 22 27 23 26 21 23 23 22 29 19 21 28 27 30 23 29 23 18 18 20 25 26 24 21 24 20 18 26 31 24 22 24 26 20 25 34 22 29 23 23 26 16 16 19 27 25 20 21 27 28 23 21 18 34 20 27 29 16 22 16 22 24 27 24 22 19 24 23 25 23 24 27 16 23 27 31 17 24 20 28 28 26 15 26 26 26 14 19 22 24 31 19 20 28 25 29 18 19 20 24 31 24 29 27 21 23 26 17 20 20 25 22 24 23 24 20 28 25 28 26 22 21 21 20 25 23 19 25 19 20 26 22 26 28 22 26 21 25 29 26 23 16 28 20 20 33 21 20 24 20 16 18 19 23 26 28 24 21 17 21 21 27 26 31 27 22 22 26 25 22 30 20 21 21 21 22 28 26 21 20 33 20 23 22 31 26 27 31 25 23 23 29 23 24 31 15 26 21 23 22 23 22 22 26 28 29 22 30 25 26 29 31 26 25 21 21 21 21 25 21 31 19 20 25 36 20 24 15 23 22 18 21 30 24 32 22 24 25 26 23 18 24 16 21 29 30 26 19 20 27 21 22 24 22 21 27 21 24 18 21 30 18 21 25 25 18 26 26 19 28 16 30 23 19 21 26 28 29 20 19 20 21 28 33 18 23 26 31 23 25 15 20 21 24 18 25 19 16 27 23 30 23 19 28 26 25 17 16 20 29 24 24 22 21 23 20 25 28 28 26 20 26 24 24 22 14 34 27 25 25 25 25 18 22 16 14 20 24 20 21 22 25 22 21 26 25 29 27 25 21 36 22 23 28 18 25 21 24 27 14 23 24 21 28 25 24 26 27 22 27 26 26 31 20 19 23 32 32 35 28 21 23 18 23 24 23 23 19 26 17 27 29 20 15 19 21 28 28 21 23 20 22 28 24 24 29 28 21 24 19 32 29 24 22 29 22 24 28 26 23 24 16 24 15 23 28 27 32 19 21 21 17 23 22 25 21 26 23 27 26 21 21 21 23 18 28 23 24 23 27 18 20 23 25 25 20 22 23 29 20 26 26 25 23 29 27 18 26 30 21 19 28 27 23 24 25 16 19 31 23 24 20 24 19 19 17 24 28 29 23 23 24 27 27 17 15 20 25 19 20 30 21 28 21 23 23 25 24 22 28 23 32 16 19 20 20 33 26 21 23 23 31 21 22 22 19 33 24 19 16 31 20 24 22 20 28 25 25 26 16 28 23 22 17 26 14 17 22 21 21 24 25 19 20 25 27 27 25 26 26 17 18 13 24 24 27 19 22 19 26 21 23 15 27 30 34 29 25 17 24 18 21 19 19 21 26 23 28 20 20 14 22 19 20 18 17 24 16 25 17 16 24 17 14 25 27 28 22 26 31 22 27 19 25 27 23 16 29 26 18 25 20 22 23 21 23 30 30 17 19 27 16 12 27 25 16 23 24 27 19 24 22 17 25 28 18 33 20 20 25 26 26 22 23 21 25 19 19 23 27 20 18 20 13 15 22 24 25 23 24 18 19 26 29 16 23 24 28 24 20 28 22 21 25 23 28 15 26 28 23 26 17 28 17 26 26 17 32 16 28 27 22 24 20 28 21 27 22 18 35 24 25 18 30 19 22 16 21 25 25 27 23 22 20 23 22 24 26 25 26 26 26 25 18 22 28 19 23 26 26 27 21 25 21 28 25 26 23 22 26 28 33 18 23 20 26 25 29 24 22 26 27 28 15 22 22 23 15 24 25 21 33 21 32 24 26 25 23 23 27 22 31 24 30 25 20 21 21 29 28 15 27 30 17 18 23 27 26 12 27 25 23 20 20 23 27 23 24 28 25 28 16 18 24 20 20 25 24 23 28 22 29 28 25 22 18 18 22 23 23 27 29 23 26 31 23 20 22 21 23 25 29 24 30 21 29 21 21 30 28 27 26 21 27 22 20 28 23 30 25 27 19 18 19 30 35 23 22 30 23 24 20 32 18 30 21 19 27 25 20 22 17 24 17 22 25 17 23 23 26 21 30 31 24 20 22 17 9 26 25 29 27 19 22 36 19 24 23 21 25 19 21 21 25 17 20 22 20 22 29 21 17 21 29 22 27 19 28 30 27 17 25 24 26 24 31 19 28 30 24 34 21 21 21 26 27 22 21 21 31 27 31 26 20 22 27 22 25 21 32 21 21 26 25 27 26 25 29 19 33 22 19 20 20 26 19 24 19 22 22 18 19 21 20 22 30 23 23 27 15 21 18 19 23 29 37 22 25 24 29 21 22 22 18 26 27 20 22 26 24 21 24 25 28 28 27 27 20 21 18 28 32 19 23 28 25 29 25 28 16 22 20 24 30 28 30 19 16 25 19 30 24 19 26 24 19 22 24 24 23 18 22 17 19 22 23 29 26 17 24 26 27 20 23 24 24 24 24 21 25 23 18 25 34 33 33 19 26 22 26 20 31 25 28 25 20 26 21 29 20 26 18 26 25 22 22 25 23 21 22 28 21 29 23 29 22 23 27 24 21 28 23 27 29 28 21 26 30 13 21 31 25 17 23 21 14 20 27 28 24 25 24 24 20 20 23 22 29 28 28 23 24 18 20 25 23 26 23 23 21 22 28 21 30 25 32 15 21 25 18 17 21 18 24 25 21 23 22 22 25 25 22 20 30 24 20 22 27 12 20 17 22 27 27 22 20 22 22 22 35 20 19 26 27 22 25 23 18 23 19 20 25 20 23 24 17 27 19 23 25 19 20 18 16 24 21 18 21 22 32 22 22 17 21 22 29 25 22 22 21 21 21 26 24 20 16 22 22 11 28 28 21 20 28 16 22 22 24 21 28 26 27 27 25 24 18 23 14 18 20 21 25 25 25 25 23 29 22 26 22 29 24 22 21 21 25 18 18 22 32 25 22 30 28 23 23 26 22 25 31 27 18 23 18 27 28 25 26 21 24 20 29 22 19 25 18 24 26 25 17 29 20 24 28 23 17 21 24 22 27 28 23 18 23 23 28 23 30 19 25 16 29 24 35 19 17 23 25 25 17 33 23 19 20 18 24 34 17 19 18 21 25 32 29 19 21 31 24 21 26 24 29 22 24 27 19 18 25 23 24 20 14 17 20 23 27 18 22 24 22 18 25 20 21 21 40 28 31 27 21 25 15 17 18 16 30 23 26 17 25 23 19 27 24 20 25 14 24 28 26 27 22 21 20 25 21 25 19 22 23 25 16 24 19 20 26 20 26 19 25 23 31 23 24 25 20 26 24 18 22 18 18 27 24 24 23 28 28 21 25 18 25 22 21 20 28 22 27 21 19 17 23 24 15 19 22 20 24 19 22 23 20 24 17 21 25 28 16 24 27 27 16 24 25 32 17 22 25 18 26 27 20 28 24 28 29 18 23 26 28 18 22 25 30 28 28 24 25 22 27 33 21 21 29 17 17 20 25 24 26 30 25 28 20 22 29 23 27 22 15 18 24 20 20 24 23 21 29 16 26 22 24 22 28 23 24 18 28 23 25 18 31 21 15 26 23 29 24 31 26 31 13 17 23 26 20 18 35 22 20 33 30 20 27 25 19 23 20 16 25 18 23 27 28 18 25 15 21 20 32 19 26 20 25 19 24 27 32 22 20 25 22 28 33 26 30 22 24 21 28 25 27 26 22 29 21 19 20 28 21 29 24 25 29 26 17 28 21 16 22 25 20 22 20 25 21 20 28 27 27 18 22 29 19 22 21 21 25 29 22 27 19 30 25 19 23 23 22 20 23 28 21 21 25 25 18 17 32 25 28 24 20 29 20 25 23 21 16 21 24 23 17 20 23 29 28 19 26 20 20 17 20 23 22 13 22 19 24 25 24 23 18 25 28 27 25 25 24 21 27 18 22 34 31 26 24 31 30 33 28 29 27 23 20 22 24 21 24 26 27 22 16 23 21 26 23 12 30 27 25 21 26 25 20 25 15 30 27 18 28 26 19 19 16 18 18 21 25 24 13 26 29 30 23 21 32 26 23 20 29 20 19 22 25 25 17 19 24 25 28 23 24 27 18 24 17 19 24 20 25 23 28 18 27 26 21 24 25 27 21 21 16 22 30 25 24 23 24 21 20 28 29 25 23 26 20 31 25 20 22 24 21 22 28 25 28 25 19 18 17 29 27 14 25 19 25 19 26 30 26 26 18 23 26 25 25 21 27 23 19 31 18 18 17 19 25 21 20 29 15 17 20 20 23 21 24 24 26 25 21 13 22 25 18 22 14 21 20 21 23 19 27 22 25 23 23 23 20 18 15 31 30 26 28 23 31 27 16 18 24 29 17 33 22 22 19 31 22 20 34 26 24 26 23 24 25 25 28 18 26 23 19 25 29 31 24 26 22 20 26 20 27 24 21 31 25 21 28 14 30 22 29 19 17 25 18 24 22 22 19 28 21 20 22 19 17 17 27 31 27 19 22 21 22 20 22 29 20 28 30 19 16 16 28 27 18 21 10 33 21 28 28 25 23 33 22 22 25 33 23 19 22 29 26 22 18 18 20 22 25 22 35 28 23 30 28 20 21 30 22 23 24 10 24 28 15 20 21 16 25 28 31 28 16 30 18 24 20 21 24 22 24 29 29 14 28 17 22 25 25 20 21 28 21 27 20 26 24 21 20 20 29 13 20 20 30 27 22 28 24 29 14 20 17 20 29 22 17 23 36 30 24 31 20 17 24 25 24 16 18 22 17 21 19 23 18 22 22 24 23 25 21 17 24 16 24 19 15 27 17 17 27 25 24 18 22 24 17 26 22 21 22 15 19 17 22 28 24 29 31 17 15 21 28 24 23 22 25 23 25 28 26 22 27 25 22 19 24 23 25 23 21 27 21 25 26 27 25 20 27 24 21 22 19 21 22 24 25 31 25 20 19 26 22 22 27 24 26 21 10 29 27 30 27 25 24 26 25 22 30 22 24 22 25 30 20 23 22 25 23 17 25 24 29 24 28 28 20 22 30 19 25 18 27 28 28 21 26 26 28 25 22 21 25 28 26 18 29 20 25 15 20 29 19 30 17 18 22 23 26 32 23 18 23 17 22 35 25 25 29 25 34 31 22 19 34 25 15 24 20 30 25 28 22 28 21 21 22 26 33 29 21 18 26 21 22 22 18 21 29 16 21 24 21 22 21 21 29 21 22 20 27 28 24 20 22 19 24 20 23 21 16 14 24 30 23 24 27 27 28 27 21 28 30 32 26 13 26 30 25 26 20 26 21 21 23 28 24 21 27 30 17 23 22 22 31 31 26 22 21 21 18 30 28 22 24 24 22 26 28 17 22 23 15 28 27 26 19 26 18 21 16 19 28 27 25 22 28 15 21 18 21 32 29 26 25 20 24 28 30 22 24 24 24 25 22 21 26 24 28 24 21 33 12 22 25 17 24 21 19 33 21 24 14 24 28 21 27 25 22 23 21 24 22 24 21 15 27 26 17 18 25 27 13 29 14 26 29 24 20 23 25 24 22 26 17 23 29 23 18 23 22 31 16 15 23 26 24 27 17 23 21 16 23 20 25 23 22 24 25 22 23 26 25 27 20 24 25 34 29 26 32 22 19 16 24 23 31 25 26 26 27 19 21 30 21 24 23 23 17 25 26 38 27 28 29 19 23 18 28 32 25 22 26 18 24 28 29 19 18 17 24 22 26 25 20 22 33 20 19 27 15 28 15 25 18 19 20 19 19 26 23 25 26 22 27 22 23 24 18 26 32 26 23 29 17 25 20 25 21 24 23 17 12 15 23 24 24 29 20 25 24 18 27 20 23 19 19 20 25 32 18 28 23 25 18 25 27 23 21 24 23 23 19 25 19 24 20 30 18 23 23 20 14 26 23 26 25 29 29 27 22 15 28 25 26 17 18 24 28 31 28 28 22 24 20 25 31 25 25 18 22 23 23 28 26 23 21 23 30 29 24 23 25 24 22 31 18 34 26 26 29 23 27 21 18 25 21 13 13 12 13 22 20 24 25 26 31 26 26 23 25 18 33 19 20 26 23 27 21 16 23 24 28 27 24 27 22 29 24 21 26 28 31 26 18 26 28 20 22 32 24 21 22 20 15 25 24 22 13 20 25 28 11 24 22 20 30 12 21 24 15 20 22 20 11 25 26 25 23 15 24 20 18 16 32 27 26 20 30 30 31 29 25 20 28 23 29 25 19 33 31 29 28 21 27 19 20 23 20 21 23 18 23 23 13 29 23 28 26 26 21 27 14 25 24 22 24 20 30 19 20 23 19 23 27 21 23 29 14 18 20 25 19 20 23 28 23 24 14 24 22 22 23 26 26 25 30 13 32 28 21 21 17 21 22 19 25 19 23 23 25 27 25 24 24 21 27 28 22 18 32 26 23 26 27 29 21 20 24 19 27 24 24 28 18 24 27 24 21 20 17 14 17 22 24 24 21 20 21 20 27 17 31 24 25 23 31 28 18 20 17 20 19 18 30 22 32 23 19 22 27 19 25 24 27 21 26 23 22 24 22 24 29 24 26 32 29 19 21 28 21 27 25 18 26 21 25 21 23 21 21 28 19 29 22 29 25 16 23 18 25 29 23 22 18 30 21 22 15 18 23 25 27 26 26 20 28 23 32 27 24 24 20 19 22 29 31 27 18 28 24 27 25 25 24 19 24 23 31 20 30 27 20 32 18 22 17 20 29 23 23 25 24 27 20 19 31 17 23 26 15 23 25 29 23 22 23 21 23 21 24 18 19 21 24 22 30 20 27 21 19 27 27 29 18 22 24 19 20 27 27 11 28 23 23 32 26 19 20 27 26 24 30 23 24 21 26 26 31 26 29 25 16 24 29 25 18 24 15 31 25 20 30 23 30 22 21 26 30 29 26 32 22 27 20 25 21 27 22 22 23 23 20 23 27 25 26 19 20 21 23 26 20 24 31 34 27 24 23 33 25 20 14 23 22 23 25 27 22 26 25 28 23 26 28 28 28 25 29 22 25 24 23 18 23 21 25 20 36 31 20 22 23 19 23 27 17 26 30 24 28 25 26 21 19 23 28 19 19 25 17 35 23 13 23 26 21 22 24 21 23 22 25 21 29 21 20 27 21 31 19 27 25 29 27 13 21 23 30 15 22 22 29 30 21 19 25 33 23 22 31 18 23 29 22 16 24 17 25 22 30 17 28 22 19 20 17 29 22 15 25 32 24 22 34 31 27 23 25 20 33 23 25 27 23 36 26 18 28 23 30 23 27 22 22 22 20 22 18 21 25 22 27 20 22 25 30 21 26 25 27 26 17 24 30 24 28 27 20 18 25 24 26 28 24 13 21 22 25 27 28 18 24 26 20 26 28 20 19 24 27 22 29 26 26 18 22 28 21 24 22 25 17 20 29 24 30 21 34 30 27 22 19 23 27 29 29 21 18 22 25 24 21 26 30 19 26 25 21 18 24 21 27 28 18 28 22 25 28 31 23 14 25 21 27 22 24 19 23 21 15 23 24 23 21 21 25 20 20 23 26 23 24 18 21 20 20 30 28 21 25 12 24 25 23 20 16 26 21 27 26 27 20 30 29 17 22 21 16 22 17 26 20 24 23 22 22 25 22 35 24 23 24 26 26 24 18 24 14 27 28 26 15 19 24 19 21 23 13 21 24 22 21 31 23 26 21 24 30 21 25 21 34 21 30 32 19 19 22 19 26 22 21 19 29 25 15 24 24 23 28 26 23 24 29 16 23 22 21 19 25 28 20 21 20 22 21 20 22 34 23 21 28 27 27 35 23 20 20 30 23 18 26 30 23 22 21 19 27 32 19 29 27 25 16 25 27 24 24 18 16 23 21 17 26 24 24 18 24 25 36 31 26 22 21 25 17 24 30 19 24 29 30 25 22 21 31 27 29 15 29 22 15 21 23 25 26 23 29 21 23 22 19 15 26 24 21 19 27 18 18 24 22 26 27 24 21 20 26 27 21 26 25 24 26 18 26 31 27 23 36 21 31 23 29 23 31 15 36 19 19 20 15 30 17 29 21 20 27 21 23 20 28 25 24 28 21 28 26 22 31 36 27 22 24 23 24 18 20 23 29 21 26 26 22 25 18 25 25 22 33 18 25 29 25 27 27 19 31 24 28 34 23 25 25 24 21 29 23 15 27 24 19 23 21 23 23 20 13 17 20 9 24 23 26 17 27 24 26 29 19 22 29 24 15 23 26 23 23 25 15 24 29 28 25 23 26 23 20 26 22 30 23 22 23 27 18 29 28 23 15 26 28 17 35 25 29 19 27 20 16 24 21 23 22 26 20 17 23 22 21 25 23 28 22 24 24 27 36 15 25 24 19 25 19 24 25 23 15 28 18 24 22 25 23 25 18 20 24 20 20 15 26 26 18 23 21 24 21 17 27 20 23 26 18 24 27 22 24 16 25 17 20 18 29 23 19 23 29 22 23 25 23 21 25 21 24 29 17 25 25 23 22 28 23 25 23 22 24 27 35 23 24 31 24 24 28 31 23 30 24 26 19 17 18 27 24 30 29 15 27 22 31 20 22 19 19 22 18 17 21 19 28 26 18 21 26 26 26 19 27 19 28 32 16 25 24 20 28 26 28 21 21 21 23 27 21 23 23 25 18 24 26 25 20 15 29 17 19 24 18 26 25 20 23 23 20 22 27 25 17 17 30 29 21 28 22 25 15 26 21 29 18 21 30 17 17 23 24 31 21 21 28 26 27 21 18 27 20 26 26 26 20 17 18 32 22 25 26 29 30 22 20 29 25 26 29 20 26 29 15 27 33 26 27 24 19 19 26 22 26 16 28 16 22 25 25 16 24 16 21 33 23 17 26 21 24 19 21 25 23 23 24 20 20 21 23 34 26 29 32 23 23 23 18 26 23 30 24 24 22 23 19 19 22 30 20 25 25 33 25 28 34 27 31 27 29 21 23 27 23 32 24 24 29 27 38 23 28 41 25 22 23 21 22 22 25 27 28 23 27 21 23 21 14 25 21 21 29 19 20 25 22 20 27 24 21 21 24 27 22 18 20 22 29 18 23 27 30 26 22 21 22 25 23 27 33 27 17 25 24 21 22 25 23 26 23 24 27 23 22 20 23 19 25 29 21 31 21 23 31 24 23 27 19 24 26 22 23 17 37 18 19 17 23 22 26 26 23 20 20 21 20 22 23 27 20 22 20 21 22 22 21 25 21 25 20 29 22 29 25 28 26 18 21 15 26 31 21 18 28 23 18 30 20 26 20 27 26 24 29 30 15 13 16 24 16 23 18 32 33 14 25 18 25 28 25 20 25 17 23 20 33 31 26 17 26 28 23 17 24 18 28 19 22 21 30 22 27 26 17 25 21 20 25 27 29 25 16 29 25 29 24 28 17 24 20 25 24 20 19 34 23 28 21 15 26 34 23 26 28 19 19 18 14 22 21 27 26 21 27 25 22 20 23 24 21 25 28 22 18 25 26 23 15 26 26 25 24 24 26 24 18 30 27 27 22 24 19 22 20 18 19 22 21 16 23 21 20 22 24 25 15 21 30 13 27 34 26 24 15 24 22 25 11 22 21 18 26 18 22 29 18 24 23 22 18 18 29 18 23 22 30 27 28 24 30 21 21 21 25 19 18 20 32 26 19 21 27 22 30 28 21 17 20 22 25 31 24 23 29 30 24 28 25 25 26 28 24 24 26 28 27 18 21 27 22 28 24 31 22 15 22 24 26 21 30 23 29 21 24 22 22 31 25 27 21 31 20 22 18 23 28 28 28 25 24 16 22 30 27 33 24 17 27 31 28 28 29 20 22 24 21 20 23 15 23 18 19 28 19 22 16 21 22 18 23 22 26 27 25 31 23 23 29 29 26 19 24 20 21 24 15 25 20 24 20 20 16 25 22 27 16 15 20 15 22 19 24 28 25 23 26 27 21 22 20 12 24 29 25 26 25 32 19 33 23 24 24 18 26 18 22 24 21 24 26 16 23 28 30 23 17 22 29 25 22 34 18 27 20 30 22 24 21 16 24 20 19 17 22 23 27 28 34 26 30 19 22 29 23 14 23 27 22 15 16 20 19 24 27 30 27 26 20 32 25 18 27 27 28 23 17 27 29 20 23 19 16 22 26 29 24 27 26 19 27 38 23 22 23 12 30 21 21 23 21 26 25 21 17 27 20 17 28 24 27 24 23 27 20 26 16 23 16 23 27 30 27 21 21 27 25 20 22 27 30 19 27 26 19 25 21 29 30 14 24 22 26 22 22 29 17 24 27 21 26 22 16 27 26 19 20 23 27 20 24 16 19 16 25 25 25 17 19 22 29 22 23 27 16 26 32 21 25 17 26 25 20 26 25 27 31 23 32 24 32 23 25 19 26 18 26 28 29 27 28 22 22 20 26 24 23 27 17 15 24 30 29 30 27 14 26 17 13 20 22 21 16 25 31 30 23 21 24 26 18 19 17 28 26 32 33 29 25 31 18 23 23 22 27 20 24 19 23 21 27 30 19 29 19 24 31 21 25 19 26 24 18 24 21 41 20 18 25 23 23 21 29 19 26 31 19 26 27 29 25 26 19 16 28 20 25 23 32 31 18 23 28 23 18 22 23 28 23 23 27 22 23 21 28 27 27 32 25 25 26 29 20 25 19 26 23 28 22 32 18 26 27 25 31 27 27 16 24 21 11 31 22 22 31 26 22 17 17 25 24 18 23 25 19 17 28 26 18 29 19 26 26 29 26 23 23 27 24 30 31 20 17 26 20 20 24 24 21 28 23 26 13 19 27 18 22 29 26 34 22 19 24 23 24 24 19 25 20 22 25 25 25 32 32 25 23 17 16 25 18 30 22 23 30 19 26 23 33 32 22 24 23 24 20 20 24 27 20 28 22 26 28 21 27 26 23 22 27 28 22 20 29 30 28 31 29 22 15 25 26 22 31 20 19 14 30 27 22 28 27 26 22 26 28 22 25 20 21 27 25 25 20 22 21 24 16 24 24 32 12 11 19 19 20 24 27 19 27 15 25 26 21 26 27 25 25 18 29 23 27 25 26 24 18 19 20 27 20 20 28 19 22 23 20 23 13 31 31 17 29 19 25 24 18 26 20 31 23 22 22 21 22 20 24 26 26 29 30 28 25 20 21 25 26 18 28 15 22 22 21 22 31 20 18 24 14 22 21 14 27 24 22 22 22 24 27 21 21 20 22 22 25 24 32 27 26 29 15 23 21 19 23 19 24 18 22 27 21 22 30 23 18 31 29 22 27 26 26 23 23 24 20 26 24 32 29 29 21 18 35 28 25 20 25 26 18 25 30 25 30 23 26 27 24 27 16 22 21 16 11 29 24 18 20 21 26 23 22 22 15 29 26 22 24 18 19 23 30 24 28 28 23 27 26 27 25 30 28 26 17 23 31 21 29 21 20 27 26 25 33 28 22 23 20 20 21 25 22 22 29 27 27 21 19 22 20 24 31 26 24 21 18 25 31 27 28 26 25 24 30 32 19 28 16 25 21 24 23 24 22 24 15 31 18 25 16 18 17 28 34 27 23 20 25 23 18 29 23 25 21 30 24 21 19 22 22 18 24 23 26 21 28 22 23 24 25 23 18 25 24 19 23 28 22 21 23 24 24 21 18 27 24 20 25 25 18 22 22 19 19 24 33 25 29 22 26 24 29 26 21 23 27 28 31 25 25 25 28 23 22 28 24 21 25 27 20 29 28 18 23 17 28 23 22 24 27 22 23 23 23 19 18 20 19 27 25 22 21 26 18 31 20 28 26 28 19 23 22 19 29 28 26 30 26 30 33 20 25 28 24 22 22 22 23 25 18 23 24 29 29 25 26 24 25 21 23 22 28 22 23 19 21 23 30 21 20 21 21 29 20 20 21 27 18 21 22 25 20 29 31 24 19 19 20 22 22 24 21 27 20 20 18 31 22 20 21 23 19 31 24 20 16 23 29 19 22 19 19 26 22 23 21 18 24 32 31 25 26 26 29 28 23 27 19 19 19 18 26 18 19 21 24 24 25 30 27 21 32 28 19 18 16 20 23 30 27 22 20 22 30 25 24 26 27 28 21 30 25 28 23 19 24 26 21 28 22 21 26 22 27 15 27 18 24 21 20 22 23 20 21 23 25 20 20 23 21 32 25 24 27 20 34 16 14 25 26 20 28 20 23 21 22 23 24 23 20 20 24 19 28 27 27 25 31 31 23 26 13 24 22 23 23 27 30 22 23 23 21 31 30 31 22 29 17 22 23 34 32 28 27 23 22 30 25 17 25 29 26 22 33 23 24 26 28 18 22 17 27 27 20 23 23 30 22 26 23 22 28 25 25 26 29 27 21 21 24 20 28 31 22 21 20 24 34 29 26 24 21 18 30 23 23 25 28 21 29 26 18 25 27 32 27 29 24 22 28 27 21 29 18 27 20 18 22 32 23 22 21 23 26 28 24 25 28 22 20 22 32 20 20 16 29 33 21 23 22 23 17 19 30 22 18 16 22 22 15 32 21 25 23 24 26 25 18 24 25 15 22 25 25 18 25 28 28 31 30 21 29 26 18 21 15 25 18 17 28 22 30 26 19 19 20 25 36 32 18 21 27 24 21 18 20 22 15 26 14 23 21 23 22 30 20 21 25 17 26 24 27 26 20 24 22 28 19 31 19 26 27 26 20 28 21 29 28 22 22 24 25 19 24 24 24 24 18 21 26 16 14 32 18 32 20 21 20 22 19 31 27 28 28 26 25 28 28 22 22 20 21 19 23 25 25 23 25 25 20 23 27 20 21 27 17 27 29 17 23 20 33 21 26 22 27 22 20 28 25 24 28 21 27 29 24 25 28 27 25 19 30 30 27 31 24 25 23 21 27 22 25 23 29 20 26 26 23 18 30 21 24 26 21 17 30 34 29 27 33 18 27 11 22 24 29 24 22 37 30 29 28 23 26 19 30 33 26 18 31 23 23 28 29 21 24 26 28 28 21 20 26 9 24 24 20 26 23 24 24 26 23 25 20 20 25 17 16 25 22 18 16 29 24 25 18 23 19 23 18 27 27 33 24 21 25 19 29 26 16 22 25 21 25 22 26 24 18 26 29 24 21 21 22 27 33 24 26 15 19 32 24 22 24 28 24 21 22 25 22 23 26 27 24 28 25 24 24 31 14 25 20 24 26 26 24 21 12 29 31 22 24 18 35 22 21 26 22 24 16 25 19 26 27 23 22 23 26 21 21 28 22 24 25 21 18 31 31 21 31 24 20 21 28 29 27 26 28 31 21 20 25 25 21 26 21 30 26 22 25 18 20 23 24 25 23 15 18 24 30 29 24 28 21 25 24 23 34 25 29 30 28 19 26 27 17 21 27 22 21 21 21 18 22 27 19 32 19 25 25 22 18 30 30 26 26 24 30 34 21 23 22 22 23 30 29 20 22 21 29 26 22 18 27 26 27 21 29 22 15 24 25 20 32 14 24 21 22 29 21 16 23 27 19 19 28 25 28 24 21 26 27 25 26 26 21 26 25 21 21 20 25 33 21 25 25 18 24 26 26 25 28 21 27 24 30 23 24 23 30 20 23 18 25 27 21 21 12 25 20 30 27 24 24 17 24 23 17 27 23 21 23 18 30 21 23 25 25 22 27 28 33 19 18 19 21 25 26 16 26 21 24 28 22 20 24 28 20 26 21 36 14 25 29 18 26 31 25 15 24 22 20 28 21 18 22 18 20 23 28 24 27 24 27 24 29 28 21 19 31 28 24 22 26 18 22 26 26 22 26 16 28 20 22 20 15 24 31 32 16 18 25 21 24 14 18 24 18 27 19 21 23 26 22 24 16 23 23 30 26 23 30 24 30 23 22 34 24 23 33 20 27 23 25 26 21 30 26 22 19 19 25 18 22 25 23 29 20 25 22 26 16 22 25 25 16 20 29 20 17 16 27 33 25 19 24 24 23 30 19 29 26 22 25 23 20 21 27 30 24 22 26 27 20 26 26 17 24 20 21 28 22 28 25 34 18 22 26 25 18 24 24 15 26 19 23 25 30 22 31 30 33 26 21 16 18 20 21 23 22 21 16 23 31 14 27 22 22 23 17 22 25 23 31 33 32 25 30 28 24 19 18 26 25 27 18 17 25 27 26 24 26 25 30 30 26 19 23 25 24 18 25 20 28 25 19 24 23 17 23 24 26 17 20 25 17 25 23 23 26 23 28 26 34 28 25 28 24 29 26 21 32 20 26 21 24 26 18 27 23 31 27 31 28 21 18 25 18 26 18 28 31 20 27 31 25 30 27 28 27 17 22 21 27 18 26 19 19 31 14 23 17 22 22 28 23 21 26 27 19 32 26 20 25 21 22 24 31 26 12 33 28 19 28 24 29 21 29 19 20 18 18 28 23 27 19 28 26 21 21 28 26 22 31 21 30 28 23 32 23 22 30 18 23 21 26 18 27 25 30 26 14 24 27 25 27 22 26 22 16 23 27 26 14 29 25 23 27 24 21 20 22 26 24 20 26 22 24 22 23 20 16 23 21 25 19 32 29 26 23 23 24 31 22 31 31 28 23 21 28 20 22 22 18 25 25 24 25 19 25 26 25 27 27 19 19 30 30 21 22 23 23 18 25 29 18 23 22 20 18 19 27 20 21 23 23 25 18 23 28 23 25 21 26 26 28 19 19 33 23 26 24 18 23 27 18 24 22 24 24 24 26 24 24 21 24 22 20 15 20 18 26 25 26 32 20 24 27 26 23 29 28 19 33 21 26 22 21 19 24 21 32 29 19 11 27 27 22 21 25 20 21 20 19 17 26 18 17 20 24 25 29 28 22 25 27 27 26 23 19 28 23 18 25 27 25 25 24 25 24 28 20 31 21 25 21 20 28 17 15 24 16 23 33 28 27 24 19 19 28 25 13 24 16 26 29 24 27 16 25 27 26 22 22 21 25 18 25 26 24 18 27 27 23 22 25 27 27 20 21 27 25 19 30 22 20 18 19 21 30 24 20 22 20 28 26 19 23 33 25 26 27 20 30 19 25 27 23 17 25 16 26 23 25 24 30 21 25 26 28 18 29 31 33 31 31 19 17 24 28 24 22 28 17 16 20 23 22 24 22 28 23 22 27 20 20 23 27 24 20 19 25 24 25 26 21 20 19 28 24 29 24 30 19 26 22 31 30 22 24 28 22 23 22 22 20 23 25 23 19 23 16 22 27 24 20 25 25 31 22 27 24 29 25 17 24 24 26 26 27 25 31 31 21 23 24 17 18 25 13 19 28 19 26 23 24 23 23 28 17 23 25 22 24 25 23 27 22 25 23 25 27 24 17 24 27 23 23 31 28 26 20 19 21 19 24 25 21 18 20 14 22 24 29 26 27 22 18 21 22 30 14 22 15 30 20 28 18 22 18 21 22 25 22 21 22 23 20 25 16 17 23 28 34 22 32 21 22 23 33 26 25 33 19 22 25 19 20 26 24 16 27 30 18 20 23 21 13 24 27 25 18 29 16 25 23 19 25 18 26 21 22 22 25 22 24 22 32 24 25 28 24 31 28 22 23 25 26 31 24 32 23 28 26 22 23 20 32 19 26 26 23 13 26 27 26 26 27 20 26 23 24 14 20 23 33 20 19 27 30 28 20 27 20 22 21 26 23 25 26 28 22 20 29 18 21 23 25 22 30 22 29 26 28 20 23 24 24 22 18 21 29 26 20 25 24 18 27 21 15 19 25 16 19 21 22 20 16 28 30 25 26 23 21 25 21 18 25 28 25 23 19 21 24 26 30 21 26 16 26 23 30 20 23 32 22 15 21 29 25 28 27 21 17 29 21 23 23 21 26 29 23 26 24 19 25 27 31 20 32 26 26 22 20 27 22 16 19 21 16 26 22 21 20 28 20 21 22 28 23 24 27 21 30 18 27 24 27 25 28 24 33 26 28 23 23 27 24 32 18 22 20 30 26 22 21 27 17 25 22 27 20 19 27 13 22 14 22 27 23 24 23 27 20 16 21 26 22 17 23 22 25 20 23 14 15 23 23 28 20 27 26 25 23 22 25 25 26 23 22 22 27 21 23 19 22 22 28 19 27 27 21 26 23 24 23 20 26 23 24 22 22 18 23 22 19 30 30 20 28 27 19 25 26 24 19 26 29 25 13 15 33 20 23 19 26 24 25 30 22 32 29 24 23 28 32 24 27 19 19 28 29 23 23 19 17 22 20 20 19 24 27 20 26 23 16 25 28 17 24 19 28 30</t>
-  </si>
-  <si>
-    <t>NIG(105.32798893505998, 78.79373025235654, -1.6854279929331648, 31.65594369296756)</t>
-  </si>
-  <si>
-    <t>34 38 36 30 37 40 40 20 34 37 37 36 39 36 47 32 28 38 25 38 35 33 30 23 36 36 40 40 37 31 24 28 32 26 32 27 31 41 26 30 33 29 38 35 21 32 37 37 38 34 35 36 36 30 38 37 39 23 38 34 28 38 37 34 35 28 39 27 28 32 31 34 24 43 43 33 32 32 24 31 42 28 31 35 29 43 35 40 37 34 44 36 37 30 33 37 36 32 39 32 28 20 23 36 27 34 36 34 35 37 25 40 32 31 41 31 33 37 26 33 35 28 52 20 38 42 29 29 28 36 28 29 32 39 35 26 29 38 33 40 42 28 33 36 30 33 45 30 35 34 35 31 33 33 31 24 34 44 37 39 47 31 43 36 34 27 31 32 31 32 42 31 28 36 32 31 44 29 39 52 49 42 25 31 35 30 33 28 37 28 23 32 32 34 40 28 38 30 39 24 24 36 37 19 31 35 33 36 39 28 24 26 43 34 37 31 35 33 38 45 35 43 32 20 37 35 33 37 43 31 39 36 26 42 38 28 31 32 43 31 40 35 39 21 33 37 36 25 34 36 31 30 38 31 27 29 29 45 30 33 40 37 36 29 29 42 34 45 44 35 35 47 37 46 28 42 40 37 26 37 40 25 39 32 27 28 34 36 41 37 40 36 40 31 33 37 30 25 33 36 35 34 38 40 30 25 32 36 42 41 36 41 32 31 41 40 39 36 35 27 32 26 26 33 27 32 42 24 39 32 40 31 26 42 39 34 32 38 23 29 35 31 39 34 32 40 37 36 33 39 34 37 36 29 36 39 29 38 33 30 36 34 41 32 40 36 51 33 34 25 37 37 31 41 30 30 37 24 46 39 28 36 31 37 27 44 30 30 34 28 31 36 38 29 35 32 36 33 36 40 47 42 46 35 41 30 34 53 33 37 36 31 32 36 51 29 26 30 32 33 33 40 29 44 31 35 37 27 41 29 26 26 32 32 33 44 29 35 32 32 31 33 25 42 32 34 43 33 30 36 35 29 32 35 26 39 45 29 36 38 37 45 39 36 26 35 45 47 26 31 29 22 35 29 38 22 37 36 35 33 35 35 41 34 27 24 37 29 28 35 39 36 34 43 39 25 32 23 35 33 30 34 39 30 39 38 44 42 31 33 30 31 44 28 37 23 37 33 34 27 35 26 31 31 36 33 38 42 44 30 32 32 23 37 31 39 44 35 30 35 31 38 29 42 43 32 34 29 25 34 31 31 29 33 33 32 36 24 33 30 46 25 30 34 26 30 25 32 35 33 35 43 30 39 34 37 42 30 34 33 24 38 32 31 24 37 30 33 40 39 39 28 35 32 37 29 34 32 30 23 30 32 22 44 37 44 49 35 40 35 30 32 28 40 38 32 36 43 23 52 35 28 40 33 35 35 34 43 39 30 20 38 23 37 36 36 34 34 28 33 25 29 45 29 35 42 36 30 41 30 33 40 26 26 33 41 42 37 38 29 35 30 32 36 33 27 26 44 30 34 33 33 38 36 34 41 42 40 30 38 23 33 36 33 25 34 34 29 37 31 36 33 26 33 33 42 26 29 36 33 30 22 32 38 29 36 35 30 28 37 38 31 31 39 35 32 26 40 34 51 26 39 31 34 31 29 51 30 26 31 26 36 39 31 36 34 25 30 33 46 24 36 29 27 34 35 37 33 35 28 43 32 30 30 28 26 36 36 49 45 42 25 38 39 33 41 36 23 26 35 34 26 31 41 35 32 29 35 25 27 39 38 38 34 30 32 43 36 35 29 40 29 35 25 30 27 25 31 28 33 39 27 38 29 33 41 23 22 33 35 38 30 36 41 37 34 26 36 32 37 32 30 26 37 40 36 40 30 34 24 45 45 26 28 38 38 30 48 51 33 37 41 47 29 28 24 25 30 39 31 30 32 31 40 27 36 33 33 36 34 30 23 36 34 31 34 41 26 44 32 33 34 22 35 29 30 37 40 37 41 21 41 33 41 34 24 46 40 32 30 34 29 44 20 36 31 34 47 35 43 25 40 30 43 29 32 38 34 25 38 46 36 45 39 43 23 29 29 39 36 35 39 38 30 35 36 34 39 35 37 31 24 44 38 46 43 48 30 33 39 36 28 37 28 24 29 34 33 37 28 24 47 30 27 29 29 24 40 30 30 34 34 32 36 30 33 36 22 46 41 40 29 25 49 34 33 34 28 37 25 27 35 38 44 33 35 37 29 37 39 35 37 40 39 27 39 24 20 24 29 26 25 34 31 25 30 30 29 24 44 35 34 26 43 35 28 31 32 35 35 31 40 37 33 30 34 42 35 21 32 36 36 39 23 30 38 32 33 25 38 34 39 25 43 30 30 32 34 34 25 29 37 27 32 38 29 31 32 30 43 34 30 43 32 35 30 28 34 33 33 33 30 33 31 39 36 34 43 42 28 31 35 39 31 27 29 28 37 33 30 22 26 25 31 27 27 35 38 36 35 39 27 34 35 43 31 28 35 38 31 28 33 34 33 35 32 28 45 40 26 32 29 42 29 28 28 28 34 25 31 30 46 36 30 19 34 29 24 33 33 29 22 25 31 37 30 36 30 49 34 27 33 36 33 18 39 44 27 27 36 35 36 29 34 36 21 32 28 36 39 38 41 31 26 37 29 36 31 23 33 38 28 31 37 43 29 29 43 30 38 34 44 40 34 30 35 29 31 35 36 22 41 35 44 43 40 29 30 31 34 34 41 41 37 34 30 33 32 33 36 34 32 29 44 28 29 26 32 34 35 36 32 29 43 22 45 32 53 23 34 29 39 33 32 41 32 33 35 32 34 38 35 42 30 27 30 36 34 34 35 40 26 40 29 28 39 33 44 45 35 32 34 35 42 29 41 36 38 27 51 38 38 35 31 29 45 30 30 35 32 34 29 30 34 32 30 30 36 34 31 35 39 27 37 39 32 35 33 43 33 32 33 40 31 38 28 33 37 31 29 27 33 31 36 46 35 37 29 27 38 29 39 32 28 38 25 37 44 32 28 42 45 27 38 27 31 35 28 31 33 37 42 34 36 36 27 31 30 33 42 49 26 35 44 33 41 34 29 31 32 31 31 30 43 39 40 46 35 35 34 27 33 26 32 40 44 29 32 33 38 47 38 39 34 38 36 38 39 25 30 32 36 31 35 22 33 36 31 36 29 31 37 38 35 23 38 33 40 41 31 36 30 39 35 30 30 26 30 42 36 32 36 36 34 27 32 30 44 47 30 30 48 31 25 35 29 40 33 34 38 30 33 29 29 42 30 35 31 32 28 41 37 35 39 28 35 31 38 28 39 33 40 23 32 36 31 38 27 35 36 35 33 33 25 26 30 32 27 35 33 28 36 40 47 40 44 35 33 30 28 35 45 27 39 31 29 33 39 29 33 32 45 27 34 29 34 40 26 26 30 33 40 36 46 31 26 35 36 40 34 35 33 31 34 38 42 35 38 36 30 39 34 32 33 44 34 32 29 39 32 37 27 30 29 33 32 37 34 43 33 19 25 30 36 32 45 39 42 39 24 34 38 38 40 20 23 24 33 37 43 29 32 28 28 25 51 31 33 39 40 22 27 47 37 37 36 37 32 34 30 29 29 31 33 29 24 41 29 29 37 36 35 33 28 30 28 39 39 34 34 32 40 43 39 32 25 28 29 42 30 44 40 27 36 43 30 33 30 35 26 31 29 25 32 31 26 30 34 27 31 23 39 32 35 47 33 29 45 32 35 38 29 26 42 33 25 35 31 27 30 33 36 36 40 32 33 28 43 30 35 31 39 32 40 35 37 37 31 31 31 42 32 35 27 35 26 29 22 43 34 38 32 38 40 37 31 39 27 38 30 37 32 38 34 27 32 38 43 39 32 37 33 36 39 43 29 30 34 28 30 34 33 36 37 31 35 34 27 37 37 35 33 38 39 51 32 35 27 35 38 34 28 34 36 31 28 23 33 32 41 37 34 30 47 32 32 38 33 36 25 33 39 35 26 31 41 34 41 43 40 30 28 36 37 29 37 33 33 34 36 37 23 38 36 32 35 34 45 32 35 31 44 39 33 40 30 33 23 31 35 44 19 23 28 35 35 36 25 37 28 31 32 35 37 40 39 32 36 33 46 38 42 41 37 38 31 38 40 34 36 35 43 34 33 38 49 27 30 33 46 30 41 40 32 30 35 29 34 40 39 47 46 34 38 38 29 39 33 31 35 35 37 33 30 34 41 43 40 42 30 28 37 35 38 38 41 35 32 35 30 33 26 25 33 25 40 24 41 32 31 35 34 24 32 34 45 37 27 37 35 37 29 38 37 31 31 26 36 34 32 22 23 45 40 34 44 29 30 39 41 31 32 36 32 34 40 29 46 38 23 36 36 36 37 37 38 37 44 43 36 45 45 34 23 34 40 36 29 38 30 32 50 30 41 29 43 37 34 38 36 36 55 32 43 36 26 39 39 32 27 46 28 36 28 39 36 34 37 41 33 49 27 39 36 40 37 34 45 49 40 39 30 36 26 40 26 39 39 34 33 36 35 31 32 30 35 37 54 43 41 33 35 31 31 42 35 31 38 34 29 31 27 34 40 39 26 34 24 31 37 35 36 38 40 26 26 38 38 49 43 42 47 37 38 39 38 32 39 31 33 33 40 38 30 20 33 38 35 39 42 34 33 35 32 28 22 40 36 29 29 45 40 41 33 35 32 35 39 32 26 40 34 30 34 18 35 37 40 36 40 33 30 31 31 34 33 31 35 29 32 46 29 41 34 32 34 37 41 42 28 32 37 37 31 30 38 38 24 43 41 40 33 29 28 45 27 29 33 43 30 42 29 29 39 29 34 35 35 33 35 35 36 39 36 29 36 20 41 39 33 38 33 38 37 27 33 23 36 33 34 38 26 25 37 36 26 28 23 29 35 43 32 27 39 32 30 36 38 33 40 27 36 35 31 27 32 41 23 31 25 43 46 21 32 32 47 27 30 31 33 42 37 38 28 29 40 34 35 33 37 33 30 43 31 27 46 27 22 46 28 30 34 41 35 29 31 48 24 33 34 25 29 32 34 47 31 39 41 26 36 42 40 41 38 29 31 39 36 40 36 30 33 39 39 40 30 35 34 37 32 41 38 32 34 36 27 35 27 34 40 35 26 39 32 58 35 35 29 25 29 32 31 30 32 29 32 32 32 35 33 38 32 27 25 43 32 31 35 30 27 27 32 34 38 27 25 38 53 33 28 38 28 39 36 38 32 38 36 29 38 44 41 28 32 33 38 48 32 26 33 26 41 40 28 27 35 42 28 37 34 46 35 25 26 27 30 32 35 34 50 33 38 42 41 40 39 32 46 34 23 25 24 31 45 31 42 32 37 46 27 41 28 20 46 34 35 48 31 50 40 34 24 34 40 43 30 27 41 31 29 37 36 31 35 32 37 25 37 38 39 29 40 40 32 26 40 35 28 28 40 39 30 30 31 43 37 36 32 28 38 37 49 27 33 31 37 34 26 36 35 35 39 44 34 35 29 37 35 20 44 39 36 30 25 42 37 28 25 31 38 31 29 28 33 37 33 24 31 44 31 24 36 45 26 30 32 35 35 41 26 35 35 36 36 33 30 36 40 35 31 32 43 36 36 40 32 40 34 33 36 31 32 30 34 36 31 39 38 27 28 41 36 32 34 33 34 38 37 38 33 40 34 33 31 37 37 39 42 23 36 37 30 43 36 26 45 40 42 23 31 32 40 22 34 32 34 36 27 33 39 36 41 47 43 31 36 23 35 50 30 24 34 31 32 35 33 33 25 36 23 40 39 30 38 31 35 30 25 38 31 39 43 29 34 35 45 41 31 37 33 30 35 41 31 39 37 34 25 31 39 41 40 34 39 43 29 40 45 25 59 39 38 33 45 33 41 39 31 31 37 27 21 21 30 33 37 47 36 23 32 28 40 35 37 35 39 32 44 41 34 47 37 25 33 38 37 35 27 27 34 29 33 27 27 21 36 51 32 39 31 43 27 34 37 23 34 39 22 32 35 33 28 35 27 38 28 28 34 38 33 28 32 39 27 26 29 33 33 41 35 31 31 30 41 39 33 34 33 33 35 37 40 31 30 33 27 29 40 28 34 31 33 28 29 37 37 45 46 33 35 26 42 36 33 24 44 24 30 39 37 33 32 25 38 28 32 42 30 29 34 41 27 38 29 28 31 34 30 36 27 36 41 28 36 32 24 35 26 34 32 25 32 36 42 32 37 24 29 28 38 44 35 29 33 37 31 30 38 39 33 30 43 37 42 39 25 31 32 28 37 38 36 35 31 32 34 30 36 36 35 23 27 34 46 28 44 39 31 32 37 29 36 42 34 30 44 33 36 40 27 35 30 41 31 37 36 41 38 43 32 45 35 31 35 33 32 34 29 38 29 35 46 27 34 42 36 48 35 35 35 23 31 35 41 37 34 30 31 29 26 37 41 32 27 37 37 31 37 52 41 39 33 39 35 24 27 34 38 45 29 31 35 42 31 29 27 53 30 34 39 28 36 20 33 41 40 38 33 26 33 34 38 33 35 41 25 41 40 37 24 34 23 37 43 37 25 38 37 33 32 27 30 31 46 28 26 39 38 34 27 28 31 33 42 34 46 41 35 33 39 30 33 27 40 35 40 32 27 30 37 40 39 44 28 31 29 32 29 37 24 31 30 28 38 38 35 36 33 37 32 38 36 41 34 25 38 32 27 49 31 30 45 43 28 25 33 29 39 43 33 28 25 28 31 40 41 46 35 29 36 39 31 27 36 28 28 30 36 37 37 39 33 31 47 27 34 33 46 32 41 46 34 42 29 40 30 41 46 28 34 27 32 29 40 33 41 32 39 43 34 36 39 37 34 40 35 37 27 32 29 35 38 34 42 23 31 31 49 31 30 31 29 30 25 32 42 34 40 26 29 37 34 33 29 38 20 38 45 42 39 28 29 32 32 36 30 33 28 33 33 34 34 29 43 26 31 30 37 29 35 32 26 36 28 45 34 29 33 44 42 46 30 29 31 31 37 46 28 28 36 37 32 34 30 23 29 33 22 34 35 23 38 30 39 36 30 40 36 32 33 27 27 36 28 29 35 33 27 29 35 38 39 36 27 41 28 34 32 20 40 38 31 39 35 38 27 34 25 25 26 34 28 26 37 33 30 26 37 34 42 34 37 31 51 30 35 39 31 34 38 35 34 29 30 37 40 42 34 36 39 36 35 38 36 37 38 27 28 33 53 43 46 39 29 32 30 30 42 33 38 23 43 28 42 43 27 26 32 26 45 37 28 36 35 32 38 29 40 42 35 30 32 28 46 40 37 35 35 33 35 38 37 37 34 29 34 27 28 34 37 42 31 28 34 25 30 30 35 30 39 39 40 42 33 30 29 32 29 34 30 32 33 40 34 27 40 38 36 31 32 31 41 27 36 44 32 34 41 34 35 37 38 30 28 39 42 33 33 37 25 33 47 33 34 28 36 28 25 28 33 38 51 30 38 37 34 40 32 26 25 31 28 32 39 31 40 30 32 30 34 34 29 36 28 41 27 33 33 27 48 33 32 31 35 39 36 32 38 36 41 34 28 27 40 34 31 28 28 36 29 38 40 24 40 33 27 26 36 27 32 37 29 31 32 37 27 30 37 35 43 33 34 37 26 31 24 32 31 33 27 30 26 40 28 35 25 39 41 49 46 40 29 31 22 33 28 30 32 38 34 38 27 29 22 34 27 31 25 25 44 24 36 25 32 38 25 28 36 37 37 31 36 45 28 36 25 39 40 30 22 35 40 26 30 27 36 31 35 35 43 39 31 24 37 21 22 38 35 26 27 35 39 26 36 35 28 37 40 24 42 24 40 37 32 40 32 36 32 36 26 31 29 41 34 25 34 24 24 31 32 32 33 33 24 26 36 38 28 33 40 36 33 27 44 27 28 39 34 36 22 37 42 33 38 23 35 27 34 32 23 47 27 40 40 37 32 27 39 28 35 35 27 50 35 32 33 40 25 37 25 27 42 36 36 31 33 29 32 33 34 32 36 30 36 35 34 29 33 35 25 36 42 36 40 33 37 33 40 35 38 29 26 33 39 40 30 29 28 31 35 40 30 29 36 41 39 23 32 31 43 24 34 33 34 45 28 48 36 39 30 28 29 42 34 37 33 47 38 29 27 30 47 39 23 36 40 27 21 33 33 34 20 37 37 35 35 29 33 34 34 35 35 38 36 24 30 26 33 30 33 34 31 42 32 37 36 33 32 30 32 31 38 29 39 39 29 38 48 37 28 33 26 35 42 41 31 41 26 33 29 33 37 34 34 32 26 40 33 30 37 39 38 31 35 28 24 31 40 53 34 29 39 34 33 30 46 24 48 27 36 43 30 29 28 28 33 30 33 32 26 36 37 33 35 43 45 32 29 31 25 16 39 34 42 33 27 32 56 35 34 31 27 34 27 30 32 31 28 28 31 33 35 40 32 29 35 42 30 42 29 34 43 41 25 35 38 35 41 36 26 40 37 40 37 28 32 26 34 37 41 30 35 41 38 49 36 29 27 33 33 33 37 39 31 31 35 41 37 32 40 39 34 38 39 25 32 29 37 25 34 28 36 28 26 26 30 26 28 41 35 31 40 23 35 27 30 37 44 49 32 36 32 34 33 32 31 28 39 36 34 39 37 31 36 36 35 38 36 40 39 31 34 25 39 44 27 31 37 32 38 38 38 22 26 27 36 37 35 39 30 28 31 30 45 27 27 33 37 25 28 36 33 35 28 34 27 27 35 37 37 38 34 34 32 36 26 31 29 29 36 33 31 42 33 27 44 45 41 45 33 41 30 34 31 44 40 35 36 26 33 29 46 28 35 30 35 34 34 38 35 34 28 28 38 30 43 39 36 33 36 40 32 47 42 40 35 33 40 35 41 39 21 31 40 36 24 30 35 22 34 37 35 31 34 33 33 31 37 31 35 38 46 33 41 34 30 27 37 35 38 31 34 28 38 40 33 36 43 45 23 40 31 29 32 28 28 31 35 28 34 33 35 36 37 38 29 53 35 32 32 35 16 31 33 34 38 35 32 31 31 29 36 50 35 30 37 38 36 39 41 26 29 26 29 30 28 31 38 26 34 29 32 38 35 22 34 22 34 33 29 32 27 46 34 29 30 31 33 39 33 28 31 33 29 35 35 35 26 27 31 36 23 41 44 37 27 40 24 29 28 30 34 41 33 40 36 30 38 29 38 24 30 34 37 37 40 38 36 32 40 32 29 35 40 34 40 33 31 34 28 29 31 42 44 33 38 40 35 34 36 36 33 39 36 25 29 26 38 40 37 33 34 31 28 42 30 30 32 25 32 40 40 36 36 25 34 39 37 23 38 35 34 32 37 30 28 30 29 39 32 45 22 31 23 40 34 53 24 30 28 39 36 27 48 39 25 37 33 31 43 34 31 29 30 34 36 39 34 35 40 27 26 42 44 43 34 43 38 27 31 36 29 31 32 23 24 31 32 36 29 35 39 42 31 39 28 34 29 47 40 40 32 29 38 29 24 30 26 43 31 40 27 34 36 35 40 31 28 34 29 39 34 38 33 26 36 27 43 31 38 28 34 32 32 30 33 31 32 34 30 31 29 41 42 41 37 28 34 34 30 35 33 35 25 28 36 38 30 41 36 42 32 39 28 37 32 34 30 39 37 35 33 32 24 31 28 29 25 38 29 26 28 32 30 29 30 23 36 37 38 25 32 47 40 29 32 31 46 23 37 34 28 32 39 32 41 33 43 41 37 35 41 42 32 41 33 40 36 43 34 36 38 33 44 30 32 39 27 27 24 32 37 30 39 33 38 28 33 42 37 36 35 28 29 36 25 28 31 33 30 41 27 36 30 35 30 38 36 39 26 44 33 34 29 43 26 24 32 31 41 32 46 38 45 23 28 38 34 28 31 45 32 37 46 41 34 36 43 33 36 31 30 31 25 33 34 41 30 38 23 38 38 44 32 41 31 35 27 36 36 38 30 31 34 29 38 55 34 45 29 34 29 35 35 36 32 40 35 43 25 26 41 29 40 37 32 39 40 28 39 26 25 41 36 28 34 28 35 35 29 35 37 34 33 38 41 29 37 26 37 38 43 32 34 31 41 38 27 32 27 33 26 35 39 30 32 34 37 26 24 43 38 33 34 27 40 28 38 37 36 28 25 31 37 35 29 40 42 37 34 38 34 30 29 26 32 31 26 30 29 35 33 38 29 27 33 34 36 32 36 28 39 38 27 30 43 42 35 40 38 40 38 40 33 37 32 28 29 40 29 32 33 37 33 24 35 37 40 31 25 40 40 33 32 34 31 32 43 28 42 34 28 35 32 29 23 17 32 26 33 32 34 24 37 35 37 37 32 44 41 32 24 40 32 23 34 33 33 28 31 36 37 41 34 35 34 33 34 24 30 35 33 32 34 39 33 44 37 26 35 33 35 30 28 23 29 36 35 49 37 39 29 28 40 45 36 30 36 35 38 36 31 33 32 33 36 35 37 37 34 37 31 21 38 40 31 38 31 33 31 43 42 40 37 29 29 39 36 42 34 34 34 25 53 28 26 28 30 32 32 28 44 27 27 28 28 30 29 34 37 31 32 30 28 33 37 35 35 25 32 30 29 32 32 41 34 33 33 32 36 30 31 24 37 35 37 36 29 37 34 23 26 36 40 28 42 32 40 32 36 35 23 42 31 35 39 34 39 34 32 36 23 41 36 30 44 40 42 34 41 36 30 34 31 41 32 29 47 33 29 35 22 48 36 38 29 21 34 38 34 29 33 25 37 34 29 35 26 29 23 34 39 36 27 32 32 30 24 30 37 30 39 38 30 27 26 37 37 27 30 22 49 31 36 37 34 34 37 34 33 33 42 35 24 30 40 28 34 29 27 31 31 31 37 44 40 32 43 39 32 30 35 28 44 32 15 33 41 25 35 30 26 37 36 44 38 25 33 32 39 31 30 32 30 36 38 45 27 38 25 30 34 31 27 29 40 34 33 31 37 38 29 27 30 40 20 35 36 38 39 32 38 31 48 26 28 27 28 40 31 31 35 49 44 41 43 28 29 34 31 34 27 29 39 23 37 27 29 28 37 38 33 26 38 27 33 38 30 27 31 26 36 33 29 38 31 40 22 37 34 34 37 31 32 30 27 29 33 33 48 33 39 40 28 29 30 36 34 40 30 35 32 29 41 36 38 36 35 34 31 32 35 38 35 29 35 35 40 39 44 34 32 44 33 32 34 25 29 36 29 37 42 31 23 26 39 29 28 39 33 40 35 22 43 34 40 34 38 37 33 32 27 46 30 29 31 36 39 32 37 31 33 31 24 34 30 44 33 39 36 30 44 39 32 37 28 36 37 42 34 34 32 29 36 33 29 38 40 33 28 43 33 36 27 32 40 39 31 34 26 32 33 34 46 30 27 33 33 32 48 35 38 37 34 49 37 29 39 47 40 28 42 31 33 39 39 29 38 31 27 25 38 42 41 32 32 37 29 29 38 31 34 32 26 33 33 34 33 31 30 39 27 34 25 30 45 30 32 40 26 36 38 35 28 23 22 40 40 34 35 37 38 38 31 26 40 41 48 35 18 35 47 35 36 31 39 31 33 33 41 33 37 39 43 31 30 38 29 44 45 30 30 33 30 25 47 44 31 37 36 34 40 35 30 35 30 24 41 36 38 30 42 27 27 29 27 33 38 31 35 31 24 34 24 33 42 48 36 43 33 36 38 50 33 33 37 29 33 32 32 39 35 35 37 29 48 27 35 34 25 33 27 30 49 35 32 24 40 38 35 40 34 35 32 35 32 36 33 35 30 42 40 26 27 36 35 28 37 27 38 35 32 28 38 34 34 31 39 27 36 37 28 27 37 37 52 27 19 31 35 35 36 27 32 27 30 31 30 36 30 29 30 38 32 30 38 38 35 33 30 36 44 44 36 41 28 34 29 35 32 40 44 36 37 48 27 37 37 30 34 32 35 21 35 36 49 35 41 45 31 34 32 44 47 31 31 36 35 32 43 43 37 28 22 32 30 32 31 32 31 39 25 38 44 26 40 23 30 31 32 30 33 26 29 32 31 35 28 36 34 30 40 27 39 47 35 38 42 28 40 27 35 32 37 34 30 27 31 36 36 29 37 29 45 38 35 36 33 30 30 33 31 33 41 23 35 39 36 31 33 37 28 28 31 26 37 27 37 33 29 33 42 33 33 27 26 20 34 30 33 35 40 36 37 34 26 41 29 36 31 27 35 44 41 33 50 28 31 27 34 52 34 45 36 30 40 36 41 40 38 29 30 37 39 30 30 37 38 33 37 33 50 30 37 34 36 41 28 21 35 32 26 23 26 21 37 32 36 34 43 39 40 40 37 35 30 41 26 28 37 32 30 30 30 30 37 33 37 36 38 33 39 35 31 35 39 39 36 27 38 42 33 31 39 32 28 34 28 28 38 41 35 20 30 36 40 24 31 40 31 37 22 31 33 26 25 29 29 21 36 39 29 39 22 35 38 23 25 42 34 37 38 43 40 44 46 32 29 40 32 42 31 27 43 41 37 35 29 38 26 29 34 38 28 35 27 33 32 23 35 39 35 35 35 28 39 27 36 37 29 33 28 45 25 34 31 26 33 37 30 38 38 21 26 35 33 25 36 32 34 41 31 27 45 35 34 30 39 40 36 37 23 39 37 24 31 32 27 30 32 35 31 37 34 31 34 31 39 34 32 42 35 27 25 44 39 33 39 41 46 31 33 29 23 42 36 30 39 29 33 32 35 34 30 22 20 27 31 33 31 30 41 34 28 37 26 40 35 33 37 41 33 32 32 21 31 30 27 39 31 44 33 28 34 37 32 35 36 31 31 34 30 26 33 30 32 36 34 39 44 39 26 36 35 30 37 37 31 32 32 40 35 27 37 40 35 34 48 29 36 28 23 40 27 34 37 38 35 30 39 40 30 27 24 39 33 39 41 37 27 39 35 42 41 38 28 33 28 35 32 45 33 30 40 34 37 36 44 33 28 34 30 40 33 40 35 30 46 30 36 31 36 38 33 29 36 36 33 28 31 43 26 36 38 25 32 37 42 36 29 28 28 33 29 30 28 32 28 41 27 42 37 40 32 29 36 41 37 29 35 37 26 26 39 36 22 34 35 33 45 35 33 28 33 40 35 40 31 41 28 38 32 46 38 41 30 23 35 34 40 25 34 26 41 37 29 37 36 38 28 31 32 38 38 35 48 32 47 27 37 33 36 30 29 39 26 32 41 42 32 41 27 25 30 36 42 33 37 42 46 37 32 36 45 39 32 25 29 28 35 30 35 34 39 35 39 39 33 39 36 40 28 40 33 32 34 31 34 33 35 40 36 49 41 30 28 38 32 32 39 26 38 47 38 38 29 36 27 30 35 41 36 26 31 31 50 33 27 31 39 34 29 36 30 34 31 29 34 33 31 28 38 30 41 27 38 33 35 35 19 28 36 40 25 31 33 42 32 30 43 36 42 36 38 41 32 38 46 32 29 42 29 28 35 36 25 41 31 28 31 27 47 32 28 33 44 31 32 44 34 40 33 32 31 46 29 36 39 32 45 33 31 37 34 37 34 34 30 32 30 34 31 25 31 31 29 42 29 36 33 38 32 42 35 41 34 26 33 39 38 39 44 30 30 29 36 41 39 32 27 26 34 37 33 35 26 32 39 25 38 43 33 27 33 43 34 41 33 38 25 31 36 35 29 31 37 27 33 37 37 38 27 47 43 39 32 25 31 33 36 37 32 27 34 35 33 33 40 39 36 39 30 32 35 32 24 41 35 22 39 29 29 37 45 32 24 35 32 38 33 33 31 33 28 27 34 32 33 36 36 42 33 34 32 43 39 33 27 30 29 28 38 39 30 32 26 33 38 30 29 23 34 31 36 39 34 33 41 40 29 28 26 24 27 27 36 30 28 28 34 30 31 32 46 35 33 32 31 35 31 25 30 30 38 43 41 25 26 36 26 34 32 27 28 38 27 32 41 30 37 42 32 46 34 37 30 45 30 38 40 32 29 34 31 31 26 31 34 47 33 24 33 28 35 36 40 34 32 41 30 28 34 32 35 33 41 31 31 28 29 28 29 32 41 38 28 35 37 39 46 33 28 29 39 32 33 33 38 35 35 33 36 47 46 34 47 40 32 28 30 36 32 33 31 30 34 32 28 35 29 43 26 36 42 46 37 43 34 36 34 30 45 48 31 35 30 43 30 28 34 47 40 37 25 45 30 26 34 36 34 39 34 37 33 28 29 30 29 37 31 30 30 36 24 27 32 35 28 37 36 30 24 38 38 35 29 39 32 46 30 37 41 39 33 50 31 44 42 38 28 41 25 47 24 30 30 30 43 27 43 30 30 42 32 31 34 36 39 30 38 33 40 36 28 37 48 37 34 31 38 38 31 24 33 40 28 39 33 37 35 29 32 32 33 47 31 32 41 37 36 38 29 45 39 38 48 32 37 32 42 33 37 32 22 36 32 31 26 32 43 39 29 21 37 33 19 37 37 36 27 35 35 38 36 29 34 37 35 31 31 36 43 32 33 23 35 41 37 41 32 39 36 25 34 31 43 31 30 33 34 35 42 39 32 23 36 34 26 48 32 37 27 38 31 31 31 31 34 28 37 34 30 34 32 27 34 27 36 33 35 41 43 45 20 38 32 34 32 27 39 39 45 28 37 34 35 29 36 32 43 29 27 34 28 33 27 36 34 23 33 33 33 34 27 35 29 30 36 27 42 47 30 43 27 29 30 37 27 38 31 28 38 45 33 36 39 30 34 33 34 37 42 26 38 37 44 27 38 30 28 33 33 32 36 54 37 41 38 37 30 39 47 36 45 30 33 30 28 27 35 30 36 38 27 37 29 35 34 36 25 33 27 28 23 31 33 36 35 27 30 34 40 39 26 38 26 45 36 26 38 35 33 33 36 36 30 38 33 35 41 29 35 33 31 21 29 35 28 30 26 37 28 32 31 32 32 33 26 30 31 30 34 40 39 30 21 48 43 29 34 32 41 23 30 35 36 30 27 43 30 23 28 34 42 28 25 36 31 38 26 27 34 28 40 40 38 37 30 36 40 32 34 39 47 37 29 35 37 35 39 45 30 41 38 25 43 53 35 33 35 32 24 40 32 41 27 38 30 37 33 32 26 38 26 29 43 33 27 39 32 29 28 32 35 34 34 38 27 34 34 33 38 39 37 43 31 30 36 24 30 34 42 34 37 29 39 29 32 33 43 27 37 41 56 32 38 45 38 39 36 44 33 33 33 36 41 37 34 46 34 47 28 32 49 35 39 32 30 33 29 32 33 36 29 34 34 33 29 30 41 30 25 38 32 33 34 30 32 39 40 26 29 31 35 37 26 27 31 45 28 28 31 42 31 29 30 30 39 39 41 46 38 27 35 35 29 30 34 32 35 28 31 38 34 32 26 35 30 35 42 26 40 29 31 35 34 33 30 34 37 37 32 31 27 61 32 27 30 38 30 36 34 36 22 30 29 31 30 27 39 30 31 30 30 39 32 30 34 38 34 28 36 31 38 34 36 42 27 28 32 36 44 28 32 39 34 32 45 31 38 30 41 42 38 36 39 25 27 31 36 24 32 32 41 41 26 37 29 38 38 40 33 40 33 27 28 39 39 40 27 39 35 35 30 29 24 36 25 34 31 42 36 36 37 23 35 32 32 39 37 36 38 26 40 35 42 31 39 22 36 35 37 35 31 25 40 30 36 36 30 34 43 34 33 38 33 33 29 23 33 34 33 37 31 36 30 35 28 33 36 31 37 39 31 32 36 36 39 25 37 40 35 34 40 39 34 31 46 36 34 36 33 31 30 22 26 25 30 36 29 36 26 29 30 34 43 31 31 45 20 34 42 31 34 24 32 38 33 21 29 32 33 38 31 28 52 33 34 34 36 24 31 35 32 29 37 39 39 31 34 37 38 26 29 33 24 28 36 42 37 29 37 40 33 41 39 35 30 30 34 37 45 33 44 40 41 39 34 35 37 36 39 36 30 42 29 37 33 31 37 34 38 29 45 31 24 32 31 36 29 39 27 41 31 37 36 32 42 34 32 27 38 32 33 28 34 40 36 41 32 32 32 30 42 41 47 38 26 34 40 40 42 40 28 35 33 26 32 32 37 37 34 33 36 30 35 25 28 30 22 36 33 41 36 34 42 34 33 38 36 36 37 36 29 28 36 26 34 29 33 34 25 27 38 34 38 25 24 31 24 33 25 33 38 38 29 35 36 31 37 34 27 34 34 38 40 34 41 32 40 34 31 35 27 34 26 34 35 32 41 38 26 29 48 37 35 25 32 34 34 31 43 31 40 31 44 32 33 30 28 36 29 25 28 30 31 32 37 44 35 46 32 31 41 42 26 31 39 37 28 22 37 29 37 40 46 35 34 25 36 36 32 40 40 41 35 27 36 43 32 27 34 23 32 34 38 35 35 34 27 36 52 33 40 34 30 40 27 32 32 31 33 37 27 30 37 28 30 33 29 38 31 30 37 30 35 25 33 22 31 36 47 40 33 29 32 36 40 42 36 45 31 37 33 29 34 26 41 40 34 37 42 37 34 32 42 29 36 37 29 41 36 28 34 33 25 35 32 35 32 35 25 24 23 34 38 36 25 24 33 41 40 32 37 24 35 41 27 35 33 36 34 33 38 37 37 37 31 40 34 53 35 31 25 42 23 39 34 38 32 47 26 29 32 39 39 36 35 27 20 35 35 46 41 42 25 36 28 21 33 36 26 29 32 39 41 35 28 33 33 33 34 30 40 40 45 50 39 41 38 29 33 34 27 39 25 42 33 34 34 34 44 28 39 27 35 42 33 33 25 42 30 36 38 26 49 30 26 35 31 31 27 38 34 36 47 30 38 34 41 39 37 24 21 36 32 34 37 40 41 30 34 39 27 24 28 32 37 32 28 35 39 27 33 38 35 43 48 34 34 32 44 34 36 34 42 35 41 32 45 37 34 41 36 39 31 41 36 34 32 21 43 28 32 47 37 37 23 27 28 37 36 32 38 25 29 41 44 25 39 27 32 39 39 34 30 35 40 34 44 41 26 29 38 29 35 37 32 32 35 30 32 24 26 38 28 36 44 35 45 36 34 34 38 39 31 26 33 28 38 39 39 33 42 39 36 28 33 24 36 29 46 35 36 40 34 41 34 45 44 31 31 33 41 31 32 38 34 26 39 34 43 37 27 41 40 29 29 37 40 34 28 34 43 42 42 43 32 22 37 35 27 37 27 25 22 41 36 31 43 48 34 33 34 40 37 36 33 33 39 38 32 31 27 27 38 27 37 36 41 20 20 31 29 29 29 34 29 34 23 33 40 39 36 41 39 41 37 37 33 48 33 33 36 29 34 33 33 30 27 33 26 32 37 32 36 18 51 45 24 42 28 28 34 30 38 30 44 28 32 36 32 33 32 37 34 35 40 39 34 32 31 32 35 40 29 36 21 28 33 30 32 40 32 28 38 21 30 30 20 37 41 36 25 35 35 38 37 30 35 34 33 40 31 38 40 30 35 23 32 37 26 32 30 34 30 27 37 23 30 44 32 22 44 39 32 30 39 37 28 35 33 31 31 34 41 44 52 29 31 49 33 35 32 33 33 29 32 40 31 46 32 38 44 38 36 24 31 32 27 24 38 38 28 29 30 30 37 26 26 30 36 35 31 35 25 29 31 44 34 45 43 36 36 37 33 37 37 38 35 25 35 39 29 37 27 26 35 43 34 40 36 37 39 31 37 35 34 30 38 39 46 48 30 27 28 30 33 43 43 36 33 33 36 34 37 36 35 32 38 40 41 29 39 30 38 27 37 34 28 29 39 24 45 25 35 26 32 29 41 45 36 36 32 34 26 26 44 39 33 27 40 32 29 28 34 35 25 33 28 36 38 42 33 35 29 32 35 26 42 40 27 33 38 31 35 32 34 30 34 25 38 34 31 38 34 32 34 29 31 26 35 42 39 38 34 36 33 37 37 34 38 36 40 41 28 34 33 35 38 35 32 36 34 28 39 29 45 35 25 34 28 43 32 30 32 38 28 32 28 34 30 27 32 24 39 35 36 31 34 35 43 37 40 38 44 35 33 34 27 40 40 40 40 39 45 44 31 37 39 33 31 28 31 41 43 43 34 33 40 33 35 38 33 33 32 32 33 38 35 32 31 26 33 42 34 26 35 32 37 32 37 29 39 28 36 40 40 25 42 36 37 30 31 30 31 31 37 34 33 27 29 26 44 32 33 27 31 31 40 32 27 24 32 46 29 31 35 26 36 29 34 34 28 31 41 40 35 34 30 35 39 33 40 30 28 27 26 38 27 27 29 36 31 34 40 38 31 39 41 28 30 23 34 38 37 43 33 32 33 39 41 33 35 36 37 30 41 34 43 33 28 37 39 33 37 36 31 36 29 36 26 34 37 35 31 31 28 44 33 34 31 34 29 33 33 30 43 35 39 35 33 49 36 25 36 42 39 47 29 33 24 33 33 34 32 27 32 34 31 44 37 31 36 46 36 37 33 19 36 34 30 42 37 44 28 36 34 34 39 40 39 39 39 26 34 37 42 48 36 36 33 31 43 32 31 34 37 34 36 44 30 27 36 42 25 32 27 32 37 34 26 36 50 33 31 33 36 37 41 36 35 39 39 28 33 35 28 43 40 30 31 31 32 45 35 39 37 33 27 42 35 36 37 34 26 38 32 28 46 32 40 45 45 32 34 40 40 39 39 25 36 28 24 34 45 27 36 28 39 35 39 38 34 41 34 43 31 43 33 31 28 36 46 31 31 30 36 34 30 39 24 29 26 36 32 26 42 31 34 36 34 43 39 27 29 36 20 28 34 30 33 41 38 44 44 40 32 38 37 29 36 24 32 27 25 43 33 40 32 31 30 31 37 48 46 31 35 40 31 31 28 30 34 24 36 23 28 36 35 32 40 28 26 43 26 34 32 33 39 27 34 32 41 22 54 26 42 32 35 30 41 35 41 35 44 30 37 37 29 30 38 32 33 26 26 32 27 28 41 27 43 34 33 38 36 29 41 34 40 36 33 32 40 40 38 31 24 30 35 32 37 38 35 46 35 28 31 34 27 33 40 25 39 36 34 33 32 41 30 46 29 42 29 33 41 40 35 39 28 35 44 33 32 36 35 42 32 41 43 46 37 35 47 32 35 38 33 39 28 38 29 32 29 35 28 42 34 34 37 30 25 45 43 34 30 44 28 32 21 35 33 43 27 33 51 33 41 31 33 33 29 38 42 43 32 36 31 31 34 42 38 32 38 38 36 28 27 39 21 37 42 30 33 34 34 33 33 31 35 29 35 32 23 20 37 38 33 32 40 34 37 26 33 31 34 27 38 36 40 34 31 34 26 40 33 22 30 32 29 30 32 40 33 26 34 37 30 31 39 35 45 46 29 38 29 29 41 32 28 34 32 39 29 32 37 34 32 47 37 29 39 40 35 32 44 23 33 32 36 37 35 34 33 27 38 42 34 36 30 43 29 35 44 30 36 27 35 33 33 39 40 30 30 33 30 29 35 30 35 40 30 30 43 41 30 43 35 32 29 32 39 39 38 39 42 32 30 31 34 27 39 33 35 49 32 44 28 30 31 32 40 32 22 33 31 39 35 29 47 26 37 29 38 46 32 46 40 38 27 32 34 29 30 38 33 27 33 28 32 35 33 30 43 30 30 29 36 31 36 39 38 32 36 47 44 35 32 27 31 41 43 42 27 32 37 38 37 38 31 35 36 32 30 43 35 28 36 39 31 40 33 29 30 34 34 25 27 31 37 30 25 38 35 42 39 26 37 35 30 34 42 28 33 31 31 31 30 32 51 35 35 35 33 36 47 38 36 38 39 39 36 41 41 33 32 42 34 29 29 34 35 35 34 28 31 27 35 38 45 38 27 35 33 26 30 34 31 38 23 35 32 35 40 35 31 37 45 50 30 32 31 31 34 35 20 36 30 36 37 32 30 31 34 33 33 33 45 22 40 39 23 42 44 32 25 29 33 32 42 26 33 53 34 30 31 39 33 36 30 47 34 40 36 32 30 41 43 33 33 37 28 38 31 40 33 32 32 36 30 37 30 25 31 43 44 28 31 35 26 33 22 22 32 31 37 26 31 33 32 36 32 26 30 31 40 35 41 37 32 39 32 30 48 34 29 41 32 37 29 40 36 35 39 36 30 24 28 40 27 29 36 33 38 31 36 30 34 31 39 38 39 23 30 39 25 27 25 33 40 33 27 34 33 30 39 31 38 34 33 34 33 30 35 36 36 36 31 43 36 29 34 39 28 37 30 35 36 34 46 33 47 24 33 37 36 28 36 34 25 32 31 35 37 42 35 44 40 42 35 40 28 24 30 32 34 32 32 33 32 41 24 30 34 30 32 27 32 32 38 38 47 37 36 43 30 36 32 26 36 37 48 36 29 30 41 35 35 36 40 38 43 39 28 30 34 29 33 29 31 34 33 27 38 30 29 29 32 38 33 30 32 25 36 33 38 48 31 36 42 46 37 39 37 34 38 39 33 44 36 30 40 38 39 30 35 37 44 36 42 42 30 23 39 29 31 28 41 43 26 35 42 33 43 32 37 33 22 34 27 46 29 36 31 22 42 27 32 25 31 36 44 33 28 36 33 26 44 42 27 32 31 31 36 38 37 29 41 41 33 41 35 38 29 41 31 30 27 29 39 31 44 29 37 36 27 24 37 38 32 61 37 43 34 36 44 31 32 35 20 32 34 36 26 34 33 36 39 25 33 38 35 43 30 45 27 31 45 37 31 18 44 35 37 44 32 26 35 31 33 39 33 42 32 30 30 36 33 32 35 38 34 23 41 44 38 34 28 30 45 32 39 38 39 43 28 49 30 36 31 26 33 27 37 36 28 34 38 37 37 40 32 29 42 45 26 34 36 33 33 38 36 24 36 32 25 28 30 36 28 30 33 30 40 29 44 43 30 31 31 42 36 44 32 33 47 31 38 36 27 38 34 32 38 29 37 32 40 35 38 40 25 37 30 33 29 29 27 35 37 31 42 30 36 40 35 37 40 38 31 38 31 42 30 28 33 30 30 40 40 28 16 39 37 40 28 34 27 33 29 36 32 41 28 27 30 40 36 44 37 30 35 38 41 36 36 27 32 32 28 36 32 34 35 36 30 38 45 28 39 33 36 32 34 46 32 24 30 25 35 39 34 36 28 25 31 41 35 25 33 23 34 38 32 37 28 32 42 33 36 32 24 38 27 31 33 39 34 37 37 33 29 28 41 39 26 30 34 31 29 40 39 30 27 25 36 42 33 32 29 22 38 34 26 39 38 34 36 40 29 35 30 37 38 39 24 36 26 36 39 34 34 41 32 34 36 37 26 46 37 47 39 41 33 25 34 38 27 33 39 29 24 30 31 28 33 31 41 39 30 36 30 24 32 33 37 23 30 35 33 44 39 33 36 29 38 34 39 33 46 30 33 30 41 40 32 36 42 31 36 34 37 26 32 41 35 33 31 24 34 44 34 27 30 37 39 33 35 34 40 34 35 29 31 40 31 43 34 40 50 33 29 34 29 32 35 25 27 42 28 32 31 32 40 31 37 27 42 39 28 29 34 31 40 34 38 36 37 36 37 27 43 33 39 32 47 30 40 28 31 32 27 32 31 30 27 28 25 34 41 42 44 35 34 25 30 26 39 26 30 33 42 27 39 35 31 29 32 31 31 29 35 37 31 29 44 23 28 29 42 48 36 42 24 31 32 40 37 35 40 27 35 30 28 31 35 29 24 39 39 28 38 41 26 27 30 41 41 30 38 26 41 33 32 32 23 33 30 36 34 44 31 42 31 47 34 30 44 32 41 37 29 29 32 36 39 41 44 34 44 36 35 27 32 39 33 40 40 33 22 38 45 41 30 31 27 38 35 33 26 34 27 52 25 31 38 38 37 32 40 25 28 37 39 35 30 39 43 33 24 37 23 36 33 32 32 40 32 33 29 35 26 33 34 32 33 33 35 44 35 36 37 30 28 38 36 28 30 38 28 31 36 33 32 26 36 43 37 35 36 29 32 27 30 41 37 34 35 30 27 32 34 46 32 33 24 38 31 40 32 30 41 36 27 30 36 34 41 37 31 29 43 35 32 30 27 38 35 29 36 33 29 32 45 43 27 45 34 42 33 29 39 33 29 27 29 26 35 31 26 26 33 30 34 32 33 31 32 34 31 43 28 34 32 37 30 46 31 48 36 40 28 32 38 31 42 25 31 32 45 39 28 30 34 29 34 29 42 27 30 39 29 32 20 33 36 31 32 32 38 33 23 32 38 33 23 32 32 37 26 34 22 25 33 34 48 30 36 34 28 32 29 30 36 39 35 32 39 39 32 31 24 33 31 35 30 38 35 28 39 33 36 34 29 36 26 36 31 36 34 32 38 27 46 45 29 42 39 32 29 44 34 26 41 44 38 22 24 49 29 30 32 38 35 37 45 35 46 49 31 44 39 48 45 42 29 27 37 36 38 32 29 30 35 28 31 32 31 34 30 33 34 25 40 39 27 36 30 39 35</t>
-  </si>
-  <si>
-    <t>EXN(0.3783268254061918, 240.14700029529604, 46.860038166869636)</t>
-  </si>
-  <si>
-    <t>246 187 253 190 254 371 262 109 317 307 316 280 273 265 294 179 230 302 214 266 293 245 212 213 282 291 312 280 255 215 219 214 258 168 242 202 215 321 190 275 279 266 290 271 185 231 258 308 313 286 257 302 307 249 312 173 331 176 268 215 228 210 307 241 218 188 285 230 202 240 248 266 147 295 262 241 238 274 186 209 332 206 220 259 143 298 287 301 214 251 335 360 298 338 238 260 350 223 285 255 230 270 182 225 203 275 191 233 303 246 185 323 250 238 317 164 358 239 221 290 268 250 338 160 155 295 230 257 214 304 246 236 314 308 281 232 241 296 220 280 257 244 308 228 216 274 313 258 195 249 240 302 222 345 245 296 272 291 243 262 355 253 317 224 327 240 320 212 248 297 248 158 215 267 285 267 371 236 260 359 306 372 227 214 256 259 228 242 268 297 229 214 244 232 252 169 237 232 323 187 201 294 394 155 215 256 303 261 326 238 216 228 286 253 244 259 297 236 269 379 267 304 238 140 270 282 255 219 337 196 299 239 218 337 290 166 197 223 331 247 283 279 243 177 205 257 295 208 251 262 207 229 358 269 247 179 260 277 197 225 286 294 298 199 223 325 211 327 317 268 277 270 311 355 169 341 364 264 184 262 327 199 279 271 238 222 209 173 326 283 311 352 307 262 354 299 180 216 245 187 206 331 247 294 191 212 270 317 245 328 212 311 217 206 300 252 332 228 267 136 247 250 246 244 190 259 359 183 302 253 301 193 242 313 276 180 265 271 182 256 238 215 299 260 215 295 287 287 242 294 236 294 334 262 230 320 243 281 299 293 363 318 267 269 323 226 306 202 212 204 234 330 299 232 260 260 303 214 417 272 270 266 227 295 262 306 251 217 264 249 269 297 237 228 321 261 280 255 297 314 321 244 263 288 349 153 287 258 333 245 282 205 198 302 342 335 204 214 223 230 206 259 289 312 268 289 308 227 298 231 208 194 283 185 230 232 255 198 231 253 254 268 218 288 262 274 322 282 187 240 282 262 320 246 169 310 365 219 226 270 304 346 314 224 185 235 258 371 228 197 217 223 289 236 255 133 248 339 274 270 227 276 254 253 242 197 277 256 200 302 298 243 221 296 355 190 260 165 274 190 270 252 299 253 278 340 284 291 253 248 260 291 336 220 219 189 279 213 250 186 228 198 266 210 230 238 260 340 283 214 266 220 165 288 241 319 365 293 258 242 260 249 215 285 289 228 306 242 205 224 287 254 247 230 283 225 308 207 311 262 319 183 197 260 189 252 139 250 307 255 217 234 317 348 290 250 336 174 278 256 233 315 250 269 200 276 281 261 347 301 249 206 267 248 281 229 251 217 251 140 275 231 122 230 273 312 322 264 335 261 286 201 251 300 282 251 243 328 154 365 257 257 273 223 301 273 243 333 262 266 151 325 164 281 202 213 268 253 259 316 185 197 335 201 238 302 284 237 297 322 248 285 248 190 253 271 310 238 212 238 275 348 288 301 245 263 211 318 273 230 212 212 273 283 275 340 361 289 276 254 168 239 290 263 214 254 302 307 293 235 300 230 266 302 270 310 206 230 286 257 254 187 200 283 234 192 266 219 219 265 228 297 255 329 281 262 261 315 206 405 202 365 260 301 227 195 315 245 246 253 253 264 303 202 250 274 250 222 217 312 212 310 239 255 236 182 330 267 277 205 292 267 252 188 226 182 300 310 360 299 307 246 293 258 289 337 313 131 197 288 266 257 200 289 286 308 295 250 220 195 263 266 273 313 229 228 305 316 250 203 277 191 219 134 238 242 155 246 181 261 266 272 285 264 271 265 171 171 242 309 306 284 252 342 299 248 239 284 268 237 313 212 226 230 240 314 272 220 292 139 417 368 239 237 242 287 179 354 386 270 354 274 375 186 232 225 264 241 274 258 270 205 207 272 166 242 242 264 270 297 287 212 281 254 227 281 332 147 361 254 236 275 183 329 246 228 272 318 231 284 218 349 273 287 203 181 329 346 259 235 182 235 284 148 206 257 238 240 318 344 249 307 173 321 248 160 272 255 188 173 347 278 268 233 390 202 241 236 284 256 260 288 266 251 245 270 347 197 298 320 296 203 361 280 344 279 355 273 256 291 313 232 247 195 193 240 260 237 287 229 153 395 154 183 243 227 224 320 283 245 286 218 227 258 248 269 278 209 332 306 298 232 233 308 235 206 215 251 282 236 261 230 254 306 308 252 219 218 308 306 228 270 283 289 211 289 123 151 190 327 176 155 205 162 221 264 225 155 267 292 304 252 218 251 281 222 272 238 241 236 225 298 297 227 262 192 336 324 224 264 308 231 305 157 271 285 276 203 215 266 280 264 226 359 241 269 230 260 271 184 224 305 161 282 301 240 227 285 265 251 249 236 372 212 305 256 232 258 240 243 273 191 269 265 290 285 234 214 350 236 210 276 273 228 221 203 152 228 261 279 249 244 217 220 206 216 270 294 278 308 200 200 237 249 410 162 195 270 307 235 318 219 242 223 278 244 141 229 272 194 252 270 317 243 180 224 214 262 232 184 287 289 206 221 180 269 291 196 246 243 215 157 138 217 289 233 280 220 312 253 240 250 317 254 161 267 244 208 243 256 239 246 250 233 236 178 242 236 254 307 269 307 184 128 244 280 244 208 150 186 312 217 244 309 308 202 226 305 268 289 260 243 332 381 250 260 245 217 293 326 187 292 265 287 323 293 205 259 285 219 227 278 296 292 264 265 268 250 258 225 247 253 258 263 212 251 219 223 284 239 353 287 215 352 198 333 326 263 191 285 301 298 236 258 261 260 229 246 219 218 301 242 297 250 245 235 283 260 227 258 304 162 304 171 242 307 329 290 366 260 273 299 279 308 258 298 232 264 254 413 361 320 273 260 177 365 318 243 294 215 228 220 208 179 333 258 271 276 304 281 352 256 272 303 346 254 279 202 321 262 266 252 270 247 310 191 266 256 235 296 208 247 264 313 342 252 259 193 247 232 247 313 305 262 274 197 280 358 223 253 231 313 250 311 188 250 329 221 227 247 285 267 258 301 219 177 267 201 247 337 326 190 304 357 175 265 235 243 274 279 203 259 215 294 235 281 322 276 274 258 219 290 188 235 316 307 215 209 273 333 351 285 242 262 350 236 274 270 217 280 218 321 280 286 170 186 307 284 255 200 154 311 269 203 187 230 154 236 256 265 314 227 350 187 246 218 203 186 304 303 202 195 249 222 194 279 221 348 341 295 226 270 269 241 275 217 325 215 229 303 217 286 203 242 285 253 260 276 244 171 334 255 284 300 171 172 219 293 264 351 278 324 171 142 261 230 252 200 188 234 245 267 231 255 241 211 199 190 307 224 253 269 304 362 243 329 264 269 227 190 236 304 181 209 267 268 289 384 260 295 214 333 233 245 208 286 341 212 215 211 212 277 251 285 231 185 303 239 254 309 300 206 227 241 329 301 282 282 294 168 288 312 318 271 371 279 301 210 356 226 273 207 189 214 244 264 332 287 298 271 119 176 186 303 213 367 255 237 296 229 318 336 273 288 143 191 110 258 246 359 218 242 197 213 202 277 202 250 300 306 212 200 279 201 304 218 285 169 274 236 274 272 215 246 146 200 280 219 257 267 308 340 265 141 218 209 317 304 285 227 275 288 364 272 225 205 179 242 250 213 277 260 192 328 344 246 230 218 215 191 228 233 191 240 222 194 278 239 178 256 174 341 209 272 312 290 179 280 218 228 301 278 250 298 262 233 325 211 195 245 253 260 274 328 265 305 221 231 263 307 220 256 272 229 308 193 295 213 269 293 295 255 201 212 278 151 240 148 242 230 274 260 257 353 261 231 318 206 313 223 320 272 256 249 196 271 218 273 271 244 275 257 286 290 310 246 286 236 212 215 263 300 273 275 201 239 227 150 257 309 301 295 302 262 360 264 292 200 270 216 265 235 248 262 245 274 189 278 280 357 280 260 239 305 225 293 305 265 297 181 303 324 211 265 275 344 258 399 362 279 280 233 300 332 264 296 231 231 233 242 270 186 344 314 287 301 179 380 211 207 271 289 223 297 368 227 190 199 261 283 304 149 186 243 263 254 270 185 257 207 216 217 246 310 311 297 268 304 294 325 244 316 314 287 330 281 284 311 253 323 201 320 261 241 321 344 236 154 255 348 177 274 294 212 184 242 217 262 320 255 426 387 275 298 216 270 302 175 257 236 228 281 265 255 257 322 287 278 411 239 194 278 362 291 229 330 258 253 238 252 244 216 197 232 172 245 171 271 237 218 247 241 294 271 269 365 293 217 253 226 316 203 286 272 214 272 266 281 288 235 194 129 273 245 285 317 243 222 326 190 235 265 311 185 256 314 184 308 241 135 239 274 296 325 239 304 303 301 288 257 325 423 280 190 227 296 237 241 347 261 229 369 208 284 263 275 321 220 265 268 316 329 244 307 300 216 276 249 255 219 395 198 248 181 271 268 286 279 258 272 295 225 284 296 325 276 260 320 286 369 299 272 246 209 302 224 279 337 266 307 192 292 239 221 198 316 276 356 342 288 241 237 248 261 314 248 282 285 298 273 187 214 193 230 300 191 204 180 264 244 313 244 304 252 198 181 293 323 357 332 270 291 224 304 332 323 215 247 279 238 231 247 304 265 138 245 333 226 304 348 298 252 223 232 249 230 346 246 251 166 335 260 338 227 265 250 209 212 243 219 277 258 210 314 198 273 259 306 319 283 299 259 304 164 342 263 163 232 258 260 273 225 309 292 243 267 294 301 326 198 288 269 274 254 274 234 270 180 268 296 315 317 256 138 245 192 228 221 344 277 293 218 240 232 280 226 250 247 213 322 280 245 263 188 161 337 148 222 234 255 273 219 222 314 221 324 176 328 267 285 284 192 213 295 264 239 292 241 193 267 329 240 236 312 280 257 326 326 228 327 190 337 345 241 203 235 233 205 265 177 319 322 190 264 261 285 229 154 223 281 354 230 238 253 247 282 234 249 225 216 298 211 356 190 216 294 253 210 299 171 238 307 310 298 237 174 361 202 226 293 121 310 180 318 328 235 300 318 221 227 358 296 282 302 284 293 231 217 329 292 247 256 349 374 259 248 291 245 320 280 262 287 263 271 244 215 216 211 332 275 287 192 340 264 377 301 203 254 141 237 234 229 241 261 204 272 227 218 255 260 273 248 139 182 313 247 230 232 245 250 195 206 310 259 250 186 318 313 224 164 257 262 339 247 241 169 267 254 207 283 316 258 225 263 274 230 348 250 206 284 157 288 286 210 209 276 318 255 239 262 355 286 153 171 246 175 305 335 278 375 250 219 320 240 333 336 248 323 266 234 198 163 171 273 313 320 267 248 371 180 318 238 179 294 249 257 277 130 383 357 286 194 260 276 293 247 237 336 270 237 194 312 275 268 270 260 178 310 199 282 200 336 279 249 234 311 236 231 248 385 318 256 226 281 275 278 270 235 241 254 264 331 244 330 253 309 181 226 294 309 237 335 339 293 284 271 221 237 196 290 262 166 277 216 348 286 247 231 269 283 236 183 221 262 360 262 193 202 314 237 165 307 373 282 221 264 233 298 269 174 237 247 262 323 331 247 229 319 201 225 296 282 247 253 238 238 323 230 298 322 234 294 190 254 248 233 280 281 231 204 211 315 286 290 291 191 336 291 270 280 277 257 304 229 172 290 278 259 225 271 199 226 285 240 207 337 329 311 198 274 204 287 194 265 301 230 258 252 260 296 249 253 354 259 250 284 179 234 393 247 164 260 213 169 335 313 235 236 237 162 256 286 250 257 248 256 179 241 288 239 329 258 217 279 249 217 265 281 258 273 266 203 294 190 210 287 223 215 228 267 352 269 272 276 333 212 321 379 150 394 337 234 322 262 263 299 330 200 215 275 255 153 140 217 276 240 315 290 173 252 227 258 312 258 192 334 258 305 351 304 263 256 212 220 307 324 298 203 239 300 278 297 239 204 137 326 349 260 258 255 303 204 283 236 192 262 312 148 220 213 300 253 289 221 302 234 193 225 311 265 280 222 286 215 221 170 269 215 350 254 338 228 219 292 262 212 168 267 251 299 245 321 235 196 289 153 218 390 223 222 243 202 284 220 245 252 262 333 239 255 198 314 295 259 238 342 192 246 322 286 267 158 247 268 241 203 294 312 262 197 286 214 244 220 190 210 287 242 246 196 344 252 199 297 209 167 232 208 245 208 147 258 222 291 261 272 193 252 248 291 350 331 186 226 247 198 243 296 263 322 262 386 220 395 311 171 259 226 292 276 308 176 350 253 250 231 171 299 297 218 170 176 258 306 204 337 265 251 255 224 242 265 310 233 216 256 265 282 329 205 298 226 361 218 309 289 325 318 393 292 247 279 278 221 310 212 260 219 256 250 247 324 223 241 307 274 353 275 306 255 182 216 235 265 262 243 253 239 232 233 321 360 230 244 263 276 203 262 373 227 313 235 271 285 167 160 216 327 296 218 264 318 301 225 238 206 364 212 276 327 170 185 151 279 249 297 245 256 229 283 237 222 241 253 288 146 256 300 345 194 276 227 296 321 288 133 285 262 288 161 198 221 273 303 262 247 323 242 303 213 192 202 242 357 266 285 306 236 237 302 185 186 236 279 258 271 215 247 196 340 270 306 285 219 223 276 234 275 277 217 279 232 211 268 259 291 297 245 291 228 261 296 293 284 224 278 216 222 364 255 234 272 239 176 209 239 242 323 279 252 240 206 249 251 297 255 315 288 250 243 266 287 221 352 231 232 238 258 229 303 286 222 232 392 207 246 251 318 267 283 356 254 242 281 309 217 256 354 155 275 242 246 222 201 237 294 280 258 333 264 339 276 242 366 280 314 273 206 207 233 282 282 220 373 219 209 306 426 205 239 185 252 213 203 224 329 261 380 195 187 253 270 231 237 269 189 227 325 292 309 232 186 261 185 282 235 257 221 315 219 221 178 245 326 210 258 280 245 213 220 302 199 343 160 289 238 200 230 279 311 314 209 217 200 231 334 359 232 265 276 349 281 294 156 200 201 259 218 276 191 179 293 251 296 269 243 281 305 264 208 199 210 307 261 260 223 206 251 226 300 247 296 316 197 248 241 251 216 144 360 255 253 267 251 273 222 250 147 125 241 286 216 243 242 267 227 218 318 273 278 296 297 222 377 221 267 283 195 258 253 244 324 173 248 287 216 322 269 219 276 289 224 290 251 260 341 216 215 274 332 365 373 317 245 250 184 287 273 260 288 213 309 166 262 318 253 179 192 211 313 329 229 220 258 259 323 212 272 329 328 241 246 213 310 280 249 245 292 252 239 327 268 242 246 174 274 163 258 305 288 370 203 187 227 173 288 223 317 270 244 205 275 297 224 245 232 223 198 315 259 259 259 284 226 214 272 283 264 244 253 222 322 220 314 237 257 244 315 248 221 305 292 275 222 294 272 231 279 262 212 214 346 249 285 218 287 218 200 148 270 343 377 263 239 285 286 280 192 171 260 274 225 215 261 249 303 264 274 258 262 260 264 327 239 333 154 228 207 221 326 276 251 254 243 354 237 236 241 230 309 261 191 157 333 189 243 223 208 312 298 264 289 179 279 243 224 202 286 187 166 284 234 197 273 250 236 221 294 268 293 276 291 281 215 193 160 257 267 277 195 255 203 252 221 234 163 300 258 406 290 260 197 251 188 233 181 231 236 239 263 317 231 232 149 231 233 215 204 182 217 168 269 183 232 247 207 176 281 269 311 260 263 311 229 319 226 287 300 285 200 351 275 189 291 221 234 249 221 272 357 295 167 231 303 173 112 296 234 158 240 247 301 171 235 225 191 274 301 174 382 223 195 245 260 293 258 256 232 275 231 191 269 287 218 191 220 143 192 254 250 281 234 259 212 223 267 347 182 269 277 247 233 223 305 286 213 274 236 289 158 291 342 257 282 188 324 206 294 275 173 389 176 296 306 232 291 245 311 233 302 248 223 296 262 227 249 311 180 248 178 237 313 278 286 293 238 192 244 206 254 300 293 262 270 269 277 242 237 291 226 288 324 273 331 262 310 234 264 246 315 245 220 314 293 355 229 232 212 314 278 344 283 239 266 264 292 166 243 242 255 172 270 266 222 324 210 349 230 284 288 239 243 283 245 330 252 348 287 219 198 241 302 283 197 298 353 188 178 239 334 284 132 326 273 237 251 249 222 298 247 264 272 291 347 184 174 275 212 221 259 270 249 284 266 292 294 236 239 209 206 238 285 207 278 312 240 311 337 225 236 203 241 270 305 288 254 342 220 322 208 225 316 313 272 303 235 324 254 221 292 268 346 259 309 207 244 193 317 357 257 286 370 290 286 212 338 172 318 254 188 284 288 189 251 171 250 188 275 277 221 257 233 267 238 321 303 276 239 244 169 109 263 274 326 326 218 288 373 176 225 258 216 274 224 231 232 259 156 213 219 265 225 330 246 187 252 354 236 269 176 314 376 256 188 330 276 265 275 297 206 301 295 258 442 193 225 239 317 291 254 203 237 308 292 293 272 229 242 320 248 284 237 325 251 254 277 264 304 264 278 312 177 368 285 199 193 199 286 208 252 211 243 233 181 203 236 231 253 309 274 267 282 161 187 191 227 276 331 426 228 271 263 296 228 220 251 201 359 321 212 231 253 312 240 252 270 347 274 312 304 235 206 192 267 359 189 276 265 255 331 279 302 173 206 239 286 318 328 348 266 165 291 190 291 271 231 318 268 188 219 263 274 264 213 247 180 259 197 253 331 251 205 220 291 246 238 256 249 291 258 303 239 252 258 206 274 399 344 391 194 304 221 263 232 309 285 275 262 215 342 228 328 202 305 205 298 279 249 244 255 265 242 255 334 231 303 249 351 227 224 257 269 201 293 266 291 311 314 239 297 344 132 245 318 288 156 228 213 174 215 314 296 242 283 249 319 193 205 250 241 294 310 326 245 239 203 201 282 273 246 275 264 262 256 316 216 311 265 366 165 213 259 211 201 196 227 227 265 213 247 256 244 279 265 250 248 315 290 193 204 369 158 213 183 254 316 293 228 240 266 265 214 356 198 222 251 326 235 310 274 208 299 237 204 293 201 223 235 194 325 250 273 275 192 192 188 170 288 266 196 216 267 332 266 232 197 231 245 290 239 190 231 239 218 227 294 262 213 177 228 234 98 331 293 225 213 332 136 241 238 247 226 312 256 270 296 270 264 189 267 160 208 233 214 263 284 293 253 264 334 242 245 225 322 265 234 250 268 236 184 219 260 356 272 236 327 316 242 246 257 212 267 308 313 169 265 215 274 294 251 264 252 253 225 288 215 262 250 215 271 260 249 187 290 234 280 270 262 190 245 300 221 299 304 261 211 243 281 334 265 323 237 284 158 326 282 377 208 186 245 312 264 202 406 240 208 216 233 254 362 203 262 189 224 294 352 284 198 243 381 255 227 298 263 252 257 261 287 197 222 320 276 267 197 151 174 215 248 307 208 246 243 232 199 257 211 223 259 369 282 345 285 235 281 169 182 195 170 287 239 283 183 267 245 220 266 269 257 255 183 284 298 262 274 232 202 262 251 279 260 190 225 257 250 187 277 206 188 285 224 289 245 253 252 377 238 308 227 200 307 262 168 229 186 199 254 251 283 229 291 331 230 318 199 268 228 209 241 325 220 287 227 230 179 284 238 146 206 257 238 320 208 260 292 223 249 199 204 258 298 152 269 268 295 182 262 281 353 181 217 255 190 297 293 217 330 277 303 305 219 267 289 325 219 234 257 315 268 327 234 255 216 327 366 198 209 272 188 172 215 273 258 291 331 287 283 202 255 343 218 315 237 150 214 293 239 237 233 248 236 287 197 285 195 289 273 303 230 270 166 343 247 263 180 311 240 180 292 250 325 272 357 300 343 143 172 262 319 219 195 382 231 239 339 347 201 280 289 214 261 199 183 260 173 266 267 290 219 279 157 249 210 323 234 290 233 273 231 275 265 339 245 220 254 247 318 368 282 324 253 293 184 295 310 316 315 263 303 182 243 225 313 184 291 269 261 307 252 237 267 287 210 212 260 226 214 209 278 201 245 279 249 270 204 255 292 209 272 243 222 277 292 228 285 194 343 270 200 255 266 245 249 262 301 216 219 309 285 199 191 321 293 313 257 242 330 244 297 289 269 153 217 300 238 259 187 260 311 339 260 315 194 228 188 215 242 242 131 217 205 274 280 267 211 177 289 271 289 237 270 272 240 311 171 266 351 347 300 244 355 341 362 301 283 341 231 238 235 266 265 284 275 270 257 169 234 215 261 228 120 388 293 291 200 268 276 261 260 151 346 277 193 280 287 199 214 166 178 191 249 288 232 159 297 303 327 250 233 321 289 288 198 309 253 226 209 271 304 179 193 260 278 289 253 276 324 186 267 226 162 227 218 242 250 296 200 290 315 229 325 276 295 214 208 187 236 312 268 250 229 301 239 227 321 357 323 231 261 216 371 264 217 250 255 246 239 293 267 293 237 184 189 201 344 309 159 251 234 302 184 272 347 291 297 217 271 324 275 247 244 333 254 194 282 170 221 195 211 326 243 212 290 168 194 224 221 235 235 250 283 260 324 242 154 226 247 179 257 159 208 188 234 272 183 278 247 289 281 257 293 218 198 205 344 294 309 278 274 344 263 121 242 254 353 213 374 249 248 218 355 213 221 388 284 305 282 247 276 286 258 314 170 330 266 186 255 318 331 230 270 260 233 280 234 313 258 217 339 255 218 287 212 296 254 311 213 197 235 179 247 210 202 228 274 222 227 267 212 176 176 292 364 274 204 240 243 259 195 205 277 249 292 367 210 152 154 299 285 181 226 116 397 230 329 312 235 293 331 241 256 279 387 222 198 247 341 287 195 208 180 195 238 276 216 376 272 228 304 282 208 248 321 236 235 281 87 205 305 182 225 238 174 270 298 319 311 179 367 191 261 238 232 265 236 244 334 304 186 295 237 221 243 252 216 220 289 256 337 206 298 245 231 209 237 300 147 228 200 345 286 206 287 249 298 140 205 219 250 324 213 197 219 418 298 243 294 240 195 275 255 273 171 204 229 200 214 193 246 201 231 225 308 254 254 227 227 238 186 286 213 192 328 216 179 277 269 323 203 272 276 183 301 234 232 224 153 200 201 264 292 256 317 354 202 156 219 308 275 254 251 263 262 280 293 303 258 296 288 240 202 241 264 261 252 216 269 200 249 300 300 265 214 322 238 243 262 195 196 246 246 260 372 246 246 246 257 226 266 298 290 256 247 122 271 295 359 284 270 252 274 286 230 326 235 266 249 247 357 191 236 234 277 221 164 233 265 295 246 294 327 214 249 304 214 274 225 257 302 327 261 293 259 313 257 244 207 249 294 289 201 299 263 260 161 249 319 165 294 197 188 235 295 263 357 229 175 263 190 271 354 278 265 332 241 355 340 263 199 371 242 154 274 219 283 272 305 250 298 234 238 226 316 437 320 253 167 275 234 266 264 208 220 315 182 265 225 206 231 203 212 286 196 275 209 280 298 268 217 230 179 264 225 249 250 170 157 256 349 282 239 342 299 298 319 232 309 270 305 310 144 292 304 271 277 232 293 223 225 251 310 240 228 303 326 195 260 238 269 322 347 292 246 255 227 211 339 307 213 289 219 234 278 300 223 212 240 153 312 297 307 195 292 206 207 184 190 344 246 273 257 325 160 211 223 273 328 277 295 265 229 297 297 321 210 296 284 268 265 229 215 255 239 325 270 212 354 111 242 290 238 283 231 203 351 237 258 142 284 305 191 337 266 259 272 231 279 255 242 255 213 287 311 195 171 251 314 130 296 138 285 309 275 259 235 288 231 238 294 197 268 348 239 166 275 219 319 181 173 259 297 261 327 191 275 223 193 228 202 253 256 217 244 303 243 237 245 270 353 270 220 266 388 295 280 350 239 197 183 250 233 316 275 259 297 304 191 233 331 254 270 246 249 186 265 271 382 265 296 293 191 220 214 330 334 300 234 306 157 293 281 278 196 217 181 299 235 316 253 238 240 333 201 218 302 162 299 157 284 209 219 223 202 192 264 216 267 267 288 305 253 286 269 214 286 341 333 258 299 153 274 244 266 221 257 312 198 106 173 261 285 266 305 189 272 281 217 294 232 272 187 199 233 289 350 203 300 289 251 197 288 368 234 236 281 228 246 200 277 216 258 213 321 193 237 220 233 139 314 273 321 243 311 313 280 258 196 230 248 313 244 194 291 264 294 289 305 276 268 233 283 318 269 310 195 257 300 257 295 376 235 303 243 321 288 258 244 324 243 235 327 167 367 238 270 326 235 296 226 184 260 214 151 145 123 138 271 222 256 285 274 301 262 252 237 276 189 375 187 215 271 258 312 230 172 269 238 305 284 265 270 221 353 256 193 239 267 370 279 169 264 301 204 229 342 253 228 258 237 163 252 276 226 146 220 288 290 122 267 232 242 335 174 188 255 184 221 232 194 131 289 278 300 226 178 240 233 199 183 350 280 320 219 335 322 300 305 266 204 293 246 290 294 188 350 353 314 338 195 268 193 192 258 234 222 210 198 233 232 130 319 247 344 263 318 206 282 143 293 284 268 274 210 366 211 196 257 220 229 292 238 255 360 151 180 211 319 213 190 231 286 249 270 134 238 244 243 258 281 303 291 306 139 323 269 244 252 194 240 219 232 288 205 223 239 257 300 250 280 233 208 288 283 222 189 348 316 259 276 280 303 272 202 284 251 274 245 268 366 205 301 333 271 256 189 188 151 182 240 298 263 203 223 242 230 316 161 327 264 306 241 306 311 207 193 189 214 213 198 337 226 315 245 174 233 272 207 263 279 263 215 258 259 266 225 261 258 313 273 324 332 350 217 252 306 276 277 304 180 273 235 246 230 261 230 249 317 220 263 235 317 260 160 222 167 250 316 264 217 166 323 215 203 167 231 259 272 264 283 299 196 276 220 335 287 292 297 192 195 243 282 293 299 179 308 232 266 262 302 231 232 231 246 270 177 334 254 216 360 179 252 201 208 322 253 244 237 310 320 231 191 340 196 285 285 171 242 311 297 250 234 233 236 274 252 297 168 202 261 254 279 334 234 322 253 243 259 282 317 198 251 258 190 213 290 273 127 320 244 240 394 264 197 225 274 256 295 280 262 241 244 242 272 348 296 321 283 212 247 316 285 190 258 150 361 263 215 378 282 325 242 238 333 337 338 271 352 278 284 244 343 238 259 236 255 244 220 233 243 295 271 305 202 231 239 226 359 225 272 349 375 271 285 241 379 312 197 159 276 207 283 256 255 223 304 289 292 258 281 287 353 325 260 300 208 277 291 257 196 263 212 275 176 358 364 244 249 282 195 262 302 194 282 310 269 280 274 294 227 206 312 287 210 197 306 138 372 227 145 228 271 237 264 289 235 291 225 281 271 324 245 220 314 226 342 183 267 237 287 297 130 256 251 348 181 260 241 318 329 230 181 309 370 287 259 335 217 265 329 245 181 250 153 283 230 330 176 278 242 247 186 203 335 222 185 266 358 260 237 371 362 288 277 278 211 386 208 310 319 252 379 291 195 306 282 318 237 277 236 251 221 191 230 181 255 293 227 328 197 235 224 290 227 308 256 281 286 163 258 357 247 309 268 223 202 288 258 280 286 243 134 243 261 265 314 315 218 262 297 201 280 339 208 243 280 315 234 334 274 274 187 195 315 242 303 220 279 182 218 337 257 387 225 398 308 318 258 193 272 314 337 326 223 185 256 295 255 207 267 335 208 258 290 225 207 235 258 311 366 227 323 270 288 310 317 239 158 265 224 316 237 241 226 290 225 189 232 281 307 226 227 275 203 218 249 288 245 263 193 238 207 218 316 306 215 215 158 306 275 245 202 173 288 250 284 283 285 239 337 303 192 231 227 174 261 150 332 220 232 232 241 247 276 271 404 284 274 275 252 237 259 179 298 128 322 341 289 171 230 283 242 214 229 143 245 289 257 216 355 291 301 232 235 295 225 265 252 357 246 313 375 215 212 262 239 249 247 215 215 317 314 144 261 347 240 306 297 265 262 288 175 253 247 230 200 276 323 198 221 223 253 235 230 246 394 293 197 307 287 333 409 262 217 195 323 207 156 253 321 252 223 219 190 253 354 214 319 312 283 165 267 282 215 259 192 223 266 241 195 308 261 241 187 241 287 411 320 280 211 272 247 201 243 348 220 297 344 305 367 230 222 324 298 339 189 323 218 142 241 209 282 251 223 345 211 230 208 215 157 228 228 253 179 307 208 233 286 221 282 277 268 230 247 274 280 234 270 236 239 273 226 292 369 298 277 379 221 350 244 288 229 339 171 346 198 221 196 203 328 186 395 244 223 327 257 278 221 302 269 254 286 230 269 275 234 324 353 260 260 249 235 260 201 233 273 358 258 248 255 254 262 199 301 290 255 379 189 286 333 299 325 275 216 341 250 338 365 228 312 300 246 224 360 243 174 292 232 219 279 206 250 265 209 130 214 204 109 280 261 276 173 287 240 285 323 231 232 282 302 126 268 250 224 227 286 174 305 336 291 256 262 266 297 223 254 278 301 263 226 251 312 226 349 312 268 188 294 333 184 337 289 301 185 260 218 156 254 237 259 239 303 195 199 287 272 255 278 235 302 244 275 233 297 369 147 258 230 200 296 246 246 264 256 159 310 199 303 252 250 245 204 180 218 267 234 201 170 301 304 175 241 274 283 247 167 310 233 239 290 202 261 290 226 255 147 274 183 219 163 310 212 230 254 356 269 250 288 268 236 308 260 245 265 186 275 306 247 243 292 264 243 276 213 271 248 325 249 224 360 279 242 352 328 262 333 273 292 220 208 232 308 237 316 310 167 271 268 307 239 238 226 224 284 225 189 212 209 306 269 175 233 323 292 311 193 302 184 254 379 152 240 278 246 327 296 298 210 212 237 245 300 280 237 279 268 183 276 275 250 227 159 288 201 183 259 170 269 290 242 231 267 230 240 303 255 188 174 349 312 211 313 219 254 185 268 260 321 180 217 318 164 177 269 273 357 205 233 338 287 320 267 168 255 226 265 291 287 196 197 234 313 247 277 279 284 357 234 232 310 257 280 283 234 247 350 174 293 376 285 322 215 192 245 303 238 264 161 315 165 237 273 275 150 270 165 220 393 230 189 301 244 252 210 227 270 229 263 225 242 200 261 271 365 298 322 351 250 254 210 204 306 237 349 253 256 225 239 227 202 222 310 219 300 276 316 271 296 381 269 366 272 317 242 276 259 222 349 247 253 310 289 416 270 300 439 308 203 231 215 237 280 274 296 331 272 285 229 286 231 154 275 232 197 310 231 215 302 263 233 291 240 251 259 284 288 208 191 198 281 286 178 248 254 324 275 263 251 221 268 243 259 351 278 172 306 306 196 257 294 259 272 244 270 296 247 229 240 285 234 255 309 231 313 268 277 376 248 256 282 202 289 274 276 233 191 373 192 234 212 248 270 279 293 240 213 223 237 185 224 262 345 224 288 212 239 248 239 257 274 232 225 215 276 294 298 271 285 244 227 212 150 274 358 250 203 321 280 196 313 244 260 196 295 285 279 364 294 171 152 174 289 196 271 219 346 370 162 223 195 262 294 253 228 265 224 275 233 337 337 293 184 275 296 209 181 260 204 319 211 239 206 304 267 280 274 194 249 221 195 251 312 292 236 164 300 320 362 250 272 222 239 203 283 284 207 212 351 275 320 250 147 251 360 236 326 299 227 182 184 153 289 208 314 270 227 263 276 225 219 261 248 213 246 309 254 214 253 270 261 179 262 279 286 255 280 287 265 249 292 304 293 270 281 228 330 238 237 199 250 225 192 255 234 242 239 260 292 186 226 345 141 314 386 279 278 171 267 282 271 142 260 235 216 273 214 235 355 216 300 266 249 179 221 343 192 241 212 291 296 311 255 334 212 212 248 276 220 207 205 334 316 227 239 353 233 294 294 220 196 226 274 308 334 284 249 320 297 270 282 241 274 262 304 280 286 248 333 285 174 250 323 176 349 245 330 235 134 271 297 279 248 343 249 298 235 259 225 258 305 351 330 199 335 253 246 197 271 323 330 291 254 267 172 235 349 304 328 232 184 325 328 346 299 330 205 242 307 234 257 274 148 218 187 219 323 192 237 159 208 277 164 246 230 282 395 260 321 231 268 282 365 289 207 257 210 216 257 171 273 218 258 211 216 209 273 261 276 185 162 239 145 264 196 293 337 268 238 299 310 234 235 220 130 255 318 248 283 248 318 188 367 259 250 224 177 327 206 247 300 216 276 275 165 244 300 319 252 176 243 293 266 251 332 189 308 219 309 217 256 275 182 254 217 190 174 215 288 329 264 387 299 300 229 243 308 279 174 252 250 231 182 193 212 227 217 274 323 292 260 245 313 260 187 268 316 287 266 174 299 319 226 267 196 166 258 248 317 255 261 293 192 307 445 236 241 258 148 317 267 267 233 230 258 244 220 175 315 265 201 301 318 275 269 258 289 226 315 187 265 181 224 306 344 293 227 276 270 350 218 276 257 309 219 330 303 255 270 234 319 309 170 233 232 269 233 233 257 184 313 272 228 291 263 187 294 288 221 217 272 286 201 300 178 215 194 274 300 256 196 227 246 267 261 291 277 185 244 347 257 319 189 262 277 201 272 280 289 341 250 353 272 284 248 241 202 307 184 283 375 323 272 302 216 215 224 267 260 256 293 200 188 332 336 312 307 294 166 306 171 153 248 251 238 185 279 323 356 304 189 236 298 200 176 177 309 282 401 328 317 279 349 213 279 245 226 270 228 245 226 270 241 297 303 202 340 206 292 315 258 280 220 239 220 209 258 260 457 230 186 265 243 288 206 335 205 300 330 238 312 275 327 280 284 227 155 294 217 262 268 329 294 181 230 309 246 179 249 271 326 275 219 309 239 279 219 276 258 260 371 249 284 300 321 248 272 202 304 251 380 265 351 183 286 265 288 296 295 273 177 311 239 149 325 224 313 348 275 246 200 184 287 243 223 243 293 195 184 299 279 199 282 223 278 242 319 336 239 286 283 253 335 340 239 167 267 247 227 240 286 224 313 259 274 150 187 271 184 273 301 295 379 258 237 240 300 256 261 170 265 248 190 264 310 313 352 345 259 244 193 188 273 192 310 241 228 302 228 258 274 411 343 228 306 241 242 234 212 243 273 182 336 215 282 281 273 243 237 237 220 362 314 215 221 313 332 299 315 328 262 142 290 292 225 339 238 215 165 325 327 238 281 279 264 263 311 286 237 298 207 232 275 299 274 245 250 208 278 183 286 293 361 119 150 184 219 204 255 285 190 284 170 311 332 206 296 283 273 277 218 295 259 282 294 289 249 224 163 210 302 212 268 287 204 226 237 224 246 162 303 388 211 293 226 297 259 233 323 208 334 238 232 234 229 213 204 282 271 274 331 305 285 258 254 213 232 317 165 323 170 297 252 259 208 317 196 215 240 137 204 291 177 248 268 259 282 262 280 298 255 226 176 236 229 248 233 346 300 306 318 176 278 217 210 295 184 238 184 223 277 229 203 327 233 193 337 325 241 279 275 278 233 248 298 212 309 262 277 330 341 267 238 351 297 284 218 280 288 184 253 336 266 312 205 297 304 294 328 158 244 200 182 118 306 281 201 234 196 282 239 242 255 170 305 268 272 255 184 213 253 337 288 302 259 275 289 279 269 249 359 311 261 174 247 324 236 345 239 202 323 316 302 366 274 248 268 227 178 224 298 249 263 328 323 253 194 218 283 224 223 362 247 251 245 207 271 325 296 283 296 256 278 320 327 218 334 168 278 206 249 253 266 225 244 135 319 188 242 171 195 185 287 379 322 262 223 311 255 180 331 303 269 244 382 244 250 228 243 264 222 256 276 311 252 337 237 247 251 281 274 211 237 250 195 280 304 232 194 249 277 233 247 178 333 323 195 304 277 235 226 262 203 222 224 344 297 320 267 284 283 314 287 238 281 262 311 343 275 288 276 316 265 263 290 247 212 285 292 230 314 344 201 254 183 279 253 246 265 325 234 254 234 234 160 181 209 197 298 290 220 238 298 203 325 220 307 267 279 233 239 266 209 357 303 268 338 228 356 373 221 308 304 264 251 260 222 243 245 228 277 259 293 282 281 253 275 287 251 240 216 320 240 257 196 238 280 302 227 219 193 220 294 250 241 239 294 230 214 209 327 209 352 332 240 198 162 226 261 269 287 236 279 203 237 216 351 225 200 283 243 191 331 230 218 192 214 290 245 219 215 225 291 242 233 201 221 311 359 351 272 262 292 323 301 241 291 208 178 234 192 291 183 228 227 231 240 227 333 281 231 369 284 215 217 177 236 270 309 277 254 228 247 316 280 281 285 263 295 254 325 241 304 262 234 270 284 208 306 282 230 277 286 299 162 287 169 259 235 222 218 253 263 201 226 276 206 213 286 247 345 277 270 316 206 3</t>
-  </si>
-  <si>
-    <t>F(1.4397263716806328, 1.2228878725253847, -1.3243832187893344e-31, 1.3389966018438875)</t>
-  </si>
-  <si>
-    <t>2 1 3 2 2 5 1 1 2 1 1 2 2 2 0 1 1 2 0 2 2 0 1 1 2 2 0 1 3 1 2 2 2 2 2 1 1 4 3 4 1 1 3 5 1 2 2 1 2 3 0 1 2 5 3 0 0 0 2 0 1 0 2 1 1 0 2 2 2 1 2 3 0 1 2 1 4 1 1 0 2 1 1 3 0 1 1 2 1 1 4 3 2 2 0 1 1 1 3 0 1 2 2 0 0 2 0 0 2 2 1 2 1 1 2 2 0 1 0 1 1 3 1 0 1 2 2 2 3 4 2 2 1 3 1 2 2 2 1 1 3 1 2 4 1 1 2 3 0 2 2 1 0 2 0 3 1 2 2 1 3 3 1 1 0 2 1 0 2 2 0 1 1 2 2 1 2 2 1 1 0 1 0 0 0 1 3 3 1 1 0 1 2 1 1 1 0 1 2 1 2 2 3 0 1 2 2 2 1 2 2 0 1 2 1 1 0 2 2 3 4 1 0 1 2 5 1 4 3 1 2 2 1 3 2 2 0 0 1 2 1 2 1 2 1 2 1 0 1 1 2 1 2 1 2 2 2 1 1 2 3 2 3 2 1 2 1 2 1 1 1 1 3 2 1 4 3 2 1 0 3 1 2 3 0 1 1 0 2 2 2 2 1 2 2 1 1 0 2 1 2 3 1 2 0 2 2 1 0 5 2 3 1 0 2 2 2 3 4 0 1 1 4 1 2 1 3 2 3 3 2 2 1 2 1 1 1 3 2 1 2 2 3 1 1 1 1 3 1 1 3 3 2 2 2 2 1 2 2 0 1 1 1 2 2 0 2 0 0 3 1 4 2 0 2 2 2 2 4 1 2 3 2 3 1 2 4 0 2 3 3 1 1 2 1 3 2 2 4 3 2 1 2 0 1 2 2 1 2 1 1 1 1 3 2 4 0 2 0 0 1 1 4 0 2 2 3 2 2 2 2 3 4 1 4 2 0 2 2 3 2 2 2 1 1 4 1 1 0 4 2 1 2 3 2 2 2 2 1 1 2 1 2 0 2 1 0 1 2 0 3 0 2 1 0 0 1 3 2 1 0 1 1 3 2 0 1 3 2 3 1 1 3 1 3 1 3 2 2 1 2 1 2 3 1 2 2 4 2 0 1 0 2 1 4 1 1 0 4 1 1 1 0 2 1 1 2 3 1 2 2 1 1 2 3 1 3 2 2 2 0 0 1 2 2 0 2 2 2 2 1 2 1 4 2 1 2 0 4 3 1 2 1 2 1 2 1 1 2 1 0 1 1 2 2 1 2 0 3 1 1 2 1 1 2 3 3 2 2 0 1 1 1 1 0 1 2 1 1 1 1 2 1 2 1 2 1 2 1 2 0 1 1 2 3 1 2 3 1 3 1 2 3 3 2 1 1 1 2 1 2 2 1 3 0 1 3 1 1 0 1 0 1 0 2 1 2 2 2 2 1 2 1 1 1 2 1 1 0 2 3 2 0 0 2 1 0 1 2 3 1 1 0 1 2 1 3 1 1 1 1 3 1 1 0 1 1 3 2 2 1 3 1 1 1 2 3 1 2 1 2 1 1 2 2 1 1 1 1 2 1 3 1 2 0 4 1 2 1 3 1 2 3 1 1 1 2 1 2 2 2 2 1 1 2 0 2 1 2 2 0 2 4 2 1 0 2 4 1 2 3 2 1 1 2 0 3 1 3 2 3 2 2 1 2 2 2 0 1 2 2 2 1 0 2 0 1 1 1 1 1 2 4 2 1 0 1 2 2 2 2 1 3 2 1 2 2 1 1 2 1 1 1 1 2 1 2 1 2 0 1 4 1 3 1 2 2 2 1 1 1 1 1 2 1 2 2 2 3 1 3 1 1 2 2 1 2 3 2 3 2 0 2 1 1 0 1 2 1 1 3 1 1 2 1 1 3 2 1 2 4 0 0 4 2 3 2 1 2 1 1 0 1 0 1 0 2 4 2 2 1 2 0 2 0 2 4 2 2 1 0 1 2 1 0 1 1 1 3 2 1 1 0 0 0 0 1 1 3 2 3 3 1 1 2 0 1 3 1 1 5 2 2 1 1 1 2 0 1 2 2 2 3 0 3 2 2 1 4 1 1 2 1 0 0 1 3 2 3 0 1 1 0 0 3 2 3 4 3 2 3 1 1 1 3 2 1 1 2 3 1 0 1 1 1 1 3 5 3 2 3 2 1 1 2 1 1 2 2 1 3 2 2 4 1 1 0 1 2 1 2 0 3 0 0 2 1 0 1 3 3 3 0 2 3 0 2 1 1 2 1 1 2 1 2 0 1 3 1 0 2 1 1 0 3 2 1 0 1 2 4 1 2 4 0 3 1 2 0 0 1 3 1 0 2 0 1 1 2 1 1 2 2 2 3 2 0 0 0 1 2 1 2 2 1 2 1 2 1 2 2 2 2 1 3 1 2 0 1 2 3 1 1 2 1 2 1 2 2 5 0 1 2 3 1 1 1 1 4 0 4 2 2 2 2 1 1 0 1 0 1 1 1 2 0 1 0 1 0 1 2 2 2 1 1 0 3 1 1 2 2 2 1 2 1 1 2 0 1 3 1 1 2 2 2 1 0 0 1 1 3 1 2 2 1 0 0 3 2 2 1 1 2 2 3 2 2 0 0 0 1 2 1 2 0 3 1 2 1 2 2 1 1 3 0 1 2 2 3 2 1 2 2 1 2 1 0 2 2 1 0 2 3 4 2 0 2 0 1 2 2 0 1 2 1 3 1 1 4 0 2 3 1 2 1 2 3 1 3 3 2 2 2 1 3 2 1 2 2 1 1 0 1 4 0 1 2 0 1 1 3 1 2 1 3 0 2 1 2 2 2 2 1 2 2 3 1 2 2 2 4 3 2 0 0 2 0 2 4 2 2 1 0 0 3 1 3 1 2 3 0 1 1 1 2 0 2 1 2 2 1 1 2 2 4 1 3 1 3 3 1 2 2 1 2 1 0 2 2 1 0 3 2 3 1 2 3 1 2 2 0 3 1 3 2 2 3 2 0 2 0 1 1 2 0 2 1 1 2 4 1 0 1 1 0 2 3 2 2 2 2 3 2 2 0 3 1 1 1 2 1 2 1 1 3 1 1 3 1 1 1 1 2 2 2 1 1 0 2 2 1 2 1 2 1 1 1 1 2 0 1 2 1 2 1 1 0 0 1 1 3 2 3 2 1 1 0 1 2 0 1 1 2 2 0 2 3 6 2 3 1 1 3 1 2 1 0 1 1 2 2 1 0 4 3 3 1 2 1 2 2 1 3 1 0 1 1 4 2 4 5 3 2 0 2 2 1 0 1 2 2 1 1 2 0 2 2 1 2 0 1 2 3 1 3 2 2 1 1 2 1 1 1 1 3 1 2 1 1 1 1 1 1 1 2 1 1 2 2 1 2 2 1 1 1 2 2 0 2 1 3 1 1 1 2 2 1 2 2 1 1 0 3 1 2 1 2 1 3 0 3 1 1 1 2 3 4 2 3 3 0 0 0 0 0 1 2 1 1 1 1 3 1 3 2 0 0 3 0 3 1 2 1 1 5 1 1 1 2 1 2 0 1 0 3 2 4 2 2 3 2 2 1 1 0 1 1 0 3 1 1 3 2 1 0 0 2 1 1 0 0 3 4 0 3 2 1 2 0 1 2 1 0 1 5 2 1 1 1 2 0 2 1 1 1 2 3 3 1 3 0 2 3 1 0 2 1 1 1 0 2 2 3 3 3 2 2 0 1 0 1 3 2 1 2 3 1 0 1 2 2 2 2 0 3 1 2 1 1 0 2 0 0 0 2 1 3 0 0 1 2 1 4 3 2 3 0 0 2 2 1 2 1 4 3 1 2 1 1 1 1 1 2 3 3 2 2 2 1 1 1 3 2 2 0 2 1 0 0 2 3 3 1 1 0 0 1 1 2 0 0 1 2 2 2 1 2 1 2 4 0 3 3 1 1 3 0 2 2 0 1 2 1 1 1 2 1 2 5 1 1 2 1 2 1 3 2 1 1 1 2 1 1 0 2 5 2 2 2 1 2 1 2 2 3 1 1 1 1 1 2 2 1 2 3 2 3 0 1 3 1 2 0 0 1 4 2 1 0 2 2 2 2 1 2 2 1 1 5 2 2 2 3 1 1 2 2 1 1 2 0 1 3 2 1 2 1 2 4 2 3 3 2 2 2 1 3 1 2 1 0 2 5 4 1 3 2 1 5 2 1 1 3 2 2 1 2 3 3 1 1 1 1 0 2 3 0 1 1 2 2 1 4 2 3 3 2 2 0 1 2 1 0 3 1 1 1 2 3 0 1 1 1 3 2 2 0 1 2 0 2 1 2 0 1 4 0 1 1 0 2 1 0 6 2 1 2 1 2 1 3 3 2 1 5 2 0 0 3 2 1 2 2 1 1 3 0 3 3 1 3 2 0 4 2 1 2 1 1 1 3 0 2 2 1 1 3 2 1 3 1 1 1 2 1 1 2 0 2 2 1 2 1 2 2 1 1 2 1 3 1 0 0 0 2 1 4 1 2 1 1 2 3 2 1 1 2 0 3 1 1 1 3 2 2 0 0 2 1 2 5 3 1 1 3 0 2 2 1 2 1 0 1 3 2 2 1 1 3 2 1 1 2 1 1 2 3 1 1 2 1 2 0 0 2 2 1 1 2 0 1 2 2 2 2 0 1 1 1 2 2 0 1 4 0 0 3 1 1 1 2 1 1 0 4 1 1 2 1 1 1 0 0 2 1 1 1 2 1 1 3 3 3 1 1 1 0 0 0 2 2 3 3 0 0 1 1 2 3 3 1 2 3 1 3 0 2 1 1 1 3 2 0 2 1 2 1 1 2 1 0 3 2 1 0 2 2 3 2 5 1 1 3 1 0 1 3 1 1 0 2 1 1 2 1 3 3 2 0 3 2 1 3 2 2 2 0 1 1 2 3 2 0 1 2 1 0 0 1 2 0 1 1 1 2 2 2 4 2 1 1 2 2 1 1 1 2 2 1 1 2 1 2 3 1 1 1 3 2 0 2 2 2 2 0 1 2 1 2 2 3 3 3 1 0 1 0 0 3 2 1 1 4 1 2 2 3 2 1 4 2 1 2 0 1 0 1 0 3 1 0 1 2 1 1 1 1 2 0 3 2 2 2 1 2 2 1 1 2 0 2 1 1 0 1 1 0 1 3 1 1 3 3 1 1 1 2 4 3 2 1 2 3 1 1 0 1 2 1 3 2 0 1 2 2 2 3 1 1 3 0 1 2 1 2 1 3 1 2 2 2 0 2 1 0 0 0 4 1 3 2 0 1 3 1 2 1 3 1 2 2 2 1 3 2 1 2 0 4 1 2 0 2 2 2 2 2 0 2 4 3 1 2 0 3 1 1 2 1 0 1 2 1 1 1 3 2 2 1 2 1 0 0 2 2 3 0 1 2 2 1 3 1 0 1 2 2 0 2 1 2 2 3 1 3 2 1 3 2 2 2 1 3 0 3 3 0 2 0 3 3 1 1 1 0 2 1 1 2 0 2 2 3 2 4 0 1 2 2 2 2 1 3 2 1 2 2 3 1 1 2 1 1 3 0 1 1 1 1 1 1 0 0 3 0 3 2 1 2 3 3 2 2 2 3 3 3 1 0 2 0 2 2 1 2 0 3 3 2 1 1 1 1 1 1 1 0 1 1 2 1 1 2 2 2 2 2 0 0 2 2 0 3 3 2 2 2 3 3 0 0 2 0 0 2 1 1 1 3 1 1 1 2 1 2 2 1 1 1 0 3 2 2 1 1 2 1 2 1 2 1 1 1 1 2 1 0 2 2 1 2 1 1 0 0 2 1 1 1 3 4 1 1 1 1 2 1 3 1 1 1 1 1 1 1 2 1 2 1 2 3 2 0 2 2 0 1 2 2 1 1 1 1 2 0 3 3 3 2 2 1 0 0 1 3 3 2 1 1 1 1 2 2 2 0 3 2 2 2 3 2 2 2 1 1 1 2 1 3 2 3 4 1 1 2 1 2 0 2 2 2 2 1 0 1 0 0 0 0 2 2 1 0 2 0 2 1 1 1 2 0 2 1 1 0 2 2 2 0 0 1 1 2 3 1 1 1 1 0 2 1 3 1 2 3 3 1 0 1 2 4 0 1 2 3 3 2 2 1 0 2 1 0 0 1 1 2 2 0 2 2 2 1 4 0 1 0 1 1 2 2 2 1 1 1 3 1 2 3 3 3 1 1 1 2 2 1 4 1 3 1 3 1 1 3 2 1 2 1 3 1 0 2 2 1 1 0 2 2 2 2 1 1 2 1 0 1 1 2 2 1 1 1 0 2 2 2 2 1 0 0 1 3 2 4 0 3 3 2 2 1 3 3 0 2 2 2 0 1 3 1 2 1 1 2 1 2 1 3 0 1 1 2 2 1 3 2 0 1 2 2 3 1 1 1 1 2 2 2 0 3 2 1 2 0 1 0 2 2 4 1 2 1 2 2 1 0 1 2 1 1 1 2 1 1 2 2 2 2 3 2 1 2 2 1 1 2 2 4 1 1 2 1 3 0 0 2 2 1 0 1 3 4 2 1 3 1 1 2 1 1 3 2 2 1 1 2 2 2 2 2 2 1 2 2 1 1 3 2 1 2 2 1 1 0 2 2 3 3 0 3 2 2 0 0 1 3 2 1 2 0 2 2 2 1 2 1 1 1 1 2 1 0 1 2 0 1 0 3 2 2 2 1 2 3 4 3 1 0 2 2 0 1 2 1 2 2 2 3 0 2 1 2 2 2 4 1 3 1 4 2 2 1 1 3 1 1 3 0 3 1 1 1 2 1 1 1 2 2 2 2 1 1 1 3 1 2 1 0 1 3 0 1 2 1 2 3 3 0 3 0 3 1 1 2 4 1 3 3 3 1 2 1 1 1 0 2 2 3 1 2 0 2 1 2 2 3 2 1 0 2 0 2 1 2 2 1 3 1 1 2 1 2 0 2 1 2 2 1 4 3 1 0 0 1 3 4 2 2 2 1 1 2 0 3 2 3 1 1 0 2 3 2 1 1 0 2 2 2 1 1 0 2 2 2 2 0 0 2 1 1 2 2 1 0 1 3 0 1 2 2 3 2 4 1 2 3 1 2 2 1 0 3 1 2 2 1 3 1 1 2 2 1 2 1 2 2 0 2 1 2 2 0 2 2 1 2 2 1 2 2 0 2 1 1 2 2 2 1 1 2 4 2 1 2 0 3 0 2 0 2 1 2 2 0 2 1 0 3 1 3 2 0 0 2 1 1 1 2 2 1 2 0 2 2 1 2 3 0 2 3 2 2 1 0 2 1 1 2 3 2 2 2 0 1 2 2 0 2 0 1 1 1 0 2 3 0 1 3 1 1 2 2 1 2 0 3 0 1 2 2 1 2 1 2 3 1 2 2 0 2 3 0 1 3 0 1 3 1 2 1 4 3 2 1 1 1 2 0 1 3 2 2 1 3 2 2 2 2 1 2 1 3 2 2 1 1 2 1 3 3 1 3 3 2 1 1 2 2 1 2 3 1 1 1 1 2 3 0 3 1 2 1 1 0 2 2 3 3 2 2 2 2 1 2 2 2 1 2 1 1 3 1 2 2 1 0 2 2 2 2 2 1 1 2 2 2 1 2 1 1 1 0 2 1 1 2 1 1 2 2 0 1 1 2 3 1 2 1 3 3 1 2 2 2 1 0 1 1 0 1 2 2 1 1 1 1 3 2 3 2 1 2 3 0 1 2 4 1 2 2 0 0 3 1 2 2 1 3 3 0 0 2 1 3 0 2 1 0 2 1 2 1 1 2 1 2 1 1 3 1 0 2 2 1 2 2 2 4 2 1 1 2 1 0 2 1 0 3 3 0 2 1 2 1 0 1 2 2 1 1 3 1 2 2 3 0 0 2 1 2 2 2 1 1 1 2 3 2 2 3 2 2 1 1 0 0 4 1 2 1 1 2 2 2 1 3 2 1 0 3 1 2 2 2 1 1 4 0 2 3 3 3 2 2 1 2 0 2 0 2 1 1 2 1 1 4 1 3 1 0 0 2 2 5 1 3 1 2 2 3 2 2 3 0 1 2 1 0 1 2 3 1 1 4 1 2 1 3 2 2 2 2 3 2 1 2 2 2 0 3 1 3 1 2 2 1 3 1 3 2 2 1 1 2 1 0 2 2 3 2 1 2 2 1 2 1 0 3 1 2 0 2 1 2 1 2 2 2 2 1 2 1 1 4 2 3 1 1 1 0 2 3 1 1 2 1 0 1 0 1 1 1 4 1 3 1 0 2 1 2 2 3 3 1 2 0 2 2 2 1 2 1 2 1 2 2 2 1 1 1 3 2 1 0 0 0 3 2 3 2 2 3 1 1 3 2 1 2 0 0 1 2 1 3 2 0 4 2 1 1 2 3 1 1 0 1 1 2 2 1 1 1 2 0 1 0 1 2 1 3 3 2 2 2 4 1 2 1 1 1 1 1 4 2 1 2 2 1 0 2 1 2 2 1 1 1 1 3 1 1 2 2 2 3 3 0 2 2 0 1 0 4 0 1 0 2 2 1 0 1 1 1 1 1 0 0 0 2 1 0 4 1 2 0 2 2 0 1 1 1 3 3 0 0 1 0 2 2 1 0 2 3 0 2 2 0 3 1 3 2 2 1 2 2 2 0 3 2 3 2 0 0 2 2 2 2 2 1 0 1 2 0 3 3 1 3 1 2 2 2 3 3 1 0 1 2 1 2 1 1 2 3 2 3 3 2 0 3 2 0 1 2 2 1 0 3 3 5 0 2 1 2 1 2 1 2 2 2 2 1 1 2 3 1 3 1 0 1 1 1 2 3 4 2 2 1 2 1 1 1 2 0 3 0 2 3 1 2 1 1 0 1 4 1 0 3 1 1 0 1 4 2 2 0 1 2 0 1 2 2 1 2 0 1 2 0 3 3 0 0 1 3 2 1 2 4 0 2 1 2 2 0 0 2 2 3 0 2 2 0 1 1 2 0 3 1 0 1 0 2 1 1 1 1 3 2 1 1 3 1 3 2 2 3 2 1 0 2 0 1 2 1 2 2 1 2 1 0 2 0 0 2 0 3 1 1 3 2 0 2 0 2 2 0 0 1 2 1 1 0 2 0 3 2 2 1 1 2 1 1 0 2 0 2 2 1 0 3 2 1 2 3 2 1 3 3 1 0 1 1 0 3 2 0 2 2 2 2 2 1 2 1 2 3 0 0 3 3 2 0 3 3 1 2 3 1 1 1 2 1 4 4 2 1 1 0 2 3 1 0 1 4 1 1 1 1 2 1 1 2 2 1 2 2 2 1 1 1 1 3 1 2 4 2 0 1 0 3 2 2 2 1 0 3 2 3 1 0 1 2 2 0 2 2 1 0 0 0 3 0 1 1 1 0 4 0 0 1 3 3 3 1 2 0 3 1 0 3 1 4 3 2 0 1 3 0 2 3 2 2 1 0 1 1 1 0 3 3 1 2 1 2 1 0 0 0 1 3 1 2 0 3 1 2 3 2 1 0 0 2 1 2 2 2 1 3 0 0 2 1 2 3 1 0 1 1 1 1 1 1 1 3 0 0 1 2 2 1 4 1 0 1 1 2 4 3 1 1 3 1 1 1 1 2 2 2 0 2 1 1 1 2 1 3 0 0 1 2 3 3 1 1 1 1 1 1 0 1 2 1 2 0 2 0 3 3 2 3 0 0 1 3 1 1 2 2 2 2 1 0 2 1 1 0 0 2 1 0 1 2 1 2 3 3 3 2 0 1 1 2 2 3 1 2 4 2 1 4 0 2 1 0 3 2 1 2 1 4 1 4 1 2 2 3 1 2 2 0 3 3 1 1 2 2 2 1 1 2 3 4 2 3 0 1 3 0 1 0 1 2 2 0 1 2 0 3 0 2 2 3 3 3 1 3 2 2 3 3 1 0 1 2 1 2 1 3 1 1 1 2 2 1 2 0 1 1 3 1 1 3 2 3 3 1 1 2 3 0 0 3 3 1 2 3 0 1 2 2 2 3 2 0 2 0 1 2 2 0 0 3 2 1 1 1 3 1 1 2 1 2 2 1 2 2 1 1 1 2 0 2 3 1 4 2 1 1 2 0 1 1 3 3 2 2 2 2 0 0 2 1 2 3 3 0 1 0 1 2 1 2 0 2 1 1 3 1 0 3 2 2 2 2 2 1 2 1 2 2 3 1 0 1 1 1 2 4 4 0 3 1 5 1 2 1 2 3 0 2 1 2 2 2 2 1 1 3 2 2 1 2 2 1 2 2 3 0 0 1 5 4 0 3 5 1 1 1 1 1 0 3 2 0 2 3 2 0 1 2 2 0 0 1 1 1 2 3 2 1 2 3 0 2 1 1 1 0 2 1 1 2 1 2 1 1 0 2 1 1 3 0 1 3 0 3 2 1 2 0 1 1 0 3 1 1 1 3 1 2 1 4 2 2 1 3 1 2 2 1 2 1 2 0 2 1 1 1 2 4 0 3 1 3 2 0 3 2 1 2 1 3 0 2 1 1 1 1 0 3 1 0 1 1 0 3 1 1 1 0 0 2 2 2 1 2 1 1 1 1 1 1 1 3 1 2 1 2 1 1 0 0 0 0 2 3 1 2 2 2 3 1 2 1 3 2 3 0 1 0 3 1 0 4 3 1 3 1 1 2 3 3 2 1 1 0 1 1 2 2 1 1 1 3 3 2 2 2 2 2 2 3 0 2 1 0 1 0 3 0 2 2 2 2 3 1 2 2 1 2 0 1 1 1 1 0 0 1 2 2 1 1 2 3 2 0 1 1 2 2 2 1 4 0 3 4 2 3 4 1 0 1 1 2 2 3 2 3 1 1 1 3 0 2 1 2 2 0 4 1 2 1 1 3 1 2 2 2 3 2 2 2 0 0 2 2 2 0 0 0 1 2 2 1 1 0 2 3 0 3 2 2 1 1 2 2 2 0 3 0 1 1 1 2 1 3 0 0 2 3 1 2 1 3 1 1 1 1 1 2 1 0 1 4 3 2 3 0 1 1 3 2 1 1 1 1 1 1 3 1 0 1 3 3 1 1 0 1 1 2 0 1 2 1 1 2 3 2 2 1 1 0 2 4 0 1 0 1 0 1 1 3 2 4 1 1 1 1 2 1 2 1 1 2 1 2 1 1 2 2 1 1 3 1 3 1 1 0 1 3 1 2 2 2 2 1 2 0 2 1 2 2 1 3 2 3 2 1 1 4 2 1 2 1 2 3 4 3 3 1 3 2 3 2 3 3 3 1 3 1 2 2 2 1 1 1 3 2 2 2 3 1 2 2 1 1 2 3 2 3 1 2 2 1 2 1 0 0 0 3 0 2 2 0 1 2 1 1 2 1 1 2 1 3 2 2 0 1 0 2 4 1 3 3 1 2 2 1 0 2 4 0 0 2 3 2 3 2 2 0 2 2 3 3 1 1 0 0 0 0 3 1 1 2 1 3 1 1 2 3 0 2 1 2 2 2 1 1 1 0 1 0 0 1 2 1 1 4 3 1 2 1 1 3 2 4 2 3 2 3 1 3 1 2 3 1 3 2 2 2 3 2 3 2 2 0 2 2 1 3 2 1 2 0 2 1 3 1 2 2 3 3 1 3 1 0 2 2 3 1 3 2 1 1 1 0 2 2 0 2 1 2 1 2 2 2 2 2 3 2 0 3 1 1 1 3 1 1 0 3 2 0 1 3 2 3 3 0 0 1 0 1 0 1 3 2 1 2 1 3 2 2 1 1 2 2 1 0 3 1 0 2 1 1 1 4 2 0 3 1 0 2 4 1 1 2 0 1 2 3 2 4 1 0 1 1 2 1 0 1 1 0 1 1 2 1 2 1 1 2 1 1 2 2 1 5 1 2 0 1 0 2 2 1 2 2 3 0 0 2 2 2 2 2 2 2 1 2 3 0 1 2 1 1 2 0 1 1 1 3 2 1 1 1 0 2 3 2 0 0 0 0 1 1 3 2 2 4 3 2 1 3 2 1 2 0 4 0 3 0 1 2 1 2 2 3 1 3 3 1 2 4 2 3 2 1 1 1 2 2 2 1 3 2 1 2 1 0 1 2 2 2 2 2 1 2 4 1 2 1 2 2 1 2 1 2 2 1 1 1 2 4 1 0 1 1 1 1 4 2 2 0 3 1 2 2 2 2 1 1 2 4 1 1 2 1 0 3 3 3 2 1 2 1 2 4 2 0 2 1 2 0 2 1 1 4 5 0 1 2 1 2 3 1 2 2 1 1 2 1 2 2 2 2 1 2 4 3 2 1 1 1 0 0 2 2 2 2 2 2 2 3 1 1 0 3 0 2 2 1 4 1 3 1 0 2 0 1 2 1 2 2 2 3 1 2 2 4 1 0 2 1 2 1 4 3 1 1 1 1 2 1 1 0 1 2 3 0 2 2 2 3 0 1 2 1 2 0 3 0 1 1 3 3 0 2 1 1 1 3 2 2 0 2 2 1 2 2 1 1 1 0 1 1 0 3 2 3 1 1 1 0 2 2 1 1 1 1 3 0 2 1 4 3 2 0 2 0 3 1 0 1 1 2 3 2 2 2 0 2 1 0 4 1 2 1 3 1 1 1 3 1 1 0 0 2 2 2 0 0 1 4 0 3 2 1 2 1 1 1 0 3 2 2 1 2 1 1 1 0 0 2 3 1 1 2 2 1 2 1 1 2 0 1 1 2 1 2 2 1 2 3 3 1 1 0 2 0 1 2 2 2 0 1 1 2 0 3 1 1 3 2 4 1 2 2 1 2 1 3 0 2 2 2 1 2 1 1 1 3 1 1 1 3 1 2 0 4 1 4 2 1 2 0 1 3 3 4 1 2 1 2 0 1 1 1 3 1 2 2 2 1 1 0 0 3 3 4 1 3 3 1 3 1 0 1 1 2 3 2 1 4 1 4 1 2 4 0 0 2 1 1 3 0 0 3 2 3 2 1 1 1 2 3 2 1 3 1 3 0 1 2 0 2 3 1 1 2 3 1 0 0 1 0 4 1 2 2 0 1 1 0 1 3 1 1 2 1 0 2 2 1 0 2 2 2 3 2 2 1 1 3 1 1 1 3 0 3 3 1 2 1 1 1 3 0 3 2 1 1 2 1 0 3 1 2 5 0 2 3 2 2 4 3 4 1 2 5 2 3 2 1 3 4 1 1 5 3 2 1 1 1 1 2 1 2 2 1 1 2 0 0 2 2 2 2 0 1 1 2 4 3 1 4 4 1 0 0 2 2 2 2 2 2 3 2 3 1 3 3 1 2 3 1 4 4 2 1 1 2 0 1 1 2 3 1 4 1 2 1 3 0 2 2 1 2 1 2 1 0 2 2 1 0 1 0 2 2 1 1 1 1 1 0 2 2 2 1 0 2 1 2 0 3 2 0 1 1 3 4 1 1 3 2 1 0 3 2 2 3 1 1 5 1 1 1 0 1 1 1 1 0 0 1 0 1 2 3 2 1 1 1 2 2 2 1 4 2 2 3 3 3 2 2 1 2 1 2 1 2 3 4 1 3 2 4 0 1 2 2 2 1 1 2 2 1 1 2 3 2 3 3 0 0 3 1 3 2 2 1 3 2 2 2 0 1 1 0 3 2 1 1 1 2 1 1 0 2 2 0 2 3 1 0 1 2 0 2 2 2 1 2 3 0 3 1 1 1 3 2 2 1 2 4 3 3 2 0 2 4 2 1 1 2 2 3 3 2 2 1 1 2 2 0 1 1 1 3 4 2 3 2 1 2 2 1 1 1 2 2 2 2 2 1 1 1 0 0 2 3 0 2 1 1 1 2 0 1 3 1 2 2 3 1 3 2 0 2 2 1 2 2 3 1 1 1 3 1 2 1 0 2 2 2 1 2 1 1 3 2 1 1 2 1 6 2 1 2 2 1 1 1 1 0 3 3 1 2 1 0 2 0 2 0 3 1 1 2 0 0 1 0 2 1 2 1 0 4 2 4 3 2 3 0 2 2 0 1 0 2 0 2 2 3 1 0 2 1 2 2 1 3 2 0 0 3 1 0 0 1 1 1 0 2 2 1 3 1 1 2 3 2 2 2 1 2 1 3 2 2 1 1 0 0 2 2 0 0 2 2 0 2 3 1 0 2 2 2 2 2 4 1 3 2 0 3 4 1 1 2 1 1 0 1 0 1 2 1 2 2 3 2 3 1 0 4 3 0 2 0 2 1 1 1 1 2 0 0 1 2 2 2 1 2 1 0 3 2 2 1 0 3 1 2 1 0 2 3 1 1 1 1 2 3 1 2 2 2 3 2 1 1 1 4 0 1 2 0 1 2 4 1 1 1 1 2 0 0 0 2 1 1 3 2 1 1 3 2 1 4 2 2 1 2 3 1 2 3 3 1 4 2 4 3 1 2 1 3 2 2 4 1 2 2 2 0 2 1 0 2 1 0 3 1 1 1 2 2 1 2 1 3 0 1 0 2 2 1 1 2 2 3 2 1 1 3 0 3 3 1 2 0 1 1 4 1 2 5 1 0 2 2 1 2 3 0 2 1 3 2 2 0 3 1 1 1 1 2 2 5 3 2 1 3 0 1 2 1 1 3 1 1 1 0 3 3 1 1 2 1 2 0 0 3 2 2 2 1 2 1 2 2 1 1 3 1 1 1 0 2 1 0 2 2 2 1 1 3 3 2 1 3 2 2 2 1 0 2 1 1 1 1 2 0 1 3 1 0 0 3 1 1 3 2 0 0 1 2 2 2 1 2 1 1 3 2 2 4 2 1 1 1 2 2 1 2 2 2 3 1 2 2 1 1 3 3 1 3 0 3 3 2 2 2 2 2 1 2 1 1 3 2 4 1 1 0 1 4 3 2 1 3 3 1 2 1 0 1 2 2 0 1 1 2 0 3 1 2 0 2 3 2 1 2 3 2 2 3 2 2 0 3 0 1 1 0 2 3 1 0 2 3 1 3 2 1 1 1 3 0 4 3 0 2 2 1 1 1 1 1 1 2 3 0 2 2 2 1 3 3 1 1 3 2 1 1 2 0 0 2 2 4 2 2 1 3 3 3 3 1 1 3 1 1 3 1 2 1 2 0 1 2 1 2 1 1 1 0 0 2 0 1 1 1 1 3 2 1 1 2 2 0 1 2 1 3 0 2 1 2 0 2 3 2 1 2 0 2 2 1 5 0 3 2 2 0 0 2 1 1 0 2 2 0 1 1 2 2 1 2 3 1 1 2 2 3 1 0 1 0 2 3 1 1 6 3 1 1 2 0 0 1 3 1 1 3 1 2 1 0 1 2 1 1 2 0 3 0 1 1 1 2 3 2 2 0 2 3 2 2 0 1 2 4 0 2 3 0 3 1 1 3 2 1 1 2 0 2 2 1 0 2 3 3 2 1 0 0 2 2 2 2 1 2 1 3 0 3 2 1 2 3 1 1 3 2 2 1 1 0 2 3 1 1 2 1 2 4 2 2 1 1 2 0 3 1 1 1 0 0 1 3 1 2 2 2 1 2 0 2 1 2 2 1 1 2 2 0 4 1 0 1 1 1 1 4 4 1 0 0 1 0 2 1 3 3 3 0 0 0 2 1 0 1 0 1 1 4 2 0 0 1 1 0 1 0 1 1 2 2 1 2 2 2 1 1 1 2 2 2 3 2 1 1 3 2 1 1 1 3 1 1 1 1 0 1 3 1 1 1 0 1 3 1 3 1 0 0 2 1 0 1 1 0 2 2 1 1 2 2 2 2 2 1 1 0 1 2 1 0 1 1 3 1 1 2 2 1 2 2 3 1 2 0 1 3 2 0 2 2 0 2 4 2 2 1 3 1 1 2 2 3 1 2 1 1 3 1 0 1 2 1 0 2 0 3 2 0 2 0 1 1 2 1 0 1 1 2 0 1 3 4 1 3 2 2 0 0 0 1 2 2 2 2 0 1 1 2 1 1 1 2 2 2 1 1 4 1 2 1 2 1 2 1 2 2 1 3 1 0 3 1 3 0 2 1 0 3 1 2 0 2 2 3 0 1 2 2 1 4 2 0 0 2 0 0 3 2 3 2 1 1 1 2 3 5 3 1 1 4 4 1 1 3 2 3 0 2 2 3 1 1 0 2 2 1 0 1 1 3 1 2 0 0 3 1 1 1 3 3 2 3 0 3 0 2 1 2 1 1 1 1 2 1 1 2 1 1 2 1 0 1 1 1 1 1 3 2 4 2 2 2 0 0 3 1 3 3 3 2 3 0 3 4 3 2 2 2 2 0 1 0 1 1 0 5 2 0 1 3 1 3 3 1 1 0 2 3 2 1 1 0 1 1 1 1 2 3 3 3 1 2 0 1 3 1 1 2 1 2 2 0 1 1 2 3 2 1 2 3 2 1 2 2 2 2 2 3 1 3 1 0 0 2 1 2 0 1 2 1 1 1 2 1 0 1 1 4 1 3 3 0 2 3 1 0 2 1 1 0 4 0 4 1 1 2 2 1 2 2 1 2 2 5 2 2 4 2 1 2 2 2 2 2 2 2 3 1 0 4 1 1 2 2 3 1 0 0 1 3 0 1 2 1 2 3 2 1 3 2 0 1 2 2 0 3 1 1 1 2 0 1 1 2 2 1 2 1 3 1 2 1 3 1 3 2 1 2 2 3 0 1 2 4 2 2 1 1 2 3 2 2 0 3 4 1 3 1 2 0 0 1 2 1 0 2 0 3 1 0 0 1 2 1 2 1 2 3 2 2 2 1 0 0 1 2 4 0 2 2 3 2 2 3 3 1 1 0 1 1 1 2 2 1 3 1 2 1 2 1 3 2 1 0 1 0 3 2 0 0 1 2 1 0 1 4 0 1 1 2 2 2 2 1 1 2 1 2 2 2 1 1 1 0 1 2 1 0 2 2 3 1 0 3 0 2 3 1 4 2 2 3 2 2 1 1 0 0 3 1 3 1 3 1 2 2 3 1 0 0 1 1 4 2 3 1 1 0 2 2 3 2 0 0 0 1 1 1 1 2 3 0 1 2 4 3 1 1 2 0 2 0 2 1 1 1 3 0 3 0 2 2 4 1 2 2 1 2 3 3 4 1 1 1 1 2 1 1 2 1 2 2 4 0 5 2 0 2 1 0 2 2 4 3 2 2 1 1 1 4 2 1 2 2 2 0 3 1 4 2 2 1 3 2 2 3 1 2 1 3 3 1 0 3 3 3 1 1 0 1 2 2 3 2 3 1 1 1 3 3 1 1 0 1 2 1 1 2 2 1 2 1 1 1 3 0 1 0 2 1 4 1 0 3 1 2 3 1 3 3 0 1 3 0 2 2 1 3 0 0 1 1 1 3 1 1 2 0 4 1 1 0 1 1 3 0 2 1 2 1 3 1 1 3 5 2 2 2 2 2 1 1 1 1 2 1 2 3 3 3 1 1 1 0 2 3 1 2 1 1 1 1 1 4 0 1 2 1 4 2 0 2 2 1 1 2 3 3 0 3 1 1 2 2 3 4 1 3 3 1 3 0 2 3 1 0 0 2 2 2 1 2 2 1 2 1 2 2 2 2 2 1 1 0 1 2 0 2 2 2 1 1 3 2 0 2 2 2 3 3 2 3 3 3 0 2 2 1 1 1 1 0 3 2 0 1 3 1 0 2 2 0 1 2 1 2 2 1 3 0 3 3 1 2 2 2 2 1 2 1 2 1 1 2 1 4 3 1 2 3 4 4 2 0 0 0 1 1 4 2 1 2 1 1 1 1 2 0 1 4 1 1 0 0 2 1 2 4 2 3 2 2 2 1 1 1 3 1 1 2 2 2 2 1 3 1 2 0 2 2 2 4 3 1 2 2 0 1 1 1 0 1 4 4 1 2 1 1 1 2 1 2 0 2 2 3 3 1 2 2 1 2 2 2 2 2 1 2 1 1 1 1 2 2 2 2 2 1 2 1 0 0 2 4 1 0 2 1 3 2 0 0 2 2 4 2 3 2 2 2 1 0 3 1 2 2 4 1 1 4 2 1 2 1 1 2 3 3 1 2 1 4 2 0 2 3 2 2 1 0 4 1 1 1 1 2 3 0 0 1 1 2 2 1 2 4 0 2 1 0 1 1 1 1 1 2 0 0 1 2 3 2 3 1 2 1 0 2 2 2 1 1 0 1 2 3 0 1 2 0 2 2 0 3 3 1 1 0 2 2 2 3 1 0 2 2 1 1 1 1 3 1 3 1 1 2 0 3 2 1 4 0 1 2 1 0 1 1 1 1 2 1 1 2 2 1 4 1 2 2 4 4 2 0 3 0 0 0 0 1 3 1 1 1 2 2 2 3 1 3 3 1 1 3 3 1 2 0 2 1 1 0 3 1 1 2 2 2 2 2 3 3 1 2 4 2 1 2 3 2 3 1 1 1 0 1 1 0 1 0 1 0 1 3 2 1 1 2 5 1 0 3 2 2 1 0 3 0 1 1 1 1 1 2 2 1 3 1 1 1 1 1 1 1 0 3 2 1 3 1 2 2 2 1 1 0 2 2 1 2 2 4 3 1 2 1 2 0 3 0 3 1 1 3 3 2 2 1 2 1 0 2 3 3 3 3 2 1 1 4 2 1 3 2 1 2 2 1 0 1 1 3 1 3 0 2 0 2 3 1 2 2 2 1 2 2 3 2 3 1 3 1 2 1 3 1 1 2 2 1 1 4 2 0 0 1 1 3 0 0 2 0 2 0 1 2 2 4 3 2 2 1 2 2 1 1 2 1 3 2 0 1 1 3 3 2 2 1 1 0 0 1 0 0 2 2 1 1 3 1 1 0 0 0 2 3 2 2 1 2 3 2 0 2 4 2 2 2 1 1 2 1 2 1 1 1 0 2 1 1 2 1 2 1 4 4 4 2 1 1 2 2 1 0 0 2 2 2 3 0 2 0 3 1 1 3 1 4 0 2 1 2 2 1 0 1 2 0 2 0 2 2 2 2 2 2 0 2 0 2 1 1 1 2 1 1 2 3 1 0 2 2 1 2 0 1 1 0 2 2 0 1 1 2 4 2 0 2 0 1 1 2 3 2 1 1 2 5 0 3 2 1 0 1 2 1 0 2 1 3 2 0 3 2 0 1 0 1 1 3 4 1 1 1 1 3 0 3 2 2 2 3 1 2 1 2 1 0 2 1 2 2 2 4 2 1 1 0 1 0 2 1 0 1 1 5 3 2 1 2 0 1 1 1 4 0 2 2 3 1 3 2 1 2 2 1 0 4 2 3 3 3 3 3 2 3 4 1 3 1 0 2 1 3 2 3 2 1 3 1 2 1 1 4 2 1 1 3 1 2 1 1 3 1 2 1 0 1 2 1 3 1 1 1 2 3 4 1 2 2 1 0 2 0 2 0 0 2 3 1 1 3 1 0 1 2 0 2 2 0 2 3 3 0 2 1 2 0 2 2 2 2 3 1 1 3 3 0 0 1 3 2 1 1 2 0 4 2 2 1 1 3 2 2 1 3 0 1 1 1 2 1 1 1 1 2 1 2 3 2 3 2 1 2 3 3 1 1 1 2 0 2 1 2 2 1 4 2 2 1 2 2 2 1 1 2 3 1 1 2 2 1 1 2 1 1 0 2 2 2 2 2 1 5 1 4 1 3 2 1 0 1 2 0 1 3 3 0 2 0 1 0 4 1 1 0 1 2 2 1 4 1 1 2 1 1 3 1 2 1 1 1 2 2 2 1 2 3 0 3 1 2 3 1 2 4 1 1 2 2 0 2 0 3 3 1 3 0 1 2 2 0 2 2 1 1 2 3 1 2 2 2 0 2 2 2 1 2 1 2 2 1 1 2 0 1 1 3 2 2 1 2 2 1 1 3 1 3 1 2 1 3 2 2 0 0 2 0 2 1 2 1 0 2 3 0 2 2 1 1 1 1 1 0 1 3 2 1 1 1 0 2 1 1 2 2 1 2 2 3 2 1 2 2 3 0 3 1 2 2 2 2 1 2 2 2 0 1 1 1 3 1 1 0 0 1 2 3 0 1 1 2 3 1 1 3 2 3 1 1 1 1 1 0 3 1 3 4 1 3 1 1 3 0 2 5 2 2 1 1 1 3 1 3 1 0 3 1 0 1 2 0 1 2 2 2 4 2 1 1 1 2 3 1 1 1 1 1 1 2 0 3 2 1 4 2 1 1 1 1 0 4 2 2 1 2 1 0 4 1 2 2 0 2 1 2 2 1 1 0 3 3 0 2 4 1 2 2 2 1 0 1 2 1 0 5 1 1 3 2 3 1 2 3 0 1 1 1 2 1 2 2 1 0 1 1 1 1 2 1 2 1 0 1 2 3 2 2 4 3 3 1 1 1 1 1 1 3 2 0 1 3 2 0 2 3 3 0 1 2 2 1 3 2 0 3 3 4 1 1 3 1 2 2 1 1 0 1 2 2 1 3 3 2 2 1 3 1 2 2 3 2 2 1 1 2 1 2 2 1 1 0 1 0 2 1 2 0 1 2 2 3 5 1 2 0 1 1 1 1 0 4 0 0 3 1 2 1 4 2 3 1 0 2 1 1 1 0 2 2 1 1 0 3 3 4 3 2 1 0 2 2 3 3 1 2 3 2 2 1 1 0 2 1 3 2 1 2 2 0 2 0 1 1 1 2 2 0 2 2 1 1 2 2 1 4 0 1 2 1 1 2 2 0 0 3 2 2 3 1 2 1 1 2 1 0 3 1 1 4 2 1 2 1 1 1 2 3 2 0 2 2 1 3 0 1 1 1 1 1 2 0 2 1 1 0 2 1 0 2 2 2 3 3 1 0 1 2 1 2 2 1 3 2 3 2 2 2 1 0 1 0 2 3 3 3 1 1 1 1 2 0 2 3 2 2 2 1 2 3 2 2 2 0 2 2 0 2 2 3 1 1 2 0 1 1 2 0 1 0 1 1 3 1 0 1 1 2 2 2 2 3 2 1 1 0 3 2 2 1 2 1 1 1 4 1 0 1 2 3 1 1 1 2 1 2 1 1 2 4 2 3 4 2 2 2 2 2 3 3 0 3 3 2 3 3 1 1 2 4 2 0 0 3 2 0 1 3 1 1 0 1 0 4 0 0 0 1 3 2 2 2 1 1 1 3 3 0 3 2 0 2 3 1 3 3 0 1 0 1 2 2 1 1 2 1 1 1 2 2 2 2 0 1 3 0 0 1 3 0 3 0 1 2 4 2 1 3 0 3 2 0 3 0 2 4 2 2 2 0 2 2 2 2 2 0 1 1 1 1 0 3 0 0 1 2 1 0 3 3 2 1 2 2 1 2 3 3 3 2 0 2 2 2 0 1 0 1 0 2 1 2 1 1 1 2 1 2 2 2 0 2 0 1 1 1 0 2 4 2 3 1 1 1 1 4 0 1 0 0 0 1 2 2 2 2 1 2 1 3 1 1 2 0 1 0 0 5 0 3 2 2 0 2 2 3 3 2 2 1 1 2 1 2 1 1 2 2 1 2 1 1 1 2 1 5 2 0 2 1 3 3 0 3 2 0 2 2 1 3 3 0 2 1 2 1 3 1 1 3 0 2 1 3 0 1 2 0 1 1 2 2 1 1 1 1 2 1 2 1 1 0 0 2 1 3 3 3 1 1 1 1 2 3 2 1 1 0 0 3 2 0 2 2 2 2 0 2 2 0 0 2 3 1 2 1 1 0 1 0 2 1 0 1 0 0 2 1 1 1 2 1 0 2 2 1 2 1 2 1 4 0 1 3 2 0 4 3 2 3 4 1 2 0 1 0 3 3 1 1 2 1 1 3 2 1 0 1 2 2 2 1 0 1 1 3 2 2 4 0 3 3 1 4 3 3 1 1 2 1 1 0 0 4 2 2 1 2 1 0 0 0 2 2 2 3 1 1 0 1 0 0 2 1 2 0 3 4 2 2 0 2 3 0 2 1 3 3 2 2 2 2 1 1 1 2 2 1 1 4 1 1 1 4 0 1 0 0 1 1 3 1 3 2 0 3 2 1 0 1 1 2 2 1 2 0 3 2 0 2 0 0 2 1 0 2 2 1 1 3 1 3 2 1 0 2 2 1 2 2 2 1 2 0 2 2 2 1 2 2 2 1 1 1 1 1 1 2 1 2 0 1 0 1 1 3 2 3 2 1 3 1 2 2 1 1 1 2 1 2 3 1 2 1 0 2 2 1 3 0 0 2 0 2 1 2 2 3 2 3 3 3 4 1 0 1 3 3 1 1 1 1 2 3 2 1 2 3 1 1 2 2 1 1 2 3 1 1 3 2 2 0 2 1 2 1 1 3 2 2 2 2 1 1 0 2 1 3 2 3 1 1 2 3 4 2 1 2 2 0 1 2 3 0 1 2 0 1 1 0 0 1 1 1 1 3 0 1 0 2 1 2 0 1 4 1 2 1 1 0 1 1 2 3 1 2 1 1 2 1 1 0 3 1 3 1 0 1 3 0 2 1 3 3 1 0 0 3 1 4 0 1 1 1 1 1 1 1 1 2 1 2 0 2 1 0 2 2 1 2 3</t>
-  </si>
-  <si>
-    <t>GAM(0.28324896920804427, -1.0321988351783567e-28, 0.4743372907834543)</t>
-  </si>
-  <si>
-    <t>0 1 0 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 1 0 0 0 1 0 0 3 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 2 0 1 1 0 0 1 1 2 0 1 1 2 0 0 0 0 0 1 0 0 1 0 0 0 0 1 2 1 0 0 1 0 1 1 0 0 1 0 1 3 0 0 0 0 1 0 2 0 2 1 0 0 0 0 0 0 0 0 0 1 0 0 1 1 1 0 2 0 0 1 0 1 1 0 2 0 0 1 0 0 1 1 0 0 0 0 1 1 0 0 3 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 2 0 0 0 0 0 0 0 0 0 1 0 1 1 1 1 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 1 2 1 1 0 0 0 0 0 0 0 0 2 0 0 1 2 0 0 1 1 0 0 1 1 0 1 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 1 1 1 0 0 0 0 0 1 0 1 0 0 0 1 1 0 1 1 0 2 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 1 0 0 0 0 1 1 0 1 0 0 1 0 1 1 0 1 2 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 2 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 1 0 0 2 0 1 2 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 2 2 0 0 0 0 0 1 0 0 1 1 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 2 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 2 1 0 0 2 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 2 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 1 0 0 2 0 1 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 1 1 1 0 1 0 0 1 1 0 0 0 0 2 1 0 0 0 1 0 1 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 2 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 2 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 1 0 0 0 0 1 0 2 0 0 1 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 1 0 2 0 2 0 0 0 0 0 1 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 1 0 1 0 0 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 1 0 1 1 0 0 1 0 1 0 0 0 1 1 1 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 1 0 2 1 0 0 1 0 0 0 1 0 1 0 0 2 0 0 0 1 0 0 0 0 0 1 0 0 1 1 0 1 1 1 2 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 1 0 1 0 2 0 0 0 0 0 1 1 0 1 3 0 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 1 1 0 0 1 0 1 2 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 1 0 0 0 0 1 0 1 1 1 0 0 0 0 1 1 0 1 1 0 0 2 1 0 0 0 1 1 0 0 0 2 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 1 1 1 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 2 2 1 1 0 2 0 0 0 0 1 0 0 0 1 2 1 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 3 1 1 1 0 0 2 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 2 0 1 1 0 1 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 2 0 0 0 0 1 0 1 0 0 0 0 2 0 0 1 1 0 1 0 0 0 0 0 0 2 0 0 1 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 1 1 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 2 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 1 1 0 2 1 0 0 0 0 0 1 0 1 1 1 3 0 0 0 2 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 1 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 2 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 1 2 0 1 1 1 2 0 1 0 0 1 0 0 2 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 0 0 1 0 1 0 1 0 1 0 0 0 0 1 1 3 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 1 2 0 0 2 0 0 0 1 0 0 0 0 1 1 0 0 2 1 1 0 0 0 2 0 0 1 0 0 2 0 0 1 1 1 0 1 1 1 1 2 0 0 0 0 1 0 1 0 1 0 0 0 2 0 2 1 1 1 0 0 0 1 2 0 0 2 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 2 0 1 0 0 0 0 1 1 1 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 1 1 2 0 0 0 0 0 0 0 0 0 0 2 0 0 2 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 1 1 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 2 0 0 0 1 0 0 1 2 0 0 0 0 0 0 0 0 0 2 1 0 2 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 1 0 0 1 1 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 2 1 0 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 2 1 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 1 2 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 1 0 1 0 2 2 1 1 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 2 0 0 1 1 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 3 0 0 0 0 0 0 1 0 0 0 0 0 1 0 2 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 1 2 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 1 1 0 0 0 1 0 2 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 3 0 0 1 2 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 1 0 1 1 0 0 1 0 1 0 0 0 3 0 1 0 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 1 0 0 0 0 3 1 0 0 0 1 0 1 0 0 0 1 0 0 0 1 0 0 0 0 2 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0 1 2 1 0 0 0 1 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0 1 1 1 1 0 0 2 1 1 1 1 0 0 0 1 0 1 0 0 0 0 2 1 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 2 0 1 0 0 0 0 0 1 0 1 0 1 2 0 0 2 0 0 1 0 1 0 1 2 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 2 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 2 0 0 1 2 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 2 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 2 1 0 0 0 1 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 2 0 0 1 1 1 1 0 1 0 0 0 0 2 1 2 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 1 0 1 1 0 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 3 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 0 2 1 1 0 0 0 1 0 0 0 0 0 1 0 2 1 1 2 0 1 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 2 1 1 1 1 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 1 0 0 0 0 0 0 1 1 0 0 1 1 1 0 0 0 1 0 0 0 0 2 0 0 1 0 0 0 2 0 0 0 0 1 0 1 1 1 1 3 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 1 1 0 0 1 1 0 0 2 1 1 0 2 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 1 1 1 0 1 0 1 1 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 0 1 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 3 0 1 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 2 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 1 0 0 0 0 0 1 1 0 0 0 2 1 0 0 0 0 0 0 0 1 1 0 0 2 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 1 0 0 0 2 0 1 0 1 0 0 0 0 2 1 0 1 2 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 1 4 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 3 1 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 1 1 1 0 1 0 0 0 0 0 0 0 2 0 0 0 1 0 0 2 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 2 2 1 0 1 0 2 0 0 0 1 0 0 1 0 1 0 1 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 2 0 0 0 0 0 0 0 1 1 1 1 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 1 1 0 2 0 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 0 2 1 0 1 0 0 2 1 1 1 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 0 1 0 1 0 1 1 0 0 0 1 1 1 0 0 1 0 0 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 0 1 1 1 1 0 0 1 1 0 1 0 1 0 0 1 0 0 1 0 1 0 1 0 0 1 1 1 0 1 0 1 0 1 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 2 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 1 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 1 0 0 2 1 1 0 2 0 0 1 0 0 1 0 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 2 0 1 2 0 1 0 1 1 0 0 0 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 4 0 0 0 2 1 0 0 0 0 0 0 1 0 0 0 0 2 0 0 2 1 1 0 1 0 1 0 1 0 1 0 0 0 2 0 0 2 0 1 0 0 1 0 0 0 2 0 0 0 1 1 1 2 0 0 1 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 2 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 2 1 1 0 0 0 1 0 0 1 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 1 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 1 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 2 1 1 1 1 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 1 0 0 0 2 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 2 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 1 0 1 0 1 0 0 1 0 2 0 2 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 2 0 0 1 0 0 0 0 1 1 0 1 0 0 1 0 0 0 2 0 0 2 1 0 0 0 2 0 0 0 0 0 1 0 0 1 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 3 1 0 1 0 1 0 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 2 0 0 0 0 1 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 2 0 1 1 0 0 0 1 1 0 1 0 0 0 1 2 0 1 0 0 0 0 1 0 0 0 0 0 1 1 1 0 0 1 0 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 1 1 0 2 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 1 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 2 0 0 0 1 0 0 1 1 1 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 1 1 1 0 1 1 0 0 1 0 1 0 1 0 1 2 0 2 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 2 0 1 1 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 3 1 1 1 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 2 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 2 1 0 0 0 1 0 0 0 0 0 0 3 1 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 1 0 0 1 1 0 1 0 0 1 3 0 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 1 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 1 1 1 1 0 0 0 1 0 1 1 1 0 2 0 0 1 0 0 0 1 1 0 1 1 0 0 1 1 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 1 0 0 0 2 0 2 0 2 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 2 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 2 1 0 0 0 0 3 2 1 0 1 0 0 0 1 0 1 0 0 0 3 0 1 0 0 0 1 0 0 0 0 0 2 0 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 2 0 0 0 0 1 0 0 2 1 0 0 1 0 0 1 0 0 1 1 0 1 1 0 0 0 1 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 1 0 2 1 0 1 0 0 2 0 1 0 1 1 0 2 1 0 0 1 2 0 0 0 0 1 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 1 0 1 0 0 2 0 0 1 3 1 1 0 0 1 1 0 2 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 1 0 0 0 1 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 1 0 0 1 1 0 0 0 0 1 0 0 0 2 0 0 1 1 0 0 0 0 1 0 0 0 1 0 0 1 1 1 0 0 1 0 0 0 2 2 0 1 0 1 1 0 1 0 0 0 0 1 1 0 0 0 2 0 0 0 1 0 0 0 3 0 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 1 0 1 0 1 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 1 3 1 0 0 0 2 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 2 0 2 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 1 1 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 1 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 2 0 0 0 1 0 0 0 0 2 0 0 0 1 0 0 0 0 1 0 1 2 0 0 0 0 0 0 0 0 0 0 1 0 2 0 1 0 1 1 0 0 0 0 2 0 0 0 0 0 1 0 1 0 2 0 0 2 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 2 3 1 0 2 0 0 0 1 0 0 0 0 0 2 0 1 2 0 0 0 0 1 0 1 0 0 0 0 1 2 2 0 1 0 2 1 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 1 2 0 1 1 0 0 0 0 1 1 1 0 1 1 1 0 1 0 1 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 1 2 0 1 0 0 0 0 0 0 0 2 1 1 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 2 0 1 1 0 1 0 1 0 0 0 1 1 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 1 0 0 1 0 0 0 0 0 1 1 1 0 0 0 0 1 1 1 0 2 0 0 1 0 0 1 1 0 0 1 0 0 1 0 0 0 1 0 0 0 2 1 1 0 0 2 0 1 0 0 0 1 0 1 1 0 1 1 0 1 0 1 0 1 1 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 0 1 1 2 0 0 1 0 0 0 2 0 0 0 1 0 1 0 0 2 1 0 0 0 0 1 0 3 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 2 1 2 2 0 1 1 0 0 0 2 0 0 0 1 0 0 0 1 0 0 0 0 2 0 0 0 1 1 0 1 0 0 0 0 0 2 0 0 3 0 1 2 0 0 0 1 0 0 1 1 0 0 1 0 2 0 0 0 1 0 0 0 0 2 2 0 0 0 0 1 0 0 1 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 1 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 2 0 0 0 2 0 0 0 1 0 0 1 0 0 0 0 1 1 0 2 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 0 1 0 0 0 1 0 1 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 2 0 1 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 1 1 0 0 0 0 2 1 0 1 1 0 2 1 1 1 0 0 0 0 0 0 0 1 0 0 0 1 2 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 2 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 2 0 0 1 0 1 0 0 1 0 0 0 1 0 0 1 2 0 0 0 0 0 0 1 0 1 1 0 0 1 2 1 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 2 0 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 0 0 1 1 0 1 0 0 0 2 0 0 0 0 0 2 1 0 0 0 0 0 0 1 2 0 0 0 0 0 0 1 0 2 1 0 0 0 0 0 0 1 1 1 0 0 1 0 0 0 1 1 0 0 0 0 0 3 0 0 1 0 1 1 1 1 1 0 0 0 1 0 0 0 0 1 1 1 1 0 0 0 1 1 0 0 0 1 1 2 1 1 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 1 1 0 0 1 1 0 0 0 1 0 0 1 0 1 0 1 1 0 0 0 0 0 0 0 2 1 1 0 0 0 3 0 1 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 0 1 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 1 0 1 0 0 0 1 2 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 1 0 2 0 0 1 0 0 1 0 2 0 0 0 0 0 2 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 2 0 0 1 0 0 0 0 2 3 1 0 0 1 0 0 1 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 2 1 0 0 0 1 1 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 3 1 0 0 0 1 0 1 0 0 0 0 0 2 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 3 0 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 0 3 0 1 0 0 0 1 1 0 0 0 0 0 2 1 1 2 0 0 0 1 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 2 0 0 0 1 1 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 1 1 1 0 0 0 0 1 1 0 0 0 0 0 0 1 2 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 2 1 1 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 2 2 1 1 0 0 0 0 0 0 1 0 0 1 1 0 0 0 1 0 1 1 0 1 1 0 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 2 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 1 1 0 1 0 0 0 0 0 1 0 0 1 1 1 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 1 1 0 0 0 1 1 0 0 1 0 0 1 0 0 0 1 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1 0 1 2 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 1 1 0 0 1 1 0 0 0 1 1 0 1 1 0 1 0 2 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 1 0 0 1 0 0 1 2 1 0 1 0 0 1 0 1 1 0 0 1 2 0 0 0 0 2 0 0 0 0 0 0 0 0 1 1 0 1 0 1 0 1 0 1 0 1 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 1 0 2 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 1 0 0 2 0 1 0 0 1 0 0 1 2 0 0 2 0 1 1 0 1 0 1 0 0 1 0 0 0 0 1 0 2 1 1 0 0 2 0 2 0 1 1 0 1 0 0 0 1 1 0 0 2 0 0 1 0 1 0 1 0 0 2 0 1 0 0 3 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 1 1 0 0 1 0 1 1 0 1 1 0 0 1 0 2 1 0 0 0 0 3 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 2 1 0 1 1 0 1 1 0 0 0 0 1 0 0 1 0 0 0 1 2 0 0 0 0 0 1 1 0 0 0 0 1 0 1 0 3 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 1 1 0 0 0 0 1 0 0 1 1 0 2 1 0 1 0 0 0 0 2 0 1 0 0 1 1 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 2 0 2 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 0 0 0 0 1 1 0 1 0 0 1 0 2 1 2 1 0 1 3 0 0 1 0 1 0 0 0 0 0 1 1 1 0 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 1 1 1 1 0 1 0 0 1 0 1 0 0 0 0 0 2 0 0 0 1 0 0 0 2 1 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 3 1 0 2 1 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 0 0 1 1 1 0 1 0 0 1 0 0 2 0 0 0 0 1 2 0 0 1 0 0 1 0 0 1 0 0 0 3 1 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 1 0 1 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 3 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 2 0 1 0 0 0 0 1 0 1 1 1 1 0 1 0 0 0 1 0 0 0 1 0 0 0 1 1 0 1 1 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 1 0 3 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 1 0 0 1 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 1 1 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 1 0 0 1 0 0 0 1 0 0 1 1 1 0 1 1 1 1 0 1 0 0 0 0 2 0 1 1 1 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 1 1 0 1 0 0 0 0 2 0 0 1 0 1 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 1 0 1 3 0 0 0 0 1 0 1 1 1 0 0 3 0 0 1 0 0 0 1 1 0 0 0 0 0 1 1 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 1 0 1 1 0 0 0 0 0 0 2 1 1 1 0 0 0 0 0 0 0 0 0 1 2 0 1 0 0 0 0 2 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 1 0 0 0 0 0 1 0 0 3 0 1 1 2 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 2 0 1 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 2 0 0 1 1 2 1 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 1 0 0 0 0 1 0 1 0 0 0 0 1 0 1 0 1 0 0 0 1 0 1 3 0 1 1 0 0 0 0 0 0 0 0 0 0 0 2 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0 0 0 1 0 1 0 1 0 2 0 0 1 1 0 0 0 0 0 0 1 0 0 1 0 1 0 0 2 0 0 0 0 2 0 1 1 1 0 1 1 1 1 1 0 0 1 1 1 1 0 2 0 1 0 0 1 0 0 1 1 0 0 0 2 0 0 0 3 0 0 1 0 0 1 0 0 1 1 0 0 0 1 1 0 1 0 1 0 0 1 0 1 0 2 1 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 1 1 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 2 0 0 1 0 0 0 1 1 0 2 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 1 0 1 0 1 0 0 1 0 0 1 1 0 0 0 0 1 1 1 1 0 0 1 0 1 0 0 1 0 0 1 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 1 1 1 0 0 1 0 1 0 0 0 1 0 1 0 0 0 0 1 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 2 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0 1 1 0 0 0 0 0 1 0 2 1 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 2 0 0 0 0 0 0 2 1 1 0 1 1 0 1 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 2 1 1 0 2 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 1 1 1 0 0 0 1 1 1 0 1 1 0 0 0 0 0 0 0 0 1 2 0 0 0 1 1 0 0 0 1 1 0 0 0 0 1 1 1 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 4 1 0 0 2 0 0 1 1 2 1 0 0 1 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0 0 0 1 1 0 0 0 2 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 0 1 0 2 0 1 0 0 1 0 0 0 0 0 0 0 1 1 0 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 1 1 0 1 0 0 0 0 0 0 1 1 0 0 1 1 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 1 0 0 1 2 0 1 0 0 0 0 0 1 0 0 1 0 0</t>
-  </si>
-  <si>
-    <t>GAM(51.50488053296535, -151.12272855849034, 4.954589377111681)</t>
-  </si>
-  <si>
-    <t>88 87 101 84 120 104 70 91 94 170 120 87 109 56 54 112 93 73 131 134 152 71 138 148 158 116 22 41 140 128 86 91 182 74 56 123 142 128 193 95 116 73 148 142 166 139 120 66 126 147 119 105 76 140 106 65 80 95 76 95 95 101 58 134 88 104 90 73 171 86 86 115 123 2 106 62 82 60 99 57 65 174 108 97 141 86 91 61 173 113 103 96 93 79 171 73 129 93 146 66 110 94 128 90 124 167 101 81 124 34 188 148 124 162 156 90 101 80 80 143 109 77 78 99 102 56 113 139 145 141 119 117 124 138 124 121 144 49 95 88 108 212 104 92 97 134 49 106 94 127 124 115 137 108 112 101 142 36 128 108 125 128 108 51 138 133 113 90 81 132 106 106 78 17 120 119 73 92 112 56 21 72 118 175 165 114 130 127 73 71 134 188 106 103 132 92 91 115 58 97 191 121 149 117 97 89 117 127 88 100 126 110 58 121 107 119 65 145 65 131 111 90 41 149 129 130 157 116 163 79 104 95 149 66 66 119 114 129 65 105 79 137 105 82 76 59 118 88 92 75 137 48 114 126 128 173 64 82 108 139 86 133 150 84 140 149 141 36 101 69 95 42 115 70 77 225 126 88 114 182 45 127 34 175 178 60 94 80 133 128 137 116 98 59 138 100 49 96 44 62 81 110 44 63 146 144 71 133 29 42 76 79 78 134 45 123 72 123 30 88 83 91 98 79 119 62 128 104 71 104 44 71 166 84 116 40 50 114 110 123 96 124 109 83 129 95 108 132 98 95 73 75 45 149 57 82 111 88 99 63 77 132 134 94 144 109 53 101 112 85 55 226 114 102 139 97 98 140 79 104 72 91 112 156 84 76 144 87 70 169 107 68 82 122 98 134 106 82 127 146 163 56 53 164 115 141 62 93 170 54 34 191 164 114 146 163 90 113 129 122 121 108 54 128 89 92 97 198 123 85 74 128 154 103 109 107 202 128 99 119 107 127 149 125 87 106 42 141 103 119 92 139 134 137 158 101 48 72 99 127 120 71 99 76 70 120 87 61 203 114 138 133 86 54 90 138 23 164 81 98 90 96 119 73 131 93 79 101 155 85 61 61 96 37 78 95 76 120 181 111 70 76 133 126 229 56 53 98 143 69 170 106 143 155 171 132 79 71 145 112 84 137 126 163 125 134 152 132 36 118 95 114 142 93 106 110 155 102 131 99 131 99 99 128 111 109 170 179 93 130 75 48 133 155 124 98 90 147 122 181 13 85 152 96 182 105 170 101 62 104 57 41 139 150 125 90 96 133 144 105 92 142 115 65 102 158 157 106 69 125 87 183 150 154 106 86 91 144 48 111 136 164 59 75 70 52 39 63 146 93 79 62 84 48 184 60 128 56 92 111 154 97 135 173 152 102 84 35 89 130 103 131 124 30 65 139 105 111 66 157 141 115 70 127 95 56 104 114 154 113 104 84 99 92 111 118 94 97 52 101 117 116 142 88 119 120 152 57 150 125 63 46 111 122 159 98 175 42 111 118 130 142 131 123 124 57 126 87 128 103 80 117 64 137 104 178 112 110 136 84 107 84 129 121 143 83 121 90 83 139 39 142 105 146 110 116 69 116 53 69 127 148 84 115 139 47 56 115 36 129 90 110 66 127 144 83 141 94 75 45 121 104 118 121 57 117 78 132 51 131 74 117 110 82 103 91 134 73 93 112 150 108 81 82 75 97 133 169 121 124 60 96 71 57 73 126 70 65 73 106 110 126 109 114 152 136 90 84 73 132 134 87 52 118 129 119 120 131 126 153 57 146 109 86 64 44 93 153 122 85 176 151 121 71 134 75 92 86 50 75 57 126 90 82 87 122 125 119 132 101 83 77 186 140 174 89 89 81 22 145 52 64 101 176 131 134 84 89 81 75 95 100 118 123 162 144 118 156 58 142 153 119 98 157 135 168 83 76 91 48 93 57 65 60 79 104 127 111 23 124 61 29 105 91 66 121 92 43 117 159 78 97 67 114 138 133 114 62 138 71 84 88 78 39 117 19 118 141 145 137 75 127 67 75 86 75 125 128 101 120 120 76 61 138 99 98 160 89 108 118 99 146 34 52 43 101 104 113 127 102 112 89 27 108 138 116 120 71 83 111 128 67 114 92 155 177 105 94 102 160 162 70 100 44 183 184 101 97 70 83 110 95 71 124 59 108 41 124 31 160 194 55 75 74 51 89 136 117 106 96 107 56 135 87 121 96 89 118 157 96 107 118 142 54 70 158 68 106 88 87 133 125 166 60 111 137 102 85 103 98 88 93 104 111 100 198 89 92 141 137 83 162 114 71 102 81 156 93 107 193 103 82 131 89 99 169 91 171 108 115 40 104 149 146 53 63 84 122 63 54 87 77 150 106 141 157 106 79 121 102 83 85 140 123 72 68 119 10 77 71 142 116 74 124 125 116 137 94 130 143 73 172 175 180 95 92 88 148 124 114 89 86 52 106 109 115 68 65 34 85 149 155 87 109 134 122 117 69 92 101 80 153 21 56 132 179 132 128 99 72 81 89 101 132 155 60 87 101 137 120 59 128 184 77 89 105 99 126 86 195 53 100 42 113 83 102 14 96 133 67 127 140 94 46 50 94 140 78 97 144 75 118 174 127 99 71 41 56 97 105 38 89 100 73 98 144 83 40 88 108 66 111 95 65 125 124 53 124 90 117 167 43 163 89 23 188 158 126 104 125 84 128 103 142 127 63 95 81 70 38 101 119 115 29 73 127 165 163 131 76 100 123 87 106 113 125 141 40 147 93 145 89 119 85 138 94 125 80 128 145 60 55 50 76 97 84 112 104 71 77 121 100 114 125 143 85 130 36 102 71 90 126 97 63 159 158 138 87 63 19 113 114 56 84 80 126 136 151 152 153 108 106 128 73 98 80 121 128 76 94 92 113 124 117 114 124 113 80 61 80 118 59 72 105 124 122 120 103 196 144 145 99 97 90 70 60 104 143 95 74 76 84 94 103 159 43 103 159 147 68 114 66 92 43 134 117 57 139 83 142 65 53 102 62 71 127 117 81 108 105 42 121 93 63 97 124 124 83 124 61 135 157 107 71 50 97 53 44 81 49 93 103 89 106 124 57 87 125 138 128 94 49 77 82 177 42 81 43 133 189 92 63 83 61 104 95 119 145 155 82 62 74 74 78 108 158 119 67 77 90 74 96 112 76 98 92 50 109 56 58 54 25 91 51 110 99 112 87 31 184 99 49 96 99 65 116 99 163 53 92 101 104 90 135 125 104 147 107 110 104 140 76 123 73 36 109 196 113 115 128 164 124 148 59 78 119 143 130 70 96 121 101 95 105 112 107 85 73 84 120 107 94 111 72 48 78 71 121 126 31 83 102 116 43 98 124 76 70 123 100 103 93 175 141 121 76 105 144 103 140 156 41 55 74 172 137 110 55 122 105 142 94 116 129 69 97 109 111 96 66 71 104 97 129 111 62 127 114 144 102 82 95 146 156 69 118 142 78 101 143 116 86 83 39 131 112 21 41 84 94 119 97 162 194 109 74 72 103 110 77 63 140 107 97 117 81 87 43 38 118 120 132 66 43 110 85 126 122 103 127 128 103 82 41 105 77 83 156 106 112 62 41 170 152 111 119 41 112 87 86 133 93 121 115 105 148 152 148 94 96 14 134 104 85 104 189 130 61 152 110 119 108 114 158 74 91 184 97 152 84 145 112 121 74 81 56 162 28 62 72 158 129 117 179 118 106 84 138 79 131 122 93 168 52 103 182 136 48 48 54 121 62 159 100 55 76 138 106 92 113 113 80 139 130 181 110 105 119 85 97 111 98 132 179 88 99 122 144 76 83 137 151 85 49 61 133 148 70 88 98 132 105 75 167 57 99 148 75 35 117 52 109 146 60 141 106 157 167 75 81 101 88 86 92 120 41 79 218 85 112 113 71 102 74 102 141 105 121 148 75 114 131 174 50 63 72 139 125 99 135 108 94 95 140 70 96 106 65 114 124 80 81 153 120 69 93 124 112 75 79 143 106 85 75 116 117 44 89 63 79 64 107 97 103 184 110 37 146 134 92 99 157 78 79 199 131 80 96 93 123 111 175 89 96 134 143 87 108 110 124 46 23 124 188 145 115 70 135 135 58 104 104 137 64 100 32 117 104 173 85 36 45 80 115 81 96 115 100 169 139 95 40 78 56 140 150 78 79 96 58 113 93 96 110 130 77 85 69 149 137 149 108 124 76 97 78 100 78 153 106 96 98 115 83 149 131 109 56 155 43 63 76 129 172 73 74 97 86 78 72 123 106 97 130 97 108 116 132 122 39 88 109 34 70 94 47 121 51 84 81 81 103 139 115 135 100 123 91 143 99 112 231 86 156 85 115 126 56 66 62 93 70 133 134 153 99 133 162 75 81 120 68 93 85 100 102 55 123 121 126 98 66 134 76 43 121 106 97 68 120 92 99 79 108 63 124 76 101 96 80 49 109 69 124 127 73 90 75 37 63 126 148 65 90 70 117 76 126 103 81 184 70 41 106 175 86 119 45 117 125 94 126 55 85 119 108 72 131 133 98 98 79 142 75 137 68 69 136 132 86 151 93 122 123 124 144 109 81 103 94 82 114 130 78 123 40 40 131 147 83 143 108 143 93 84 123 73 125 107 91 116 185 134 62 146 149 123 63 98 83 85 61 85 117 86 120 91 126 200 183 58 108 84 63 128 53 56 59 150 84 159 157 147 58 136 108 53 95 139 79 61 80 106 87 66 121 82 117 20 96 61 109 127 49 116 136 100 91 39 104 86 128 169 121 56 88 90 113 49 152 82 179 124 84 154 108 91 110 86 137 88 84 101 102 70 62 138 122 92 71 38 145 137 99 95 80 127 89 99 125 101 69 120 123 109 157 114 127 113 40 145 125 90 80 70 163 139 143 94 115 127 161 112 76 99 112 99 110 131 135 110 80 169 104 87 74 115 46 133 120 185 50 118 165 129 105 106 93 91 55 73 146 90 78 114 88 107 136 88 58 193 100 129 138 177 62 125 140 179 98 102 174 109 93 72 161 59 75 109 119 88 97 92 146 113 87 87 115 89 69 117 49 109 73 77 154 67 90 174 122 82 24 77 87 141 168 54 149 98 108 126 147 68 88 59 110 67 137 105 122 91 78 119 87 77 109 86 67 101 111 42 83 66 68 58 40 175 106 129 86 156 114 127 89 94 87 150 80 114 100 153 73 124 70 148 71 116 79 68 117 63 78 67 99 106 65 115 87 113 155 176 32 144 78 137 75 79 52 26 159 116 88 84 144 170 112 116 96 144 34 114 30 98 65 68 75 111 52 105 54 50 105 29 67 143 102 73 125 50 86 100 112 174 76 43 123 50 56 13 82 137 160 49 93 89 102 114 116 112 173 73 72 96 129 150 73 132 115 117 59 92 135 54 108 98 100 85 45 145 116 98 86 59 119 61 128 45 137 88 83 85 158 103 91 113 147 92 120 87 86 128 66 64 116 148 88 46 52 116 109 118 110 185 119 61 67 123 141 100 109 153 81 123 98 140 98 114 112 75 121 224 134 88 122 132 85 130 120 46 108 100 182 87 109 70 64 165 95 83 103 132 59 124 114 33 170 50 116 86 161 127 59 137 161 92 74 127 63 129 69 41 79 85 104 138 95 131 173 121 91 58 132 87 137 91 108 68 36 105 104 141 100 134 90 72 91 115 89 87 97 155 146 114 107 110 70 108 163 163 80 98 32 49 119 56 81 117 112 34 114 165 51 205 78 65 108 105 163 95 110 92 90 162 63 142 109 69 89 169 44 126 52 166 70 118 58 67 119 185 75 112 9 105 106 87 113 92 72 99 119 163 86 123 158 79 135 112 116 146 42 28 56 90 38 117 43 124 36 150 89 137 98 106 101 89 77 82 124 122 62 92 49 120 104 87 61 126 107 84 55 54 101 125 75 75 94 81 124 101 94 114 133 146 123 96 114 47 127 85 143 94 90 79 102 92 56 122 106 118 72 88 80 116 97 107 111 126 139 111 69 152 94 125 135 112 179 59 97 95 113 114 129 57 82 41 125 116 58 117 79 123 50 212 146 124 138 218 138 45 66 109 63 150 171 121 106 152 44 122 98 79 79 98 116 134 76 149 96 138 81 133 86 108 136 106 119 156 92 149 104 108 46 129 109 110 140 80 98 112 109 106 64 137 126 77 136 92 94 75 122 169 144 98 139 141 123 116 77 154 70 94 110 133 88 171 69 113 162 108 83 95 69 48 101 97 160 98 93 137 170 106 99 64 58 129 97 53 89 76 112 59 115 67 43 87 129 115 65 93 97 102 96 69 104 110 62 79 56 70 27 124 164 131 91 50 88 56 113 125 123 79 159 129 67 137 100 119 83 104 110 86 151 124 112 70 129 68 90 98 110 141 120 121 105 85 168 173 144 100 227 56 120 65 90 99 108 45 138 45 140 125 120 43 152 109 35 80 128 19 219 94 166 59 148 132 109 62 120 89 106 144 111 125 97 69 70 77 107 125 101 100 86 121 100 159 127 36 128 159 140 129 78 106 51 76 61 73 90 137 51 109 103 142 48 134 126 51 89 94 142 83 141 98 90 137 44 120 62 141 78 133 84 151 125 112 80 133 157 158 97 94 63 72 126 69 133 167 91 134 125 115 115 199 93 84 94 161 139 135 82 83 67 88 129 118 89 110 132 119 113 138 95 81 116 78 88 119 108 106 154 146 97 152 175 80 178 52 62 103 127 96 92 155 125 166 124 111 77 76 113 47 86 109 92 94 139 37 20 113 105 50 200 74 94 97 100 60 22 97 157 93 167 173 120 95 52 50 85 155 53 82 69 84 161 43 100 97 131 66 92 86 120 131 70 115 61 127 97 110 111 123 124 129 62 79 87 99 59 76 123 128 138 75 120 96 120 90 83 107 91 101 35 70 93 109 159 65 94 133 82 161 160 116 70 127 120 82 64 174 104 60 120 52 84 91 98 118 122 87 100 108 154 88 86 90 92 124 92 160 58 66 127 87 131 152 129 74 205 39 136 86 64 60 162 86 112 92 117 65 143 140 77 87 73 161 142 47 105 159 79 135 106 161 142 74 117 140 77 68 110 68 162 103 94 116 88 67 82 135 92 112 95 152 130 90 81 56 113 155 81 100 86 47 24 117 71 132 101 87 76 104 61 63 128 23 78 116 160 82 106 64 88 123 132 205 131 109 122 113 77 132 99 132 131 155 66 122 122 69 130 87 140 169 90 73 195 92 62 138 57 92 106 29 41 94 44 100 82 70 74 138 128 84 53 106 97 85 89 128 81 42 86 89 132 154 63 172 87 110 152 166 129 118 40 55 66 65 141 104 56 170 162 58 55 63 105 95 98 144 51 192 110 129 78 76 185 84 78 74 98 96 79 164 122 31 66 142 109 29 36 51 98 48 123 103 81 136 114 139 152 92 76 108 142 113 124 35 102 97 138 100 34 62 82 67 143 78 69 90 68 130 102 63 108 137 81 124 140 106 123 155 91 108 171 58 133 128 139 83 49 125 152 56 79 100 76 101 102 65 148 41 83 112 164 147 113 115 130 125 75 94 137 168 119 21 67 143 159 129 68 118 116 103 136 48 211 85 102 74 123 100 114 94 87 156 157 97 96 77 123 77 80 40 161 92 160 82 90 81 120 159 107 84 148 172 106 70 123 110 91 195 76 109 114 119 174 70 184 122 37 109 147 127 128 101 122 77 130 117 105 91 76 72 128 64 81 67 92 91 202 150 98 109 105 25 111 156 66 188 137 168 84 95 111 136 101 144 67 181 114 70 117 99 97 74 117 107 124 130 139 136 36 73 123 68 115 86 80 87 73 91 142 47 51 113 163 132 43 68 57 106 131 150 134 68 108 115 90 156 26 66 121 126 155 135 84 103 90 117 99 64 78 83 102 94 130 150 215 133 91 44 91 85 46 127 120 60 118 100 87 63 75 41 90 189 100 88 155 124 34 71 58 60 102 73 121 167 130 79 88 171 47 102 120 133 103 99 133 114 174 54 127 110 57 75 73 152 130 140 86 124 111 129 68 142 76 101 90 114 153 112 105 214 132 125 70 120 95 101 93 127 65 81 66 104 101 64 113 95 118 37 67 90 77 141 135 90 93 112 89 199 13 101 127 80 104 100 144 117 197 135 224 120 92 122 108 132 98 126 94 126 149 106 119 48 206 135 77 111 50 102 153 104 142 145 120 118 95 119 136 50 117 67 116 99 103 119 67 133 66 64 48 105 45 141 126 93 123 99 63 101 90 77 120 93 79 53 66 157 71 128 131 111 111 82 44 66 114 44 124 148 127 68 133 36 21 138 93 116 59 61 100 83 105 123 88 33 151 118 78 79 123 90 164 106 68 123 132 144 83 129 49 20 59 77 82 172 55 122 60 124 124 59 137 153 40 110 121 110 78 153 48 95 91 56 90 98 75 113 109 121 107 79 97 126 68 85 64 146 108 114 82 51 75 108 134 146 98 125 86 146 74 42 97 50 153 105 95 112 101 140 76 65 122 160 97 85 165 130 56 132 72 103 130 95 88 61 88 110 102 122 62 76 108 95 80 138 71 148 144 109 69 117 118 144 180 94 80 102 107 124 121 66 41 99 153 98 89 62 73 94 36 99 88 135 81 109 92 72 165 152 115 136 130 138 165 75 131 75 79 147 108 52 108 81 123 124 98 90 39 80 108 90 87 102 118 118 110 154 171 108 46 89 94 86 147 195 76 36 73 68 142 125 104 139 140 56 92 122 56 87 65 57 166 107 38 66 152 121 29 102 92 151 46 141 100 27 119 102 97 79 51 101 114 111 106 98 86 52 84 98 202 182 58 73 115 82 100 27 96 54 103 71 56 93 101 52 137 103 129 90 141 41 93 135 129 149 81 79 144 64 97 96 91 155 99 59 46 104 84 79 96 73 93 108 125 68 127 134 82 96 67 115 127 128 135 124 59 42 85 159 109 71 102 128 84 159 92 102 105 99 46 119 131 77 111 124 121 115 114 97 130 78 76 90 137 100 140 111 114 121 76 21 79 91 182 102 74 33 66 155 126 141 157 98 120 143 117 93 117 42 140 93 69 135 160 53 67 95 190 43 73 87 57 66 43 101 118 73 113 154 95 121 130 148 103 102 245 89 67 95 119 68 37 73 60 104 179 172 136 97 76 87 123 76 122 81 98 170 55 130 91 99 47 60 137 127 87 80 70 85 131 60 132 123 97 95 147 137 122 116 129 98 114 96 86 117 78 108 106 119 115 109 41 73 130 111 120 123 90 126 93 114 122 109 63 66 124 116 106 138 127 61 112 127 52 138 116 126 73 72 73 151 92 116 118 104 111 114 117 74 115 151 83 140 113 89 156 89 146 97 41 65 80 94 85 64 33 107 38 38 142 77 46 53 110 107 41 91 97 94 74 47 70 77 92 139 28 209 61 88 125 108 115 73 199 157 132 124 160 179 37 25 76 142 67 56 101 40 91 66 93 99 86 83 131 127 130 159 133 182 40 89 87 83 85 79 75 50 72 133 89 88 90 124 104 124 111 126 86 80 48 127 108 78 174 97 54 159 105 101 72 77 25 58 67 112 125 121 80 43 88 34 83 123 198 56 162 63 109 60 71 98 120 129 170 136 69 154 24 118 144 125 125 135 90 129 73 60 138 102 99 90 99 63 125 132 85 81 79 67 162 71 40 87 155 117 122 131 88 116 83 94 143 103 127 133 58 118 40 119 142 148 61 30 131 121 95 80 100 79 48 133 42 172 82 97 77 126 156 106 145 90 97 99 64 90 226 81 143 81 66 82 157 100 58 101 129 184 80 121 103 64 95 71 89 61 91 85 114 67 131 168 170 60 88 53 154 168 102 92 117 134 65 168 58 92 57 151 100 109 120 70 80 158 113 74 105 138 138 96 92 136 78 181 95 56 95 119 128 44 89 130 76 66 105 114 89 74 122 132 104 135 97 56 104 59 89 77 140 88 137 122 87 169 171 87 138 45 126 146 123 181 143 125 104 78 116 120 63 123 152 119 59 130 99 164 85 65 87 106 65 98 113 68 93 103 57 95 88 118 149 79 128 114 26 48 71 141 122 136 105 99 104 101 124 63 155 137 175 47 137 136 96 184 94 137 79 72 128 138 143 75 126 53 155 63 67 81 102 142 88 180 123 149 115 90 69 146 117 152 130 160 162 98 110 105 105 127 51 88 119 170 137 164 130 85 40 76 92 120 191 102 143 108 122 85 122 89 79 130 96 99 37 104 44 132 69 116 102 103 149 96 116 69 136 107 53 76 65 80 89 85 183 110 124 105 86 104 116 171 100 70 92 122 85 108 149 112 101 108 145 44 110 98 89 109 125 108 119 66 89 84 67 114 148 107 137 71 178 94 96 79 119 82 139 89 74 111 168 115 108 183 104 188 82 116 106 93 96 94 106 154 48 128 78 128 99 122 89 123 83 90 121 89 56 122 81 93 143 99 113 87 157 87 128 63 122 137 141 121 120 152 65 157 139 106 62 49 61 163 85 91 59 73 61 101 71 161 46 147 61 71 105 151 114 138 81 116 97 123 91 160 110 100 56 140 93 125 97 155 113 110 71 111 124 67 84 113 92 111 129 98 79 129 146 96 101 120 82 94 57 127 66 86 138 68 39 68 96 109 135 114 115 54 82 174 68 180 82 101 176 95 131 128 32 99 79 57 61 179 103 99 115 104 102 196 80 123 111 83 113 78 138 67 113 202 181 90 166 199 149 98 148 47 65 111 71 100 169 74 136 67 63 120 147 124 75 92 91 44 92 71 64 64 129 77 101 97 111 69 84 101 114 144 117 142 149 54 74 111 72 161 173 112 93 142 72 118 126 134 101 100 103 124 52 92 95 197 144 67 140 167 101 92 170 92 76 100 151 132 84 87 92 110 135 112 92 91 85 134 71 104 119 67 131 46 64 156 117 140 79 111 118 103 100 101 158 62 70 100 102 125 177 95 104 35 125 129 116 145 98 151 11 71 109 40 57 87 109 113 71 140 95 85 92 119 70 95 156 123 65 95 102 81 43 114 87 132 92 100 104 102 72 143 119 84 55 134 64 82 108 96 73 96 108 33 127 93 106 67 87 66 156 109 117 78 121 99 64 102 157 96 131 66 161 110 99 187 47 152 124 115 99 107 13 149 50 79 148 71 184 66 153 131 97 42 40 88 171 188 147 74 149 152 83 114 128 135 137 129 128 121 148 117 123 117 106 56 72 60 171 59 145 110 80 125 96 122 95 134 96 120 163 161 114 96 73 59 105 129 99 109 140 57 104 38 112 111 99 116 29 163 116 116 159 94 123 134 158 151 175 80 51 70 94 163 112 147 78 100 67 126 88 85 175 66 85 122 119 121 67 137 91 127 106 67 28 106 139 127 87 101 128 60 151 92 54 123 75 60 108 137 81 80 169 143 89 108 144 143 77 143 111 55 62 24 108 103 78 107 106 171 54 125 128 140 107 101 64 52 101 78 138 107 116 142 32 65 119 77 73 156 80 159 140 80 150 71 87 99 105 126 104 229 88 75 85 117 194 80 143 62 103 150 138 122 113 124 80 57 177 121 107 101 112 127 96 128 110 144 60 88 102 189 51 126 70 102 107 144 125 117 58 38 186 107 93 133 101 112 77 91 77 72 73 109 82 95 96 127 128 60 141 125 41 100 79 51 121 155 133 91 74 117 155 88 84 110 122 52 78 127 84 93 53 97 73 137 80 121 135 65 35 125 53 115 62 102 120 108 123 49 64 106 115 67 79 63 68 107 55 135 120 111 67 127 116 134 80 97 106 69 101 68 110 183 97 132 49 126 134 125 103 84 9 169 182 113 131 123 85 77 111 99 116 112 107 214 121 102 108 106 108 155 57 88 70 108 131 86 112 26 151 102 112 126 151 103 118 99 45 116 161 85 140 87 144 110 153 65 49 181 127 46 28 71 126 120 129 139 92 45 57 98 164 116 136 94 29 48 68 84 195 47 99 137 143 115 41 144 96 120 95 143 150 161 99 100 150 104 122 181 75 120 101 104 69 127 78 169 97 105 167 61 121 90 107 157 108 145 116 100 47 77 136 49 87 106 128 124 139 220 27 88 96 97 88 126 148 124 92 145 94 148 100 79 67 65 141 138 48 83 63 77 107 97 110 112 132 125 108 48 96 101 96 175 90 127 85 108 75 116 138 94 134 59 94 41 104 93 130 56 126 77 37 76 120 164 170 56 72 97 58 117 118 76 22 113 29 132 137 151 182 106 112 53 59 115 90 159 83 80 71 81 170 90 78 183 128 84 166 163 64 126 91 98 126 64 98 106 113 78 69 139 159 65 108 113 91 133 96 88 79 102 95 87 20 70 102 80 100 103 119 116 118 84 85 101 114 112 123 184 120 111 125 71 94 132 39 75 87 98 125 122 102 86 121 76 120 100 158 99 95 82 69 109 142 46 124 76 54 47 96 81 104 95 112 68 114 107 19 58 42 27 76 182 155 94 145 64 151 112 80 143 85 118 57 129 127 77 130 89 113 97 99 104 146 98 131 140 143 136 79 142 30 115 95 181 104 112 54 187 124 158 88 105 127 115 89 30 99 98 84 71 99 127 131 85 122 71 115 66 79 102 173 97 119 107 82 108 136 89 93 141 82 94 63 119 130 108 204 87 74 126 110 117 69 141 144 115 94 107 71 125 84 114 124 44 33 106 100 185 117 57 55 160 73 114 105 108 99 132 145 63 84 134 145 131 114 160 60 112 109 155 112 170 92 74 111 99 100 124 117 159 196 162 142 40 50 67 103 62 96 89 72 54 60 83 98 119 121 183 107 67 60 99 100 93 76 104 88 73 153 135 76 84 95 149 140 121 74 60 93 159 119 157 18 132 96 111 198 115 80 142 48 99 79 102 118 49 171 33 126 87 49 140 140 124 90 69 84 66 95 120 124 62 84 91 179 72 96 140 63 79 131 164 28 84 136 108 135 130 108 72 124 131 80 135 97 131 99 112 146 100 112 147 154 120 174 109 109 66 100 85 141 85 108 85 104 99 53 172 58 103 124 109 92 110 151 158 35 161 127 83 78 114 118 157 73 128 147 131 134 237 117 142 138 78 57 91 136 136 140 76 150 90 -4 120 163 51 106 118 102 102 140 97 87 155 83 128 134 165 114 46 134 56 131 105 115 123 114 112 80 51 47 84 77 94 116 93 162 113 144 104 57 100 35 114 88 69 84 42 144 109 66 100 7 128 112 99 71 91 76 101 161 99 122 82 107 71 99 138 146 95 106 124 181 116 136 93 62 93 127 152 147 109 84 93 115 117 72 23 35 85 102 127 103 73 177 80 53 38 104 116 135 97 80 117 67 71 73 119 125 85 101 108 160 100 77 154 125 113 175 164 193 58 160 131 101 76 158 147 58 116 54 88 105 59 80 86 174 50 98 149 117 100 56 122 88 128 159 179 104 64 147 93 144 173 115 66 106 90 73 83 133 91 128 140 141 104 36 143 119 86 111 93 111 43 85 17 117 73 105 80 141 69 102 90 45 153 153 139 121 189 210 90 105 158 160 111 89 65 95 151 120 95 186 99 105 141 98 130 118 102 63 171 87 107 172 95 76 64 74 142 78 19 154 183 140 102 83 135 40 110 82 134 68 123 206 92 147 21 72 41 86 100 168 132 188 150 141 96 119 127 55 66 95 133 168 64 140 99 112 96 119 116 135 128 110 52 103 120 144 115 127 119 97 70 92 73 96 127 90 107 117 151 162 122 152 137 93 152 106 99 86 119 119 85 55 113 105 126 105 135 112 81 72 85 85 56 90 141 114 92 119 41 164 171 122 111 154 70 107 142 92 71 112 72 27 162 143 110 85 116 72 69 47 137 44 141 81 80 62 215 67 114 161 118 72 95 115 67 140 57 65 148 79 48 108 97 108 58 142 117 53 44 138 149 69 93 111 108 119 94 112 90 95 106 108 76 99 83 117 82 119 131 113 124 53 140 129 87 107 153 84 87 97 46 108 152 134 65 96 76 103 69 187 72 68 75 125 151 79 67 112 36 124 132 69 129 71 209 81 64 121 120 116 119 96 149 105 125 110 178 134 113 110 108 115 137 26 135 72 100 87 60 148 149 81 80 207 115 61 38 87 129 94 68 94 20 172 100 107 97 80 121 86 115 96 58 12 59 126 82 123 97 86 83 182 76 122 90 54 83 180 93 99 76 105 66 95 157 56 149 185 135 116 52 126 88 148 137 128 94 137 60 100 138 75 131 114 144 123 65 140 112 136 95 57 46 124 171 164 59 105 83 132 77 121 106 166 154 113 38 111 73 85 62 86 181 153 79 152 138 82 76 133 112 112 124 161 46 100 85 53 188 104 111 96 62 177 124 156 91 87 40 179 109 119 103 135 93 119 95 158 152 140 85 75 132 81 145 118 108 145 61 36 88 73 80 107 113 152 85 152 113 57 136 63 129 141 93 80 137 139 86 25 61 143 83 72 25 120 105 146 66 89 46 88 88 44 125 186 88 56 142 91 70 107 98 93 156 76 111 51 134 72 83 140 114 83 60 114 105 57 135 122 135 190 145 91 93 47 56 91 142 147 175 114 102 167 82 131 50 74 100 141 81 119 143 78 103 152 172 159 58 151 67 72 100 79 84 55 114 117 52 109 56 95 142 117 77 70 113 152 134 69 150 140 91 43 94 144 109 74 110 32 80 45 65 127 136 148 94 141 69 99 120 132 129 145 191 27 87 52 91 91 123 112 100 66 81 110 33 94 149 115 97 112 125 201 137 85 28 71 90 69 53 63 81 68 85 107 121 55 112 87 70 136 107 115 122 122 52 57 128 101 171 108 115 176 108 50 131 59 155 77 182 71 99 80 103 89 58 165 101 90 97 112 137 73 87 69 127 115 98 83 127 61 85 130 85 150 93 89 108 145 125 82 86 68 113 152 99 90 87 91 153 107 107 124 113 131 99 100 83 123 131 183 136 152 98 109 91 168 109 67 48 45 191 170 120 73 228 126 105 125 180 165 64 150 164 149 109 96 100 60 132 105 127 102 101 60 68 103 136 101 117 105 183 115 137 70 56 76 75 140 74 35 140 96 95 112 55 71 150 103 172 124 92 142 114 117 68 94 131 138 148 119 89 80 66 113 81 136 96 151 97 63 112 105 54 78 108 42 128 72 174 115 100 81 81 58 162 94 93 112 98 48 68 107 126 32 113 89 93 82 79 155 114 55 149 115 53 167 93 95 155 60 111 97 82 107 113 124 119 143 120 101 82 128 88 108 88 88 89 158 81 40 140 144 95 134 77 102 62 123 78 80 143 168 102 112 89 103 134 117 34 63 159 125 91 149 114 94 76 80 57 92 53 52 114 113 139 158 113 122 158 60 128 74 107 150 99 114 63 89 67 197 103 57 144 143 79 58 151 174 113 76 143 81 85 95 24 124 105 123 94 98 96 66 126 121 104 73 153 117 147 48 56 70 77 120 97 157 122 83 46 80 150 124 102 124 113 83 73 144 140 107 103 89 62 108 74 102 76 126 145 86 95 76 65 105 210 139 72 126 95 60 116 96 49 122 94 85 142 29 78 140 28 86 124 136 141 72 127 117 53 121 48 166 110 54 68 163 135 92 97 158 139 30 119 101 103 57 117 115 104 105 110 75 99 161 104 86 111 114 67 137 126 73 94 98 80 101 104 146 65 108 123 40 106 140 63 104 112 181 187 100 134 112 162 92 137 127 79 152 81 92 117 135 113 106 124 53 135 75 96 96 63 72 96 72 97 124 112 47 85 167 89 90 141 84 138 132 126 112 59 155 55 116 61 74 106 71 104 124 62 123 110 47 79 90 161 84 87 134 98 123 69 114 77 63 171 56 103 96 131 105 170 161 129 132 114 119 69 51 107 70 97 113 152 72 66 152 147 96 110 70 99 141 73 92 66 135 106 138 149 86 95 60 46 34 102 130 46 168 59 85 88 79 136 140 70 107 100 72 112 147 110 104 187 57 175 99 129 101 75 125 93 77 53 113 88 146 84 41 124 107 100 80 187 107 94 53 121 99 48 101 81 163 162 115 100 32 47 123 67 92 95 106 138 160 85 49 80 117 75 98 128 86 42 103 121 81 71 154 139 126 81 120 49 53 65 77 126 89 151 92 153 73 142 100 170 76 109 102 109 56 161 169 59 109 132 91 103 77 55 90 76 115 185 165 107 129 70 144 91 126 115 110 112 101 142 105 166 103 107 94 49 86 126 117 76 75 63 115 162 69 46 113 155 82 140 145 144 154 80 114 243 58 118 133 93 57 135 91 110 89 83 124 96 54 23 125 155 86 109 133 138 72 118 145 59 117 117 97 95 131 110 72 91 181 128 71 44 125 189 108 135 40 108 116 66 115 119 183 115 33 113 91 83 125 123 37 106 110 127 120 75 19 171 22 126 141 78 139 65 110 123 104 94 76 187 89 122 118 112 87 101 220 69 121 76 137 141 50 48 108 135 126 157 74 131 97 136 62 114 85 135 168 64 140 91 115 82 85 97 87 78 135 69 92 142 55 159 142 81 86 99 32 202 94 127 59 108 65 123 63 145 168 100 168 106 76 77 71 136 84 51 110 77 121 103 89 113 140 123 73 60 120 93 80 87 42 83 116 73 82 32 131 103 163 48 181 90 119 76 119 67 145 87 148 108 124 91 144 183 130 118 109 22 143 37 124 133 49 189 90 126 104 173 202 120 103 61 116 132 49 67 129 111 154 59 154 58 56 143 65 64 86 117 105 59 114 90 129 52 72 86 120 107 83 156 154 103 70 126 89 161 78 154 82 89 118 155 94 195 90 30 135 133 98 152 21 87 77 127 94 75 86 144 180 125 162 92 103 90 52 72 82 129 126 51 58 137 145 79 144 79 97 67 87 112 96 41 102 118 111 76 75 129 46 69 73 120 98 109 104 158 87 59 96 103 80 128 104 120 112 131 142 126 87 135 56 75 122 123 100 113 37 55 135 96 116 74 44 89 141 121 84 56 76 125 70 121 83 89 60 119 111 94 88 104 111 121 129 109 70 96 74 129 142 75 121 93 73 80 100 132 66 80 164 154 60 157 96 115 131 85 128 151 85 79 49 76 106 94 107 85 87 93 97 93 103 46 113 79 46 157 97 159 65 64 174 56 107 93 50 109 125 94 146 38 96 156 157 136 90 87 124 157 106 105 79 109 125 100 109 117 100 119 93 191 105 116 102 97 142 22 154 142 105 197 71 135 129 82 198 57 142 98 129 70 130 83 98 122 81 61 84 105 146 126 135 34 137 71 126 65 99 47 169 62 98 131 99 102 66 66 66 149 52 131 113 42 105 162 120 110 113 105 91 83 97 164 65 94 123 121 95 81 86 167 138 132 50 138 76 113 131 129 109 143 105 92 160 156 65 167 107 73 113 114 87 66 121 60 90 116 56 186 74 119 133 88 170 50 67 55 101 106 69 63 132 139 80 112 102 69 141 94 104 135 105 105 99 73 99 101 78 112 91 104 134 138 133 178 124 79 98 173 112 128 206 128 137 94 103 113 92 45 93 92 125 88 87 117 166 41 82 84 120 69 107 130 144 68 77 107 84 99 101 85 109 89 165 96 132 117 103 86 126 142 180 151 118 130 115 88 139 134 119 93 65 66 84 141 99 107 49 90 161 85 71 147 138 89 117 90 86 122 110 70 35 107 119 113 95 80 84 122 63 61 45 131 142 96 66 197 68 136 60 159 100 108 111 159 105 99 99 154 164 103 118 65 153 40 85 89 103 89 199 97 192 81 69 96 76 90 106 155 90 125 91 147 87 121 126 63 92 70 103 113 101 72 60 50 65 116 74 153 59 70 145 70 100 89 104 157 77 75 96 127 131 107 181 132 120 73 179 132 78 72 100 135 127 66 91 88 111 110 152 49 95 174 46 94 116 81 123 81 76 101 139 126 149 132 56 106 102 115 94 58 170 97 155 54 144 147 181 167 128 95 102 105 137 155 197 35 82 57 72 106 144 86 90 124 114 102 171 95 103 190 52 103 58 130 121 124 159 52 67 97 128 46 105 61 94 135 171 36 47 143 130 64 119 74 55 129 112 125 116 59 50 47 128 86 79 74 97 91 85 85 65 66 114 178 122 84 48 115 79 85 164 159 149 134 85 112 79 114 92 167 85 97 46 112 83 109 50 96 153 142 72 96 93 101 114 128 92 78 97 110 40 81 84 131 121 85 60 129 122 37 96 148 132 93 118 115 88 149 125 109 113 95 124 124 165 94 43 141 171 78 129 124 85 95 101 130 101 132 101 88 71 90 136 111 105 117 90 90 172 112 119 103 41 68 58 89 129 152 74 91 121 33 121 139 117 82 153 104 153 110 118 47 64 130 106 76 90 51 58 79 53 86 101 140 64 85 76 162 126 146 96 73 82 103 107 99 104 42 99 168 73 69 58 68 79 101 111 95 115 95 126 188 47 112 100 80 177 139 69 70 113 57 78 129 147 120 123 115 92 44 114 56 56 128 105 143 108 76 122 123 43 108 119 73 154 139 127 189 32 68 228 168 61 123 36 108 98 130 149 220 142 119 43 90 66 96 90 86 18 67 147 100 75 109 104 93 113 164 176 61 96 179 125 116 87 74 62 85 104 80 121 80 141 88 93 79 157 142 139 52 111 72 93 109 71 119 117 79 98 110 64 86 98 93 71 119 116 147 109 113 107 57 96 119 114 103 68 111 108 96 173 65 62 96 74 121 167 123 165 114 103 86 93 106 71 64 122 115 117 140 102 63 131 175 227 95 55 121 112 142 123 92 74 83 104 103 89 151 76 84 124 104 112 120 44 88 93 100 153 151 149 62 67 104 196 70 108 85 87 125 128 120 75 118 108 77 118 117 126 149 63 142 139 151 76 75 105 90 146 88 110 75 144 130 137 133 77 117 84 94 56 87 39 189 39 68 84 83 56 90 64 63 143 132 109 115 125 165 92 112 91 83 58 88 83 96 153 203 114 62 71 179 83 95 101 135 135 137 94 105 53 75 75 116 86 73 65 102 79 59 84 158 54 49 124 64 119 99 86 105 67 165 146 105 126 98 110 150 128 169 69 81 101 103 146 76 61 196 123 94 123 127 148 59 53 91 69 108 36 72 72 113 92 92 123 106 66 93 131 147 173 82 122 112 157 67 87 89 83 148 200 76 63 96 123 48 175 67 137 64 81 101 114 118 95 119 104 82 101 138 108 142 90 87 43 66 129 71 33 54 242 98 139 168 41 67 86 111 141 97 60 61 108 120 195 115 87 105 115 93 100 99 159 131 139 69 97 124 72 61 105 105 66 56 99 126 155 87 163 114 113 141 135 135 144 132 45 37 127 162 39 53 115 105 148 117 108 144 113 55 78 114 99 106 147 135 87 136 185 87 81 36 116 122 43 60 69 86 77 137 105 136 98 43 136 148 108 53 78 130 95 60 83 101 62 106 112 116 74 117 116 74 99 91 137 143 70 132 132 64 189 154 124 110 107 101 102 116 62 159 119 91 46 80 94 214 55 118 64 140 105 105 110 85 87 100 94 74 74 56 156 47 56 88 151 132 65 110 186 95 111 102 99 101 49 140 88 139 117 92 70 46 120 83 97 78 148 80 104 75 167 140 121 118 116 132 109 130 60 105 145 65 162 49 108 140 99 57 91 91 96 74 37 162 143 90 55 117 97 64 83 98 68 129 20 134 69 124 99 86 112 57 80 88 51 167 115 162 133 126 134 163 123 103 119 103 51 87 113 107 94 121 77 43 171 59 66 167 52 77 158 82 260 113 55 43 104 97 83 73 133 199 110 75 192 78 137 88 58 84 87 63 34 93 86 115 149 120 73 93 110 103 107 122 40 100 90 99 146 95 123 134 134 44 104 114 118 65 101 132 97 160 44 52 49 81 97 168 165 69 75 125 93 118 117 103 90 107 55 115 120 58 47 85 78 59 69 106 129 94 76 85 133 63 134 112 122 37 120 110 99 120 66 137 68 46 69 103 20 71 122 79 109 66 81 32 109 79 143 96 120 149 77 118 78 65 92 88 77 157 100 152 54 82 132 118 128 131 56 81 84 77 73 54 147 208 96 74 136 74 39 82 101 51 118 196 161 116 72 75 86 141 134 75 99 135 128 98 108 94 137 93 195 57 117 157 156 85 100 72 103 67 106 118 52 25 141 192 139 44 114 175 127 106 82 75 133 182 78 90 103 90 84 104 32 87 117 73 66 164 88 96 72 95 112 100 156 75 87 97 104 65 40 98 92 92 93 142 114 119 126 80 139 184 105 115 91 110 92 224 120 110 85 83 79 84 72 82 60 109 44 64 116 147 155 107 91 96 65 154 143 88 143 88 94 117 62 113 143 106 116 98 67 86 103 35 62 115 134 93 158 21 41 83 104 108 142 178 99 152 85 91 106 82 114 97 120 134 115 104 77 86 111 57 120 108 150 55 91 62 61 31 70 144 32 106 147 91 95 83 88 88 116 107 46 151 108 127 69 117 100 86 47 87 77 61 123 61 100 54 118 155 100 143 132 103 155 114 112 104 74 48 133 116 129 81 168 155 110 104 96 102 154 88 149 58 80 110 113 103 80 148 116 60 138 117 152 98 102 114 134 115 85 96 107 46 49 112 197 136 63 130 104 143 78 137 91 109 107 130 165 158 161 57 128 51 81 118 91 54 92 138 116 157 104 92 110 82 83 154 120 116 88 177 116 80 81 157 132 114 129 67 62 140 116 160 83 101 81 50 101 144 64 96 146 149 112 40 100 73 232 142 108 77 69 65 138 143 56 146 154 143 133 69 85 66 100 95 110 70 82 67 114 93 173 81 134 127 128 107 146 99 133 89 78 100 121</t>
-  </si>
-  <si>
-    <t>GAM(0.18585255320537516, -1.8700305909153897e-28, 1.0803389116095095)</t>
-  </si>
-  <si>
-    <t>0 1 1 0 0 0 0 0 0 1 1 0 1 0 0 1 1 2 2 0 2 0 0 1 0 1 1 1 1 1 1 0 0 0 0 1 2 0 0 0 3 1 0 0 1 0 0 1 2 1 0 1 0 0 1 0 2 1 0 1 2 0 1 3 0 1 1 0 1 0 0 0 2 0 2 0 0 1 1 1 0 2 2 0 1 1 2 0 1 0 0 1 0 1 3 0 3 0 2 2 1 1 1 0 3 2 0 2 1 0 2 0 1 1 1 0 4 0 1 1 2 1 0 2 1 0 1 0 1 1 0 2 1 1 0 1 2 0 1 1 1 4 0 0 0 1 0 1 1 0 0 3 1 2 2 1 1 0 1 1 2 0 0 1 2 0 2 1 0 2 0 1 2 0 2 1 2 0 2 1 1 1 3 3 4 3 1 0 1 1 3 1 1 1 1 1 1 1 0 2 2 2 1 1 2 0 1 1 1 1 1 1 0 0 1 1 2 1 0 1 0 0 0 1 0 0 1 0 2 1 2 1 3 0 1 1 1 1 0 1 1 1 0 0 1 0 2 1 2 0 0 1 3 1 0 0 1 0 1 2 1 1 1 0 1 3 2 0 1 0 2 0 0 1 0 2 1 1 1 2 0 1 0 2 5 1 1 0 1 1 0 1 3 1 2 1 0 1 0 1 0 2 1 0 1 1 0 2 0 0 0 1 1 0 1 2 0 1 0 0 0 2 0 1 1 0 0 0 0 0 0 0 2 0 0 1 1 1 0 0 0 2 0 1 0 1 0 0 0 3 0 1 0 1 0 2 1 0 0 1 2 2 3 1 2 1 0 0 0 0 1 2 1 0 1 0 2 1 0 1 1 1 0 1 1 1 0 1 1 1 0 1 0 0 0 2 0 1 0 1 1 0 0 4 1 0 1 0 2 0 1 2 1 0 1 3 2 1 3 1 1 1 0 2 1 1 0 3 1 0 1 0 1 0 0 1 6 1 0 0 1 1 1 2 2 0 0 3 1 0 1 3 2 0 0 1 0 0 0 1 0 1 0 0 1 2 2 0 0 1 0 1 0 1 2 2 0 2 0 2 1 2 0 0 0 2 1 0 1 0 1 1 0 0 1 0 1 1 0 1 1 1 2 1 2 0 0 0 1 0 3 2 1 3 0 0 0 0 1 1 0 2 3 1 1 0 1 1 0 0 0 1 1 0 1 1 1 1 2 1 2 1 2 1 1 2 1 2 0 0 1 1 2 0 1 2 0 1 0 0 0 0 0 0 1 1 1 2 1 0 1 0 2 4 1 1 1 0 0 1 1 3 2 1 0 0 1 1 1 3 1 2 1 3 2 0 0 0 0 1 3 1 0 0 1 1 0 0 2 0 3 0 1 0 0 0 1 0 1 0 2 0 2 1 4 0 1 2 1 2 0 1 0 0 0 2 0 0 1 3 0 1 0 0 0 0 1 0 1 3 2 0 2 0 0 1 1 1 0 1 0 1 3 1 0 1 1 1 2 1 0 0 1 3 1 0 1 0 1 2 0 1 1 0 1 1 1 0 1 1 0 0 1 2 1 3 0 2 0 1 0 2 0 0 0 1 1 2 1 0 0 1 1 0 1 0 2 1 0 0 1 2 0 2 2 0 0 2 0 1 0 0 0 1 1 0 1 1 0 0 2 2 0 1 0 1 2 0 0 1 0 1 3 0 2 1 0 2 0 0 1 1 0 1 0 2 2 2 1 0 1 2 1 1 0 2 1 0 0 1 0 1 0 2 2 1 2 1 0 0 0 0 0 0 2 1 0 3 1 0 2 2 1 1 1 0 0 2 1 1 2 0 1 0 1 1 0 0 0 1 3 1 1 0 0 1 0 1 0 0 1 1 2 1 1 0 0 0 0 2 1 1 0 2 0 2 1 0 1 0 1 0 2 3 0 0 2 2 0 1 1 2 1 0 3 1 2 0 1 1 3 1 1 1 1 2 1 0 0 0 1 0 3 1 0 0 1 1 1 1 0 1 0 1 1 2 1 0 1 0 1 2 0 1 1 0 1 1 0 0 1 1 0 1 2 1 1 1 1 0 2 0 1 2 2 2 2 1 1 1 1 0 0 0 0 0 0 2 0 1 2 1 0 1 2 0 0 0 1 2 0 1 1 1 0 2 1 1 2 1 2 1 0 1 3 2 0 1 1 1 1 2 1 1 0 0 0 0 0 2 2 0 0 1 1 0 1 1 0 0 0 0 1 0 1 1 0 2 1 1 0 3 1 0 1 2 1 0 1 2 3 0 3 0 0 1 1 0 0 0 0 2 0 1 0 3 0 1 2 2 0 2 2 1 0 0 2 1 2 1 0 0 1 0 3 0 0 1 2 1 0 0 2 3 0 3 1 1 0 0 0 1 1 0 0 2 1 0 1 1 1 0 2 1 1 0 0 0 1 1 0 1 0 0 1 1 0 2 2 1 1 3 1 3 1 0 0 2 1 1 0 2 0 0 3 1 1 1 0 2 0 1 0 0 3 2 0 1 1 1 2 1 0 0 0 1 3 0 2 1 0 1 1 2 1 1 1 0 3 2 0 1 1 0 1 1 2 3 1 0 2 0 1 1 0 2 0 0 1 0 0 0 1 0 0 1 2 0 2 1 0 0 2 0 1 2 0 0 0 0 0 1 2 0 1 0 1 0 2 1 0 1 1 2 2 0 0 1 0 2 1 1 1 0 0 0 1 0 0 1 1 1 0 0 1 1 1 0 1 0 1 2 1 0 1 1 2 1 1 0 2 1 1 2 1 0 2 0 1 0 3 0 0 1 0 0 0 0 1 1 0 0 1 0 2 1 0 2 0 2 0 0 1 1 1 0 1 0 1 1 0 2 0 0 2 0 1 1 1 0 1 2 0 2 2 1 3 1 1 2 0 1 2 0 1 1 0 1 1 1 2 1 2 1 1 2 2 0 0 1 0 0 0 0 0 2 1 0 2 1 1 1 1 2 0 2 2 1 0 0 0 0 2 0 1 0 0 3 0 1 0 0 1 0 1 1 0 1 0 0 0 0 0 1 0 0 2 1 1 1 0 2 1 1 1 0 0 1 1 2 0 1 0 0 1 0 0 1 0 1 1 1 1 2 1 0 1 1 2 2 0 1 1 0 1 0 0 0 1 3 0 1 0 0 1 0 1 2 0 2 0 0 1 1 1 0 0 0 0 2 1 0 1 0 0 0 1 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 2 0 0 3 1 1 1 2 0 1 0 0 0 1 1 2 0 2 0 1 1 0 0 2 1 1 1 2 1 2 0 0 0 1 1 0 0 0 1 0 3 4 0 1 0 0 2 1 0 1 0 0 0 0 1 3 0 0 2 1 0 0 0 0 1 1 0 1 2 2 0 1 1 1 0 1 1 1 0 0 0 1 1 1 0 0 2 2 1 0 1 1 1 1 0 0 2 1 4 0 3 0 0 3 0 2 0 0 1 2 1 1 0 0 1 0 0 0 2 0 0 2 1 0 0 0 2 2 0 0 2 0 1 0 0 1 2 0 2 1 1 0 1 1 1 0 0 1 3 0 0 0 1 1 0 0 0 2 1 0 1 1 0 1 1 0 2 2 0 1 1 0 2 0 1 1 3 3 0 0 2 1 0 1 0 2 0 0 0 1 1 0 2 0 0 1 0 2 0 0 0 1 1 1 0 2 0 2 1 0 1 0 0 1 1 0 0 2 1 2 2 0 0 1 4 1 3 1 0 0 2 1 2 1 0 1 1 2 0 1 1 0 0 2 2 1 2 0 0 1 2 2 0 1 0 1 2 1 1 0 2 1 0 2 2 1 0 1 1 0 0 0 1 0 0 1 0 0 1 1 0 0 1 1 0 0 0 0 0 1 0 0 1 1 1 1 1 0 0 1 1 1 1 1 1 1 0 0 1 0 0 1 3 0 2 3 0 0 1 2 1 0 0 2 1 1 0 2 1 1 1 1 0 0 1 0 1 1 1 1 2 0 0 1 0 0 0 0 0 1 1 1 0 0 1 0 1 1 3 0 2 4 1 0 3 1 1 2 1 1 0 2 2 0 1 1 0 1 0 1 3 0 1 1 2 1 1 0 0 1 3 1 2 1 1 0 1 0 0 2 0 2 0 1 0 3 0 0 0 0 1 0 0 0 1 1 0 2 0 1 0 1 2 0 0 0 0 2 1 0 1 1 0 1 0 2 1 1 1 1 1 0 1 0 0 1 2 1 1 0 0 1 1 2 0 0 0 0 0 0 1 0 1 1 1 0 0 1 1 0 1 0 1 2 0 2 1 3 0 1 0 1 1 2 0 1 1 0 1 2 1 1 1 2 0 0 0 1 2 0 0 0 0 2 1 1 0 1 2 1 1 0 0 1 3 0 1 1 1 0 1 0 0 2 0 0 1 1 0 2 0 0 1 2 0 0 1 1 1 1 0 0 1 0 1 1 2 0 1 0 1 2 2 1 1 0 0 3 0 1 2 0 1 1 1 1 0 2 1 0 1 1 1 0 0 1 1 1 1 0 1 1 1 1 3 1 1 0 1 0 0 1 1 0 0 2 1 0 0 3 1 1 5 0 1 1 0 0 2 1 0 1 0 0 3 0 0 2 1 1 0 0 0 0 1 1 1 1 2 1 1 1 0 2 0 1 0 1 0 1 1 2 2 1 2 0 0 0 2 1 1 2 1 0 0 2 2 2 1 2 0 0 2 0 0 2 1 1 1 3 1 0 1 0 2 0 1 0 0 0 0 1 0 2 0 0 1 1 0 0 0 0 1 1 0 0 1 0 1 0 2 3 2 1 0 0 2 0 0 1 0 0 3 0 2 0 0 1 0 0 2 2 1 0 0 0 0 0 1 0 1 2 2 2 2 0 0 1 1 3 0 2 0 2 1 2 0 1 3 1 0 0 0 1 2 2 1 0 0 2 1 1 0 2 0 0 1 3 0 0 2 2 0 0 0 0 0 1 1 1 0 0 0 1 1 0 0 1 1 0 0 2 0 1 1 0 3 1 1 0 1 2 2 1 2 0 0 0 0 0 3 3 1 1 1 0 1 3 0 0 1 0 0 0 0 4 2 0 0 1 1 0 0 1 1 1 1 3 0 1 0 0 4 0 0 0 1 0 0 2 3 1 1 0 1 0 2 0 2 1 1 1 1 2 0 0 1 1 1 1 1 2 1 3 0 1 0 2 1 0 0 2 0 3 2 0 1 0 0 0 1 1 0 0 1 1 0 2 0 1 0 0 1 0 0 0 0 1 0 0 1 1 1 1 1 1 0 0 1 1 0 1 2 0 0 2 1 0 0 0 0 4 2 1 2 0 1 0 2 1 0 0 1 0 0 0 1 1 2 0 2 0 0 2 1 1 4 1 0 0 2 2 0 1 0 1 0 1 1 0 1 0 2 0 0 2 1 2 0 0 2 0 2 0 2 1 0 1 1 0 3 0 1 0 0 2 1 0 1 0 2 1 0 1 0 0 0 0 0 3 0 2 1 2 3 1 1 0 0 0 2 0 2 3 0 0 1 2 3 1 2 1 1 0 1 2 0 1 3 2 0 3 0 1 1 2 2 3 1 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 2 1 1 2 2 1 2 0 2 0 1 1 0 1 1 2 1 2 0 0 2 2 0 1 1 0 0 1 2 1 1 0 2 2 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 1 1 2 2 0 2 0 0 1 1 1 0 0 0 0 1 0 2 0 0 0 2 1 3 1 3 0 1 0 0 2 1 1 0 0 0 0 0 1 0 1 0 0 2 0 2 4 1 1 2 0 2 0 0 0 3 0 1 0 1 1 3 0 1 1 1 1 2 1 0 2 1 0 0 0 3 0 1 1 0 0 1 0 0 2 4 0 1 0 0 1 0 1 2 3 1 0 0 2 0 1 1 1 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 2 1 2 1 0 2 0 2 3 2 1 0 2 3 0 1 1 2 0 0 1 2 0 0 1 0 0 3 1 1 0 2 2 2 0 3 0 1 1 0 1 1 1 1 1 1 0 0 1 0 2 1 2 1 0 1 2 2 0 0 1 1 2 1 0 0 0 1 2 1 0 0 1 1 0 1 0 0 1 0 1 1 0 2 1 1 1 1 1 2 0 2 1 0 2 0 4 1 0 1 0 1 2 0 2 2 0 0 1 1 0 2 2 1 1 1 1 1 0 2 0 0 1 2 1 0 1 1 0 1 2 2 0 1 1 2 0 0 2 1 0 0 1 2 0 2 1 1 0 0 1 0 1 2 0 0 2 3 0 4 0 2 2 1 1 2 1 0 2 1 1 0 2 0 2 1 0 1 0 1 1 0 0 0 1 0 1 1 2 1 2 0 1 0 3 0 1 0 1 1 0 1 1 0 0 2 2 2 0 1 2 1 2 2 0 1 1 0 1 0 0 1 0 1 0 0 0 0 0 1 1 0 1 2 1 2 1 2 0 2 1 0 0 2 1 1 0 1 0 3 0 1 0 1 2 1 0 1 1 3 1 0 0 2 0 0 1 1 0 1 1 1 1 0 1 0 1 0 2 2 1 1 0 1 2 2 1 2 2 1 0 0 0 0 1 2 0 0 1 0 1 1 2 0 1 0 1 0 1 0 1 2 1 0 1 0 2 3 1 0 0 0 1 2 0 1 1 1 2 2 1 0 1 0 3 0 0 1 0 0 0 1 0 2 0 0 1 0 1 0 0 1 0 0 0 0 2 1 1 1 0 0 0 1 1 0 1 2 2 0 1 1 3 1 1 1 1 1 2 0 0 1 2 2 1 1 0 2 0 0 0 2 1 0 1 0 0 0 1 2 3 0 2 2 0 1 1 0 0 0 1 0 0 2 2 1 0 1 2 0 1 2 0 2 1 0 1 1 0 0 1 0 1 1 0 0 1 1 0 1 0 0 1 1 1 2 2 1 0 0 1 0 2 1 0 0 0 0 2 0 3 1 3 1 0 0 1 1 0 0 1 1 2 0 1 1 0 1 2 1 1 0 0 0 2 0 1 0 0 1 1 0 1 0 1 0 2 0 0 1 1 0 0 3 0 2 0 0 0 0 1 3 0 1 0 1 1 1 1 0 0 2 3 0 0 1 0 0 0 2 1 1 0 2 1 2 0 1 2 1 1 1 1 1 1 1 2 1 0 4 2 0 0 0 1 0 1 0 0 2 1 1 0 0 2 2 1 1 0 1 1 0 0 2 2 0 1 1 1 1 0 2 2 0 2 0 1 0 0 1 0 0 4 2 0 1 2 0 0 1 0 1 2 0 0 1 2 2 1 0 0 0 1 1 1 0 0 0 1 0 0 1 1 0 0 1 0 2 0 0 1 1 1 1 1 0 0 0 2 1 2 0 0 1 4 2 0 0 0 1 1 1 0 0 2 0 3 0 1 0 0 1 1 1 0 3 1 0 0 2 0 2 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 2 0 0 1 0 1 1 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 5 1 0 1 0 0 1 0 0 1 0 0 1 2 0 2 0 0 0 2 2 0 0 1 0 1 0 1 2 1 1 1 1 2 1 2 0 1 1 0 2 1 3 1 0 0 1 1 1 0 1 0 0 2 1 0 1 1 0 2 1 0 0 1 2 2 1 2 1 0 0 1 0 3 2 1 0 2 1 0 0 2 0 0 1 0 1 0 1 0 2 2 1 2 2 1 0 0 2 1 0 1 1 0 0 0 2 0 0 3 1 0 1 1 0 1 0 2 1 0 2 1 0 1 0 1 0 1 1 0 0 2 1 2 1 1 0 0 0 0 0 1 2 2 0 0 0 2 0 2 2 1 0 1 1 2 1 0 1 0 2 0 1 1 0 0 1 0 2 0 0 1 0 1 0 2 0 0 0 0 0 0 3 2 2 0 1 2 0 2 3 1 3 0 1 3 2 0 0 1 0 1 1 4 1 2 2 2 0 1 0 0 1 2 1 0 0 0 0 0 1 0 2 0 1 0 1 0 0 2 2 0 0 1 2 0 0 0 2 0 1 1 0 1 2 1 2 0 2 0 2 1 0 2 0 0 1 1 1 0 1 3 1 0 0 0 1 0 3 0 1 2 0 2 0 1 1 0 1 1 0 0 0 1 1 1 1 0 0 2 2 0 2 1 1 0 0 2 0 3 0 1 2 2 3 1 2 0 0 0 0 0 2 0 1 1 2 0 0 0 0 1 0 0 0 1 0 1 2 1 1 0 0 0 0 0 0 0 1 1 0 1 0 3 1 1 0 0 0 0 2 3 0 0 1 1 1 0 1 2 0 1 0 0 0 2 0 1 1 0 1 2 0 1 0 1 0 0 0 0 1 0 1 4 1 2 1 0 3 0 2 0 1 2 1 0 1 0 1 0 2 0 2 1 0 1 0 1 1 2 0 2 2 0 1 2 0 0 2 1 1 0 0 0 1 0 1 2 1 2 1 1 1 2 1 1 0 2 1 2 2 1 0 2 1 2 1 0 1 0 1 1 1 0 0 0 0 1 0 0 2 3 0 0 1 0 0 1 1 1 0 1 1 0 0 2 1 1 0 0 0 1 0 2 1 0 1 1 1 0 1 1 1 1 0 1 0 1 1 1 2 0 0 0 1 1 1 0 1 2 1 1 1 1 0 2 1 0 1 0 0 1 2 3 0 1 0 1 0 1 2 0 2 1 0 0 1 0 1 1 0 2 2 1 0 0 1 2 0 0 1 0 1 1 0 2 1 1 0 1 1 0 1 0 0 1 1 0 0 1 0 0 0 1 1 0 1 1 2 3 2 0 0 0 0 1 1 3 1 0 0 0 1 1 2 1 0 0 0 2 1 0 0 0 1 1 0 1 1 0 1 0 1 1 0 1 0 0 2 1 1 0 3 2 2 2 3 0 0 1 1 1 1 2 2 1 0 0 0 0 1 0 0 0 1 3 0 3 1 1 1 0 0 3 3 1 2 0 1 0 0 0 1 1 2 0 2 0 1 1 1 0 1 2 1 1 1 3 0 1 0 2 3 1 0 0 1 0 0 0 0 1 1 2 1 0 0 1 0 0 1 0 0 2 2 1 3 1 0 1 1 1 1 0 0 2 0 0 1 1 2 0 0 0 0 1 1 2 3 0 0 2 1 1 0 2 0 0 1 3 2 1 0 0 0 1 2 0 1 0 0 1 2 1 2 1 1 0 0 1 0 0 1 2 0 0 1 2 1 0 1 0 2 2 2 0 1 2 1 2 1 0 2 0 2 1 0 1 0 0 0 0 0 1 1 1 2 0 0 2 0 2 1 2 1 1 0 0 0 0 1 0 2 1 0 0 1 1 0 0 1 2 0 0 1 1 0 0 0 4 1 0 0 0 0 0 2 1 1 0 2 1 2 0 2 1 1 0 1 1 0 0 1 1 0 1 2 0 1 1 1 0 0 2 0 0 0 1 3 0 2 1 0 3 0 2 1 0 0 2 0 2 0 2 0 0 2 0 0 1 1 0 1 0 0 1 0 3 2 1 0 0 0 1 0 4 1 0 0 1 1 1 1 0 0 1 0 1 1 1 2 1 1 1 1 0 1 1 1 1 1 0 2 0 1 2 0 0 2 1 1 2 0 1 0 3 2 1 1 0 3 1 2 0 1 0 0 2 0 1 0 0 1 2 2 1 1 1 1 1 0 1 4 0 2 1 1 1 2 0 1 0 1 1 0 0 0 0 1 1 1 0 0 2 0 1 1 2 0 1 0 0 1 0 0 0 1 1 0 2 0 1 1 0 0 0 0 1 2 1 2 0 0 0 1 0 0 0 0 1 1 0 0 1 1 1 0 1 0 0 0 1 1 0 3 2 1 1 0 1 2 0 0 2 0 0 0 2 0 3 3 0 1 0 1 1 1 1 0 1 0 1 2 0 0 1 1 0 0 1 0 0 1 1 2 0 0 0 0 1 1 1 1 1 1 1 1 0 0 0 1 1 0 3 1 1 0 1 0 0 1 1 3 1 1 1 0 0 1 2 0 2 1 1 0 1 1 0 0 1 1 3 1 1 0 2 1 2 1 2 0 0 1 1 1 0 2 1 1 2 1 1 1 1 0 1 0 1 1 3 3 0 0 1 0 3 1 2 0 1 1 0 1 0 1 1 1 1 1 0 0 1 0 0 0 2 1 1 1 0 1 1 0 0 0 1 0 0 0 1 1 1 1 0 1 2 0 0 0 0 1 1 2 0 1 1 2 1 1 1 0 0 1 1 1 0 3 1 0 1 2 2 1 3 0 0 0 0 1 0 0 1 1 3 1 1 2 1 1 1 0 1 1 0 1 0 1 0 2 3 1 0 1 0 3 0 1 0 1 0 0 1 1 0 1 1 0 2 3 0 0 0 1 1 1 1 1 1 1 1 1 1 0 0 0 2 1 1 1 0 1 0 2 1 0 2 1 0 2 2 0 1 0 3 1 1 2 1 1 0 0 0 1 2 1 0 2 0 0 1 1 0 2 0 0 1 1 2 3 2 1 0 1 2 0 0 1 0 0 0 0 1 0 0 1 1 2 1 0 2 0 2 0 3 0 1 1 0 1 2 0 3 0 1 0 2 0 2 0 0 0 2 1 2 0 0 3 0 1 2 1 4 1 1 1 2 1 0 0 0 0 0 2 1 3 1 3 1 2 3 1 3 1 1 1 1 0 2 0 0 0 0 1 0 1 0 0 2 2 2 0 0 0 0 3 1 1 1 1 1 1 3 1 0 1 0 1 1 0 2 0 2 1 1 1 1 3 1 0 0 1 1 0 0 2 1 1 1 0 0 1 0 1 1 0 1 0 2 2 1 2 0 0 1 1 2 1 1 0 0 0 1 1 2 0 1 2 2 2 0 1 1 0 2 1 1 1 1 0 1 2 0 0 1 3 1 1 2 1 0 0 2 1 2 2 0 1 1 1 2 1 1 1 1 1 1 1 0 1 2 1 0 0 1 0 0 2 0 1 1 1 0 1 1 2 0 0 0 3 1 0 1 1 1 0 1 1 0 1 1 2 2 2 2 0 1 1 1 0 1 1 1 0 0 1 1 2 0 1 0 0 0 0 1 1 4 0 0 2 3 0 1 1 2 1 0 1 0 1 1 1 1 1 1 0 0 1 0 0 1 1 1 1 0 0 1 0 1 0 1 0 1 1 0 1 0 1 0 1 0 1 0 1 1 2 1 0 2 0 1 1 0 0 1 2 3 1 2 0 1 0 1 0 2 1 0 0 2 0 1 2 0 0 0 2 0 1 0 2 2 0 0 0 1 1 1 0 1 4 1 1 1 0 1 0 1 0 1 0 0 1 2 0 2 1 2 1 1 3 1 1 0 2 2 0 0 0 2 0 0 1 1 0 0 2 0 0 2 1 2 0 2 0 1 0 2 2 0 1 1 1 0 1 0 1 2 1 1 2 0 1 0 0 1 2 1 1 1 1 1 0 0 0 0 0 0 0 1 1 1 0 1 0 0 1 0 1 2 1 1 0 2 0 1 0 0 3 1 0 0 1 0 0 2 0 0 0 0 1 1 1 2 2 1 1 3 1 1 1 0 1 0 0 0 2 0 3 0 0 1 0 0 1 1 1 0 1 2 1 0 0 0 0 2 2 0 4 1 0 1 0 0 0 1 1 1 2 1 0 0 0 0 0 1 0 1 0 1 1 0 2 1 1 0 0 1 0 2 2 1 2 3 0 1 1 0 2 1 1 0 0 2 2 2 2 0 2 0 2 0 0 1 0 1 1 0 0 1 1 0 1 0 2 2 3 2 2 0 0 0 0 2 1 1 0 0 0 0 1 1 0 1 1 3 3 0 0 1 0 0 3 0 1 0 0 1 2 1 0 2 2 2 0 1 0 1 0 0 1 0 1 1 0 1 1 1 0 1 0 2 2 3 0 0 2 1 1 0 2 0 0 0 0 1 1 1 0 0 2 0 2 1 1 0 1 3 0 0 1 1 1 0 1 1 1 1 0 3 0 1 0 0 0 3 1 0 2 2 1 1 0 2 0 1 1 1 2 1 1 0 1 3 0 1 1 0 0 0 0 1 0 1 2 2 2 0 0 2 1 0 1 0 0 0 0 0 0 0 1 0 1 2 1 0 0 1 1 1 0 0 0 0 0 2 1 2 0 2 2 1 1 0 0 1 2 0 0 0 0 3 0 0 0 3 1 1 1 1 0 2 0 0 0 0 1 1 2 0 0 1 2 0 1 2 0 2 2 1 1 1 1 1 0 0 1 0 2 0 0 1 1 0 1 1 1 2 0 2 1 0 2 0 0 2 0 0 0 1 0 1 0 0 1 0 1 0 1 2 0 0 1 2 0 0 2 0 0 0 1 0 1 2 1 0 2 2 0 1 0 0 1 2 0 1 2 0 1 3 1 2 2 1 1 3 2 2 0 1 1 1 0 1 1 0 3 0 2 0 2 2 0 1 0 2 2 0 1 1 1 1 1 0 0 1 2 1 1 0 0 1 1 3 0 1 1 0 2 1 0 1 3 0 1 2 0 1 0 0 0 3 1 0 1 2 2 1 3 0 1 0 3 1 0 3 2 1 1 0 1 0 1 1 0 0 0 1 2 1 2 1 0 2 0 1 0 2 1 2 1 2 1 2 3 0 1 0 0 1 1 2 1 2 0 1 1 1 0 0 0 0 3 1 1 0 0 1 1 0 0 1 0 1 0 1 1 0 1 1 0 0 2 1 2 1 2 0 1 1 3 0 0 0 2 2 2 0 0 0 0 1 2 1 0 1 2 2 2 1 1 0 0 0 1 0 0 0 0 0 1 1 1 2 0 3 1 0 0 1 0 0 1 1 0 0 1 0 0 0 3 0 1 1 0 2 1 1 1 1 1 2 1 1 0 2 1 0 0 2 1 2 1 2 2 2 1 2 2 1 0 1 1 0 0 0 1 1 1 2 2 2 1 0 1 0 1 2 0 1 2 1 0 1 3 1 0 1 2 1 1 2 1 2 1 0 1 2 0 0 2 1 0 1 0 1 2 0 0 0 1 2 0 2 1 3 1 1 0 1 1 0 0 0 1 2 2 1 0 0 3 0 0 0 0 1 2 1 2 0 1 0 0 1 0 2 2 1 0 1 3 0 1 0 0 1 2 1 1 0 0 1 1 1 2 1 0 1 1 1 0 1 1 1 1 0 1 1 0 2 0 0 4 1 0 1 2 0 0 0 0 1 0 0 0 0 0 2 0 0 1 0 1 1 2 0 0 0 0 1 0 0 1 1 0 1 1 1 0 1 2 3 1 0 3 2 1 1 0 0 0 1 1 1 1 0 0 1 0 1 1 3 0 1 0 1 0 0 1 0 1 0 2 0 1 3 0 1 0 1 0 4 0 0 1 1 1 0 1 1 0 2 0 2 0 0 2 0 1 0 0 0 1 1 0 0 0 1 4 0 2 2 1 1 0 1 1 0 2 0 0 2 1 0 1 0 0 0 0 0 0 1 0 2 0 0 1 0 1 0 2 3 1 0 1 2 2 2 2 1 2 2 0 1 1 1 1 1 0 1 2 0 2 0 2 0 1 0 1 0 1 1 1 1 0 1 1 2 1 0 1 1 0 2 1 1 1 1 0 1 0 1 1 0 0 1 1 1 1 1 0 1 2 0 1 1 2 1 0 2 0 2 1 0 0 0 1 0 0 1 1 0 1 0 1 0 0 0 1 2 1 1 1 0 1 0 0 0 0 1 0 2 1 1 0 0 1 1 1 0 1 2 1 1 0 0 0 1 0 0 0 2 0 1 1 1 0 0 1 1 1 0 0 0 1 0 1 0 1 0 0 1 0 0 2 3 0 1 1 1 0 1 3 1 2 4 2 0 1 0 1 0 2 0 1 0 0 1 0 2 1 1 3 1 0 0 3 0 1 0 2 1 2 0 1 0 0 0 1 1 1 0 2 0 3 1 1 0 1 0 2 2 1 1 0 1 2 1 0 0 1 0 0 0 1 0 1 2 0 0 1 0 2 2 2 0 0 1 1 1 1 0 0 0 0 0 0 0 0 2 1 2 0 2 0 0 0 0 0 2 3 1 1 2 2 1 1 0 1 1 0 0 2 1 1 1 2 0 0 5 0 1 2 3 0 0 0 1 2 1 1 3 0 0 0 1 1 0 3 2 1 0 1 0 0 0 1 1 0 1 1 1 1 0 0 0 1 1 1 2 1 0 0 0 0 0 0 2 1 0 2 1 1 1 1 1 1 0 1 0 0 0 0 0 1 1 0 0 2 2 0 1 1 0 2 1 1 0 1 0 1 0 2 0 1 2 0 2 0 1 0 1 1 0 1 0 0 1 2 1 1 0 2 1 2 0 0 1 2 1 0 1 2 1 0 0 0 1 0 0 2 0 0 0 1 0 1 3 0 1 1 0 1 0 0 1 1 1 2 1 0 1 0 0 0 0 1 1 1 1 2 1 0 2 1 0 2 2 2 0 1 0 0 1 1 2 1 0 2 0 1 1 0 1 1 0 1 1 1 0 0 1 0 0 1 1 0 1 0 1 0 0 3 1 2 0 0 0 0 0 0 0 0 2 1 0 1 1 1 1 0 1 2 1 0 1 0 0 0 1 1 0 0 0 1 0 0 1 0 3 0 1 0 1 2 0 2 1 0 1 0 0 0 1 1 0 1 3 2 0 1 1 0 0 1 0 1 3 1 1 1 1 2 0 0 0 2 1 1 3 0 0 2 0 0 2 0 0 0 1 1 2 1 1 0 0 0 0 1 2 0 0 3 0 2 0 1 2 0 0 2 0 1 0 0 0 0 1 0 0 2 0 0 0 1 0 0 2 1 0 2 2 2 2 0 2 1 1 0 1 1 0 1 1 1 3 0 1 3 0 0 1 2 0 0 0 0 1 2 2 3 1 2 3 2 0 3 0 0 2 2 0 1 1 1 2 1 0 0 1 0 1 0 0 2 0 1 0 2 2 1 0 0 0 3 3 0 0 1 1 3 1 1 4 1 3 2 1 2 1 1 0 2 1 0 1 0 3 0 0 2 1 1 0 2 0 1 1 1 0 1 0 1 1 0 3 1 1 0 0 0 2 1 0 0 2 1 0 1 3 1 1 0 0 1 1 1 1 1 2 1 0 1 1 1 1 1 1 1 1 2 0 1 0 0 3 1 0 2 4 1 1 1 1 1 0 0 0 2 1 1 1 0 1 2 0 1 1 0 0 1 1 0 0 3 0 1 2 2 1 4 1 0 1 0 0 0 0 0 0 2 3 2 0 2 2 1 1 0 0 2 1 2 2 1 0 3 1 0 0 2 0 1 1 2 0 0 1 1 2 0 0 0 2 1 1 0 0 1 2 1 0 0 1 1 1 1 1 0 1 1 0 1 3 2 0 1 1 3 1 2 1 1 0 2 1 0 0 1 1 1 1 0 0 0 3 1 0 0 0 1 2 1 0 0 1 1 2 0 0 0 1 0 3 1 1 1 0 2 2 2 3 0 1 1 1 1 0 2 1 0 2 2 1 0 1 0 1 1 1 1 1 0 1 0 0 0 1 0 1 0 0 2 0 1 0 2 1 1 1 0 2 1 0 0 0 1 2 0 0 0 0 1 0 2 2 2 1 2 3 0 2 0 1 1 0 1 1 1 1 2 2 0 1 0 2 1 1 1 0 0 0 1 1 0 1 1 1 0 2 2 0 1 2 2 0 1 0 1 1 1 0 0 0 0 0 0 1 0 0 0 1 0 1 2 1 1 0 2 1 0 1 0 1 1 1 2 1 1 1 1 1 0 0 0 1 0 0 1 1 0 1 3 3 0 2 0 1 0 1 1 0 3 1 0 2 1 0 0 0 0 3 0 1 2 0 0 2 0 1 1 0 1 0 0 2 2 0 1 4 1 2 1 1 2 0 2 1 0 0 2 0 0 0 0 1 2 1 3 1 2 1 0 0 0 0 0 1 1 1 0 0 0 1 2 0 0 1 1 0 2 1 2 1 1 0 0 1 1 0 2 0 0 0 2 0 2 0 2 0 1 1 1 1 0 1 1 1 0 1 2 1 1 1 1 1 2 0 1 0 1 0 1 1 0 0 1 0 0 4 3 0 0 0 2 0 1 0 1 0 0 1 0 1 1 0 1 2 0 0 0 1 0 0 0 2 0 0 1 1 0 0 1 1 3 2 1 3 0 1 0 1 1 0 1 3 0 1 2 1 0 0 1 1 0 0 1 3 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 2 1 2 0 0 0 2 0 0 0 3 1 2 2 2 0 2 1 1 1 0 2 1 1 0 4 1 1 0 0 2 0 0 1 1 0 1 2 1 1 0 1 0 1 2 0 1 1 0 0 1 1 1 3 0 0 0 1 1 3 0 0 0 0 1 1 1 0 0 1 2 0 0 0 0 0 0 2 1 2 2 0 1 0 0 1 1 0 0 2 0 1 0 2 2 0 0 0 1 0 0 2 1 1 0 1 2 0 0 1 0 2 0 1 2 0 1 1 0 1 0 1 1 0 1 0 1 1 1 1 1 1 1 0 2 0 0 1 0 2 2 3 1 2 2 0 1 1 1 2 0 3 1 3 1 1 2 0 1 0 1 2 0 0 0 2 1 0 1 0 0 1 1 0 0 0 0 0 2 0 1 1 0 1 1 0 0 1 2 2 0 3 0 0 1 2 0 2 3 2 1 3 2 1 0 1 1 1 0 0 1 1 1 0 1 2 1 1 3 1 0 2 0 0 0 1 0 0 0 2 2 1 0 3 1 1 2 2 0 0 0 2 0 0 2 2 0 1 0 2 1 1 1 1 0 0 1 1 1 3 0 2 0 0 1 0 0 3 0 2 0 0 1 0 1 0 2 1 0 1 0 1 4 2 1 0 1 0 1 1 0 1 0 4 2 1 0 1 0 2 0 1 0 1 0 0 0 0 1 1 0 0 0 2 1 1 2 0 0 1 0 1 0 0 0 2 1 1 0 1 1 1 1 0 0 0 0 0 0 1 1 0 0 0 2 1 0 2 0 0 0 0 0 0 1 1 1 0 0 0 1 1 0 0 3 1 0 0 1 1 0 0 0 0 1 1 0 3 1 2 1 0 1 0 3 2 2 3 0 2 1 0 1 1 3 1 1 2 1 1 0 2 1 0 0 0 2 0 0 0 0 0 0 1 0 0 1 1 1 2 0 1 0 1 0 1 0 1 1 1 0 2 1 2 2 0 0 2 1 2 0 2 1 2 1 0 0 0 0 2 0 1 0 1 1 2 1 0 1 0 2 2 1 2 2 0 1 0 0 1 1 1 2 2 1 2 0 0 0 1 0 0 1 0 0 1 1 0 0 1 1 0 1 0 1 0 0 2 2 1 1 0 0 1 0 1 1 2 1 0 1 1 1 1 0 1 2 3 1 1 1 0 2 0 1 0 2 1 3 0 1 0 1 1 1 0 2 1 0 0 1 0 2 0 0 0 0 0 2 1 2 1 1 1 1 0 0 3 0 3 1 2 2 1 1 0 1 1 0 1 1 2 0 0 0 0 0 1 2 3 3 1 0 1 0 2 1 0 0 0 1 1 0 0 0 1 1 1 0 2 0 0 0 2 1 0 0 4 0 0 1 0 0 1 0 2 1 3 0 0 1 0 1 2 1 0 4 1 0 0 1 1 1 0 0 1 0 1 0 1 0 1 1 0 1 2 0 0 3 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 2 4 1 1 0 1 1 0 0 1 0 1 1 1 0 1 2 0 1 1 0 0 1 2 1 0 0 1 1 1 1 1 1 1 0 0 0 1 0 1 2 0 1 0 3 1 0 1 1 0 1 3 2 2 0 0 0 1 1 0 0 0 2 0 0 0 1 1 0 1 0 0 2 1 1 2 0 2 1 0 0 1 1 0 1 2 0 0 0 2 0 1 1 2 3 2 1 0 0 0 1 2 1 1 2 0 1 0 2 0 1 2 3 0 1 0 3 0 0 1 1 0 1 1 1 2 0 0 2 2 0 0 0 0 1 0 1 1 0 1 0 2 0 1 2 0 2 2 1 1 1 0 1 0 2 0 0 1 1 0 0 1 1 1 3 1 0 1 1 0 0 3 1 2 0 0 3 1 0 1 2 2 1 0 1 3 1 0 1 2 0 2 3 1 0 0 0 1 1 1 3 0 0 0 1 0 1 1 0 2 1 2 2 1 0 1 0 1 1 1 0 1 0 0 2 1 0 0 0 0 2 1 1 0 1 1 1 1 1 2 0 0 1 3 0 0 0 2 1 0 2 0 0 0 0 1 1 2 2 0 2 0 3 0 1 2 2 1 0 1 0 1 1 1 0 0 0 1 0 1 1 1 1 3 1 1 1 1 1 1 2 2 1 1 2 2 1 0 0 0 1 1 1 0 3 0 1 0 3 1 2 0 1 0 0 0 0 1 0 3 0 1 1 2 1 0 1 2 0 1 2 1 1 0 0 0 0 0 1 3 0 0 1 0 1 1 1 1 1 1 0 1 1 0 0 3 0 1 1 0 1 0 0 0 1 1 2 1 1 0 1 0 1 2 1 1 1 1 3 1 0 0 0 2 0 2 2 0 1 0 1 1 2 0 1 1 0 1 1 3 1 1 2 2 1 0 3 0 0 2 1 1 1 0 1 1 0 1 0 1 0 0 2 0 0 1 1 2 1 3 0 1 1 2 1 1 1 0 1 0 0 0 3 0 0 0 1 1 1 1 0 1 2 1 1 1 0 2 0 2 0 2 2 1 1 0 2 0 0 1 0 0 3 0 0 2 0 0 0 0 0 1 2 0 1 1 0 0 1 2 0 0 0 0 0 2 1 4 0 1 3 1 0 0 1 3 3 0 1 0 1 0 1 0 1 0 0 0 0 0 0 1 0 1 1 2 2 0 1 0 1 2 2 0 0 0 0 2 1 2 0 0 1 0 1 0 3 1 1 1 2 1 0 0 0 0 0 0 0 0 1 0 1 0 1 1 0 2 0 1 1 2 2 3 0 1 0 2 0 1 2 0 1 3 0 4 1 2 0 1 3 0 1 0 1 1 0 1 1 2 2 0 0 0 0 0 1 0 1 1 1 1 1 0 0 0 0 3 0 0 0 0 1 2 0 0 1 3 0 0 0 1 0 2 0 1 0 0 0 1 2 0 0 1 2 3 1 1 1 0 1 0 1 1 3 0 0 1 2 0 0 1 2 1 1 1 3 3 0 2 0 1 0 2 1 0 1 0 1 0 0 1 1 1 1 0 1 1 0 1 0 2 1 0 1 1 1 1 1 1 0 0 1 0 2 0 0 1 0 2 1 0 0 0 1 0 3 1 2 1 2 0 0 0 0 3 0 0 1 3 0 1 0 2 2 2 0 1 2 0 0 0 1 1 0 0 0 1 0 1 1 1 1 2 1 1 2 2 1 2 1 1 1 0 2 1 1 2 0 1 0 1 1 1 3 3 0 1 0 0 2 0 2 0 2 1 0 0 1 1 1 0 0 0 4 1 1 1 0 0 1 0 1 1 0 0 3 2 1 0 2 0 0 0 2 0 2 0 1 1 0 0 1 0 2 1 2 0 1 2 3 1 2 0 0 0 1 2 2 1 0 2 0 1 1 0 3 0 2 0 0 2 1 0 0 1 0 1 0 0 3 1 0 2 0 0 0 0 0 1 2 0 0 0 0 1 1 0 0 1 2 1 3 0 0 1 1 0 1 1 1 2 0 1 1 1 1 1 3 0 4 0 0 2 2 0 1 1 1 1 1 0 0 0 1 0 0 1 1 3 0 0 0 0 0 2 0 1 1 0 2 1 0 2 2 0 0 0 1 0 1 1 3 1 0 0 0 0 0 0 1 1 2 1 0 1 1 2 0 0 1 1 1 0 2 0 0 0 1 1 1 0 1 1 1 1 0 1 0 1 1 1 1 1 0 1 0 1 0 0 1 1 0 0 1 0 1 1 1 2 3 1 1 2 0 3 0 1 1 3 1 2 0 2 0 3 0 2 0 2 3 0 1 0 0 1 1 1 1 0 3 1 0 1 1 1 0 0 2 1 1 1 3 1 2 2 1 0 0 1 0 0 1 0 1 2 0 1 1 1 1 0 1 0 0 1 1 1 2 0 0 1 2 1 0 0 1 1 1 0 0 1 1 1 0 0 2 1 0 1 1 2 2 2 0 1 1 0 2 1 1 2 1 0 3 1 3 2 0 1 0 1 1 0 0 0 0 0 1 2 0 1 0 0 0 1 1 0 1 1 2 0 0 0 1 0 0 2 1 1 2 0 2 1 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 1 0 2 0 1 1 0 2 0 0 0 0 0 0 1 0 3 0 0 0 3 2 1 1 3 1 3 0 0 0 0 1 1 3 1 0 1 3 2 0 0 0 0 1 2 0 0 2 1 1 2 2 1 1 1 3 0 1 1 3 1 0 3 1 0 0 0 2 2 2 2 3 1 0 1 2 0 0 2 0 3 2 3 0 1 0 0 2 2 1 1 3 2 0 2 2 0 0 1 1 0 0 0 2 0 1 0 1 2 0 1 0 0 2 1 2 0 3 0 0 1 2 0 1 1 2 0 0 2 0 3 0 1 0 0 0 1 1 1 2 2 0 2 3 0 2 1 0 0 0 0 0 0 0 0 0 1 2 1 1 1 2 1 1 0 0 0 2 1 0 2 0 0 0 0 1 1 3 2 1 0 1 0 0 1 2 1 0 2 0 1 0 2 1 0 0 1 0 0 2 0 2 0 2 0 1 2 0 0 0 1 0 1 0 1 0 2 1 2 0 0 0 1 0 0 1 0 1 1 0 1 0 1 1 1 1 0 0 1 0 2 2 1 0 1 1 3 1 2 1 1 0 2 1 2 0 0 0 1 0 1 0 1 2 1 0 1 3 1 1 0 2 0 1 2 0 1 1 1 1 0 1 1 1 3 0 1 0 0 1 0 0 0 1 1 4 1 3 0 1 0 1 0 1 0 1 1 2 2 1 1 1 1 0 1 0 2 2 1 1 0 2 1 2 1 1 1 2 0 1 1 3 3 1 2 1 0 2 1 0 1 2 1 0 0 2 0 1 0 1 1 1 2 1 1 3 0 1 0 2 3 1 0 2 0 0 0 1 0 1 1 1 2 0 1 0 1 1 0 0 1 1 1 0 0 2 2 1 0 0 2 0 1 0 1 1 1 0 0 1 0 1 1 0 1 1 1 0 0 1 1 0 4 0 1 1 1 3 0 1 0 1 0 2 1 1 2 0 0 1 0 1 1 0 2 1 0 1 1 0 1 2 0 1 1 0 1 0 1 2 0 0 1 1 0 2 1 1 1 1 2 0 1 0 3 2 0 2 1 1 0 1 0 1 0 1 0 2 1 0 0 1 1 0 2 1 0 1 1 0 0 3 0 0 2 1 0 1 0 0 0 1 1 1 1 1 1 2 0 0 3 2 0 1 1 1 1 0 0 0 0 1 0 3 0 3 1 1 2 1 0 1 1 1 0 2 0 0 0 1 0 2 0 2 1 1 2 0 0 1 0 0 0 1 1 0 0 1 0 1 0 0 0 0 1 0 1 0 0 2 1 1 2 0 0 1 2 0 0 0 1 1 0 1 2 1 2 2 0 0 2 1 0 2 0 3 4 0 0 0 0 0 0 1 1 0 0 1 1 2 1 0 2 2 0 2 0 1 3 0 0 1 0 0 3 1 1 0 3 1 3 0 1 0 1 1 1 1 0 1 1 3 1 1 1 1 1 1 1 2 1 0 0 1 0 1 1 0 0 1 0 0 0 0 1 2 0 1 0 0 1 0 2 0 1 0 2 2 1 0 2 1 0 0 2 1 0 2 0 0 0 0 1 0 0 0 1 2 0 1 0 1 0 1 1 1 3 1 1 2 2 0 2 0 0 0 1 2 0 1 1 0 1 1 0 0 0 1 0 1 1 0 2 1 0 1 2 2 0 1 0 2 0 1 1 2 2 1 2 1 2 1 1 0 0 1 0 0 3 0 0 0 2 1 1 0 2 1 2 0 1 2 0 0 1 0 1 2 1 0 2 0 0 0 1 1 1 1 0 0 1 1 0 0 0 0 2 0 2 1 0 1 1 0 1 1 1 1 0 1 0 2 0 2 1 2 0 2 1 1 1 1 0 1 1 0 1 2 2 0 1 1 3 0 0 1 0 1 0 0 2 0 1 1 3 0 2 0 1 0 0 1 1 0 3 0 1 0 0 2 3 0 0 0 2 1 1 0 1 0 2 0 0 0 1 1 1 0 1 1 0 0 1 1 2 1 2 1 0 2 0 1 0 0 0</t>
+    <t>GAM(61.86512121214863, -41.722717629306565, 1.0147497825155338)</t>
+  </si>
+  <si>
+    <t>27 13 17 7 13 10 20 16 20 27 11 27 14 24 14 21 19 20 31 12 21 25 37 29 17 13 31 24 19 9 13 20 29 31 16 20 21 13 19 19 27 10 14 22 21 28 21 24 26 27 17 17 24 6 30 18 17 10 24 13 21 17 21 13 28 20 33 13 10 16 20 21 30 26 24 28 27 14 24 10 23 21 24 14 26 20 20 16 21 20 31 17 24 23 35 10 16 31 24 20 14 34 27 3 28 17 24 28 44 31 24 34 25 17 14 17 7 7 17 11 38 7 27 21 12 13 30 30 20 19 30 35 27 34 17 13 20 13 21 13 27 20 24 19 21 29 24 21 21 17 10 24 20 24 13 28 30 10 20 21 6 16 28 17 23 20 17 34 17 17 13 17 21 31 14 23 24 21 0 23 27 23 19 17 15 20 22 13 24 24 25 22 20 11 21 31 19 19 20 14 26 17 33 28 34 21 30 32 21 21 16 21 27 29 20 27 27 16 17 23 28 24 17 20 29 16 14 24 26 16 13 24 7 38 20 26 20 27 17 7 28 23 37 27 31 34 6 30 12 20 17 17 24 10 23 16 9 30 23 23 20 7 27 14 24 28 33 20 24 24 16 8 28 11 32 21 41 34 10 17 14 10 10 13 28 26 21 23 38 20 21 21 23 22 17 24 20 31 20 31 24 26 13 10 27 23 23 14 19 19 34 20 14 20 35 10 10 12 30 3 17 18 27 21 10 31 24 26 13 31 16 44 21 21 13 11 37 21 12 30 3 27 12 17 24 24 24 13 27 23 15 17 17 20 8 13 30 30 31 13 25 14 16 12 17 24 24 16 30 10 16 20 20 15 31 21 16 14 6 14 26 24 24 17 20 23 27 19 20 34 17 20 20 10 25 27 3 24 9 10 7 13 17 17 21 30 42 26 24 14 19 20 13 24 14 24 12 13 20 30 30 17 26 13 20 19 37 33 16 25 20 10 21 37 20 17 27 17 23 24 27 16 28 20 34 31 18 22 14 28 10 14 28 20 28 20 6 30 22 27 16 27 10 17 17 39 28 13 27 16 21 20 27 10 16 18 17 16 27 7 14 24 27 17 31 34 30 16 24 29 41 20 13 7 20 38 31 10 13 31 13 14 17 24 24 6 16 34 15 21 27 29 6 20 34 24 17 9 22 16 20 14 27 12 19 16 31 23 6 17 27 31 27 35 27 7 31 30 13 21 21 28 36 20 10 17 20 17 17 14 20 13 14 10 31 34 17 16 17 14 31 33 17 20 14 13 20 31 19 28 27 19 24 31 27 28 20 24 24 24 10 21 21 16 13 23 16 16 24 19 35 21 13 24 23 23 21 31 19 21 14 7 17 34 28 10 16 15 21 17 33 30 21 34 27 30 26 40 10 10 19 21 27 16 24 16 0 27 17 20 20 21 28 25 17 6 17 19 16 37 15 10 14 13 28 24 20 6 24 23 18 31 27 27 24 21 22 14 24 16 35 26 27 17 31 9 21 37 31 23 21 20 25 31 24 31 42 27 8 18 24 9 13 28 28 24 31 24 12 14 19 31 18 20 20 27 27 28 12 24 26 40 20 24 21 16 10 17 28 16 22 23 41 10 20 35 20 28 31 14 11 17 21 38 33 21 20 23 21 10 24 17 7 28 16 22 10 16 13 16 20 23 17 31 17 17 32 10 17 9 22 35 24 10 15 8 25 13 33 24 23 23 31 37 27 31 28 27 14 22 18 20 22 13 27 24 17 35 17 30 25 28 14 24 10 20 10 25 24 20 18 10 24 14 27 23 13 10 31 20 20 20 17 21 19 28 23 10 14 38 31 20 9 23 24 20 20 17 10 16 13 31 16 34 10 35 24 13 16 28 24 28 20 10 35 20 21 28 15 17 18 6 30 14 22 13 14 34 10 17 28 27 38 15 16 21 20 14 7 7 14 10 20 17 26 24 17 17 24 14 31 17 14 20 22 13 26 6 27 27 26 14 20 20 13 10 20 13 27 17 24 38 17 27 13 22 17 48 31 28 10 23 14 13 7 25 31 26 20 31 17 28 31 34 24 16 23 24 24 31 19 28 14 21 26 28 10 31 33 27 30 12 14 20 27 13 17 17 13 10 21 29 31 14 30 19 24 27 17 16 52 30 21 21 24 26 10 10 20 15 14 24 27 38 6 24 19 27 16 17 17 38 27 35 26 35 35 27 0 20 27 34 27 23 21 17 14 27 19 14 23 24 28 17 24 24 21 21 19 13 20 31 24 10 18 24 34 28 17 13 13 7 41 17 10 20 16 10 24 36 20 28 13 17 26 16 20 30 34 20 48 7 27 18 20 31 33 31 24 13 28 17 27 20 17 16 7 16 20 20 28 16 38 26 55 20 24 21 20 33 7 10 17 31 13 3 24 20 21 14 27 14 20 24 13 20 20 26 17 34 19 17 17 20 10 21 33 16 16 13 7 3 27 27 20 12 17 24 23 18 14 25 7 21 27 7 17 28 13 36 17 19 35 34 16 24 24 24 28 38 20 22 38 10 24 17 28 24 42 14 23 24 42 45 19 27 6 17 14 24 27 33 28 20 35 6 24 10 23 10 16 31 34 33 34 45 26 22 28 28 12 19 19 27 35 24 16 10 32 17 17 3 23 10 9 24 17 31 6 27 6 26 10 24 14 24 20 31 10 29 27 28 20 27 13 19 19 28 13 14 8 24 30 27 24 10 24 14 20 7 7 17 52 34 17 33 24 17 20 13 3 24 19 30 17 20 17 23 29 24 20 10 17 16 6 27 27 10 17 17 18 14 21 21 9 13 21 20 10 31 15 23 23 14 28 31 27 24 20 15 7 17 17 20 17 27 23 38 7 12 24 17 22 21 20 13 23 28 28 26 24 17 14 24 31 20 20 38 24 27 22 21 13 6 27 14 17 10 17 24 27 14 14 10 24 13 21 6 21 27 9 20 17 27 10 20 10 27 17 59 17 21 14 34 40 25 31 13 19 24 0 9 26 28 21 21 17 14 20 23 34 24 23 26 31 24 22 13 20 14 17 16 24 27 23 16 20 20 27 34 17 6 30 10 27 17 35 9 34 22 14 34 31 17 9 16 21 10 20 36 20 20 16 19 21 21 28 27 28 12 17 16 17 17 3 20 27 37 18 16 17 18 20 20 20 26 24 27 41 21 14 22 20 17 25 24 38 27 14 36 30 21 23 27 13 23 21 23 27 17 23 13 22 38 37 24 10 21 34 33 10 20 13 9 21 52 27 20 17 10 30 13 19 27 17 21 14 30 21 7 8 24 21 20 10 31 13 20 17 23 27 26 17 6 19 24 27 30 31 22 16 13 29 20 21 14 10 35 34 29 31 20 24 40 30 24 33 17 30 21 17 14 22 7 29 34 17 27 20 48 7 21 33 27 20 21 30 31 20 24 28 17 26 31 20 10 34 31 14 17 9 31 27 24 24 30 13 31 24 20 34 16 14 26 41 14 24 25 24 20 7 6 27 17 27 31 24 22 27 12 17 26 17 21 17 21 10 31 20 13 14 17 10 15 19 13 34 22 20 17 20 30 24 6 31 23 24 23 23 21 9 14 14 10 20 24 27 3 31 20 17 15 28 17 17 27 20 14 27 20 24 34 13 17 20 25 20 26 35 3 31 31 31 18 24 18 17 27 28 14 33 10 30 24 20 7 19 10 27 27 24 6 10 34 17 15 13 24 17 21 27 21 26 38 21 17 23 13 23 26 10 14 20 34 21 14 17 27 20 20 17 23 16 27 27 13 21 20 9 22 31 3 24 27 34 10 17 22 16 7 14 31 31 19 35 18 21 10 20 35 22 20 21 31 35 13 17 16 38 24 21 16 20 31 28 13 21 30 38 20 29 17 20 13 20 14 27 10 9 24 17 17 14 24 27 24 34 29 17 35 19 19 31 16 7 17 24 18 22 13 24 20 41 21 21 27 20 35 20 25 16 26 28 17 14 21 10 20 17 21 20 10 17 21 19 28 13 7 13 24 17 16 24 7 10 17 21 22 31 12 28 24 24 37 22 7 20 21 34 21 31 21 15 21 16 14 22 26 23 20 31 31 24 10 18 16 12 31 20 27 28 9 17 13 21 18 6 27 13 10 3 15 6 28 9 20 17 24 10 27 17 21 24 31 21 31 29 13 27 10 24 19 27 35 20 16 23 27 14 25 17 18 24 44 24 20 14 26 13 25 28 26 10 27 9 23 17 23 27 41 26 21 10 21 26 12 21 32 17 21 17 24 17 21 17 24 24 24 25 27 14 30 27 37 16 23 10 19 19 33 17 17 12 6 16 16 28 9 21 27 10 24 20 20 21 35 17 10 17 31 20 21 31 27 14 37 16 23 10 14 31 17 17 19 17 13 23 16 24 10 13 10 30 17 24 17 21 48 29 12 24 31 20 16 33 20 20 19 35 24 26 9 24 13 23 34 31 22 14 27 33 16 10 14 21 33 25 30 26 7 24 31 7 17 21 13 18 17 20 24 21 21 17 33 10 23 12 14 21 3 8 21 24 30 41 6 44 30 36 30 10 23 24 27 14 23 14 8 17 24 38 17 24 13 13 27 12 12 24 0 20 28 13 23 27 14 30 24 20 23 28 23 34 25 13 20 31 10 21 35 3 20 19 24 16 17 28 24 21 10 17 24 10 18 20 20 10 10 28 24 26 9 24 24 6 13 26 7 24 27 28 24 23 17 26 31 10 13 23 9 35 13 23 17 30 10 0 24 23 42 13 23 23 14 17 28 21 38 26 23 24 27 21 26 31 14 21 17 10 24 14 27 24 31 7 13 10 24 27 31 18 9 23 21 30 31 14 10 14 31 14 20 20 24 27 21 20 24 21 10 30 0 13 24 34 14 15 35 31 17 13 20 16 22 14 16 17 22 30 10 20 16 10 21 23 25 31 16 21 24 3 21 23 27 27 24 24 23 34 34 20 23 22 17 17 18 10 28 10 23 10 20 13 21 17 20 14 14 24 28 21 21 23 9 21 14 20 28 24 9 34 15 35 13 20 37 13 21 27 24 34 3 16 20 21 24 14 21 7 14 23 14 17 21 17 14 24 23 21 16 16 21 34 30 17 21 27 38 19 20 21 25 28 21 10 14 38 13 27 20 27 38 29 23 19 17 34 24 17 17 25 6 24 16 27 17 24 7 23 21 10 17 17 34 33 23 34 20 13 14 19 35 19 24 13 27 34 24 16 38 19 20 28 23 21 20 22 41 17 18 24 19 13 20 14 12 14 27 24 15 9 24 28 17 7 26 30 34 31 21 17 28 26 13 38 31 3 14 17 24 30 30 17 27 25 20 34 21 28 31 34 14 26 17 34 14 20 20 20 20 34 27 19 44 23 20 13 31 38 27 24 31 20 34 24 21 34 10 16 28 18 24 28 34 0 38 27 20 16 13 17 21 21 38 14 30 10 10 18 38 20 34 20 15 28 13 20 10 17 30 23 20 20 14 30 8 19 20 13 23 7 14 17 5 21 19 20 14 30 21 6 14 30 26 17 11 12 24 15 33 13 23 10 27 27 17 17 24 21 24 24 3 13 28 17 21 41 13 10 24 26 17 27 26 16 23 17 24 17 31 13 24 27 20 27 24 27 10 17 21 20 20 16 33 38 38 9 28 10 24 20 31 28 31 16 27 24 17 22 24 9 7 21 10 24 27 21 20 17 13 31 26 6 24 27 28 8 13 30 18 31 17 27 33 30 16 7 20 25 20 31 26 23 28 21 30 21 13 17 35 31 33 32 20 35 17 16 7 26 21 6 24 27 21 10 24 31 12 17 16 28 10 20 16 37 28 27 20 15 34 13 35 17 38 16 33 30 6 19 22 24 17 31 24 30 20 13 13 22 12 34 20 26 7 20 24 20 20 27 15 37 24 26 7 24 20 24 14 20 25 21 38 28 34 24 24 21 30 27 10 17 14 10 21 24 28 21 34 24 26 28 13 14 28 31 13 20 24 6 35 17 17 30 23 9 20 14 16 28 14 6 28 24 16 27 28 30 24 24 24 21 19 16 24 27 10 35 24 34 20 24 10 23 27 10 24 13 24 17 19 11 33 16 13 24 22 14 16 21 13 23 20 18 26 27 23 16 19 6 20 16 40 35 27 28 30 23 18 43 31 18 20 13 7 27 20 21 34 17 35 21 13 34 17 6 29 31 10 7 17 34 10 28 20 24 34 13 20 21 27 12 9 29 42 38 11 24 13 23 19 30 24 17 10 21 29 10 38 19 36 19 24 17 16 10 24 31 20 19 27 21 24 12 34 23 29 20 31 6 17 19 17 14 3 24 23 37 17 24 16 13 35 13 0 10 17 27 36 19 31 14 24 30 26 38 26 7 6 26 28 31 10 16 21 16 14 27 24 3 13 10 28 19 24 17 24 13 34 28 20 27 19 44 31 30 14 23 13 14 17 3 31 17 33 13 24 17 21 14 27 24 24 21 26 30 22 21 20 18 16 13 17 21 12 38 20 16 27 10 10 34 24 34 17 29 17 27 14 20 23 23 20 27 23 17 30 14 17 22 20 28 17 10 24 24 14 8 16 38 13 30 10 19 20 9 24 19 27 33 23 23 48 24 17 20 10 27 11 16 23 27 14 17 13 10 37 27 34 27 31 24 23 17 27 28 27 35 20 24 34 28 10 17 21 13 42 17 15 21 20 12 16 20 31 35 14 10 24 20 14 23 9 14 16 27 23 13 20 21 30 20 3 37 24 32 17 18 21 17 21 24 20 24 24 13 25 28 24 16 21 16 23 23 17 3 38 16 3 10 27 24 22 27 14 17 14 17 20 10 22 20 27 24 17 14 16 9 17 27 24 23 24 19 20 26 13 28 25 17 24 24 24 21 38 20 23 19 10 17 27 7 21 20 21 14 31 21 42 15 27 19 13 20 34 23 24 9 21 30 17 34 23 21 17 42 14 28 20 19 20 24 17 13 21 15 20 30 16 13 14 6 13 14 34 38 20 9 3 14 18 34 17 49 27 13 31 27 28 14 17 10 17 20 27 26 20 19 24 17 20 28 34 30 14 13 35 34 14 28 24 13 35 41 17 21 34 28 23 12 30 16 14 21 9 14 14 24 10 6 13 9 23 20 20 21 29 21 13 26 37 31 21 17 17 24 24 20 19 27 17 20 19 32 21 27 20 14 14 17 13 7 21 35 23 41 8 7 26 17 17 17 32 13 19 13 21 25 13 16 24 23 21 41 27 24 17 20 16 35 16 19 27 26 35 17 13 21 28 30 42 19 23 36 17 24 9 11 14 0 17 21 13 16 18 19 26 24 27 12 13 34 16 35 24 28 24 3 17 10 20 17 24 35 33 16 17 16 15 23 20 24 24 26 25 17 12 26 25 34 14 33 15 17 13 17 35 16 10 31 17 17 24 7 14 27 17 24 17 30 17 17 21 10 29 27 20 14 26 27 27 21 30 16 34 20 17 7 13 23 35 24 17 10 21 20 20 25 7 13 23 23 7 17 6 14 27 17 17 24 30 24 28 23 22 30 16 10 38 20 21 31 24 28 17 27 24 35 14 19 40 7 24 24 17 34 21 13 30 27 9 30 24 7 17 14 27 34 20 16 10 9 19 17 17 13 31 23 17 24 16 27 19 13 20 17 19 27 27 23 21 24 27 28 17 18 33 34 17 18 30 15 13 9 28 34 10 24 20 31 13 41 24 14 17 24 10 21 27 31 17 17 39 37 31 17 26 20 16 20 13 30 27 6 14 26 21 16 21 21 27 31 20 31 15 22 26 3 34 20 45 7 17 10 27 30 24 13 30 17 27 16 16 17 21 25 20 30 24 24 7 21 26 17 24 23 20 33 17 14 10 26 17 38 38 31 20 17 25 20 14 27 31 17 10 27 28 17 27 17 20 17 20 17 29 3 15 13 24 24 17 13 16 20 17 23 23 24 13 13 17 9 17 23 14 16 27 24 19 17 20 28 23 23 14 28 9 15 17 21 28 16 10 15 31 28 23 17 14 24 20 17 34 33 19 19 13 19 24 6 37 27 16 17 20 21 27 21 24 38 17 27 28 37 28 17 38 7 21 14 20 14 22 28 22 30 27 3 19 31 14 23 18 14 19 12 12 18 6 20 23 17 24 23 28 27 22 27 38 20 19 23 13 27 28 24 31 15 20 14 14 27 27 23 21 12 13 24 20 17 19 24 28 31 14 24 21 21 7 33 26 23 34 7 24 16 35 20 30 24 12 28 19 31 17 20 20 13 25 25 21 21 31 31 30 16 31 17 10 17 23 23 13 18 20 24 20 28 7 14 16 20 23 0 17 14 23 26 13 23 24 29 23 19 27 26 13 14 21 21 7 26 20 21 14 34 10 20 18 13 17 21 25 31 23 16 10 24 24 12 28 14 14 24 30 22 10 24 21 22 42 32 19 33 10 14 7 27 24 24 28 22 26 13 14 10 16 20 17 20 34 24 21 27 13 23 27 20 7 20 14 22 31 27 27 15 14 28 21 21 24 24 29 12 27 15 13 21 6 27 23 6 19 31 22 11 24 18 20 22 23 28 12 25 22 17 11 9 30 20 38 24 42 34 28 14 20 28 23 27 10 27 31 24 21 10 20 0 28 17 17 27 31 24 25 27 20 13 31 13 10 19 24 33 10 29 24 10 17 34 30 27 17 25 17 30 27 24 38 24 20 21 10 27 21 16 23 37 10 22 23 23 28 16 3 17 3 21 19 23 9 17 31 7 28 37 20 30 21 25 14 24 20 16 14 20 27 31 23 19 34 23 17 17 24 17 31 21 21 30 17 19 16 20 19 19 31 21 34 21 23 17 35 27 23 7 17 13 38 31 13 10 14 28 27 6 17 24 20 14 7 31 20 18 6 30 21 20 37 33 27 24 28 17 20 21 10 31 10 21 21 35 24 34 24 15 17 37 28 30 26 27 28 6 34 16 27 14 18 25 20 13 9 17 27 17 20 34 24 27 21 17 30 27 27 16 23 6 16 3 12 29 16 31 22 20 31 0 33 27 20 35 24 14 20 14 17 22 34 17 27 20 17 28 17 11 14 19 28 19 27 10 22 13 27 24 20 20 24 20 20 21 21 13 34 7 23 16 23 17 23 21 16 13 42 7 12 6 27 30 27 23 27 28 21 28 20 6 30 34 20 23 10 27 13 24 17 16 19 45 15 16 35 52 24 28 12 45 37 24 16 21 6 34 19 9 23 12 27 26 27 9 21 17 27 26 29 19 41 12 23 19 17 27 24 21 24 16 10 27 15 24 34 28 13 16 28 7 21 27 30 27 31 13 18 17 17 26 24 31 6 17 28 14 33 17 24 9 17 21 10 24 27 30 20 21 12 10 30 17 13 13 24 20 13 16 10 26 29 20 23 24 31 8 19 28 28 41 20 24 6 10 31 20 20 20 33 22 31 9 26 20 24 21 20 20 20 7 12 8 21 22 11 24 10 24 7 13 24 24 21 10 13 9 20 21 17 7 18 33 23 20 14 22 27 21 10 30 14 34 21 21 13 24 7 20 21 27 13 20 23 14 41 14 21 31 3 17 13 14 16 31 20 17 21 21 17 22 20 14 27 23 15 28 10 17 6 9 7 16 35 27 17 20 21 17 24 7 21 9 13 27 22 16 3 31 20 17 43 14 27 17 24 16 30 17 7 16 26 23 6 27 18 13 35 38 27 26 23 0 21 13 28 26 10 24 14 23 31 21 27 36 16 20 25 27 25 14 33 23 10 20 24 24 34 13 16 31 6 13 23 17 24 23 16 17 23 23 19 21 34 14 19 24 14 24 17 24 28 13 20 17 20 17 19 31 14 21 13 13 13 17 20 37 37 17 27 10 14 24 24 24 13 19 23 26 27 14 13 24 26 10 20 20 23 20 21 16 17 23 17 32 34 28 33 21 35 12 10 28 34 24 23 22 17 16 16 20 21 16 21 14 10 17 9 16 14 21 24 30 27 16 17 17 26 14 20 13 13 27 13 24 15 6 25 23 16 17 16 24 10 24 13 29 24 31 22 18 23 21 20 24 27 12 10 27 28 31 17 29 24 13 24 15 20 16 27 42 10 24 24 20 28 27 10 24 13 29 21 24 17 10 13 16 12 17 31 30 13 21 40 38 23 17 38 30 9 21 13 23 27 20 18 9 17 16 14 21 21 19 21 17 26 26 20 30 30 17 20 21 20 38 14 6 10 31 23 10 24 28 12 0 31 18 17 24 17 24 27 14 19 16 16 27 17 16 21 20 14 31 13 17 23 28 13 23 24 19 18 35 17 37 23 24 31 17 27 20 13 14 27 19 21 16 34 35 19 24 28 20 24 17 20 23 13 17 17 13 17 17 38 22 21 24 15 24 28 16 28 13 20 6 22 16 9 28 17 26 24 27 19 31 20 31 31 22 17 19 7 20 19 34 27 31 13 19 13 24 17 27 28 19 16 27 20 13 26 24 34 16 19 17 28 20 14 3 30 24 17 21 16 20 27 34 28 9 30 10 13 19 11 31 17 20 24 16 17 7 7 13 14 20 33 19 30 14 24 13 21 19 24 30 45 35 31 23 27 28 31 20 26 17 23 7 31 7 12 13 34 15 20 16 29 27 17 14 26 24 19 10 20 17 10 17 34 34 42 20 20 21 21 24 28 26 13 24 23 13 17 10 30 14 23 20 17 22 17 24 17 21 20 34 13 14 18 28 20 17 28 35 12 16 16 21 24 21 10 13 18 24 14 27 14 45 30 33 14 31 23 21 27 26 28 27 31 10 31 7 24 13 27 23 3 16 14 14 24 21 17 20 16 14 22 24 21 27 31 7 10 17 28 20 24 20 28 30 33 20 25 34 31 33 20 6 28 7 10 9 13 16 27 25 18 25 31 24 24 29 17 21 21 14 16 23 3 26 21 7 12 30 24 21 19 14 20 23 17 20 10 23 21 27 7 22 29 34 23 15 7 21 31 17 38 28 24 28 12 18 24 21 17 34 24 29 16 13 21 24 26 26 27 7 24 14 22 21 15 23 27 17 6 24 25 30 17 19 23 21 21 14 30 27 26 21 16 14 20 30 13 27 17 18 13 17 27 21 9 9 24 10 31 20 34 7 22 6 35 28 23 20 17 26 35 28 0 33 14 7 3 10 14 23 17 22 20 12 35 14 34 19 21 47 24 24 19 21 20 14 31 34 24 21 26 10 28 30 22 27 20 34 13 16 23 16 16 28 17 29 21 21 15 17 10 42 33 23 21 31 17 13 17 21 31 17 20 13 28 21 19 17 14 27 20 24 21 28 24 30 20 31 28 20 20 28 32 21 27 27 17 31 17 14 9 23 13 21 10 28 35 21 17 21 31 6 10 17 27 17 16 21 14 13 22 21 17 24 13 13 6 31 10 34 14 21 21 20 20 20 16 27 28 34 3 27 9 37 17 31 21 26 30 24 11 24 30 17 9 18 16 14 14 33 30 17 20 24 17 24 31 20 38 23 10 16 10 20 10 24 38 21 24 10 22 27 37 28 9 9 24 16 10 21 14 29 37 17 20 33 10 26 30 17 20 22 27 17 35 18 27 13 20 34 20 14 24 23 22 27 21 27 23 24 16 27 17 24 23 21 12 29 31 7 10 22 20 9 35 10 14 17 24 16 10 35 20 13 18 23 24 24 12 10 17 15 27 13 31 22 10 30 27 22 33 23 28 27 17 23 35 28 34 24 17 27 20 24 21 29 13 34 7 6 23 10 19 21 15 14 30 18 6 30 28 38 31 13 17 42 14 13 7 14 24 20 14 24 10 17 20 21 3 25 16 20 20 35 17 13 26 14 22 27 17 20 6 26 17 21 17 19 26 24 27 21 17 19 10 31 27 14 21 17 31 19 24 19 17 10 24 17 30 14 26 19 21 17 27 17 7 17 14 23 24 20 17 34 17 16 35 31 23 17 20 31 24 18 14 27 34 14 38 17 17 23 21 31 25 22 17 13 23 13 10 17 13 13 10 21 14 12 23 17 16 14 17 20 26 30 16 27 21 10 21 17 27 23 33 15 24 9 17 24 17 13 14 16 35 13 27 27 30 33 20 17 17 21 16 17 12 14 32 37 17 17 17 10 30 34 13 9 14 24 13 41 19 26 9 24 28 17 24 28 17 28 23 27 27 30 31 24 7 21 30 13 10 0 30 7 27 24 18 8 31 20 16 17 10 28 42 19 20 21 21 28 27 14 20 21 23 10 20 7 24 22 21 27 16 23 16 3 21 20 12 26 17 14 7 43 34 19 27 0 36 13 18 14 10 14 29 31 38 28 24 28 14 22 10 17 20 21 7 20 34 20 27 20 21 17 18 24 31 17 21 31 21 14 11 20 23 17 15 17 31 31 9 20 14 28 24 12 38 23 13 10 27 19 17 16 34 27 28 26 13 16 31 27 24 14 20 27 31 7 20 17 10 9 14 27 31 17 28 21 9 24 28 23 20 13 31 14 16 10 20 19 32 24 16 25 23 7 26 13 20 24 35 17 34 28 30 31 24 27 20 20 17 27 20 20 17 17 17 21 0 27 31 31 16 31 23 13 17 20 31 17 20 31 30 23 20 31 10 17 28 21 24 24 10 24 29 16 21 23 17 16 21 24 14 27 21 13 21 13 21 22 37 13 31 22 28 26 13 21 21 34 22 21 31 21 27 24 13 26 16 20 13 17 7 24 17 30 20 34 7 30 42 16 24 17 27 14 15 17 20 27 39 22 17 16 20 16 21 10 10 17 21 24 24 17 14 9 16 21 20 17 34 26 16 20 40 31 24 24 14 21 16 9 37 13 21 24 26 17 25 10 29 34 29 19 21 17 30 23 17 24 19 17 9 23 17 38 23 21 34 35 33 38 14 13 34 35 20 27 21 24 7 10 33 19 25 17 27 27 30 21 17 34 22 14 13 24 21 10 36 21 22 14 14 23 10 25 6 34 21 28 20 33 24 27 10 22 30 21 21 27 21 27 13 16 13 17 37 14 20 14 28 31 14 40 23 13 20 19 30 10 10 21 14 19 28 7 24 12 23 16 27 35 20 16 20 27 21 27 15 10 28 26 13 24 24 21 20 9 40 6 12 17 17 27 15 17 27 38 23 14 18 31 20 6 24 19 24 34 24 9 27 28 31 21 20 3 17 30 19 28 17 42 24 10 10 23 10 6 35 24 21 17 14 22 10 34 17 28 14 29 16 27 23 13 13 18 23 35 30 20 27 18 23 6 14 24 31 19 37 17 28 12 28 27 19 8 23 23 26 28 31 16 24 31 17 28 14 19 23 28 31 38 14 22 13 10 13 18 30 16 28 3 23 28 41 31 18 14 27 21 19 31 27 24 6 16 10 17 16 10 24 28 10 17 10 14 20 16 21 16 20 23 20 23 6 3 24 24 17 10 25 31 10 27 28 21 20 24 33 10 20 17 38 24 24 28 17 13 20 36 21 24 0 27 33 19 14 19 23 19 10 6 24 24 16 20 21 41 14 13 15 23 32 22 16 31 24 27 24 3 13 13 25 17 34 17 14 28 24 11 24 17 31 23 17 17 14 7 3 16 10 24 10 19 38 40 16 20 13 27 37 23 13 33 17 18 25 20 35 17 13 20 37 6 24 20 12 31 34 21 27 8 18 21 15 27 35 23 19 27 20 38 28 7 21 13 23 20 27 24 30 35 16 13 20 26 17 27 17 16 7 10 23 27 13 12 20 19 27 19 29 10 31 21 10 27 21 17 20 26 12 17 31 38 16 13 23 19 28 20 20 13 31 19 24 13 17 13 10 22 16 16 38 40 19 23 13 8 14 20 20 31 13 19 24 31 9 27 24 24 24 11 21 13 10 34 14 30 38 6 21 23 24 25 24 14 24 16 21 14 27 15 30 13 38 38 26 10 14 20 14 24 16 27 18 42 24 15 32 14 24 28 21 23 6 21 14 20 21 13 20 10 30 9 23 19 21 27 26 37 10 19 10 27 14 21 11 23 16 42 17 35 14 14 14 16 22 14 20 35 17 8 35 19 14 17 15 17 20 34 13 23 35 29 16 19 35 20 27 32 28 14 16 13 10 17 7 17 16 23 20 14 24 21 23 21 17 20 17 20 20 20 18 10 14 44 30 17 23 7 10 33 20 21 3 21 14 26 24 21 24 27 44 14 17 26 20 24 14 20 20 26 28 16 13 17 20 20 10 14 14 23 34 20 17 6 31 18 24 10 37 21 24 17 23 20 14 31 17 21 34 31 34 11 31 29 17 26 24 29 17 20 21 28 26 24 13 31 23 27 13 20 27 24 37 7 23 17 27 16 27 24 20 22 24 21 13 17 16 34 20 6 34 12 17 10 31 24 24 13 16 28 13 27 40 16 10 14 7 33 20 31 13 11 21 10 14 0 7 20 29 31 17 13 26 10 14 41 17 20 10 20 21 31 9 23 16 24 26 28 20 10 11 25 17 17 19 24 31 11 18 13 34 3 23 20 27 7 31 28 13 9 17 20 14 23 26 34 12 20 23 35 24 45 27 27 9 23 20 12 38 10 18 28 17 20 30 13 11 21 19 24 27 17 7 14 0 14 21 16 21 13 28 7 7 27 19 20 10 23 13 31 30 21 14 34 21 13 17 16 16 10 34 23 19 27 27 22 21 17 27 23 20 14 10 19 27 17 20 10 24 20 30 12 44 27 16 30 37 26 21 15 38 23 8 13 28 11 8 3 20 24 28 17 24 9 29 28 28 16 31 20 27 17 20 34 6 20 14 38 28 24 23 17 27 3 24 31 20 15 21 17 17 16 31 6 14 20 30 7 6 14 10 17 32 14 16 21 27 34 27 24 23 27 24 24 28 38 13 31 14 14 34 24 31 27 28 11 21 21 17 31 9 20 10 21 7 18 24 23 19 33 23 30 28 13 27 31 20 18 21 24 9 26 10 12 17 19 27 24 17 16 13 10 33 31 27 10 29 27 24 21 14 18 12 27 24 20 23 33 6 27 14 17 20 24 19 20 35 24 20 13 30 23 20 21 31 38 20 27 7 24 7 13 16 24 25 17 29 19 17 20 24 21 15 20 16 24 19 13 42 26 20 14 19 6 17 13 17 12 20 27 31 31 16 28 12 15 17 20 29 24 28 24 20 20 24 27 37 20 24 31 20 26 24 18 28 9 9 14 23 13 7 16 34 24 41 28 16 17 24 0 24 24 12 9 21 45 34 34 20 13 28 30 27 45 27 24 6 27 34 35 24 24 31 31 24 24 38 24 13 17 31 15 13 17 21 20 30 17 17 22 26 17 10 20 41 31 34 27 28 14 24 10 14 27 20 35 25 27 27 24 28 27 17 37 17 23 35 28 27 13 20 20 10 27 16 9 24 24 20 29 19 24 19 21 24 0 17 17 20 13 31 13 30 10 28 28 3 14 31 21 11 34 17 30 27 14 24 16 16 3 23 16 17 14 23 13 10 31 30 20 31 20 0 31 14 24 14 28 23 24 29 20 13 7 24 21 14 28 24 10 31 21 28 31 18 21 12 20 34 27 16 13 31 35 20 37 24 24 20 13 10 23 24 24 25 24 9 24 13 23 24 24 14 21 21 27 17 31 24 19 19 27 7 20 24 24 20 14 13 14 28 17 24 17 20 20 17 20 38 38 27 11 28 6 21 13 19 17 20 24 30 27 7 40 31 35 49 13 16 13 27 19 9 24 16 17 9 23 10 32 23 31 7 25 14 17 31 24 28 17 14 13 20 34 23 24 28 14 16 41 20 17 17 17 31 20 20 21 34 34 13 30 28 38 13 38 31 21 20 21 25 20 16 28 23 17 20 17 10 24 13 24 24 20 11 9 28 16 17 17 18 17 27 20 10 24 21 7 24 24 17 21 34 23 27 14 21 24 21 11 23 17 21 10 17 38 41 24 24 17 10 22 17 27 16 31 17 27 7 24 37 24 27 3 23 27 17 22 27 24 34 14 18 31 10 13 30 15 17 27 9 17 17 35 24 38 23 6 13 31 15 13 24 24 17 14 16 21 31 10 20 27 24 6 24 17 16 8 14 34 37 24 36 23 17 14 28 10 20 28 3 21 24 30 25 14 10 26 31 24 13 29 34 10 21 23 21 28 24 13 17 23 25 20 3 16 31 23 10 24 15 7 14 14 17 10 15 34 46 14 19 24 31 31 17 21 27 22 24 13 21 21 21 20 17 28 27 19 10 24 17 23 25 24 17 30 19 41 10 24 15 14 38 10 24 23 28 20 14 20 13 16 21 13 10 30 37 27 17 18 7 20 13 13 16 31 17 34 31 27 16 9 20 24 19 38 27 24 35 20 21 24 21 24 21 35 10 28 24 19 24 23 38 17 29 16 23 13 28 31 6 42 39 38 20 31 37 16 23 20 23 7 33 21 28 31 24 17 18 16 19 12 24 20 18 20 14 20 31 24 17 13 28 14 16 3 26 24 14 10 26 28 23 9 6 28 29 16 35 35 7 16 16 31 24 30 16 24 20 21 10 22 26 14 26 28 14 10 11 14 34 24 24 31 20 34 26 30 7 15 14 15 23 31 28 16 28 17 27 31 7 28 30 23 17 24 14 17 31 22 9 35 17 13 17 31 17 31 23 14 20 13 23 12 10 22 34 26 19 13 22 20 21 22 20 30 21 25 24 10 23 20 14 23 30 16 35 31 17 14 29 13 6 31 24 27 20 10 7 21 24 35 25 28 16 21 24 23 28 13 27 41 13 27 10 24 19 17 10 3 38 20 26 11 21 17 19 41 12 22 6 21 20 13 31 16 27 19 27 3 24 20 21 21 21 10 7 13 20 14 9 24 3 41 14 23 20 16 17 23 18 29 17 13 7 23 27 22 17 24 20 23 24 33 16 27 25 24 12 24 33 23 30 12 23 24 27 3 27 14 31 21 23 24 13 20 23 20 6 24 30 3 31 6 35 22 17 3 13 10 7 24 23 27 23 32 27 34 17 30 17 13 24 37 21 21 30 6 21 17 42 23 37 16 24 16 23 18 20 21 21 10 20 27 22 16 14 21 23 30 15 13 20 20 35 31 28 37 17 10 19 24 23 21 27 31 21 24 17 31 23 24 24 17 11 21 19 23 28 30 24 14 15 31 21 21 25 9 31 20 14 26 20 25 16 41 17 31 13 21 20 20 21 9 14 19 24 10 30 23 35 21 39 27 20 24 13 27 31 21 37 20 28 17 27 20 23 30 31 24 30 17 6 21 10 24 6 31 17 17 30 23 24 20 28 13 31 27 15 30 41 23 23 31 10 21 24 28 31 31 28 10 33 30 20 16 10 31 20 17 20 7 17 7 21 16 7 14 42 23 27 24 38 14 24 23 21 38 13 24 27 28 24 14 9 28 16 31 31 17 35 20 17 14 21 29 16 21 34 7 34 6 35 24 16 24 14 18 24 15 24 17 21 17 13 27 20 38 3 17 17 24 17 20 20 17 13 38 17 13 7 23 20 20 10 14 18 31 16 31 17 31 20 15 30 13 16 20 21 15 21 15 17 30 14 20 10 20 24 14 34 7 12 24 23 27 27 17 21 13 10 23 17 20 23 19 13 22 27 7 27 16 23 6 24 29 24 17 20 24 9 34 17 15 16 22 10 24 24 24 24 7 34 10 23 3 30 21 20 10 22 10 6 20 31 14 7 16 21 17 16 20 38 23 24 23 27 38 24 24 34 20 38 35 14 21 14 24 28 20 18 35 38 21 13 14 20 24 9 28 13 14 23 20 22 19 31 24 37 30 28 24 17 16 9 24 37 17 25 24 23 15 17 13 40 9 24 28 26 20 16 30 30 17 10 7 6 31 26 24 16 18 20 38 18 24 27 15 27 21 17 24 24 8 31 42 12 24 21 40 27 10 27 26 19 14 17 19 33 23 9 27 26 21 3 7 23 23 23 16 31 16 24 30 7 27 19 15 16 14 24 24 16 24 23 13 27 24 20 17 7 25 27 8 27 14 24 13 24 24 14 28 20 20 13 30 37 24 13 17 23 17 24 20 27 12 17 34 27 10 23 13 27 27 13 17 25 33 31 10 26 17 20 34 17 26 21 28 29 18 23 42 17 9 24 3 23 21 24 9 21 13 11 29 31 19 22 20 14 20 16 22 16 18 10 17 20 6 7 12 26 20 10 10 16 21 21 6 20 7 17 24 10 31 17 17 24 19 38 13 21 20 30 20 20 7 26 20 24 20 20 24 3 17 20 27 20 24 16 24 23 21 24 17 13 26 26 24 31 30 27 23 23 26 16 33 10 24 7 13 42 16 20 19 22 31 17 22 10 21 30 17 31 31 27 14 27 21 38 14 27 21 17 6 14 13 10 20 10 31 23 32 20 13 17 10 21 27 13 10 23 23 19 21 33 24 20 27 14 30 34 21 23 20 10 24 24 27 37 21 23 31 26 19 24 28 30 17 13 23 13 14 16 21 8 27 13 18 31 27 24 20 17 20 30 16 14 7 24 28 13 24 10 14 30 17 27 17 24 19 27 24 16 20 20 21 26 13 14 14 20 27 18 14 21 13 27 23 10 13 17 37 20 26 28 14 21 28 41 27 29 26 13 13 20 7 23 29 23 30 18 20 21 19 23 21 17 21 13 31 24 30 32 27 16 16 27 27 21 22 13 27 27 27 17 20 34 22 10 31 21 14 17 17 34 18 34 27 10 19 28 24 14 23 20 40 17 24 14 18 30 19 14 17 34 24 10 28 37 23 28 15 28 17 17 28 14 33 28 24 37 13 17 17 18 23 22 28 6 17 19 6 17 7 21 13 24 34 21 19 34 27 27 10 24 30 21 19 35 21 7 6 31 16 23 28 31 21 35 41 17 17 16 35 13 35 24 13 16 10 33 17 24 30 7 17 10 30 23 20 27 24 26 16 27 31 23 17 17 16 17 16 27 17 20 20 27 17 9 21 24 16 9 25 31 13 24 24 6 20 27 6 10 3 37 13 7 22 10 31 24 31 13 28 12 14 13 22 31 16 17 28 30 28 20 17 21 16 20 17 13 14 35 8 7 17 41 34 32 35 11 24 32 16 21 24 7 36 20 28 13 10 17 27 13 21 17 20 17 21 25 13 17 24 14 17 12 17 24 37 28 17 21 48 17 9 17 35 35 20 17 8 17 24 21 10 17 28 14 34 20 41 24 10 14 21 14 14 16 13 22 21 16 27 17 17 30 16 26 6 14 27 14 33 7 13 7 20 30 9 17 10 13 24 25 20 35 20 37 13 10 24 17 28 24 38 33 30 42 17 14 22 21 22 16 13 20 24 18 12 23 27 34 34 24 38 31 6 13 13 17 20 24 17 37 20 30 10 13 16 6 13 0 36 13 17 27 23 27 30 13 10 27 28 20 9 13 37 24 24 24 28 35 23 27 20 17 28 24 14 28 23 28 20 17 21 24 27 28 31 17 23 16 16 7 21 12 16 13 15 27 14 17 37 23 21 7 7 23 23 13 26 17 27 9 20 19 20 21 17 20 31 27 24 17 21 20 13 21 28 24 14 17 16 19 9 9 19 22 14 6 16 21 27 28 20 31 31 16 16 20 13 21 38 10 21 23 13 17 10 18 17 23 28 24 24 23 31 18 24 24 31 31 24 9 26 16 24 28 27 16 17 20 21 29 21 16 23 30 21 31 24 27 27 13 20 23 31 29 17 13 31 16 21 9 20 20 23 17 21 6 17 25 13 17 17 20 21 9 21 17 16 13 12 7 27 33 10 23 14 27 29 21 17 10 17 10 14 16 20 10 20 27 13 35 17 20 20 17 26 17 16 12 24 13 40 17 7 21 28 20 18 17 17 14 10 20 25 16 6 13 20 23 7 31 17 28 17 6 13 24 27 24 13 30 17 16 17 30 31 6 7 6 14 29 24 25 6 21 31 14 24 20 16 20 10 35 17 12 24 19 17 49 28 38 7 34 13 27 23 19 17 30 31 21 10 26 21 27 14 13 24 13 23 20 14 34 21 10 14 21 20 30 22 24 27 13 13 15 24 14 28 14 21 33 24 9 27 20 37 17 23 22 21 13 19 16 24 31 27 33 15 10 14 34 34 7 7 28 13 23 22 20 21 24 6 31 21 20 25 23 26 22 21 10 0 30 19 9 14 17 10 17 14 17 13 17 22 19 17 27 27 18 20 17 31 14 28 33 31 24 24 30 27 14 17 24 33 29 22 21 45 21 12 17 37 31 14 27 17 28 20 17 20 7 27 23 17 20 15 13 20 24 23 13 18 21 10 12 25 17 16 42 25 29 19 14 23 13 17 16 28 14 13 17 31 10 21 10 10 10 13 10 20 19 38 25 17 17 21 16 13 15 6 33 35 38 31 16 17 20 24 9 19 21 3 20 6 13 14 21 20 19 29 20 10 7 14 21 28 24 29 24 19 41 13 25 14 10 21 10 24 13 21 24 14 27 20 23 26 14 34 31 32 23 20 21 17 20 20 17 0 33 22 15 7 7 19 14 31 35 28 20 6 17 20 26 13 34 20 30 15 27 20 31 16 7 24 38 31 19 28 10 16 27 24 24 14 27 17 31 29 27 9 12 16 23 13 21 28 23 14 20 31 20 44 35 26 35 14 35 18 21 26 27 17 18 24 30 10 17 24 23 38 21 37 27 26 13 28 21 14 13 24 6 14 31 35 14 31 23 20 39 21 14 10 27 17 18 23 25 7 16 21 20 13 24 22 12 13 28 23 31 28 10 22 21 28 13 41 15 17 17 14 16 34 33 26 23 31 14 13 20 20 6 24 38 20 26 41 8 20 10 31 30 31 11 19 33 25 14 27 21 30 20 17 10 19 18 10 27 24 16 27 32 34 27 16 20 24 20 27 28 31 27 19 27 21 23 17 28 20 7 21 30 44 13 23 23 16 27 17 37 13 13 28 19 13 20 28 13 24 24 17 24 30 14 20 21 21 10 17 18 12 22 27 21 17 21 28 12 9 9 17 17 26 27 28 24 21 17 13 40 17 17 28 33 28 20 20 16 31 28 24 13 24 23 24 20 17 10 34 35 13 21 27 7 26 17 27 21 33 24 17 10 13 21 24 10 23 18 36 27 25 23 15 20 32 27 14 14 14 16 23 31 29 16 20 13 20 13 34 17 20 27 16 7 28 9 20 34 10 9 17 35 17 20 20 17 7 23 29 17 31 20 13 41 13 10 16 23 18 16 10 23 13 34 17 6 22 24 31 17 38 26 23 38 10 24 14 27 30 14 20 20 9 27 28 26 12 35 24 17 13 24 24 21 14 21 14 13 21 19 17 17 20 14 27 24 9 23 10 24 12 24 23 28 11 35 21 23 14 35 14 21 30 35 23 23 27 19 30 28 27 20 21 33 23 16 3 11 28 14 13 17 24 17 7 17 33 13 3 30 21 23 20 27 28 10 24 24 34 17 20 16 23 10 28 20 17 28 20 17 24 22 10 15 6 22 34 35 31 6 19 17 21 13 21 20 31 16 10 20 9 15 16 25 32 14 24 17 30 23 10 16 17 21 37 30 17 20 35 17 30 26 13 23 16 30 6 20 27 12 31 31 29 27 16 25 17 31 14 21 24 24 13 24 24 17 14 31 10 20 31 16 11 31 24 16 22 31 26 10 14 21 31 26 24 13 14 28 7 28 31 7 28 30 20 20 16 14 31 27 9 25 10 17 20 8 27 41 6 17 29 17 26 7 23 30 7 14 24 21 14 13 14 17 14 10 17 10 25 10 24 31 20 13 27 7 13 17 12 26 6 42 17 28 17 24 17 24 15 21 30 31 11 16 34 27 3 32 22 31 34 18 28 10 30 20 31 34 17 17 21 24 15 22 26 15 29 16 30 0 17 27 24 35 30 20 23 24 24 19 10 17 12 13 31 27 38 17 13 24 20 21 44 19 10 29 17 7 21 23 14 16 14 16 10 41 23 20 14 13 26 21 21 14 34 14 28 24 24 20 14 13 27 7 24 19 19 13 21 16 19 25 10 19 42 14 42 16 19 24 26 27 21 15 24 3 34 13 10 31 23 20 17 20 31 24 19 13 20 13 10 17 27 28 18 10 23 28 25 9 24 10 37 24 13 20 23 31 26 16 26 17 22 20 14 17 14 27 13 30 20 34 21 3 27 16 23 14 20 28 16 34 19 10 14 20 20 13 7 9 16 20 37 37 10 27 31 17 6 12 9 21 14 17 17 17 21 20 13 20 14 38 17 16 10 31 22 27 24 21 20 27 20 28 20 17 31 17 13 17 28 26 23 17 24 41 37 17 24 35 24 17 31 20 13 27 42 20 23 35 33 13 13 14 23 18 24 14 7 7 21 34 21 24 0 34 24 24 0 38 24 21 13 13 31 12 30 22 38 17 17 21 13 16 21 37 24 13 27 25 20 28 17 28 22 27 13 52 21 15 20 17 13 30 24 10 28 18 20 23 31 17 10 20 15 24 24 23 24 17 18 13 23 38 13 30 28 44 7 13 24 13 20 24 20 32 38 26 23 32 19 42 28 24 16 16 10 27 26 0 14 10</t>
+  </si>
+  <si>
+    <t>JSU(-4.228767757725441, 9.051848806855588, 6.551857306303165, 34.75372479269669)</t>
+  </si>
+  <si>
+    <t>28 19 28 21 22 19 20 30 23 23 30 30 19 28 24 20 24 27 25 21 23 22 26 26 15 23 25 24 21 28 31 28 20 28 23 22 23 21 29 23 25 24 20 23 25 20 20 27 29 26 20 29 24 17 29 18 18 22 21 25 20 27 33 18 25 21 25 22 22 20 22 24 27 26 23 28 29 28 23 23 20 21 16 22 22 27 23 23 20 24 20 17 24 22 31 27 19 20 21 28 30 35 26 17 25 26 28 29 29 32 25 28 23 24 15 25 27 22 20 31 21 13 28 23 21 17 26 36 25 24 33 27 25 26 27 18 27 31 23 19 21 25 29 19 23 24 29 27 29 23 18 25 20 33 21 23 28 22 28 22 13 17 31 18 31 27 32 28 21 19 30 21 21 25 15 27 29 22 22 23 21 20 34 19 23 29 18 18 27 25 25 22 21 26 20 23 21 24 24 22 23 29 28 25 26 23 25 22 24 22 22 31 22 31 26 24 23 29 17 25 26 21 28 23 22 25 21 27 25 23 19 19 17 26 32 23 28 25 25 16 28 31 24 24 26 30 25 31 18 18 26 24 22 14 27 17 22 24 30 21 25 21 31 21 27 23 29 24 24 23 20 24 20 22 31 21 32 26 18 25 18 28 22 19 21 28 20 24 23 25 19 19 27 25 26 20 30 20 23 25 20 22 26 23 26 21 18 21 16 31 31 29 23 20 24 23 19 16 24 17 28 26 24 22 25 30 25 25 25 28 21 22 20 17 22 27 28 16 25 27 18 28 13 29 21 22 24 22 31 27 25 23 15 21 21 33 27 29 22 22 21 23 27 20 23 26 25 18 24 22 22 13 23 23 28 21 26 32 20 30 29 24 16 20 28 18 19 17 18 23 17 25 19 22 33 26 16 31 27 27 14 25 22 27 28 27 31 18 21 21 21 19 23 19 17 27 16 18 20 30 21 19 29 18 18 24 24 22 19 19 26 22 21 24 30 23 23 31 27 22 17 24 25 21 23 18 20 22 27 21 22 12 23 22 27 25 24 26 22 24 33 30 23 18 21 23 22 25 29 17 23 19 25 20 25 24 21 26 28 22 13 28 24 26 19 25 31 20 21 22 29 29 21 19 24 30 22 23 32 24 15 19 22 23 24 31 17 32 22 26 21 29 23 28 25 23 25 22 23 23 19 19 27 28 23 20 30 26 18 22 23 27 25 28 30 26 33 23 30 19 26 24 22 18 18 27 22 24 20 23 23 16 18 21 25 27 17 16 20 25 25 29 19 22 22 25 32 28 18 26 23 16 21 25 20 29 23 22 20 19 29 21 23 18 20 26 28 25 18 21 28 22 24 27 26 29 27 36 20 27 14 14 21 24 22 25 17 33 29 15 25 25 27 21 25 27 25 25 19 25 14 28 24 23 17 20 11 32 23 26 27 22 24 19 18 23 22 18 24 25 22 12 22 19 22 22 16 19 17 24 28 26 33 24 21 24 23 15 27 28 26 22 16 16 29 26 23 24 16 33 28 19 23 27 27 19 23 30 21 21 20 17 23 32 25 24 23 23 23 22 23 22 20 25 21 30 26 25 13 20 25 32 28 21 23 23 20 25 17 23 24 22 27 17 16 24 20 28 23 22 17 23 24 30 27 27 24 19 21 26 31 26 25 25 23 32 22 17 17 22 27 22 22 30 25 18 28 21 29 22 23 26 28 22 21 18 18 29 26 21 36 30 21 34 30 30 29 23 21 12 18 23 28 26 33 25 19 27 19 17 21 27 19 25 21 21 20 27 22 20 23 21 32 18 27 32 14 27 25 21 25 21 21 21 22 26 25 22 17 28 28 18 25 20 23 20 17 22 31 16 16 30 25 27 20 22 26 24 25 33 25 31 24 20 24 26 25 25 19 29 22 22 27 22 19 22 16 22 25 28 21 26 37 26 22 20 26 22 14 28 27 19 29 25 26 25 25 23 22 22 24 19 23 25 20 21 23 12 25 24 31 19 23 24 19 29 18 26 20 20 29 25 25 24 20 21 27 28 29 25 14 23 15 30 20 23 18 31 23 24 21 25 22 30 25 21 19 24 21 25 32 23 20 22 25 23 28 27 21 25 24 25 27 25 24 19 31 22 22 20 21 23 26 20 26 22 28 27 27 21 29 23 24 29 22 23 25 22 25 28 25 28 23 20 21 31 20 24 22 20 22 25 20 25 35 27 28 23 13 24 25 27 27 29 23 16 24 23 23 17 19 25 28 29 19 27 23 22 23 19 21 19 16 34 23 16 29 26 21 20 18 20 33 20 22 25 29 21 18 29 27 24 21 22 33 31 24 22 26 20 29 21 24 29 23 26 20 33 31 25 26 22 26 31 22 19 18 21 24 21 19 19 29 32 32 25 20 23 26 24 15 19 17 22 26 18 24 29 17 16 21 22 32 21 24 27 24 22 25 32 18 27 18 17 20 14 23 30 25 17 17 21 22 22 23 19 20 19 25 29 16 29 24 20 15 21 17 17 24 19 15 21 23 21 24 21 23 21 28 37 26 21 34 24 26 16 25 20 30 24 31 32 27 33 19 25 24 25 19 24 22 24 34 21 29 16 28 23 25 23 23 23 32 26 29 30 19 25 25 24 21 27 30 25 17 19 26 14 25 21 17 20 21 22 24 23 32 30 17 20 20 25 15 22 22 27 24 23 21 20 27 23 21 24 30 22 28 27 22 33 9 22 22 24 25 20 24 23 15 20 24 24 34 24 20 25 19 25 18 27 17 21 27 26 30 23 20 27 23 26 24 13 20 18 20 29 20 22 16 24 21 25 31 21 24 19 21 33 14 26 20 27 24 22 25 27 33 19 9 21 19 18 18 29 19 23 23 33 22 20 26 22 26 19 21 27 18 28 23 26 20 19 28 19 30 25 23 24 34 23 19 20 21 22 24 19 19 26 20 35 28 18 29 17 22 20 20 18 17 22 19 27 22 18 14 18 16 25 21 40 16 22 27 29 27 22 29 24 28 28 30 17 23 23 26 22 21 22 25 25 28 23 32 26 26 32 24 25 27 22 22 24 18 22 24 14 17 16 31 35 31 15 27 26 31 27 27 19 23 22 25 28 30 23 17 19 17 17 25 30 33 29 23 24 25 28 16 24 30 27 20 24 24 20 19 18 27 30 35 20 30 23 20 22 32 22 25 20 27 24 14 23 22 21 19 20 30 25 23 29 26 33 23 28 27 20 22 24 23 24 22 19 30 28 28 22 29 22 25 28 23 14 19 25 24 20 24 29 25 26 27 28 28 32 35 28 21 19 27 23 23 27 31 19 21 26 16 20 25 29 22 19 20 31 25 20 26 24 27 18 19 25 23 25 16 22 23 26 29 21 27 28 22 21 21 20 26 22 26 24 29 20 27 22 23 26 22 26 16 39 17 25 25 30 28 22 25 31 16 17 25 23 22 30 22 27 22 25 20 31 26 20 15 24 31 28 22 30 35 23 22 22 18 26 25 20 24 22 24 17 23 18 20 28 22 26 22 21 19 17 19 10 24 22 22 24 19 22 22 27 22 16 24 23 17 23 28 19 20 25 22 30 34 15 24 33 28 17 28 21 16 25 21 20 16 21 25 25 26 21 21 28 21 17 10 21 25 17 22 21 23 26 15 20 29 23 20 23 29 17 31 27 33 32 28 23 21 26 20 20 21 18 28 25 22 21 26 17 23 32 26 13 25 18 26 31 23 20 18 25 26 30 30 29 29 16 29 22 18 20 16 27 25 25 19 25 23 23 29 29 15 21 17 23 25 25 22 17 23 18 29 17 25 20 28 21 21 20 20 18 19 19 28 25 25 28 24 20 24 29 23 22 21 31 19 29 27 23 27 18 29 25 23 24 24 21 28 24 32 21 19 24 21 25 27 15 25 17 18 22 21 26 21 28 28 22 21 26 20 20 19 23 24 27 20 18 26 21 23 22 29 22 26 27 20 29 28 25 26 27 18 20 29 22 25 18 26 17 17 20 21 27 19 19 26 22 26 18 30 23 30 12 30 20 23 32 16 26 25 18 29 21 19 30 29 24 14 19 30 23 26 22 19 27 21 24 33 21 24 23 29 19 28 20 18 29 29 23 26 21 28 26 21 13 24 20 23 23 20 19 21 20 22 25 21 22 18 23 24 28 22 26 28 29 20 21 21 19 21 22 18 22 24 27 30 23 23 26 19 23 21 26 22 30 24 21 18 22 22 27 23 22 19 24 20 25 20 21 25 28 25 21 20 21 23 22 20 25 19 27 21 23 24 24 23 25 27 29 30 22 23 21 36 21 26 17 22 20 14 26 13 33 18 24 18 24 22 21 20 27 20 24 21 18 21 31 18 22 18 25 22 20 19 26 20 22 21 26 28 21 28 19 22 24 21 18 20 22 26 19 20 24 19 21 26 20 23 32 28 25 26 25 25 19 25 24 22 18 22 30 30 20 24 26 27 28 22 25 30 27 26 22 18 19 23 27 24 28 25 20 27 34 23 28 24 27 27 29 22 27 20 22 19 25 21 20 28 25 22 23 23 18 23 27 28 16 36 31 30 25 19 26 23 27 16 29 23 24 27 18 30 31 25 21 25 17 20 23 26 26 28 32 27 22 26 25 34 19 31 22 26 22 23 21 20 23 28 26 25 23 28 21 27 23 26 20 25 25 27 25 23 20 24 17 27 18 14 20 29 19 20 23 27 26 24 24 30 21 27 26 22 26 20 22 24 18 20 20 28 26 28 27 24 23 22 26 17 21 26 37 24 21 24 27 17 24 25 31 27 29 25 20 24 26 24 17 24 23 17 29 25 20 33 25 22 24 23 24 18 29 30 17 23 19 23 28 29 23 22 18 23 23 19 22 25 23 27 20 26 26 28 22 18 29 23 27 22 22 27 24 16 30 21 27 25 28 22 20 25 24 24 19 17 15 25 17 25 20 13 27 18 20 29 26 18 22 29 22 32 30 21 20 28 19 23 26 16 30 27 24 19 22 21 25 23 21 32 30 21 30 20 24 23 20 26 25 23 25 23 25 20 23 31 19 29 32 21 21 23 16 34 20 28 25 25 17 16 22 34 24 19 21 21 25 24 22 32 25 24 24 26 20 27 26 22 23 23 27 20 24 26 30 18 36 28 27 21 22 19 21 23 26 24 20 27 19 21 27 26 19 20 18 24 23 22 26 21 24 24 21 22 21 28 25 22 18 28 14 21 29 21 27 17 21 17 24 21 19 19 36 22 34 23 25 22 24 25 32 28 21 27 31 22 23 30 25 21 27 22 25 20 20 29 18 20 23 21 26 24 24 15 30 30 25 27 22 27 21 21 19 23 24 22 26 26 28 26 24 29 21 31 19 26 24 32 25 26 16 17 20 26 24 24 29 22 21 23 26 30 35 24 30 23 29 23 20 27 23 16 25 23 25 23 26 21 26 24 20 25 23 26 22 27 21 26 26 14 20 28 38 24 27 27 19 30 20 26 19 27 24 23 27 22 19 31 26 15 23 18 24 15 24 27 21 20 24 22 17 33 22 21 27 28 24 22 20 17 21 30 28 27 33 24 26 17 27 22 33 24 18 29 22 27 26 25 23 31 21 22 22 23 24 21 21 17 26 23 20 20 13 23 22 23 22 27 26 24 24 22 27 24 28 27 32 35 29 24 19 17 21 21 28 23 23 20 31 28 26 17 18 24 18 25 19 24 18 30 16 23 20 22 32 20 19 28 27 28 15 32 19 21 26 25 27 19 24 24 22 23 15 22 31 17 33 23 23 24 20 20 27 26 18 25 19 30 25 31 20 18 22 21 16 23 23 23 24 25 17 22 21 23 23 24 25 23 22 23 23 20 24 22 29 20 33 17 29 25 22 22 20 21 26 26 27 25 27 24 28 24 21 26 26 29 18 14 26 21 28 28 19 31 24 18 16 21 26 32 24 25 21 19 26 29 25 21 27 22 19 19 23 29 22 23 25 22 24 15 30 27 29 23 29 21 23 24 19 23 27 22 30 20 18 23 20 21 25 22 28 26 19 25 24 23 20 29 22 23 26 27 23 27 26 19 31 26 14 26 11 30 16 18 27 31 24 22 24 25 29 22 17 23 25 24 23 31 30 15 19 22 20 23 27 17 29 21 27 26 21 18 23 22 26 20 33 32 27 25 20 27 22 21 23 16 20 25 23 19 36 30 32 23 18 22 21 15 22 26 22 27 21 31 19 28 19 24 25 21 24 22 20 18 25 26 21 23 30 24 18 20 25 29 27 18 20 27 29 22 19 31 30 25 32 16 25 24 27 25 23 23 28 21 22 24 27 26 22 25 25 30 24 23 17 17 22 16 34 26 28 30 26 19 30 24 23 19 26 29 24 15 26 23 30 17 29 29 18 22 22 28 23 24 20 24 22 27 18 27 25 20 21 20 29 26 25 24 29 20 28 31 21 24 17 25 27 31 16 22 32 30 22 15 22 18 28 18 27 17 24 25 21 23 20 23 18 29 26 30 21 25 19 26 21 21 26 25 22 21 27 24 21 27 17 31 21 23 18 23 27 27 25 32 30 26 20 28 25 19 17 28 28 28 24 19 21 25 18 24 29 23 28 25 24 17 20 22 21 22 30 25 23 25 30 16 26 28 16 26 22 24 26 24 16 20 22 21 29 28 20 26 26 25 23 21 23 28 27 25 22 26 28 19 31 21 24 17 35 23 21 21 24 20 20 23 27 23 24 13 22 28 27 24 21 31 21 19 30 18 26 28 31 13 23 25 30 23 20 30 28 26 13 26 22 22 25 17 24 25 24 21 20 22 22 27 26 16 26 20 23 20 28 23 25 17 23 22 23 25 23 27 26 20 23 26 22 26 17 21 22 22 25 24 22 21 23 23 18 21 29 18 21 22 20 27 28 28 25 19 24 22 28 18 25 27 23 21 36 31 27 21 24 24 24 30 25 30 25 25 19 24 25 34 23 20 29 33 19 28 23 27 17 19 22 23 18 29 22 26 25 26 20 25 24 16 29 37 21 24 20 19 21 29 24 36 24 18 22 23 22 25 19 22 27 18 19 23 28 20 27 17 27 21 22 23 23 26 29 28 21 20 18 16 27 27 24 27 26 15 21 26 24 27 22 20 20 16 25 27 22 19 22 18 21 23 26 24 31 23 26 26 27 27 25 21 21 19 29 28 20 26 20 24 21 29 28 27 26 22 27 19 25 24 20 21 21 24 16 18 23 24 20 21 25 19 23 20 19 21 19 23 26 24 21 28 31 25 26 20 22 19 16 25 23 20 33 21 17 26 29 22 25 17 25 25 16 27 23 19 21 20 26 26 18 19 21 31 27 31 18 32 19 25 24 21 27 21 22 18 25 19 27 12 23 37 22 20 30 22 20 20 25 29 22 21 25 25 23 21 27 29 19 36 23 27 21 21 27 18 21 18 23 21 28 25 28 28 25 23 23 21 24 21 29 24 23 28 22 18 18 28 32 26 24 23 26 27 16 18 14 24 28 24 15 17 24 25 24 25 19 21 26 26 23 23 22 24 19 26 28 26 28 26 27 21 30 25 19 14 30 23 30 22 17 20 31 27 23 34 27 29 33 18 26 25 24 23 21 23 26 22 19 26 20 34 18 23 21 24 25 24 23 24 24 22 15 18 12 21 23 26 23 19 27 29 21 18 23 30 29 20 24 21 21 25 18 25 22 23 17 16 20 30 22 15 22 31 13 23 30 21 17 31 26 22 22 17 16 17 19 23 18 23 34 19 23 13 29 25 27 33 23 24 27 21 27 19 32 21 27 15 27 28 22 26 23 21 25 23 28 24 28 25 25 21 17 25 24 25 27 18 24 27 16 21 22 24 25 24 23 32 18 21 19 18 25 23 23 24 19 23 26 24 22 25 27 24 27 26 30 27 20 22 24 26 20 27 21 25 27 28 19 20 25 17 23 25 27 21 18 20 26 25 18 20 25 23 21 22 24 24 23 18 29 21 27 23 29 22 25 26 23 26 23 27 19 25 11 20 20 19 25 24 18 29 30 28 23 26 22 24 22 24 27 22 23 22 21 27 20 15 28 21 21 24 29 26 30 20 20 33 16 17 26 31 25 25 32 24 26 20 27 20 25 15 31 25 27 16 31 27 17 21 20 28 22 22 28 27 25 17 28 18 23 25 25 22 28 26 26 20 21 25 22 25 27 21 24 27 25 11 20 25 27 25 29 16 16 26 30 24 24 24 22 27 29 32 24 22 22 24 21 21 23 20 25 36 33 21 24 19 29 27 24 26 22 23 27 18 25 22 26 25 26 29 26 25 23 15 27 20 19 25 11 18 21 27 21 24 15 16 29 21 28 21 28 25 31 27 27 24 21 31 22 27 27 20 19 18 35 26 19 23 28 20 23 25 21 22 25 25 22 22 30 30 21 26 20 21 23 20 23 18 16 17 30 26 30 23 20 27 29 20 21 27 27 23 23 27 27 21 22 20 19 22 20 28 18 20 20 17 24 19 23 24 26 21 30 29 19 21 28 20 21 22 21 14 22 23 22 23 24 21 23 20 26 23 23 28 24 29 25 25 23 27 22 23 29 22 25 19 24 26 29 20 28 20 24 27 27 26 22 26 28 27 25 26 22 24 24 22 15 22 28 30 23 24 24 16 26 19 23 23 23 28 24 21 20 32 26 22 20 21 24 25 19 29 21 18 24 23 21 21 24 23 29 25 23 22 29 28 23 16 22 25 24 22 23 30 26 29 25 18 24 18 16 16 17 32 22 24 21 24 22 23 28 30 18 25 20 15 22 28 22 22 32 28 27 25 23 21 32 19 20 17 25 19 33 17 29 23 21 23 18 24 32 17 24 18 33 22 21 21 31 26 25 18 25 16 32 30 28 18 20 25 23 21 25 23 27 23 30 26 22 20 33 33 23 28 26 28 21 24 29 23 32 28 13 22 21 26 22 23 23 26 24 19 17 31 27 21 21 27 23 19 33 23 21 26 19 24 23 25 13 20 18 20 21 30 29 22 20 16 28 24 23 22 27 24 23 30 29 29 27 27 15 19 30 20 31 19 22 26 26 21 23 24 23 29 25 18 23 17 25 19 24 24 22 29 28 22 26 25 21 17 27 21 27 25 24 23 20 23 18 22 26 29 21 26 20 29 22 25 27 22 24 26 24 28 24 26 28 26 32 29 24 23 29 18 26 25 17 25 15 21 21 23 20 17 27 27 23 27 29 28 28 27 16 27 25 25 20 24 20 17 18 20 27 27 27 28 27 24 24 20 30 26 26 24 28 26 30 27 17 25 18 18 15 23 20 28 23 22 23 18 19 20 29 25 21 32 21 27 22 22 19 22 27 26 30 26 19 18 23 22 22 23 26 27 23 31 26 21 25 24 25 28 26 19 23 18 30 23 22 21 29 32 19 27 24 17 20 26 24 22 29 25 28 24 16 23 19 26 33 24 15 22 28 22 26 20 25 21 28 25 19 27 28 20 23 22 20 26 20 23 26 18 22 22 23 28 20 21 16 17 27 22 24 24 21 17 20 22 19 23 29 23 30 27 34 22 25 20 15 29 18 24 19 24 27 24 26 16 32 22 19 30 21 17 20 22 23 20 20 18 19 26 26 27 28 26 28 21 28 33 22 23 18 22 20 18 18 19 17 24 26 25 23 26 25 22 24 26 17 25 26 20 25 26 27 26 25 25 23 22 25 31 27 22 23 24 18 26 25 20 23 19 23 21 26 34 26 20 23 20 22 26 17 26 28 22 24 25 14 18 17 26 32 23 20 24 19 23 25 21 25 19 20 28 23 31 23 31 26 27 15 26 16 26 20 12 30 26 22 27 12 25 23 22 24 21 26 21 19 24 23 29 17 26 24 25 17 18 17 26 31 21 22 16 25 27 29 29 18 25 26 28 17 23 22 20 18 21 24 29 22 21 32 19 23 20 22 23 23 23 25 19 30 20 19 19 26 24 26 21 24 22 15 15 25 15 24 22 17 19 22 20 23 19 24 19 32 24 19 24 26 20 21 23 18 23 19 23 18 27 27 23 21 24 23 25 23 26 18 23 21 23 19 27 29 25 13 25 26 27 24 20 26 27 18 16 31 26 25 27 25 26 19 29 24 26 27 22 23 18 21 22 23 25 23 28 18 29 18 21 19 28 30 31 21 20 33 33 26 30 30 25 20 23 22 25 21 23 25 13 21 26 22 27 26 26 23 22 21 23 19 23 20 27 17 22 24 28 28 16 31 22 25 26 25 33 14 19 27 30 22 25 21 27 18 22 24 18 23 24 19 18 19 21 27 28 21 24 28 24 22 25 23 28 26 27 18 29 18 22 28 25 22 21 29 17 23 26 18 20 24 27 24 28 28 23 23 27 18 19 21 28 27 17 15 18 25 23 26 23 33 21 29 21 27 23 20 25 29 29 20 23 23 27 28 22 19 20 23 27 33 27 14 22 21 19 23 30 26 24 23 20 20 23 15 23 20 24 22 30 26 21 24 19 20 28 23 27 14 20 25 28 29 17 24 21 19 21 21 22 40 27 30 21 14 23 24 29 22 15 29 29 21 21 26 21 22 30 23 25 21 19 18 20 23 22 22 26 28 22 17 21 20 26 31 24 21 21 29 16 25 15 28 23 30 25 23 16 30 27 18 21 28 27 20 25 27 24 23 25 26 29 24 23 23 19 27 26 23 26 20 22 24 26 22 21 23 22 26 23 28 23 26 20 23 21 26 24 25 20 25 29 23 16 28 28 23 21 17 16 25 25 22 27 21 26 21 29 23 26 24 24 24 25 21 20 22 29 24 21 18 24 25 17 27 21 24 21 15 16 19 23 23 20 20 29 16 17 29 26 29 23 28 18 17 28 22 23 21 26 25 27 31 23 25 27 29 20 25 31 23 27 21 27 19 22 22 29 20 25 24 15 20 23 19 22 20 28 26 25 28 23 24 18 19 24 26 25 24 31 22 21 23 24 7 20 21 18 15 21 29 25 15 18 26 19 27 22 25 31 22 31 17 16 30 26 22 28 35 28 16 22 22 20 24 30 28 18 24 23 20 22 27 19 21 23 21 24 27 22 23 26 25 20 28 24 30 24 24 24 24 22 20 25 19 23 25 18 24 22 27 28 15 21 34 29 20 23 23 22 32 27 29 28 19 18 19 16 28 25 26 22 19 19 26 29 19 13 19 19 21 24 27 23 23 23 21 33 29 19 20 25 21 20 35 33 21 26 16 17 25 24 23 23 22 31 25 19 20 19 27 24 29 28 32 22 21 21 19 25 22 20 26 35 19 21 27 26 24 20 27 15 22 25 18 24 24 20 25 24 18 29 25 26 23 28 29 24 19 29 19 23 24 24 22 23 19 31 28 20 17 19 20 26 29 25 22 22 23 23 19 20 20 19 23 25 23 26 18 19 26 24 27 25 27 27 25 37 23 29 23 21 24 19 27 27 21 25 19 24 19 25 20 25 24 24 28 27 14 26 23 21 19 33 23 16 13 27 28 18 30 21 28 29 27 23 32 16 23 22 23 23 26 20 31 24 21 21 19 14 26 18 24 22 25 28 26 26 15 23 26 22 19 25 22 22 31 21 20 30 22 20 38 21 22 25 20 26 18 19 27 24 22 25 22 25 24 27 33 25 18 18 22 26 21 28 21 25 17 24 24 22 23 27 9 15 30 35 21 24 18 18 28 21 30 25 30 21 21 17 23 24 22 26 25 21 28 19 27 19 27 24 25 19 27 34 22 26 27 23 22 24 25 24 26 23 16 23 21 19 25 19 25 29 21 24 22 33 22 31 25 20 19 28 23 26 12 27 31 26 21 24 24 29 27 19 17 24 24 27 19 30 22 26 24 21 18 27 25 16 13 27 23 23 23 18 29 23 25 20 21 26 23 25 25 29 32 28 26 21 24 28 28 22 20 19 26 20 23 18 26 17 33 23 26 28 22 24 22 25 21 32 16 21 25 25 24 21 26 26 21 27 22 23 25 21 30 25 19 29 23 22 21 23 17 20 35 18 27 23 27 24 26 30 23 20 21 24 28 23 24 26 19 28 27 22 20 14 20 23 28 26 25 23 20 23 31 23 27 24 28 22 28 18 20 18 27 34 28 20 28 18 21 25 20 24 27 31 21 28 21 26 26 31 25 24 17 26 22 29 25 31 26 26 19 20 23 29 20 21 22 28 29 23 28 29 23 13 17 17 21 21 24 27 22 23 26 32 23 16 19 20 30 24 27 24 13 17 21 27 27 22 24 21 25 19 21 21 31 18 21 23 19 17 22 16 22 21 23 25 27 19 22 28 27 34 29 23 23 21 26 21 18 25 21 26 26 27 24 25 24 23 15 20 22 22 17 23 20 27 28 24 24 20 23 28 25 20 19 22 21 29 29 22 23 22 24 27 21 20 17 20 19 24 27 24 30 23 20 19 26 26 21 23 24 21 22 20 22 24 21 26 22 23 19 26 24 27 15 20 18 21 26 29 30 21 33 27 26 19 26 26 29 28 30 18 19 28 23 21 30 23 21 26 24 21 25 22 22 34 28 25 25 24 24 20 21 29 21 20 29 20 29 30 19 22 23 27 14 21 28 26 23 21 24 21 24 21 24 20 29 25 34 31 24 19 21 25 26 27 20 25 17 19 32 18 25 23 25 23 24 24 26 21 24 23 15 22 22 22 23 25 28 23 22 19 22 24 30 34 23 25 27 22 24 29 23 26 26 29 23 19 22 23 24 26 21 29 24 30 29 22 19 24 27 23 16 18 31 28 26 23 27 30 29 25 23 27 16 21 25 23 27 15 30 16 26 18 17 21 22 18 24 19 34 30 17 24 16 24 23 18 30 25 27 24 27 23 23 21 29 26 27 24 22 29 35 22 26 19 21 19 15 24 21 25 29 28 21 29 26 30 12 21 24 30 35 30 28 25 18 14 23 21 25 21 26 23 30 35 19 25 22 22 14 24 32 24 29 24 16 22 19 19 15 22 21 20 24 23 26 24 13 27 22 24 18 26 28 31 18 26 20 25 16 25 39 29 25 22 28 21 18 19 20 24 20 24 24 23 21 33 25 26 19 20 21 22 17 29 20 30 17 27 26 27 28 22 24 26 23 24 22 27 22 21 28 15 31 21 19 15 20 24 17 26 28 23 25 22 25 28 25 17 26 32 21 28 26 28 28 21 24 28 23 23 27 24 18 16 21 27 15 29 16 23 19 22 27 27 32 17 22 39 26 23 20 23 23 23 19 19 29 22 20 23 26 25 30 24 22 22 24 18 15 26 25 20 31 20 22 20 25 19 22 23 33 27 19 24 21 19 19 23 28 24 20 24 25 23 26 34 11 27 17 13 25 20 22 26 24 24 21 21 36 29 27 18 22 23 15 29 23 24 27 18 32 22 13 22 29 26 18 26 19 15 22 17 24 19 23 22 23 22 11 17 24 25 17 23 27 24 22 22 26 30 19 25 37 21 20 17 33 24 31 21 24 24 18 26 27 24 23 24 23 28 23 25 22 23 20 25 22 27 22 28 22 32 19 18 26 19 26 27 21 29 26 20 20 24 22 23 14 26 23 20 18 35 20 24 23 21 25 27 23 22 22 22 21 20 25 27 17 27 27 27 18 26 14 29 24 17 26 22 15 25 25 20 25 28 23 18 26 23 29 22 18 22 33 21 25 12 24 28 24 25 26 21 22 16 19 29 29 21 21 23 24 23 31 21 19 27 32 24 25 22 23 22 21 13 17 26 25 23 28 22 24 32 28 29 22 17 22 22 15 22 23 19 21 25 27 28 30 24 24 24 22 20 21 18 22 22 30 25 22 20 21 21 18 28 22 20 27 31 21 25 17 12 25 16 17 24 30 28 22 24 21 28 23 28 23 17 26 26 20 23 23 27 26 23 23 17 30 20 20 21 24 22 22 17 25 20 26 26 27 20 28 22 21 19 18 19 28 23 28 31 19 32 29 20 25 22 20 23 23 25 25 25 34 24 23 26 19 16 26 19 29 20 26 25 20 22 15 17 14 28 18 18 22 30 25 34 22 18 19 18 29 22 30 26 28 27 25 20 23 18 25 27 24 21 19 19 29 21 19 19 31 27 22 28 25 23 28 27 13 22 16 28 22 17 23 22 25 25 30 24 15 19 21 20 27 21 28 20 18 29 29 20 21 20 25 25 21 20 18 19 21 18 16 27 25 29 26 18 18 27 21 27 25 20 23 24 23 28 21 19 24 22 25 23 22 21 26 22 20 18 23 25 22 21 23 27 29 20 22 27 27 23 21 22 24 24 22 18 21 25 21 21 23 21 19 24 31 20 19 26 25 35 26 19 24 21 26 25 29 22 21 26 21 24 26 21 21 25 19 15 28 22 26 25 21 23 27 15 23 16 20 24 21 23 20 26 24 20 30 25 25 20 24 17 25 29 23 26 16 23 16 22 28 18 26 27 21 24 21 22 27 32 21 20 21 18 21 25 24 22 24 15 25 20 22 20 28 26 24 27 21 33 30 18 22 27 22 22 26 25 22 21 23 29 16 25 25 25 30 27 23 25 20 21 24 27 22 27 26 35 15 22 18 22 34 26 26 21 20 17 29 34 14 26 27 25 26 30 32 24 24 24 24 22 28 25 23 24 30 25 26 24 20 21 26 21 26 29 22 33 23 20 24 26 24 21 28 29 28 21 26 20 30 22 22 18 22 24 19 29 28 20 22 21 24 22 24 16 30 24 15 22 25 19 22 27 23 21 31 22 19 30 25 26 22 26 14 17 26 20 29 24 32 24 30 20 26 33 26 28 22 27 25 37 16 25 23 30 27 29 19 27 23 23 29 24 23 26 29 20 18 21 30 18 21 20 16 21 29 30 20 27 31 28 28 28 21 33 26 20 17 32 21 26 27 28 25 18 22 22 22 19 29 17 25 25 25 24 17 24 24 23 17 29 26 25 20 20 29 29 24 20 22 19 22 22 13 28 23 21 20 30 22 19 19 20 13 16 29 20 25 25 18 22 22 30 22 32 21 25 32 29 26 30 12 30 13 23 29 25 27 19 26 25 26 20 25 25 22 21 21 22 18 24 20 20 25 23 22 21 26 17 24 22 22 30 20 20 20 17 16 23 24 22 21 31 29 23 24 15 20 25 18 20 19 32 21 24 32 22 23 26 17 18 27 22 18 20 18 25 22 21 26 24 15 23 22 25 25 15 25 17 26 21 23 18 21 24 25 20 32 17 30 24 24 17 26 27 22 27 23 37 22 27 21 28 25 23 23 34 23 27 20 20 24 25 27 30 18 22 31 24 24 28 24 26 13 19 17 21 32 23 27 22 23 31 21 33 23 22 34 32 27 22 24 19 25 20 16 22 18 24 24 21 24 24 25 22 22 37 25 19 26 20 25 20 23 21 12 28 21 24 32 22 28 30 26 24 34 21 28 22 25 23 23 18 25 18 33 32 20 18 14 15 31 18 23 29 33 19 27 21 21 17 19 23 32 26 24 28 23 21 20 27 24 22 34 20 15 24 24 25 26 26 27 20 25 19 19 29 23 26 23 25 26 17 30 23 20 24 19 29 27 22 22 29 17 21 25 26 21 24 20 18 30 21 16 26 22 17 20 25 23 32 19 29 26 23 24 16 22 23 19 23 22 22 27 22 19 18 27 21 27 21 23 29 25 22 18 20 26 26 23 23 27 33 20 29 24 21 19 15 21 28 22 19 29 27 15 25 30 26 30 22 22 27 27 25 15 23 21 22 15 27 18 28 27 28 17 21 27 20 17 28 27 22 22 25 23 26 15 27 26 21 24 28 21 24 19 29 24 20 23 30 27 23 21 23 20 23 20 29 22 20 18 25 23 22 20 21 28 18 28 21 21 22 23 25 22 26 19 14 22 20 24 20 29 21 21 26 24 18 29 23 33 23 20 26 30 21 23 20 21 19 25 26 25 21 29 16 19 26 28 25 18 25 26 22 23 29 26 20 28 30 21 26 22 23 21 23 21 23 22 24 19 28 33 21 17 19 17 24 21 18 20 26 21 22 16 30 25 32 23 22 30 27 25 25 19 24 28 19 21 25 23 25 23 23 23 18 26 21 18 27 21 26 26 18 36 30 24 23 22 24 23 17 22 22 19 26 23 21 20 28 22 22 27 22 33 23 19 25 27 24 25 23 23 19 24 23 20 20 30 24 20 18 24 24 22 20 30 18 27 31 27 17 25 20 22 29 24 28 20 19 23 25 16 19 21 19 22 21 25 19 16 16 27 20 20 25 28 24 30 18 26 23 18 21 30 21 23 30 24 19 28 23 22 16 23 21 24 32 22 34 22 27 23 20 26 13 17 29 22 29 22 27 20 20 17 19 22 29 33 22 26 21 19 27 36 33 22 26 27 21 30 27 22 31 28 17 28 17 27 18 22 13 20 29 19 29 21 32 28 18 25 22 24 21 26 28 25 36 22 17 19 24 25 24 25 23 18 27 17 28 30 25 26 20 33 25 16 17 28 22 17 18 28 26 24 23 17 22 26 20 28 29 26 22 21 22 28 25 22 25 23 21 18 27 28 15 24 23 23 22 25 18 29 28 21 28 23 23 30 22 23 25 23 20 34 23 18 24 15 24 26 28 24 29 26 29 24 21 22 17 17 23 18 33 18 19 22 30 22 25 21 19 17 23 25 22 22 28 23 27 28 23 26 24 23 26 30 26 21 19 33 22 27 26 22 21 24 26 26 33 22 21 28 17 18 19 25 29 19 23 20 24 28 31 23 29 23 24 23 27 23 25 26 26 23 21 26 21 28 30 19 27 27 25 31 21 23 21 21 25 21 30 23 24 29 25 19 20 20 28 26 22 26 19 26 26 22 20 23 21 34 29 22 23 20 37 26 28 21 34 24 24 26 23 16 22 15 28 24 22 22 22 21 19 22 25 26 22 23 25 25 22 31 22 32 24 22 24 17 15 25 18 24 31 26 23 22 20 21 27 24 23 25 21 28 18 28 17 18 18 14 21 17 23 31 26 18 23 21 29 24 25 22 25 27 26 25 19 25 23 27 23 20 23 21 21 25 25 25 25 25 27 19 16 20 20 21 21 26 24 19 25 23 19 22 29 30 24 23 29 27 24 31 22 22 21 28 22 16 15 24 25 24 20 30 23 21 27 21 25 20 20 28 34 19 27 28 20 26 25 26 22 16 31 22 20 24 27 23 28 21 28 23 18 22 18 19 19 16 22 26 21 32 28 32 23 27 25 23 29 21 27 27 17 25 19 26 19 22 29 20 25 18 22 22 19 21 27 20 32 23 22 24 30 19 28 33 18 25 16 24 26 30 20 25 31 29 22 26 30 19 25 24 30 32 32 21 23 22 28 30 24 17 26 31 21 26 21 16 24 27 22 26 17 28 20 24 20 22 24 17 18 20 27 22 27 26 30 24 22 28 26 26 21 22 21 26 22 21 25 23 19 27 19 28 21 23 29 24 28 25 17 31 21 25 19 21 24 23 25 16 19 31 19 24 23 24 21 22 23 16 19 18 28 24 25 26 25 28 19 17 24 23 23 25 23 19 21 26 22 24 18 26 24 31 17 26 29 18 20 21 30 24 20 19 25 22 23 25 22 22 22 19 32 24 22 25 28 24 30 19 20 28 19 25 21 17 30 25 19 19 22 22 19 26 22 19 26 18 27 20 19 24 22 26 22 22 12 23 26 21 19 25 21 26 26 30 23 16 21 24 20 27 21 27 15 17 20 22 33 22 27 25 22 28 25 21 27 16 29 23 23 20 25 26 29 21 16 18 21 34 21 19 22 24 16 27 22 30 23 33 20 22 20 25 18 23 24 22 19 25 22 18 28 24 24 36 18 23 24 25 26 20 24 28 22 12 23 26 34 20 23 21 26 23 28 29 20 24 22 20 20 28 25 22 15 27 28 16 26 22 30 22 22 22 24 28 18 23 19 26 16 22 19 25 25 18 21 20 27 23 19 27 20 20 25 19 24 21 25 28 19 21 23 18 21 25 20 23 30 22 23 18 28 29 31 19 14 23 15 22 29 18 24 29 31 16 27 24 20 20 21 25 26 24 24 19 18 24 25 24 22 29 22 23 27 23 19 21 21 22 22 21 17 19 32 25 29 25 27 28 20 20 29 21 22 22 25 18 25 16 18 31 17 25 36 26 25 18 20 19 18 27 26 18 32 16 22 21 20 21 18 28 20 26 18 19 25 24 20 24 15 18 25 20 28 28 30 22 21 27 25 23 17 26 18 24 28 21 26 23 23 21 25 23 21 20 30 23 30 26 23 15 18 28 20 24 24 16 11 23 24 23 22 24 18 20 24 25 28 19 21 36 23 23 22 22 20 28 19 27 31 23 18 25 25 31 25 27 28 22 18 25 27 25 16 24 19 22 20 30 24 22 24 28 18 21 24 20 21 25 20 21 26 21 20 25 22 25 25 20 22 20 19 21 21 19 20 23 19 32 23 25 19 17 27 18 25 27 15 25 22 24 24 26 25 26 28 18 31 29 25 26 22 15 23 26 15 26 21 20 17 22 24 13 20 30 18 22 20 21 24 31 28 20 28 19 18 26 31 25 19 20 35 21 20 23 16 27 23 25 23 20 28 21 24 28 23 31 23 20 18 20 25 20 30 34 16 23 27 24 23 38 25 24 20 27 22 26 25 24 22 25 23 19 26 18 21 25 27 23 29 12 24 21 30 22 22 29 18 20 28 21 15 18 19 26 29 23 25 24 21 19 25 18 29 30 27 22 24 23 24 29 28 18 23 26 22 22 27 29 22 22 26 27 21 28 23 30 30 32 19 28 25 25 27 22 25 19 23 18 24 21 18 21 24 22 22 22 28 20 19 21 21 23 25 18 24 20 27 32 21 20 24 28 26 24 28 25 26 34 30 21 24 23 32 31 28 23 23 22 24 27 27 25 27 18 24 13 32 30 17 26 29 26 24 28 27 20 27 24 29 17 22 32 22 18 20 27 28 20 26 29 23 20 22 32 22 24 19 19 26 22 21 15 25 22 19 18 29 23 25 17 28 24 30 19 19 19 25 22 22 24 23 22 29 25 24 23 17 25 30 23 23 22 27 21 22 24 24 32 20 22 27 20 18 24 23 32 25 26 30 21 22 21 28 24 25 19 21 21 22 32 16 22 28 19 19 22 23 27 30 23 25 26 27 27 19 19 26 28 24 24 27 22 28 29 22 24 23 24 27 22 31 19 14 24 23 21 17 21 27 26 34 19 24 28 21 30 23 28 16 30 23 25 27 21 26 24 23 26 28 18 19 27 25 23 27 35 25 26 23 27 28 26 19 22 28 22 27 24 19 26 24 22 21 29 21 20 24 27 18 22 28 28 31 28 33 29 28 21 19 19 22 29 13 24 18 28 29 18 21 18 19 15 26 18 18 24 24 27 19 16 27 27 30 17 19 23 28 28 30 23 16 20 26 31 27 22 25 17 26 28 22 26 15 25 23 29 22 25 16 20 28 26 17 16 21 23 28 20 25 19 17 25 23 23 25 18 22 23 17 23 19 23 24 28 25 24 22 30 27 22 26 19 29 20 21 30 23 27 31 27 13 20 19 26 12 28 23 22 19 27 19 33 33 24 22 35 24 20 23 24 20 27 23 14 25 29 22 23 21 24 19 28 21 22 18 24 26 24 23 29 27 30 21 27 26 25 26 21 19 24 27 25 21 26 23 24 20 27 21 22 29 23 24 20 17 19 24 23 27 20 20 19 25 15 30 24 19 23 22 19 26 17 22 20 18 20 23 27 27 28 30 22 23 15 25 22 25 19 29 22 29 27 18 22 27 31 28 28 23 21 15 26 22 25 24 17 23 31 29 24 22 26 25 27 25 17 21 18 26 27 15 22 17 22 21 23 30 22 14 23 21 20 15 20 21 27 21 18 18 24 19 28 17 30 17 22 25 18 28 22 22 15 31 24 22 29 20 20 27 17 26 22 22 23 12 24 23 20 22 29 21 29 22 21 21 18 26 26 28 19 21 26 24 16 21 23 26 22 26 17 23 24 27 19 19 28 21 19 21 20 25 20 20 20 27 14 32 20 31 21 34 23 21 29 15 29 23 19 23 13 27 21 18 25 19 21 21 30 32 20 24 27 34 23 20 15 29 29 20 26 18 24 23 26 14 26 28 20 35 26 25 17 31 23 13 26 27 25 30 27 23 23 25 18 21 25 23 19 22 23 22 29 20 21 22 18 22 22 29 33 16 20 27 23 12 19 23 31 22 27 33 23 17 18 27 31 28 28 24 23 28 20 23 17 24 20 24 18 22 18 19 29 23 27 29 24 22 20 20 19 24 27 25 20 24 24 24 26 21 20 25 17 18 22 22 27 23 23 19 25 22 23 24 25 30 23 22 21 22 28 19 21 28 21 28 28 25 22 18 23 18 22 18 25 30 27 18 22 23 28 18 23 27 34 21 19 25 28 22 20 25 24 34 22 26 20 32 21 21 26 21 22 26 21 26 24 29 17 27 27 26 31 22 27 19 31 20 26 16 21 18 27 17 19 28 25 26 26 29 25 31 31 22 27 27 27 21 21 19 25 26 21 23 29 28 20 24 28 27 29 21 23 24 19 27 16 22 21 25 27 24 19 26 24 16 27 30 22 21 28 19 25 30 19 30 30 30 25 21 23 29 23 23 20 24 21 25 19 13 23 23 24 26 23 20 23 20 28 24 26 28 24 23 29 20 24 20 27 21 24 23 28 22 22 26 32 27 23 20 23 21 20 23 26 31 24 21 24 18 23 27 24 18 25 26 30 32 17 24 22 24 21 14 24 22 26 22 24 21 26 21 25 22 16 22 29 25 21 21 16 17 24 21 26 25 23 17 24 27 22 23 22 28 23 23 27 24 26 27 23 23 20 26 34 30 23 21 24 27 24 21 26 31 25 24 27 25 20 25 28 26 15 35 22 22 24 27 28 21 25 25 24 25 20 21 30 34 20 20 20 22 27 30 28 27 15 25 19 23 22 31 23 25 33 16 20 25 25 21 19 19 22 21 23 32 20 30 17 27 23 19 34 30 28 32 29 25 22 25 19 25 31 22 26 20 33 16 23 21 25 18 22 22 19 27 20 23 19 20 28 36 27 24 23 22 26 24 20 35 19 31 25 25 23 25 24 19 20 21 26 28 26 20 23 31 15 23 27 26 31 28 28 24 27 29 19 22 19 22 28 19 22 24 34 18 19 23 28 23 28 24 21 28 31 25 24 23 26 26 21 25 25 25 22 30 24 27 21 21 24 20 21 27 24 22 30 22 23 25 23 27 27 24 32 32 25 23 25 21 31 27 25 21 28 27 20 25 25 20 27 26 23 24 27 19 22 21 29 20 26 19 19 19 21 22 35 20 27 24 30 18 23 24 24 23 28 20 20 19 27 23 26 27 22 17 25 23 23 26 32 21 22 23 26 24 19 24 24 20 21 17 27 22 17 20 22 20 25 24 30 25 25 31 21 20 21 19 24 26 23 24 28 20 22 17 27 14 34 23 28 21 18 19 30 28 15 19 19 23 21 18 22 22 24 19 22 24 24 21 19 25 17 21 27 28 20 24 33 27 25 31 20 24 20 26 17 28 29 21 25 26 20 25 23 27 27 19 24 26 29 17 26 25 27 20 27 21 20 18 26 16 23 21 23 23 27 35 23 23 21 27 31 27 16 28 27 24 27 25 23 18 22 32 20 21 29 13 21 17 28 26 20 18 14 23 26 22 28 24 24 15 20 26 14 22 24 25 26 31 22 22 23 23 20 21 15 23 21 19 20 29 25 14 24 25 25 29 16 13 22 21 28 19 34 19 22 23 28 24 22 19 26 26 18 22 17 26 25 18 27 29 23 24 24 28 19 18 31 25 29 30 28 28 27 22 24 26 29 21 20 25 22 23 26 33 26 26 27 31 26 27 28 20 19 21 16 22 23 21 26 23 25 24 26 30 21 29 25 21 19 21 21 31 21 31 20 14 28 23 23 26 17 31 22 20 18 27 20 25 30 19 23 31 24 25 22 30 27 21 18 22 24 24 28 18 21 31 23 26 22 28 28 23 30 24 14 23 20 29 16 23 24 27 30 20 25 25 21 24 17 27 21 24 16 25 29 30 17 24 20 19 24 36 19 20 22 15 32 23 28 27 20 25 23 24 20 19 25 27 23 23 27 29 25 25 21 28 21 28 21 27 23 30 26 20 24 19 30 19 26 17 24 24 25 26 23 17 26 21 21 23 27 23 25 18 16 25 14 21 25 25 24 26 24 21 27 25 17 30 19 23 23 27 25 22 19 29 25 19 26 24 25 23 33 25 21 25 22 22 27 27 24 24 18 25 28 29 23 29 20 24 24 27 16 23 24 24 28 26 15 22 20 22 26 29 21 16 30 27 30 14 28 28 24 20 23 29 20 19 20 32 20 17 22 25 28 31 27 21 20 37 24 20 31 24 25 20 24 22 30 30 15 27 21 18 26 23 20 21 25 29 22 21 15 19 21 20 26 24 26 29 26 19 16 25 29 18 30 28 23 12 18 28 22 21 21 23 19 31 22 22 27 17 34 11 20 17 20 17 33 21 11 17 24</t>
+  </si>
+  <si>
+    <t>JSB(11.60079265597031, 7.307513359297742, -15.592543435513676, 290.0353365239845)</t>
+  </si>
+  <si>
+    <t>39 32 39 29 31 26 30 44 27 34 45 39 31 37 32 33 30 45 31 30 31 30 34 37 26 40 33 28 27 46 49 37 25 35 31 39 35 32 42 30 34 33 29 32 34 28 28 36 39 35 34 43 28 25 40 27 32 32 26 41 31 39 51 25 33 35 30 33 28 29 27 32 37 36 31 36 34 31 33 32 34 31 25 31 34 35 41 32 24 41 34 20 31 34 41 42 28 32 27 41 37 48 39 29 40 36 36 38 38 42 42 32 28 36 29 32 41 37 35 46 30 31 38 34 29 29 34 48 29 32 45 38 34 33 41 34 32 45 35 28 34 34 37 29 43 35 40 41 38 37 35 34 33 45 34 28 41 35 41 30 23 27 44 23 38 41 59 41 38 26 48 31 31 39 23 43 39 31 39 29 32 36 51 23 39 41 27 30 34 28 31 29 34 45 35 32 31 34 38 36 29 39 40 29 31 29 34 29 32 34 32 38 33 44 33 39 32 43 32 37 37 32 38 29 31 33 28 35 34 28 32 26 29 31 40 35 43 34 42 24 35 40 31 33 36 40 41 43 30 23 41 28 36 27 39 27 32 31 44 28 38 29 35 29 34 26 37 29 34 36 29 39 26 42 40 33 48 34 29 36 32 42 33 29 30 38 21 28 30 37 26 28 37 36 41 27 42 24 30 37 32 35 39 36 31 32 27 29 22 53 41 48 38 26 33 29 30 26 32 28 35 38 37 30 39 38 35 38 35 34 37 30 28 26 35 42 35 24 40 37 23 42 26 41 34 31 33 35 39 37 37 35 24 35 33 50 36 49 31 32 28 30 40 33 37 30 38 33 32 33 32 22 35 38 37 27 41 46 35 42 45 35 24 29 39 27 21 22 33 34 34 33 29 29 55 34 29 44 45 34 25 40 29 41 39 34 42 28 40 28 31 28 36 32 26 35 27 30 24 36 28 29 43 31 33 35 33 33 28 24 35 38 28 36 50 33 30 41 42 35 31 36 38 28 35 25 27 33 41 32 35 21 30 40 36 32 39 37 33 31 49 32 40 26 36 31 30 34 39 28 31 34 35 29 36 35 31 38 40 29 24 36 36 35 28 31 34 31 31 29 39 39 34 29 41 42 31 33 50 31 28 23 39 37 33 40 28 45 34 36 34 44 43 35 30 30 33 31 33 37 28 27 41 37 34 40 39 37 30 30 35 38 36 34 36 35 42 38 49 28 31 40 32 27 28 45 30 35 32 35 31 30 32 32 33 34 34 25 30 37 31 34 33 35 30 36 36 40 29 36 33 32 32 35 27 40 38 36 26 32 44 36 34 27 32 38 41 38 25 31 33 29 35 33 36 41 42 46 31 40 21 26 35 33 30 38 28 49 34 22 36 38 32 28 39 39 29 39 31 35 30 48 35 34 22 30 22 47 34 41 35 33 32 25 25 39 37 27 32 39 36 22 31 29 28 34 26 36 28 32 40 37 42 36 30 35 33 25 41 38 36 32 26 33 39 35 29 34 23 43 38 29 29 35 36 28 28 42 31 28 30 37 34 39 36 36 35 28 40 30 29 31 33 30 29 39 31 31 26 34 38 39 38 24 31 34 32 32 21 40 32 34 37 27 28 34 34 37 32 35 30 31 33 38 31 43 32 24 33 40 39 39 32 30 34 46 31 26 25 31 39 29 35 42 37 35 40 35 38 35 32 29 36 39 33 31 26 37 39 28 41 39 26 45 42 40 42 33 26 23 31 34 39 40 44 36 32 40 25 24 33 32 29 31 32 29 30 42 27 32 29 28 42 23 35 41 21 36 32 27 34 31 27 25 37 34 33 34 26 38 42 35 38 30 32 26 22 31 42 30 25 38 37 37 28 28 36 35 36 41 30 41 32 35 34 33 34 33 29 40 35 31 40 35 28 35 22 39 42 46 30 34 42 37 40 35 47 31 28 42 34 31 43 31 41 39 37 33 35 30 33 22 33 35 28 31 33 25 37 30 42 27 33 34 31 41 19 46 29 28 41 32 32 32 26 32 46 39 36 26 23 36 24 44 27 33 29 42 40 33 32 28 32 37 38 33 33 34 29 30 46 32 34 35 35 27 51 37 31 34 36 42 39 36 34 34 46 32 34 30 33 32 34 29 32 30 39 37 37 34 40 33 34 40 31 29 39 36 30 51 40 39 28 29 35 37 32 35 30 30 34 38 29 37 45 38 36 28 32 37 38 35 33 37 37 24 32 33 30 31 25 35 36 37 33 36 31 29 32 31 29 29 26 58 33 26 36 36 30 31 28 33 40 32 33 35 47 31 23 38 37 32 26 33 44 37 33 37 32 28 35 26 32 42 35 39 35 49 40 31 33 29 36 40 32 26 31 27 34 31 23 26 40 44 44 36 26 29 37 31 24 25 27 28 35 32 36 38 27 25 34 32 46 32 43 34 34 30 36 48 32 30 30 25 34 21 31 43 35 24 28 31 31 29 27 34 34 26 34 41 25 42 35 26 22 38 27 19 30 28 30 33 32 35 34 30 32 30 40 44 31 32 48 46 38 24 29 28 41 36 38 51 39 45 29 37 44 44 28 30 36 35 46 22 37 28 35 32 28 38 37 29 44 36 40 33 25 33 35 43 33 36 46 41 27 30 36 26 35 33 24 33 32 34 42 30 46 36 26 27 32 35 30 29 28 39 33 28 32 33 40 25 28 34 40 31 46 37 32 53 17 32 31 29 38 33 31 35 29 31 37 38 47 34 27 35 23 32 32 38 40 28 47 35 43 31 29 32 33 31 31 18 28 23 33 36 30 29 31 35 36 36 46 32 38 22 30 44 26 31 45 41 36 35 34 34 43 25 21 36 30 32 26 38 29 33 32 42 33 36 37 28 35 25 34 37 31 36 36 38 22 28 42 25 40 39 36 33 46 34 32 35 32 38 35 33 27 46 37 47 38 23 41 27 31 30 34 33 24 27 32 37 32 20 23 24 28 38 34 51 28 39 41 47 35 32 39 32 40 35 41 32 38 35 34 34 31 37 32 36 40 32 38 35 34 40 39 33 36 34 28 36 23 34 39 25 30 23 40 37 53 32 40 40 40 35 34 29 32 34 40 34 37 35 29 32 22 32 35 41 46 47 32 32 33 41 24 34 34 42 32 38 33 31 31 31 34 39 43 36 47 28 29 32 42 34 33 29 37 33 22 35 28 32 35 27 43 38 33 39 41 49 36 37 39 32 33 38 28 28 39 31 39 38 36 33 45 31 41 40 37 21 36 39 27 30 28 40 37 44 33 43 41 45 46 43 32 29 35 34 32 41 39 28 34 38 29 28 39 41 27 30 30 44 37 29 38 32 43 24 32 37 33 33 31 32 31 33 37 36 36 40 31 28 28 29 38 29 42 30 35 28 34 30 31 34 35 38 23 52 37 35 36 36 40 31 35 42 29 25 35 34 25 40 30 51 31 36 32 45 40 30 24 29 47 40 31 38 45 28 30 33 33 38 37 31 32 31 29 25 37 28 30 40 32 41 36 33 25 28 25 23 36 44 36 39 33 30 30 37 30 25 33 40 26 39 34 28 26 34 35 43 42 25 33 50 44 30 36 29 27 31 32 33 22 30 31 39 33 39 27 40 31 33 22 32 33 26 29 30 30 37 28 33 35 36 31 30 42 31 36 32 42 38 36 37 35 38 29 27 31 32 42 35 36 30 37 27 37 43 36 21 37 26 34 40 32 26 27 33 40 41 42 32 38 31 38 36 26 30 26 44 35 33 28 39 33 32 40 38 28 39 24 36 36 42 29 28 39 32 32 36 33 26 38 34 32 36 27 31 28 29 36 34 31 44 31 32 29 39 31 34 29 42 26 41 46 42 33 28 40 38 32 41 35 32 37 27 48 28 24 35 34 36 35 24 33 24 29 32 29 35 32 36 32 34 27 37 26 27 30 29 33 37 30 24 34 29 34 27 35 29 32 44 29 34 37 31 34 38 33 29 40 28 34 23 37 30 32 32 28 41 31 28 40 30 37 29 41 30 43 24 38 34 34 41 26 39 41 28 37 27 33 41 43 34 23 24 41 24 34 28 32 34 31 35 45 31 32 30 35 27 36 29 32 44 47 29 34 30 35 39 30 23 31 35 39 28 34 34 34 32 34 36 33 30 25 31 38 36 31 41 34 40 31 25 35 35 34 32 28 31 35 33 38 30 38 35 29 33 33 35 36 41 34 30 29 31 38 38 35 31 37 33 36 30 32 31 36 36 38 33 38 30 35 37 26 36 32 42 29 35 35 38 42 37 34 38 39 35 34 38 47 31 39 29 35 31 26 37 22 49 28 34 27 41 30 31 31 36 29 30 30 36 35 40 32 30 29 30 35 30 27 40 40 31 27 37 34 32 36 28 33 39 33 31 25 34 38 27 29 41 26 36 37 31 36 44 38 44 34 33 33 28 38 32 28 26 26 36 42 31 44 37 41 35 33 36 48 37 39 32 37 30 33 36 41 34 38 32 33 49 33 34 35 39 36 33 41 39 27 27 28 38 33 28 41 35 34 44 34 24 31 31 38 21 45 47 36 34 32 36 38 40 28 39 37 45 40 35 38 40 32 30 37 25 34 34 36 44 38 37 43 33 40 35 44 28 38 33 31 32 32 34 31 35 37 36 39 29 47 32 37 31 37 34 38 38 34 39 29 25 34 30 33 29 20 44 49 31 30 37 39 29 39 39 45 32 35 35 36 42 29 33 31 24 32 32 36 39 39 39 34 30 29 30 31 29 34 42 31 29 35 46 25 31 39 41 45 43 34 23 35 36 30 29 33 31 27 36 35 30 48 34 32 40 39 35 21 39 45 31 32 26 32 41 40 33 31 23 33 36 33 31 35 33 41 32 36 37 37 36 34 39 31 38 34 30 35 36 25 42 33 39 32 33 35 31 30 35 36 35 27 25 34 32 34 26 22 32 24 38 41 32 25 34 39 31 42 39 28 27 41 28 39 44 32 35 37 35 27 33 31 34 29 31 45 39 25 43 29 39 36 34 30 37 31 32 32 43 28 35 42 30 39 44 35 32 34 25 45 35 34 36 29 22 23 34 47 33 28 34 33 29 33 29 46 34 36 37 41 30 35 40 31 29 33 38 32 32 36 45 20 48 42 40 26 36 35 36 26 32 32 26 36 36 29 34 47 27 26 38 35 33 27 32 34 45 35 34 29 33 36 32 24 28 37 23 29 45 31 35 29 27 28 33 36 27 29 43 41 46 28 31 28 35 33 38 40 30 40 45 39 32 44 36 31 39 30 37 31 30 39 33 31 28 28 33 32 32 27 42 36 37 40 29 37 30 31 34 31 34 29 37 35 43 30 35 39 27 43 32 38 30 39 35 37 27 27 28 40 32 32 42 36 29 35 40 41 54 37 38 34 35 30 27 32 37 27 32 31 41 30 37 40 28 35 33 40 36 38 39 36 27 40 36 29 33 41 44 32 39 43 32 36 29 37 30 39 35 29 36 30 33 38 35 22 34 32 35 28 32 39 36 27 34 30 26 43 31 34 39 38 31 40 36 28 28 39 45 36 48 33 35 24 34 26 43 29 23 44 38 40 38 31 37 43 34 33 26 31 38 28 33 24 36 34 28 25 19 38 31 29 38 36 29 32 44 33 31 30 36 36 39 39 37 36 23 32 24 31 33 29 29 34 39 32 35 30 26 34 23 37 33 34 30 46 26 29 28 32 42 31 32 41 36 37 28 46 33 26 36 36 39 28 37 36 32 40 26 26 40 26 39 32 32 35 33 28 38 35 30 30 29 37 34 41 29 24 27 34 26 29 31 35 32 37 27 27 33 27 31 36 39 32 32 36 39 35 36 38 40 29 43 28 33 33 33 33 29 31 37 39 38 34 37 29 38 39 30 34 36 38 30 18 35 30 36 40 27 41 32 27 24 34 31 43 33 29 33 34 34 41 37 29 41 28 27 31 39 44 35 33 39 32 32 22 38 31 43 28 43 31 30 35 26 34 33 34 38 31 31 30 26 33 36 31 36 39 28 46 32 33 30 41 30 29 36 41 34 37 32 28 39 29 28 29 20 39 25 31 39 42 32 34 32 39 43 32 27 37 37 33 30 41 36 31 36 31 28 37 36 26 43 29 40 37 34 29 36 39 39 24 40 45 35 36 27 35 32 26 33 31 35 38 33 29 45 45 39 30 29 32 27 25 36 33 37 43 42 38 34 41 30 37 37 33 32 32 30 31 45 34 26 28 44 30 31 29 34 37 39 32 35 35 46 34 27 42 38 33 44 28 40 31 35 30 31 30 39 32 34 37 42 31 33 34 32 42 38 30 24 28 39 22 42 38 44 47 41 24 43 36 39 35 37 44 30 24 36 37 38 26 40 38 30 31 32 42 34 31 35 45 28 45 24 36 32 32 30 32 43 40 34 36 35 34 44 36 27 29 34 32 41 39 29 28 39 46 31 27 37 26 44 29 38 22 29 36 34 30 24 31 25 35 40 37 35 35 27 38 37 36 30 37 38 35 34 39 30 35 29 40 32 27 32 34 36 41 34 37 41 39 30 38 37 31 27 37 37 36 33 26 29 34 29 45 43 30 37 35 33 24 32 39 38 36 51 35 36 32 36 25 39 37 24 35 36 33 36 30 34 28 41 38 37 39 28 35 37 38 27 42 37 33 35 31 31 34 33 25 37 28 37 25 51 34 31 31 34 28 30 35 40 26 36 22 36 42 38 36 38 45 30 31 34 35 34 39 40 27 33 34 38 29 34 43 38 33 17 37 30 29 37 31 35 32 33 27 30 32 35 45 38 34 35 32 36 35 37 34 32 25 27 39 31 35 35 33 34 29 30 32 27 35 28 33 34 31 33 34 34 29 30 28 32 30 47 29 30 39 29 41 37 39 33 28 37 33 35 29 40 35 36 30 44 49 32 29 31 33 37 41 36 38 36 39 23 35 38 45 31 26 38 42 27 40 29 37 22 27 35 44 34 39 30 34 34 37 31 39 35 25 44 44 32 39 32 31 33 39 37 44 32 23 25 29 31 41 29 28 40 28 28 34 40 42 38 25 35 31 31 28 39 37 36 39 29 28 35 29 39 39 38 33 37 26 30 29 30 38 28 33 40 27 44 37 32 26 33 29 28 41 43 34 50 32 41 36 36 34 39 31 28 27 41 39 27 34 30 34 38 35 36 37 44 28 35 27 36 36 30 30 26 39 36 21 44 35 29 31 36 35 36 33 28 30 32 33 35 37 30 35 41 30 36 31 33 26 29 38 29 33 41 32 29 36 39 33 38 28 36 33 19 39 38 36 38 30 36 36 28 32 29 40 39 38 27 47 34 39 33 25 38 28 36 25 33 26 42 23 34 42 27 33 45 33 34 28 34 38 34 30 39 35 33 31 38 42 33 44 33 38 31 33 33 29 29 25 34 33 37 37 40 46 34 32 30 27 33 30 47 40 33 35 33 30 30 39 44 35 38 35 33 36 27 39 22 37 38 31 28 30 31 32 36 31 26 30 34 37 33 35 32 36 27 41 34 34 43 40 41 29 39 39 32 25 41 34 42 28 30 31 42 31 32 45 38 37 44 36 37 34 38 31 29 28 39 30 32 35 35 55 24 33 32 31 35 34 40 37 34 33 27 34 18 30 34 32 30 23 42 44 38 26 36 40 35 27 29 33 31 33 24 37 29 29 22 29 28 43 30 28 36 39 25 37 39 32 32 41 35 31 35 28 28 26 22 30 27 36 42 32 35 20 40 34 44 41 33 33 37 35 37 30 41 35 42 23 35 31 28 30 39 31 38 38 38 28 35 35 39 33 26 37 35 33 33 27 32 40 28 28 30 37 35 37 28 43 36 26 31 28 37 31 30 33 28 36 41 28 30 35 35 32 36 37 40 34 32 29 33 45 23 34 28 33 30 35 33 29 39 22 40 36 36 35 28 29 35 37 24 31 31 32 33 35 35 33 30 35 38 29 42 28 39 28 38 37 33 34 37 33 29 38 29 35 30 33 33 35 35 41 46 34 30 36 32 30 28 34 38 35 33 37 32 44 28 36 38 32 31 34 54 37 38 28 25 39 27 29 37 39 39 37 39 32 36 33 38 33 33 20 37 38 40 33 41 37 26 30 30 38 33 38 42 41 45 29 44 22 28 36 36 30 33 29 34 35 31 31 37 34 34 28 32 34 42 25 36 34 35 30 45 24 24 33 40 34 35 34 32 40 39 41 30 28 41 34 32 32 30 29 32 46 41 28 36 35 38 46 33 37 36 33 37 30 42 29 40 39 33 37 37 39 37 26 40 26 31 36 16 30 26 40 34 32 29 27 42 30 46 33 35 36 38 32 36 35 27 43 31 36 35 33 36 27 41 30 30 29 44 27 35 30 35 32 35 37 32 32 44 37 31 37 28 28 33 34 32 28 29 21 39 38 45 32 33 33 36 28 37 38 49 34 36 38 44 33 31 35 28 32 30 44 26 32 33 29 34 27 33 38 39 30 42 40 29 33 47 30 29 37 35 26 28 31 31 34 37 27 34 36 34 33 33 42 31 40 34 39 29 31 28 34 37 33 39 25 36 36 41 25 38 28 37 36 38 38 30 27 34 39 32 34 33 41 32 29 21 33 39 35 37 34 36 26 39 24 31 37 33 38 35 32 34 45 32 35 29 33 35 36 27 36 29 28 39 36 25 27 38 34 39 35 32 32 39 39 35 28 34 32 35 33 32 43 38 37 30 26 28 29 29 32 31 50 33 31 32 36 31 42 33 43 30 36 26 21 33 41 32 38 41 38 36 33 29 27 44 30 24 29 38 27 37 26 41 27 30 34 27 35 46 36 34 30 40 30 23 40 39 35 35 28 33 24 44 37 47 25 30 34 30 32 38 30 41 31 39 35 29 33 47 40 38 43 41 41 33 33 43 33 41 36 27 31 34 38 33 32 32 35 30 35 29 41 34 36 34 39 29 31 41 35 33 38 31 38 33 36 24 35 30 31 30 36 38 31 32 29 40 33 36 36 40 38 34 47 38 40 39 32 25 26 35 35 41 31 32 34 30 32 31 34 37 44 34 26 31 25 41 31 38 37 34 41 40 32 34 40 34 24 40 29 35 33 33 34 29 34 26 31 35 44 27 38 27 42 29 38 37 30 34 33 41 36 31 35 37 35 40 38 41 27 36 29 31 36 28 37 24 37 28 36 30 30 34 38 40 37 38 38 36 39 26 34 34 38 27 35 33 21 28 32 37 36 35 36 38 44 33 40 39 38 34 33 37 39 41 39 27 34 29 20 26 31 42 40 35 24 33 26 31 34 36 34 32 41 32 39 26 38 29 33 37 38 42 36 38 34 27 35 31 37 38 43 35 46 35 27 36 29 40 40 47 30 31 33 45 32 27 30 35 44 33 35 33 28 28 33 33 35 37 31 34 30 30 27 29 37 44 35 21 35 36 29 34 34 40 30 39 38 30 39 35 29 33 37 33 38 35 30 31 25 35 33 32 37 29 32 30 28 43 30 32 32 34 24 25 32 27 36 36 33 40 38 42 33 32 26 24 42 25 37 23 29 42 35 31 26 44 33 26 45 33 32 36 29 33 29 32 23 24 30 34 36 36 36 38 28 43 46 36 38 29 32 38 32 27 30 26 37 39 30 34 37 31 34 31 38 39 39 41 28 42 33 36 37 32 33 33 39 36 46 37 36 34 33 27 34 34 30 32 28 40 34 41 47 34 36 29 31 30 37 26 38 40 32 32 40 24 26 33 37 47 32 28 35 35 32 32 30 34 33 37 38 41 48 41 41 37 33 30 40 28 31 33 23 42 39 33 35 20 40 30 34 31 35 41 30 28 37 29 36 30 35 37 43 33 25 22 39 38 30 33 36 40 33 37 48 25 34 33 41 23 32 37 22 27 35 32 47 34 35 47 30 37 35 33 31 31 36 35 25 39 31 27 34 35 32 39 30 38 29 21 25 37 23 36 37 32 31 32 30 32 28 35 32 46 30 25 39 36 30 28 32 29 29 32 31 27 40 38 31 34 34 32 29 29 40 26 33 29 28 33 42 40 33 25 30 36 45 42 33 34 39 26 24 44 42 34 37 38 38 34 34 40 33 34 32 32 26 31 32 45 34 32 32 28 49 35 31 36 33 36 40 34 28 41 42 38 43 41 33 30 36 39 32 30 34 49 32 40 37 30 40 40 37 33 37 30 39 35 29 29 35 27 30 31 37 43 30 48 34 35 39 30 44 27 30 39 54 28 36 34 39 29 38 35 31 37 39 31 33 32 32 39 34 31 39 39 33 29 39 28 34 36 38 31 39 25 29 39 41 27 31 40 28 34 35 24 28 36 33 39 35 37 31 28 45 30 28 33 37 33 29 25 35 34 40 28 36 45 34 40 26 37 39 36 41 48 39 35 28 32 37 35 29 26 29 34 31 44 42 21 29 28 24 36 42 37 27 29 29 25 34 24 30 31 31 28 41 33 34 38 30 30 40 38 40 22 31 38 34 36 33 39 31 28 34 30 31 51 40 40 35 21 33 38 37 43 27 42 32 25 33 41 29 34 44 28 37 32 30 29 32 33 30 33 36 37 31 25 27 28 37 39 36 31 30 45 31 35 24 40 32 36 35 34 31 44 35 34 24 41 35 26 42 39 37 32 36 33 34 30 30 37 27 37 36 34 33 33 29 32 38 30 36 31 31 41 35 40 37 43 27 39 33 38 35 38 31 36 34 34 23 37 31 39 34 22 23 37 39 39 36 31 38 31 40 39 35 34 38 35 33 28 29 28 38 33 31 32 35 31 32 34 38 35 33 29 26 31 37 29 28 28 31 27 23 35 36 34 34 38 32 34 44 26 30 30 38 38 34 41 30 27 37 35 33 35 51 34 37 35 38 30 28 32 39 31 39 36 20 27 33 27 30 27 33 38 38 50 28 30 24 39 37 33 38 41 46 39 40 38 33 17 30 26 31 23 27 43 35 24 31 42 28 35 34 34 43 31 40 23 26 43 34 28 36 46 30 24 29 30 28 32 44 36 30 33 42 30 31 42 28 32 31 29 32 40 29 30 32 34 31 44 35 42 37 37 32 37 27 33 32 32 36 33 27 34 30 36 37 22 40 43 51 33 33 31 36 42 42 37 41 28 33 31 26 33 31 47 29 28 24 45 42 30 26 29 33 33 36 40 42 28 37 26 43 36 29 25 30 42 31 39 40 34 34 23 29 34 28 39 38 30 40 33 38 31 31 34 34 41 39 39 36 31 29 35 32 28 25 36 48 29 33 35 38 30 30 32 20 28 36 30 31 39 27 32 35 25 35 36 37 40 35 41 31 31 35 24 31 35 33 35 33 34 42 42 25 29 31 39 32 35 39 34 35 30 37 31 29 34 27 34 40 35 37 29 24 39 37 40 43 41 33 36 43 36 41 38 32 39 34 38 36 28 33 36 32 26 38 28 35 34 31 41 35 27 36 31 35 29 43 34 24 25 43 40 27 43 26 42 33 31 35 40 25 38 35 30 37 39 30 35 33 30 33 27 30 32 25 40 31 28 40 45 39 25 30 35 30 30 31 33 36 40 30 29 46 28 31 45 24 31 41 30 31 33 27 33 30 39 35 29 35 28 34 44 32 26 24 28 37 35 37 24 31 28 43 38 38 34 37 16 19 44 50 34 35 26 28 42 34 39 39 48 32 33 28 36 33 32 34 33 34 35 31 34 33 31 31 37 26 39 41 28 39 33 31 31 34 35 36 33 32 26 42 28 26 42 24 33 41 30 32 36 47 35 37 36 30 35 32 29 41 20 38 41 38 31 30 34 38 43 25 30 38 36 37 30 38 37 36 31 29 26 32 36 26 27 36 32 32 35 24 39 39 33 27 28 33 36 41 37 38 49 44 34 31 33 41 36 39 29 29 39 29 37 34 38 26 44 40 36 47 33 35 36 32 30 45 30 30 32 36 35 34 35 39 32 40 28 33 31 30 37 34 25 44 35 27 27 30 25 27 48 24 33 28 39 33 35 38 36 31 30 31 43 36 37 40 30 41 33 33 25 20 27 37 38 35 34 32 29 40 40 30 43 30 39 34 35 29 25 22 30 42 39 26 40 28 30 38 31 34 35 41 31 35 31 46 38 41 39 34 28 33 39 40 40 42 43 39 29 36 33 38 29 27 29 38 38 31 40 33 36 20 25 28 33 31 31 37 33 32 34 37 27 26 29 31 46 34 36 40 22 28 32 39 39 33 30 33 31 34 28 32 50 25 31 29 36 29 28 30 34 29 35 37 41 23 37 38 39 45 41 41 34 32 37 35 27 38 26 37 33 37 34 32 37 35 30 29 31 31 28 30 30 32 36 32 32 30 36 36 36 33 25 27 28 37 44 30 33 34 32 33 29 29 27 32 26 33 35 30 45 32 30 25 32 39 32 36 32 30 32 29 38 36 27 39 33 37 28 37 33 40 25 27 27 32 34 40 45 29 48 35 46 28 33 33 40 36 39 28 30 52 30 29 40 33 30 35 32 29 32 37 31 51 39 33 35 33 31 29 36 40 30 30 42 25 40 42 32 24 29 34 25 30 38 35 35 37 39 26 31 30 32 32 38 30 44 45 30 30 34 37 34 38 27 34 23 25 42 21 39 34 38 31 39 34 37 37 32 43 26 35 32 33 30 36 32 34 33 26 34 38 38 47 31 36 39 31 32 37 35 36 36 44 40 30 31 29 32 39 33 37 39 43 41 34 31 30 43 30 26 31 52 40 36 33 35 50 39 34 32 40 21 38 34 28 41 31 39 27 41 23 32 31 33 28 33 29 40 35 23 33 21 31 31 32 38 39 38 34 38 31 41 37 44 42 42 34 36 38 45 28 30 29 31 32 32 36 32 29 40 35 32 37 31 37 17 29 36 39 50 44 38 34 33 23 27 32 37 34 35 32 39 46 25 30 33 34 21 28 50 38 32 34 30 34 26 28 26 25 35 28 28 34 40 43 17 42 31 32 24 38 37 43 30 32 34 34 27 38 45 45 32 31 45 34 24 31 26 36 33 43 33 41 40 48 39 37 28 36 25 33 22 46 32 37 27 34 41 43 36 30 35 49 27 35 29 40 33 27 38 23 38 40 26 26 25 35 28 33 37 31 32 35 34 31 37 26 31 40 27 35 33 36 40 32 32 41 33 34 42 32 27 23 30 34 22 40 32 32 36 34 36 39 46 30 43 51 35 29 34 30 37 37 29 32 42 38 31 31 34 37 32 35 30 29 32 33 27 37 36 26 40 29 30 38 33 33 29 38 46 40 30 32 27 30 26 34 38 28 27 37 39 29 33 43 23 38 24 25 45 33 32 37 29 44 34 33 48 32 45 26 35 33 25 40 38 28 36 30 41 31 24 38 36 33 29 39 29 20 33 28 41 26 31 29 32 32 23 29 39 39 24 43 46 32 29 29 34 42 28 31 50 40 32 29 38 33 43 30 42 32 26 36 34 34 47 32 31 33 31 39 26 36 27 48 33 35 27 41 30 40 28 27 31 31 38 34 33 38 35 32 27 32 29 39 21 33 33 27 30 45 27 37 34 31 33 38 32 29 31 31 37 29 33 36 31 39 31 38 29 38 26 38 35 27 38 26 27 37 42 30 33 36 32 25 36 38 38 35 31 32 53 29 33 28 34 41 33 37 35 32 41 27 30 38 36 31 33 35 26 29 38 29 25 34 47 32 30 27 31 32 27 22 27 37 41 35 38 28 41 38 35 38 36 30 34 32 24 34 34 31 34 31 37 41 42 31 33 33 36 29 30 33 28 39 42 37 30 34 33 35 31 36 32 25 37 41 27 35 26 26 37 30 25 33 46 41 35 30 33 35 31 37 30 28 36 41 28 36 31 38 32 35 30 24 43 29 29 29 37 34 31 29 33 35 34 39 33 27 35 30 30 30 30 23 41 29 42 40 26 49 35 29 32 29 28 27 35 33 35 33 47 35 28 37 31 25 35 33 44 32 43 40 34 24 25 23 22 41 35 29 36 42 29 40 32 26 31 34 42 31 40 35 37 41 36 29 32 35 34 39 34 32 27 29 36 32 26 27 38 42 38 42 37 35 42 43 17 29 25 39 33 23 31 30 39 33 49 32 25 25 26 29 36 38 45 33 30 34 37 30 31 34 42 41 30 36 32 28 36 32 28 35 33 37 32 33 32 45 27 34 36 30 37 34 36 32 30 26 34 32 41 30 32 30 37 29 34 28 35 35 32 27 29 38 40 28 31 36 37 31 29 32 36 32 28 26 32 37 28 27 34 31 31 30 37 27 27 32 32 43 39 25 38 30 34 37 41 36 39 39 33 34 36 33 27 35 30 32 39 33 38 32 27 38 37 21 39 25 30 37 33 41 29 36 37 35 40 33 35 29 34 24 31 39 37 35 22 30 30 40 40 26 35 33 33 37 30 26 39 41 27 32 35 22 29 37 40 35 34 20 34 29 36 33 46 38 31 38 32 45 42 27 32 36 29 33 34 42 37 28 30 42 23 37 37 40 46 35 33 35 29 27 39 33 38 35 38 48 24 32 25 31 39 46 40 25 29 33 39 49 28 37 36 35 39 42 46 27 33 32 34 35 37 34 32 39 41 46 42 39 35 30 45 32 42 42 35 45 35 34 32 44 36 34 35 36 37 35 35 29 38 28 29 29 41 37 30 39 34 33 39 35 33 32 40 27 42 34 27 30 37 27 33 38 33 27 42 40 29 41 36 42 33 35 16 25 35 30 44 33 46 37 40 28 36 46 37 36 31 32 37 46 27 42 34 41 35 45 31 35 34 33 38 34 30 36 38 33 30 32 41 27 27 39 29 29 34 43 33 36 42 39 31 44 28 55 33 31 29 43 31 30 43 42 32 24 28 28 25 34 47 30 41 39 39 33 34 30 46 33 27 42 38 39 31 32 36 44 39 25 28 28 35 29 28 40 42 29 28 47 31 29 29 34 24 29 36 32 34 33 27 28 31 42 31 55 35 34 41 36 35 46 26 39 21 36 38 35 34 28 34 42 35 37 38 30 34 28 30 28 28 34 28 29 33 42 30 33 37 21 35 36 31 41 28 31 31 26 32 32 37 28 31 53 39 35 31 23 25 39 29 29 28 48 31 29 45 30 33 35 21 24 38 28 25 27 30 34 27 32 31 34 26 28 45 30 29 30 32 27 43 33 35 28 32 32 32 32 38 26 37 39 29 32 33 35 38 40 31 48 32 35 29 36 32 31 40 39 29 35 36 28 42 35 39 41 26 27 41 35 26 44 35 36 18 35 31 33 39 27 36 33 33 42 35 38 29 33 39 37 37 31 36 27 37 24 25 30 28 28 34 35 31 31 32 34 34 52 33 25 35 27 28 32 32 30 21 35 30 35 42 27 38 45 36 35 39 39 43 30 42 35 34 30 32 22 39 47 32 26 29 29 36 24 40 39 46 27 38 39 30 26 32 38 43 35 37 41 35 32 36 39 34 31 43 28 21 41 45 36 38 36 42 25 34 27 30 38 33 36 34 42 32 26 44 29 27 34 37 41 37 29 30 34 33 33 30 32 28 33 33 26 39 34 30 39 34 24 27 37 43 39 25 40 38 33 37 22 31 35 32 31 33 31 35 35 30 25 34 30 39 29 39 39 36 33 23 27 41 36 31 30 34 42 22 36 40 32 27 29 31 37 29 30 39 32 26 37 40 39 36 40 33 40 36 42 25 34 29 30 24 35 32 37 35 36 29 39 35 26 29 43 38 39 34 32 35 36 28 41 34 28 35 33 34 33 30 39 35 27 34 42 38 30 29 26 28 31 30 39 27 30 26 34 36 34 29 26 39 30 38 27 39 33 30 37 28 41 38 27 29 29 33 26 39 30 30 42 42 28 43 33 44 38 33 37 42 36 38 29 30 29 32 42 35 28 38 37 31 32 37 38 26 36 42 32 34 38 36 28 38 41 40 35 29 30 27 39 31 34 32 38 32 32 41 31 31 27 25 38 28 26 34 33 35 35 26 40 33 38 32 31 40 37 46 37 26 31 35 31 29 34 27 38 34 32 32 26 35 28 27 34 30 29 37 29 43 44 44 25 32 35 32 23 36 27 28 34 32 28 28 40 31 33 32 28 46 34 32 31 45 35 39 37 31 28 37 33 35 31 34 30 33 27 38 34 29 30 37 26 37 41 33 28 43 26 29 37 34 40 29 29 30 42 26 25 31 29 33 29 34 30 30 26 33 29 29 36 45 37 40 21 37 36 31 27 34 32 33 43 28 36 38 40 28 26 36 37 31 43 27 51 36 41 36 32 41 27 25 36 38 39 33 38 26 30 27 29 38 35 42 27 36 28 26 46 45 43 29 32 32 35 42 39 33 43 40 25 36 23 37 35 33 19 33 33 31 35 31 42 34 28 39 32 32 33 36 39 32 43 28 27 37 32 38 34 33 32 29 35 31 40 38 33 38 32 47 35 26 36 45 33 30 29 39 37 35 32 28 31 31 33 34 36 42 34 34 33 42 36 32 36 36 28 28 42 41 23 32 30 33 33 38 32 34 38 31 38 32 35 43 36 37 42 32 33 47 33 30 34 24 32 33 40 35 38 42 38 38 28 32 31 23 33 27 37 29 29 28 38 36 35 37 27 25 36 35 34 34 38 32 39 36 39 44 37 37 41 41 33 31 26 48 33 33 33 43 31 38 33 32 37 37 31 44 28 29 30 37 40 29 36 37 33 39 36 34 38 34 36 34 32 33 36 35 38 28 34 39 30 44 44 26 47 31 37 45 32 36 32 26 34 33 41 40 33 41 32 30 38 27 35 35 35 41 27 34 36 25 34 27 36 54 36 31 29 40 51 39 40 31 43 39 36 35 31 29 31 27 39 32 29 36 33 32 30 36 38 38 35 31 37 38 30 41 34 46 39 27 35 26 36 38 32 36 40 39 35 35 29 30 42 42 35 33 39 36 34 38 23 31 35 28 35 24 33 46 39 30 32 28 37 33 37 28 37 37 33 35 27 43 32 39 29 31 33 31 30 33 38 36 38 37 40 30 24 27 28 28 33 37 29 29 36 38 31 34 43 40 37 36 37 36 40 42 26 27 33 37 28 28 19 33 34 32 27 43 35 28 33 30 35 25 26 42 46 36 37 37 26 38 37 34 28 25 41 37 35 39 39 33 36 32 37 35 29 34 37 27 32 21 33 36 30 41 38 45 30 43 34 38 37 32 41 33 28 37 32 42 31 27 38 28 28 27 35 30 24 34 34 32 39 35 37 37 44 24 38 44 31 31 24 32 42 43 34 39 36 37 29 32 41 36 33 30 46 40 46 31 35 36 39 45 41 27 34 46 33 30 29 26 30 36 34 36 22 36 30 31 25 32 30 27 24 25 37 36 37 49 37 30 31 34 33 30 32 26 33 40 31 28 35 36 32 38 29 37 33 41 33 35 32 37 24 40 31 34 35 36 31 29 33 28 30 43 31 33 35 32 31 38 30 25 31 30 41 36 32 42 39 41 28 31 36 35 25 35 36 26 28 42 32 38 26 40 30 40 27 38 37 29 27 33 43 31 37 38 31 35 32 42 34 32 32 32 41 30 31 38 40 36 39 33 37 44 34 35 36 32 41 37 33 25 35 33 25 42 33 31 41 27 40 29 29 35 37 37 34 29 26 31 38 29 25 33 31 42 32 45 29 30 30 37 31 36 33 34 24 24 29 34 38 30 39 35 37 37 32 36 38 26 40 34 29 30 30 35 45 33 27 25 34 47 30 29 34 29 32 38 34 43 39 42 29 27 41 43 28 32 29 36 31 44 36 33 45 39 34 45 34 32 31 38 35 32 33 35 28 18 36 34 43 31 34 38 31 34 34 40 31 39 32 28 23 38 40 26 29 36 33 25 38 36 39 30 30 32 36 37 27 35 28 33 29 34 34 37 41 32 32 35 40 29 24 34 35 33 34 34 32 29 37 40 28 33 30 25 30 36 26 36 42 32 36 26 42 36 39 29 21 34 25 30 35 28 30 35 49 28 38 32 26 30 29 31 39 31 30 28 32 39 35 35 36 51 34 34 29 38 25 31 31 26 32 31 28 28 43 39 43 35 38 45 29 30 34 36 44 25 43 26 35 24 32 49 23 41 47 44 41 32 26 32 25 34 47 29 45 29 32 30 30 30 34 38 35 34 31 32 27 36 34 32 24 24 32 31 38 34 42 29 34 34 39 36 27 30 26 38 44 33 39 32 31 27 34 36 30 34 36 31 41 38 34 22 25 35 35 40 31 26 25 30 33 31 35 32 24 28 30 36 37 31 32 43 33 32 34 32 29 47 29 42 39 32 26 34 34 36 39 38 36 33 24 34 33 37 37 30 24 33 29 38 28 29 34 32 27 37 38 28 32 35 32 28 41 27 27 36 27 39 36 29 33 27 30 25 30 29 34 29 28 45 32 35 26 26 36 24 34 37 20 42 35 36 39 35 35 41 38 32 40 40 33 39 32 21 39 34 23 39 32 31 23 33 29 28 29 39 25 35 30 26 34 41 35 22 42 26 29 38 46 31 27 27 43 37 37 33 29 34 36 39 37 26 35 29 30 40 32 41 33 24 30 29 29 32 43 42 23 31 35 40 30 54 37 30 30 39 30 36 37 42 28 36 33 26 38 26 25 33 36 32 39 25 32 28 40 29 32 42 28 35 36 26 24 26 28 37 42 33 35 44 34 28 33 29 44 37 36 31 38 31 34 36 40 29 29 34 37 35 40 39 33 27 39 32 31 41 29 41 41 40 25 33 32 35 42 35 36 26 28 36 33 31 29 31 35 31 34 29 35 28 28 33 27 29 37 27 31 24 37 41 31 31 36 37 34 37 34 32 42 41 40 30 36 39 45 50 35 36 39 30 41 45 39 29 33 33 31 25 37 37 30 38 41 37 31 44 36 25 38 33 46 30 26 42 32 27 27 36 40 32 36 36 32 29 31 49 30 30 27 32 38 33 34 23 30 35 30 27 43 37 33 28 37 48 37 29 31 29 43 33 33 28 35 33 39 37 31 32 24 32 41 36 39 28 41 37 30 32 39 40 27 36 38 33 27 30 36 45 34 40 39 34 31 36 36 35 35 28 33 30 33 40 23 30 39 33 29 41 35 38 42 29 37 35 39 36 30 30 39 33 33 36 37 26 35 43 31 40 30 35 34 31 37 28 23 30 30 31 26 30 39 40 51 29 34 37 34 40 42 45 30 43 32 34 38 30 36 34 30 41 40 23 27 43 36 35 39 42 40 34 34 34 39 34 29 34 36 30 35 30 27 38 38 31 38 51 30 31 35 38 24 38 36 32 37 35 42 39 45 36 27 33 29 38 27 29 28 39 45 21 31 26 28 33 38 29 28 37 33 38 24 27 44 37 48 29 28 30 36 43 36 31 27 29 37 44 35 27 36 25 35 41 34 35 26 34 31 41 29 38 31 24 38 36 27 30 30 42 39 27 36 30 23 40 33 35 36 25 31 28 30 37 30 29 32 38 35 39 34 41 37 34 37 26 38 32 33 46 35 42 40 38 23 29 29 33 24 43 29 32 26 42 31 40 39 33 29 46 30 30 35 41 35 38 30 25 37 38 34 33 31 39 23 44 25 30 32 37 39 34 30 37 36 46 31 42 37 37 37 31 29 38 37 37 34 31 29 33 32 35 29 30 44 28 32 29 30 26 32 31 37 29 32 34 38 32 38 36 29 38 32 30 34 22 35 27 24 32 34 51 36 37 43 29 37 31 34 24 41 31 36 28 42 36 26 29 36 53 47 41 29 28 30 37 31 33 32 24 27 43 37 31 32 37 36 41 35 28 28 36 42 32 24 43 28 38 36 33 41 29 30 37 31 32 29 26 33 39 36 32 29 35 28 36 30 41 27 34 35 25 43 32 39 26 41 33 32 40 28 32 35 29 45 26 32 39 20 30 35 28 33 38 31 32 29 30 32 32 36 37 38 33 38 37 31 23 36 31 41 27 44 27 34 35 35 28 28 37 26 37 30 30 33 28 32 30 34 29 43 32 43 28 40 35 28 35 20 41 34 34 34 26 37 32 27 32 33 24 31 41 41 29 39 35 47 31 29 20 40 36 32 39 31 34 34 39 21 39 36 34 43 37 41 28 42 34 25 36 44 41 43 39 35 34 48 30 29 35 34 27 28 37 31 40 28 35 27 31 30 27 34 44 34 28 36 32 21 28 38 43 28 34 42 35 31 37 36 42 41 37 37 28 45 32 33 28 31 31 33 29 32 33 29 35 33 38 34 38 33 28 30 30 36 37 35 30 33 41 35 33 37 31 32 24 28 27 33 36 34 34 32 32 30 36 36 30 34 36 33 29 26 39 34 27 42 33 39 39 32 32 26 33 25 31 33 30 41 36 26 34 32 38 26 29 39 40 32 31 35 36 29 26 39 30 56 34 35 28 49 38 28 34 25 31 39 29 42 32 43 30 38 40 31 38 32 32 26 36 26 41 26 30 27 36 27 31 42 36 39 30 38 35 38 41 43 40 34 38 32 26 28 41 41 32 31 34 42 30 32 33 38 42 27 41 34 24 39 26 32 36 32 43 35 29 36 39 27 33 44 34 32 39 29 40 39 29 39 41 43 30 28 26 38 33 34 34 30 35 29 30 21 33 28 32 39 29 28 30 29 39 38 40 30 36 30 50 33 33 32 40 35 38 36 42 33 33 38 43 36 32 37 32 32 35 36 32 38 34 30 39 26 28 32 32 27 36 34 40 44 23 36 29 32 33 19 33 32 30 33 37 33 37 37 34 33 26 33 36 36 31 25 24 31 34 27 38 31 32 24 31 40 34 30 29 37 34 32 44 33 37 41 35 33 25 33 44 39 28 28 31 37 36 32 35 40 36 33 39 34 30 41 36 43 26 44 32 39 42 37 41 31 35 36 35 35 32 32 37 41 27 31 34 29 37 40 42 41 25 32 31 28 37 46 31 36 51 27 28 38 34 29 25 32 34 31 34 47 33 40 23 35 34 29 44 38 38 44 36 30 30 38 29 32 40 36 39 30 45 24 36 30 37 27 26 30 28 37 29 33 29 34 39 47 38 31 27 34 34 39 26 53 33 41 34 32 30 40 35 29 26 29 41 38 33 29 31 39 25 35 37 37 41 40 35 30 39 48 35 32 32 29 40 29 33 31 46 32 32 35 39 32 39 36 26 36 41 37 38 39 41 30 27 40 36 33 29 46 35 39 31 27 31 32 34 39 37 33 35 30 35 36 34 32 42 31 44 47 38 31 32 28 39 36 34 30 37 39 29 35 38 33 41 35 38 36 35 29 30 30 40 32 41 31 27 30 30 27 42 31 40 32 42 24 27 36 34 33 40 28 30 30 31 29 39 41 31 26 33 30 30 38 44 32 32 33 33 35 32 39 29 27 32 31 40 40 26 28 29 28 34 31 43 31 36 48 34 28 37 25 34 40 31 37 38 28 31 26 41 34 45 30 39 30 28 28 37 47 24 33 28 36 34 34 30 35 40 39 32 30 41 29 29 32 27 35 43 38 35 37 42 33 35 37 29 31 29 33 32 39 36 34 36 39 30 37 30 38 34 30 29 44 38 27 36 36 36 34 40 28 32 30 38 24 35 30 35 38 37 44 31 31 30 40 42 35 22 36 33 34 43 32 27 27 30 47 33 27 37 24 36 27 42 32 32 28 26 37 38 30 45 35 33 31 29 39 24 36 43 36 36 42 33 32 32 32 26 33 22 32 30 29 31 35 35 23 29 36 37 40 25 24 35 32 38 30 42 30 28 37 37 39 30 32 31 32 28 29 25 32 28 33 37 49 29 32 30 34 36 25 42 36 33 33 39 42 35 37 34 41 47 28 26 40 43 30 35 42 35 36 41 38 39 38 42 33 30 29 24 31 37 33 40 36 39 35 39 43 27 37 34 28 36 28 30 38 37 38 30 26 33 35 30 36 29 43 30 24 33 37 28 32 41 29 35 45 39 34 37 42 34 33 22 35 31 36 42 28 36 38 35 33 32 40 35 30 37 28 25 33 36 41 26 35 29 38 38 38 40 39 28 36 30 37 33 33 28 32 40 38 26 29 29 30 40 49 29 30 26 27 48 29 37 36 28 38 28 33 27 27 32 42 33 34 40 34 37 37 35 35 30 34 35 33 29 39 35 28 49 28 48 29 38 26 40 35 37 36 35 30 32 33 32 41 37 39 33 31 24 37 24 38 36 38 32 39 32 27 37 41 28 46 33 35 29 38 34 33 29 42 42 33 40 38 36 27 49 35 27 39 30 31 39 35 33 29 27 30 33 45 33 34 28 29 37 38 29 30 32 30 42 32 27 41 35 25 37 42 33 40 42 35 44 27 32 43 30 35 39 42 32 29 26 44 32 28 30 38 41 42 39 31 28 54 36 27 39 35 32 27 32 30 36 39 25 45 25 27 29 39 29 29 33 38 34 26 28 35 29 33 31 31 37 41 40 27 29 37 37 27 37 50 34 29 26 32 29 30 33 33 26 40 31 36 31 24 48 25 27 31 34 29 50 25 23 26 37</t>
+  </si>
+  <si>
+    <t>FTL(0.04729164799928795, -790.1423585394336, 1045.8332972416165)</t>
+  </si>
+  <si>
+    <t>295 232 304 224 209 239 234 338 246 287 304 286 227 239 262 236 262 302 291 269 262 262 299 285 163 260 275 294 263 281 298 265 246 294 248 204 237 212 359 237 267 271 219 271 238 268 176 304 350 297 203 305 252 199 337 202 224 270 261 251 252 285 353 211 301 217 291 266 248 202 269 277 307 272 287 269 281 295 235 248 185 216 179 231 181 282 294 231 221 238 206 182 285 234 312 284 194 199 237 286 329 356 293 190 279 274 301 340 330 340 300 313 268 237 171 232 287 219 240 330 231 157 256 250 232 216 263 390 256 297 358 276 296 287 314 231 298 329 225 171 226 268 354 197 256 255 367 295 291 270 178 295 249 318 265 275 277 245 286 242 118 175 350 188 311 258 330 356 215 246 334 214 256 307 155 266 316 249 248 248 231 214 345 220 224 307 205 204 286 286 266 234 230 246 220 247 234 322 280 245 255 301 297 263 315 237 317 273 225 253 250 332 259 306 280 273 253 300 192 263 271 223 311 307 249 271 266 308 243 227 225 246 160 313 328 261 326 301 274 165 321 341 281 233 314 320 253 351 192 181 250 260 203 178 313 185 287 316 312 248 260 265 331 259 268 250 289 232 280 244 225 229 221 244 336 242 341 296 206 319 223 296 214 206 228 300 238 271 247 255 264 206 288 304 293 235 300 260 225 265 237 253 264 260 257 205 177 255 172 328 362 323 263 241 286 218 207 194 297 177 269 257 268 224 240 359 242 256 288 271 240 266 218 177 250 284 299 178 214 283 178 339 137 276 199 244 286 230 309 319 270 234 175 223 225 328 301 320 255 222 293 253 292 220 232 272 260 212 292 259 223 144 251 228 304 269 266 335 247 315 336 279 186 227 338 236 216 203 178 262 196 242 194 237 365 344 132 349 257 273 137 235 265 345 325 356 355 215 261 232 263 179 236 196 176 335 147 188 191 350 244 229 342 239 246 230 308 250 225 259 293 268 220 274 295 237 260 357 274 227 164 249 308 233 234 203 208 228 300 230 221 138 234 227 283 299 262 253 237 222 321 307 266 227 231 294 206 242 302 213 223 223 282 222 256 308 208 264 283 244 135 303 315 288 183 284 337 238 220 241 350 297 228 205 273 317 236 261 350 266 166 191 249 251 244 305 189 364 275 298 229 328 283 284 279 242 249 219 301 243 250 175 300 326 242 244 370 309 204 260 264 297 270 335 368 256 351 238 321 198 266 262 228 159 198 309 246 267 259 230 253 167 194 259 300 337 225 174 228 267 274 327 196 238 233 259 379 309 195 276 260 175 207 273 260 333 266 257 234 199 307 216 252 231 211 275 341 286 222 239 334 260 252 258 277 325 289 390 193 299 134 162 217 244 278 258 202 407 320 150 246 292 312 251 271 309 268 247 214 195 169 325 279 232 214 216 130 324 257 290 286 256 251 206 172 238 271 213 219 290 239 94 239 186 220 281 184 216 173 292 298 233 335 253 222 282 249 166 321 273 337 224 165 193 368 301 233 240 179 331 294 217 251 302 304 208 265 321 217 253 262 161 241 331 270 235 247 218 238 241 258 259 218 250 259 313 315 259 133 232 292 367 294 239 261 286 226 246 185 274 222 225 309 179 183 277 183 328 268 249 173 261 264 320 308 291 242 233 200 284 347 248 263 235 238 342 226 169 172 233 273 225 236 332 232 205 334 208 314 226 225 274 279 270 226 183 222 302 246 211 368 325 239 364 309 336 289 236 242 171 223 259 259 277 355 259 262 269 211 200 251 321 191 296 267 234 228 291 239 263 256 202 346 199 304 360 171 316 245 265 253 197 223 226 232 268 288 265 195 331 317 180 277 246 247 188 208 235 316 203 201 346 256 295 220 240 286 250 253 344 303 314 250 195 292 331 289 275 210 278 248 241 312 238 235 232 179 246 276 291 215 264 347 243 260 195 284 197 169 278 283 191 318 242 292 270 279 256 235 251 279 227 262 275 228 218 246 141 290 272 345 185 253 275 206 281 200 296 200 208 295 252 251 276 242 204 288 316 292 292 173 244 191 337 185 251 205 379 235 290 233 282 239 328 287 205 252 308 233 287 338 236 188 259 275 263 339 296 231 287 238 281 269 253 283 218 343 228 217 184 251 244 277 216 320 242 288 284 279 240 323 265 240 327 285 257 264 241 259 291 276 360 264 242 235 307 258 260 271 230 204 289 209 278 355 272 283 253 144 262 299 291 264 300 258 179 325 269 212 180 216 256 295 294 195 337 250 258 282 207 200 221 203 344 262 219 297 295 222 218 167 168 401 188 220 282 313 194 221 317 281 307 214 225 403 323 263 256 288 192 317 218 270 341 237 270 255 356 320 254 283 256 286 324 245 174 179 220 287 221 203 210 348 346 305 288 235 255 323 295 156 199 181 249 293 178 278 305 201 156 238 269 311 229 272 290 277 263 314 321 176 279 199 178 214 171 265 309 264 201 168 212 236 228 242 179 227 174 284 287 164 300 290 250 200 226 179 207 238 226 155 255 252 229 232 205 255 245 261 368 280 198 361 254 305 188 259 234 337 263 332 400 300 361 223 320 263 227 188 298 244 233 373 215 312 176 264 245 266 245 260 206 352 275 294 311 221 312 282 270 215 249 284 287 161 214 298 137 284 230 184 173 248 221 250 255 344 308 188 224 235 259 190 280 229 295 280 240 282 222 297 240 238 253 342 229 267 291 232 339 90 200 254 315 285 197 257 248 189 203 234 287 408 235 199 258 195 244 214 296 168 228 267 304 327 236 220 284 268 296 280 168 244 218 211 309 239 268 177 272 215 235 331 252 246 217 210 379 174 280 193 254 266 236 315 279 357 200 93 223 176 241 189 357 178 270 278 348 231 212 276 210 332 231 233 329 209 346 237 292 191 217 291 221 347 305 230 307 349 302 207 226 227 221 265 204 203 282 208 375 339 199 295 191 245 245 215 208 188 256 195 250 235 225 139 200 183 280 252 451 192 266 303 320 311 231 270 257 283 266 319 175 251 284 293 222 277 215 259 263 264 235 367 279 284 349 260 300 282 246 208 234 207 257 261 148 168 197 327 360 308 165 277 293 311 281 273 202 224 293 285 325 313 217 159 209 194 170 275 344 363 297 284 250 318 265 183 264 304 309 238 295 256 250 201 198 281 354 422 225 289 224 224 239 409 248 277 229 311 265 157 221 244 284 203 239 347 250 273 326 279 348 224 307 280 233 262 302 269 230 212 212 291 276 378 211 263 205 292 319 275 144 235 244 269 202 271 296 282 267 299 282 307 333 359 315 214 205 266 251 221 323 330 222 210 272 185 179 265 341 201 203 220 323 280 265 282 308 311 214 201 301 240 249 168 213 203 292 282 272 300 306 213 213 234 248 323 238 325 249 314 231 304 231 279 303 244 277 213 432 168 310 301 363 254 216 265 299 166 183 279 253 245 382 243 283 260 310 228 341 283 208 157 245 340 303 254 287 394 239 257 236 207 325 279 182 245 244 306 180 244 172 257 307 218 252 210 233 233 193 194 111 283 265 268 251 241 219 255 274 254 184 247 237 205 243 298 204 222 248 267 296 350 143 264 349 318 249 324 242 179 275 283 249 195 255 292 247 263 227 209 304 231 145 113 229 251 170 277 241 253 294 189 204 338 251 243 234 321 190 284 303 334 280 316 309 234 292 219 238 257 173 337 270 272 233 262 171 248 349 315 137 274 227 294 353 252 223 201 287 296 299 343 309 308 195 302 272 212 240 173 293 288 269 211 247 266 211 337 311 151 235 186 254 282 287 217 183 240 185 308 191 269 216 293 207 217 207 226 196 210 218 295 274 283 318 294 227 273 260 214 247 246 349 221 283 312 226 336 211 295 288 246 274 242 209 295 301 334 233 198 234 259 255 327 172 282 198 186 217 215 304 218 283 331 271 259 296 208 205 188 202 277 277 207 210 312 190 301 231 304 237 337 284 218 304 323 277 295 319 206 234 355 276 251 209 247 178 229 206 221 289 197 192 301 265 294 169 337 249 339 129 311 212 229 367 147 280 264 195 283 230 225 323 306 281 175 190 347 208 293 256 212 292 267 237 357 204 289 249 287 228 304 238 203 282 344 283 294 230 332 272 200 122 262 205 243 310 206 207 239 256 242 296 234 196 188 263 248 352 237 303 323 297 244 245 235 223 219 255 194 244 281 286 323 274 272 279 214 201 227 271 227 345 290 224 211 276 216 292 266 246 211 242 227 266 184 233 271 364 279 293 198 183 244 238 218 286 202 308 274 266 284 294 261 291 256 317 322 244 221 242 380 207 316 172 297 233 162 290 159 333 192 297 194 302 256 200 212 314 206 266 243 203 230 310 208 230 206 285 241 196 193 282 223 255 266 258 319 206 332 203 208 279 225 194 260 283 301 189 228 255 241 227 319 237 254 391 300 280 294 262 287 192 243 244 253 199 256 331 300 194 318 292 322 334 227 268 323 263 295 237 205 196 251 284 311 283 262 216 323 353 264 289 222 318 269 309 257 333 238 203 205 267 213 213 298 306 271 241 244 199 257 265 292 159 417 394 319 270 182 273 247 290 170 321 249 261 306 224 297 374 288 252 263 199 223 233 269 246 297 339 311 270 255 257 390 210 315 213 332 236 254 229 202 262 304 295 259 285 286 189 290 250 273 196 283 258 273 258 238 199 250 175 283 196 184 212 327 220 221 245 307 269 295 266 326 199 336 273 207 276 201 239 257 197 235 174 315 256 335 306 300 266 232 238 185 217 279 371 237 192 248 269 188 259 283 370 302 340 273 252 276 325 267 185 243 280 223 323 247 230 328 299 218 265 222 267 178 295 340 252 238 206 255 337 305 246 224 210 219 265 238 239 269 229 327 211 324 283 309 225 200 352 271 281 221 287 312 226 151 300 249 271 266 297 271 192 295 301 258 197 169 189 255 189 306 223 144 299 199 224 313 284 185 253 291 236 330 308 248 247 348 211 267 265 186 333 307 281 197 249 237 315 286 266 330 340 256 322 189 256 266 217 298 284 240 255 246 243 224 251 332 206 293 330 253 235 267 199 304 202 274 274 297 184 189 247 336 227 228 237 196 228 287 200 319 256 268 281 277 230 282 285 250 254 268 295 276 286 216 315 189 405 291 281 224 225 198 263 243 282 261 216 330 207 230 304 275 223 234 191 261 255 231 299 219 268 244 236 247 239 287 289 252 187 286 124 236 288 257 303 167 241 173 308 258 226 213 368 253 403 234 287 271 266 321 360 355 228 366 355 213 243 293 292 220 301 242 243 192 193 303 190 213 240 249 302 239 244 185 309 324 283 317 234 304 211 251 193 271 289 212 286 303 301 262 249 303 226 328 242 288 268 292 271 292 174 183 211 293 257 273 360 233 218 270 317 342 387 284 314 236 307 247 227 332 255 182 239 268 252 272 299 260 304 271 235 261 232 277 256 316 249 295 347 146 220 308 393 240 278 260 215 302 219 255 232 313 291 275 319 232 193 350 296 168 246 189 280 130 289 279 230 217 280 243 176 391 265 231 274 317 274 264 192 172 220 299 300 279 370 272 264 189 272 264 327 291 207 323 224 251 295 245 210 340 232 234 262 234 264 232 190 170 285 245 183 211 149 238 232 264 221 279 276 252 228 258 270 234 331 263 343 340 332 263 239 189 210 242 277 256 256 238 336 245 261 185 201 249 202 255 209 278 220 334 158 261 203 247 318 224 206 313 302 291 170 351 252 227 317 296 337 207 252 267 246 270 129 249 343 171 341 256 266 258 206 229 334 282 208 292 184 304 301 273 216 198 245 242 182 268 228 221 252 251 185 244 245 275 241 241 260 261 227 267 261 231 245 248 295 216 382 214 312 260 238 227 214 219 273 232 307 267 283 266 296 306 196 310 279 312 193 148 258 275 290 312 177 343 243 195 182 237 302 370 304 257 246 195 291 313 268 226 316 249 220 219 217 272 237 271 296 245 251 146 303 296 315 237 295 203 283 257 241 304 311 215 318 239 193 236 225 241 289 218 265 308 199 244 225 251 205 284 217 280 273 301 254 280 254 205 316 251 175 291 116 322 155 213 299 304 257 278 265 274 284 259 195 225 272 252 279 310 346 194 232 236 202 261 277 205 287 221 308 262 218 191 226 247 291 211 362 335 319 274 194 298 245 230 262 182 195 327 290 231 388 299 353 262 209 207 218 190 217 283 215 261 256 357 213 309 217 239 275 195 277 243 188 191 275 266 244 241 306 255 194 214 249 344 283 203 214 300 277 260 195 337 332 260 346 165 222 235 262 292 239 252 292 234 237 305 279 249 265 252 298 314 255 236 181 189 229 161 342 282 360 310 269 210 342 286 220 208 322 318 303 192 263 295 350 184 332 313 181 216 233 325 272 278 196 257 227 279 177 312 256 220 246 223 350 273 304 272 310 210 301 353 252 280 161 272 254 319 209 221 353 302 258 135 255 189 343 198 332 183 233 287 229 228 243 212 223 310 296 295 261 257 241 252 207 230 265 298 223 207 295 250 204 292 203 338 234 238 212 246 271 296 304 324 276 270 254 328 305 209 195 289 315 306 241 213 233 269 194 281 331 254 311 292 285 206 214 236 239 263 296 281 254 285 373 177 276 327 187 301 244 253 275 229 169 246 238 246 304 303 216 301 342 254 287 207 210 287 298 291 221 292 303 224 326 210 275 194 362 255 205 251 274 201 249 281 309 220 230 151 254 319 279 267 220 303 244 234 319 207 290 301 310 140 217 252 305 303 187 311 268 272 146 255 263 275 266 202 235 257 276 234 207 244 249 321 245 152 331 263 224 211 271 263 277 176 245 234 235 270 223 285 321 242 272 341 216 254 171 214 247 252 244 286 243 196 258 201 177 246 310 182 248 248 212 277 290 321 327 201 255 273 272 219 299 314 260 206 407 334 280 261 300 254 268 295 270 343 291 249 215 305 277 340 222 197 285 363 175 325 224 288 193 187 252 276 212 298 238 238 274 270 173 250 243 206 325 370 225 254 213 210 258 328 270 366 317 173 217 302 263 256 228 230 253 207 206 239 323 218 288 220 288 234 231 307 225 284 334 309 248 228 217 203 300 314 233 287 302 154 226 257 251 278 239 222 236 174 288 291 247 235 242 197 235 239 299 278 309 232 295 297 291 299 227 217 210 228 305 290 222 281 194 295 209 293 275 307 287 233 259 225 259 228 230 218 243 253 174 194 288 264 226 213 270 202 245 251 221 228 231 251 294 288 270 301 325 277 243 217 242 205 142 267 243 243 370 228 193 295 321 211 339 170 230 303 160 269 225 179 234 242 310 297 187 202 221 337 286 314 168 385 171 263 247 242 334 255 254 199 278 173 279 130 226 413 257 221 329 241 213 249 284 304 262 222 305 245 254 241 290 311 191 395 227 298 263 234 334 198 239 190 236 228 300 278 329 338 242 242 245 214 266 215 297 269 272 296 250 187 209 294 360 268 267 224 324 310 177 198 153 263 303 255 186 205 271 268 281 258 194 218 288 300 256 291 247 320 183 231 320 298 317 303 311 227 346 278 186 125 333 240 305 190 180 215 365 291 265 401 271 329 371 220 302 261 280 244 218 255 285 233 215 281 237 335 197 213 228 292 315 241 256 282 291 227 152 211 163 203 305 297 261 227 308 313 235 187 250 330 327 245 238 260 217 288 197 261 213 253 178 175 244 278 213 173 276 319 149 238 295 238 203 309 251 238 255 186 154 196 217 278 229 277 379 229 264 118 358 295 321 366 216 255 312 230 289 240 331 267 274 165 256 331 266 278 232 262 258 251 293 237 308 247 277 221 224 279 270 261 298 197 274 305 138 223 221 265 267 268 254 357 235 208 227 202 281 254 281 284 170 236 289 300 194 283 288 256 294 257 328 333 210 230 270 272 213 320 224 272 296 330 215 210 280 197 277 269 276 212 216 231 281 279 164 227 319 243 245 233 238 261 256 194 349 252 269 249 295 291 230 264 251 325 275 304 180 291 116 235 221 226 266 277 218 339 340 294 232 294 233 235 231 266 331 243 234 246 236 282 211 162 275 234 277 233 324 314 318 210 243 364 163 145 307 376 300 279 342 243 300 209 322 216 292 155 338 251 242 166 335 328 201 224 228 306 241 237 291 307 277 193 293 210 249 261 272 206 306 261 273 196 232 290 221 270 302 279 251 285 258 144 228 281 325 251 296 195 166 251 310 282 247 237 227 253 327 320 233 250 223 251 264 239 261 216 261 380 383 237 296 214 278 296 224 311 222 274 271 185 280 256 307 280 289 348 250 297 277 207 292 208 196 269 104 158 271 305 238 236 139 182 311 237 309 200 303 285 339 289 293 263 227 339 238 306 290 222 204 202 365 291 217 270 290 240 220 259 243 232 283 272 265 244 326 315 227 294 248 239 229 234 277 228 179 198 296 307 303 226 209 286 309 256 214 323 274 259 245 280 311 228 241 253 202 248 217 275 208 212 263 177 250 232 268 283 322 251 343 313 185 278 311 246 256 261 255 180 242 265 224 253 266 232 289 197 296 241 223 316 274 337 272 246 247 303 248 246 293 237 267 208 264 282 302 219 306 209 246 294 289 308 247 258 313 322 266 271 257 283 289 232 190 234 298 289 287 239 249 184 311 210 218 249 242 294 292 240 221 329 294 249 201 208 267 257 210 304 222 176 227 233 221 219 239 237 316 278 240 242 299 265 277 188 211 276 260 259 268 323 277 315 233 180 276 172 167 186 172 357 253 254 232 282 252 318 278 326 182 282 213 133 229 318 285 238 356 242 315 301 276 220 372 242 199 196 304 218 391 233 309 264 230 283 234 253 373 207 240 204 311 232 234 248 338 301 295 184 262 156 320 298 293 159 229 275 239 261 255 264 328 232 346 343 222 236 385 344 256 283 282 323 246 259 354 241 339 286 127 257 214 267 261 260 234 245 268 184 187 376 303 257 233 270 216 213 355 233 248 267 249 258 255 257 153 246 190 224 214 357 315 242 239 173 275 298 286 249 289 253 244 270 285 292 312 343 193 202 334 206 340 227 254 317 247 219 236 294 224 288 271 188 227 184 275 218 274 258 213 312 308 219 289 270 242 150 299 212 275 248 276 227 243 255 205 216 264 388 236 280 198 335 252 273 269 259 336 278 293 316 265 302 308 279 338 307 269 224 311 226 284 245 175 266 161 224 219 265 203 196 286 315 233 264 324 320 310 298 152 314 266 282 180 213 182 196 172 216 304 297 270 311 258 210 299 191 333 305 294 248 331 269 329 308 181 285 214 182 159 244 191 325 270 233 244 224 206 222 288 247 262 327 240 315 281 253 221 202 318 286 341 286 199 189 303 265 243 229 251 302 222 336 305 196 261 256 262 311 281 210 258 230 273 302 227 221 337 339 215 301 292 177 188 305 252 211 306 284 294 270 214 258 187 291 319 233 125 240 312 249 261 238 298 221 297 268 212 254 301 210 255 238 222 235 199 222 244 247 241 218 274 274 220 210 184 196 289 256 222 251 272 197 241 231 229 219 341 225 303 274 345 251 228 236 134 306 172 254 200 236 261 236 316 157 368 216 222 316 262 212 213 227 283 213 239 200 180 277 261 320 302 267 297 253 256 364 251 227 195 214 229 183 219 206 155 236 323 242 257 277 269 258 291 279 180 274 231 264 292 300 316 335 239 282 245 223 285 322 289 240 257 260 161 266 259 206 276 233 276 239 248 385 295 227 298 191 254 256 173 296 330 252 289 316 119 221 201 255 367 242 228 295 178 246 255 241 263 216 205 264 290 350 257 333 273 297 145 273 182 299 238 157 388 236 245 326 128 274 247 241 266 227 321 235 215 283 244 332 205 281 218 252 162 210 185 316 342 245 196 174 254 283 310 372 213 274 252 287 203 260 231 207 208 234 277 302 245 226 339 204 258 246 254 285 280 255 269 190 317 235 200 201 289 267 265 239 243 196 166 155 253 173 250 237 171 227 229 190 242 201 255 212 364 213 197 292 268 243 216 268 183 282 217 228 177 317 306 297 270 260 235 255 229 307 195 279 279 231 214 265 302 236 139 257 268 269 267 197 274 278 194 175 341 264 270 301 277 265 222 324 292 270 276 240 282 187 220 255 272 289 230 291 198 311 183 223 204 255 317 330 243 197 385 337 302 374 328 308 223 258 234 282 259 268 276 134 248 307 205 310 281 296 253 193 236 252 219 274 235 318 201 250 301 323 315 158 330 249 241 275 257 362 148 193 293 354 261 247 222 319 213 260 251 219 218 295 222 183 234 204 290 335 209 263 320 257 212 269 264 298 278 324 211 314 219 224 342 250 200 229 295 150 278 297 186 204 252 286 274 328 275 257 232 262 201 218 216 318 277 231 163 207 293 247 298 268 329 212 314 210 288 247 237 246 313 340 245 252 251 266 328 245 230 245 272 307 388 252 164 227 193 241 328 332 305 261 263 198 179 248 159 237 201 276 252 334 286 229 266 263 239 373 263 299 153 234 264 306 321 220 237 242 161 265 241 305 441 309 332 227 136 247 244 294 245 124 337 305 235 247 271 213 236 297 217 297 246 213 190 212 274 234 268 343 368 233 178 231 237 307 317 247 210 186 303 175 312 196 321 233 297 255 239 209 364 290 206 205 304 307 215 288 268 275 253 289 312 325 258 225 245 188 279 271 257 310 220 227 225 269 222 239 226 221 243 262 307 247 290 207 280 241 285 293 294 186 260 283 268 153 305 313 272 212 176 210 254 250 201 258 220 306 228 311 257 313 242 253 219 275 233 236 228 343 282 201 188 248 288 188 268 239 244 208 173 216 197 245 248 191 179 328 205 155 294 287 295 236 264 173 184 309 280 243 248 251 273 297 355 234 276 286 303 244 257 309 217 287 190 301 206 258 257 316 244 303 262 171 234 220 207 232 210 281 284 261 277 230 293 192 202 288 299 251 243 322 235 227 232 255 90 184 249 210 197 262 287 260 192 204 320 201 298 301 290 329 212 376 204 179 330 282 224 296 348 290 200 223 220 224 301 377 312 203 296 214 221 222 301 197 235 251 233 247 277 246 257 289 252 238 325 248 333 281 290 252 277 192 206 270 234 267 242 184 266 243 295 314 161 237 283 249 225 250 193 242 348 293 334 294 195 191 235 188 302 246 303 255 191 196 297 296 214 142 206 204 283 279 271 244 298 227 212 381 355 193 213 278 242 212 420 310 223 292 198 189 249 286 244 244 270 367 277 242 213 186 270 263 326 293 326 252 215 208 186 315 262 216 254 361 194 256 288 292 291 276 252 182 239 230 192 273 214 263 280 275 191 282 263 309 237 346 325 232 234 301 239 220 283 266 242 242 178 327 314 222 159 209 177 301 302 253 262 223 263 242 211 235 236 228 303 264 251 290 208 190 289 282 284 258 318 331 249 394 273 337 257 205 274 260 295 300 185 301 202 294 170 299 209 262 230 244 302 322 154 268 248 239 181 349 291 164 135 300 276 204 336 229 301 290 287 253 376 192 280 225 267 235 292 238 369 292 225 235 199 177 286 207 258 240 262 283 262 261 180 232 285 188 203 310 219 262 296 226 186 347 218 271 402 225 261 225 230 271 192 198 301 295 259 284 236 257 289 235 344 245 215 209 268 246 245 289 230 228 152 267 315 235 276 310 113 149 310 390 231 264 186 217 277 229 352 283 349 210 242 198 276 281 299 236 263 220 291 185 298 191 275 261 280 227 325 336 288 263 255 259 255 260 241 274 266 242 151 251 230 215 264 206 278 312 245 247 207 355 224 358 286 221 239 322 247 293 136 313 367 291 233 270 266 302 294 216 179 257 244 271 222 324 222 289 256 266 195 270 259 217 188 279 235 243 237 181 358 249 295 221 223 294 218 269 285 322 316 304 226 210 268 332 335 241 228 224 319 213 237 214 308 168 330 237 284 299 244 271 253 260 263 347 166 225 328 274 247 219 285 287 194 282 268 262 218 221 322 268 211 359 264 244 223 263 197 239 387 199 303 225 267 251 289 352 239 215 251 292 349 278 310 338 242 310 280 239 237 167 228 258 316 318 293 230 213 284 293 218 284 249 294 262 344 210 232 185 305 390 314 203 275 205 261 237 212 242 290 342 212 263 209 284 269 365 274 287 196 287 268 332 248 349 301 283 221 216 245 309 220 243 225 312 310 225 339 298 239 155 193 176 233 220 273 341 246 217 276 318 267 149 219 239 326 272 298 243 161 179 238 275 347 251 250 227 234 222 214 202 328 183 222 276 220 176 205 184 241 247 241 273 287 186 226 308 306 334 324 264 255 234 268 247 232 276 258 268 316 304 251 241 234 243 168 226 243 263 188 258 187 286 290 254 291 212 243 278 277 213 200 246 205 312 320 240 262 200 214 255 278 240 225 242 195 300 305 231 337 245 209 236 333 316 220 267 298 240 291 196 237 231 228 270 226 238 200 293 307 309 128 200 172 213 302 333 322 236 366 264 319 204 266 278 302 290 396 224 217 289 225 233 313 251 234 243 273 235 282 292 245 359 326 279 293 292 307 234 229 314 260 212 334 215 332 342 204 200 249 302 159 213 327 331 249 247 275 258 298 234 297 176 349 259 360 348 256 202 225 262 248 292 246 268 175 246 331 196 281 247 287 207 243 255 287 237 200 241 160 241 237 258 253 284 319 273 253 239 236 287 316 392 280 261 334 236 263 293 267 337 296 276 268 216 242 247 272 256 240 334 271 297 309 239 225 234 301 270 175 230 339 321 305 269 297 348 300 237 242 270 141 217 273 259 271 199 310 165 245 214 192 197 209 205 266 192 355 277 170 257 173 233 251 173 338 280 266 249 312 236 249 229 381 305 332 278 292 326 354 228 293 207 259 200 168 273 234 282 299 293 234 333 288 351 138 199 297 306 323 354 319 293 173 153 251 266 312 234 288 239 337 351 185 346 237 239 144 282 390 273 317 247 156 214 189 203 147 256 253 217 244 272 285 288 166 335 243 238 249 308 302 303 179 304 207 251 165 277 387 278 245 262 301 242 186 225 205 274 204 242 242 260 233 336 280 260 202 237 243 227 227 319 240 283 220 256 246 314 305 253 299 296 247 284 225 287 233 269 320 171 354 203 168 157 208 262 186 282 273 260 264 234 284 290 262 180 284 361 188 309 312 282 317 211 291 263 288 264 287 271 214 161 230 365 187 323 192 258 201 225 322 315 340 151 249 434 258 289 222 244 255 238 218 223 341 233 206 227 262 285 333 272 268 252 214 183 158 278 272 216 328 189 232 195 268 214 216 255 343 288 204 264 230 211 209 257 307 232 266 258 280 288 293 389 127 254 200 143 281 210 284 283 268 265 235 204 406 311 278 189 228 254 157 308 257 240 278 238 364 255 151 237 263 293 185 276 211 135 213 179 270 226 224 248 268 259 118 194 253 315 212 267 311 262 251 293 294 331 198 260 433 215 228 206 365 277 294 201 284 286 169 303 295 269 225 282 282 315 235 283 281 237 227 270 232 271 234 264 210 383 210 185 260 208 270 319 225 312 280 238 262 265 247 234 153 355 273 186 188 355 249 260 224 224 266 292 211 252 213 223 222 261 297 299 176 261 298 296 219 296 163 327 236 204 298 234 164 284 287 247 289 309 241 197 273 259 272 259 197 232 344 196 316 126 277 290 233 289 289 229 241 239 253 305 332 227 221 279 261 264 349 238 257 283 356 253 260 247 231 239 185 138 184 303 289 259 280 209 313 323 329 307 261 170 242 233 142 209 288 210 225 283 277 313 334 265 271 276 240 261 245 169 282 242 330 275 224 214 252 233 195 318 250 243 291 389 242 267 182 160 253 208 152 281 332 283 257 348 224 273 243 278 245 185 286 272 235 268 222 318 309 243 266 204 342 208 236 206 293 228 241 212 242 182 273 258 308 236 266 263 199 211 215 212 315 278 319 338 231 305 310 218 248 262 203 232 246 291 302 291 375 270 252 244 205 171 280 221 301 221 249 286 237 256 177 212 139 287 207 210 259 360 233 375 237 186 223 199 336 250 333 258 274 272 251 191 222 177 248 269 217 237 214 255 314 232 205 216 362 304 274 302 288 228 299 273 147 214 171 340 219 180 272 251 277 273 368 264 201 225 239 196 285 218 345 234 184 364 319 218 247 229 275 325 251 194 192 225 226 194 187 289 275 291 318 175 204 295 210 278 240 238 272 284 236 302 203 186 261 233 251 241 223 246 273 237 234 205 244 263 251 244 249 292 308 208 236 286 284 292 217 232 282 259 260 184 261 243 227 216 272 202 218 265 362 203 234 301 268 414 317 176 247 257 239 243 311 211 213 279 230 269 364 228 186 232 254 182 288 208 286 277 253 251 306 162 237 166 215 219 270 241 243 266 247 225 401 250 287 221 267 195 283 306 233 234 187 216 193 251 310 180 352 280 242 260 247 248 275 285 222 222 221 192 195 305 266 225 273 171 255 230 280 234 293 254 263 284 241 352 329 176 228 301 256 219 276 263 255 222 242 290 191 240 269 262 316 278 258 257 223 250 263 345 238 267 276 346 140 256 183 237 400 303 353 271 229 218 305 319 171 301 290 265 267 319 294 221 239 282 251 283 301 272 340 292 308 238 302 280 215 239 249 229 272 319 249 343 276 197 284 260 255 209 334 321 333 242 289 226 321 248 237 198 247 256 209 284 284 229 218 238 241 250 258 182 334 241 188 244 285 221 227 266 265 212 312 271 261 261 280 272 250 299 139 210 312 219 322 243 342 216 297 200 341 362 285 290 221 308 296 411 205 306 235 274 283 298 224 271 264 241 310 220 233 245 308 189 181 250 292 167 228 238 236 227 299 260 189 299 292 348 296 280 258 345 289 278 207 340 227 297 308 289 268 199 253 221 226 194 362 172 237 260 253 252 202 253 235 236 206 318 316 274 189 221 356 325 268 236 229 243 235 279 119 295 233 181 207 324 185 237 201 208 118 181 318 242 254 268 249 239 247 306 237 357 202 268 318 322 300 332 152 355 158 192 313 282 257 243 334 271 292 271 277 257 269 277 200 271 193 271 220 204 284 273 237 231 265 176 284 255 213 368 251 231 228 195 169 250 277 245 287 319 326 220 230 195 214 250 201 221 194 337 233 308 323 239 290 251 166 195 285 261 194 209 174 283 247 239 308 268 163 265 234 287 261 197 282 189 276 235 214 206 189 251 315 222 371 194 335 290 252 202 273 285 217 309 233 390 240 323 208 292 283 249 262 338 256 316 213 239 285 251 290 327 205 287 335 274 251 294 286 273 171 196 190 215 357 262 273 226 238 317 241 333 216 241 410 366 300 275 242 203 272 214 128 253 180 278 279 239 288 272 243 262 258 372 288 199 278 273 280 236 256 213 147 314 197 278 364 240 286 315 262 258 377 257 284 250 234 231 238 211 258 213 383 345 244 201 192 168 359 204 241 356 382 219 300 183 281 172 232 260 370 297 242 295 252 217 215 312 253 232 363 202 152 236 247 274 289 301 297 233 324 221 205 310 245 236 265 264 245 213 368 288 231 285 206 310 270 220 244 326 183 219 259 288 229 269 217 197 341 243 170 289 290 205 224 247 248 333 218 285 272 259 260 168 226 243 176 306 239 214 324 216 212 203 276 250 269 213 251 321 332 218 211 200 337 256 223 221 300 367 245 318 288 187 184 140 258 273 237 210 332 299 152 281 315 235 310 257 238 284 306 270 161 309 223 256 149 319 192 324 286 325 217 217 309 182 209 284 281 248 230 239 261 300 161 282 270 231 258 320 213 305 249 321 272 233 259 312 271 241 263 290 246 314 226 309 252 222 195 253 276 258 221 234 293 193 266 237 212 235 266 255 251 311 204 171 236 230 227 202 299 232 256 306 295 193 336 230 340 213 233 245 309 231 261 235 251 197 262 276 288 212 296 166 184 279 315 246 232 274 296 241 250 328 279 243 278 360 212 263 261 274 265 256 202 241 236 301 265 300 359 241 195 245 163 261 261 205 220 295 226 237 192 321 262 353 262 255 348 325 253 259 234 290 290 209 234 270 252 262 265 287 207 182 269 218 200 295 243 296 286 213 408 309 268 254 279 282 258 192 229 258 179 272 233 228 223 278 231 236 321 266 344 287 204 260 288 236 292 245 287 211 283 243 245 193 320 245 203 211 265 232 270 257 304 186 310 329 333 185 284 230 247 325 279 281 233 176 255 268 162 187 244 222 249 243 303 210 166 182 279 245 266 260 320 258 348 225 280 277 170 241 334 217 276 347 304 175 268 240 213 185 231 248 264 365 257 374 248 252 252 239 268 148 195 297 214 298 270 338 245 220 161 211 240 282 358 240 295 256 201 281 348 362 215 259 335 238 333 283 255 332 345 188 300 167 260 209 247 171 227 353 228 332 260 316 350 192 272 228 298 242 276 313 262 349 313 170 229 260 254 262 280 244 187 333 213 302 350 270 300 209 368 244 157 188 347 250 191 179 301 245 264 261 180 303 299 229 265 332 261 201 244 257 295 304 277 281 259 235 210 316 320 170 244 220 280 225 270 206 324 307 248 327 278 250 292 239 243 304 236 219 364 292 222 280 187 224 267 348 243 291 310 303 285 193 223 217 212 256 223 390 198 209 220 287 234 297 219 221 186 238 246 223 227 317 271 345 279 273 275 272 270 274 360 340 215 207 361 219 306 276 234 235 297 286 312 325 221 216 329 172 227 252 266 277 188 225 197 262 339 306 248 307 248 241 242 329 241 267 266 311 273 221 311 189 323 327 205 284 254 267 340 214 272 238 222 257 223 315 270 272 299 284 256 225 213 306 337 243 251 231 296 314 273 204 279 237 358 302 205 255 256 419 264 310 215 365 282 262 220 295 186 242 151 306 297 230 269 230 217 212 231 291 260 236 324 283 242 234 352 288 327 288 227 273 196 163 287 190 277 318 281 263 217 227 182 313 251 266 288 255 314 209 322 231 244 199 161 207 146 215 346 258 206 255 216 303 255 246 221 301 315 290 262 214 324 225 293 236 236 228 204 236 290 272 268 289 298 268 186 177 212 240 218 188 273 266 235 285 224 185 255 302 350 283 263 324 289 251 317 210 246 177 260 256 186 188 287 270 232 196 352 211 259 292 231 300 231 197 299 401 192 331 254 231 282 290 296 269 189 326 266 253 294 332 245 322 276 306 263 202 243 197 192 245 180 258 327 233 365 272 360 239 328 267 239 301 245 259 294 147 261 194 310 209 285 340 215 282 225 208 244 205 214 276 220 367 252 222 285 307 212 313 335 215 263 193 270 291 333 202 268 318 310 248 303 345 222 261 287 315 300 329 256 264 260 281 315 238 233 287 314 252 337 201 172 287 307 216 261 218 311 216 240 226 244 282 222 201 301 297 256 305 247 288 271 265 287 277 292 224 245 244 288 221 261 277 259 237 291 183 301 264 251 315 259 301 308 198 342 226 257 197 252 270 247 269 185 187 313 260 231 243 263 236 217 255 149 191 196 339 263 320 301 226 301 199 178 258 258 288 253 231 232 239 283 221 218 189 291 272 346 196 275 259 227 210 246 323 250 229 215 230 244 290 270 251 223 281 176 362 253 241 259 314 255 328 209 218 227 206 246 232 197 291 262 191 221 263 240 237 289 234 202 296 204 279 188 221 252 228 272 245 259 110 232 307 211 194 248 224 306 300 327 259 171 195 247 208 315 226 253 148 197 180 227 350 221 285 301 236 295 274 228 303 173 333 288 220 238 257 260 289 243 178 192 228 325 232 211 255 264 165 274 217 299 247 300 210 269 239 358 209 308 277 253 201 317 251 225 304 245 294 406 235 272 250 260 272 245 271 315 205 108 252 307 337 200 236 209 287 262 306 310 214 241 226 241 203 302 301 221 119 313 393 158 296 257 297 226 240 284 231 241 209 287 246 284 178 246 239 296 234 191 176 244 283 284 197 304 237 229 346 243 251 252 258 260 198 245 238 201 233 307 193 267 342 235 260 171 320 333 373 242 161 204 162 240 323 200 309 339 303 194 304 282 207 233 243 279 278 225 286 207 169 285 264 269 200 335 238 268 271 249 245 221 249 232 218 236 194 184 356 250 331 255 285 321 216 236 348 257 248 243 284 184 299 179 180 324 189 260 393 301 291 218 225 196 214 326 262 193 320 189 239 241 202 215 214 288 237 264 202 215 253 208 224 238 181 218 271 187 270 288 328 252 247 294 250 239 174 263 211 277 235 269 288 236 253 223 274 240 233 233 321 256 352 242 259 184 183 297 276 278 249 169 128 299 233 233 271 296 222 194 267 251 289 200 200 399 236 220 236 223 256 330 223 306 305 281 194 277 255 281 253 308 299 282 165 242 281 274 191 271 198 246 216 291 281 274 274 331 195 202 255 240 232 259 209 243 310 221 209 272 259 276 268 213 262 220 210 222 230 243 213 269 202 361 247 234 213 213 341 177 263 312 166 253 213 294 245 248 256 255 283 180 333</t>
+  </si>
+  <si>
+    <t>MIE(0.48960493489289814, 5.203979645482372, -1.2586315743807067e-22, 2.4431566494862738)</t>
+  </si>
+  <si>
+    <t>3 0 2 0 1 1 0 1 1 1 1 4 1 2 2 2 2 2 2 0 1 2 4 2 2 0 1 2 1 1 2 2 1 3 0 2 0 0 2 0 1 1 0 3 2 3 3 1 2 3 2 0 2 0 2 1 1 0 1 1 3 2 3 1 3 2 3 1 0 1 3 2 2 2 2 1 2 1 1 1 2 1 1 2 3 1 1 2 2 2 1 1 3 3 1 1 2 3 1 2 2 4 3 0 2 1 2 4 4 4 1 3 2 2 1 0 1 1 1 1 3 1 3 3 1 0 2 3 2 2 4 4 3 0 1 1 2 1 2 2 2 2 1 1 2 1 1 3 3 0 0 2 1 2 0 2 3 1 2 2 0 0 3 1 2 2 2 4 1 1 1 1 1 2 1 1 2 0 0 1 1 0 2 2 0 1 1 1 3 2 2 1 1 1 1 2 2 1 2 2 2 2 2 2 2 2 3 3 3 2 1 3 3 2 1 3 2 2 1 2 1 1 2 1 2 0 1 2 2 1 1 0 1 2 1 2 0 2 2 0 4 3 1 0 1 3 0 2 0 0 2 2 2 1 1 1 1 2 1 1 1 0 2 1 2 3 1 2 2 1 0 1 3 1 3 1 4 3 0 2 1 1 1 1 2 2 3 2 2 1 0 2 2 2 2 0 2 1 2 3 1 2 1 1 1 1 3 2 2 1 2 1 2 0 2 0 1 1 1 0 2 2 1 1 1 3 1 3 1 4 1 2 2 2 1 0 1 3 1 2 0 2 0 1 3 2 0 0 2 1 2 0 1 2 1 1 1 3 3 1 1 2 2 0 1 3 2 1 3 0 2 1 0 2 4 2 1 2 0 2 2 3 0 1 2 1 1 1 1 3 2 2 1 0 2 2 0 3 0 1 1 1 2 2 2 2 3 2 1 1 1 0 1 1 1 3 1 1 1 2 2 2 1 0 2 3 0 1 1 2 1 1 1 2 2 1 0 2 2 1 0 1 2 0 3 1 2 2 2 2 1 1 2 1 3 2 1 2 2 2 2 2 1 1 2 2 1 0 2 1 3 0 2 0 1 1 2 2 2 1 1 1 1 2 1 2 4 2 3 3 1 2 0 0 1 3 2 1 1 4 1 0 1 2 2 1 1 4 2 3 1 3 0 1 4 3 2 0 0 2 2 1 2 1 2 2 4 2 0 1 1 3 2 4 3 0 1 3 1 1 2 3 3 1 1 2 1 2 1 2 2 0 1 1 2 3 1 0 2 2 2 1 2 1 1 0 1 3 1 3 3 0 3 2 1 2 1 3 1 2 1 2 2 1 1 0 0 1 2 1 2 2 1 2 2 1 2 2 0 1 2 0 2 4 4 0 1 2 2 0 1 2 3 2 3 2 1 1 1 1 1 0 3 1 1 1 0 2 1 1 1 1 3 3 1 0 1 1 1 3 0 0 0 1 2 1 1 0 3 2 2 3 3 3 2 2 1 1 2 1 0 3 1 1 1 1 3 3 2 2 2 0 3 3 1 2 4 3 1 0 3 0 1 4 3 0 2 2 0 2 1 1 2 1 1 2 2 0 0 1 2 5 2 0 2 0 0 2 3 1 2 1 1 0 2 2 2 2 4 2 1 1 3 4 3 2 2 0 2 1 3 2 0 3 1 2 1 0 0 1 1 0 0 2 1 0 3 1 1 1 2 3 3 1 2 1 3 1 2 2 2 1 2 3 2 2 3 1 1 0 2 1 1 1 1 2 1 2 0 1 1 1 2 3 1 2 1 2 2 1 2 1 2 0 2 2 0 1 2 1 1 1 1 3 1 2 2 0 1 4 4 1 1 0 2 2 1 1 1 0 0 2 2 3 0 2 1 1 1 3 3 2 1 0 4 2 3 4 1 1 1 0 2 1 2 0 1 2 0 1 1 2 4 2 1 2 3 2 1 1 2 1 2 1 2 2 1 2 1 0 3 2 2 2 1 1 3 0 3 3 1 2 1 2 0 1 0 1 1 0 2 3 1 1 1 2 2 4 3 3 0 3 2 1 1 3 2 2 2 2 2 2 3 3 2 1 2 1 2 2 2 2 1 2 2 1 0 4 0 2 2 1 2 1 2 1 1 1 1 1 2 3 3 2 3 0 2 3 2 2 4 1 1 1 1 2 0 1 1 2 1 1 2 4 0 2 1 2 1 2 1 2 2 3 2 2 4 2 0 1 1 2 1 1 2 1 1 2 0 2 2 2 2 2 3 2 2 2 1 1 2 2 1 1 1 3 2 2 1 1 0 1 4 0 1 1 2 1 2 3 2 3 1 1 2 1 2 3 3 2 5 1 1 2 1 1 3 0 3 2 3 1 3 2 0 1 1 2 2 1 2 1 4 2 6 1 1 2 1 2 0 1 1 2 0 0 3 2 2 2 2 1 3 2 1 0 1 2 2 3 1 2 2 1 0 3 2 1 1 1 1 0 3 0 0 0 1 2 1 2 1 2 1 2 2 1 1 4 1 1 0 0 2 2 1 1 1 2 3 5 2 2 5 1 2 1 4 2 6 2 2 3 4 3 0 2 0 2 0 1 3 4 2 0 3 1 3 1 2 1 1 4 2 3 3 5 2 1 3 2 1 2 2 3 3 2 1 1 2 1 1 0 0 1 1 3 1 3 0 3 0 1 0 1 1 2 1 3 1 2 1 4 1 1 2 1 2 4 0 1 1 3 1 0 3 1 3 2 1 1 1 1 5 1 1 1 3 1 2 1 0 1 2 1 2 2 2 1 2 1 1 1 2 1 0 3 0 0 1 1 2 2 3 1 0 1 3 2 0 2 1 2 1 1 3 3 1 2 1 2 0 1 1 1 1 2 2 3 1 0 2 2 2 2 1 1 2 3 2 2 3 0 1 0 4 2 1 2 2 3 1 2 1 0 2 1 0 0 1 3 3 0 1 1 2 1 1 0 2 2 0 2 2 1 1 0 1 2 2 7 1 1 1 4 4 2 4 1 2 2 0 0 1 2 2 2 2 1 2 2 3 2 2 2 2 2 1 1 0 1 1 0 1 2 2 0 1 1 2 4 2 0 3 1 1 1 3 0 2 1 2 0 3 1 0 1 2 0 2 3 1 2 0 0 0 2 0 3 4 0 1 0 2 2 0 2 2 3 2 2 2 2 1 2 1 2 3 1 3 1 1 2 1 0 1 3 4 1 1 3 1 3 1 2 1 0 2 0 2 2 2 1 3 4 3 2 0 2 1 3 0 1 1 0 2 2 2 2 2 1 1 1 1 3 2 2 0 1 3 0 1 1 3 1 1 1 1 2 1 1 3 0 2 1 1 1 3 3 2 2 1 0 3 2 2 2 0 2 2 0 4 0 1 2 2 1 2 2 2 0 2 1 2 1 1 3 2 2 1 5 0 2 2 2 2 1 2 4 0 2 3 2 3 2 2 1 2 1 2 2 1 2 2 3 1 2 1 2 3 1 3 1 0 0 4 2 2 2 2 0 0 0 1 2 2 4 2 1 2 1 1 0 2 1 2 1 0 3 1 0 2 0 1 2 1 1 1 3 1 1 1 2 2 0 3 2 2 1 1 2 0 2 2 1 2 1 1 0 2 2 1 2 2 1 0 1 1 2 2 1 2 4 0 1 1 1 2 3 2 0 3 2 4 1 2 1 2 1 2 2 1 1 2 2 2 1 2 1 1 3 2 0 1 3 1 2 1 0 2 2 2 2 2 4 1 0 2 0 1 0 0 1 1 2 1 1 2 3 1 1 0 2 1 3 3 0 2 0 1 1 3 0 2 2 2 1 2 3 2 0 1 3 2 1 4 2 2 0 1 4 1 3 3 4 4 2 1 1 2 2 3 1 2 2 2 1 3 2 2 1 2 1 1 1 2 1 0 1 0 3 0 1 0 2 3 2 4 2 2 2 0 2 1 1 1 2 1 1 1 1 2 1 3 2 1 2 1 3 2 2 2 2 3 2 1 1 1 2 1 2 2 1 1 2 0 3 0 1 1 1 2 0 2 1 1 2 2 1 3 0 3 2 2 4 2 0 0 0 2 1 2 2 1 2 1 2 3 1 1 1 4 0 2 0 2 2 0 2 1 2 1 1 1 1 2 1 0 2 2 1 0 0 0 4 1 2 2 2 1 4 0 2 2 3 3 3 0 0 3 1 3 1 1 3 1 1 2 3 1 3 1 0 2 5 3 2 2 2 1 2 2 1 1 2 0 3 0 2 2 3 1 2 0 2 1 1 3 3 2 2 1 2 1 2 1 2 3 1 1 1 1 0 3 2 0 1 0 0 0 1 2 2 0 0 1 1 3 1 1 2 1 2 1 2 1 2 1 0 2 2 2 2 2 2 1 1 1 0 1 1 2 2 1 2 2 0 1 2 2 0 0 1 1 1 2 1 3 3 2 0 1 1 2 1 2 1 2 1 2 2 3 1 2 2 2 4 3 2 1 3 2 0 0 2 3 2 3 3 1 0 2 4 0 1 2 1 2 2 0 1 3 2 2 3 1 1 1 1 1 0 1 1 1 3 2 1 3 2 3 2 0 2 2 1 1 2 1 0 2 3 3 1 2 1 1 1 0 0 1 0 1 4 1 1 3 2 3 0 1 1 2 3 3 2 0 1 3 0 3 1 0 1 1 2 1 2 2 1 1 1 2 2 1 0 1 1 1 0 4 2 2 1 2 2 0 0 3 0 2 3 4 1 1 1 2 2 0 1 2 0 2 0 2 1 1 0 0 2 1 5 1 1 2 1 0 1 1 2 1 2 2 3 2 2 3 0 3 0 1 1 2 2 3 4 0 1 1 1 3 2 0 1 1 1 2 1 0 1 2 3 1 2 1 1 3 2 2 2 2 1 1 0 0 2 2 1 1 2 0 2 0 1 1 2 1 1 2 1 1 1 1 0 1 3 0 2 2 0 2 1 0 2 1 3 2 1 1 1 3 4 2 1 1 1 2 1 0 4 1 2 0 2 1 2 2 0 1 1 1 3 2 1 2 0 2 1 2 3 2 1 3 0 4 0 2 3 0 3 3 2 4 0 2 1 2 1 2 0 1 1 0 2 1 2 2 1 2 1 2 0 1 2 3 2 2 3 3 2 0 0 3 2 1 2 1 1 3 0 3 1 3 2 1 2 2 2 2 1 2 2 3 1 2 1 1 0 3 1 1 3 1 2 1 3 0 1 1 1 1 2 1 1 1 2 0 2 3 1 1 5 1 1 1 3 2 2 2 4 1 0 3 2 1 2 2 1 2 2 2 2 1 1 1 0 1 3 2 2 3 2 1 2 1 1 3 2 0 1 0 1 2 2 2 1 1 2 2 3 4 2 3 1 2 2 4 2 1 0 2 1 1 3 1 4 1 2 1 4 5 3 2 3 2 1 3 2 2 1 1 3 1 0 4 1 0 2 2 1 2 1 2 1 3 4 1 1 0 1 1 5 1 3 1 0 3 1 2 1 1 2 2 1 2 2 3 1 0 0 1 1 1 2 1 0 1 1 1 1 3 1 0 1 3 1 2 0 0 1 2 3 1 2 1 1 3 2 1 3 3 1 2 0 1 3 2 2 4 0 1 2 2 1 2 3 0 2 1 3 1 2 1 1 3 2 3 2 1 1 1 3 2 2 1 2 4 1 0 0 1 3 1 2 1 3 1 2 2 2 2 2 0 0 2 1 2 1 2 1 2 1 2 2 0 2 2 2 1 1 2 0 1 0 2 2 0 2 1 1 1 1 1 3 2 3 1 2 3 0 1 3 3 2 3 1 3 2 1 1 3 2 0 0 1 3 0 3 2 0 2 0 3 1 2 1 3 4 2 1 2 2 0 4 1 4 1 2 1 0 2 0 1 2 3 2 2 2 0 1 2 0 3 2 2 0 1 1 2 2 2 1 1 2 1 1 0 2 3 1 1 3 2 3 3 3 2 2 1 4 0 0 2 2 1 1 1 1 2 4 1 2 2 1 2 0 3 1 2 3 0 2 1 2 1 2 0 2 2 1 4 2 0 3 2 1 3 2 2 3 3 3 3 1 1 3 2 1 3 1 1 0 2 1 3 4 1 2 1 2 1 2 1 1 1 0 1 1 1 1 2 0 1 2 1 2 2 1 0 1 0 0 1 2 4 3 2 2 1 1 3 0 1 2 1 0 2 2 2 3 2 3 3 1 1 1 1 4 1 1 1 1 4 0 3 1 2 2 1 2 3 3 0 1 2 2 2 1 3 0 1 1 1 2 1 1 2 2 1 3 1 2 1 2 0 1 0 2 3 2 1 3 3 2 1 3 3 1 2 4 1 2 1 1 1 0 3 1 2 1 2 0 1 3 1 0 0 1 2 2 0 1 1 3 2 2 4 3 1 1 1 2 2 1 1 2 2 1 3 2 0 0 1 3 0 2 2 2 0 1 3 1 1 1 2 1 2 1 1 1 2 2 0 3 1 2 1 2 1 1 2 2 2 1 2 1 3 1 2 1 2 1 1 2 2 1 3 1 2 1 1 1 3 1 2 2 2 1 2 2 1 2 2 3 2 3 1 2 2 0 1 1 1 1 0 2 3 1 1 1 4 2 2 1 1 1 0 1 1 3 2 0 2 3 2 2 2 1 1 1 0 1 3 1 2 2 1 3 1 1 3 2 3 3 2 1 3 1 2 1 3 3 1 0 1 2 1 5 2 2 2 1 1 1 2 3 3 1 1 2 2 2 1 0 2 1 1 2 1 2 2 1 1 0 3 2 2 2 2 2 2 0 2 2 1 2 0 1 1 2 0 1 1 2 2 1 0 2 1 0 0 2 1 2 1 1 2 0 1 1 1 2 2 3 2 0 1 1 0 1 0 2 1 1 1 2 0 0 2 3 1 1 2 3 2 2 2 1 1 1 2 3 1 3 1 3 1 3 1 4 1 2 1 1 2 4 2 0 0 0 0 1 2 1 2 1 4 2 2 2 2 1 2 1 1 2 1 0 2 2 1 1 0 1 2 2 4 1 0 0 0 2 4 2 3 1 1 3 1 2 1 1 0 2 1 1 2 1 2 3 1 1 1 2 0 1 1 4 2 2 2 0 1 4 4 1 2 1 0 2 0 1 0 2 2 0 1 0 2 0 1 1 0 2 0 1 1 3 2 0 2 4 4 2 1 1 2 1 2 2 1 1 1 2 2 2 2 1 1 1 2 1 0 2 4 1 2 1 1 1 1 1 2 4 0 3 1 2 3 1 1 3 1 2 4 2 3 2 1 2 3 1 1 1 0 4 1 1 2 3 3 2 2 2 4 2 3 1 1 2 0 2 3 0 0 2 3 3 2 1 1 1 3 2 1 1 3 3 0 2 1 1 0 2 4 2 0 2 1 2 1 2 3 2 2 1 2 0 0 3 1 1 3 2 2 1 1 5 0 1 2 1 1 2 1 2 2 0 2 1 0 1 2 2 1 1 1 2 1 0 2 2 3 3 1 3 1 2 1 1 1 3 1 2 0 2 0 1 3 0 1 2 0 1 1 0 1 1 2 2 2 2 3 3 2 3 2 2 1 2 2 2 2 2 1 1 1 2 3 2 1 4 0 3 2 2 4 1 0 1 1 0 1 1 1 1 2 0 3 1 1 0 1 1 2 1 1 1 2 2 3 1 1 2 1 2 1 1 3 1 1 1 2 1 4 1 2 2 2 0 1 2 1 1 0 2 4 1 1 2 1 1 3 2 1 2 1 1 2 2 3 1 1 4 1 4 1 1 1 1 2 1 3 2 0 2 3 3 0 3 1 3 2 2 3 1 2 2 0 2 1 4 1 1 0 2 1 3 1 3 0 2 1 1 2 3 3 0 3 2 2 1 0 1 1 2 1 0 3 0 1 1 2 1 1 5 2 1 1 2 1 2 1 4 2 0 2 4 2 3 2 2 1 0 1 2 0 2 1 1 3 1 1 2 1 2 1 1 1 0 1 2 0 2 0 2 1 3 2 2 1 2 1 2 1 1 2 0 2 1 0 2 2 0 1 3 3 1 1 1 3 1 1 3 2 1 1 0 1 2 0 2 1 1 2 2 3 2 1 3 4 2 2 3 2 4 2 3 1 2 2 0 2 3 1 1 3 3 0 2 4 2 1 2 2 2 1 2 2 1 0 1 1 3 3 1 3 2 3 3 2 2 2 2 4 4 2 0 2 2 0 1 1 1 2 1 1 1 2 1 1 2 1 2 4 1 1 1 1 0 3 1 3 2 1 0 2 2 2 2 2 0 3 0 3 1 2 2 1 2 3 1 1 2 2 2 0 2 2 1 2 2 2 0 1 0 2 1 3 1 1 0 1 2 0 2 1 2 3 1 3 2 2 2 2 1 3 0 2 3 2 1 1 1 3 0 2 0 1 2 1 2 1 2 2 0 1 0 3 2 0 3 2 2 2 2 0 1 1 1 3 3 1 1 0 1 1 1 1 2 0 2 2 0 1 1 1 0 1 2 2 2 2 2 1 1 3 1 0 1 2 2 1 2 1 2 1 1 3 1 2 3 2 2 1 3 2 1 1 0 3 1 0 1 2 1 1 3 2 3 1 3 1 1 3 1 1 1 1 3 1 2 2 5 4 2 2 2 2 1 3 0 1 4 2 2 0 1 0 1 1 0 0 2 3 3 2 1 2 3 0 1 2 2 1 1 4 0 1 1 3 2 2 1 3 2 2 2 1 3 2 1 1 1 3 0 1 2 2 1 2 1 1 1 1 0 1 0 2 2 2 1 2 4 1 2 4 1 2 1 2 1 2 2 1 1 1 2 3 2 0 2 1 2 2 1 1 3 2 3 3 1 1 1 2 3 0 2 1 4 2 1 2 3 2 2 0 1 1 2 4 1 0 2 3 2 0 1 2 1 1 1 4 2 1 0 2 1 3 2 2 2 3 2 1 2 1 0 3 1 2 2 4 1 3 1 2 2 3 3 1 1 3 3 0 4 0 3 1 2 3 1 1 0 1 2 1 2 2 3 1 2 1 4 2 3 1 1 0 0 0 1 1 1 2 1 1 1 0 1 2 2 2 3 0 2 1 2 2 3 0 3 2 1 3 2 1 0 1 4 1 3 1 2 1 2 3 1 3 2 2 0 3 2 1 3 1 2 1 1 2 2 1 1 1 4 1 1 0 2 3 3 2 2 1 3 1 2 0 2 3 1 2 0 2 0 2 2 1 1 6 1 2 3 5 2 3 1 4 1 1 1 0 0 3 0 0 2 0 3 1 2 1 3 2 2 2 2 1 4 1 2 1 1 3 2 1 1 1 1 2 1 1 3 3 1 1 4 1 2 3 1 3 2 1 1 1 2 2 3 3 0 1 3 0 1 2 1 0 2 2 1 0 3 3 2 2 0 0 2 2 1 2 3 0 1 2 0 1 2 2 3 2 3 1 1 2 2 4 1 2 0 1 4 1 2 2 2 3 3 1 2 1 2 2 2 2 2 1 0 0 1 1 0 3 1 1 1 1 2 2 2 1 0 0 2 3 1 0 0 3 3 2 1 1 2 1 1 3 2 3 3 2 0 2 0 0 0 3 1 1 2 1 3 2 3 3 0 1 1 1 1 4 2 1 1 2 0 0 2 2 1 2 1 4 1 2 0 0 1 2 3 1 1 1 2 2 2 1 2 0 0 2 0 1 0 3 2 1 3 0 2 2 1 0 2 1 1 1 2 2 0 3 1 0 5 3 2 3 2 0 3 1 1 1 0 2 1 1 3 1 4 2 0 2 2 2 3 1 2 2 1 0 1 3 3 1 1 2 0 1 1 2 3 0 0 2 2 0 1 2 3 1 2 1 0 2 2 2 3 1 2 1 1 2 0 4 0 1 1 1 1 1 1 3 3 2 2 1 2 2 1 1 1 2 0 1 1 1 1 0 1 0 2 1 1 1 1 1 2 2 0 2 2 3 2 1 2 0 0 0 3 3 2 2 0 1 1 1 2 1 2 0 1 0 1 1 1 3 3 1 2 2 2 2 2 0 2 1 1 2 1 1 2 1 2 2 2 2 1 0 1 1 0 3 1 2 1 2 1 1 1 2 3 0 0 2 2 3 0 2 1 1 1 2 2 2 1 4 0 1 3 2 3 3 1 3 1 2 2 2 1 0 1 1 0 2 3 3 0 3 3 4 3 2 3 1 0 1 1 0 0 2 2 0 1 2 1 3 1 2 1 2 2 0 1 1 0 1 1 0 2 3 2 0 1 1 3 1 2 3 0 0 2 1 2 2 1 2 2 1 2 1 1 1 0 1 3 1 1 3 0 0 2 3 1 2 2 1 1 3 2 2 1 2 2 2 3 2 1 0 2 2 2 1 3 3 2 1 3 2 3 1 1 1 1 1 1 1 2 1 4 2 2 2 1 2 3 1 2 1 1 0 1 1 1 2 0 2 3 1 1 1 2 4 3 1 1 0 0 1 1 3 2 1 1 1 1 1 2 2 1 0 1 3 2 1 1 1 2 1 2 0 1 2 2 0 2 1 2 2 1 0 1 4 3 1 3 0 0 1 1 2 1 0 2 1 1 0 0 2 1 2 3 2 1 1 2 0 2 2 2 1 4 3 2 0 1 2 4 1 0 1 3 0 4 0 1 0 3 1 2 1 4 2 0 1 2 2 1 0 1 2 0 1 3 2 3 1 1 2 2 2 1 2 1 3 1 2 1 0 3 2 3 0 2 2 1 2 1 2 0 2 1 1 2 3 1 1 3 4 1 1 2 2 2 2 1 0 1 2 2 2 0 3 2 2 2 1 2 2 3 2 3 0 1 1 2 1 2 1 1 1 0 2 0 2 2 2 1 2 2 2 2 1 3 2 2 0 1 1 1 2 1 1 2 2 1 1 1 2 4 1 1 0 2 1 1 0 1 1 3 3 1 2 2 2 2 2 2 3 2 0 0 1 0 1 0 1 0 3 2 3 1 2 1 2 2 2 0 0 1 2 0 1 4 3 1 1 1 2 3 1 3 4 3 1 1 1 2 2 1 2 1 3 0 1 2 2 1 1 1 0 3 2 0 1 1 1 3 1 0 0 2 3 2 0 2 2 2 2 3 3 0 1 1 0 1 1 0 3 1 1 1 1 2 2 0 1 2 1 1 2 3 0 2 0 5 2 2 2 1 2 4 3 0 1 0 0 0 1 1 1 2 1 2 0 3 2 4 2 0 4 1 3 0 1 0 1 3 3 1 2 0 1 1 2 0 3 1 2 1 2 2 0 1 3 1 2 2 1 0 1 0 2 0 1 2 3 2 0 1 2 1 2 2 0 3 2 0 1 2 2 1 2 2 3 3 1 0 2 3 2 1 3 1 2 1 2 2 3 1 1 0 0 0 2 1 4 5 3 0 2 1 0 0 1 1 1 1 3 1 1 1 1 2 1 1 1 1 2 1 3 0 3 2 1 2 2 2 2 2 1 0 2 0 4 1 2 1 2 3 2 1 3 3 1 1 2 1 2 2 2 4 2 2 2 2 2 4 1 2 2 1 2 1 2 1 2 3 1 1 0 3 2 3 1 0 1 2 1 0 2 0 2 3 1 2 3 0 2 3 1 0 1 1 0 5 1 1 1 0 4 2 1 1 0 2 3 2 3 3 2 2 2 2 2 1 3 0 2 1 1 1 1 1 1 1 0 2 1 2 1 1 3 1 1 1 2 1 1 0 1 2 0 1 1 0 1 1 3 1 1 3 2 4 2 2 2 2 3 1 2 1 2 2 2 1 3 1 3 0 0 1 0 0 2 2 0 3 1 0 2 3 3 3 0 2 5 2 1 0 1 3 1 1 1 1 1 2 1 0 3 1 2 1 4 1 1 2 0 2 1 1 2 0 2 0 1 1 0 3 0 2 2 1 1 1 3 2 1 2 2 3 2 2 2 1 1 2 2 2 1 1 0 2 1 2 1 1 1 2 2 2 1 0 4 1 2 2 3 1 1 2 3 1 2 2 2 4 0 3 2 2 1 3 3 1 0 1 1 2 0 0 1 1 0 1 2 0 1 1 2 1 1 1 1 0 1 2 1 1 0 3 2 0 1 2 0 2 0 1 2 1 1 2 1 3 1 2 1 1 3 2 1 2 2 1 2 1 1 4 3 0 1 2 1 2 3 1 0 2 3 0 5 1 3 1 1 2 1 2 1 2 3 0 2 2 2 4 3 1 1 3 1 1 0 2 1 0 0 2 1 3 2 1 2 1 3 4 1 0 0 3 2 2 1 2 2 3 1 2 0 2 2 1 0 1 1 1 0 2 3 1 2 2 2 1 2 1 2 2 0 3 1 1 2 1 0 0 3 3 4 3 3 2 0 0 2 3 1 1 1 4 2 3 0 3 1 0 1 3 2 2 0 2 1 1 1 3 1 2 1 4 2 1 2 1 3 2 1 4 2 1 1 2 1 1 0 3 2 2 2 1 1 2 2 1 1 2 2 1 1 0 1 1 0 1 2 3 0 3 2 1 0 2 0 2 0 3 1 0 1 1 1 1 3 1 3 2 1 1 1 2 3 3 2 3 3 3 0 3 2 2 1 2 1 2 1 2 2 1 0 0 2 3 1 0 3 1 1 0 2 1 2 0 3 3 3 2 2 0 2 3 2 0 1 1 3 3 0 2 0 2 2 1 1 2 2 2 1 1 1 2 1 2 0 4 2 3 1 1 2 2 3 3 3 4 1 1 2 1 2 2 2 1 1 1 1 2 1 2 4 1 3 4 0 1 2 2 2 1 0 3 3 2 1 2 2 2 1 1 1 0 1 2 0 2 1 1 0 1 1 1 2 2 2 1 2 2 3 1 1 1 3 1 1 2 1 3 1 1 2 2 1 2 2 2 2 0 2 3 1 0 1 2 2 0 3 2 2 1 3 1 2 1 2 1 1 4 4 3 2 2 3 1 1 4 0 1 2 3 2 3 3 2 2 1 1 1 1 2 1 1 2 1 2 2 2 1 1 0 2 3 2 0 0 2 1 0 2 2 1 2 2 3 2 1 0 0 1 4 2 1 1 4 3 0 3 2 1 2 1 2 0 0 3 1 1 0 1 0 0 3 1 0 4 1 2 2 2 1 1 0 1 4 2 1 3 1 1 2 0 5 1 1 1 1 1 0 2 3 3 1 2 2 2 0 0 2 0 2 4 2 1 2 3 3 2 1 0 1 2 0 3 1 5 1 1 1 1 1 0 5 1 3 2 1 2 0 2 2 0 1 2 0 0 3 1 1 2 1 4 2 2 3 0 2 0 2 1 2 1 2 2 4 1 3 2 2 1 2 0 1 2 2 1 1 2 2 2 1 0 0 3 4 4 1 3 0 0 0 0 1 1 2 0 0 3 3 3 2 1 2 2 1 2 1 3 0 1 1 2 0 1 1 3 1 1 1 2 0 1 2 0 2 3 2 1 0 0 1 0 2 1 3 3 0 2 2 2 1 1 3 0 2 1 4 0 3 2 1 1 1 1 2 2 0 2 1 1 2 0 2 2 1 0 2 3 1 2 1 2 1 2 1 1 3 2 0 2 1 0 1 0 1 1 1 2 3 2 2 3 2 1 3 2 3 2 2 1 0 1 0 1 1 2 1 0 2 3 0 1 1 2 3 2 1 1 2 1 0 2 1 2 0 1 2 0 2 1 0 1 4 2 2 0 2 2 2 2 0 1 0 1 0 2 1 0 2 0 3 1 1 2 1 4 2 1 1 1 2 3 0 1 0 1 2 2 1 0 2 2 3 2 0 1 2 0 0 1 2 2 2 1 0 1 4 4 1 1 2 2 1 1 0 1 3 1 2 0 1 1 1 3 1 2 4 2 1 1 1 0 2 1 1 1 0 2 2 2 0 1 1 2 3 1 2 1 1 1 1 2 1 0 0 1 2 2 3 2 2 2 3 0 3 2 2 1 2 2 1 1 1 1 2 2 1 1 1 5 1 1 4 2 3 1 1 1 0 3 2 2 3 1 2 1 2 1 1 1 2 2 2 1 0 0 1 3 2 3 1 0 0 3 2 4 0 1 2 0 3 1 2 4 1 1 2 0 1 2 1 0 1 1 1 1 3 3 0 1 4 2 3 3 2 0 1 2 0 0 1 1 0 1 1 1 1 3 2 1 1 2 0 0 2 2 2 0 0 3 3 2 2 1 1 2 1 2 0 2 2 1 0 2 2 3 2 2 0 1 2 3 1 2 1 1 3 0 0 2 2 0 1 0 1 1 2 2 1 0 4 1 2 0 3 3 2 2 2 1 2 2 2 2 2 1 3 1 0 2 1 1 1 2 1 2 2 3 2 1 1 3 0 3 0 0 3 0 4 1 1 2 1 1 3 3 2 3 1 2 1 2 2 3 2 0 3 0 1 1 4 2 3 1 1 4 1 2 2 1 1 0 1 0 2 2 0 1 2 1 1 0 1 1 3 2 2 0 1 1 2 3 2 1 1 2 2 3 1 1 1 3 3 3 1 1 1 2 1 2 2 3 4 1 1 1 3 0 1 1 1 1 2 2 1 0 1 2 2 0 1 3 0 1 2 3 2 4 2 3 0 1 0 0 4 0 1 3 1 0 3 1 1 2 2 1 2 2 1 2 0 2 1 0 3 1 0 1 0 2 1 0 0 2 0 2 3 1 2 3 3 0 2 1 1 1 3 2 2 1 3 1 2 0 1 1 2 2 0 2 2 2 1 0 1 2 1 0 4 4 1 3 2 2 2 2 3 2 1 1 3 0 1 0 2 3 2 2 3 0 3 3 2 2 2 1 1 2 1 3 0 2 1 3 2 2 2 2 2 0 1 3 1 1 3 2 1 1 4 0 1 2 3 1 1 1 1 1 3 2 1 2 2 3 2 3 1 1 2 3 3 3 1 3 2 2 2 1 0 2 3 1 2 2 2 3 0 2 1 1 1 1 2 2 1 2 2 2 2 0 2 2 1 0 1 2 0 2 1 1 2 1 2 2 2 2 0 1 3 2 2 0 3 1 1 2 2 2 1 2 3 2 2 2 0 2 1 2 2 3 1 2 2 3 1 1 2 1 1 2 2 3 1 3 1 1 1 1 0 1 3 1 2 0 0 2 3 2 1 1 0 3 1 0 2 2 1 2 2 0 1 0 1 1 1 2 3 4 1 4 0 2 1 0 1 1 1 2 1 1 2 2 2 2 1 2 2 2 2 0 3 0 0 1 2 1 1 1 2 3 4 3 1 1 2 0 2 2 0 1 3 4 4 2 2 1 3 3 2 4 2 2 0 2 2 2 2 3 2 2 2 2 3 2 1 1 0 2 0 0 1 2 1 1 1 0 1 2 1 1 1 1 2 1 2 1 3 1 2 0 0 2 3 2 1 3 2 1 2 4 1 2 2 1 1 1 2 2 1 1 0 0 3 2 2 3 2 2 2 2 3 0 1 0 2 0 4 0 3 1 1 2 0 1 2 1 1 1 1 3 1 1 2 1 1 0 2 1 2 2 2 1 0 3 3 1 3 1 0 3 2 3 1 2 1 1 0 2 1 0 2 2 1 2 2 0 2 2 2 3 2 2 1 1 2 2 2 1 4 2 2 2 0 1 1 0 1 2 2 1 1 2 0 2 0 2 3 0 1 1 2 3 1 3 2 1 2 1 0 0 2 2 1 1 1 0 3 2 1 0 2 2 1 1 3 4 2 1 4 0 3 1 1 2 1 3 2 1 0 3 2 4 3 1 1 2 2 3 0 2 1 1 1 2 1 3 3 3 0 1 2 0 2 3 3 0 1 0 1 3 1 2 3 0 0 4 1 0 2 0 3 1 0 3 4 2 0 3 2 3 1 4 2 2 0 3 3 1 1 1 1 0 2 0 1 2 2 2 1 2 1 0 1 0 2 1 2 1 1 1 1 0 2 1 3 2 2 2 2 1 3 2 2 3 1 1 2 2 3 0 1 4 4 2 1 1 1 1 1 2 2 4 2 2 1 1 2 3 0 0 3 3 2 3 1 2 3 2 2 2 1 0 1 1 1 1 0 1 1 4 1 4 1 0 0 2 1 2 2 1 1 1 1 2 0 0 2 1 2 0 1 2 1 1 2 3 1 1 3 0 2 2 4 1 1 1 0 2 2 1 2 1 1 2 1 1 1 1 4 0 1 0 3 1 3 1 1 0 2 2 0 1 4 2 1 1 1 1 1 1 1 0 0 2 3 1 1 3 1 4 1 2 0 3 2 1 1 1 3 1 1 2 2 0 1 1 2 1 1 1 1 2 0 2 1 3 1 2 5 0 2 1 4 1 1 1 1 1 1 0 1 3 2 2 2 2 0 1 1 0 1 2 2 4 3 3 1 0 1 2 0 4 3 2 4 2 3 2 3 2 2 2 1 3 3 1 2 1 3 1 2 0 2 1 3 3 0 3 3 4 0 4 4 1 1 3 1 0 3 1 3 2 3 1 1 1 1 1 2 1 2 0 2 0 2 2 1 2 4 1 0 0 4 1 1 0 0 2 1 1 1 2 2 0 1 4 1 1 1 2 2 4 1 2 1 2 1 1 3 2 0 2 2 1 1 2 3 2 1 3 0 3 2 2 1 1 2 0 3 2 0 1 3 1 2 2 1 2 0 3 0 3 1 0 1 3 0 2 2 1 2 2 1 2 2 0 1 1 2 1 1 0 2 1 2 1 2 0 3 0 2 0 2 2 3 1 1 1 1 2 3 1 5 3 2 2 4 1 0 2 3 2 2 1 0 2 2 4 2 3 1 3 2 0 1 1 1 2 0 2 1 3 2 1 1 0 4 2 2 1 1 1 1 3 0 2 0 3 2 1 2 0 1 0 2 0 2 1 0 3 0 1 0 1 2 1 1 1 0 4 2 2 3 1 2 1 1 2 1 1 0 3 2 2 2 2 1 1 0 3 1 3 1 0 0 1 3 3 3 0 2 0 1 0 1 2 1 3 0 3 0 2 1 1 1 3 1 0 2 0 3 1 0 0 1 1 0 2 2 1 2 2 1 3 2 2 0 0 2 2 1 3 2 0 2 1 3 1 1 1 1 2 2 1 1 3 1 1 1 2 2 0 1 3 1 2 0 2 0 1 3 2 4 4 2 1 1 1 1 2 2 2 3 3 0 3 2 2 2 1 1 2 0 0 2 2 3 2 0 2 3 2 0 0 3 0 2 3 1 1 1 5 1 2 0 3 1 1 1 1 1 2 0 1 2 1 2 3 5 1 1 1 1 2 2 3 3 1 1 2 1 2 2 3 1 3 1 0 0 2 0 2 0 4 1 2 1 3 1 0 4 0 3 1 1 4 4 2 2 2 0 2 1 3 3 3 3 1 3 3 2 0 1 3 3 1 1 1 1 1 1 1 1 1 2 1 3 1 2 1 3 2 0 4 1 1 1 4 2 1 0 4 2 1 1 1 3 2 0 2 0 3 1 3 3 0 3 0 4 2 1 2 1 2 1 1 3 1 0 1 0 2 1 1 0 1 2 1 1 1 1 2 0 3 0 0 1 2 2 1 1 1 2 3 1 3 1 4 1 0 2 0 0 0 3 0 3 2 2 2 1 1 1 2 2 1 2 0 1 3 2 2 2 1 1 1 1 0 1 2 2 1 1 3 3 1 3 0 2 0 3 4 2 1 2 2 1 1 1 2 0 1 1 3 2 1 3 1 3 1 1 0 3 3 0 1 2 1 0 1 2 1 0 1 3 1 1 3 2 1 1 3 1 3 2 3 2 1 3 3 1 3 1 3 4 0 0 5 4 3 2 2 2 3 0 3 0 1 1 1 2 2 3 1 4 2 2 3 2 1 0 1 2 0 2 2 1 2 2 1 2 0 1 1 2 1 1 2 3 2 1 1 0 4 1 1 2 1 1 3 2 2 2 1 1 3 2 2 3 0 3 4 0 1 3 3 1 0 2 2 1 0 1 2 2 1 0 2 2 2 0 1 2 2 1 1 4 1 1 2 1 2 1 1 1 1 1 1 1 2 3 1 1 1 0 1 1 2 2 1 3 1 3 1 2 2 2 2 1 1 0 1 3 2 1 1 0 2 2 1 2 1 0 5 3 1 2 1 1 2 1 1 2 0 3 1 0 1 2 3 2 1 3 3 3 2 2 2 1 0 2 0 1 3 2 0 2 0 1 3 2 0 0 1 2 1 1 2 0 1 1 2 1 0 1 1 1 1 1 1 1 1 2 0 1 1 1 2 1 3 0 2 1 2 4 1 3 1 3 1 1 0 2 2 1 1 2 2 0 1 1 3 1 3 1 3 2 2 2 2 2 2 0 1 1 1 2 1 1 1 1 1 1 2 1 1 5 1 2 2 1 2 2 0 0 2 2 2 4 3 3 1 2 2 2 2 3 2 1 0 0 0 0 1 1 3 1 2 1 1 1 1 3 1 0 1 2 3 0 3 4 1 1 2 1 1 3 3 2 1 0 1 2 1 3 2 1 2 1 2 2 3 3 1 1 1 1 1 0 1 1 3 1 1 2 1 3 1 0 2 2 0 2 1 2 3 1 2 0 2 0 0 3 2 2 2 1 3 1 1 1 2 0 2 2 2 2 4 2 1 0 2 2 1 1 1 2 4 2 3 3 1 3 3 5 1 3 2 0 1 0 1 2 1 1 2 2 1 2 2 2 1 1 2 2 2 2 2 2 2 1 1 2 2 2 3 0 2 2 2 2 1 4 3 0 4 1 1 2 0 2 2 1 2 1 0 3 1 1 2 1 2 0 1 0 1 4 0 2 1 2 3 1 3 4 1 2 2 2 2 2 3 2 1 3 2 3 1 1 2 2 0 0 4 0 2 0 0 1 1 2 2 2 4 1 0 4 3 2 0 2 4 2 0 3 1 0 0 3 0 2 3 2 2 2 4 2 0 1 5 1 4 3 0 1 1 2 1 2 1 0 0 0 3 2 0 2 2 2 1 2 2 1 1 1 0 2 1 3 1 2 2 1 1 0 2 2 1 0 0 3 1 2 1 0 3 1 0 1 0 2 2 0 1 1 4 2 3 1 2 1 1 0 1 3 1 1 4 1 0 0 2 2 0 2 2 1 1 4 1 1 0 2 2 3 3 0 3 1 1 2 2 0 2 2 4 0 0 2 2 1 1 1 2 2 3 2 0 1 3 2 1 0 2 3 4 4 0 2 4 2 0 2 3 3 1 2 1 1 3 2 1 1 3 0 3 0 3 3 1 1 2 2 2 1 1 2 2 1 3 2 1 2 1 2 0 2 1 1 3 1 0 0 1 2 0 1 0 1 3 3 2 4 2 3 1 1 2 2 2 3 2 2 3 5 1 1 1 0 1 1 1 2 3 2 0 1 3 4 4 2 4 2 1 0 1 1 0 1 2 3 3 3 1 0 0 0 1 0 1 1 1 3 2 2 1 1 1 2 2 0 1 1 3 2 3 2 1 4 3 1 0 2 3 2 1 4 2 3 2 2 3 2 2 4 2 1 2 1 0 0 2 1 1 0 2 1 2 1 1 1 1 1 0 3 1 0 1 2 3 0 2 1 0 2 1 2 2 1 1 1 1 1 1 2 2 3 1 1 0 2 0 0 2 0 1 0 1 3 3 2 2 3 3 1 1 2 0 2 2 1 2 3 1 1 1 1 1 2 1 1 3 3 4 2 3 1 1 4 2 0 2 1 1 2 1 0 1 0 2 1 0 1 2 1 2 3 2 3 2 2 1 2 2 2 2 1 2 2 1 0 2 2 2 1 1 1 2 2 1 2 2 1 1 1 3 0 0 0 1 1 2 2 1 1 1 2 1 1 1 1 2 1 2 2 2 0 2 0 0 3 2 1 0 2 3 1 1 1 2 1 2 2 1 3 0 3 1 2 2 2 0 2 3 0 0 1 0 1 0 2 2 3 2 0 1 2 3 1 1 3 0 1 0 3 3 0 1 1 1 3 0 2 0 3 2 1 1 2 1 2 1 3 2 1 3 2 2 3 1 3 0 2 1 1 1 1 1 4 1 2 0 2 1 2 0 0 3 2 2 2 2 3 2 1 1 2 1 2 1 3 2 1 2 1 2 2 4 1 1 2 3 1 2 2 1 1 2 1 3 1 0 1 3 2 2 3 1 1 2 3 3 1 1 2 1 0 1 2 3 2 0 2 2 0 3 1 2 1 0 1 0 3 1 0 2 2 1 1 2 2 0 0 2 0 1 2 2 2 2 0 3 0 1 2 2 2 1 1 2 2 1 0 2 2 2 3 4 2 0 2 3 4 2 3 2 3 3 1 0 0 4 2 1 2 2 0 0 1 1 0 2 2 0 1 2 1 1 4 1 0 2 2 2 1 1 1 3 2 1 1 1 1 3 1 1 1 1 0 3 2 3 1 1 1 1 1 1 1 0 0 5 0 4 1 2 1 2 0 0 2 0 3 0 0 1 2 1 0 1 3 0 0 2 2 2 1 2 3 2 4 1 2 2 1 1 1 2 0 1 2 2 3 2 2 2 2 3 3 3 3 1 3 2 2 1 1 0 2 1 1 1 1 1 2 2 3 2 1 0 2 2 1 1 2 2 1 1 0 0 4 2 0 1 4 1 2 2 1 1 2 2 0 1 1 1 1 2 3 0 0 1 0 1 2 2 0 1 2 2 2 2 2 0 4 2 3 1 2 1 0 1 0 0 1 1 2 0 1 4 2 2 3 1 1 4 2 1 1 3 0 1 3 2 2 2 2 1 3 2 1 0 3 2 2 3 2 0 0 3 2 1 2 3 0 1 2 1 3 2 1 2 3 4 0 3 2 1 1 1 0 2 3 2 2 2 1 0 2 1 0 3 4 1 0 4 1 2 0 0 3 1 0 1 1 3 1 2 2 0 1 1 1 1 1 1 3 2 1 1 4 3 3 0 2 1 1 2 2 4 2 1 0 2 2 2 2 1 1 3 2 0 0 1 1 1 2 2 3 1 1 1 2 1 2 3 1 3 2 2 3 3 2 2 1 2 1 1 1 0 3 2 2 2 3 1 1 1 0 1 1 3 1 2 2 2 1 0 2 2 2 4 2 3 1 2 1 3 3 2 1 2 2 0 2 1 1 1 3 1 1 2 1 1 0 1 3 3 0 1 1 1 2 0 1 3 1 3 2 2 1 1 2 2 3 2 1 2 1 0 2 2 0 3 1 2 1 4 2 1 2 2 1 1 0 0 4 1 0 1 2 0 3 1 1 1 2 1 1 3 3 2 5 1 1 1 3 2 2 1 3 1 3 1 0 2 2 3 1 4 2 2 3 1 2 2 1 1 2 2 2 1 3 2 2 1 2 2 1 0 3 1 2 2 0 0 1 3 1 1 1 1 2 2 3 1 2 1 2 0 1 3 2 1 4 1 3 2 3 1 1 1 4 0 3 3 2 1 3 3 3 1 2 1 2 0 1 2 1 1 2 3 1 1 2 1 0 0 1 3 1 1 2 2 1 1 2 1 0 1 0 2 1 1 1 2 2 2 2 2 2 1 2 0 3 5 4 3 0 1 2 2 1 2 0 2 2 0 1 0 1 1 1 3 1 1 1 2 1 1 1 0 0 1 3 1 1 4 2 2 0 1 1 1 2 0 0 2 1 3 3 2 3 0 2 2 1 2 2 3 3 1 0 1 0 1 3 0 1 2 1 1 2 2 1 3 3 1 1 1 2 4 2 2 2 1 3 0 2 4 1 3 3 1 2 2 2 3 3 1 1 0 1 2 1 2 3 0 0 2 1 1 1 2 2 1 0 2 0 2 1 2 1 2 1 2 1 1 1 1 3 2 1 2 0 0 2 1 1 0 3 1 2 0 3 2 3 0 3 4 3 0 1 3 2 0 4 2 2 1 2 2 0 3 2 2 2 0 1 1 1 2 2 2 0 1 1 0 0 2 3 3 5 3 1 3 3 1 0 1 1 0 1 3 2 3 2 0 1 2 1 3 1 1 2 1 0 1 1 2 0 2 0 1 1 1 2 1 1 3 2 3 2 2 1 2 3 1 1 1 0 2 1 2 2 2 1 0 1 1 2 0 1 4 1 4 1 2 1 2 3 3 2 2 0 4 1 1 2 2 1 1 0 3 3 1 1 2 0 1 2 2 1 1 1 3 1 2 1 2 1 2 1 1 2 1 4 1 1 1 1 3 1 1 1 1 3 1 3 2 3 1 0 2 1 2 2 2 2 0 1 1 1 1 2 1 1 0 0 1 1 2 3 1 2 2 2 0 2 1 1 0 1 2 1 3 2 1 2 2 4 0 1 1 3 3 3 2 2 0 2 1 2 1 2 3 2 0 2 2 3 1 2 2 3 3 1 2 3 3 2 3 0 2 0 4 2 1 3 3 1 1 1 3 1 1 1 1 1 2 2 3 2 0 3 1 2 0 3 2 1 0 1 3 0 2 0 4 1 1 2 1 2 2 3 2 1 3 1 1 2 2 2 3 2 0 5 2 2 2 2 1 4 2 1 1 0 2 2 2 2 1 1 1 2 3 2 2 1 1 1 2 4 0 1 3 4 0 0 3 0 0 3 3 4 2 2 0 4 1 5 1 2 0 1 1 3 2 0 2 1</t>
+  </si>
+  <si>
+    <t>GAM(0.07375523498236361, -5.9594620371374045e-31, 0.5285659716612803)</t>
+  </si>
+  <si>
+    <t>1 2 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 2 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 1 0 0 2 0 0 0 0 0 0 0 0 1 0 0 1 1 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 1 2 0 0 0 0 0 0 1 1 0 1 2 0 0 0 0 1 1 1 1 0 0 0 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 3 0 0 0 1 0 0 0 1 1 0 1 0 0 0 0 0 0 1 1 0 1 1 2 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 1 0 1 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 1 0 2 0 2 0 0 2 1 0 0 1 0 1 0 0 0 0 1 0 1 1 1 0 0 0 0 1 0 1 1 0 1 1 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 2 0 1 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 3 1 0 1 0 0 0 0 0 0 0 0 0 2 0 1 1 1 0 0 0 0 0 2 1 0 0 0 2 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 2 1 2 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 2 0 0 0 1 0 0 2 0 0 2 0 0 0 1 1 0 0 0 1 0 2 0 1 0 0 0 0 0 2 0 0 1 0 1 1 1 1 0 1 1 0 0 0 2 0 0 1 0 0 0 0 0 1 0 0 0 0 1 1 0 1 1 0 0 2 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 1 0 1 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 1 0 0 1 1 0 0 1 0 1 0 1 1 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 2 0 1 0 1 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 0 2 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 2 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 1 0 0 0 2 1 0 0 1 0 0 1 0 1 1 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 1 0 0 1 0 0 0 1 2 0 0 0 0 0 0 1 0 0 1 1 1 0 0 0 1 1 0 0 1 1 2 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 0 1 0 1 1 0 1 0 1 0 0 0 0 0 1 1 0 0 2 2 0 1 1 0 0 1 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 2 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 1 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 2 0 0 0 0 1 0 0 1 1 1 0 1 1 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 3 0 0 1 0 0 1 0 0 0 0 0 1 0 2 1 1 0 2 0 0 1 1 0 1 0 1 0 1 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 2 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 1 0 0 0 1 0 2 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 1 2 0 2 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 1 0 1 2 1 1 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 1 1 0 1 0 1 0 0 0 1 0 0 0 0 1 0 1 1 0 1 0 0 0 1 0 1 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 1 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 1 1 1 2 1 0 0 0 1 2 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 1 0 0 1 0 2 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 2 0 0 1 1 0 1 0 1 0 1 0 0 0 1 0 0 1 0 0 1 1 0 0 0 0 2 0 0 0 1 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 2 0 0 1 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 3 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 1 1 1 0 0 2 0 0 0 0 1 1 1 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 2 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 1 1 0 0 0 1 1 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 1 0 0 0 2 0 0 0 0 0 1 2 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 1 2 0 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 1 0 0 2 2 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 2 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 1 2 0 1 0 0 1 0 1 1 1 1 0 0 1 1 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 1 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 2 0 0 0 0 1 0 2 1 1 0 1 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 1 0 1 2 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 1 1 1 0 1 2 0 0 1 1 0 0 0 0 2 0 1 1 2 0 0 0 0 0 1 0 0 1 0 1 0 0 1 1 0 0 0 1 1 1 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 1 1 0 0 0 1 2 2 0 1 0 1 0 0 1 1 1 0 0 0 1 0 1 0 0 0 2 0 0 0 2 0 1 1 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 1 0 0 2 2 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 2 0 1 0 0 0 2 0 0 0 0 0 1 0 2 1 0 2 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 1 0 1 0 0 0 1 0 1 0 1 0 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 2 0 0 0 1 2 1 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 2 0 0 0 0 2 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 2 0 0 0 0 0 0 0 1 0 0 0 0 1 2 0 2 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 1 1 0 0 2 2 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 2 0 1 2 0 0 0 0 1 2 0 1 0 0 0 0 0 0 1 1 1 2 0 0 1 0 1 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 2 1 2 0 0 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 1 0 2 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 1 2 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 2 1 0 0 0 0 0 2 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 1 2 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 2 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 2 0 0 0 0 0 0 1 1 0 0 1 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 1 2 0 0 1 0 0 1 1 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 1 0 2 0 0 0 1 0 0 2 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 1 0 0 0 0 0 2 0 0 0 0 2 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 0 2 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 2 1 0 1 2 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 1 0 1 2 0 1 1 1 1 0 2 0 0 1 0 1 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 2 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 1 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 1 0 3 0 0 0 0 0 0 0 0 0 0 0 0 2 1 1 0 0 1 1 2 0 0 1 0 1 0 1 0 0 0 1 1 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 2 0 1 1 1 0 0 1 1 0 0 1 0 1 0 1 0 0 0 0 1 0 1 0 0 1 0 1 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 1 0 0 0 1 2 1 0 0 0 0 1 0 0 0 0 1 0 2 1 0 0 0 2 0 0 1 0 0 0 2 2 0 1 1 0 1 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 1 1 1 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 2 1 0 0 1 0 1 1 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 1 2 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 2 0 0 1 0 0 0 1 0 0 1 0 1 0 1 0 0 3 1 0 0 1 0 1 0 0 0 2 1 1 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 2 0 0 0 1 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 2 0 0 1 0 2 0 0 1 2 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 1 1 3 1 0 0 1 1 1 0 0 1 1 0 1 1 0 1 0 0 1 0 0 0 1 0 0 0 1 0 2 1 1 0 0 0 0 0 0 0 0 0 0 0 3 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 2 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 1 1 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 1 1 0 1 0 0 0 1 0 0 1 1 2 0 0 0 2 0 0 0 0 1 1 0 0 0 1 1 1 1 1 2 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 2 0 0 1 0 0 0 1 1 0 1 0 0 2 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 1 0 0 1 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 2 1 0 1 0 1 2 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 2 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 1 1 0 0 0 0 0 2 0 1 1 1 0 0 0 0 2 0 0 2 0 0 0 0 0 0 0 0 1 0 1 0 2 0 2 0 2 0 0 2 0 0 0 0 0 0 0 0 1 0 1 2 0 0 0 0 0 0 1 0 0 2 0 0 0 0 1 0 0 1 1 1 1 0 0 1 0 0 0 0 0 0 0 0 1 0 2 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 1 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 1 1 0 0 0 2 1 0 0 0 0 0 1 0 1 0 1 1 0 1 0 1 0 0 1 0 0 0 2 0 1 0 0 2 1 0 0 1 0 0 1 1 1 1 1 0 0 1 1 0 0 0 0 1 0 0 0 1 0 1 1 0 2 0 1 0 0 0 1 1 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 2 0 0 0 0 1 0 0 1 0 0 1 1 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 1 1 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 2 1 0 1 2 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 1 1 0 0 0 0 0 1 1 1 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 1 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 1 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 2 0 1 1 0 0 0 0 0 1 2 0 0 0 0 2 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 2 1 0 0 0 0 0 0 1 1 1 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 1 0 0 1 0 0 2 0 1 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 1 0 0 1 0 0 1 0 0 1 0 1 0 0 0 0 1 1 0 1 1 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 2 0 1 1 0 0 0 1 1 1 0 0 0 0 0 0 2 1 0 1 0 0 1 0 0 1 0 0 1 0 0 1 0 1 0 0 1 1 0 1 0 1 0 1 0 0 1 0 0 1 1 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 2 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 2 2 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 2 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 1 1 0 1 0 3 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 2 0 0 0 0 0 0 0 2 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 2 0 0 0 0 2 0 1 1 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 2 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 2 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 1 0 2 1 0 0 1 1 2 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 3 0 1 0 1 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 2 0 0 0 0 1 1 0 0 0 0 1 1 1 2 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 2 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 1 2 1 0 1 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 1 1 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 1 0 1 0 1 0 0 0 1 0 1 0 1 0 0 1 0 0 2 1 1 1 0 0 1 1 0 1 1 0 0 0 0 0 0 1 2 2 0 0 0 2 0 0 1 2 0 0 0 1 0 0 1 1 0 1 0 0 0 0 0 0 1 0 1 1 1 0 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 1 0 1 0 1 0 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 1 0 1 0 0 0 1 0 0 1 0 0 0 0 0 1 1 2 1 0 1 1 0 0 2 0 0 0 0 0 0 1 1 0 0 2 0 0 0 0 1 0 1 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 2 2 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 2 1 0 0 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 0 0 2 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 1 1 0 2 0 0 1 0 1 1 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 1 2 0 0 0 0 0 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 1 0 1 0 2 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 1 1 0 0 0 0 0 0 1 2 0 0 0 0 0 2 0 0 0 1 0 0 0 2 0 0 2 0 0 0 1 1 0 0 0 1 1 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 1 1 3 1 0 0 0 1 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 1 1 0 0 1 0 0 0 1 2 0 0 0 0 1 2 0 0 0 0 0 1 1 1 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 4 1 1 0 0 0 0 1 0 0 0 1 0 3 0 1 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 2 2 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 2 1 1 0 0 0 0 1 0 1 2 2 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 1 0 1 2 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 1 1 0 0 0 2 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 2 1 0 0 1 1 0 0 0 1 0 1 0 0 0 0 0 2 0 0 1 0 0 0 2 0 0 0 0 1 0 2 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 2 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 1 1 2 1 2 0 0 1 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 1 0 1 0 0 0 0 0 1 0 1 0 1 1 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 2 1 1 1 1 1 0 0 0 1 1 0 0 0 0 1 3 0 0 1 1 0 1 0 0 0 0 3 1 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 2 0 1 0 1 0 1 0 0 0 0 1 1 1 0 0 1 1 0 0 0 0 1 1 0 0 1 1 1 0 2 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 3 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 2 1 0 0 0 0 0 0 1 1 0 0 0 0 2 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 2 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 2 1 0 0 0 0 1 0 0 0 0 0 1 2 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 2 0 0 1 0 0 1 0 0 2 0 0 0 0 1 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 1 0 0 0 2 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 1 0 3 0 0 1 1 0 0 0 0 0 1 0 0 2 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 2 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 2 1 0 2 0 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 0 2 0 0 0 0 1 1 1 1 1 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 2 0 1 1 0 0 0 0 0 1 0 0 0 0 1 1 1 0 2 0 0 0 0 0 1 0 0 1 0 0 0 0 0 2 1 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 1 0 1 0 1 0 1 0 0 1 0 0 1 1 2 1 1 2 0 0 0 1 1 0 1 0 1 0 0 0 1 1 1 1 0 0 0 1 0 0 1 0 0 1 1 1 0 0 0 0 0 1 0 0 0 1 2 0 0 0 0 1 1 0 0 0 0 1 0 0 0 1 0 0 1 0 1 0 1 1 0 0 0 0 1 0 0 1 0 0 3 0 0 0 0 2 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 1 1 0 2 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 1 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 1 0 0 0 1 0 0 1 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 2 1 0 0 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 1 0 1 0 1 1 0 0 0 0 0 0 0 1 0 0 0 3 1 0 0 0 3 0 0 0 0 0 0 1 0 1 0 1 1 2 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 1 0 1 1 0 0 0 0 0 2 0 0 1 0 0 1 0 0 0 2 0 1 0 0 0 2 1 0 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 1 0 1 1 1 0 1 0 1 0 0 0 0 0 0 0 1 1 1 0 1 0 1 1 0 0 1 2 0 0 1 0 1 0 0 0 1 0 0 1 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 1 0 1 0 0 1 0 3 0 2 0 1 1 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 1 0 0 2 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 2 1 0 1 0 0 1 0 0 0 0 1 0 0 0 1 1 1 0 1 0 0 0 2 0 0 1 0 0 0 0 3 0 1 2 0 1 2 0 0 0 1 1 0 0 1 1 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 2 0 0 1 0 1 0 0 2 0 0 0 1 1 0 1 0 0 0 0 1 1 0 1 1 2 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 1 1 1 0 0 1 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 1 0 0 0 2 1 1 1 1 0 0 0 0 2 1 1 2 0 1 2 1 1 0 1 1 3 0 2 1 0 0 1 1 1 1 0 2 0 0 0 0 0 1 1 0 0 0 0 0 1 2 0 0 2 2 0 1 0 1 0 0 0 2 0 0 0 0 0 2 2 0 0 1 0 0 0 0 0 1 0 0 0 2 1 0 1 1 0 1 1 0 1 1 1 1 1 0 0 0 0 3 0 1 0 0 3 0 0 1 0 0 0 1 1 0 0 1 0 1 0 0 0 0 1 1 0 1 2 1 2 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 2 0 1 0 1 0 0 0 2 1 0 0 0 0 1 1 0 0 1 0 0 1 0 0 1 0 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 1 0 0 0 0 0 1 1 0 0 0 0 0 1 0 3 0 0 2 0 0 0 0 0 1 1 1 2 2 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 1 3 0 2 2 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 1 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 1 0 0 0 3 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 3 0 2 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 0 1 1 0 0 0 0 1 0 0 1 1 0 0 1 0 0 1 0 2 1 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 0 0 1 2 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 2 1 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 2 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 3 0 0 1 0 0 2 0 1 0 0 0 0 0 0 1 0 0 2 0 0 0 1 1 0 2 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 2 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 2 0 0 0 0 0 0 1 0 0 0 1 0 1 0 1 1 2 0 0 0 0 0 0 0 1 2 1 0 0 1 0 3 1 0 1 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 1 0 1 0 0 0 2 1 0 0 0 0 0 1 0 0 1 0 1 1 1 0 0 0 0 0 0 0 1 1 0 0 0 1 1 1 0 0 0 0 0 2 1 0 2 1 1 1 0 2 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 1 2 0 0 0 1 1 1 0 0 0 1 0 0 0 1 0 0 3 0 0 0 0 0 3 1 0 0 0 0 0 0 2 0 0 1 1 0 1 0 0 0 0 1 0 0 1 0 1 1 1 0 1 0 0 3 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 1 1 0 0 2 0 0 0 0 0 1 1 1 3 1 0 0 0 0 1 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 2 1 3 0 1 0 0 0 0 0 1 0 0 1 1 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0 1 1 0 1 0 1 2 0 0 0 0 0 0 2 2 0 0 0 0 1 0 0 0 0 0 0 0 2 1 0 1 0 0 0 0 1 0 0 0 1 1 2 0 2 0 0 0 0 0 1 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 2 1 0 1 0 0 4 0 2 0 0 0 0 0 1 1 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0 0 0 1 2 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 2 0 0 1 2 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 3 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 2 0 1 0 0 0 0 1 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 1 0 0 0 1 0 1 0 1 2 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 1 0 0 1 0 1 0 1 2 1 0 0 1 1 1 0 0 0 0 0 1 2 0 0 1 0 0 0 0 0 0 1 0 1 0 1 0 0 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 2 0 0 0 1 0 1 0 0 0 0 1 1 1 0 0 0 0 1 0 2 0 0 1 0 1 1 0 0 1 0 0 0 1 0 0 0 2 0 1 0 0 1 1 1 0 0 1 1 0 1 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 2 0 0 0 0 1 0 0 1 1 0 0 1 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 0 1 1 1 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 1 0 0 0 2 0 1 2 0 1 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 1 0 2 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 1 0 0 1 2 0 2 1 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 1 0 1 1 0 0 0 2 0 0 0 0 0 0 0 2 0 1 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 2 1 0 0 0 0 0 1 0 1 1 1 1 0 0 0 0 1 0 0 0 1 0 1 0 0 1 1 0 0 0 2 0 0 0 1 1 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 1 0 0 1 0 0 2 0 0 0 2 0 2 1 1 0 0 0 0 0 0 0 3 0 0 1 0 0 1 0 0 1 0 0 0 0 1 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 2 1 0 1 0 0 0 0 1 0 1 0 0 0 1 1 0 1 1 0 1 0 0 0 1 1 0 1 0 0 0 0 2 0 0 1 1 1 1 0 0 1 1 0 1 0 0 0 0 0 0 1 0 0 0 2 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 0 1 0 2 0 0 1 0 0 0 1 0 0 1 0 0 1 1 1 0 1 0 0 0 0 0 1 0 0 2 1 1 0 0 0 0 1 1 1 0 0 0 0 0 1 0 1 0 0 0 0 1 0 2 0 1 0 1 2 0 0 0 0 1 3 1 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 1 1 0 1 0 0 0 1 0 0 1 2 1 0 0 0 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 1 0 1 0 0 0 0 0 1 0 1 0 2 0 2 1 0 1 1 1 0 0 0 1 1 0 0 0 0 0 0 1 0 1 0 0 0 1 1 0 3 0 1 0 2 1 1 1 0 0 3 2 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 1 0 0 1 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 2 0 0 0 0 2 1 0 0 0 2 0 0 1 0 1 1 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 0 3 0 0 0 0 1 0 1 1 1 0 0 0 1 0 1 0 1 0 0 0 0 0 1 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 2 1 0 0 2 0 0</t>
+  </si>
+  <si>
+    <t>JSU(-13.53898344924149, 8.965427258138622, -182.55121178953289, 132.7510044540903)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87 90 83 120 78 96 118 69 151 106 40 112 87 87 99 114 98 108 83 110 114 93 184 156 82 56 163 83 143 54 31 102 179 109 111 81 94 112 98 165 160 78 144 75 103 114 157 124 89 89 119 143 99 77 164 175 114 105 136 109 65 75 21 92 93 109 141 78 113 169 64 91 138 129 72 120 66 70 104 107 87 100 117 59 166 99 71 117 135 111 163 52 92 100 177 42 54 133 70 81 64 113 75 119 135 68 141 135 166 94 119 104 89 97 127 55 26 42 100 25 179 69 103 121 48 67 105 117 84 57 47 140 110 105 135 164 106 58 118 115 125 128 113 164 100 146 73 103 108 90 83 130 92 65 101 131 54 29 86 57 86 140 67 163 114 102 68 151 70 152 117 79 108 118 103 126 74 59 39 92 124 153 110 77 88 59 102 172 81 118 89 72 138 64 132 88 50 85 106 147 124 50 164 112 96 59 80 80 97 89 76 55 114 92 78 124 79 39 118 62 78 151 111 175 142 130 71 94 106 51 96 156 69 122 77 118 161 116 47 61 121 52 120 162 162 146 62 79 67 178 87 134 193 88 145 104 113 139 95 100 122 62 105 85 137 81 163 120 98 87 121 37 101 42 128 184 99 74 89 64 123 34 69 96 105 147 93 104 205 130 77 185 76 64 21 136 98 109 89 165 154 145 87 64 141 166 78 99 124 85 87 60 61 160 139 86 118 54 112 41 72 54 97 153 94 128 98 40 67 118 98 181 119 132 38 104 153 80 81 143 60 171 104 63 126 139 124 77 106 91 51 122 88 165 84 99 126 95 136 70 196 76 97 105 92 146 89 173 77 76 80 86 150 77 65 111 71 89 52 44 158 113 140 128 131 132 138 114 107 115 113 158 147 96 98 99 79 59 37 74 59 72 55 82 49 118 132 128 108 112 98 153 73 164 117 65 116 78 148 151 103 54 143 43 101 34 132 162 107 138 136 85 149 212 52 72 135 67 140 100 161 76 79 94 114 109 134 131 72 140 29 64 85 80 112 55 44 122 111 122 88 146 47 102 61 128 117 148 163 61 90 88 64 126 131 82 147 76 77 38 114 114 69 88 105 141 59 42 123 106 117 92 46 123 79 201 112 71 105 138 70 144 62 152 118 108 165 94 83 103 113 152 102 69 90 125 89 81 93 68 92 148 81 46 69 28 128 119 79 97 125 56 74 77 68 103 143 179 51 135 146 66 140 135 90 14 110 102 104 36 99 110 112 93 125 121 103 112 37 104 104 110 85 106 138 81 98 116 109 115 104 86 111 102 168 49 96 92 161 133 24 132 89 121 76 121 57 100 149 103 93 73 69 83 127 98 80 86 93 50 151 92 118 173 66 57 80 58 98 115 170 145 64 120 128 117 152 203 68 87 124 72 117 68 149 173 66 98 90 114 68 88 80 138 171 67 116 121 103 146 83 119 120 59 221 96 82 37 93 120 43 141 62 112 87 64 44 118 58 119 139 129 173 71 71 87 108 113 150 99 81 119 91 98 101 149 137 102 33 120 99 114 102 79 109 100 124 142 55 57 54 151 84 94 44 170 84 137 83 91 128 122 116 179 99 88 57 80 189 111 118 108 115 129 128 164 96 82 150 68 80 83 76 90 136 127 101 101 154 120 106 25 73 139 76 50 83 114 119 125 65 192 132 103 77 113 113 10 54 44 110 93 56 51 98 107 120 102 179 135 121 140 113 127 87 108 103 119 131 234 94 53 92 32 102 101 97 137 117 146 140 109 121 63 104 139 57 90 96 103 89 93 63 117 137 57 72 80 114 135 116 129 120 123 115 128 70 101 110 111 75 115 80 90 104 132 125 82 91 90 112 138 83 48 71 164 105 122 68 120 120 58 102 46 115 118 145 110 73 141 154 90 145 82 104 88 131 104 78 61 158 154 118 122 62 72 54 99 73 69 53 86 115 56 152 83 54 38 105 104 104 109 76 111 123 63 82 149 150 49 88 85 78 160 73 64 128 28 162 93 120 189 89 93 71 104 61 156 133 101 104 103 67 112 93 94 151 109 57 65 117 130 93 126 62 131 171 52 185 193 42 75 130 72 91 175 96 74 154 104 80 114 27 109 98 132 96 90 117 93 47 171 81 86 135 103 133 102 119 93 154 171 86 80 81 118 98 71 90 48 52 98 134 106 50 90 148 242 89 132 60 130 176 150 95 150 128 193 44 88 66 137 81 122 72 111 72 93 152 88 124 103 133 109 110 97 137 164 80 149 120 185 156 38 64 157 134 108 120 126 144 57 134 77 85 84 60 104 86 63 120 132 87 108 96 57 90 156 137 139 141 102 99 54 107 138 147 101 72 102 87 51 96 132 100 133 87 137 135 87 171 144 146 48 200 104 148 101 163 191 129 85 107 175 70 56 89 76 136 59 93 74 50 141 85 110 97 100 68 167 181 101 62 174 94 148 114 73 69 99 61 50 95 125 119 79 76 85 117 48 93 117 64 65 131 77 110 121 133 162 73 97 168 125 91 118 129 123 157 71 118 116 103 19 102 132 133 72 142 69 108 80 130 165 127 58 65 86 43 112 21 125 71 105 146 23 92 69 137 109 60 132 121 97 132 111 151 65 99 116 69 103 88 126 199 115 193 63 130 92 86 90 115 99 137 159 52 86 90 203 94 87 114 134 111 117 92 206 56 70 104 119 91 153 28 117 41 99 89 23 62 126 248 121 93 158 105 79 132 90 52 107 126 97 157 185 129 128 90 129 59 94 100 132 77 96 116 116 68 153 98 97 150 123 49 106 122 72 146 123 66 114 53 84 87 142 88 95 89 79 100 72 94 95 98 162 83 147 122 67 117 111 149 96 170 80 107 135 39 124 105 90 77 97 82 70 114 131 119 131 125 112 95 135 104 82 73 148 41 132 141 81 64 127 171 63 108 69 79 83 75 78 102 108 100 98 129 122 108 131 180 144 56 162 125 76 77 139 74 129 96 104 42 126 86 92 157 77 41 153 45 38 125 100 88 108 125 76 76 105 94 78 84 108 121 84 153 79 98 79 107 84 129 101 86 100 131 159 130 118 76 99 226 80 136 123 122 155 143 115 69 160 126 95 74 70 77 59 65 90 65 94 58 169 125 111 136 97 76 70 87 81 114 84 57 123 134 128 113 73 96 103 181 90 83 154 118 168 143 133 61 125 110 73 100 57 115 114 74 87 93 43 102 66 103 59 91 93 133 190 161 47 69 101 114 156 65 135 113 113 77 110 97 70 48 230 65 114 73 46 167 70 102 104 97 64 92 139 82 68 39 137 87 110 72 105 58 93 147 135 144 103 68 64 135 112 69 79 121 83 60 38 158 101 140 88 107 73 144 147 134 100 134 167 108 95 98 69 93 106 42 88 112 72 109 142 68 157 68 121 63 115 133 172 136 131 96 108 135 142 84 54 54 94 139 74 198 150 39 88 26 163 216 111 84 100 82 99 40 147 91 125 153 130 103 106 67 121 137 98 106 62 165 107 83 90 93 87 143 72 150 253 67 104 148 109 67 89 137 137 76 125 101 108 102 61 100 87 105 149 122 145 86 142 112 43 91 102 71 75 58 103 70 44 115 48 151 49 187 75 77 34 99 54 109 119 114 107 130 105 76 136 97 126 104 141 93 103 153 40 144 106 97 62 83 107 126 107 165 110 93 61 113 67 94 107 130 115 59 88 60 112 97 161 82 47 73 122 126 97 144 117 88 152 116 154 71 95 120 123 106 68 112 157 102 46 75 120 71 108 119 140 137 75 122 71 149 98 112 128 108 64 156 112 173 93 136 69 149 92 88 204 134 106 153 55 82 105 78 163 145 30 51 58 126 60 56 126 158 79 144 98 103 146 149 113 51 113 155 161 142 41 95 95 57 79 90 49 103 79 139 53 103 94 132 103 153 188 114 209 121 141 132 105 66 113 65 110 102 88 142 116 136 123 202 84 103 90 73 106 124 106 74 88 88 108 44 115 109 117 147 29 158 120 102 142 52 83 67 107 75 135 98 64 183 63 150 133 124 83 164 184 207 80 63 84 101 198 148 63 146 51 91 86 58 75 156 189 105 88 85 137 123 100 77 55 58 146 81 190 138 85 104 124 120 112 91 123 43 76 59 127 53 156 94 91 94 126 79 128 148 43 135 159 91 155 164 84 124 147 88 154 176 144 101 77 118 104 104 122 115 93 71 133 82 97 83 143 121 114 102 162 110 128 113 84 98 79 145 156 114 33 95 129 134 37 85 87 90 97 116 100 112 117 92 91 140 102 89 89 118 163 79 164 28 163 112 85 160 203 85 58 137 136 159 67 135 113 116 76 107 120 72 92 129 89 150 81 66 123 94 123 167 133 32 206 63 91 99 101 64 85 88 117 90 128 77 44 65 104 98 98 141 126 62 97 123 173 87 98 138 91 81 120 160 114 93 167 164 140 40 31 97 49 102 116 104 90 46 76 140 77 98 63 52 100 100 154 122 33 73 92 71 138 83 75 173 85 124 68 122 155 123 185 60 132 89 52 128 31 26 115 165 116 191 120 92 104 135 156 82 81 190 154 88 42 14 55 65 140 170 87 83 117 183 160 98 99 173 39 107 72 57 113 119 56 131 89 90 137 109 67 157 100 121 103 126 52 99 82 31 163 49 83 125 52 100 120 88 84 196 107 103 75 58 84 78 41 112 160 135 47 135 106 68 101 90 78 136 191 127 139 163 196 117 164 91 105 143 145 144 79 78 114 237 119 54 75 153 125 136 124 148 59 115 209 140 106 97 72 133 110 52 132 123 111 149 56 57 136 78 132 50 148 90 125 78 128 109 145 110 44 145 99 100 74 79 61 55 135 151 95 96 112 147 92 88 137 110 92 105 45 105 144 170 57 66 139 199 55 132 75 115 96 85 111 90 196 148 93 78 54 106 108 133 131 92 133 107 98 124 110 133 110 132 148 114 134 135 119 126 89 56 158 31 65 114 167 106 99 140 74 119 81 101 101 64 43 104 105 168 87 111 81 85 69 92 111 128 27 113 122 130 77 55 104 107 105 93 150 105 114 50 142 95 137 69 76 37 78 148 63 140 104 85 74 84 102 89 102 79 104 127 130 69 69 127 128 84 134 137 137 119 97 86 46 208 73 104 79 114 118 111 80 79 66 124 132 54 102 38 37 143 117 148 115 73 71 113 217 125 62 143 173 180 113 136 146 62 85 149 149 155 93 113 116 155 143 123 80 108 95 106 147 102 91 77 151 63 154 69 121 107 150 93 60 135 56 125 98 114 95 123 117 83 159 185 101 148 78 125 134 89 121 148 128 82 130 102 107 142 117 94 130 97 65 155 72 79 152 137 89 141 96 136 83 112 178 133 137 135 119 57 155 145 89 101 101 80 86 91 75 95 184 136 69 109 129 128 119 61 209 69 195 46 132 134 98 65 120 120 111 135 156 104 130 136 84 53 118 115 85 119 118 105 59 66 70 51 109 76 62 105 120 78 92 112 105 66 86 66 71 103 96 93 63 179 63 90 83 43 100 108 125 105 96 95 132 90 149 88 19 67 89 120 64 61 101 62 163 109 49 118 110 106 166 96 143 64 105 103 88 162 59 195 84 113 134 111 129 56 142 92 134 123 87 123 81 109 120 92 110 82 91 149 180 129 146 144 115 80 90 81 123 102 75 155 66 94 167 117 156 99 59 121 122 33 121 65 54 139 173 80 165 73 109 69 52 108 81 141 184 108 74 117 103 69 103 102 213 178 134 104 137 142 140 164 134 142 120 104 238 111 76 107 136 94 67 145 166 52 175 80 79 49 88 146 90 51 102 89 69 37 52 158 173 150 98 69 142 83 103 145 135 69 132 156 68 76 192 94 118 187 77 116 143 111 79 103 126 86 100 99 75 183 74 112 117 97 92 71 133 176 50 62 107 119 93 148 106 102 133 145 117 97 113 96 135 137 71 66 124 137 58 85 124 121 91 138 107 134 50 75 111 114 73 15 94 85 126 105 79 166 123 106 81 93 84 67 76 77 152 79 104 133 169 111 99 105 65 108 125 60 94 134 67 127 127 128 138 105 71 77 75 93 119 77 150 106 78 45 164 72 110 96 50 147 150 125 87 100 128 132 121 158 94 88 140 157 206 43 159 154 86 108 82 117 114 208 136 76 63 115 95 147 90 54 135 64 92 57 105 152 119 40 102 96 104 27 39 101 109 96 201 109 149 76 54 93 143 80 36 120 168 196 59 101 84 205 92 134 165 84 39 49 136 100 165 93 144 174 72 156 70 89 136 68 93 95 118 147 73 91 126 154 143 126 107 48 100 84 64 79 23 124 42 152 82 77 72 93 113 56 43 114 81 127 112 172 152 86 58 118 122 114 173 55 51 143 110 153 89 101 109 90 116 117 113 93 116 24 116 123 76 102 92 113 152 93 110 110 108 184 139 149 83 136 79 25 118 73 100 107 131 111 132 143 103 49 120 93 122 107 135 70 73 134 120 64 89 95 203 82 45 143 155 73 147 112 97 135 137 87 55 148 176 128 111 75 61 149 65 115 82 54 84 78 133 115 80 84 95 96 124 136 55 66 23 114 47 157 105 151 113 78 61 72 114 114 136 136 156 176 87 78 109 120 50 80 134 116 91 91 77 89 168 74 167 148 87 129 124 69 155 72 100 168 174 115 126 172 117 126 113 74 135 88 91 153 107 76 88 45 119 184 109 119 89 42 103 121 66 69 56 83 113 43 114 63 142 135 27 129 75 95 112 29 68 90 133 144 81 99 124 92 109 192 126 77 142 110 120 106 85 43 129 108 90 52 93 82 98 127 36 97 50 65 92 51 112 107 110 76 155 124 133 84 83 121 100 130 109 145 108 171 100 131 48 119 110 160 95 82 122 71 112 123 43 86 117 96 75 113 97 74 96 75 122 141 63 98 101 102 99 105 121 89 99 87 49 126 98 171 87 110 98 127 69 19 106 215 48 89 121 68 87 101 118 112 79 109 94 107 185 70 95 110 134 143 64 87 112 164 127 117 141 71 123 91 132 85 41 188 136 207 107 105 81 162 140 137 143 105 104 90 158 172 61 187 140 72 142 183 76 85 127 165 97 96 107 131 110 78 108 128 70 129 81 69 56 94 126 85 137 108 75 92 119 159 125 143 98 93 71 135 99 115 87 99 89 62 165 139 102 150 92 100 83 128 145 110 91 105 163 175 30 136 64 101 52 78 124 130 52 52 80 109 115 38 82 85 109 117 122 132 99 130 84 124 125 54 137 149 92 134 40 125 98 135 79 200 78 81 172 85 86 84 101 40 118 35 123 133 124 37 123 115 168 58 96 87 89 179 85 145 44 66 132 40 97 127 114 90 137 118 57 89 83 95 165 98 101 126 168 73 137 115 95 115 126 102 115 85 125 77 130 102 98 100 40 87 51 120 45 104 108 154 151 112 37 74 110 101 114 87 69 82 132 84 212 114 128 107 65 109 95 51 69 90 111 134 143 108 96 116 76 51 94 114 100 113 64 87 121 110 93 17 108 69 91 71 95 121 53 125 133 109 153 108 82 157 147 160 74 88 105 161 74 140 157 44 122 152 77 130 144 126 124 171 60 100 84 30 104 88 117 100 97 170 72 52 114 106 107 101 192 74 97 131 99 118 95 67 103 121 149 89 117 101 131 67 161 143 123 33 129 111 142 75 107 145 49 61 150 110 60 94 106 120 77 157 115 69 76 121 50 97 167 138 95 70 99 186 98 154 103 119 122 91 83 90 54 89 117 157 84 141 79 137 85 149 83 92 75 118 54 17 110 136 125 41 113 96 141 113 92 115 113 116 72 131 98 77 90 102 118 89 122 95 33 132 178 110 124 100 118 99 114 76 31 114 123 148 162 101 85 112 74 100 54 158 112 96 73 68 165 41 134 51 101 98 103 77 89 35 89 114 154 125 89 58 106 90 134 116 108 99 98 92 58 100 83 159 61 68 77 123 68 154 80 37 76 95 177 64 134 101 67 98 108 71 49 59 105 157 108 93 141 150 120 123 155 170 88 84 113 64 125 92 132 158 112 54 37 92 105 141 130 102 61 140 65 85 94 86 105 109 99 134 63 39 162 146 100 71 160 98 59 134 113 111 87 37 79 65 105 52 98 139 53 54 101 171 98 153 109 137 129 59 83 164 95 88 114 123 215 76 113 148 119 132 98 101 87 123 109 88 100 74 115 117 88 251 91 104 145 216 85 102 111 130 191 91 134 60 103 125 95 140 50 76 163 164 112 80 106 125 85 96 115 89 102 57 73 121 152 138 7 110 165 125 128 145 112 126 82 181 159 80 74 96 76 45 90 82 130 73 93 112 122 93 163 106 93 188 114 84 95 98 60 84 111 95 88 136 69 143 89 43 115 122 96 144 102 42 102 144 82 105 123 75 60 101 94 105 101 78 160 67 128 160 103 130 44 82 63 188 73 183 91 97 147 85 89 97 115 112 45 105 176 100 82 112 64 98 102 52 85 70 32 139 150 129 155 65 104 98 100 110 130 102 84 96 77 188 95 112 85 86 151 21 156 125 153 45 48 68 43 103 69 142 68 150 67 124 39 93 157 113 135 124 152 168 116 65 131 171 117 132 140 123 120 139 100 41 74 37 159 126 90 105 133 109 167 77 99 53 120 87 28 119 103 145 57 57 134 140 173 85 93 120 126 145 72 82 160 170 89 119 64 79 110 116 93 112 135 68 75 59 122 103 85 91 45 75 46 110 170 130 118 110 158 61 96 115 123 147 129 138 105 98 125 79 25 94 117 103 107 83 98 100 99 89 71 94 93 106 105 120 85 104 71 97 81 130 126 113 87 100 143 71 132 143 126 57 76 94 138 95 130 108 118 120 118 110 125 127 73 76 66 129 70 141 78 125 114 68 127 102 105 102 61 166 26 54 122 118 73 80 74 171 149 112 69 59 88 124 109 93 133 104 132 40 121 118 87 82 121 125 166 43 135 123 157 130 110 138 48 137 102 123 111 121 73 46 163 76 115 68 141 149 75 106 86 131 112 52 133 66 154 113 157 92 134 73 92 134 155 151 170 101 72 110 90 45 108 126 43 171 90 51 114 72 151 165 89 120 93 67 99 97 94 152 108 48 140 73 122 105 111 133 103 80 133 67 82 110 107 130 80 66 76 89 102 126 99 74 76 135 149 104 109 97 59 118 128 83 107 137 124 110 134 171 68 87 86 134 106 140 100 102 77 178 131 103 78 78 105 153 120 36 96 71 142 109 142 103 72 88 87 68 128 68 97 115 159 37 115 82 81 134 172 106 115 101 131 53 109 132 127 83 73 78 149 132 89 100 72 81 132 100 71 122 129 72 113 92 99 189 52 124 111 152 75 74 98 97 131 27 39 100 122 114 103 69 54 122 160 92 135 109 153 87 75 132 114 196 118 149 59 35 82 114 142 131 151 73 131 56 103 141 92 122 114 76 90 133 92 37 99 122 56 152 64 80 90 63 147 128 92 119 73 126 62 94 128 93 121 100 106 113 79 139 135 91 71 140 102 97 72 129 121 71 60 79 150 181 55 147 105 39 92 86 125 198 75 124 79 106 86 222 115 101 140 112 118 60 58 50 141 107 70 66 116 99 86 134 89 85 177 146 103 107 70 80 114 56 152 102 66 136 83 61 96 117 97 79 143 70 90 106 143 112 129 119 86 62 145 106 74 141 126 106 147 152 115 107 89 55 82 73 85 109 88 129 82 80 100 181 150 65 141 97 155 115 47 112 130 129 69 75 96 99 130 109 92 124 60 69 126 91 158 115 106 79 155 116 85 89 88 84 68 103 100 186 81 146 98 99 44 86 124 105 126 121 128 90 53 84 130 86 130 72 187 163 90 88 67 88 138 138 68 136 98 119 106 55 126 135 163 96 89 102 75 131 62 114 92 116 108 180 140 116 125 216 177 111 48 141 154 113 101 113 129 157 131 106 161 133 75 99 142 67 53 111 83 106 56 106 201 92 90 48 80 79 168 79 79 102 121 112 55 43 82 81 96 78 130 141 109 121 114 125 128 111 97 39 109 184 116 130 128 149 113 200 181 139 102 231 137 58 91 54 89 75 150 96 43 89 113 138 79 163 67 117 60 87 121 87 81 61 150 90 138 86 123 118 137 121 131 80 114 63 143 71 118 90 88 109 155 144 45 112 133 64 153 58 117 97 86 74 125 78 94 152 122 61 161 91 96 110 32 84 43 90 117 84 116 61 111 58 129 27 98 127 77 89 167 94 63 108 116 142 132 99 108 103 87 96 111 135 173 82 100 158 97 124 87 118 68 94 141 127 100 81 119 78 69 129 89 52 122 150 108 162 93 123 102 61 89 94 107 132 138 134 126 97 81 71 155 109 79 68 84 105 71 122 90 108 129 36 102 84 33 116 57 94 72 137 130 76 111 105 124 187 91 148 53 146 77 152 114 137 47 163 104 94 99 128 139 80 70 109 132 110 100 108 121 84 44 86 142 108 73 110 162 130 109 96 121 148 119 110 51 77 90 103 114 119 72 93 83 113 51 75 152 113 99 52 72 80 136 93 161 44 170 70 107 115 69 54 105 162 177 117 180 84 86 90 147 117 53 98 102 59 92 63 73 75 66 73 93 129 131 83 87 84 142 44 76 40 65 77 144 138 197 149 73 125 118 73 128 133 140 118 106 87 83 72 148 84 85 115 102 109 160 115 76 91 98 168 57 130 110 98 91 160 129 107 73 91 87 143 167 81 51 85 145 111 58 175 73 149 179 132 129 162 107 96 105 116 138 135 140 48 110 72 128 57 142 147 41 51 52 99 135 85 150 114 110 85 125 196 67 124 113 114 96 73 103 117 94 131 108 109 107 69 88 115 64 139 87 83 141 100 46 75 89 114 118 108 48 117 139 160 137 111 81 69 133 87 106 70 45 92 102 78 103 131 52 80 105 35 114 75 153 99 114 170 141 151 105 117 71 88 173 138 98 110 131 73 147 106 126 68 104 71 77 91 91 135 29 92 141 127 106 128 122 63 108 55 129 49 118 106 56 116 74 69 58 156 48 206 50 116 161 99 89 89 96 81 175 112 66 62 133 124 75 73 72 103 95 91 125 106 63 72 89 54 104 89 163 70 86 50 168 154 126 121 141 124 113 115 78 144 122 106 53 84 104 104 164 128 65 159 173 82 93 104 156 73 119 78 78 105 86 42 66 77 127 99 151 130 181 157 152 94 143 99 66 36 83 167 76 85 83 128 84 131 132 153 133 126 136 104 145 193 155 120 98 58 97 95 91 131 68 86 129 121 100 127 113 153 95 178 106 143 110 125 102 119 117 96 113 171 92 85 59 120 79 106 71 117 110 104 106 61 144 41 101 107 170 93 49 77 140 123 117 98 80 90 113 157 97 69 69 48 36 115 80 91 106 68 107 103 73 114 116 82 156 168 88 95 123 84 116 85 140 174 122 44 86 78 146 100 84 65 77 102 105 140 92 88 106 103 68 108 134 120 165 140 19 82 85 75 73 128 78 122 139 109 128 187 177 127 66 149 92 71 62 81 155 85 91 120 84 90 108 143 98 141 134 102 94 81 46 124 105 116 59 146 116 125 83 102 72 152 87 157 90 92 121 80 91 128 118 130 88 91 129 88 75 98 83 115 122 88 63 171 69 58 116 86 97 128 115 97 124 103 71 84 42 112 114 90 171 94 119 172 126 197 145 102 124 140 120 146 86 97 163 149 54 85 89 143 115 82 72 173 46 67 121 68 91 119 61 110 146 65 71 85 145 105 147 121 95 66 88 86 69 115 98 67 68 80 53 52 115 114 46 55 62 85 89 107 106 40 137 86 128 112 108 85 101 118 115 98 143 78 69 83 121 117 79 88 90 126 87 57 98 84 180 93 94 52 81 79 44 95 162 100 124 113 121 80 114 85 64 121 106 113 96 95 81 115 87 111 126 93 115 132 71 127 95 65 83 164 174 79 133 131 111 89 82 83 117 102 56 81 100 136 133 111 89 77 59 86 104 36 123 85 71 66 103 102 107 161 79 95 91 69 137 156 94 128 159 114 100 81 94 143 81 109 81 113 120 114 88 149 121 145 68 96 136 98 46 74 73 123 97 85 119 71 86 35 137 97 112 63 114 87 133 84 116 69 34 75 147 127 113 150 91 106 240 91 81 137 160 94 55 121 114 84 123 24 101 20 129 104 124 45 105 88 126 167 38 143 164 110 100 117 97 94 123 91 91 49 107 87 121 72 106 122 158 145 68 100 74 50 130 60 106 102 70 75 125 148 141 45 58 93 135 58 111 75 98 96 107 128 153 106 109 107 91 104 104 135 70 153 45 132 143 96 81 95 12 105 107 174 139 76 134 138 96 65 55 175 84 166 81 135 89 165 140 89 122 99 51 62 121 187 100 104 99 68 105 80 117 181 143 131 135 82 111 128 153 73 97 123 216 80 128 118 124 126 70 129 91 94 49 79 63 118 142 119 119 74 82 112 113 68 116 148 118 79 141 132 72 121 81 71 106 103 128 117 180 111 93 180 118 117 66 81 82 142 73 102 70 118 90 84 75 93 132 130 131 136 179 102 80 126 97 67 80 194 131 106 92 186 78 79 132 117 120 127 58 125 121 143 80 149 56 139 119 105 92 106 105 48 100 74 137 128 118 127 101 117 139 105 6 116 112 169 102 84 76 130 106 158 92 115 123 79 47 165 104 151 116 108 80 151 53 117 156 68 101 62 135 66 93 80 24 91 126 149 90 77 88 114 111 45 104 150 118 107 122 138 141 96 103 191 147 146 127 155 97 109 84 135 129 92 112 93 106 79 110 106 144 110 109 85 65 61 160 118 124 103 100 79 108 118 101 134 75 80 89 55 77 148 118 84 150 129 114 104 131 83 79 101 147 95 42 72 69 63 137 147 74 99 65 89 63 55 97 151 131 96 132 127 78 56 130 137 57 76 94 170 85 91 81 191 63 136 125 170 160 68 83 94 71 88 104 140 106 117 69 88 125 70 161 57 77 122 88 145 148 167 108 118 117 98 169 103 61 54 82 76 157 89 123 90 123 52 182 182 119 114 32 119 74 166 96 88 117 113 58 96 121 99 165 81 112 38 104 106 82 72 153 90 130 133 149 58 92 136 91 136 146 75 103 135 95 75 103 146 162 72 151 79 119 64 151 103 96 160 168 39 72 119 71 90 161 68 82 87 25 78 97 184 105 164 36 150 72 104 35 61 103 50 101 144 96 127 113 95 107 53 91 145 94 148 204 151 97 58 115 165 119 27 71 174 150 122 153 99 79 146 82 153 62 100 114 126 154 78 79 57 133 91 57 76 119 130 136 79 83 142 136 76 48 110 75 149 136 89 78 90 78 71 56 89 54 43 136 106 68 33 101 80 110 172 123 85 175 175 111 151 78 78 105 141 113 79 81 167 59 67 123 101 84 103 115 65 133 83 107 152 112 112 62 55 89 104 92 124 17 149 211 97 82 98 120 122 105 38 105 45 112 94 148 128 115 46 46 168 131 132 133 161 124 149 116 94 154 43 125 95 100 90 67 70 117 61 121 76 138 65 69 99 134 25 51 103 51 126 108 123 138 134 128 97 125 90 153 116 78 144 101 106 101 58 140 82 110 116 134 73 79 155 108 203 82 79 45 64 58 70 85 108 105 96 114 154 67 180 77 121 71 87 121 134 78 66 93 161 43 89 105 97 96 81 130 151 169 84 125 97 79 129 47 61 80 67 124 73 185 70 77 163 103 106 92 182 146 103 116 114 117 94 108 123 127 104 145 80 128 125 125 103 85 61 48 129 49 69 139 95 76 101 90 115 41 126 106 170 57 80 115 77 128 139 105 75 135 125 122 92 66 140 29 83 158 37 171 146 77 189 113 109 74 137 142 96 123 77 117 48 148 109 136 76 122 85 101 119 95 188 50 100 102 54 82 54 113 137 245 183 80 142 70 151 103 45 104 83 152 74 148 115 94 119 109 172 47 98 104 155 109 121 78 93 73 102 155 84 82 140 57 46 34 99 51 128 97 26 132 106 81 112 47 117 87 158 66 102 84 202 149 148 91 47 114 152 63 85 71 98 160 120 113 58 116 154 101 121 62 134 130 110 128 71 62 129 108 104 61 107 138 184 92 55 155 30 68 150 66 89 84 96 116 153 177 94 113 137 134 94 143 101 99 68 77 94 87 113 106 139 101 47 93 153 70 126 134 110 149 73 113 123 147 81 113 97 95 88 77 92 151 81 126 138 87 92 141 222 174 107 180 123 77 154 101 132 80 128 107 114 154 92 77 74 142 177 110 151 110 137 145 43 154 111 168 104 69 136 125 98 73 130 116 92 41 167 105 56 109 90 93 133 153 105 88 64 115 130 107 127 120 108 75 90 62 172 97 125 139 68 45 72 115 113 37 89 70 90 73 126 98 89 63 160 74 117 119 165 115 81 64 117 73 149 128 114 96 96 49 118 85 51 96 96 73 78 107 87 166 60 92 178 97 81 134 104 89 130 122 116 83 110 86 204 105 144 67 103 116 158 111 112 122 173 125 76 66 63 69 161 96 173 126 53 70 133 77 92 137 72 89 67 20 82 76 67 98 97 108 48 81 130 94 147 105 129 85 133 148 62 64 116 63 104 126 149 162 75 50 57 114 137 113 108 132 85 98 192 76 97 88 86 147 92 100 58 100 93 127 132 127 87 93 99 112 111 83 51 140 182 85 28 103 38 31 99 82 83 179 91 87 100 52 184 57 108 106 142 99 129 51 122 42 73 100 127 136 91 109 47 114 39 141 100 141 98 81 73 86 117 138 56 123 108 123 56 45 32 122 102 181 96 123 103 133 59 109 63 112 71 106 134 88 123 45 165 33 93 138 134 143 156 96 42 72 98 105 199 65 138 57 132 60 80 95 124 92 142 93 142 97 112 129 135 110 121 69 110 145 105 59 127 102 102 130 106 124 80 84 133 122 118 141 102 112 127 67 102 101 33 64 140 58 46 108 100 177 160 141 85 108 87 85 60 89 105 92 50 135 129 112 48 170 108 131 82 71 147 66 64 67 144 92 113 82 78 96 140 111 95 110 155 115 88 122 137 163 118 143 65 138 97 80 78 67 111 78 74 244 85 71 66 46 79 144 133 75 58 98 159 161 93 136 147 69 147 160 123 128 144 64 99 95 72 48 91 166 102 74 129 135 120 90 134 71 91 139 100 122 142 99 42 135 105 154 98 76 57 154 156 74 101 126 80 129 132 151 141 74 113 161 185 90 142 107 93 90 103 192 89 120 82 54 92 127 107 88 97 130 131 113 127 85 107 113 100 89 102 102 107 135 75 97 164 140 95 115 124 77 118 48 91 97 107 111 152 104 87 142 78 85 145 79 85 137 96 119 118 104 116 72 47 137 56 128 101 111 138 157 135 75 85 127 119 86 93 95 101 36 181 34 108 74 87 139 113 108 40 107 100 66 95 91 94 87 108 173 105 110 152 37 139 29 68 57 124 58 114 94 131 65 75 147 51 123 93 133 66 55 155 135 86 82 132 94 192 165 127 14 142 117 92 94 105 167 95 92 59 67 88 151 114 85 117 40 59 115 103 121 116 80 150 96 79 129 166 95 167 154 161 84 109 132 97 144 80 46 69 118 83 125 117 146 112 103 96 124 144 144 63 111 125 111 128 150 85 155 125 109 162 82 156 72 114 153 72 84 63 84 69 132 125 90 87 82 151 76 103 152 91 85 82 57 121 138 155 105 147 130 71 150 141 93 105 118 95 132 213 118 90 101 71 116 129 112 33 110 109 114 120 65 177 89 94 165 152 157 116 78 97 180 188 83 83 126 116 51 115 123 89 155 60 120 37 132 98 45 129 46 84 122 119 107 173 59 69 85 66 82 111 135 127 82 172 78 101 94 71 115 128 126 111 82 165 104 143 121 80 74 138 101 82 49 153 98 157 16 96 117 90 144 36 138 121 116 69 135 113 93 83 73 76 92 71 140 201 122 118 115 80 151 136 136 82 108 57 79 127 51 70 100 106 134 137 35 121 156 44 96 141 145 156 68 79 87 44 50 158 127 86 150 125 70 78 84 61 135 164 129 106 87 131 134 88 104 219 113 108 48 116 99 85 142 88 60 125 100 49 80 103 86 74 79 75 100 129 155 115 115 71 94 102 72 111 81 158 161 113 144 91 211 114 105 85 126 112 136 98 117 83 55 132 141 201 123 125 39 161 60 131 132 100 86 138 61 169 67 74 60 66 114 114 91 100 147 114 67 109 85 143 100 112 86 93 166 88 85 79 97 132 29 116 86 146 108 102 120 48 94 52 120 95 152 103 129 98 113 117 98 103 46 52 115 161 40 92 77 88 106 117 115 184 92 167 98 72 79 165 42 125 150 118 102 158 162 87 90 127 120 129 114 129 157 108 100 72 68 120 115 47 84 91 107 118 116 77 102 119 74 103 96 90 138 53 52 137 130 107 106 144 124 59 77 103 169 98 185 93 63 173 64 117 90 113 92 108 124 113 104 53 80 68 102 127 75 59 60 71 116 97 151 82 113 146 129 91 56 52 144 136 74 101 131 104 96 109 130 118 78 129 143 70 131 112 98 128 192 87 38 109 67 50 95 114 124 178 111 81 130 76 148 94 56 102 109 88 121 43 39 93 96 163 101 73 128 119 117 18 80 91 89 129 87 84 127 120 109 119 93 80 67 137 96 135 103 51 50 81 123 110 149 101 87 59 100 96 166 89 126 130 68 134 98 87 68 43 77 23 168 144 126 28 74 125 95 89 101 65 56 90 124 75 124 67 159 87 74 35 143 104 70 105 87 122 80 38 46 87 98 124 94 124 71 165 73 118 99 159 132 123 117 110 156 84 122 109 109 89 169 102 96 131 112 121 118 100 59 154 90 31 81 31 109 83 108 28 166 72 131 101 95 84 76 141 85 144 72 102 135 58 123 54 114 118 106 23 118 108 104 124 72 98 84 109 105 134 63 166 208 84 100 175 67 142 88 90 79 77 131 73 185 72 82 57 112 83 64 51 164 51 140 158 100 118 88 79 108 118 120 102 90 132 111 124 128 142 71 121 78 171 127 136 95 156 197 119 95 137 144 141 78 75 52 131 136 132 109 164 66 67 132 58 163 81 140 91 136 123 103 166 103 96 99 106 112 68 94 116 74 111 88 121 163 55 139 51 90 84 171 109 129 107 64 135 152 128 195 64 198 132 137 67 159 122 112 124 106 133 66 91 56 133 60 79 94 92 130 93 109 81 82 114 108 108 116 132 88 77 184 132 112 139 86 153 94 121 144 115 59 77 131 133 32 84 83 202 93 83 59 69 112 79 76 119 78 108 156 90 164 179 138 107 130 125 140 133 96 154 95 95 156 79 33 48 71 113 88 140 153 155 110 78 85 144 103 71 135 82 99 98 123 95 93 110 104 100 150 90 43 105 99 125 118 141 133 174 95 78 94 107 108 72 114 119 126 148 188 93 62 61 102 128 54 104 63 156 103 82 103 88 117 92 112 73 101 48 129 94 80 70 103 130 98 88 68 109 86 122 161 62 80 143 66 115 84 105 112 11 137 123 94 88 115 48 77 99 124 76 76 117 116 91 100 108 123 151 137 134 77 111 65 100 119 74 83 72 138 114 107 36 119 54 77 43 142 15 111 49 174 93 112 62 126 87 175 168 72 95 36 123 130 150 140 82 124 167 123 78 111 95 136 118 99 69 135 46 99 96 86 98 138 88 58 70 133 111 14 135 133 115 85 145 112 85 153 114 99 155 70 72 49 128 43 99 193 150 70 92 135 64 55 101 113 156 156 112 131 71 99 112 73 73 100 117 74 81 83 130 32 79 117 99 55 159 147 120 115 90 89 145 152 75 113 92 136 89 107 241 147 59 82 109 124 96 117 94 130 179 77 82 134 119 94 53 129 106 124 114 85 97 97 74 39 94 76 61 85 70 136 144 139 99 90 92 102 104 78 63 115 78 199 71 126 123 90 145 111 84 31 85 101 67 104 111 120 104 106 93 96 121 109 72 127 43 103 91 109 166 66 99 131 79 112 132 108 123 163 79 91 93 187 91 51 101 106 119 138 77 83 87 159 56 88 20 147 18 137 129 30 109 91 50 108 72 128 137 21 144 99 49 154 112 70 64 51 73 44 96 133 75 70 116 101 161 145 94 72 38 103 122 64 103 154 91 91 84 172 133 98 145 141 128 30 69 93 110 102 121 106 126 125 79 116 128 93 126 106 131 116 75 136 65 109 127 178 180 181 132 173 159 113 196 177 119 63 79 16 134 82 114 146 96 119 219 51 135 144 115 155 133 151 103 78 53 122 81 194 110 129 62 68 29 100 133 61 159 96 118 113 63 119 124 86 103 131 166 174 79 111 113 131 108 123 92 121 95 75 164 162 106 136 83 103 159 126 114 78 150 122 141 147 83 192 98 107 120 109 106 71 76 105 82 36 81 84 94 64 103 83 136 68 96 175 104 140 94 125 133 71 123 83 65 104 76 115 85 73 97 156 126 101 119 73 99 87 43 91 168 88 70 120 36 87 66 122 142 89 25 101 169 58 103 84 110 30 183 112 144 99 113 63 85 70 116 142 73 133 106 47 63 63 135 122 130 61 95 36 101 98 143 100 88 113 91 125 100 70 63 149 165 141 104 112 98 106 111 124 172 109 114 185 163 218 19 141 54 75 139 165 122 95 90 102 211 142 84 78 61 110 107 70 85 75 67 87 73 136 64 88 55 79 74 107 116 63 143 82 151 172 106 86 83 68 146 120 130 87 102 168 71 193 73 62 124 94 94 75 179 220 79 100 90 152 108 64 101 133 115 128 99 101 94 90 87 144 63 137 100 50 87 83 152 83 118 77 85 62 81 129 139 130 145 135 79 137 76 33 104 96 154 87 103 59 96 104 101 65 87 152 79 90 111 135 141 163 71 36 94 91 78 96 130 105 130 88 124 124 83 102 93 98 82 125 67 149 65 49 91 94 168 92 102 173 201 118 66 163 106 81 98 113 123 78 89 100 86 85 55 80 70 140 26 95 107 211 93 92 88 153 77 134 117 61 125 67 124 146 55 127 100 69 106 106 114 78 96 149 68 43 189 85 113 47 75 86 88 122 80 129 135 109 162 61 129 54 156 125 97 169 51 120 65 95 140 69 108 209 159 110 160 136 127 125 83 122 76 97 57 109 63 130 97 99 75 137 95 122 99 25 120 62 80 76 118 87 124 119 66 155 81 90 90 80 57 108 117 182 96 59 93 35 103 120 150 190 100 114 105 77 113 152 133 63 141 75 139 41 108 146 90 116 110 107 99 101 82 40 87 92 134 166 185 157 144 85 115 45 75 124 85 70 117 75 106 108 65 107 112 166 65 130 105 95 49 128 144 134 96 158 125 154 140 91 74 119 106 101 87 81 152 87 94 87 69 109 63 104 134 71 91 129 162 60 164 106 97 115 43 195 81 100 81 81 112 69 96 100 140 60 193 67 76 40 109 91 99 65 95 156 126 137 100 132 135 96 106 80 160 77 124 114 114 63 154 61 119 107 173 33 46 10 53 147 132 96 116 129 108 96 75 87 152 108 92 63 92 103 69 75 116 82 110 118 102 175 158 137 125 124 100 85 108 40 119 88 145 96 149 147 97 87 95 137 74 89 87 106 142 112 133 158 114 138 113 111 52 110 68 85 151 74 109 169 70 57 116 119 121 52 82 158 107 99 119 107 89 15 78 131 77 69 104 80 141 162 82 101 81 111 126 98 186 74 45 43 55 63 105 92 32 116 95 122 56 80 89 40 90 98 78 26 149 73 191 105 87 124 107 100 109 99 50 63 132 124 53 88 74 110 115 157 27 150 144 97 70 81 80 106 101 67 139 127 149 101 143 152 130 84 87 172 20 134 94 80 107 131 96 140 167 77 60 82 83 141 122 85 149 71 96 178 154 176 44 91 72 117 99 101 73 125 107 102 103 135 114 129 76 68 62 93 146 102 89 119 96 133 138 27 70 94 127 87 81 66 90 97 82 53 41 64 150 159 134 55 90 68 144 177 56 79 125 50 99 77 162 64 77 106 97 81 48 115 183 86 72 93 75 135 166 116 72 84 116 110 69 162 48 71 146 130 88 78 89 108 104 124 55 138 48 102 79 126 110 163 104 110 137 81 101 105 141 120 138 91 90 104 128 179 92 159 166 118 110 93 141 91 143 71 128 76 122 74 156 67 49 99 93 155 49 55 116 105 129 96 111 131 69 137 124 59 76 66 126 76 94 115 142 126 86 130 110 125 94 15 115 81 45 135 128 137 145 121 174 81 87 93 107 13 108 63 37 127 135 143 120 144 62 106 72 52 92 156 113 75 61 71 105 113 152 74 66 114 65 59 102 143 68 123 116 163 65 77 83 36 88 74 119 193 113 116 96 130 96 111 17 51 118 57 130 97 103 71 34 103 115 108 99 64 124 120 87 129 154 90 122 58 178 59 60 174 81 163 96 90 83 97 147 108 122 85 51 87 52 144 95 149 118 143 111 90 108 82 64 131 99 134 111 75 64 69 98 151 96 129 30 109 100 111 125 119 52 75 92 82 65 72 125 110 77 134 109 119 137 65 169 89 87 146 94 84 186 116 84 94 135 144 133 113 107 150 130 122 152 90 99 108 92 79 126 84 102 40 91 199 170 51 117 103 102 158 88 138 100 98 89 51 111 85 131 85 65 67 122 143 63 92 86 121 109 103 140 68 139 72 74 95 117 86 103 130 126 95 95 153 109 89 152 81 129 123 156 45 87 138 136 111 133 105 141 67 166 120 189 110 135 145 43 128 136 99 130 96 44 27 113 81 124 99 119 78 </t>
+  </si>
+  <si>
+    <t>GAM(0.2799894907880454, -3.694686612521849e-28, 0.7734220393262428)</t>
+  </si>
+  <si>
+    <t>0 1 0 1 1 0 2 0 1 2 0 0 1 1 0 1 0 0 2 0 2 1 1 1 0 1 3 1 1 0 0 0 2 1 1 0 3 1 0 1 2 0 2 0 0 1 0 2 0 1 0 2 1 0 2 0 1 1 2 0 0 0 0 0 1 0 1 0 1 1 0 1 1 0 1 3 1 1 2 0 0 1 2 0 0 1 1 0 1 0 3 1 0 0 4 0 0 1 2 0 0 0 0 0 1 1 1 0 1 0 1 1 1 0 1 2 0 0 1 0 2 0 0 0 0 1 1 1 0 0 0 1 1 4 1 0 0 0 0 0 1 0 2 0 1 3 2 0 0 2 1 1 0 1 1 2 0 0 0 1 0 2 1 1 0 0 0 0 1 1 0 1 2 2 0 2 1 3 0 2 2 2 0 0 1 1 0 0 0 1 1 2 1 0 2 2 0 1 0 0 1 0 2 1 2 1 0 1 0 1 0 0 0 1 1 0 1 0 1 0 2 2 0 1 1 1 1 1 0 1 0 3 0 3 1 0 2 1 0 1 0 0 3 3 3 1 0 1 1 2 0 0 1 0 1 0 0 1 1 1 1 1 1 1 1 1 2 0 1 2 1 0 1 0 0 1 1 1 1 0 1 0 0 0 2 1 0 0 3 1 3 1 0 0 0 3 0 3 0 1 1 1 0 0 2 1 0 0 0 0 2 1 0 2 3 1 0 0 2 0 0 0 3 2 0 1 2 0 0 0 0 3 0 1 0 1 4 0 0 1 0 1 0 1 0 1 3 1 2 1 0 2 1 0 0 0 2 0 0 0 1 0 0 0 1 0 1 0 0 1 0 1 2 0 0 0 1 0 0 0 1 0 3 1 0 1 2 1 1 1 0 0 1 1 1 1 0 0 0 0 0 1 0 0 1 1 1 0 2 0 0 2 0 2 1 0 0 0 1 1 1 0 2 1 0 0 4 2 0 0 1 0 2 2 0 1 3 0 0 2 2 1 1 2 1 3 0 1 0 2 0 1 2 1 1 0 0 1 1 1 0 1 0 1 0 2 3 1 1 0 0 2 1 1 0 0 0 0 1 0 1 2 2 0 3 2 0 0 0 1 4 0 1 1 1 2 2 0 0 0 0 2 1 1 1 0 1 0 0 0 2 1 0 1 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 2 1 1 1 0 1 3 0 1 2 1 1 2 1 0 0 1 0 1 0 0 1 0 0 2 1 1 1 0 0 2 2 0 1 1 1 1 1 0 1 0 1 0 2 2 2 1 0 2 1 0 1 1 0 0 2 2 0 1 2 3 1 0 1 0 1 1 2 1 1 0 1 0 1 0 1 1 0 1 2 3 1 0 2 0 2 2 4 0 0 0 3 0 0 2 0 0 1 1 1 2 2 1 0 1 0 1 1 0 1 1 1 2 0 2 2 1 0 0 1 0 1 0 0 0 0 1 1 1 0 4 0 2 1 3 0 0 2 2 0 1 2 0 1 2 2 2 0 0 2 0 0 0 0 1 3 2 1 0 0 0 3 0 1 2 1 1 4 1 2 0 0 0 3 1 1 1 0 1 0 0 1 4 1 0 3 0 2 0 0 0 1 0 1 0 1 0 2 1 0 0 0 1 1 0 1 0 1 1 0 1 2 2 2 1 2 0 0 1 0 1 2 0 0 0 0 0 0 2 1 1 1 2 1 1 2 0 2 1 2 0 1 0 0 2 1 1 3 2 2 1 3 0 0 0 0 0 0 1 1 0 0 1 2 1 1 1 0 2 1 1 1 1 0 0 2 0 1 1 1 0 0 0 3 1 0 1 1 0 1 1 2 0 1 1 3 2 0 0 0 0 2 2 1 1 0 0 0 1 1 0 0 1 1 1 1 1 1 1 1 3 1 1 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 2 2 1 0 0 0 1 0 0 0 0 0 1 0 1 0 1 0 2 0 2 2 1 2 1 2 1 1 0 2 1 1 1 0 0 0 0 0 2 1 0 2 0 2 1 2 1 0 1 1 1 2 0 1 1 1 1 3 1 0 3 2 2 0 0 1 1 0 1 1 0 0 0 1 1 0 1 1 1 0 0 0 3 3 2 2 2 1 1 0 1 0 1 2 1 1 0 1 1 1 1 0 1 3 1 2 0 3 1 1 0 1 2 2 3 1 1 1 1 0 1 0 0 1 2 0 0 1 1 1 0 0 0 2 2 0 1 0 2 2 1 0 1 0 2 2 0 1 0 0 1 2 0 1 0 1 1 0 1 1 1 0 1 0 2 0 1 3 0 2 0 0 0 0 0 0 2 0 0 0 0 1 2 0 1 1 1 1 2 1 0 1 1 0 1 2 1 0 0 0 1 0 1 1 0 1 1 2 1 0 0 2 0 0 0 1 1 0 2 1 0 0 0 0 0 3 2 0 1 1 1 0 1 1 0 1 1 0 1 0 0 3 2 1 3 2 0 2 2 1 1 0 0 0 0 0 1 1 0 1 0 0 1 0 2 3 1 1 0 0 2 2 0 0 2 2 2 0 0 0 1 0 0 0 3 1 1 1 0 1 0 2 0 0 0 1 2 1 1 0 1 1 1 0 2 0 0 0 1 1 0 0 0 2 1 2 1 1 1 1 0 0 2 0 1 3 0 0 0 0 1 0 0 0 2 3 0 0 0 0 1 0 0 1 2 3 1 2 0 1 0 0 0 2 0 2 0 0 0 2 2 2 1 0 0 0 0 0 3 1 1 1 0 0 0 2 0 0 0 0 1 2 0 0 1 1 1 1 2 1 1 0 1 0 1 1 1 1 0 2 0 0 1 0 0 1 1 0 0 1 2 1 0 2 1 3 0 0 1 3 1 0 0 1 1 0 1 1 2 1 1 0 1 2 1 0 1 0 2 0 0 1 0 0 0 3 0 2 0 1 0 1 1 2 1 0 1 0 0 1 0 1 0 0 1 2 1 0 0 1 0 0 1 1 0 1 2 1 0 0 2 1 1 1 2 1 1 1 1 1 1 0 0 0 1 0 2 1 2 0 2 1 0 4 1 1 0 0 1 1 0 2 1 0 2 2 3 1 4 0 0 0 1 1 0 0 0 0 1 1 0 0 0 0 1 0 1 0 0 2 2 2 1 0 1 2 1 0 1 2 1 2 2 0 1 1 0 2 1 2 1 0 0 1 0 1 1 1 1 1 3 0 1 1 0 0 1 5 2 0 0 0 3 1 0 0 0 0 2 2 0 1 0 2 0 1 0 3 0 0 1 1 0 2 0 0 0 2 0 1 2 0 0 1 0 0 0 0 1 3 2 3 0 2 2 2 1 2 2 0 1 3 0 1 0 0 3 1 0 1 1 1 1 1 2 1 0 2 1 0 2 1 1 0 0 2 0 0 2 3 0 0 0 2 1 0 2 2 0 2 0 1 1 0 2 3 2 0 1 1 1 2 1 0 2 0 1 0 0 1 1 0 1 2 0 2 0 2 1 1 1 1 0 2 0 0 0 0 3 0 1 0 1 1 1 0 1 0 1 1 1 1 0 0 0 0 0 2 2 0 2 1 1 0 2 1 2 2 1 0 1 1 1 0 1 1 1 2 0 0 3 0 1 2 0 1 1 1 0 1 2 0 3 0 1 1 0 0 0 0 2 0 1 0 0 1 1 0 0 3 0 1 1 0 0 1 2 2 0 1 1 3 1 1 1 2 1 1 0 0 1 1 2 0 0 0 0 1 1 2 0 1 1 0 1 1 2 0 0 0 0 1 1 1 2 0 1 0 1 1 1 1 0 0 0 0 1 0 1 0 3 1 0 0 0 1 2 0 0 1 3 1 1 0 1 1 0 1 3 0 0 0 2 1 2 1 0 1 1 0 0 3 2 0 3 0 0 0 2 1 0 0 1 1 2 1 1 1 1 2 0 1 0 0 1 0 0 2 0 0 1 1 0 0 0 0 1 1 1 0 0 2 0 1 1 0 0 0 1 1 1 0 1 1 1 1 0 1 2 3 3 2 2 0 1 1 1 0 0 1 1 1 0 4 1 1 0 0 1 2 1 1 3 0 1 0 1 0 0 1 0 0 0 2 0 0 0 0 0 1 0 0 2 1 1 1 0 1 3 1 0 0 0 0 2 2 1 0 1 1 1 0 1 2 1 1 0 0 0 0 0 0 2 1 0 1 0 0 2 0 1 2 1 1 1 1 1 0 0 1 0 1 1 1 1 1 1 1 0 2 1 2 1 3 0 3 1 1 1 1 1 3 0 0 0 0 0 0 1 0 2 1 0 1 1 0 1 3 1 1 0 2 0 1 2 1 1 3 0 2 0 1 2 0 1 0 0 1 1 0 1 1 1 0 2 1 1 1 0 3 1 0 2 3 0 0 2 1 0 1 3 1 0 0 1 0 0 0 1 0 1 0 1 1 1 0 0 2 0 1 2 1 1 0 1 0 0 0 0 0 2 1 0 1 0 0 0 1 0 1 2 0 0 2 2 0 3 0 2 2 1 1 1 0 1 2 1 1 0 0 0 0 2 1 0 0 0 2 0 0 2 0 1 0 0 1 0 0 1 3 1 1 2 0 1 1 1 2 1 1 0 4 0 1 1 1 0 0 2 2 1 0 0 1 0 1 1 1 0 1 0 1 1 0 1 1 0 1 0 1 1 0 0 2 1 1 1 2 1 0 1 0 3 1 1 1 3 1 0 1 1 1 0 2 0 1 2 3 2 3 1 0 1 1 1 0 1 2 0 2 0 2 0 1 0 0 1 1 0 2 0 2 0 0 1 2 1 3 2 0 0 1 1 0 2 2 0 1 0 1 0 0 2 0 1 1 2 1 0 3 4 0 1 1 0 0 1 0 0 1 2 0 0 1 0 0 2 1 2 1 1 2 0 1 1 0 1 2 2 1 1 0 1 1 1 1 0 1 1 0 0 0 1 0 0 1 0 2 1 0 2 0 1 2 1 0 1 0 0 1 1 0 1 0 1 1 0 1 1 0 0 1 0 0 0 1 1 2 0 3 0 1 3 0 1 1 0 1 1 1 1 1 0 0 1 1 0 0 0 3 1 2 0 1 3 1 0 1 2 1 0 1 1 3 3 0 0 0 2 1 0 0 0 0 1 0 2 2 0 0 2 0 0 0 1 1 4 2 3 1 0 0 0 4 0 1 1 1 0 2 0 0 0 1 3 0 1 1 1 2 1 1 0 0 0 0 0 0 0 1 1 0 0 2 2 2 0 0 2 2 1 1 1 2 2 0 2 2 0 1 2 2 1 1 0 2 2 1 2 0 0 2 1 1 0 0 0 0 1 2 0 1 3 0 1 1 1 0 0 0 0 1 1 1 0 3 0 1 3 0 0 1 1 2 0 3 0 3 1 1 0 0 0 2 0 1 1 2 1 0 1 0 1 1 1 1 1 1 0 0 1 1 0 2 0 0 1 0 1 2 0 1 0 0 1 0 2 1 1 1 0 2 0 1 0 2 0 1 0 2 0 1 0 0 0 2 0 0 1 0 0 2 1 0 0 1 0 1 1 1 0 1 0 1 1 1 1 1 1 0 1 2 0 2 0 0 0 1 2 0 1 0 0 0 1 1 1 4 0 4 0 0 1 2 3 1 0 1 1 0 0 1 0 1 1 0 1 2 0 1 0 0 2 0 0 1 1 1 0 0 1 0 3 2 1 1 4 0 0 1 2 1 3 1 0 1 2 1 0 1 1 2 1 1 1 1 2 0 0 0 0 1 1 3 2 0 1 0 2 1 0 1 1 0 1 0 1 0 2 1 0 2 1 1 1 1 1 2 3 1 1 2 2 0 1 1 2 0 1 0 0 0 1 0 1 1 1 2 0 0 1 0 3 1 3 0 3 0 0 1 1 0 1 2 1 1 1 1 2 0 2 1 0 0 0 1 2 3 1 0 2 0 2 0 0 4 1 0 0 0 0 3 1 0 3 0 0 0 0 1 0 0 0 1 1 0 0 2 1 0 0 0 0 1 0 0 1 0 2 2 3 2 1 0 0 0 0 1 0 1 1 0 0 2 0 1 1 0 1 0 1 1 1 0 1 1 1 1 1 1 0 2 1 2 1 0 2 2 1 1 2 2 1 0 0 1 1 0 1 2 0 2 0 0 3 1 0 0 3 0 0 1 0 1 1 1 1 2 0 0 0 0 1 0 1 4 3 0 0 1 1 0 3 1 1 0 1 1 0 2 0 2 1 1 2 1 1 1 1 0 1 0 0 1 0 1 0 2 0 0 0 0 1 1 1 0 0 1 2 0 1 1 1 2 0 0 1 1 1 2 1 3 1 0 1 1 1 0 0 0 2 2 2 0 0 1 0 0 0 1 0 1 0 1 1 1 0 0 1 3 1 1 2 0 4 3 2 1 1 1 0 0 0 1 1 1 0 1 1 2 0 1 1 2 0 1 0 2 1 1 0 0 0 0 0 0 2 0 0 2 0 0 1 0 2 0 1 1 1 0 1 0 1 0 1 0 1 1 0 2 1 1 3 1 1 1 0 0 0 0 1 0 2 0 1 0 0 2 0 0 2 2 1 3 1 0 0 0 2 0 1 2 0 1 0 0 0 1 2 3 0 2 0 0 0 2 1 2 2 1 0 2 3 1 1 1 0 1 0 0 1 1 0 0 0 1 2 1 0 1 0 0 1 0 0 1 2 1 0 0 1 3 0 0 1 1 2 0 0 0 0 3 1 0 2 1 1 1 3 1 1 2 1 1 1 1 0 3 0 0 1 1 2 1 3 1 0 1 1 1 0 1 0 0 1 2 1 0 0 1 3 1 1 2 1 0 3 1 2 0 1 2 1 0 0 3 0 1 1 0 0 1 0 0 1 0 1 1 1 2 0 1 0 0 0 0 0 3 0 3 3 0 2 1 1 1 2 0 2 0 0 1 1 1 1 0 1 2 1 0 0 0 0 0 0 2 1 1 0 0 1 0 0 0 4 2 0 1 3 2 1 1 1 0 1 2 1 1 0 0 1 1 3 2 4 1 0 1 2 0 2 3 0 1 2 0 1 3 4 0 0 2 1 0 1 0 1 2 0 1 0 0 0 0 2 1 2 1 1 1 2 0 0 1 1 1 1 2 0 0 3 1 1 0 1 0 1 2 1 1 0 0 1 1 1 1 3 0 0 1 1 1 0 0 1 0 0 1 0 0 0 0 1 1 2 1 0 0 1 0 2 0 0 2 2 1 1 0 1 1 1 4 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 0 2 0 4 2 1 0 0 0 0 1 2 1 1 2 1 0 1 0 1 0 0 1 0 1 0 0 3 0 3 1 2 0 0 0 1 0 1 0 2 1 1 1 0 0 1 2 1 1 3 1 0 1 0 2 2 0 0 3 1 1 0 1 0 1 1 0 0 0 2 2 2 0 1 1 2 1 0 1 0 0 2 0 1 0 1 2 0 0 1 1 0 0 0 0 1 0 0 3 0 1 2 1 3 1 2 1 2 0 1 1 1 0 1 0 0 2 1 2 1 0 3 2 0 1 0 3 2 1 0 1 0 0 0 1 0 3 0 0 0 0 2 0 0 0 1 0 0 2 1 2 1 2 0 1 0 1 2 2 1 1 0 0 0 2 0 0 2 0 3 0 2 1 1 0 2 0 1 1 1 1 1 0 4 0 1 1 1 0 0 0 0 1 0 0 0 0 1 0 2 0 2 0 1 1 0 0 0 2 2 2 0 1 1 1 2 0 0 0 2 1 0 0 0 0 0 2 0 1 1 0 2 2 1 1 1 2 1 2 1 0 1 1 4 0 2 1 1 1 1 0 2 0 0 1 1 0 0 0 0 1 1 2 1 1 0 0 0 2 0 1 0 0 1 0 2 1 2 1 0 0 0 0 2 0 1 0 1 0 1 1 3 1 2 1 2 0 0 1 3 1 0 1 0 1 1 1 1 0 0 1 1 1 1 0 1 1 0 1 0 2 2 0 0 0 0 1 1 0 1 0 1 0 2 0 0 2 0 1 0 2 0 0 3 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 2 1 1 0 0 3 0 1 0 2 0 0 0 0 0 0 1 4 0 0 2 1 1 2 1 1 0 0 1 1 1 0 2 2 0 1 2 2 2 1 1 2 0 2 0 3 0 3 0 2 1 0 1 2 1 1 0 0 0 0 0 2 2 2 2 1 1 2 0 0 0 0 0 1 0 2 1 1 1 0 1 1 1 0 0 0 1 1 0 0 0 1 1 1 0 3 0 1 0 0 1 0 1 1 0 2 2 1 1 0 0 0 2 0 2 3 1 1 0 1 0 1 0 0 1 1 1 0 1 2 0 3 2 0 4 0 1 0 2 1 3 2 0 3 0 1 0 1 1 0 0 2 1 0 2 0 0 1 2 0 1 0 1 2 2 1 1 1 1 2 0 0 1 2 0 0 0 0 0 1 0 1 0 0 2 2 0 0 0 0 1 0 2 0 0 0 1 0 0 0 1 3 1 1 0 2 0 0 2 1 0 1 2 0 1 1 1 0 0 3 1 2 3 2 0 0 1 1 0 1 1 0 0 1 3 0 0 3 0 1 1 1 1 1 0 0 1 1 2 2 1 1 2 0 0 3 0 0 3 0 0 2 1 3 1 0 1 0 1 0 0 0 0 0 0 2 0 1 1 2 1 0 1 1 0 0 1 1 1 0 1 2 1 0 0 2 1 1 1 0 1 1 0 0 0 0 1 2 1 0 1 1 0 2 1 0 1 1 0 3 0 0 1 0 1 1 0 1 1 1 1 0 0 0 0 0 2 2 0 2 2 1 0 1 1 0 2 1 1 0 1 1 1 2 1 2 0 0 1 1 2 1 0 1 0 1 1 1 1 0 0 1 0 0 1 1 0 0 2 0 2 1 1 0 1 0 0 0 0 1 0 0 1 0 2 0 1 3 0 3 1 0 3 0 2 0 1 0 0 1 2 0 0 1 1 0 0 2 0 0 0 0 0 1 1 1 0 1 0 1 0 2 0 1 0 1 0 0 0 1 0 0 2 0 0 2 0 0 0 1 0 0 1 1 3 0 3 0 0 1 2 1 0 1 1 1 1 0 0 1 0 0 0 2 2 1 1 0 2 4 2 0 2 0 1 1 0 0 0 0 2 1 0 0 0 1 1 1 0 1 0 0 0 1 1 1 2 2 0 0 1 0 2 1 1 0 0 0 0 1 0 2 0 2 0 1 1 0 0 0 1 0 1 1 2 3 0 2 0 0 1 0 3 0 0 1 0 0 1 1 0 0 0 0 2 0 0 1 1 1 0 0 1 1 0 0 2 2 1 1 1 0 0 0 2 0 0 1 0 1 0 1 1 1 1 0 1 0 0 0 1 2 2 1 0 0 2 0 0 1 1 1 0 1 0 0 0 1 1 1 0 0 0 1 1 2 2 0 1 0 1 0 1 1 1 1 3 3 0 0 1 0 1 2 0 0 1 0 1 0 1 0 0 0 1 2 1 2 1 0 0 2 0 0 0 0 0 0 0 0 0 2 3 1 1 1 0 1 0 1 0 1 1 1 0 0 1 0 1 2 2 1 0 2 1 2 1 0 0 1 0 0 0 1 1 0 2 0 0 0 0 0 0 3 1 1 1 1 1 1 2 0 2 1 1 0 1 0 0 2 0 0 2 2 0 1 0 0 2 0 1 1 0 0 2 1 0 0 3 1 1 1 0 0 2 2 1 0 1 1 0 1 1 1 0 2 0 2 1 0 0 0 1 1 1 1 0 1 0 0 1 2 2 0 0 2 1 2 1 0 3 1 1 0 1 1 1 1 1 0 0 2 1 2 1 1 2 3 0 1 3 1 0 0 1 2 0 1 1 0 0 1 2 0 2 0 1 1 0 0 3 1 0 0 0 1 2 0 0 0 1 0 2 0 0 0 0 0 0 0 3 0 2 1 0 2 2 0 0 1 2 1 1 0 0 1 1 2 1 2 1 2 0 2 0 1 0 2 2 1 2 0 0 1 1 0 0 0 0 1 1 0 1 0 0 0 0 1 0 1 0 2 1 0 0 2 3 0 2 0 2 3 0 0 0 1 0 1 0 1 0 2 0 0 2 2 2 3 1 1 3 0 2 0 0 0 3 0 0 1 1 1 0 2 1 0 1 1 1 1 1 0 0 0 2 2 0 0 1 1 1 1 2 1 1 0 0 1 1 0 2 0 2 1 1 2 0 0 0 0 2 1 0 1 1 1 2 0 2 1 0 0 1 0 1 0 1 1 0 0 1 1 0 1 1 1 1 1 1 2 0 1 0 0 0 0 1 2 1 0 2 1 3 0 0 1 1 1 2 1 1 0 1 2 3 0 0 0 2 0 1 1 1 0 0 0 0 2 2 2 0 0 1 3 0 0 0 1 2 0 1 0 2 2 0 1 0 0 1 1 1 0 2 1 2 1 0 1 1 1 0 1 1 1 0 3 1 1 1 1 0 1 2 2 2 2 2 2 2 0 1 3 1 0 1 0 1 0 1 1 0 0 0 0 1 2 1 1 1 0 1 1 0 1 1 1 2 3 1 1 1 1 1 3 0 0 0 1 0 1 1 1 0 0 2 0 0 1 1 1 1 2 2 0 1 0 1 1 1 1 1 0 0 0 1 0 0 0 1 0 1 0 1 2 3 1 1 0 3 0 1 1 1 1 3 2 0 2 0 1 1 2 1 0 0 2 0 1 1 1 0 0 0 0 2 0 1 2 1 0 1 3 0 2 1 2 1 3 1 2 2 0 2 1 0 0 0 0 1 0 1 0 0 1 1 2 1 1 2 0 0 1 2 1 1 0 2 3 0 0 0 1 0 0 0 1 1 0 0 1 2 2 1 1 0 0 1 1 0 0 1 1 1 2 0 0 3 0 1 1 1 1 2 2 1 1 0 1 1 1 2 2 1 0 0 2 2 0 1 0 1 0 3 1 1 0 1 1 1 1 0 1 1 2 2 0 2 1 2 1 0 1 0 0 1 1 1 0 0 1 0 3 0 1 1 0 0 0 1 0 0 1 1 1 1 0 3 2 1 0 0 1 1 0 0 0 1 2 0 0 0 3 1 2 0 1 2 2 1 1 1 2 1 2 0 1 2 2 0 2 2 0 0 0 2 0 1 1 1 1 2 0 1 1 4 3 1 1 1 0 1 1 1 3 0 0 1 1 1 2 1 0 1 1 1 1 1 0 2 2 2 1 0 0 1 3 1 2 1 0 1 1 1 0 2 1 1 0 0 0 0 2 1 3 0 1 1 3 1 0 0 1 0 1 2 0 2 1 0 0 2 0 1 2 0 0 1 0 0 0 1 2 3 0 1 0 0 1 2 1 1 1 1 0 0 1 1 0 0 0 0 0 1 0 0 1 1 0 1 0 1 3 0 0 0 0 0 0 1 2 2 2 1 0 1 2 3 0 0 1 0 1 1 2 2 2 1 0 1 1 1 0 1 2 1 1 2 0 1 2 0 2 0 1 1 2 2 1 0 1 0 0 1 0 1 0 1 1 0 1 1 3 0 0 0 1 0 3 1 0 1 0 0 0 1 1 0 1 0 2 2 0 0 0 1 2 0 4 1 0 0 2 0 1 0 0 1 0 0 3 1 3 1 1 1 0 1 1 0 0 1 1 0 2 1 1 1 0 2 0 1 0 1 1 2 1 1 0 1 0 0 1 1 0 1 1 2 0 0 0 2 0 0 0 0 1 1 1 0 0 2 0 2 1 0 0 1 2 2 1 1 0 3 1 1 1 1 0 1 1 1 0 0 1 0 1 0 1 0 1 0 1 1 1 1 0 1 1 1 0 1 0 0 1 1 2 0 1 0 2 1 1 1 0 1 1 0 0 1 0 2 2 0 0 1 0 1 2 2 1 0 1 1 1 1 0 1 0 1 2 0 1 0 0 1 1 1 2 2 0 2 2 1 0 0 3 1 2 2 1 0 1 1 1 0 0 0 2 0 0 2 3 0 1 1 0 1 1 0 0 1 0 1 2 1 0 0 1 1 0 0 0 0 1 0 0 0 0 2 2 1 1 3 0 0 2 1 1 1 0 0 0 2 0 1 0 0 1 0 3 2 0 0 1 1 0 0 0 1 2 1 2 3 0 0 1 0 0 0 0 0 0 1 1 1 2 3 0 1 0 0 1 0 0 1 0 0 0 2 3 0 1 0 1 0 1 0 0 2 4 1 2 0 0 1 0 1 1 0 0 1 0 1 0 0 0 2 0 1 0 2 1 0 1 3 1 1 0 1 0 1 0 1 0 1 0 0 1 1 1 0 1 1 0 0 1 0 1 1 1 1 1 0 0 0 2 1 2 1 0 1 3 0 2 1 0 0 0 1 1 2 1 1 0 3 2 2 0 1 1 1 1 0 1 1 2 0 1 0 0 0 2 0 0 0 2 0 1 1 0 4 0 1 0 1 0 2 0 1 0 0 1 3 0 1 1 3 1 1 2 0 2 0 3 0 2 1 1 0 0 2 1 0 1 0 3 2 0 0 0 1 0 2 0 0 2 2 0 1 1 0 2 0 0 2 3 1 0 0 1 2 0 1 1 1 0 0 0 2 2 1 1 0 0 0 0 1 0 2 0 2 0 0 0 0 2 1 2 0 1 0 1 1 0 0 3 1 0 0 0 0 2 0 1 1 1 3 1 1 1 1 0 2 1 0 2 1 0 0 2 1 2 2 1 0 0 0 2 0 0 1 2 0 1 0 1 2 0 0 2 0 1 1 2 2 0 0 0 0 0 3 2 0 3 3 2 3 1 0 0 1 0 1 0 0 0 0 0 1 2 0 0 1 0 0 0 2 1 1 0 2 0 0 4 1 1 0 0 0 0 1 0 2 0 2 2 3 1 2 1 1 2 2 1 1 0 1 1 1 1 1 0 0 1 1 0 1 2 1 1 0 0 0 1 1 1 0 1 0 4 0 3 0 0 0 4 1 1 0 0 1 2 2 1 0 0 1 0 0 2 2 0 0 0 0 0 1 1 2 1 0 0 2 1 0 0 2 2 0 1 1 1 0 1 0 1 0 1 0 1 0 1 1 2 1 1 1 2 0 0 1 0 0 0 2 0 0 1 1 1 2 0 4 1 1 1 3 0 0 0 0 2 1 1 0 0 2 1 0 0 2 2 1 3 0 0 0 1 1 0 0 0 3 2 2 2 0 2 2 0 2 1 2 2 1 0 1 1 0 1 1 1 1 2 0 1 0 2 1 2 1 0 1 1 0 1 2 3 0 0 0 0 0 1 0 2 1 0 1 0 0 2 0 1 1 0 0 0 1 0 0 2 3 0 0 0 1 1 1 2 1 1 2 0 1 0 1 1 3 0 2 1 0 1 3 1 1 0 1 3 1 0 1 0 0 0 0 1 0 0 1 2 3 1 0 0 1 1 1 1 2 2 3 2 0 0 0 1 0 1 0 0 1 1 0 0 0 1 0 0 1 2 0 0 0 0 1 0 1 3 2 1 1 0 1 1 1 0 3 0 0 1 0 3 0 1 1 2 0 1 1 0 3 0 1 1 0 0 0 0 1 5 1 2 2 2 3 3 1 1 1 0 1 3 1 2 1 0 0 1 1 0 0 2 1 1 0 0 1 0 0 1 0 1 0 2 0 2 3 1 2 1 0 0 1 0 1 0 1 1 0 0 0 3 1 2 0 1 1 1 1 1 0 0 0 0 0 1 2 0 1 0 0 0 1 1 3 1 0 1 2 0 2 1 1 0 0 1 0 0 3 1 1 4 0 3 1 1 1 0 0 1 0 0 2 0 0 1 0 3 3 1 0 1 1 0 1 0 2 1 1 2 1 0 0 0 3 2 2 0 0 0 0 0 1 1 0 1 0 1 1 0 1 0 3 1 2 0 0 0 0 0 2 2 3 0 1 2 1 0 1 0 1 0 0 1 0 3 2 1 0 0 1 1 2 0 1 2 0 1 1 1 0 0 0 2 2 1 0 1 2 0 1 1 1 1 1 2 0 0 2 1 0 2 2 1 0 0 1 2 3 1 0 0 0 0 2 1 1 0 1 0 1 2 1 1 0 3 0 2 2 1 0 1 0 1 1 1 1 1 0 0 2 0 2 1 1 2 0 1 0 0 1 1 1 2 0 1 0 0 2 0 2 0 1 2 3 2 0 4 1 1 1 2 1 1 1 1 1 0 2 0 1 2 0 1 2 0 3 1 0 1 0 2 0 0 0 0 0 2 1 0 0 0 1 1 0 2 1 1 0 0 1 0 0 0 0 0 1 3 0 0 1 0 4 0 2 1 0 1 0 1 0 0 1 1 2 0 1 1 0 0 2 0 1 0 0 1 1 0 2 1 0 0 1 1 0 0 1 1 0 0 0 0 0 1 0 2 0 1 1 2 0 2 2 0 0 1 0 0 2 1 1 0 1 1 2 1 2 1 0 0 1 2 1 1 1 0 1 1 2 0 0 0 1 0 2 1 0 0 0 0 0 2 1 0 0 3 0 1 1 0 2 1 0 1 2 0 2 0 1 0 1 0 0 1 0 1 0 0 2 0 2 1 2 2 1 0 0 0 0 1 0 1 1 2 0 2 0 2 0 0 0 2 0 1 0 2 1 0 0 1 1 0 0 0 0 2 0 0 0 1 1 2 0 2 1 2 0 1 1 0 1 1 2 2 1 0 0 1 0 2 1 1 1 0 0 1 0 0 0 1 0 1 0 0 0 0 1 1 0 0 1 1 2 1 0 1 2 1 0 1 2 0 1 0 0 3 2 4 1 1 0 0 1 0 1 0 0 0 1 0 1 1 0 1 1 0 1 2 1 1 2 1 2 2 1 0 1 0 0 0 1 1 1 0 0 1 0 1 2 1 1 1 2 2 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 2 0 1 0 2 1 1 1 2 2 1 1 0 2 0 0 1 2 0 1 0 2 2 0 0 1 1 1 1 0 0 1 4 0 1 0 0 0 1 1 0 0 2 1 1 0 0 0 0 0 1 2 2 2 3 1 1 1 1 1 2 0 2 2 0 1 1 2 1 0 0 0 1 0 0 1 2 0 1 1 0 1 1 0 1 0 1 0 0 2 0 2 0 1 1 1 1 2 1 1 0 1 2 3 1 0 2 2 1 1 2 1 0 1 4 0 1 1 2 0 2 1 1 2 1 0 0 1 4 3 2 2 2 1 0 0 0 3 2 3 0 1 2 0 2 1 0 0 1 1 3 2 2 0 0 0 0 2 1 1 0 1 1 0 0 1 0 0 0 0 0 2 0 1 0 1 1 0 3 2 0 1 2 2 0 3 1 0 2 1 1 0 0 0 1 1 0 0 0 0 1 1 0 1 1 1 0 1 0 0 1 2 1 2 4 0 0 1 1 1 1 1 1 1 2 1 2 1 0 1 0 1 2 1 0 0 0 3 0 2 3 2 1 1 0 1 1 2 2 1 0 1 1 1 0 3 1 2 1 0 1 1 1 0 0 2 1 2 1 1 1 1 0 2 1 0 2 2 0 0 1 1 1 1 1 0 0 0 0 0 0 0 1 0 1 2 1 2 2 1 4 1 0 0 1 0 0 1 0 1 0 0 0 1 0 1 1 1 0 2 2 0 1 2 1 1 1 1 1 1 0 2 1 1 1 2 0 2 1 1 2 0 0 2 1 1 2 2 0 1 2 1 3 0 0 1 0 3 2 2 0 2 0 1 0 1 2 0 0 0 3 1 0 1 0 1 2 1 0 2 0 0 0 1 0 1 2 2 0 0 1 0 1 0 1 0 0 1 1 1 1 1 2 1 0 0 1 1 0 0 0 1 0 2 3 0 3 0 0 0 0 0 2 1 1 0 0 2 0 2 2 0 1 2 0 1 1 1 1 1 2 0 1 2 1 0 1 2 1 1 0 0 4 1 1 2 1 0 1 0 0 0 0 1 3 2 1 1 0 0 0 0 1 3 0 1 1 2 1 1 0 1 3 2 0 2 0 1 2 2 0 3 0 0 1 2 1 0 0 0 0 1 0 2 1 0 1 1 1 1 0 2 3 1 1 0 3 0 1 1 3 0 1 0 1 2 0 1 1 2 1 1 0 2 0 1 2 2 1 2 2 4 0 0 1 0 0 1 1 1 0 1 1 1 0 0 1 1 0 0 2 0 0 0 1 1 0 1 0 2 0 0 1 0 0 0 1 1 1 1 0 1 1 0 0 0 0 1 1 3 0 0 0 1 0 1 2 1 1 1 0 0 1 1 0 3 1 1 2 0 0 1 1 0 1 1 0 1 1 2 0 1 1 0 1 0 1 1 0 2 0 2 2 1 1 0 0 0 1 0 0 2 1 1 2 2 1 0 0 2 1 1 4 1 0 0 0 2 1 0 0 1 1 1 0 0 0 0 3 2 0 0 0 0 1 1 2 1 2 1 1 1 0 1 0 1 0 2 1 0 1 1 1 2 0 1 3 0 1 0 1 2 3 0 0 3 0 0 0 2 1 2 1 2 1 0 1 0 0 2 2 1 0 0 0 2 0 2 0 4 0 1 0 0 2 1 1 0 1 1 0 1 0 0 0 0 0 2 0 1 0 0 1 1 1 1 1 1 0 0 1 2 3 0 2 3 1 1 0 0 0 1 0 0 1 0 1 0 2 1 1 2 1 1 0 0 1 0 2 1 2 1 1 0 1 1 3 0 3 0 1 0 0 1 0 2 0 1 0 1 0 0 0 1 0 2 1 1 1 0 1 1 0 1 1 1 3 0 0 0 2 3 0 2 1 0 1 0 0 3 2 0 2 0 3 0 2 0 1 0 1 1 0 0 2 0 2 0 2 1 2 0 0 0 1 1 0 2 0 1 2 1 0 0 1 1 1 2 1 0 1 0 1 1 3 2 3 0 2 0 0 1 1 0 2 0 1 1 1 1 1 0 1 1 1 0 2 1 2 2 0 1 0 0 0 2 2 0 1 2 0 0 2 1 0 1 1 1 0 1 2 3 2 2 0 0 1 2 0 1 3 0 1 2 0 0 1 1 0 0 1 2 1 0 1 1 2 0 1 0 3 0 1 1 3 0 0 2 1 2 0 1 2 0 2 1 2 0 1 0 0 1 3 0 3 2 0 1 1 1 0 0 1 0 2 0 2 2 0 1 1 2 0 0 1 0 0 2 1 1 2 1 1 1 1 0 1 1 0 1 0 1 0 1 1 0 0 0 1 0 0 1 4 1 1 2 3 1 0 0 3 1 0 2 2 0 1 1 0 0 0 3 3 1 2 0 2 0 2 0 0 0 1 1 1 0 1 1 0 1 1 0 2 1 0 1 2 1 1 1 1 4 0 1 0 2 1 1 1 0 1 2 2 1 0 1 0 1 0 1 0 1 0 1 1 0 1 1 1 1 1 2 0 1 0 0 0 1 1 1 0 0 1 1 2 1 0 0 1 1 0 1 2 0 0 2 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 3 1 0 1 1 0 0 1 2 0 0 1 0 1 0 0 0 2 0 0 0 0 1 2 1 1 0 0 1 0 0 3 1 2 0 2 2 1 0 2 1 2 2 1 0 1 0 0 2 2 0 1 0 0 0 0 0 0 1 1 1 1 1 0 0 1 2 0 1 2 0 0 0 0 2 2 2 1 1 1 0 0 0 3 0 2 3 0 1 0 1 1 0 0 0 0 0 2 2 0 1 1 2 0 1 1 0 2 0 0 1 0 0 1 2 0 2 0 2 2 1 1 1 0 2 1 0 1 1 0 1 1 0 0 0 0 0 1 1 0 0 2 1 0 1 1 1 0 1 2 2 0 1 0 0 2 2 2 1 0 1 1 0 0 1 0 0 1 1 0 2 1 1 1 3 2 1 0 1 2 0 1 1 1 0 2 0 0 0 0 0 2 1 0 1 1 4 1 0 2 1 1 1 0 1 0 1 0 0 1 4 1 0 1 0 2 0 1 0 0 1 0 1 2 1 2 1 0 1 0 1 2 1 0 0 1 1 0 0 1 1 0 0 0 2 1 0 1 0 1 1 0 1 2 0 2 0 1 0 0 1 1 1 2 1 1 0 2 1 0 1 0 1 1 0 1 0 0 0 1 1 1 0 0 0 2 2 3 3 1 1 1 2 0 3 0 1 0 0 1 0 0 0 1 2 0 1 1 1 1 0 0 1 0 1 1 0 3 0 0 0 1 0 2 1 1 1 0 1 1 2 1 1 1 0 0 2 1 0 1 0 1 0 0 2 2 1 1 2 2 0 1 1 1 2 1 2 1 1 1 2 2 0 1 1 0 1 0 2 0 1 1 0 0 0 0 1 2 2 0 1 2 0 1 2 0 0 1 1 1 1 1 0 3 2 1 0 1 0 2 0 0 1 1 1 2 0 0 0 0 0 0 0 3 0 1 1 0 0 0 0 0 0 1 1 0 0 0 2 1 1 1 0 2 0 0 1 1 1 0 1 1 0 0 2 1 1 0 2 1 1 2 1 0 0 1 1 1 0 1 1 1 1 0 1 1 0 1 0 2 0 0 2 3 0 3 1 0 1 1 2 1 1 1 3 2 2 2 1 0 2 0 1 3 0 0 1 1 1 2 0 2 0 0 1 0 2 1 1 1 0 1 0 0 2 3 0 0 0 2 0 1 0 1 0 1 0 2 1 0 1 2 1 1 0 1 1 2 2 1 0 1 1 0 1 2 1 3 1 0 2 1 0 0 1 0 1 0 0 1 1 1 2 1 2 1 0 1 2 0 1 0 0 1 2 2 1 1 1 0 0 0 1 0 0 2 1 1 1 1 0 0 3 1 0 1 1 0 0 2 0 0 0 3 0 1 0 0 0 1 1 0 1 0 1 1 1 1 0 1 0 2 4 2 0 1 2 0 0 0 1 1 0 0 2 3 2 0 2 0 0 1 1 1 1 1 1 0 0 1 1 0 1 0 2 1 0 0 0 1 1 1 0 0 1 0 0 0 0 0 2 0 2 0 0 0 2 2 1 0 0 0 0 1 0 1 1 1 1 2 2 0 0 1 1 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 2 1 1 0 1 1 1 1 0 1 1 0 0 0 0 1 0 1 0 0 0 0 2 0 3 2 0 1 1 1 1 3 1 1 0 0 0 0 0 1 0 0 0 1 1 2 0 1 0 1 2 2 0 1 0 0 0 1 1 0 0 0 4 0 1 0 1 1 2 0 0 2 2 3 0 0 1 1 0 1 3 1 0 1 2 0 1 1 1 0 0 1 0 0 0 1 1 0 2 1 0 0 1 1 1 0 0 1 0 2 0 1 3 1 2 0 1 0 1 1 2 0 0 0 0 1 2 1 1 0 2 2 2 1 2 1 0 1 1 0 1 1 1 0 0 0 0 1 1 0 1 0 0 2 0 1 1 0 0 0 1 1 3 0 0 0 1 1 0 0 1 0 3 2 0 0 0 0 0 2 3 0 1 0 0 0 2 2 2 1 1 2 0 1 3 0 0 2 1 1 1 0 1 0 1 0 2 2 0 0 2 0 2 0 0 0 1 1 2 0 0 1 0 0 0 1 2 0 0 2 1 1 0 0 1 2 0 1 0 1 2 0 1 0 0 0 0 0 0 1 0 3 2 2 0 1 2 0 0 0 0 0 1 0 2 0 0 0 2 0 0 0 0 0 1 0 0 1 0 1 2 1 1 2 0 1 0 0 0 1 0 2 0 1 2 0 2 1 1 0 0 0 1 0 3 1 0 0 2 1 2 1 0 0 0 2 0 0 0 0 0 4 3 2 1 1 0 2 1 1 1 0 3 1 1 1 2 1 2 1 0 0 0 0 0 1 1 0 1 0 1 1 1 0 1 0 0 0 0 0 0 1 2 1 0 0 2 0 3 1 0 1 0 0 1 0 0 2 1 2 1 0 0 1 1 0 0 1 0 2 1 0 0 1 0 2 0 2 0 1 1 2 2 0 0 1 1 0 0 0 0 1 0 0 1 2 0 1 1 1 1 0 0 2 1 2 3 1 2 1 2 3 1 0 1 3 1 1 0 0 2 1 0 0 2 0 0 0 0 1 0 1 2 1 0 0 1 0 0 1 2 2 1 1 0 1 1 0 1 1 0 2 2 3 0 0 0 0 1 0 1 0 0 1 3 0 0 0 0 0 0 1 0 0 2 1 1 1 2 0 0 1 0 3 0 5 0 1 0 1 1 0 1 1 0 0 0 1 0 1 1 1 1 0 1 1 0 1 2 2 1 0 0 1 0 0 0 0 2 0 1 1 2 1 0 0 0 0 1 0 2 1 1 0 1 0 0 1 1 1 0 2 1 0 0 0 0 0 2 2 2 1 0 0 0 2 1 2 1 3 0 3 2 0 0 1 2 1 3 0 2 0 1 1 1 3 1 2 1 3 1 0 0 0 0 2 0 1 2 2 1 0 2 0 3 3 3 1 0 2 1 1 2 3 1 1 3 2 0 0 3 1 1 1 2 0 1 0 0 1 1 0 0 0 1 1 3 0 2 0 1 1 1 1 1 0 0 0 0 1 1 1 0 0 0 1 0 0 0 2 1 1 2 0 0 0 0 1 2 0 1 1 1 1 2 1 0 0 2 1 1 1 2 0 0 1 1 3 1 0 0 1 4 1 3 1 1 2 0 1 1 0 3 1 1 0 0 1 0 0 1 0 1 0 1 1 1 1 2 1 1 2 0 1 1 3 1 0 0 2 1 0 0 1 5 1 1 1 0 1 0 2 0 0 3 0 0 0 1 0 0 1 0 0 0 0 0 1 1 0 1 1 0 0 1 1 0 0 2 0 0 0 1 1 1 2 2 1 1 1 1 2 0 0 0 1 1 1 0 0 1 1 1 0 1 1 3 0 1 0 3 2 0 1 1 0 2 2 2 0 1 3 1 0 0 1 3 0 0 1 0 1 1 1 0 0 1 0 0 1 0 0 3 2 1 1 0 0 0 0 0 0 1 1 0 0 3 0 2 0 0 1 1 2 2 0 1 1 0 1 2 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 1 1 1 1 1 2 0 1 0 2 2 0 0 0 0 0 2 0 0 3 1 1 1 0 2 1 0 3 2 0 0 0 1 1 1 0 1 0 0 1 0 1 0 2 0 2 0 1 2 0 0 2 1 2 3 1 2 0 1 0 2 0 0 0 2 2 1 0 0 0 2 1 0 0 0 1 0 0 3 1 0 2 0 1 1 1 2 0 2 1 3 2 1 1 1 0 3 1 0 2 0 0 1 0 0 0 0 0 0 1 1 0 1 0 0 0 1 2 2 0 1 1 0 0 0 2 1 1 2 1 2 1 0 1 1 3 3 1 1 1 1 0 1 2 0 1 1 1 0 2 1 0 1 1 2 0 1 0 0 3 0 1 0 0 0 3 2 2 1 1 1 1 2 0 0 2 1 1 0 1 2 0 1 1 0 1 1 0 1 0 1 2 0 0 0 1 1 0 0 0 1 0 0 1 1 1 1 0 1 2 0 2 1 1 2 0 1 1 0 1 1 1 0 0 0 1 0 0 0 0 2 0 2 1 0 1 1 1 1 0 0 2 0 3 0 1 2 0 0 0 1 0 0 1 1 0 1 1 0 0 1 2 3 0 1 1 1 0 2 2 2 1 1 2 0 0 0 1 2 0 3 0 0 0 0 0 1 1 0 0 2 1 0 1 0 0 1 1 2 0 1 2 0 2 2 0 0 2 1 1 1 2 0 1 0 1 0 4 1 0 1 0 0 1 0 0 2 1 2 0 2 1 1 1 1 0 1 0 0 0 1 0 0 1 1 0 2 1 2 0 0 2 1 0 0 0 1 0 1 0 0 2 1 1 0 2 1 0 2 0 0 1 0 0 1 2 1 0 0 3 1 0 1 0 2 2 0 0 1 0 1 1 1 1 0 1 1 1 1 0 0 1 1 1 2 0 1 0 0 0 0 2 1 3 0 0 0 0 1 0 1 0 0 1 2 1 0 1 2 0 0 0 0 1 2 1 0 1 0 0 0 0 0 1 2 0 0 1 0 0 1 1 2 1 2 2 1 0 0 0 1 0 2 0 1 0 0 3 1 1 1 2 0 0 1 2 0 3 2 0 1 2 1 0 0 1 0 1 2 1 0 0 1 2 0 1 0 1 2 0 0 2 1 1 1 0 1 1 1 3 1 1 1 1 1 0 1 1 1 0 0 1 1 2 0 2 0 1 1 2 1 0 0 0 0 0 0 0 3 2 0 1 2 0 0 1 0 1 0 1 1 1 0 0 0 1 1 2 0 1 1 2 0 1 2 0 0 0 3 0 2 0 1 1 1 1 1 0 0 0 2 0 0 0</t>
   </si>
   <si>
     <t>A.Rodgers</t>
@@ -354,10 +354,10 @@
     <t>E.St. Brown</t>
   </si>
   <si>
+    <t>T.Davis</t>
+  </si>
+  <si>
     <t>D.Dafney</t>
-  </si>
-  <si>
-    <t>T.Davis</t>
   </si>
   <si>
     <t>P.Taylor</t>
@@ -773,10 +773,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>44.8</v>
+        <v>45.1</v>
       </c>
       <c r="C2">
-        <v>54.3</v>
+        <v>54</v>
       </c>
       <c r="D2">
         <v>0.9</v>
@@ -791,7 +791,7 @@
         <v>12</v>
       </c>
       <c r="H2">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -800,10 +800,10 @@
         <v>14</v>
       </c>
       <c r="K2">
-        <v>4.74</v>
+        <v>4.71</v>
       </c>
       <c r="L2">
-        <v>5.17</v>
+        <v>5.14</v>
       </c>
     </row>
   </sheetData>
@@ -859,19 +859,19 @@
         <v>32.7</v>
       </c>
       <c r="E2">
-        <v>241.73</v>
+        <v>241.51</v>
       </c>
       <c r="F2">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="G2">
         <v>0.42</v>
       </c>
       <c r="H2">
-        <v>112.17</v>
+        <v>111.75</v>
       </c>
       <c r="I2">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -997,10 +997,10 @@
         <v>32.7</v>
       </c>
       <c r="E2">
-        <v>241.73</v>
+        <v>241.51</v>
       </c>
       <c r="F2">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="G2">
         <v>0.42</v>
@@ -1012,7 +1012,7 @@
         <v>1.1</v>
       </c>
       <c r="J2">
-        <v>2.79</v>
+        <v>2.65</v>
       </c>
       <c r="K2">
         <v>0.03</v>
@@ -1021,7 +1021,7 @@
         <v>0.05</v>
       </c>
       <c r="M2">
-        <v>14.96</v>
+        <v>14.85</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1053,7 +1053,7 @@
         <v>0.2</v>
       </c>
       <c r="J3">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="K3">
         <v>0.01</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1165,7 +1165,7 @@
         <v>5.09</v>
       </c>
       <c r="D2">
-        <v>56.28</v>
+        <v>56.48</v>
       </c>
       <c r="E2">
         <v>0.34</v>
@@ -1177,7 +1177,7 @@
         <v>0.4</v>
       </c>
       <c r="H2">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="I2">
         <v>0.01</v>
@@ -1186,10 +1186,10 @@
         <v>0.01</v>
       </c>
       <c r="K2">
-        <v>12.84</v>
+        <v>12.87</v>
       </c>
       <c r="L2">
-        <v>7.75</v>
+        <v>7.78</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1200,10 +1200,10 @@
         <v>56</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="D3">
-        <v>10.64</v>
+        <v>10.76</v>
       </c>
       <c r="E3">
         <v>0.07000000000000001</v>
@@ -1215,19 +1215,19 @@
         <v>13.4</v>
       </c>
       <c r="H3">
-        <v>64.45</v>
+        <v>63.99</v>
       </c>
       <c r="I3">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="J3">
         <v>0.01</v>
       </c>
       <c r="K3">
-        <v>11.2</v>
+        <v>11.29</v>
       </c>
       <c r="L3">
-        <v>10.21</v>
+        <v>10.28</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1241,7 +1241,7 @@
         <v>4.05</v>
       </c>
       <c r="D4">
-        <v>43.23</v>
+        <v>43.38</v>
       </c>
       <c r="E4">
         <v>0.25</v>
@@ -1262,10 +1262,10 @@
         <v>0.01</v>
       </c>
       <c r="K4">
-        <v>9.779999999999999</v>
+        <v>9.75</v>
       </c>
       <c r="L4">
-        <v>5.73</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1276,22 +1276,22 @@
         <v>58</v>
       </c>
       <c r="C5">
-        <v>2.18</v>
+        <v>2.17</v>
       </c>
       <c r="D5">
-        <v>23.3</v>
+        <v>23.12</v>
       </c>
       <c r="E5">
         <v>0.12</v>
       </c>
       <c r="F5">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="G5">
         <v>6.7</v>
       </c>
       <c r="H5">
-        <v>31.83</v>
+        <v>31.64</v>
       </c>
       <c r="I5">
         <v>0.24</v>
@@ -1300,10 +1300,10 @@
         <v>0.01</v>
       </c>
       <c r="K5">
-        <v>9.59</v>
+        <v>9.57</v>
       </c>
       <c r="L5">
-        <v>7.41</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1314,10 +1314,10 @@
         <v>59</v>
       </c>
       <c r="C6">
-        <v>2.39</v>
+        <v>2.36</v>
       </c>
       <c r="D6">
-        <v>26.68</v>
+        <v>26.45</v>
       </c>
       <c r="E6">
         <v>0.16</v>
@@ -1329,7 +1329,7 @@
         <v>0.1</v>
       </c>
       <c r="H6">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0.01</v>
       </c>
       <c r="K6">
-        <v>6.04</v>
+        <v>5.94</v>
       </c>
       <c r="L6">
-        <v>3.65</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1352,13 +1352,13 @@
         <v>60</v>
       </c>
       <c r="C7">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="D7">
-        <v>22.91</v>
+        <v>22.53</v>
       </c>
       <c r="E7">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="F7">
         <v>0.03</v>
@@ -1376,10 +1376,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>5.14</v>
+        <v>5.06</v>
       </c>
       <c r="L7">
-        <v>3.05</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1393,7 +1393,7 @@
         <v>1.82</v>
       </c>
       <c r="D8">
-        <v>20.93</v>
+        <v>20.95</v>
       </c>
       <c r="E8">
         <v>0.12</v>
@@ -1414,10 +1414,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>4.61</v>
+        <v>4.59</v>
       </c>
       <c r="L8">
-        <v>2.79</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1428,10 +1428,10 @@
         <v>62</v>
       </c>
       <c r="C9">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="D9">
-        <v>14.84</v>
+        <v>14.58</v>
       </c>
       <c r="E9">
         <v>0.08</v>
@@ -1452,10 +1452,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3.29</v>
+        <v>3.22</v>
       </c>
       <c r="L9">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1466,22 +1466,22 @@
         <v>63</v>
       </c>
       <c r="C10">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="D10">
-        <v>9.609999999999999</v>
+        <v>9.73</v>
       </c>
       <c r="E10">
         <v>0.06</v>
       </c>
       <c r="F10">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G10">
         <v>0.2</v>
       </c>
       <c r="H10">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="I10">
         <v>0.01</v>
@@ -1490,10 +1490,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.27</v>
+        <v>2.29</v>
       </c>
       <c r="L10">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1504,10 +1504,10 @@
         <v>64</v>
       </c>
       <c r="C11">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="D11">
-        <v>4.33</v>
+        <v>4.45</v>
       </c>
       <c r="E11">
         <v>0.03</v>
@@ -1519,19 +1519,19 @@
         <v>0.9</v>
       </c>
       <c r="H11">
-        <v>4.21</v>
+        <v>4.36</v>
       </c>
       <c r="I11">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="L11">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1542,10 +1542,10 @@
         <v>65</v>
       </c>
       <c r="C12">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="D12">
-        <v>4.31</v>
+        <v>4.51</v>
       </c>
       <c r="E12">
         <v>0.02</v>
@@ -1557,19 +1557,19 @@
         <v>0.5</v>
       </c>
       <c r="H12">
-        <v>2.27</v>
+        <v>2.36</v>
       </c>
       <c r="I12">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="L12">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1583,7 +1583,7 @@
         <v>0.26</v>
       </c>
       <c r="D13">
-        <v>2.91</v>
+        <v>2.79</v>
       </c>
       <c r="E13">
         <v>0.02</v>
@@ -1604,10 +1604,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="L13">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1618,10 +1618,10 @@
         <v>67</v>
       </c>
       <c r="C14">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="D14">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="E14">
         <v>0.01</v>
@@ -1633,7 +1633,7 @@
         <v>0.2</v>
       </c>
       <c r="H14">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="I14">
         <v>0.01</v>
@@ -1659,10 +1659,10 @@
         <v>0.08</v>
       </c>
       <c r="D15">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="E15">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1671,7 +1671,7 @@
         <v>0.1</v>
       </c>
       <c r="H15">
-        <v>0.64</v>
+        <v>0.72</v>
       </c>
       <c r="I15">
         <v>0.01</v>
@@ -1683,7 +1683,7 @@
         <v>0.3</v>
       </c>
       <c r="L15">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1709,7 +1709,7 @@
         <v>0.2</v>
       </c>
       <c r="H16">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="I16">
         <v>0.01</v>
@@ -1718,10 +1718,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="L16">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1888,22 +1888,22 @@
         <v>2.04</v>
       </c>
       <c r="D2">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="E2">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F2">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="G2">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="H2">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="I2">
-        <v>6.81</v>
+        <v>6.76</v>
       </c>
     </row>
   </sheetData>
@@ -1950,16 +1950,16 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="C2">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="E2">
-        <v>257.88</v>
+        <v>257.01</v>
       </c>
       <c r="F2">
         <v>1.57</v>
@@ -1968,7 +1968,7 @@
         <v>0.34</v>
       </c>
       <c r="H2">
-        <v>104.06</v>
+        <v>105.08</v>
       </c>
       <c r="I2">
         <v>0.84</v>
@@ -2091,13 +2091,13 @@
         <v>96</v>
       </c>
       <c r="C2">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="E2">
-        <v>257.87</v>
+        <v>257</v>
       </c>
       <c r="F2">
         <v>1.57</v>
@@ -2109,19 +2109,19 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I2">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="J2">
-        <v>5.44</v>
+        <v>5.52</v>
       </c>
       <c r="K2">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="L2">
         <v>0.06</v>
       </c>
       <c r="M2">
-        <v>16.77</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2221,16 +2221,16 @@
         <v>98</v>
       </c>
       <c r="C2">
-        <v>7.72</v>
+        <v>7.71</v>
       </c>
       <c r="D2">
-        <v>85.28</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="E2">
         <v>0.53</v>
       </c>
       <c r="F2">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2245,10 +2245,10 @@
         <v>0.02</v>
       </c>
       <c r="K2">
-        <v>19.17</v>
+        <v>19.2</v>
       </c>
       <c r="L2">
-        <v>11.46</v>
+        <v>11.49</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2259,22 +2259,22 @@
         <v>99</v>
       </c>
       <c r="C3">
-        <v>3.54</v>
+        <v>3.52</v>
       </c>
       <c r="D3">
-        <v>37.44</v>
+        <v>37.32</v>
       </c>
       <c r="E3">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="F3">
         <v>0.28</v>
       </c>
       <c r="G3">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="H3">
-        <v>48.77</v>
+        <v>49.1</v>
       </c>
       <c r="I3">
         <v>0.38</v>
@@ -2283,10 +2283,10 @@
         <v>0.01</v>
       </c>
       <c r="K3">
-        <v>15.31</v>
+        <v>15.22</v>
       </c>
       <c r="L3">
-        <v>11.77</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2297,10 +2297,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="D4">
-        <v>16.42</v>
+        <v>16.59</v>
       </c>
       <c r="E4">
         <v>0.1</v>
@@ -2312,7 +2312,7 @@
         <v>10.6</v>
       </c>
       <c r="H4">
-        <v>44.22</v>
+        <v>44.53</v>
       </c>
       <c r="I4">
         <v>0.36</v>
@@ -2321,10 +2321,10 @@
         <v>0.01</v>
       </c>
       <c r="K4">
-        <v>9.949999999999999</v>
+        <v>10</v>
       </c>
       <c r="L4">
-        <v>8.41</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2335,34 +2335,34 @@
         <v>101</v>
       </c>
       <c r="C5">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="D5">
-        <v>31.09</v>
+        <v>30.65</v>
       </c>
       <c r="E5">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="F5">
         <v>0.05</v>
       </c>
       <c r="G5">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H5">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J5">
         <v>0.01</v>
       </c>
       <c r="K5">
-        <v>7.09</v>
+        <v>6.99</v>
       </c>
       <c r="L5">
-        <v>4.23</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2376,7 +2376,7 @@
         <v>2.26</v>
       </c>
       <c r="D6">
-        <v>24.59</v>
+        <v>24.44</v>
       </c>
       <c r="E6">
         <v>0.15</v>
@@ -2397,10 +2397,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>5.53</v>
+        <v>5.55</v>
       </c>
       <c r="L6">
-        <v>3.27</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2411,10 +2411,10 @@
         <v>103</v>
       </c>
       <c r="C7">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="D7">
-        <v>19.38</v>
+        <v>19.18</v>
       </c>
       <c r="E7">
         <v>0.12</v>
@@ -2435,10 +2435,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4.16</v>
+        <v>4.14</v>
       </c>
       <c r="L7">
-        <v>2.61</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2449,13 +2449,13 @@
         <v>104</v>
       </c>
       <c r="C8">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>17.06</v>
       </c>
       <c r="E8">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F8">
         <v>0.03</v>
@@ -2473,10 +2473,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.82</v>
+        <v>3.88</v>
       </c>
       <c r="L8">
-        <v>2.24</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2490,7 +2490,7 @@
         <v>1.3</v>
       </c>
       <c r="D9">
-        <v>13.77</v>
+        <v>13.64</v>
       </c>
       <c r="E9">
         <v>0.08</v>
@@ -2502,7 +2502,7 @@
         <v>0.1</v>
       </c>
       <c r="H9">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2525,13 +2525,13 @@
         <v>106</v>
       </c>
       <c r="C10">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="D10">
-        <v>4.85</v>
+        <v>4.7</v>
       </c>
       <c r="E10">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F10">
         <v>0.01</v>
@@ -2549,10 +2549,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="L10">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2566,7 +2566,7 @@
         <v>0.2</v>
       </c>
       <c r="D11">
-        <v>2.02</v>
+        <v>2.09</v>
       </c>
       <c r="E11">
         <v>0.01</v>
@@ -2578,7 +2578,7 @@
         <v>0.6</v>
       </c>
       <c r="H11">
-        <v>2.49</v>
+        <v>2.6</v>
       </c>
       <c r="I11">
         <v>0.02</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="L11">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2604,7 +2604,7 @@
         <v>0.26</v>
       </c>
       <c r="D12">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="E12">
         <v>0.02</v>
@@ -2616,7 +2616,7 @@
         <v>0.1</v>
       </c>
       <c r="H12">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2625,10 +2625,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="L12">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2639,34 +2639,34 @@
         <v>109</v>
       </c>
       <c r="C13">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="D13">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="E13">
         <v>0.01</v>
       </c>
       <c r="F13">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H13">
-        <v>0.57</v>
+        <v>0.64</v>
       </c>
       <c r="I13">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="L13">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2677,22 +2677,22 @@
         <v>110</v>
       </c>
       <c r="C14">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="D14">
-        <v>0.73</v>
+        <v>0.93</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -2704,7 +2704,7 @@
         <v>0.21</v>
       </c>
       <c r="L14">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2715,22 +2715,22 @@
         <v>111</v>
       </c>
       <c r="C15">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="D15">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="E15">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="L15">
         <v>0.13</v>
@@ -2765,13 +2765,13 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H16">
-        <v>0.66</v>
+        <v>0.6</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -2912,19 +2912,19 @@
         <v>2.26</v>
       </c>
       <c r="E2">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="F2">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="G2">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="H2">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="I2">
-        <v>6.99</v>
+        <v>7.07</v>
       </c>
     </row>
   </sheetData>
